--- a/Covid_19_Dataset_and_References/References/26.xlsx
+++ b/Covid_19_Dataset_and_References/References/26.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="103">
   <si>
     <t xml:space="preserve">Doi </t>
   </si>
@@ -452,6 +452,18 @@
   </si>
   <si>
     <t>2020-07-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In a randomized clinical trial of 86 hospitalized COVID-19 patients comparing standard care to treatment with 300mL convalescent plasma containing high titers of neutralizing SARS-CoV-2 antibodies, no overall clinical benefit was observed.
+ Using a comprehensive translational approach, we unravel the virological and immunological responses following treatment to disentangle which COVID-19 patients may benefit and should be the focus of future studies.
+ Convalescent plasma is safe, does not improve survival, has no effect on the disease course, nor does plasma enhance viral clearance in the respiratory tract, influence SARS-CoV-2 antibody development or serum proinflammatory cytokines levels.
+ Here, we show that the vast majority of patients already had potent neutralizing SARS-CoV-2 antibodies at hospital admission and with comparable titers to carefully selected plasma donors.
+ This resulted in the decision to terminate the trial prematurely.
+ Treatment with convalescent plasma should be studied early in the disease course or at least preceding autologous humoral response development.
+</t>
+  </si>
+  <si>
+    <t>[Arvind%Gharbharan%NULL%1,  Carlijn C. E.%Jordans%NULL%1,  Corine%GeurtsvanKessel%NULL%1,  Jan G.%den Hollander%NULL%2,  Jan G.%den Hollander%NULL%0,  Faiz%Karim%NULL%1,  Femke P. N.%Mollema%NULL%1,  Janneke E.%Stalenhoef – Schukken%NULL%1,  Anthonius%Dofferhoff%NULL%2,  Anthonius%Dofferhoff%NULL%0,  Inge%Ludwig%NULL%1,  Adrianus%Koster%NULL%1,  Robert-Jan%Hassing%NULL%1,  Jeannet C.%Bos%NULL%1,  Geert R.%van Pottelberge%NULL%1,  Imro N.%Vlasveld%NULL%1,  Heidi S. M.%Ammerlaan%NULL%1,  Elena M.%van Leeuwen – Segarceanu%NULL%1,  Jelle%Miedema%NULL%1,  Menno%van der Eerden%NULL%1,  Thijs J.%Schrama%NULL%1,  Grigorios%Papageorgiou%NULL%2,  Grigorios%Papageorgiou%NULL%0,  Peter%te Boekhorst%NULL%1,  Francis H.%Swaneveld%NULL%1,  Yvonne M.%Mueller%NULL%1,  Marco W. J.%Schreurs%NULL%2,  Marco W. J.%Schreurs%NULL%0,  Jeroen J. A.%van Kampen%NULL%1,  Barry%Rockx%NULL%1,  Nisreen M. A.%Okba%NULL%2,  Nisreen M. A.%Okba%NULL%0,  Peter D.%Katsikis%NULL%2,  Peter D.%Katsikis%NULL%0,  Marion P. G.%Koopmans%NULL%2,  Marion P. G.%Koopmans%NULL%0,  Bart L.%Haagmans%NULL%2,  Bart L.%Haagmans%NULL%0,  Casper%Rokx%c.rokx@erasmusmc.nl%2,  Casper%Rokx%c.rokx@erasmusmc.nl%0,  Bart J. A.%Rijnders%NULL%2,  Bart J. A.%Rijnders%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -927,10 +939,10 @@
         <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>

--- a/Covid_19_Dataset_and_References/References/26.xlsx
+++ b/Covid_19_Dataset_and_References/References/26.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="101">
   <si>
     <t xml:space="preserve">Doi </t>
   </si>
@@ -452,18 +452,6 @@
   </si>
   <si>
     <t>2020-07-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In a randomized clinical trial of 86 hospitalized COVID-19 patients comparing standard care to treatment with 300mL convalescent plasma containing high titers of neutralizing SARS-CoV-2 antibodies, no overall clinical benefit was observed.
- Using a comprehensive translational approach, we unravel the virological and immunological responses following treatment to disentangle which COVID-19 patients may benefit and should be the focus of future studies.
- Convalescent plasma is safe, does not improve survival, has no effect on the disease course, nor does plasma enhance viral clearance in the respiratory tract, influence SARS-CoV-2 antibody development or serum proinflammatory cytokines levels.
- Here, we show that the vast majority of patients already had potent neutralizing SARS-CoV-2 antibodies at hospital admission and with comparable titers to carefully selected plasma donors.
- This resulted in the decision to terminate the trial prematurely.
- Treatment with convalescent plasma should be studied early in the disease course or at least preceding autologous humoral response development.
-</t>
-  </si>
-  <si>
-    <t>[Arvind%Gharbharan%NULL%1,  Carlijn C. E.%Jordans%NULL%1,  Corine%GeurtsvanKessel%NULL%1,  Jan G.%den Hollander%NULL%2,  Jan G.%den Hollander%NULL%0,  Faiz%Karim%NULL%1,  Femke P. N.%Mollema%NULL%1,  Janneke E.%Stalenhoef – Schukken%NULL%1,  Anthonius%Dofferhoff%NULL%2,  Anthonius%Dofferhoff%NULL%0,  Inge%Ludwig%NULL%1,  Adrianus%Koster%NULL%1,  Robert-Jan%Hassing%NULL%1,  Jeannet C.%Bos%NULL%1,  Geert R.%van Pottelberge%NULL%1,  Imro N.%Vlasveld%NULL%1,  Heidi S. M.%Ammerlaan%NULL%1,  Elena M.%van Leeuwen – Segarceanu%NULL%1,  Jelle%Miedema%NULL%1,  Menno%van der Eerden%NULL%1,  Thijs J.%Schrama%NULL%1,  Grigorios%Papageorgiou%NULL%2,  Grigorios%Papageorgiou%NULL%0,  Peter%te Boekhorst%NULL%1,  Francis H.%Swaneveld%NULL%1,  Yvonne M.%Mueller%NULL%1,  Marco W. J.%Schreurs%NULL%2,  Marco W. J.%Schreurs%NULL%0,  Jeroen J. A.%van Kampen%NULL%1,  Barry%Rockx%NULL%1,  Nisreen M. A.%Okba%NULL%2,  Nisreen M. A.%Okba%NULL%0,  Peter D.%Katsikis%NULL%2,  Peter D.%Katsikis%NULL%0,  Marion P. G.%Koopmans%NULL%2,  Marion P. G.%Koopmans%NULL%0,  Bart L.%Haagmans%NULL%2,  Bart L.%Haagmans%NULL%0,  Casper%Rokx%c.rokx@erasmusmc.nl%2,  Casper%Rokx%c.rokx@erasmusmc.nl%0,  Bart J. A.%Rijnders%NULL%2,  Bart J. A.%Rijnders%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -939,10 +927,10 @@
         <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>

--- a/Covid_19_Dataset_and_References/References/26.xlsx
+++ b/Covid_19_Dataset_and_References/References/26.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="119">
   <si>
     <t xml:space="preserve">Doi </t>
   </si>
@@ -452,6 +452,60 @@
   </si>
   <si>
     <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[John H%Beigel%jbeigel@niaid.nih.gov%1,  Pablo%Tebas%NULL%4,  Marie-Carmelle%Elie-Turenne%NULL%4,  Ednan%Bajwa%NULL%2,  Todd E%Bell%NULL%2,  Charles B%Cairns%NULL%2,  Shmuel%Shoham%NULL%3,  Jaime G%Deville%NULL%2,  Eric%Feucht%NULL%2,  Judith%Feinberg%NULL%2,  Thomas%Luke%NULL%1,  Kanakatte%Raviprakash%NULL%3,  Janine%Danko%NULL%2,  Dorothy%O'Neil%NULL%1,  Julia A%Metcalf%NULL%1,  Karen%King%NULL%1,  Timothy H%Burgess%NULL%1,  Evgenia%Aga%NULL%3,  H Clifford%Lane%NULL%2,  Michael D%Hughes%NULL%3,  Richard T%Davey%NULL%3,  Pablo%Tebas%NULL%0,  Joseph%Quinn%NULL%1,  Yan%Jiang%NULL%1,  Marie-Carmelle%Elie-Turenne%NULL%0,  Robyn%Hoelle%NULL%1,  Nicole%Iovine%NULL%1,  Robert Shawn%Wills%NULL%1,  Socorro%Pata%NULL%1,  Monique%Huggins%NULL%1,  Belinda%Manukian%NULL%1,  Ednan%Bajwa%NULL%0,  Carrie%Holland%NULL%1,  Kelsey%Brait%NULL%1,  Taylor%Hunt%NULL%1,  Christopher%Stowell%NULL%1,  Amy%Slater%NULL%1,  Todd E%Bell%NULL%0,  Mary%Townsends%NULL%1,  Charles B%Cairns%NULL%0,  Eugenia B%Quackenbush%NULL%1,  Yara A%Park%NULL%1,  Paul Gaither%Jordan%NULL%1,  Cherie%Blanchet%NULL%1,  Kevin%Chronowski%NULL%1,  Kathleen%Alvarez%NULL%1,  Shmuel%Shoham%NULL%0,  Darin%Ostrander%NULL%1,  Terry%Woessner%NULL%1,  Sandra%Thoman%NULL%1,  Jaime G%Deville%NULL%0,  James%Lin%NULL%1,  Alyssa%Ziman%NULL%1,  Kavita%Shankar%NULL%1,  Eric%Feucht%NULL%0,  Tom%Blok%NULL%1,  Don%Batts%NULL%1,  Bob%Beck%NULL%1,  Gail%Massey%NULL%1,  Carol%Bradley%NULL%1,  Judith%Feinberg%NULL%0,  Patricia%Carey%NULL%1,  Jenifer%Baer%NULL%1,  Eva Moore%Whitehead%NULL%1,  Sharon%Kohrs%NULL%1,  Robert%Giulitto%NULL%1,  Christina%Schofield%NULL%2,  Mary%Fairchok%NULL%1,  Susan%Chambers%NULL%1,  Cindy%Baker%NULL%1,  NULL%RN%NULL%1,  Michelle%Parker%NULL%1,  Marta%Harshbarger%NULL%1,  M Hong%Nguyen%NULL%1,  Mary Ellen%Carey%NULL%1,  Julie%Paronish%NULL%1,  Frank%Cornell%NULL%1,  Jim%Cramer%NULL%1,  Diana Lynn%Pakstis%NULL%1,  Michael G%Ison%NULL%1,  Richard%Wunderink%NULL%1,  Marshall%Glesby%NULL%1,  Kirsis%Ham%NULL%1,  Valery%Hughes%NULL%1,  Melissa%Cushing%NULL%1,  Cheryl%Goss%NULL%1,  Joanne%Grenade%NULL%1,  Pauline K%Park%NULL%1,  Lena M%Napolitano%NULL%1,  Krishnan%Raghavendran%NULL%1,  Robert C%Hyzy%NULL%1,  Robertson%Davenport%NULL%1,  Kristin%Brierley%NULL%1,  Theresa%Downs%NULL%1,  Michelle Ng%Gong%NULL%1,  Joan%Uehlinger%NULL%1,  Michael%Lin%NULL%2,  Janice%Fritsche%NULL%1,  Tondria%Green%NULL%1,  Bruce%McLeod%NULL%1,  Deena%Patel%NULL%1,  Mary F%Bavaro%NULL%1,  Robert%Deiss%NULL%1,  Carolyn%Brandt%NULL%1,  Stephanie%Cammarata%NULL%1,  Allan%Kremp%NULL%1,  Karine%Hollis-Perry%NULL%1,  Tahaniyat%Lalani%NULL%1,  Susan%Banks%NULL%1,  Jacqueline%Johnson%NULL%1,  Jason%Maguire%NULL%1,  Janet%McNiff%NULL%1,  Leslie E%Rigg%NULL%1,  Anuradha%Ganesan%NULL%1,  Irma%Barahona%NULL%1,  Janine%Danko%NULL%0,  Steven%Spencer%NULL%1,  David%Stagliano%NULL%1,  Timothy%Burgess%NULL%1,  Daniel%Talmor%NULL%1,  Monique%Mohammed%NULL%1,  Valerie%Banner-Goodspeed%NULL%1,  Robert%Salata%NULL%1,  Robert%Finberg%NULL%2,  Jennifer%Wang%NULL%1,  Karen%Longtine%NULL%1,  Jaclyn%Longtine%NULL%1,  Mellissa%O'Neil%NULL%1,  Philippe R%Bauer%NULL%1,  Ognjen%Gajic%NULL%1,  Suanne M%Weist%NULL%1,  Jonathan%Sevransky%NULL%1,  Mona%Brown%NULL%1,  John%Roback%NULL%1,  John%Oropello%NULL%1,  Bridget%Twohig%NULL%1,  Jeffrey%Jhang%NULL%1,  Rahgu%Seethala%NULL%1,  Wilbur H%Chen%NULL%1,  Magali%Fontaine%NULL%1,  Kapil%Saharia%NULL%1,  Jennifer%Husson%NULL%1,  Roberta%DeBiasi%NULL%1,  Jurran L%Wilson%NULL%1,  Valli Ree%Criss%NULL%1,  Jocelyn%Voell%NULL%1,  Susan%Leitman%NULL%1,  James Wade%Atkins%NULL%1,  Hemaxi%Patel%NULL%1,  Traci%Paige%NULL%1,  Cathy%Cantilena%NULL%1,  Donald%Siegel%NULL%1,  Faye%DeMuth%NULL%1,  Craig H%Fletcher%NULL%1,  J Peter R%Pelletier%NULL%1,  Hassan%Alnuaimat%NULL%1,  Michelle%Pourde%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[ John H%Beigel%null%3,   Evgenia%Aga%null%2,   Marie-Carmelle%Elie-Turenne%null%2,   Josalyn%Cho%null%2,   Pablo%Tebas%null%2,   Carol L%Clark%null%2,   Jordan P%Metcalf%null%2,   Caroline%Ozment%null%2,   Kanakatte%Raviprakash%null%2,   Joy%Beeler%null%2,   H Preston%Holley%null%1,   Stephanie%Warner%null%2,   Carla%Chorley%null%2,   H Clifford%Lane%null%1,   Michael D%Hughes%null%2,   Richard T%Davey%null%2,   John H%Beigel%null%1,   Evgenia%Aga%null%0,   Marie-Carmelle%Elie-Turenne%null%0,   Josalyn%Cho%null%0,   Pablo%Tebas%null%0,   Carol L%Clark%null%0,   Jordan P%Metcalf%null%0,   Caroline%Ozment%null%0,   Kanakatte%Raviprakash%null%0,   Joy%Beeler%null%0,   H. Preston%Holley%null%1,   Stephanie%Warner%null%0,   Carla%Chorley%null%0,   H. Clifford%Lane%null%1,   Michael D%Hughes%null%0,   Richard T%Davey%null%0,   Michelle%Barron%null%1,   Aveh%Bastani%null%1,   Philippe%Bauer%null%1,   William%Borkowsky%null%1,   Charles%Cairns%null%1,   Jaime%Deville%null%1,   Marie-Carmelle%Elie%null%1,   Carl%Fichtenbaum%null%1,   Robert%Finberg%null%1,   Mamta%Jain%null%1,   David%Kaufman%null%1,   Michael%Lin%null%1,   John%Lin%null%1,   Ryan%Maves%null%1,   Lee%Morrow%null%1,   Minh-Hong%Nguyen%null%1,   Pauline%Park%null%1,   Christopher%Polk%null%1,   Adrienne%Randolph%null%1,   Suchitra%Rao%null%1,   Lewis%Rubinson%null%1,   Christina%Schofield%null%1,   Shmuel%Shoham%null%1,   Erika%Stalets%null%1,   Renee D%Stapleton%null%1,  John H%Beigel%null%0,  Evgenia%Aga%null%0,  Marie-Carmelle%Elie-Turenne%null%0,  Josalyn%Cho%null%2,  Pablo%Tebas%null%0,  Carol L%Clark%null%2,  Jordan P%Metcalf%null%2,  Caroline%Ozment%null%2,  Kanakatte%Raviprakash%null%0,  Joy%Beeler%null%2,  H Preston%Holley%null%1,  Stephanie%Warner%null%2,  Carla%Chorley%null%2,  H Clifford%Lane%null%0,  Michael D%Hughes%null%0,  Richard T%Davey%null%0,  John H%Beigel%null%0,  Evgenia%Aga%null%0,  Marie-Carmelle%Elie-Turenne%null%0,  Josalyn%Cho%null%0,  Pablo%Tebas%null%0,  Carol L%Clark%null%0,  Jordan P%Metcalf%null%0,  Caroline%Ozment%null%0,  Kanakatte%Raviprakash%null%0,  Joy%Beeler%null%0,  H. Preston%Holley%null%1,  Stephanie%Warner%null%0,  Carla%Chorley%null%0,  H. Clifford%Lane%null%1,  Michael D%Hughes%null%0,  Richard T%Davey%null%0,  Michelle%Barron%null%1,  Aveh%Bastani%null%1,  Philippe%Bauer%null%1,  William%Borkowsky%null%1,  Charles%Cairns%null%1,  Jaime%Deville%null%1,  Marie-Carmelle%Elie%null%1,  Carl%Fichtenbaum%null%1,  Robert%Finberg%null%0,  Mamta%Jain%null%1,  David%Kaufman%null%1,  Michael%Lin%null%0,  John%Lin%null%1,  Ryan%Maves%null%1,  Lee%Morrow%null%1,  Minh-Hong%Nguyen%null%1,  Pauline%Park%null%1,  Christopher%Polk%null%1,  Adrienne%Randolph%null%1,  Suchitra%Rao%null%1,  Lewis%Rubinson%null%1,  Christina%Schofield%null%0,  Shmuel%Shoham%null%0,  Erika%Stalets%null%1,  Renee D%Stapleton%null%1]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[ Ivan F.N.%Hung%null%2,   Kelvin K.W.%To%null%1,   Cheuk-Kwong%Lee%null%1,   Kar-Lung%Lee%null%1,   Wing-Wa%Yan%null%1,   Kenny%Chan%null%1,   Wai-Ming%Chan%null%1,   Chun-Wai%Ngai%null%1,   Kin-Ip%Law%null%1,   Fu-Loi%Chow%null%1,   Raymond%Liu%null%1,   Kang-Yiu%Lai%null%1,   Candy C.Y.%Lau%null%1,   Shao-Haei%Liu%null%1,   Kwok-Hung%Chan%null%2,   Che-Kit%Lin%null%1,   Kwok-Yung%Yuen%null%0,  Ivan F.N.%Hung%null%0,  Kelvin K.W.%To%null%1,  Cheuk-Kwong%Lee%null%0,  Kar-Lung%Lee%null%0,  Wing-Wa%Yan%null%1,  Kenny%Chan%null%0,  Wai-Ming%Chan%null%0,  Chun-Wai%Ngai%null%1,  Kin-Ip%Law%null%1,  Fu-Loi%Chow%null%0,  Raymond%Liu%null%0,  Kang-Yiu%Lai%null%0,  Candy C.Y.%Lau%null%1,  Shao-Haei%Liu%null%0,  Kwok-Hung%Chan%null%0,  Che-Kit%Lin%null%0,  Kwok-Yung%Yuen%null%0]</t>
+  </si>
+  <si>
+    <t>[Arvind%Gharbharan%NULL%1,  Carlijn C. E.%Jordans%NULL%1,  Corine%GeurtsvanKessel%NULL%1,  Jan G.%den Hollander%NULL%2,  Jan G.%den Hollander%NULL%0,  Faiz%Karim%NULL%1,  Femke P. N.%Mollema%NULL%1,  Janneke E.%Stalenhoef – Schukken%NULL%1,  Anthonius%Dofferhoff%NULL%2,  Anthonius%Dofferhoff%NULL%0,  Inge%Ludwig%NULL%1,  Adrianus%Koster%NULL%1,  Robert-Jan%Hassing%NULL%1,  Jeannet C.%Bos%NULL%1,  Geert R.%van Pottelberge%NULL%1,  Imro N.%Vlasveld%NULL%1,  Heidi S. M.%Ammerlaan%NULL%1,  Elena M.%van Leeuwen – Segarceanu%NULL%1,  Jelle%Miedema%NULL%1,  Menno%van der Eerden%NULL%1,  Thijs J.%Schrama%NULL%1,  Grigorios%Papageorgiou%NULL%2,  Grigorios%Papageorgiou%NULL%0,  Peter%te Boekhorst%NULL%1,  Francis H.%Swaneveld%NULL%1,  Yvonne M.%Mueller%NULL%1,  Marco W. J.%Schreurs%NULL%2,  Marco W. J.%Schreurs%NULL%0,  Jeroen J. A.%van Kampen%NULL%1,  Barry%Rockx%NULL%1,  Nisreen M. A.%Okba%NULL%2,  Nisreen M. A.%Okba%NULL%0,  Peter D.%Katsikis%NULL%2,  Peter D.%Katsikis%NULL%0,  Marion P. G.%Koopmans%NULL%2,  Marion P. G.%Koopmans%NULL%0,  Bart L.%Haagmans%NULL%2,  Bart L.%Haagmans%NULL%0,  Casper%Rokx%c.rokx@erasmusmc.nl%2,  Casper%Rokx%c.rokx@erasmusmc.nl%0,  Bart J. A.%Rijnders%NULL%2,  Bart J. A.%Rijnders%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Anup%Agarwal%NULL%1,  Aparna%Mukherjee%NULL%2,  Gunjan%Kumar%NULL%3,  Gunjan%Kumar%NULL%0,  Pranab%Chatterjee%NULL%2,  Tarun%Bhatnagar%NULL%2,  Pankaj%Malhotra%NULL%2,  NULL%NULL%NULL%0,  NULL%NULL%NULL%0,  Anup%Agarwal%NULL%1,  Aparna%Mukherjee%NULL%0,  Gunjan%Kumar%NULL%0,  Pranab%Chatterjee%NULL%0,  Tarun%Bhatnagar%NULL%0,  Pankaj%Malhotra%NULL%0,  B%Latha%NULL%1,  Sunita%Bundas%NULL%1,  Vivek%Kumar%NULL%2,  Ravi%Dosi%NULL%1,  Janak Kumar%Khambholja%NULL%1,  Rosemarie%de Souza%NULL%1,  Raja Rao%Mesipogu%NULL%1,  Saurabh%Srivastava%NULL%1,  Simmi%Dube%NULL%1,  Kiran%Chaudhary%NULL%1,  S%Subash%NULL%1,  S%Anbuselvi%NULL%1,  V%Rajendran%NULL%1,  A%Sundararajaperumal%NULL%1,  P%Balamanikandan%NULL%1,  R S Uma%Maheswari%NULL%1,  R%Jayanthi%NULL%1,  S%Ragunanthanan%NULL%1,  Sudhir%Bhandari%NULL%1,  Ajeet%Singh%NULL%1,  Ashok%Pal%NULL%1,  Anjali%Handa%NULL%1,  Govind%Rankawat%NULL%1,  Ketan%Kargirwar%NULL%1,  Joyce%Regi%NULL%1,  Darshana%Rathod%NULL%1,  Edwin%Pathrose%NULL%1,  Nirankar%Bhutaka%NULL%1,  Mayur H%Patel%NULL%1,  Rahul J%Verma%NULL%1,  Kamal%Malukani%NULL%1,  Shivani%Patel%NULL%1,  Apurv%Thakur%NULL%1,  Satish%Joshi%NULL%1,  Rashmi%Kulkarni%NULL%1,  Nilay N%Suthar%NULL%1,  Nehal M%Shah%NULL%1,  Hemang M%Purohit%NULL%1,  Cherry K%Shah%NULL%1,  Monila N%Patel%NULL%1,  Saket%Shah%NULL%1,  Smit T%Shah%NULL%1,  Tehsim%Memon%NULL%1,  Vishal R%Beriwala%NULL%1,  Kusum%Jashnani%NULL%1,  Fatema%Ezzy%NULL%1,  Simran%Agrawal%NULL%1,  Rakesh%Bhadade%NULL%1,  MN%Atish%NULL%1,  Tushar%Madke%NULL%1,  Vikas%Kavishwar%NULL%1,  Ramesh%Waghmare%NULL%1,  Nitin%Valvi%NULL%1,  B Thrilok%Chander%NULL%1,  A Vinaya%Sekhar%NULL%1,  Akhilesh Kumar%Maurya%NULL%1,  K%Hemanth%NULL%1,  K%Nagamani%NULL%1,  K%Sudha%NULL%1,  T Ravi%Chandra%NULL%1,  K Tushara%Rao%NULL%1,  J%Vyshnavi%NULL%1,  Rashmi%Upadhyay%NULL%1,  Shalini%Bahadur%NULL%1,  Rambha%Pathak%NULL%1,  Shikha%Seth%NULL%1,  Rakesh%Gupta%NULL%1,  Rita%Saxena%NULL%1,  Preksha%Dwivedi%NULL%1,  Reeni%Malik%NULL%1,  Deepti%Chourasia%NULL%1,  Jaya%Lalwani%NULL%1,  UM%Sharma%NULL%1,  JL%Marko%NULL%1,  Amit%Suri%NULL%1,  Vijay%Kumar%NULL%1,  Rajnish%Kaushik%NULL%1,  Parul%Kodan%NULL%1,  Bhabani Prasad%Acharya%NULL%1,  Kuldeep Kumar%Gaur%NULL%1,  Anubhav%Gupta%NULL%1,  Prerna%Sachdeva%NULL%1,  Shruti%Dogra%NULL%1,  Aikaj%Jindal%NULL%1,  M Joseph%John%NULL%1,  Avtar Singh%Dhanju%NULL%1,  Ranjana%Khetrepal%NULL%1,  Neeraj%Sharma%NULL%1,  Neetu%Kukar%NULL%1,  Divya%Kavita%NULL%1,  Rajesh%Kumar%NULL%1,  Rajesh%Mahajan%NULL%1,  Gurpreet%Singh%NULL%1,  Jaspreet%Kaur%NULL%1,  Raminder Pal%Singh%NULL%1,  Rajni%Bassi%NULL%1,  Swapneil%Parikh%NULL%1,  Om%Shrivastav%NULL%1,  Jayanthi%Shastri%NULL%1,  Maherra%Desai%NULL%1,  Shreevatsa%Udupa%NULL%1,  Varun A%Bafna%NULL%1,  Vijay%Barge%NULL%1,  Rajendra%Madane%NULL%1,  Sheetal%Yadav%NULL%1,  Sanjeev%Misra%NULL%1,  Archana%Bajpayee%NULL%1,  M K%Garg%NULL%1,  G K%Bohra%NULL%1,  Vijaylakshmi%Nag%NULL%1,  Puneeth Babu%Anne%NULL%1,  Mohd%Nadeem%NULL%1,  Pallavi%Singh%NULL%1,  Ram%Niwas%NULL%1,  Niranjan Shiwaji%Khaire%NULL%1,  Rattiram%Sharma%NULL%1,  Mini P%Singh%NULL%1,  Naresh%Sachdeva%NULL%1,  Suchet%Sachdev%NULL%1,  Rekha%Hans%NULL%1,  Vikas%Suri%NULL%1,  LN%Yaddanapudi%NULL%1,  PVM%Lakshmi%NULL%1,  Neha%Singh%NULL%1,  Divendu%Bhushan%NULL%1,  Neeraj%Kumar%NULL%1,  Muralidhar%Tambe%NULL%1,  Sonali%Salvi%NULL%1,  Nalini%Kadgi%NULL%1,  Shashikala%Sangle%NULL%1,  Leena%Nakate%NULL%1,  Samir%Joshi%NULL%1,  Rajesh%Karyakarte%NULL%1,  Suraj%Goyanka%NULL%1,  Nimisha%Sharma%NULL%1,  Nikhil%Verma%NULL%1,  Asim%Das%NULL%1,  Monika%Bahl%NULL%1,  Nitya%Wadhwa%NULL%1,  Shreepad%Bhat%NULL%1,  Shweta%Deshmukh%NULL%1,  Vrushali%Wagh%NULL%1,  Atul%Kulkarni%NULL%1,  Tanvi%Yardi%NULL%1,  Ram S%Kalgud%NULL%1,  Purushottam%Reddy%NULL%1,  Kavitha%Yevoor%NULL%1,  Prashanth%Gajula%NULL%1,  Vivek%Maleyur%NULL%1,  S%Medini%NULL%1,  HN%Mohith%NULL%1,  Anil%Gurtoo%NULL%1,  Ritika%Sud%NULL%1,  Sangeeta%Pahuja%NULL%1,  Anupam%Prakash%NULL%1,  Parijat%Gogoi%NULL%1,  Shailja%Shukla%NULL%1,  D Himanshu%Reddy%NULL%1,  Tulika%Chandra%NULL%1,  Saurabh%Pandey%NULL%1,  Pradeep%Maurya%NULL%1,  Wahid%Ali%NULL%1,  Vivek%Kumar%NULL%0,  Kamlesh%Upadhyay%NULL%1,  Nidhi%Bhatnagar%NULL%1,  Nilima%Shah%NULL%1,  Mamta%Shah%NULL%1,  Tarak%Patel%NULL%1,  Ram Mohan%Jaiswal%NULL%1,  Ashish%Jain%NULL%1,  Shweta%Sharma%NULL%1,  Puneet%Rijhwani%NULL%1,  Naveen%Gupta%NULL%1,  Tinkal C%Patel%NULL%1,  Mahesh G%Solu%NULL%1,  Jitendra%Patel%NULL%1,  Yash R%Shah%NULL%1,  Mayur%Jarag%NULL%1,  Varsha%Godbole%NULL%1,  Meenakshi%Shah%NULL%1,  Rikin%Raj%NULL%1,  Irfan%Nagori%NULL%1,  Pramod R%Jha%NULL%1,  Arti D%Shah%NULL%1,  Gowtham%Yeeli%NULL%1,  Archit%Jain%NULL%1,  Rooppreet Kaur%Gill%NULL%1,  KV Sreedhar%Babu%NULL%1,  B Suresh%Babu%NULL%1,  Alladi%Mohan%NULL%1,  B%Vengamma%NULL%1,  K Chandra%Sekhar%NULL%1,  Srinivasulu%Damam%NULL%1,  K%Narsimhulu%NULL%1,  C%Aparna%NULL%1,  G%Baleswari%NULL%1,  K Ravindranath%Reddy%NULL%1,  P%Chandrasekhar%NULL%1,  Sunil Jodharam%Panjwani%NULL%1,  Pragnesh H%Shah%NULL%1,  Manish%Barvaliya%NULL%1,  Kairavi%Desai%NULL%1,  Pankaj J%Akholkar%NULL%1,  Milind%Baldi%NULL%1,  Ashok%Yadav%NULL%1,  Manoj%Gupta%NULL%1,  Nitin%Rawat%NULL%1,  Dilip%Chawda%NULL%1,  M%Natarajan%NULL%1,  M%Sintha%NULL%1,  David Pradeep%Kumar%NULL%1,  Fathhur%Rabbani%NULL%1,  Vrushali Khirid%Khadke%NULL%1,  Dattatray%Patki%NULL%1,  Sonali%Marathe%NULL%1,  Clyde%D’Souza%NULL%1,  Vipul%Tadha%NULL%1,  Satyam%Arora%NULL%1,  Devendra Kumar%Gupta%NULL%1,  Seema%Dua%NULL%1,  Nitu%Chauhan%NULL%1,  Ajeet Singh%Chahar%NULL%1,  Joy John%Mammen%NULL%1,  Snehil%Kumar%NULL%1,  Dolly%Daniel%NULL%1,  Ravindraa%Singh%NULL%1,  Venkatesh%Dhat%NULL%1,  Yogesh%Agarwal%NULL%1,  Sohini%Arora%NULL%1,  Ashish%Pathak%NULL%1,  Manju%Purohit%NULL%1,  Ashish%Sharma%NULL%1,  Jayashree%Sharma%NULL%1,  Manisha%Madkaikar%NULL%1,  Kavita%Joshi%NULL%1,  Reetika Malik%Yadav%NULL%1,  Swarupa%Bhagwat%NULL%1,  Niteen D%Karnik%NULL%1,  Yojana A%Gokhale%NULL%1,  Leena%Naik%NULL%1,  Sangita%Margam%NULL%1,  Santasabuj%Das%NULL%1,  Alka%Turuk%NULL%1,  V Saravana%Kumar%NULL%1,  K%Kanagasabai%NULL%1,  R%Sabarinathan%NULL%1,  Gururaj%Deshpande%NULL%1,  Sharda%Sharma%NULL%1,  Rashmi%Gunjikar%NULL%1,  Anita%Shete%NULL%1,  Darpan%Phagiwala%NULL%1,  Chetan%Patil%NULL%1,  Snehal%Shingade%NULL%1,  Kajal%Jarande%NULL%1,  Himanshu%Kaushal%NULL%1,  Pragya%Yadav%NULL%1,  Gajanan%Sapkal%NULL%1,  Priya%Abraham%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Ivan FN%Hung%NULL%1,  Kelvin KW%To%NULL%1,  Cheuk-Kwong%Lee%NULL%2,  Kar-Lung%Lee%NULL%2,  Kenny%Chan%NULL%2,  Wing-Wah%Yan%NULL%1,  Raymond%Liu%NULL%2,  Chi-Leung%Watt%NULL%1,  Wai-Ming%Chan%NULL%2,  Kang-Yiu%Lai%NULL%2,  Chi-Kwan%Koo%NULL%1,  Tom%Buckley%NULL%1,  Fu-Loi%Chow%NULL%2,  Kwan-Keung%Wong%NULL%1,  Hok-Sum%Chan%NULL%1,  Chi-Keung%Ching%NULL%1,  Bone SF%Tang%NULL%1,  Candy CY%Lau%NULL%1,  Iris WS%Li%NULL%1,  Shao-Haei%Liu%NULL%2,  Kwok-Hung%Chan%NULL%3,  Che-Kit%Lin%NULL%2,  Kwok-Yung%Yuen%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Y. O. Y.%Soo%NULL%1,  Y.%Cheng%NULL%1,  R.%Wong%NULL%2,  D. S.%Hui%NULL%1,  C. K.%Lee%NULL%2,  K. K. S.%Tsang%NULL%1,  M. H. L.%Ng%NULL%2,  P.%Chan%NULL%2,  G.%Cheng%NULL%2,  J. J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongjie%Yu%NULL%1,  Zhancheng%Gao%NULL%2,  Zijian%Feng%NULL%2,  Yuelong%Shu%NULL%1,  Nijuan%Xiang%NULL%2,  Lei%Zhou%NULL%2,  Yang%Huai%NULL%1,  Luzhao%Feng%NULL%1,  Zhibin%Peng%NULL%1,  Zhongjie%Li%NULL%1,  Cuiling%Xu%NULL%1,  Junhua%Li%NULL%1,  Chengping%Hu%NULL%1,  Qun%Li%NULL%1,  Xiaoling%Xu%NULL%1,  Xuecheng%Liu%NULL%1,  Zigui%Liu%NULL%1,  Longshan%Xu%NULL%1,  Yusheng%Chen%NULL%1,  Huiming%Luo%NULL%1,  Liping%Wei%NULL%1,  Xianfeng%Zhang%NULL%1,  Jianbao%Xin%NULL%1,  Junqiao%Guo%NULL%1,  Qiuyue%Wang%NULL%1,  Zhengan%Yuan%NULL%1,  Longnv%Zhou%NULL%1,  Kunzhao%Zhang%NULL%1,  Wei%Zhang%NULL%4,  Jinye%Yang%NULL%1,  Xiaoning%Zhong%NULL%1,  Shichang%Xia%NULL%1,  Lanjuan%Li%NULL%1,  Jinquan%Cheng%NULL%1,  Erdang%Ma%NULL%1,  Pingping%He%NULL%1,  Shui Shan%Lee%NULL%1,  Yu%Wang%NULL%2,  Timothy M.%Uyeki%NULL%2,  Weizhong%Yang%NULL%1,  Joel Mark%Montgomery%NULL%0,  Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y.%Cheng%NULL%1,  R.%Wong%NULL%0,  Y. O. Y.%Soo%NULL%1,  W. S.%Wong%NULL%1,  C. K.%Lee%NULL%0,  M. H. L.%Ng%NULL%0,  P.%Chan%NULL%0,  K. C.%Wong%NULL%1,  C. B.%Leung%NULL%1,  G.%Cheng%gcheng@cuhk.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Duan%NULL%1,  Bende%Liu%NULL%2,  Bende%Liu%NULL%0,  Cesheng%Li%NULL%1,  Huajun%Zhang%NULL%1,  Ting%Yu%NULL%6,  Ting%Yu%NULL%0,  Jieming%Qu%NULL%3,  Min%Zhou%NULL%4,  Min%Zhou%NULL%0,  Li%Chen%NULL%3,  Li%Chen%NULL%0,  Shengli%Meng%NULL%2,  Shengli%Meng%NULL%0,  Yong%Hu%NULL%1,  Cheng%Peng%NULL%1,  Mingchao%Yuan%NULL%1,  Jinyan%Huang%NULL%1,  Zejun%Wang%NULL%2,  Zejun%Wang%NULL%0,  Jianhong%Yu%NULL%1,  Xiaoxiao%Gao%NULL%1,  Dan%Wang%NULL%1,  Xiaoqi%Yu%NULL%1,  Li%Li%NULL%5,  Li%Li%NULL%0,  Jiayou%Zhang%NULL%2,  Jiayou%Zhang%NULL%0,  Xiao%Wu%NULL%1,  Bei%Li%NULL%1,  Yanping%Xu%NULL%1,  Wei%Chen%NULL%2,  Wei%Chen%NULL%0,  Yan%Peng%NULL%1,  Yeqin%Hu%NULL%1,  Lianzhen%Lin%NULL%1,  Xuefei%Liu%NULL%1,  Shihe%Huang%NULL%1,  Zhijun%Zhou%NULL%1,  Lianghao%Zhang%NULL%1,  Yue%Wang%NULL%1,  Zhi%Zhang%NULL%1,  Kun%Deng%NULL%1,  Zhiwu%Xia%NULL%1,  Qin%Gong%NULL%1,  Wei%Zhang%NULL%0,  Xiaobei%Zheng%NULL%1,  Ying%Liu%NULL%4,  Huichuan%Yang%NULL%1,  Dongbo%Zhou%NULL%1,  Ding%Yu%NULL%1,  Jifeng%Hou%NULL%1,  Zhengli%Shi%NULL%1,  Saijuan%Chen%NULL%1,  Zhu%Chen%NULL%1,  Xinxin%Zhang%NULL%3,  Xiaoming%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[F.%Sahr%NULL%1,  R.%Ansumana%rashidansumana@gmail.com%1,  T.A.%Massaquoi%NULL%1,  B.R.%Idriss%NULL%1,  F.R.%Sesay%NULL%1,  J.M.%Lamin%NULL%1,  S.%Baker%NULL%1,  S.%Nicol%NULL%1,  B.%Conton%NULL%1,  W.%Johnson%NULL%1,  O.T.%Abiri%NULL%1,  O.%Kargbo%NULL%1,  P.%Kamara%NULL%1,  A.%Goba%NULL%1,  J.B.W.%Russell%NULL%1,  S.M.%Gevao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qing-Lei%Zeng%zengqinglei2009@163.com%1,  Zu-Jiang%Yu%NULL%1,  Jian-Jun%Gou%NULL%1,  Guang-Ming%Li%NULL%1,  Shu-Huan%Ma%NULL%1,  Guo-Fan%Zhang%NULL%1,  Jiang-Hai%Xu%NULL%1,  Wan-Bao%Lin%NULL%1,  Guang-Lin%Cui%NULL%1,  Min-Min%Zhang%NULL%1,  Cheng%Li%NULL%1,  Ze-Shuai%Wang%NULL%1,  Zhi-Hao%Zhang%NULL%1,  Zhang-Suo%Liu%zengqinglei2009@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hassan%Abolghasemi%NULL%1,  Peyman%Eshghi%NULL%1,  Abdol Majid%Cheraghali%NULL%1,  Abbas Ali%Imani Fooladi%NULL%1,  Farzaneh%Bolouki Moghaddam%NULL%1,  Sina%Imanizadeh%NULL%1,  Matin%Moeini Maleki%NULL%1,  Mohammad%Ranjkesh%NULL%1,  Mohammad%Rezapour%NULL%1,  Ali%Bahramifar%NULL%1,  Behzad%Einollahi%NULL%1,  Mohammad Javad%Hosseini%NULL%1,  Nematollah Joneidi%Jafari%NULL%1,  Mohamad%Nikpouraghdam%NULL%1,  Nariman%Sadri%NULL%1,  Mokhtar%Tazik%NULL%1,  Shanaz%Sali%NULL%1,  Shamsi%Okati%NULL%1,  Elham%Askari%NULL%1,  Payam%Tabarsi%NULL%1,  Jafar%Aslani%NULL%1,  Ehsan%Sharifipour%NULL%1,  Mohammad Hossein%Jarahzadeh%NULL%1,  Nastaran%Khodakarim%NULL%1,  Mahmood%Salesi%NULL%1,  Ramezan%Jafari%NULL%1,  Samira%Shahverdi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -811,6 +865,9 @@
       <c r="H1" t="s">
         <v>37</v>
       </c>
+      <c r="I1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -826,7 +883,7 @@
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="F2" t="s">
         <v>41</v>
@@ -836,6 +893,9 @@
       </c>
       <c r="H2" t="s">
         <v>43</v>
+      </c>
+      <c r="I2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="3">
@@ -852,7 +912,7 @@
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="F3" t="s">
         <v>47</v>
@@ -862,6 +922,9 @@
       </c>
       <c r="H3" t="s">
         <v>49</v>
+      </c>
+      <c r="I3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="4">
@@ -889,6 +952,9 @@
       <c r="H4" t="s">
         <v>43</v>
       </c>
+      <c r="I4" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -904,7 +970,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -914,6 +980,9 @@
       </c>
       <c r="H5" t="s">
         <v>54</v>
+      </c>
+      <c r="I5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6">
@@ -930,7 +999,7 @@
         <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -940,6 +1009,9 @@
       </c>
       <c r="H6" t="s">
         <v>59</v>
+      </c>
+      <c r="I6" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="7">
@@ -967,6 +1039,9 @@
       <c r="H7" t="s">
         <v>43</v>
       </c>
+      <c r="I7" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
@@ -993,6 +1068,9 @@
       <c r="H8" t="s">
         <v>43</v>
       </c>
+      <c r="I8" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
@@ -1008,7 +1086,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -1018,6 +1096,9 @@
       </c>
       <c r="H9" t="s">
         <v>64</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="10">
@@ -1034,7 +1115,7 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="F10" t="s">
         <v>68</v>
@@ -1044,6 +1125,9 @@
       </c>
       <c r="H10" t="s">
         <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="11">
@@ -1060,7 +1144,7 @@
         <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="F11" t="s">
         <v>73</v>
@@ -1070,6 +1154,9 @@
       </c>
       <c r="H11" t="s">
         <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="12">
@@ -1097,6 +1184,9 @@
       <c r="H12" t="s">
         <v>43</v>
       </c>
+      <c r="I12" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
@@ -1123,6 +1213,9 @@
       <c r="H13" t="s">
         <v>43</v>
       </c>
+      <c r="I13" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
@@ -1138,7 +1231,7 @@
         <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="F14" t="s">
         <v>77</v>
@@ -1148,6 +1241,9 @@
       </c>
       <c r="H14" t="s">
         <v>78</v>
+      </c>
+      <c r="I14" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="15">
@@ -1175,6 +1271,9 @@
       <c r="H15" t="s">
         <v>43</v>
       </c>
+      <c r="I15" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
@@ -1201,6 +1300,9 @@
       <c r="H16" t="s">
         <v>43</v>
       </c>
+      <c r="I16" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
@@ -1227,6 +1329,9 @@
       <c r="H17" t="s">
         <v>43</v>
       </c>
+      <c r="I17" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
@@ -1253,6 +1358,9 @@
       <c r="H18" t="s">
         <v>43</v>
       </c>
+      <c r="I18" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
@@ -1279,6 +1387,9 @@
       <c r="H19" t="s">
         <v>43</v>
       </c>
+      <c r="I19" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -1294,7 +1405,7 @@
         <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="F20" t="s">
         <v>82</v>
@@ -1304,6 +1415,9 @@
       </c>
       <c r="H20" t="s">
         <v>43</v>
+      </c>
+      <c r="I20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="21">
@@ -1331,6 +1445,9 @@
       <c r="H21" t="s">
         <v>43</v>
       </c>
+      <c r="I21" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="13" t="s">
@@ -1346,7 +1463,7 @@
         <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="F22" t="s">
         <v>86</v>
@@ -1356,6 +1473,9 @@
       </c>
       <c r="H22" t="s">
         <v>43</v>
+      </c>
+      <c r="I22" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="23">
@@ -1372,7 +1492,7 @@
         <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="F23" t="s">
         <v>90</v>
@@ -1382,6 +1502,9 @@
       </c>
       <c r="H23" t="s">
         <v>91</v>
+      </c>
+      <c r="I23" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="24">
@@ -1398,7 +1521,7 @@
         <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F24" t="s">
         <v>95</v>
@@ -1408,6 +1531,9 @@
       </c>
       <c r="H24" t="s">
         <v>43</v>
+      </c>
+      <c r="I24" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="25">
@@ -1424,7 +1550,7 @@
         <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="F25" t="s">
         <v>99</v>
@@ -1434,6 +1560,9 @@
       </c>
       <c r="H25" t="s">
         <v>100</v>
+      </c>
+      <c r="I25" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/26.xlsx
+++ b/Covid_19_Dataset_and_References/References/26.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="191">
   <si>
     <t xml:space="preserve">Doi </t>
   </si>
@@ -506,6 +506,238 @@
   </si>
   <si>
     <t>[Hassan%Abolghasemi%NULL%1,  Peyman%Eshghi%NULL%1,  Abdol Majid%Cheraghali%NULL%1,  Abbas Ali%Imani Fooladi%NULL%1,  Farzaneh%Bolouki Moghaddam%NULL%1,  Sina%Imanizadeh%NULL%1,  Matin%Moeini Maleki%NULL%1,  Mohammad%Ranjkesh%NULL%1,  Mohammad%Rezapour%NULL%1,  Ali%Bahramifar%NULL%1,  Behzad%Einollahi%NULL%1,  Mohammad Javad%Hosseini%NULL%1,  Nematollah Joneidi%Jafari%NULL%1,  Mohamad%Nikpouraghdam%NULL%1,  Nariman%Sadri%NULL%1,  Mokhtar%Tazik%NULL%1,  Shanaz%Sali%NULL%1,  Shamsi%Okati%NULL%1,  Elham%Askari%NULL%1,  Payam%Tabarsi%NULL%1,  Jafar%Aslani%NULL%1,  Ehsan%Sharifipour%NULL%1,  Mohammad Hossein%Jarahzadeh%NULL%1,  Nastaran%Khodakarim%NULL%1,  Mahmood%Salesi%NULL%1,  Ramezan%Jafari%NULL%1,  Samira%Shahverdi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[John H%Beigel%jbeigel@niaid.nih.gov%1,   Pablo%Tebas%NULL%4,   Marie-Carmelle%Elie-Turenne%NULL%4,   Ednan%Bajwa%NULL%2,   Todd E%Bell%NULL%2,   Charles B%Cairns%NULL%2,   Shmuel%Shoham%NULL%3,   Jaime G%Deville%NULL%2,   Eric%Feucht%NULL%2,   Judith%Feinberg%NULL%2,   Thomas%Luke%NULL%1,   Kanakatte%Raviprakash%NULL%3,   Janine%Danko%NULL%2,   Dorothy%O'Neil%NULL%1,   Julia A%Metcalf%NULL%1,   Karen%King%NULL%1,   Timothy H%Burgess%NULL%1,   Evgenia%Aga%NULL%3,   H Clifford%Lane%NULL%2,   Michael D%Hughes%NULL%3,   Richard T%Davey%NULL%3,   Pablo%Tebas%NULL%0,   Joseph%Quinn%NULL%1,   Yan%Jiang%NULL%1,   Marie-Carmelle%Elie-Turenne%NULL%0,   Robyn%Hoelle%NULL%1,   Nicole%Iovine%NULL%1,   Robert Shawn%Wills%NULL%1,   Socorro%Pata%NULL%1,   Monique%Huggins%NULL%1,   Belinda%Manukian%NULL%1,   Ednan%Bajwa%NULL%0,   Carrie%Holland%NULL%1,   Kelsey%Brait%NULL%1,   Taylor%Hunt%NULL%1,   Christopher%Stowell%NULL%1,   Amy%Slater%NULL%1,   Todd E%Bell%NULL%0,   Mary%Townsends%NULL%1,   Charles B%Cairns%NULL%0,   Eugenia B%Quackenbush%NULL%1,   Yara A%Park%NULL%1,   Paul Gaither%Jordan%NULL%1,   Cherie%Blanchet%NULL%1,   Kevin%Chronowski%NULL%1,   Kathleen%Alvarez%NULL%1,   Shmuel%Shoham%NULL%0,   Darin%Ostrander%NULL%1,   Terry%Woessner%NULL%1,   Sandra%Thoman%NULL%1,   Jaime G%Deville%NULL%0,   James%Lin%NULL%1,   Alyssa%Ziman%NULL%1,   Kavita%Shankar%NULL%1,   Eric%Feucht%NULL%0,   Tom%Blok%NULL%1,   Don%Batts%NULL%1,   Bob%Beck%NULL%1,   Gail%Massey%NULL%1,   Carol%Bradley%NULL%1,   Judith%Feinberg%NULL%0,   Patricia%Carey%NULL%1,   Jenifer%Baer%NULL%1,   Eva Moore%Whitehead%NULL%1,   Sharon%Kohrs%NULL%1,   Robert%Giulitto%NULL%1,   Christina%Schofield%NULL%2,   Mary%Fairchok%NULL%1,   Susan%Chambers%NULL%1,   Cindy%Baker%NULL%1,   NULL%RN%NULL%1,   Michelle%Parker%NULL%1,   Marta%Harshbarger%NULL%1,   M Hong%Nguyen%NULL%1,   Mary Ellen%Carey%NULL%1,   Julie%Paronish%NULL%1,   Frank%Cornell%NULL%1,   Jim%Cramer%NULL%1,   Diana Lynn%Pakstis%NULL%1,   Michael G%Ison%NULL%1,   Richard%Wunderink%NULL%1,   Marshall%Glesby%NULL%1,   Kirsis%Ham%NULL%1,   Valery%Hughes%NULL%1,   Melissa%Cushing%NULL%0,   Cheryl%Goss%NULL%1,   Joanne%Grenade%NULL%1,   Pauline K%Park%NULL%1,   Lena M%Napolitano%NULL%1,   Krishnan%Raghavendran%NULL%1,   Robert C%Hyzy%NULL%1,   Robertson%Davenport%NULL%1,   Kristin%Brierley%NULL%1,   Theresa%Downs%NULL%1,   Michelle Ng%Gong%NULL%1,   Joan%Uehlinger%NULL%1,   Michael%Lin%NULL%2,   Janice%Fritsche%NULL%1,   Tondria%Green%NULL%1,   Bruce%McLeod%NULL%1,   Deena%Patel%NULL%1,   Mary F%Bavaro%NULL%1,   Robert%Deiss%NULL%1,   Carolyn%Brandt%NULL%1,   Stephanie%Cammarata%NULL%1,   Allan%Kremp%NULL%1,   Karine%Hollis-Perry%NULL%1,   Tahaniyat%Lalani%NULL%1,   Susan%Banks%NULL%1,   Jacqueline%Johnson%NULL%1,   Jason%Maguire%NULL%1,   Janet%McNiff%NULL%1,   Leslie E%Rigg%NULL%1,   Anuradha%Ganesan%NULL%1,   Irma%Barahona%NULL%1,   Janine%Danko%NULL%0,   Steven%Spencer%NULL%1,   David%Stagliano%NULL%1,   Timothy%Burgess%NULL%1,   Daniel%Talmor%NULL%1,   Monique%Mohammed%NULL%1,   Valerie%Banner-Goodspeed%NULL%1,   Robert%Salata%NULL%1,   Robert%Finberg%NULL%2,   Jennifer%Wang%NULL%1,   Karen%Longtine%NULL%1,   Jaclyn%Longtine%NULL%1,   Mellissa%O'Neil%NULL%1,   Philippe R%Bauer%NULL%1,   Ognjen%Gajic%NULL%1,   Suanne M%Weist%NULL%1,   Jonathan%Sevransky%NULL%1,   Mona%Brown%NULL%1,   John%Roback%NULL%1,   John%Oropello%NULL%1,   Bridget%Twohig%NULL%1,   Jeffrey%Jhang%NULL%0,   Rahgu%Seethala%NULL%1,   Wilbur H%Chen%NULL%1,   Magali%Fontaine%NULL%1,   Kapil%Saharia%NULL%1,   Jennifer%Husson%NULL%1,   Roberta%DeBiasi%NULL%1,   Jurran L%Wilson%NULL%1,   Valli Ree%Criss%NULL%1,   Jocelyn%Voell%NULL%1,   Susan%Leitman%NULL%1,   James Wade%Atkins%NULL%1,   Hemaxi%Patel%NULL%1,   Traci%Paige%NULL%1,   Cathy%Cantilena%NULL%1,   Donald%Siegel%NULL%1,   Faye%DeMuth%NULL%1,   Craig H%Fletcher%NULL%1,   J Peter R%Pelletier%NULL%1,   Hassan%Alnuaimat%NULL%1,   Michelle%Pourde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ John H%Beigel%null%1,    Evgenia%Aga%null%2,    Marie-Carmelle%Elie-Turenne%null%2,    Josalyn%Cho%null%2,    Pablo%Tebas%null%2,    Carol L%Clark%null%2,    Jordan P%Metcalf%null%2,    Caroline%Ozment%null%2,    Kanakatte%Raviprakash%null%2,    Joy%Beeler%null%2,    H Preston%Holley%null%1,    Stephanie%Warner%null%2,    Carla%Chorley%null%2,    H Clifford%Lane%null%1,    Michael D%Hughes%null%2,    Richard T%Davey%null%2,    John H%Beigel%null%1,    Evgenia%Aga%null%0,    Marie-Carmelle%Elie-Turenne%null%0,    Josalyn%Cho%null%0,    Pablo%Tebas%null%0,    Carol L%Clark%null%0,    Jordan P%Metcalf%null%0,    Caroline%Ozment%null%0,    Kanakatte%Raviprakash%null%0,    Joy%Beeler%null%0,    H. Preston%Holley%null%1,    Stephanie%Warner%null%0,    Carla%Chorley%null%0,    H. Clifford%Lane%null%1,    Michael D%Hughes%null%0,    Richard T%Davey%null%0,    Michelle%Barron%null%1,    Aveh%Bastani%null%1,    Philippe%Bauer%null%1,    William%Borkowsky%null%1,    Charles%Cairns%null%1,    Jaime%Deville%null%1,    Marie-Carmelle%Elie%null%1,    Carl%Fichtenbaum%null%1,    Robert%Finberg%null%1,    Mamta%Jain%null%1,    David%Kaufman%null%1,    Michael%Lin%null%1,    John%Lin%null%1,    Ryan%Maves%null%1,    Lee%Morrow%null%1,    Minh-Hong%Nguyen%null%1,    Pauline%Park%null%1,    Christopher%Polk%null%1,    Adrienne%Randolph%null%1,    Suchitra%Rao%null%1,    Lewis%Rubinson%null%1,    Christina%Schofield%null%1,    Shmuel%Shoham%null%1,    Erika%Stalets%null%1,    Renee D%Stapleton%null%1,   John H%Beigel%null%2,   Evgenia%Aga%null%0,   Marie-Carmelle%Elie-Turenne%null%0,   Josalyn%Cho%null%2,   Pablo%Tebas%null%0,   Carol L%Clark%null%2,   Jordan P%Metcalf%null%2,   Caroline%Ozment%null%2,   Kanakatte%Raviprakash%null%0,   Joy%Beeler%null%2,   H Preston%Holley%null%1,   Stephanie%Warner%null%2,   Carla%Chorley%null%2,   H Clifford%Lane%null%0,   Michael D%Hughes%null%0,   Richard T%Davey%null%0,   John H%Beigel%null%0,   Evgenia%Aga%null%0,   Marie-Carmelle%Elie-Turenne%null%0,   Josalyn%Cho%null%0,   Pablo%Tebas%null%0,   Carol L%Clark%null%0,   Jordan P%Metcalf%null%0,   Caroline%Ozment%null%0,   Kanakatte%Raviprakash%null%0,   Joy%Beeler%null%0,   H. Preston%Holley%null%1,   Stephanie%Warner%null%0,   Carla%Chorley%null%0,   H. Clifford%Lane%null%1,   Michael D%Hughes%null%0,   Richard T%Davey%null%0,   Michelle%Barron%null%1,   Aveh%Bastani%null%1,   Philippe%Bauer%null%1,   William%Borkowsky%null%1,   Charles%Cairns%null%1,   Jaime%Deville%null%1,   Marie-Carmelle%Elie%null%1,   Carl%Fichtenbaum%null%1,   Robert%Finberg%null%0,   Mamta%Jain%null%1,   David%Kaufman%null%1,   Michael%Lin%null%0,   John%Lin%null%1,   Ryan%Maves%null%1,   Lee%Morrow%null%1,   Minh-Hong%Nguyen%null%1,   Pauline%Park%null%1,   Christopher%Polk%null%1,   Adrienne%Randolph%null%1,   Suchitra%Rao%null%1,   Lewis%Rubinson%null%1,   Christina%Schofield%null%0,   Shmuel%Shoham%null%0,   Erika%Stalets%null%1,   Renee D%Stapleton%null%1]</t>
+  </si>
+  <si>
+    <t>Effect of Convalescent Plasma Therapy on Time to Clinical Improvement in Patients With Severe and Life-threatening COVID-19</t>
+  </si>
+  <si>
+    <t>[Caiying%Hu%coreGivesNoEmail%1, Chenyue%Li%coreGivesNoEmail%1, Conghui%Wang%coreGivesNoEmail%1, Cuihua%Tao%coreGivesNoEmail%1, E.%Deng%coreGivesNoEmail%1, Haixia%Xu%coreGivesNoEmail%1, Heng%Mei%coreGivesNoEmail%1, Jianwei%Wang%coreGivesNoEmail%1, Juan%Wang%coreGivesNoEmail%1, Jue%Wang%coreGivesNoEmail%1, Juntao%Yang%coreGivesNoEmail%1, Li%Zeng%coreGivesNoEmail%1, Lifeng%Chen%coreGivesNoEmail%1, Lili%Ren%coreGivesNoEmail%0, Ling%Li%coreGivesNoEmail%1, Linqi%Zhang%coreGivesNoEmail%1, Nian%Xiong%coreGivesNoEmail%1, Ning%Man%coreGivesNoEmail%1, Qing%Wei%coreGivesNoEmail%1, Ru%Yang%coreGivesNoEmail%1, Shangen%Zheng%coreGivesNoEmail%1, Shisheng%Su%coreGivesNoEmail%1, Wei%Zhang%coreGivesNoEmail%0, Xiaoxiong%Wu%coreGivesNoEmail%1, Xuejun%Zhang%coreGivesNoEmail%1, Xunliang%Tong%coreGivesNoEmail%1, Yanyun%Wu%coreGivesNoEmail%1, Yong%Guo%coreGivesNoEmail%1, Yongpei%Yu%coreGivesNoEmail%1, Yu%Hu%coreGivesNoEmail%1, Yu%Liu%coreGivesNoEmail%1, Yujie%Kong%coreGivesNoEmail%1, Zhihua%Xu%coreGivesNoEmail%1, Zhong%Liu%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>[ Ivan F.N.%Hung%null%1,    Kelvin K.W.%To%null%1,    Cheuk-Kwong%Lee%null%1,    Kar-Lung%Lee%null%1,    Wing-Wa%Yan%null%1,    Kenny%Chan%null%1,    Wai-Ming%Chan%null%1,    Chun-Wai%Ngai%null%1,    Kin-Ip%Law%null%1,    Fu-Loi%Chow%null%1,    Raymond%Liu%null%1,    Kang-Yiu%Lai%null%1,    Candy C.Y.%Lau%null%1,    Shao-Haei%Liu%null%1,    Kwok-Hung%Chan%null%0,    Che-Kit%Lin%null%1,    Kwok-Yung%Yuen%null%0,   Ivan F.N.%Hung%null%1,   Kelvin K.W.%To%null%1,   Cheuk-Kwong%Lee%null%2,   Kar-Lung%Lee%null%2,   Wing-Wa%Yan%null%1,   Kenny%Chan%null%2,   Wai-Ming%Chan%null%2,   Chun-Wai%Ngai%null%1,   Kin-Ip%Law%null%1,   Fu-Loi%Chow%null%2,   Raymond%Liu%null%2,   Kang-Yiu%Lai%null%2,   Candy C.Y.%Lau%null%1,   Shao-Haei%Liu%null%2,   Kwok-Hung%Chan%null%3,   Che-Kit%Lin%null%2,   Kwok-Yung%Yuen%null%0]</t>
+  </si>
+  <si>
+    <t>[Arvind%Gharbharan%NULL%1,   Carlijn C. E.%Jordans%NULL%1,   Corine%GeurtsvanKessel%NULL%1,   Jan G.%den Hollander%NULL%2,   Jan G.%den Hollander%NULL%0,   Faiz%Karim%NULL%1,   Femke P. N.%Mollema%NULL%1,   Janneke E.%Stalenhoef – Schukken%NULL%1,   Anthonius%Dofferhoff%NULL%2,   Anthonius%Dofferhoff%NULL%0,   Inge%Ludwig%NULL%1,   Adrianus%Koster%NULL%1,   Robert-Jan%Hassing%NULL%1,   Jeannet C.%Bos%NULL%1,   Geert R.%van Pottelberge%NULL%1,   Imro N.%Vlasveld%NULL%1,   Heidi S. M.%Ammerlaan%NULL%1,   Elena M.%van Leeuwen – Segarceanu%NULL%1,   Jelle%Miedema%NULL%1,   Menno%van der Eerden%NULL%1,   Thijs J.%Schrama%NULL%1,   Grigorios%Papageorgiou%NULL%2,   Grigorios%Papageorgiou%NULL%0,   Peter%te Boekhorst%NULL%1,   Francis H.%Swaneveld%NULL%1,   Yvonne M.%Mueller%NULL%1,   Marco W. J.%Schreurs%NULL%2,   Marco W. J.%Schreurs%NULL%0,   Jeroen J. A.%van Kampen%NULL%1,   Barry%Rockx%NULL%1,   Nisreen M. A.%Okba%NULL%2,   Nisreen M. A.%Okba%NULL%0,   Peter D.%Katsikis%NULL%2,   Peter D.%Katsikis%NULL%0,   Marion P. G.%Koopmans%NULL%2,   Marion P. G.%Koopmans%NULL%0,   Bart L.%Haagmans%NULL%2,   Bart L.%Haagmans%NULL%0,   Casper%Rokx%c.rokx@erasmusmc.nl%2,   Casper%Rokx%c.rokx@erasmusmc.nl%0,   Bart J. A.%Rijnders%NULL%2,   Bart J. A.%Rijnders%NULL%0]</t>
+  </si>
+  <si>
+    <t>INSIGHT FLU005: An Anti-Influenza Virus Hyperimmune Intravenous Immunoglobulin Pilot Study.</t>
+  </si>
+  <si>
+    <t>[Gordin%Fred M.%coreGivesNoEmail%1, INSIGHT%FLU005 IVIG Pilot Study Group.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>A multicenter randomized open-label clinical trial for convalescent plasma in patients hospitalized with COVID-19 pneumonia</t>
+  </si>
+  <si>
+    <t>Background: Passive immunotherapy with convalescent plasma (CP) is a potential treatment for COVID-19. Evidence from controlled clinical trials is inconclusive.
+ Methods: We conducted a randomized, open-label, controlled clinical trial at 27 hospitals in Spain.
+ Patients had to be admitted for COVID-19 pneumonia within 7 days from symptom onset and not on mechanical ventilation or high-flow oxygen devices.
+ Patients were randomized 1:1 to treatment with CP in addition to standard of care (SOC) or to the control arm receiving only SOC.
+ The primary endpoint was the proportion of patients in categories 5 (noninvasive ventilation or high-flow oxygen), 6 (invasive mechanical ventilation or extracorporeal membrane oxygenation [ECMO]), or 7 (death) at 14 days.
+ Primary analysis was performed in the intention-to-treat population.
+ Results: Between April 4, 2020, and February 5, 2021, 350 patients were randomly assigned to either CP (n = 179) or SOC (n = 171).
+ At 14 days, proportion of patients in categories 5, 6, or 7 was 11.7% in the CP group versus 16.4% in the control group (P = 0.205).
+ The difference was greater at 28 days, with 8.4% of patients in categories 5-7 in the CP group versus 17.0% in the control group (P = 0.021).
+ The difference in overall survival did not reach statistical significance (HR 0.46, 95% CI 0.19-1.14, log-rank P = 0.087).
+ Conlusion: CP showed a significant benefit in preventing progression to noninvasive ventilation or high-flow oxygen, invasive mechanical ventilation or ECMO, or death at 28 days.
+ The effect on the predefined primary endpoint at 14 days and the effect on overall survival were not statistically significant.
+ Trial registration: Clinicaltrials.
+gov, NCT04345523.This research was funded by the Government of Spain, Ministry of Science and Innovation, Instituto de Salud Carlos III, grant number COV20\/00072 (Royal DecreeLaw 8\/2020, of 17 March, on urgent extraordinary measures to deal with the economic and social impact of COVID-19), cofinanced by the European Regional Development Fund (FEDER) \u201cA way to make Europe,\u201d and supported by SCReN (Spanish Clinical Research Network), Instituto de Salud Carlos III, project PT17\/0017\/0009. Clinical trial insurance coverage was donated by MARCH RS Corredur\u00eda de Seguros y Reaseguros.
+ MML holds a \u201cR\u00edo Hortega\u201d research contract (CM19\/00226).
+ See Supplemental Material for details on the ConPlas-19 study group.
+S</t>
+  </si>
+  <si>
+    <t>[Alcam\u00ed%Jos\u00e9%coreGivesNoEmail%1, Avenda\u00f1o-Sol\u00e1%Cristina%coreGivesNoEmail%1, Blanco%Lydia%coreGivesNoEmail%1, Bueno%Jose L%coreGivesNoEmail%1, Calder\u00f3n-Parra%Jorge%coreGivesNoEmail%1, Casas-Flecha%Inmaculada%coreGivesNoEmail%1, ConPlas-19%Study Group%coreGivesNoEmail%1, de%Oteyza Jaime P\u00e9rez%coreGivesNoEmail%1, Duarte%Rafael F%coreGivesNoEmail%1, D\u00edaz%de Santiago Alberto%coreGivesNoEmail%1, Fern\u00e1ndez-Cruz%Ana%coreGivesNoEmail%1, Garcia-Perez%Javier%coreGivesNoEmail%1, Jarilla-Fern\u00e1ndez%Maria C%coreGivesNoEmail%1, Lora-Tamayo%Jaime%coreGivesNoEmail%1, Madrigal-S\u00e1nchez%Maria E%coreGivesNoEmail%1, Malo%de Molina Rosa%coreGivesNoEmail%1, Manche\u00f1o-Losa%Mikel%coreGivesNoEmail%1, Mart\u00ednez-Gonz\u00e1lez%A L%coreGivesNoEmail%1, Moreno-Chulilla%J A%coreGivesNoEmail%1, Mu\u00f1ez-Rubio%Elena%coreGivesNoEmail%1, Mu\u00f1iz-D\u00edaz%Eduardo%coreGivesNoEmail%1, Nu\u00f1ez-Orantos%Maria J%coreGivesNoEmail%1, Paciello%Maria L%coreGivesNoEmail%1, Payares-Herrera%Concepcion%coreGivesNoEmail%1, Pa\u00f1o-Pardo%Jos\u00e9 R%coreGivesNoEmail%1, Perez-Olmeda%Mayte%coreGivesNoEmail%1, Pintos%Ilduara%coreGivesNoEmail%1, Porras-Leal%Maria L%coreGivesNoEmail%1, Ramos-Garrido%Ascension%coreGivesNoEmail%1, Ramos-Mart\u00ednez%Antonio%coreGivesNoEmail%1, Romera-Mart\u00ednez%Irene%coreGivesNoEmail%1, Rubio-Batll\u00e9s%Martin%coreGivesNoEmail%1, Ruiz-Antor\u00e1n%Belen%coreGivesNoEmail%1, Saez-Serrano%Maria Isabel%coreGivesNoEmail%1, Torres%Ferran%coreGivesNoEmail%1, Velasco-Iglesias%Ana%coreGivesNoEmail%1, Vid\u00e1n-Est\u00e9vez%Julia%coreGivesNoEmail%1, Villares%Paula%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Agarwal%NULL%1,   Aparna%Mukherjee%NULL%2,   Gunjan%Kumar%NULL%3,   Gunjan%Kumar%NULL%0,   Pranab%Chatterjee%NULL%2,   Tarun%Bhatnagar%NULL%2,   Pankaj%Malhotra%NULL%2,   NULL%NULL%NULL%0,   NULL%NULL%NULL%0,   Anup%Agarwal%NULL%1,   Aparna%Mukherjee%NULL%0,   Gunjan%Kumar%NULL%0,   Pranab%Chatterjee%NULL%0,   Tarun%Bhatnagar%NULL%0,   Pankaj%Malhotra%NULL%0,   B%Latha%NULL%1,   Sunita%Bundas%NULL%1,   Vivek%Kumar%NULL%2,   Ravi%Dosi%NULL%1,   Janak Kumar%Khambholja%NULL%1,   Rosemarie%de Souza%NULL%1,   Raja Rao%Mesipogu%NULL%1,   Saurabh%Srivastava%NULL%1,   Simmi%Dube%NULL%1,   Kiran%Chaudhary%NULL%1,   S%Subash%NULL%1,   S%Anbuselvi%NULL%1,   V%Rajendran%NULL%1,   A%Sundararajaperumal%NULL%1,   P%Balamanikandan%NULL%1,   R S Uma%Maheswari%NULL%1,   R%Jayanthi%NULL%1,   S%Ragunanthanan%NULL%1,   Sudhir%Bhandari%NULL%1,   Ajeet%Singh%NULL%1,   Ashok%Pal%NULL%1,   Anjali%Handa%NULL%1,   Govind%Rankawat%NULL%1,   Ketan%Kargirwar%NULL%1,   Joyce%Regi%NULL%1,   Darshana%Rathod%NULL%1,   Edwin%Pathrose%NULL%1,   Nirankar%Bhutaka%NULL%1,   Mayur H%Patel%NULL%1,   Rahul J%Verma%NULL%1,   Kamal%Malukani%NULL%1,   Shivani%Patel%NULL%1,   Apurv%Thakur%NULL%1,   Satish%Joshi%NULL%1,   Rashmi%Kulkarni%NULL%1,   Nilay N%Suthar%NULL%1,   Nehal M%Shah%NULL%1,   Hemang M%Purohit%NULL%1,   Cherry K%Shah%NULL%1,   Monila N%Patel%NULL%1,   Saket%Shah%NULL%1,   Smit T%Shah%NULL%1,   Tehsim%Memon%NULL%1,   Vishal R%Beriwala%NULL%1,   Kusum%Jashnani%NULL%1,   Fatema%Ezzy%NULL%1,   Simran%Agrawal%NULL%1,   Rakesh%Bhadade%NULL%1,   MN%Atish%NULL%1,   Tushar%Madke%NULL%1,   Vikas%Kavishwar%NULL%1,   Ramesh%Waghmare%NULL%1,   Nitin%Valvi%NULL%1,   B Thrilok%Chander%NULL%1,   A Vinaya%Sekhar%NULL%1,   Akhilesh Kumar%Maurya%NULL%1,   K%Hemanth%NULL%1,   K%Nagamani%NULL%1,   K%Sudha%NULL%1,   T Ravi%Chandra%NULL%1,   K Tushara%Rao%NULL%1,   J%Vyshnavi%NULL%1,   Rashmi%Upadhyay%NULL%1,   Shalini%Bahadur%NULL%1,   Rambha%Pathak%NULL%1,   Shikha%Seth%NULL%1,   Rakesh%Gupta%NULL%1,   Rita%Saxena%NULL%1,   Preksha%Dwivedi%NULL%1,   Reeni%Malik%NULL%1,   Deepti%Chourasia%NULL%1,   Jaya%Lalwani%NULL%1,   UM%Sharma%NULL%1,   JL%Marko%NULL%1,   Amit%Suri%NULL%1,   Vijay%Kumar%NULL%1,   Rajnish%Kaushik%NULL%1,   Parul%Kodan%NULL%1,   Bhabani Prasad%Acharya%NULL%1,   Kuldeep Kumar%Gaur%NULL%1,   Anubhav%Gupta%NULL%1,   Prerna%Sachdeva%NULL%1,   Shruti%Dogra%NULL%1,   Aikaj%Jindal%NULL%1,   M Joseph%John%NULL%1,   Avtar Singh%Dhanju%NULL%1,   Ranjana%Khetrepal%NULL%1,   Neeraj%Sharma%NULL%1,   Neetu%Kukar%NULL%1,   Divya%Kavita%NULL%1,   Rajesh%Kumar%NULL%1,   Rajesh%Mahajan%NULL%1,   Gurpreet%Singh%NULL%1,   Jaspreet%Kaur%NULL%1,   Raminder Pal%Singh%NULL%1,   Rajni%Bassi%NULL%1,   Swapneil%Parikh%NULL%1,   Om%Shrivastav%NULL%1,   Jayanthi%Shastri%NULL%1,   Maherra%Desai%NULL%1,   Shreevatsa%Udupa%NULL%1,   Varun A%Bafna%NULL%1,   Vijay%Barge%NULL%1,   Rajendra%Madane%NULL%1,   Sheetal%Yadav%NULL%1,   Sanjeev%Misra%NULL%1,   Archana%Bajpayee%NULL%1,   M K%Garg%NULL%1,   G K%Bohra%NULL%1,   Vijaylakshmi%Nag%NULL%1,   Puneeth Babu%Anne%NULL%1,   Mohd%Nadeem%NULL%1,   Pallavi%Singh%NULL%1,   Ram%Niwas%NULL%1,   Niranjan Shiwaji%Khaire%NULL%1,   Rattiram%Sharma%NULL%1,   Mini P%Singh%NULL%1,   Naresh%Sachdeva%NULL%1,   Suchet%Sachdev%NULL%1,   Rekha%Hans%NULL%1,   Vikas%Suri%NULL%1,   LN%Yaddanapudi%NULL%1,   PVM%Lakshmi%NULL%1,   Neha%Singh%NULL%1,   Divendu%Bhushan%NULL%1,   Neeraj%Kumar%NULL%1,   Muralidhar%Tambe%NULL%1,   Sonali%Salvi%NULL%1,   Nalini%Kadgi%NULL%1,   Shashikala%Sangle%NULL%1,   Leena%Nakate%NULL%1,   Samir%Joshi%NULL%1,   Rajesh%Karyakarte%NULL%1,   Suraj%Goyanka%NULL%1,   Nimisha%Sharma%NULL%1,   Nikhil%Verma%NULL%1,   Asim%Das%NULL%1,   Monika%Bahl%NULL%1,   Nitya%Wadhwa%NULL%1,   Shreepad%Bhat%NULL%1,   Shweta%Deshmukh%NULL%1,   Vrushali%Wagh%NULL%1,   Atul%Kulkarni%NULL%1,   Tanvi%Yardi%NULL%1,   Ram S%Kalgud%NULL%1,   Purushottam%Reddy%NULL%1,   Kavitha%Yevoor%NULL%1,   Prashanth%Gajula%NULL%1,   Vivek%Maleyur%NULL%1,   S%Medini%NULL%1,   HN%Mohith%NULL%1,   Anil%Gurtoo%NULL%1,   Ritika%Sud%NULL%1,   Sangeeta%Pahuja%NULL%1,   Anupam%Prakash%NULL%1,   Parijat%Gogoi%NULL%1,   Shailja%Shukla%NULL%1,   D Himanshu%Reddy%NULL%1,   Tulika%Chandra%NULL%1,   Saurabh%Pandey%NULL%1,   Pradeep%Maurya%NULL%1,   Wahid%Ali%NULL%1,   Vivek%Kumar%NULL%0,   Kamlesh%Upadhyay%NULL%1,   Nidhi%Bhatnagar%NULL%1,   Nilima%Shah%NULL%1,   Mamta%Shah%NULL%1,   Tarak%Patel%NULL%1,   Ram Mohan%Jaiswal%NULL%1,   Ashish%Jain%NULL%1,   Shweta%Sharma%NULL%1,   Puneet%Rijhwani%NULL%1,   Naveen%Gupta%NULL%1,   Tinkal C%Patel%NULL%1,   Mahesh G%Solu%NULL%1,   Jitendra%Patel%NULL%1,   Yash R%Shah%NULL%1,   Mayur%Jarag%NULL%1,   Varsha%Godbole%NULL%1,   Meenakshi%Shah%NULL%1,   Rikin%Raj%NULL%1,   Irfan%Nagori%NULL%1,   Pramod R%Jha%NULL%1,   Arti D%Shah%NULL%1,   Gowtham%Yeeli%NULL%1,   Archit%Jain%NULL%1,   Rooppreet Kaur%Gill%NULL%1,   KV Sreedhar%Babu%NULL%1,   B Suresh%Babu%NULL%1,   Alladi%Mohan%NULL%1,   B%Vengamma%NULL%1,   K Chandra%Sekhar%NULL%1,   Srinivasulu%Damam%NULL%1,   K%Narsimhulu%NULL%1,   C%Aparna%NULL%1,   G%Baleswari%NULL%1,   K Ravindranath%Reddy%NULL%1,   P%Chandrasekhar%NULL%1,   Sunil Jodharam%Panjwani%NULL%1,   Pragnesh H%Shah%NULL%1,   Manish%Barvaliya%NULL%1,   Kairavi%Desai%NULL%1,   Pankaj J%Akholkar%NULL%1,   Milind%Baldi%NULL%1,   Ashok%Yadav%NULL%1,   Manoj%Gupta%NULL%1,   Nitin%Rawat%NULL%1,   Dilip%Chawda%NULL%1,   M%Natarajan%NULL%1,   M%Sintha%NULL%1,   David Pradeep%Kumar%NULL%1,   Fathhur%Rabbani%NULL%1,   Vrushali Khirid%Khadke%NULL%1,   Dattatray%Patki%NULL%1,   Sonali%Marathe%NULL%1,   Clyde%D’Souza%NULL%1,   Vipul%Tadha%NULL%1,   Satyam%Arora%NULL%1,   Devendra Kumar%Gupta%NULL%1,   Seema%Dua%NULL%1,   Nitu%Chauhan%NULL%1,   Ajeet Singh%Chahar%NULL%1,   Joy John%Mammen%NULL%1,   Snehil%Kumar%NULL%1,   Dolly%Daniel%NULL%1,   Ravindraa%Singh%NULL%1,   Venkatesh%Dhat%NULL%1,   Yogesh%Agarwal%NULL%1,   Sohini%Arora%NULL%1,   Ashish%Pathak%NULL%1,   Manju%Purohit%NULL%1,   Ashish%Sharma%NULL%1,   Jayashree%Sharma%NULL%1,   Manisha%Madkaikar%NULL%1,   Kavita%Joshi%NULL%1,   Reetika Malik%Yadav%NULL%1,   Swarupa%Bhagwat%NULL%1,   Niteen D%Karnik%NULL%1,   Yojana A%Gokhale%NULL%1,   Leena%Naik%NULL%1,   Sangita%Margam%NULL%1,   Santasabuj%Das%NULL%1,   Alka%Turuk%NULL%1,   V Saravana%Kumar%NULL%1,   K%Kanagasabai%NULL%1,   R%Sabarinathan%NULL%1,   Gururaj%Deshpande%NULL%1,   Sharda%Sharma%NULL%1,   Rashmi%Gunjikar%NULL%1,   Anita%Shete%NULL%1,   Darpan%Phagiwala%NULL%1,   Chetan%Patil%NULL%1,   Snehal%Shingade%NULL%1,   Kajal%Jarande%NULL%1,   Himanshu%Kaushal%NULL%1,   Pragya%Yadav%NULL%1,   Gajanan%Sapkal%NULL%1,   Priya%Abraham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan FN%Hung%NULL%1,   Kelvin KW%To%NULL%1,   Cheuk-Kwong%Lee%NULL%0,   Kar-Lung%Lee%NULL%0,   Kenny%Chan%NULL%0,   Wing-Wah%Yan%NULL%1,   Raymond%Liu%NULL%0,   Chi-Leung%Watt%NULL%1,   Wai-Ming%Chan%NULL%0,   Kang-Yiu%Lai%NULL%0,   Chi-Kwan%Koo%NULL%1,   Tom%Buckley%NULL%1,   Fu-Loi%Chow%NULL%0,   Kwan-Keung%Wong%NULL%1,   Hok-Sum%Chan%NULL%1,   Chi-Keung%Ching%NULL%1,   Bone SF%Tang%NULL%1,   Candy CY%Lau%NULL%1,   Iris WS%Li%NULL%1,   Shao-Haei%Liu%NULL%0,   Kwok-Hung%Chan%NULL%0,   Che-Kit%Lin%NULL%0,   Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y. O. Y.%Soo%NULL%1,   Y.%Cheng%NULL%1,   R.%Wong%NULL%2,   D. S.%Hui%NULL%1,   C. K.%Lee%NULL%2,   K. K. S.%Tsang%NULL%1,   M. H. L.%Ng%NULL%2,   P.%Chan%NULL%2,   G.%Cheng%NULL%2,   J. J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>Serum Treatment of Postinfluenzal Bronchopneumonia</t>
+  </si>
+  <si>
+    <t>n\/</t>
+  </si>
+  <si>
+    <t>[Kahn%Morris H.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Hongjie%Yu%NULL%1,   Zhancheng%Gao%NULL%0,   Zijian%Feng%NULL%2,   Yuelong%Shu%NULL%1,   Nijuan%Xiang%NULL%2,   Lei%Zhou%NULL%2,   Yang%Huai%NULL%1,   Luzhao%Feng%NULL%0,   Zhibin%Peng%NULL%1,   Zhongjie%Li%NULL%1,   Cuiling%Xu%NULL%1,   Junhua%Li%NULL%0,   Chengping%Hu%NULL%1,   Qun%Li%NULL%1,   Xiaoling%Xu%NULL%1,   Xuecheng%Liu%NULL%1,   Zigui%Liu%NULL%1,   Longshan%Xu%NULL%1,   Yusheng%Chen%NULL%1,   Huiming%Luo%NULL%1,   Liping%Wei%NULL%1,   Xianfeng%Zhang%NULL%1,   Jianbao%Xin%NULL%1,   Junqiao%Guo%NULL%1,   Qiuyue%Wang%NULL%1,   Zhengan%Yuan%NULL%1,   Longnv%Zhou%NULL%1,   Kunzhao%Zhang%NULL%1,   Wei%Zhang%NULL%0,   Jinye%Yang%NULL%1,   Xiaoning%Zhong%NULL%1,   Shichang%Xia%NULL%1,   Lanjuan%Li%NULL%0,   Jinquan%Cheng%NULL%1,   Erdang%Ma%NULL%1,   Pingping%He%NULL%1,   Shui Shan%Lee%NULL%1,   Yu%Wang%NULL%3,   Timothy M.%Uyeki%NULL%0,   Weizhong%Yang%NULL%1,   Joel Mark%Montgomery%NULL%0,   Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y.%Cheng%NULL%1,   R.%Wong%NULL%0,   Y. O. Y.%Soo%NULL%1,   W. S.%Wong%NULL%1,   C. K.%Lee%NULL%0,   M. H. L.%Ng%NULL%0,   P.%Chan%NULL%0,   K. C.%Wong%NULL%1,   C. B.%Leung%NULL%1,   G.%Cheng%gcheng@cuhk.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Duan%NULL%1,   Bende%Liu%NULL%2,   Bende%Liu%NULL%0,   Cesheng%Li%NULL%1,   Huajun%Zhang%NULL%1,   Ting%Yu%NULL%0,   Ting%Yu%NULL%0,   Jieming%Qu%NULL%0,   Min%Zhou%NULL%0,   Min%Zhou%NULL%0,   Li%Chen%NULL%0,   Li%Chen%NULL%0,   Shengli%Meng%NULL%2,   Shengli%Meng%NULL%0,   Yong%Hu%NULL%1,   Cheng%Peng%NULL%1,   Mingchao%Yuan%NULL%1,   Jinyan%Huang%NULL%1,   Zejun%Wang%NULL%2,   Zejun%Wang%NULL%0,   Jianhong%Yu%NULL%1,   Xiaoxiao%Gao%NULL%1,   Dan%Wang%NULL%1,   Xiaoqi%Yu%NULL%1,   Li%Li%NULL%0,   Li%Li%NULL%0,   Jiayou%Zhang%NULL%2,   Jiayou%Zhang%NULL%0,   Xiao%Wu%NULL%1,   Bei%Li%NULL%1,   Yanping%Xu%NULL%1,   Wei%Chen%NULL%0,   Wei%Chen%NULL%0,   Yan%Peng%NULL%1,   Yeqin%Hu%NULL%1,   Lianzhen%Lin%NULL%1,   Xuefei%Liu%NULL%1,   Shihe%Huang%NULL%1,   Zhijun%Zhou%NULL%1,   Lianghao%Zhang%NULL%1,   Yue%Wang%NULL%1,   Zhi%Zhang%NULL%1,   Kun%Deng%NULL%1,   Zhiwu%Xia%NULL%1,   Qin%Gong%NULL%1,   Wei%Zhang%NULL%0,   Xiaobei%Zheng%NULL%1,   Ying%Liu%NULL%0,   Huichuan%Yang%NULL%1,   Dongbo%Zhou%NULL%1,   Ding%Yu%NULL%1,   Jifeng%Hou%NULL%1,   Zhengli%Shi%NULL%0,   Saijuan%Chen%NULL%1,   Zhu%Chen%NULL%1,   Xinxin%Zhang%NULL%0,   Xiaoming%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[F.%Sahr%NULL%1,   R.%Ansumana%rashidansumana@gmail.com%1,   T.A.%Massaquoi%NULL%1,   B.R.%Idriss%NULL%1,   F.R.%Sesay%NULL%1,   J.M.%Lamin%NULL%1,   S.%Baker%NULL%1,   S.%Nicol%NULL%1,   B.%Conton%NULL%1,   W.%Johnson%NULL%1,   O.T.%Abiri%NULL%1,   O.%Kargbo%NULL%1,   P.%Kamara%NULL%1,   A.%Goba%NULL%1,   J.B.W.%Russell%NULL%1,   S.M.%Gevao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qing-Lei%Zeng%zengqinglei2009@163.com%1,   Zu-Jiang%Yu%NULL%1,   Jian-Jun%Gou%NULL%1,   Guang-Ming%Li%NULL%1,   Shu-Huan%Ma%NULL%1,   Guo-Fan%Zhang%NULL%1,   Jiang-Hai%Xu%NULL%1,   Wan-Bao%Lin%NULL%1,   Guang-Lin%Cui%NULL%1,   Min-Min%Zhang%NULL%1,   Cheng%Li%NULL%1,   Ze-Shuai%Wang%NULL%1,   Zhi-Hao%Zhang%NULL%1,   Zhang-Suo%Liu%zengqinglei2009@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hassan%Abolghasemi%NULL%1,   Peyman%Eshghi%NULL%1,   Abdol Majid%Cheraghali%NULL%1,   Abbas Ali%Imani Fooladi%NULL%1,   Farzaneh%Bolouki Moghaddam%NULL%1,   Sina%Imanizadeh%NULL%1,   Matin%Moeini Maleki%NULL%1,   Mohammad%Ranjkesh%NULL%1,   Mohammad%Rezapour%NULL%1,   Ali%Bahramifar%NULL%1,   Behzad%Einollahi%NULL%1,   Mohammad Javad%Hosseini%NULL%1,   Nematollah Joneidi%Jafari%NULL%1,   Mohamad%Nikpouraghdam%NULL%1,   Nariman%Sadri%NULL%1,   Mokhtar%Tazik%NULL%1,   Shanaz%Sali%NULL%1,   Shamsi%Okati%NULL%1,   Elham%Askari%NULL%1,   Payam%Tabarsi%NULL%1,   Jafar%Aslani%NULL%1,   Ehsan%Sharifipour%NULL%1,   Mohammad Hossein%Jarahzadeh%NULL%1,   Nastaran%Khodakarim%NULL%1,   Mahmood%Salesi%NULL%1,   Ramezan%Jafari%NULL%1,   Samira%Shahverdi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[John H%Beigel%jbeigel@niaid.nih.gov%1,    Pablo%Tebas%NULL%4,    Marie-Carmelle%Elie-Turenne%NULL%4,    Ednan%Bajwa%NULL%2,    Todd E%Bell%NULL%2,    Charles B%Cairns%NULL%2,    Shmuel%Shoham%NULL%3,    Jaime G%Deville%NULL%2,    Eric%Feucht%NULL%2,    Judith%Feinberg%NULL%2,    Thomas%Luke%NULL%1,    Kanakatte%Raviprakash%NULL%3,    Janine%Danko%NULL%2,    Dorothy%O'Neil%NULL%1,    Julia A%Metcalf%NULL%1,    Karen%King%NULL%1,    Timothy H%Burgess%NULL%1,    Evgenia%Aga%NULL%3,    H Clifford%Lane%NULL%2,    Michael D%Hughes%NULL%3,    Richard T%Davey%NULL%3,    Pablo%Tebas%NULL%0,    Joseph%Quinn%NULL%1,    Yan%Jiang%NULL%2,    Marie-Carmelle%Elie-Turenne%NULL%0,    Robyn%Hoelle%NULL%1,    Nicole%Iovine%NULL%1,    Robert Shawn%Wills%NULL%1,    Socorro%Pata%NULL%1,    Monique%Huggins%NULL%1,    Belinda%Manukian%NULL%1,    Ednan%Bajwa%NULL%0,    Carrie%Holland%NULL%1,    Kelsey%Brait%NULL%1,    Taylor%Hunt%NULL%1,    Christopher%Stowell%NULL%1,    Amy%Slater%NULL%1,    Todd E%Bell%NULL%0,    Mary%Townsends%NULL%1,    Charles B%Cairns%NULL%0,    Eugenia B%Quackenbush%NULL%1,    Yara A%Park%NULL%1,    Paul Gaither%Jordan%NULL%1,    Cherie%Blanchet%NULL%1,    Kevin%Chronowski%NULL%1,    Kathleen%Alvarez%NULL%1,    Shmuel%Shoham%NULL%0,    Darin%Ostrander%NULL%1,    Terry%Woessner%NULL%1,    Sandra%Thoman%NULL%1,    Jaime G%Deville%NULL%0,    James%Lin%NULL%1,    Alyssa%Ziman%NULL%1,    Kavita%Shankar%NULL%1,    Eric%Feucht%NULL%0,    Tom%Blok%NULL%1,    Don%Batts%NULL%1,    Bob%Beck%NULL%1,    Gail%Massey%NULL%1,    Carol%Bradley%NULL%1,    Judith%Feinberg%NULL%0,    Patricia%Carey%NULL%1,    Jenifer%Baer%NULL%1,    Eva Moore%Whitehead%NULL%1,    Sharon%Kohrs%NULL%1,    Robert%Giulitto%NULL%1,    Christina%Schofield%NULL%2,    Mary%Fairchok%NULL%1,    Susan%Chambers%NULL%1,    Cindy%Baker%NULL%1,    NULL%RN%NULL%1,    Michelle%Parker%NULL%1,    Marta%Harshbarger%NULL%1,    M Hong%Nguyen%NULL%1,    Mary Ellen%Carey%NULL%1,    Julie%Paronish%NULL%1,    Frank%Cornell%NULL%1,    Jim%Cramer%NULL%1,    Diana Lynn%Pakstis%NULL%1,    Michael G%Ison%NULL%1,    Richard%Wunderink%NULL%1,    Marshall%Glesby%NULL%1,    Kirsis%Ham%NULL%1,    Valery%Hughes%NULL%1,    Melissa%Cushing%NULL%0,    Cheryl%Goss%NULL%1,    Joanne%Grenade%NULL%1,    Pauline K%Park%NULL%1,    Lena M%Napolitano%NULL%1,    Krishnan%Raghavendran%NULL%1,    Robert C%Hyzy%NULL%1,    Robertson%Davenport%NULL%1,    Kristin%Brierley%NULL%1,    Theresa%Downs%NULL%1,    Michelle Ng%Gong%NULL%1,    Joan%Uehlinger%NULL%1,    Michael%Lin%NULL%2,    Janice%Fritsche%NULL%1,    Tondria%Green%NULL%1,    Bruce%McLeod%NULL%1,    Deena%Patel%NULL%1,    Mary F%Bavaro%NULL%1,    Robert%Deiss%NULL%1,    Carolyn%Brandt%NULL%1,    Stephanie%Cammarata%NULL%1,    Allan%Kremp%NULL%1,    Karine%Hollis-Perry%NULL%1,    Tahaniyat%Lalani%NULL%1,    Susan%Banks%NULL%1,    Jacqueline%Johnson%NULL%1,    Jason%Maguire%NULL%1,    Janet%McNiff%NULL%1,    Leslie E%Rigg%NULL%1,    Anuradha%Ganesan%NULL%1,    Irma%Barahona%NULL%1,    Janine%Danko%NULL%0,    Steven%Spencer%NULL%1,    David%Stagliano%NULL%1,    Timothy%Burgess%NULL%1,    Daniel%Talmor%NULL%1,    Monique%Mohammed%NULL%1,    Valerie%Banner-Goodspeed%NULL%1,    Robert%Salata%NULL%1,    Robert%Finberg%NULL%2,    Jennifer%Wang%NULL%1,    Karen%Longtine%NULL%1,    Jaclyn%Longtine%NULL%1,    Mellissa%O'Neil%NULL%1,    Philippe R%Bauer%NULL%1,    Ognjen%Gajic%NULL%1,    Suanne M%Weist%NULL%1,    Jonathan%Sevransky%NULL%1,    Mona%Brown%NULL%1,    John%Roback%NULL%1,    John%Oropello%NULL%1,    Bridget%Twohig%NULL%1,    Jeffrey%Jhang%NULL%0,    Rahgu%Seethala%NULL%1,    Wilbur H%Chen%NULL%1,    Magali%Fontaine%NULL%1,    Kapil%Saharia%NULL%1,    Jennifer%Husson%NULL%1,    Roberta%DeBiasi%NULL%1,    Jurran L%Wilson%NULL%1,    Valli Ree%Criss%NULL%1,    Jocelyn%Voell%NULL%1,    Susan%Leitman%NULL%1,    James Wade%Atkins%NULL%1,    Hemaxi%Patel%NULL%1,    Traci%Paige%NULL%1,    Cathy%Cantilena%NULL%1,    Donald%Siegel%NULL%1,    Faye%DeMuth%NULL%1,    Craig H%Fletcher%NULL%1,    J Peter R%Pelletier%NULL%1,    Hassan%Alnuaimat%NULL%1,    Michelle%Pourde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ John H%Beigel%null%1,     Evgenia%Aga%null%2,     Marie-Carmelle%Elie-Turenne%null%2,     Josalyn%Cho%null%2,     Pablo%Tebas%null%2,     Carol L%Clark%null%2,     Jordan P%Metcalf%null%2,     Caroline%Ozment%null%2,     Kanakatte%Raviprakash%null%2,     Joy%Beeler%null%2,     H Preston%Holley%null%1,     Stephanie%Warner%null%2,     Carla%Chorley%null%2,     H Clifford%Lane%null%1,     Michael D%Hughes%null%2,     Richard T%Davey%null%2,     John H%Beigel%null%1,     Evgenia%Aga%null%0,     Marie-Carmelle%Elie-Turenne%null%0,     Josalyn%Cho%null%0,     Pablo%Tebas%null%0,     Carol L%Clark%null%0,     Jordan P%Metcalf%null%0,     Caroline%Ozment%null%0,     Kanakatte%Raviprakash%null%0,     Joy%Beeler%null%0,     H. Preston%Holley%null%1,     Stephanie%Warner%null%0,     Carla%Chorley%null%0,     H. Clifford%Lane%null%1,     Michael D%Hughes%null%0,     Richard T%Davey%null%0,     Michelle%Barron%null%1,     Aveh%Bastani%null%1,     Philippe%Bauer%null%1,     William%Borkowsky%null%1,     Charles%Cairns%null%1,     Jaime%Deville%null%1,     Marie-Carmelle%Elie%null%1,     Carl%Fichtenbaum%null%1,     Robert%Finberg%null%1,     Mamta%Jain%null%1,     David%Kaufman%null%1,     Michael%Lin%null%1,     John%Lin%null%1,     Ryan%Maves%null%1,     Lee%Morrow%null%1,     Minh-Hong%Nguyen%null%1,     Pauline%Park%null%1,     Christopher%Polk%null%1,     Adrienne%Randolph%null%1,     Suchitra%Rao%null%1,     Lewis%Rubinson%null%1,     Christina%Schofield%null%1,     Shmuel%Shoham%null%1,     Erika%Stalets%null%1,     Renee D%Stapleton%null%1,    John H%Beigel%null%2,    Evgenia%Aga%null%0,    Marie-Carmelle%Elie-Turenne%null%0,    Josalyn%Cho%null%2,    Pablo%Tebas%null%0,    Carol L%Clark%null%2,    Jordan P%Metcalf%null%2,    Caroline%Ozment%null%2,    Kanakatte%Raviprakash%null%0,    Joy%Beeler%null%2,    H Preston%Holley%null%1,    Stephanie%Warner%null%2,    Carla%Chorley%null%2,    H Clifford%Lane%null%0,    Michael D%Hughes%null%0,    Richard T%Davey%null%0,    John H%Beigel%null%0,    Evgenia%Aga%null%0,    Marie-Carmelle%Elie-Turenne%null%0,    Josalyn%Cho%null%0,    Pablo%Tebas%null%0,    Carol L%Clark%null%0,    Jordan P%Metcalf%null%0,    Caroline%Ozment%null%0,    Kanakatte%Raviprakash%null%0,    Joy%Beeler%null%0,    H. Preston%Holley%null%1,    Stephanie%Warner%null%0,    Carla%Chorley%null%0,    H. Clifford%Lane%null%1,    Michael D%Hughes%null%0,    Richard T%Davey%null%0,    Michelle%Barron%null%1,    Aveh%Bastani%null%1,    Philippe%Bauer%null%1,    William%Borkowsky%null%1,    Charles%Cairns%null%1,    Jaime%Deville%null%1,    Marie-Carmelle%Elie%null%1,    Carl%Fichtenbaum%null%1,    Robert%Finberg%null%0,    Mamta%Jain%null%1,    David%Kaufman%null%1,    Michael%Lin%null%0,    John%Lin%null%1,    Ryan%Maves%null%1,    Lee%Morrow%null%1,    Minh-Hong%Nguyen%null%1,    Pauline%Park%null%1,    Christopher%Polk%null%1,    Adrienne%Randolph%null%1,    Suchitra%Rao%null%1,    Lewis%Rubinson%null%1,    Christina%Schofield%null%0,    Shmuel%Shoham%null%0,    Erika%Stalets%null%1,    Renee D%Stapleton%null%1]</t>
+  </si>
+  <si>
+    <t>[Caiying%Hu%coreGivesNoEmail%1,  Chenyue%Li%coreGivesNoEmail%1,  Conghui%Wang%coreGivesNoEmail%1,  Cuihua%Tao%coreGivesNoEmail%1,  E.%Deng%coreGivesNoEmail%1,  Haixia%Xu%coreGivesNoEmail%1,  Heng%Mei%coreGivesNoEmail%1,  Jianwei%Wang%coreGivesNoEmail%1,  Juan%Wang%coreGivesNoEmail%1,  Jue%Wang%coreGivesNoEmail%1,  Juntao%Yang%coreGivesNoEmail%1,  Li%Zeng%coreGivesNoEmail%1,  Lifeng%Chen%coreGivesNoEmail%1,  Lili%Ren%coreGivesNoEmail%1,  Ling%Li%coreGivesNoEmail%1,  Linqi%Zhang%coreGivesNoEmail%1,  Nian%Xiong%coreGivesNoEmail%1,  Ning%Man%coreGivesNoEmail%1,  Qing%Wei%coreGivesNoEmail%1,  Ru%Yang%coreGivesNoEmail%1,  Shangen%Zheng%coreGivesNoEmail%1,  Shisheng%Su%coreGivesNoEmail%1,  Wei%Zhang%coreGivesNoEmail%1,  Xiaoxiong%Wu%coreGivesNoEmail%1,  Xuejun%Zhang%coreGivesNoEmail%1,  Xunliang%Tong%coreGivesNoEmail%1,  Yanyun%Wu%coreGivesNoEmail%1,  Yong%Guo%coreGivesNoEmail%1,  Yongpei%Yu%coreGivesNoEmail%1,  Yu%Hu%coreGivesNoEmail%1,  Yu%Liu%coreGivesNoEmail%1,  Yujie%Kong%coreGivesNoEmail%1,  Zhihua%Xu%coreGivesNoEmail%1,  Zhong%Liu%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Ivan F.N.%Hung%null%1,     Kelvin K.W.%To%null%1,     Cheuk-Kwong%Lee%null%1,     Kar-Lung%Lee%null%1,     Wing-Wa%Yan%null%1,     Kenny%Chan%null%1,     Wai-Ming%Chan%null%1,     Chun-Wai%Ngai%null%1,     Kin-Ip%Law%null%1,     Fu-Loi%Chow%null%1,     Raymond%Liu%null%1,     Kang-Yiu%Lai%null%1,     Candy C.Y.%Lau%null%1,     Shao-Haei%Liu%null%1,     Kwok-Hung%Chan%null%0,     Che-Kit%Lin%null%1,     Kwok-Yung%Yuen%null%0,    Ivan F.N.%Hung%null%1,    Kelvin K.W.%To%null%1,    Cheuk-Kwong%Lee%null%2,    Kar-Lung%Lee%null%2,    Wing-Wa%Yan%null%1,    Kenny%Chan%null%2,    Wai-Ming%Chan%null%2,    Chun-Wai%Ngai%null%1,    Kin-Ip%Law%null%1,    Fu-Loi%Chow%null%2,    Raymond%Liu%null%2,    Kang-Yiu%Lai%null%2,    Candy C.Y.%Lau%null%1,    Shao-Haei%Liu%null%2,    Kwok-Hung%Chan%null%3,    Che-Kit%Lin%null%2,    Kwok-Yung%Yuen%null%0]</t>
+  </si>
+  <si>
+    <t>[Arvind%Gharbharan%NULL%1,    Carlijn C. E.%Jordans%NULL%1,    Corine%GeurtsvanKessel%NULL%1,    Jan G.%den Hollander%NULL%2,    Jan G.%den Hollander%NULL%0,    Faiz%Karim%NULL%1,    Femke P. N.%Mollema%NULL%1,    Janneke E.%Stalenhoef – Schukken%NULL%1,    Anthonius%Dofferhoff%NULL%2,    Anthonius%Dofferhoff%NULL%0,    Inge%Ludwig%NULL%1,    Adrianus%Koster%NULL%1,    Robert-Jan%Hassing%NULL%1,    Jeannet C.%Bos%NULL%1,    Geert R.%van Pottelberge%NULL%1,    Imro N.%Vlasveld%NULL%1,    Heidi S. M.%Ammerlaan%NULL%1,    Elena M.%van Leeuwen – Segarceanu%NULL%1,    Jelle%Miedema%NULL%1,    Menno%van der Eerden%NULL%1,    Thijs J.%Schrama%NULL%1,    Grigorios%Papageorgiou%NULL%2,    Grigorios%Papageorgiou%NULL%0,    Peter%te Boekhorst%NULL%1,    Francis H.%Swaneveld%NULL%1,    Yvonne M.%Mueller%NULL%1,    Marco W. J.%Schreurs%NULL%2,    Marco W. J.%Schreurs%NULL%0,    Jeroen J. A.%van Kampen%NULL%1,    Barry%Rockx%NULL%1,    Nisreen M. A.%Okba%NULL%2,    Nisreen M. A.%Okba%NULL%0,    Peter D.%Katsikis%NULL%2,    Peter D.%Katsikis%NULL%0,    Marion P. G.%Koopmans%NULL%3,    Marion P. G.%Koopmans%NULL%0,    Bart L.%Haagmans%NULL%2,    Bart L.%Haagmans%NULL%0,    Casper%Rokx%c.rokx@erasmusmc.nl%2,    Casper%Rokx%c.rokx@erasmusmc.nl%0,    Bart J. A.%Rijnders%NULL%2,    Bart J. A.%Rijnders%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gordin%Fred M.%coreGivesNoEmail%1,  INSIGHT%FLU005 IVIG Pilot Study Group.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alcam\u00ed%Jos\u00e9%coreGivesNoEmail%1,  Avenda\u00f1o-Sol\u00e1%Cristina%coreGivesNoEmail%1,  Blanco%Lydia%coreGivesNoEmail%1,  Bueno%Jose L%coreGivesNoEmail%1,  Calder\u00f3n-Parra%Jorge%coreGivesNoEmail%1,  Casas-Flecha%Inmaculada%coreGivesNoEmail%1,  ConPlas-19%Study Group%coreGivesNoEmail%1,  de%Oteyza Jaime P\u00e9rez%coreGivesNoEmail%1,  Duarte%Rafael F%coreGivesNoEmail%1,  D\u00edaz%de Santiago Alberto%coreGivesNoEmail%1,  Fern\u00e1ndez-Cruz%Ana%coreGivesNoEmail%1,  Garcia-Perez%Javier%coreGivesNoEmail%1,  Jarilla-Fern\u00e1ndez%Maria C%coreGivesNoEmail%1,  Lora-Tamayo%Jaime%coreGivesNoEmail%1,  Madrigal-S\u00e1nchez%Maria E%coreGivesNoEmail%1,  Malo%de Molina Rosa%coreGivesNoEmail%1,  Manche\u00f1o-Losa%Mikel%coreGivesNoEmail%1,  Mart\u00ednez-Gonz\u00e1lez%A L%coreGivesNoEmail%1,  Moreno-Chulilla%J A%coreGivesNoEmail%1,  Mu\u00f1ez-Rubio%Elena%coreGivesNoEmail%1,  Mu\u00f1iz-D\u00edaz%Eduardo%coreGivesNoEmail%1,  Nu\u00f1ez-Orantos%Maria J%coreGivesNoEmail%1,  Paciello%Maria L%coreGivesNoEmail%1,  Payares-Herrera%Concepcion%coreGivesNoEmail%1,  Pa\u00f1o-Pardo%Jos\u00e9 R%coreGivesNoEmail%1,  Perez-Olmeda%Mayte%coreGivesNoEmail%1,  Pintos%Ilduara%coreGivesNoEmail%1,  Porras-Leal%Maria L%coreGivesNoEmail%1,  Ramos-Garrido%Ascension%coreGivesNoEmail%1,  Ramos-Mart\u00ednez%Antonio%coreGivesNoEmail%1,  Romera-Mart\u00ednez%Irene%coreGivesNoEmail%1,  Rubio-Batll\u00e9s%Martin%coreGivesNoEmail%1,  Ruiz-Antor\u00e1n%Belen%coreGivesNoEmail%1,  Saez-Serrano%Maria Isabel%coreGivesNoEmail%1,  Torres%Ferran%coreGivesNoEmail%1,  Velasco-Iglesias%Ana%coreGivesNoEmail%1,  Vid\u00e1n-Est\u00e9vez%Julia%coreGivesNoEmail%1,  Villares%Paula%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Agarwal%NULL%1,    Aparna%Mukherjee%NULL%2,    Gunjan%Kumar%NULL%3,    Gunjan%Kumar%NULL%0,    Pranab%Chatterjee%NULL%2,    Tarun%Bhatnagar%NULL%2,    Pankaj%Malhotra%NULL%2,    NULL%NULL%NULL%0,    NULL%NULL%NULL%0,    Anup%Agarwal%NULL%1,    Aparna%Mukherjee%NULL%0,    Gunjan%Kumar%NULL%0,    Pranab%Chatterjee%NULL%0,    Tarun%Bhatnagar%NULL%0,    Pankaj%Malhotra%NULL%0,    B%Latha%NULL%1,    Sunita%Bundas%NULL%1,    Vivek%Kumar%NULL%2,    Ravi%Dosi%NULL%1,    Janak Kumar%Khambholja%NULL%1,    Rosemarie%de Souza%NULL%1,    Raja Rao%Mesipogu%NULL%1,    Saurabh%Srivastava%NULL%1,    Simmi%Dube%NULL%1,    Kiran%Chaudhary%NULL%1,    S%Subash%NULL%1,    S%Anbuselvi%NULL%1,    V%Rajendran%NULL%1,    A%Sundararajaperumal%NULL%1,    P%Balamanikandan%NULL%1,    R S Uma%Maheswari%NULL%1,    R%Jayanthi%NULL%1,    S%Ragunanthanan%NULL%1,    Sudhir%Bhandari%NULL%1,    Ajeet%Singh%NULL%1,    Ashok%Pal%NULL%1,    Anjali%Handa%NULL%1,    Govind%Rankawat%NULL%1,    Ketan%Kargirwar%NULL%1,    Joyce%Regi%NULL%1,    Darshana%Rathod%NULL%1,    Edwin%Pathrose%NULL%1,    Nirankar%Bhutaka%NULL%1,    Mayur H%Patel%NULL%1,    Rahul J%Verma%NULL%1,    Kamal%Malukani%NULL%1,    Shivani%Patel%NULL%1,    Apurv%Thakur%NULL%1,    Satish%Joshi%NULL%1,    Rashmi%Kulkarni%NULL%1,    Nilay N%Suthar%NULL%1,    Nehal M%Shah%NULL%1,    Hemang M%Purohit%NULL%1,    Cherry K%Shah%NULL%1,    Monila N%Patel%NULL%1,    Saket%Shah%NULL%1,    Smit T%Shah%NULL%1,    Tehsim%Memon%NULL%1,    Vishal R%Beriwala%NULL%1,    Kusum%Jashnani%NULL%1,    Fatema%Ezzy%NULL%1,    Simran%Agrawal%NULL%1,    Rakesh%Bhadade%NULL%1,    MN%Atish%NULL%1,    Tushar%Madke%NULL%1,    Vikas%Kavishwar%NULL%1,    Ramesh%Waghmare%NULL%1,    Nitin%Valvi%NULL%1,    B Thrilok%Chander%NULL%1,    A Vinaya%Sekhar%NULL%1,    Akhilesh Kumar%Maurya%NULL%1,    K%Hemanth%NULL%1,    K%Nagamani%NULL%1,    K%Sudha%NULL%1,    T Ravi%Chandra%NULL%1,    K Tushara%Rao%NULL%1,    J%Vyshnavi%NULL%1,    Rashmi%Upadhyay%NULL%1,    Shalini%Bahadur%NULL%1,    Rambha%Pathak%NULL%1,    Shikha%Seth%NULL%1,    Rakesh%Gupta%NULL%1,    Rita%Saxena%NULL%1,    Preksha%Dwivedi%NULL%1,    Reeni%Malik%NULL%1,    Deepti%Chourasia%NULL%1,    Jaya%Lalwani%NULL%1,    UM%Sharma%NULL%1,    JL%Marko%NULL%1,    Amit%Suri%NULL%1,    Vijay%Kumar%NULL%1,    Rajnish%Kaushik%NULL%1,    Parul%Kodan%NULL%1,    Bhabani Prasad%Acharya%NULL%1,    Kuldeep Kumar%Gaur%NULL%1,    Anubhav%Gupta%NULL%1,    Prerna%Sachdeva%NULL%1,    Shruti%Dogra%NULL%1,    Aikaj%Jindal%NULL%1,    M Joseph%John%NULL%1,    Avtar Singh%Dhanju%NULL%1,    Ranjana%Khetrepal%NULL%1,    Neeraj%Sharma%NULL%1,    Neetu%Kukar%NULL%1,    Divya%Kavita%NULL%1,    Rajesh%Kumar%NULL%1,    Rajesh%Mahajan%NULL%1,    Gurpreet%Singh%NULL%1,    Jaspreet%Kaur%NULL%1,    Raminder Pal%Singh%NULL%1,    Rajni%Bassi%NULL%1,    Swapneil%Parikh%NULL%1,    Om%Shrivastav%NULL%1,    Jayanthi%Shastri%NULL%1,    Maherra%Desai%NULL%1,    Shreevatsa%Udupa%NULL%1,    Varun A%Bafna%NULL%1,    Vijay%Barge%NULL%1,    Rajendra%Madane%NULL%1,    Sheetal%Yadav%NULL%1,    Sanjeev%Misra%NULL%1,    Archana%Bajpayee%NULL%1,    M K%Garg%NULL%1,    G K%Bohra%NULL%1,    Vijaylakshmi%Nag%NULL%1,    Puneeth Babu%Anne%NULL%1,    Mohd%Nadeem%NULL%1,    Pallavi%Singh%NULL%1,    Ram%Niwas%NULL%1,    Niranjan Shiwaji%Khaire%NULL%1,    Rattiram%Sharma%NULL%1,    Mini P%Singh%NULL%1,    Naresh%Sachdeva%NULL%1,    Suchet%Sachdev%NULL%1,    Rekha%Hans%NULL%1,    Vikas%Suri%NULL%1,    LN%Yaddanapudi%NULL%1,    PVM%Lakshmi%NULL%1,    Neha%Singh%NULL%1,    Divendu%Bhushan%NULL%1,    Neeraj%Kumar%NULL%1,    Muralidhar%Tambe%NULL%1,    Sonali%Salvi%NULL%1,    Nalini%Kadgi%NULL%1,    Shashikala%Sangle%NULL%1,    Leena%Nakate%NULL%1,    Samir%Joshi%NULL%1,    Rajesh%Karyakarte%NULL%1,    Suraj%Goyanka%NULL%1,    Nimisha%Sharma%NULL%1,    Nikhil%Verma%NULL%1,    Asim%Das%NULL%1,    Monika%Bahl%NULL%1,    Nitya%Wadhwa%NULL%1,    Shreepad%Bhat%NULL%1,    Shweta%Deshmukh%NULL%1,    Vrushali%Wagh%NULL%1,    Atul%Kulkarni%NULL%1,    Tanvi%Yardi%NULL%1,    Ram S%Kalgud%NULL%1,    Purushottam%Reddy%NULL%1,    Kavitha%Yevoor%NULL%1,    Prashanth%Gajula%NULL%1,    Vivek%Maleyur%NULL%1,    S%Medini%NULL%1,    HN%Mohith%NULL%1,    Anil%Gurtoo%NULL%1,    Ritika%Sud%NULL%1,    Sangeeta%Pahuja%NULL%1,    Anupam%Prakash%NULL%1,    Parijat%Gogoi%NULL%1,    Shailja%Shukla%NULL%1,    D Himanshu%Reddy%NULL%1,    Tulika%Chandra%NULL%1,    Saurabh%Pandey%NULL%1,    Pradeep%Maurya%NULL%1,    Wahid%Ali%NULL%1,    Vivek%Kumar%NULL%0,    Kamlesh%Upadhyay%NULL%1,    Nidhi%Bhatnagar%NULL%1,    Nilima%Shah%NULL%1,    Mamta%Shah%NULL%1,    Tarak%Patel%NULL%1,    Ram Mohan%Jaiswal%NULL%1,    Ashish%Jain%NULL%1,    Shweta%Sharma%NULL%1,    Puneet%Rijhwani%NULL%1,    Naveen%Gupta%NULL%1,    Tinkal C%Patel%NULL%1,    Mahesh G%Solu%NULL%1,    Jitendra%Patel%NULL%1,    Yash R%Shah%NULL%1,    Mayur%Jarag%NULL%1,    Varsha%Godbole%NULL%1,    Meenakshi%Shah%NULL%1,    Rikin%Raj%NULL%1,    Irfan%Nagori%NULL%1,    Pramod R%Jha%NULL%1,    Arti D%Shah%NULL%1,    Gowtham%Yeeli%NULL%1,    Archit%Jain%NULL%1,    Rooppreet Kaur%Gill%NULL%1,    KV Sreedhar%Babu%NULL%1,    B Suresh%Babu%NULL%1,    Alladi%Mohan%NULL%1,    B%Vengamma%NULL%1,    K Chandra%Sekhar%NULL%1,    Srinivasulu%Damam%NULL%1,    K%Narsimhulu%NULL%1,    C%Aparna%NULL%1,    G%Baleswari%NULL%1,    K Ravindranath%Reddy%NULL%1,    P%Chandrasekhar%NULL%1,    Sunil Jodharam%Panjwani%NULL%1,    Pragnesh H%Shah%NULL%1,    Manish%Barvaliya%NULL%1,    Kairavi%Desai%NULL%1,    Pankaj J%Akholkar%NULL%1,    Milind%Baldi%NULL%1,    Ashok%Yadav%NULL%1,    Manoj%Gupta%NULL%1,    Nitin%Rawat%NULL%1,    Dilip%Chawda%NULL%1,    M%Natarajan%NULL%1,    M%Sintha%NULL%1,    David Pradeep%Kumar%NULL%1,    Fathhur%Rabbani%NULL%1,    Vrushali Khirid%Khadke%NULL%1,    Dattatray%Patki%NULL%1,    Sonali%Marathe%NULL%1,    Clyde%D’Souza%NULL%1,    Vipul%Tadha%NULL%1,    Satyam%Arora%NULL%1,    Devendra Kumar%Gupta%NULL%1,    Seema%Dua%NULL%1,    Nitu%Chauhan%NULL%1,    Ajeet Singh%Chahar%NULL%1,    Joy John%Mammen%NULL%1,    Snehil%Kumar%NULL%1,    Dolly%Daniel%NULL%1,    Ravindraa%Singh%NULL%1,    Venkatesh%Dhat%NULL%1,    Yogesh%Agarwal%NULL%1,    Sohini%Arora%NULL%1,    Ashish%Pathak%NULL%1,    Manju%Purohit%NULL%1,    Ashish%Sharma%NULL%1,    Jayashree%Sharma%NULL%1,    Manisha%Madkaikar%NULL%1,    Kavita%Joshi%NULL%1,    Reetika Malik%Yadav%NULL%1,    Swarupa%Bhagwat%NULL%1,    Niteen D%Karnik%NULL%1,    Yojana A%Gokhale%NULL%1,    Leena%Naik%NULL%1,    Sangita%Margam%NULL%1,    Santasabuj%Das%NULL%1,    Alka%Turuk%NULL%1,    V Saravana%Kumar%NULL%1,    K%Kanagasabai%NULL%1,    R%Sabarinathan%NULL%1,    Gururaj%Deshpande%NULL%1,    Sharda%Sharma%NULL%1,    Rashmi%Gunjikar%NULL%1,    Anita%Shete%NULL%1,    Darpan%Phagiwala%NULL%1,    Chetan%Patil%NULL%1,    Snehal%Shingade%NULL%1,    Kajal%Jarande%NULL%1,    Himanshu%Kaushal%NULL%1,    Pragya%Yadav%NULL%1,    Gajanan%Sapkal%NULL%1,    Priya%Abraham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan FN%Hung%NULL%1,    Kelvin KW%To%NULL%1,    Cheuk-Kwong%Lee%NULL%0,    Kar-Lung%Lee%NULL%0,    Kenny%Chan%NULL%0,    Wing-Wah%Yan%NULL%1,    Raymond%Liu%NULL%0,    Chi-Leung%Watt%NULL%1,    Wai-Ming%Chan%NULL%0,    Kang-Yiu%Lai%NULL%0,    Chi-Kwan%Koo%NULL%1,    Tom%Buckley%NULL%1,    Fu-Loi%Chow%NULL%0,    Kwan-Keung%Wong%NULL%1,    Hok-Sum%Chan%NULL%1,    Chi-Keung%Ching%NULL%1,    Bone SF%Tang%NULL%1,    Candy CY%Lau%NULL%1,    Iris WS%Li%NULL%1,    Shao-Haei%Liu%NULL%0,    Kwok-Hung%Chan%NULL%0,    Che-Kit%Lin%NULL%0,    Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y. O. Y.%Soo%NULL%1,    Y.%Cheng%NULL%1,    R.%Wong%NULL%2,    D. S.%Hui%NULL%1,    C. K.%Lee%NULL%2,    K. K. S.%Tsang%NULL%1,    M. H. L.%Ng%NULL%2,    P.%Chan%NULL%2,    G.%Cheng%NULL%2,    J. J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongjie%Yu%NULL%1,    Zhancheng%Gao%NULL%0,    Zijian%Feng%NULL%2,    Yuelong%Shu%NULL%1,    Nijuan%Xiang%NULL%2,    Lei%Zhou%NULL%2,    Yang%Huai%NULL%1,    Luzhao%Feng%NULL%0,    Zhibin%Peng%NULL%1,    Zhongjie%Li%NULL%1,    Cuiling%Xu%NULL%1,    Junhua%Li%NULL%0,    Chengping%Hu%NULL%1,    Qun%Li%NULL%1,    Xiaoling%Xu%NULL%1,    Xuecheng%Liu%NULL%1,    Zigui%Liu%NULL%1,    Longshan%Xu%NULL%1,    Yusheng%Chen%NULL%1,    Huiming%Luo%NULL%1,    Liping%Wei%NULL%1,    Xianfeng%Zhang%NULL%1,    Jianbao%Xin%NULL%1,    Junqiao%Guo%NULL%1,    Qiuyue%Wang%NULL%1,    Zhengan%Yuan%NULL%1,    Longnv%Zhou%NULL%1,    Kunzhao%Zhang%NULL%1,    Wei%Zhang%NULL%0,    Jinye%Yang%NULL%1,    Xiaoning%Zhong%NULL%1,    Shichang%Xia%NULL%1,    Lanjuan%Li%NULL%0,    Jinquan%Cheng%NULL%1,    Erdang%Ma%NULL%1,    Pingping%He%NULL%1,    Shui Shan%Lee%NULL%1,    Yu%Wang%NULL%3,    Timothy M.%Uyeki%NULL%0,    Weizhong%Yang%NULL%1,    Joel Mark%Montgomery%NULL%0,    Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y.%Cheng%NULL%1,    R.%Wong%NULL%0,    Y. O. Y.%Soo%NULL%1,    W. S.%Wong%NULL%1,    C. K.%Lee%NULL%0,    M. H. L.%Ng%NULL%0,    P.%Chan%NULL%0,    K. C.%Wong%NULL%1,    C. B.%Leung%NULL%1,    G.%Cheng%gcheng@cuhk.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Duan%NULL%1,    Bende%Liu%NULL%2,    Bende%Liu%NULL%0,    Cesheng%Li%NULL%1,    Huajun%Zhang%NULL%1,    Ting%Yu%NULL%0,    Ting%Yu%NULL%0,    Jieming%Qu%NULL%0,    Min%Zhou%NULL%0,    Min%Zhou%NULL%0,    Li%Chen%NULL%0,    Li%Chen%NULL%0,    Shengli%Meng%NULL%2,    Shengli%Meng%NULL%0,    Yong%Hu%NULL%1,    Cheng%Peng%NULL%1,    Mingchao%Yuan%NULL%1,    Jinyan%Huang%NULL%1,    Zejun%Wang%NULL%2,    Zejun%Wang%NULL%0,    Jianhong%Yu%NULL%1,    Xiaoxiao%Gao%NULL%1,    Dan%Wang%NULL%1,    Xiaoqi%Yu%NULL%1,    Li%Li%NULL%0,    Li%Li%NULL%0,    Jiayou%Zhang%NULL%2,    Jiayou%Zhang%NULL%0,    Xiao%Wu%NULL%1,    Bei%Li%NULL%1,    Yanping%Xu%NULL%1,    Wei%Chen%NULL%0,    Wei%Chen%NULL%0,    Yan%Peng%NULL%1,    Yeqin%Hu%NULL%1,    Lianzhen%Lin%NULL%1,    Xuefei%Liu%NULL%1,    Shihe%Huang%NULL%1,    Zhijun%Zhou%NULL%1,    Lianghao%Zhang%NULL%1,    Yue%Wang%NULL%1,    Zhi%Zhang%NULL%1,    Kun%Deng%NULL%1,    Zhiwu%Xia%NULL%1,    Qin%Gong%NULL%1,    Wei%Zhang%NULL%0,    Xiaobei%Zheng%NULL%1,    Ying%Liu%NULL%0,    Huichuan%Yang%NULL%1,    Dongbo%Zhou%NULL%1,    Ding%Yu%NULL%1,    Jifeng%Hou%NULL%1,    Zhengli%Shi%NULL%0,    Saijuan%Chen%NULL%1,    Zhu%Chen%NULL%1,    Xinxin%Zhang%NULL%0,    Xiaoming%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[F.%Sahr%NULL%1,    R.%Ansumana%rashidansumana@gmail.com%1,    T.A.%Massaquoi%NULL%1,    B.R.%Idriss%NULL%1,    F.R.%Sesay%NULL%1,    J.M.%Lamin%NULL%1,    S.%Baker%NULL%1,    S.%Nicol%NULL%1,    B.%Conton%NULL%1,    W.%Johnson%NULL%1,    O.T.%Abiri%NULL%1,    O.%Kargbo%NULL%1,    P.%Kamara%NULL%1,    A.%Goba%NULL%1,    J.B.W.%Russell%NULL%1,    S.M.%Gevao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qing-Lei%Zeng%zengqinglei2009@163.com%1,    Zu-Jiang%Yu%NULL%1,    Jian-Jun%Gou%NULL%1,    Guang-Ming%Li%NULL%1,    Shu-Huan%Ma%NULL%1,    Guo-Fan%Zhang%NULL%1,    Jiang-Hai%Xu%NULL%1,    Wan-Bao%Lin%NULL%1,    Guang-Lin%Cui%NULL%1,    Min-Min%Zhang%NULL%1,    Cheng%Li%NULL%1,    Ze-Shuai%Wang%NULL%1,    Zhi-Hao%Zhang%NULL%1,    Zhang-Suo%Liu%zengqinglei2009@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hassan%Abolghasemi%NULL%1,    Peyman%Eshghi%NULL%1,    Abdol Majid%Cheraghali%NULL%1,    Abbas Ali%Imani Fooladi%NULL%1,    Farzaneh%Bolouki Moghaddam%NULL%1,    Sina%Imanizadeh%NULL%1,    Matin%Moeini Maleki%NULL%1,    Mohammad%Ranjkesh%NULL%1,    Mohammad%Rezapour%NULL%1,    Ali%Bahramifar%NULL%1,    Behzad%Einollahi%NULL%1,    Mohammad Javad%Hosseini%NULL%1,    Nematollah Joneidi%Jafari%NULL%1,    Mohamad%Nikpouraghdam%NULL%1,    Nariman%Sadri%NULL%1,    Mokhtar%Tazik%NULL%1,    Shanaz%Sali%NULL%1,    Shamsi%Okati%NULL%1,    Elham%Askari%NULL%1,    Payam%Tabarsi%NULL%2,    Jafar%Aslani%NULL%1,    Ehsan%Sharifipour%NULL%1,    Mohammad Hossein%Jarahzadeh%NULL%1,    Nastaran%Khodakarim%NULL%1,    Mahmood%Salesi%NULL%1,    Ramezan%Jafari%NULL%1,    Samira%Shahverdi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[John H%Beigel%jbeigel@niaid.nih.gov%1,     Pablo%Tebas%NULL%4,     Marie-Carmelle%Elie-Turenne%NULL%4,     Ednan%Bajwa%NULL%2,     Todd E%Bell%NULL%2,     Charles B%Cairns%NULL%2,     Shmuel%Shoham%NULL%3,     Jaime G%Deville%NULL%2,     Eric%Feucht%NULL%2,     Judith%Feinberg%NULL%2,     Thomas%Luke%NULL%1,     Kanakatte%Raviprakash%NULL%3,     Janine%Danko%NULL%2,     Dorothy%O'Neil%NULL%1,     Julia A%Metcalf%NULL%1,     Karen%King%NULL%1,     Timothy H%Burgess%NULL%1,     Evgenia%Aga%NULL%3,     H Clifford%Lane%NULL%2,     Michael D%Hughes%NULL%3,     Richard T%Davey%NULL%3,     Pablo%Tebas%NULL%0,     Joseph%Quinn%NULL%1,     Yan%Jiang%NULL%2,     Marie-Carmelle%Elie-Turenne%NULL%0,     Robyn%Hoelle%NULL%1,     Nicole%Iovine%NULL%1,     Robert Shawn%Wills%NULL%1,     Socorro%Pata%NULL%1,     Monique%Huggins%NULL%1,     Belinda%Manukian%NULL%1,     Ednan%Bajwa%NULL%0,     Carrie%Holland%NULL%1,     Kelsey%Brait%NULL%1,     Taylor%Hunt%NULL%1,     Christopher%Stowell%NULL%1,     Amy%Slater%NULL%1,     Todd E%Bell%NULL%0,     Mary%Townsends%NULL%1,     Charles B%Cairns%NULL%0,     Eugenia B%Quackenbush%NULL%1,     Yara A%Park%NULL%1,     Paul Gaither%Jordan%NULL%1,     Cherie%Blanchet%NULL%1,     Kevin%Chronowski%NULL%1,     Kathleen%Alvarez%NULL%1,     Shmuel%Shoham%NULL%0,     Darin%Ostrander%NULL%1,     Terry%Woessner%NULL%1,     Sandra%Thoman%NULL%1,     Jaime G%Deville%NULL%0,     James%Lin%NULL%1,     Alyssa%Ziman%NULL%1,     Kavita%Shankar%NULL%1,     Eric%Feucht%NULL%0,     Tom%Blok%NULL%1,     Don%Batts%NULL%1,     Bob%Beck%NULL%1,     Gail%Massey%NULL%1,     Carol%Bradley%NULL%1,     Judith%Feinberg%NULL%0,     Patricia%Carey%NULL%1,     Jenifer%Baer%NULL%1,     Eva Moore%Whitehead%NULL%1,     Sharon%Kohrs%NULL%1,     Robert%Giulitto%NULL%1,     Christina%Schofield%NULL%2,     Mary%Fairchok%NULL%1,     Susan%Chambers%NULL%1,     Cindy%Baker%NULL%1,     NULL%RN%NULL%1,     Michelle%Parker%NULL%1,     Marta%Harshbarger%NULL%1,     M Hong%Nguyen%NULL%1,     Mary Ellen%Carey%NULL%1,     Julie%Paronish%NULL%1,     Frank%Cornell%NULL%1,     Jim%Cramer%NULL%1,     Diana Lynn%Pakstis%NULL%1,     Michael G%Ison%NULL%1,     Richard%Wunderink%NULL%1,     Marshall%Glesby%NULL%1,     Kirsis%Ham%NULL%1,     Valery%Hughes%NULL%1,     Melissa%Cushing%NULL%0,     Cheryl%Goss%NULL%1,     Joanne%Grenade%NULL%1,     Pauline K%Park%NULL%1,     Lena M%Napolitano%NULL%1,     Krishnan%Raghavendran%NULL%1,     Robert C%Hyzy%NULL%1,     Robertson%Davenport%NULL%1,     Kristin%Brierley%NULL%1,     Theresa%Downs%NULL%1,     Michelle Ng%Gong%NULL%1,     Joan%Uehlinger%NULL%1,     Michael%Lin%NULL%2,     Janice%Fritsche%NULL%1,     Tondria%Green%NULL%1,     Bruce%McLeod%NULL%1,     Deena%Patel%NULL%1,     Mary F%Bavaro%NULL%1,     Robert%Deiss%NULL%1,     Carolyn%Brandt%NULL%1,     Stephanie%Cammarata%NULL%1,     Allan%Kremp%NULL%1,     Karine%Hollis-Perry%NULL%1,     Tahaniyat%Lalani%NULL%1,     Susan%Banks%NULL%1,     Jacqueline%Johnson%NULL%1,     Jason%Maguire%NULL%1,     Janet%McNiff%NULL%1,     Leslie E%Rigg%NULL%1,     Anuradha%Ganesan%NULL%1,     Irma%Barahona%NULL%1,     Janine%Danko%NULL%0,     Steven%Spencer%NULL%1,     David%Stagliano%NULL%1,     Timothy%Burgess%NULL%1,     Daniel%Talmor%NULL%1,     Monique%Mohammed%NULL%1,     Valerie%Banner-Goodspeed%NULL%1,     Robert%Salata%NULL%1,     Robert%Finberg%NULL%2,     Jennifer%Wang%NULL%1,     Karen%Longtine%NULL%1,     Jaclyn%Longtine%NULL%1,     Mellissa%O'Neil%NULL%1,     Philippe R%Bauer%NULL%1,     Ognjen%Gajic%NULL%1,     Suanne M%Weist%NULL%1,     Jonathan%Sevransky%NULL%1,     Mona%Brown%NULL%1,     John%Roback%NULL%1,     John%Oropello%NULL%1,     Bridget%Twohig%NULL%1,     Jeffrey%Jhang%NULL%0,     Rahgu%Seethala%NULL%1,     Wilbur H%Chen%NULL%1,     Magali%Fontaine%NULL%1,     Kapil%Saharia%NULL%1,     Jennifer%Husson%NULL%1,     Roberta%DeBiasi%NULL%1,     Jurran L%Wilson%NULL%1,     Valli Ree%Criss%NULL%1,     Jocelyn%Voell%NULL%1,     Susan%Leitman%NULL%1,     James Wade%Atkins%NULL%1,     Hemaxi%Patel%NULL%1,     Traci%Paige%NULL%1,     Cathy%Cantilena%NULL%1,     Donald%Siegel%NULL%1,     Faye%DeMuth%NULL%1,     Craig H%Fletcher%NULL%1,     J Peter R%Pelletier%NULL%1,     Hassan%Alnuaimat%NULL%1,     Michelle%Pourde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ John H%Beigel%null%1,      Evgenia%Aga%null%2,      Marie-Carmelle%Elie-Turenne%null%2,      Josalyn%Cho%null%2,      Pablo%Tebas%null%2,      Carol L%Clark%null%2,      Jordan P%Metcalf%null%2,      Caroline%Ozment%null%2,      Kanakatte%Raviprakash%null%2,      Joy%Beeler%null%2,      H Preston%Holley%null%1,      Stephanie%Warner%null%2,      Carla%Chorley%null%2,      H Clifford%Lane%null%1,      Michael D%Hughes%null%2,      Richard T%Davey%null%2,      John H%Beigel%null%1,      Evgenia%Aga%null%0,      Marie-Carmelle%Elie-Turenne%null%0,      Josalyn%Cho%null%0,      Pablo%Tebas%null%0,      Carol L%Clark%null%0,      Jordan P%Metcalf%null%0,      Caroline%Ozment%null%0,      Kanakatte%Raviprakash%null%0,      Joy%Beeler%null%0,      H. Preston%Holley%null%1,      Stephanie%Warner%null%0,      Carla%Chorley%null%0,      H. Clifford%Lane%null%1,      Michael D%Hughes%null%0,      Richard T%Davey%null%0,      Michelle%Barron%null%1,      Aveh%Bastani%null%1,      Philippe%Bauer%null%1,      William%Borkowsky%null%1,      Charles%Cairns%null%1,      Jaime%Deville%null%1,      Marie-Carmelle%Elie%null%1,      Carl%Fichtenbaum%null%1,      Robert%Finberg%null%1,      Mamta%Jain%null%1,      David%Kaufman%null%1,      Michael%Lin%null%1,      John%Lin%null%1,      Ryan%Maves%null%1,      Lee%Morrow%null%1,      Minh-Hong%Nguyen%null%1,      Pauline%Park%null%1,      Christopher%Polk%null%1,      Adrienne%Randolph%null%1,      Suchitra%Rao%null%1,      Lewis%Rubinson%null%1,      Christina%Schofield%null%1,      Shmuel%Shoham%null%1,      Erika%Stalets%null%1,      Renee D%Stapleton%null%1,     John H%Beigel%null%2,     Evgenia%Aga%null%0,     Marie-Carmelle%Elie-Turenne%null%0,     Josalyn%Cho%null%2,     Pablo%Tebas%null%0,     Carol L%Clark%null%2,     Jordan P%Metcalf%null%2,     Caroline%Ozment%null%2,     Kanakatte%Raviprakash%null%0,     Joy%Beeler%null%2,     H Preston%Holley%null%1,     Stephanie%Warner%null%2,     Carla%Chorley%null%2,     H Clifford%Lane%null%0,     Michael D%Hughes%null%0,     Richard T%Davey%null%0,     John H%Beigel%null%0,     Evgenia%Aga%null%0,     Marie-Carmelle%Elie-Turenne%null%0,     Josalyn%Cho%null%0,     Pablo%Tebas%null%0,     Carol L%Clark%null%0,     Jordan P%Metcalf%null%0,     Caroline%Ozment%null%0,     Kanakatte%Raviprakash%null%0,     Joy%Beeler%null%0,     H. Preston%Holley%null%1,     Stephanie%Warner%null%0,     Carla%Chorley%null%0,     H. Clifford%Lane%null%1,     Michael D%Hughes%null%0,     Richard T%Davey%null%0,     Michelle%Barron%null%1,     Aveh%Bastani%null%1,     Philippe%Bauer%null%1,     William%Borkowsky%null%1,     Charles%Cairns%null%1,     Jaime%Deville%null%1,     Marie-Carmelle%Elie%null%1,     Carl%Fichtenbaum%null%1,     Robert%Finberg%null%0,     Mamta%Jain%null%1,     David%Kaufman%null%1,     Michael%Lin%null%0,     John%Lin%null%1,     Ryan%Maves%null%1,     Lee%Morrow%null%1,     Minh-Hong%Nguyen%null%1,     Pauline%Park%null%1,     Christopher%Polk%null%1,     Adrienne%Randolph%null%1,     Suchitra%Rao%null%1,     Lewis%Rubinson%null%1,     Christina%Schofield%null%0,     Shmuel%Shoham%null%0,     Erika%Stalets%null%1,     Renee D%Stapleton%null%1]</t>
+  </si>
+  <si>
+    <t>[Caiying%Hu%coreGivesNoEmail%1,   Chenyue%Li%coreGivesNoEmail%1,   Conghui%Wang%coreGivesNoEmail%1,   Cuihua%Tao%coreGivesNoEmail%1,   E.%Deng%coreGivesNoEmail%1,   Haixia%Xu%coreGivesNoEmail%1,   Heng%Mei%coreGivesNoEmail%1,   Jianwei%Wang%coreGivesNoEmail%1,   Juan%Wang%coreGivesNoEmail%1,   Jue%Wang%coreGivesNoEmail%1,   Juntao%Yang%coreGivesNoEmail%1,   Li%Zeng%coreGivesNoEmail%1,   Lifeng%Chen%coreGivesNoEmail%1,   Lili%Ren%coreGivesNoEmail%1,   Ling%Li%coreGivesNoEmail%1,   Linqi%Zhang%coreGivesNoEmail%1,   Nian%Xiong%coreGivesNoEmail%1,   Ning%Man%coreGivesNoEmail%1,   Qing%Wei%coreGivesNoEmail%1,   Ru%Yang%coreGivesNoEmail%1,   Shangen%Zheng%coreGivesNoEmail%1,   Shisheng%Su%coreGivesNoEmail%1,   Wei%Zhang%coreGivesNoEmail%1,   Xiaoxiong%Wu%coreGivesNoEmail%1,   Xuejun%Zhang%coreGivesNoEmail%1,   Xunliang%Tong%coreGivesNoEmail%1,   Yanyun%Wu%coreGivesNoEmail%1,   Yong%Guo%coreGivesNoEmail%1,   Yongpei%Yu%coreGivesNoEmail%1,   Yu%Hu%coreGivesNoEmail%1,   Yu%Liu%coreGivesNoEmail%1,   Yujie%Kong%coreGivesNoEmail%1,   Zhihua%Xu%coreGivesNoEmail%1,   Zhong%Liu%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Ivan F.N.%Hung%null%1,      Kelvin K.W.%To%null%1,      Cheuk-Kwong%Lee%null%1,      Kar-Lung%Lee%null%1,      Wing-Wa%Yan%null%1,      Kenny%Chan%null%1,      Wai-Ming%Chan%null%1,      Chun-Wai%Ngai%null%1,      Kin-Ip%Law%null%1,      Fu-Loi%Chow%null%1,      Raymond%Liu%null%1,      Kang-Yiu%Lai%null%1,      Candy C.Y.%Lau%null%1,      Shao-Haei%Liu%null%1,      Kwok-Hung%Chan%null%0,      Che-Kit%Lin%null%1,      Kwok-Yung%Yuen%null%0,     Ivan F.N.%Hung%null%1,     Kelvin K.W.%To%null%1,     Cheuk-Kwong%Lee%null%2,     Kar-Lung%Lee%null%2,     Wing-Wa%Yan%null%1,     Kenny%Chan%null%2,     Wai-Ming%Chan%null%2,     Chun-Wai%Ngai%null%1,     Kin-Ip%Law%null%1,     Fu-Loi%Chow%null%2,     Raymond%Liu%null%2,     Kang-Yiu%Lai%null%2,     Candy C.Y.%Lau%null%1,     Shao-Haei%Liu%null%2,     Kwok-Hung%Chan%null%3,     Che-Kit%Lin%null%2,     Kwok-Yung%Yuen%null%0]</t>
+  </si>
+  <si>
+    <t>[Arvind%Gharbharan%NULL%1,     Carlijn C. E.%Jordans%NULL%1,     Corine%GeurtsvanKessel%NULL%1,     Jan G.%den Hollander%NULL%2,     Jan G.%den Hollander%NULL%0,     Faiz%Karim%NULL%1,     Femke P. N.%Mollema%NULL%1,     Janneke E.%Stalenhoef – Schukken%NULL%1,     Anthonius%Dofferhoff%NULL%2,     Anthonius%Dofferhoff%NULL%0,     Inge%Ludwig%NULL%1,     Adrianus%Koster%NULL%1,     Robert-Jan%Hassing%NULL%1,     Jeannet C.%Bos%NULL%1,     Geert R.%van Pottelberge%NULL%1,     Imro N.%Vlasveld%NULL%1,     Heidi S. M.%Ammerlaan%NULL%1,     Elena M.%van Leeuwen – Segarceanu%NULL%1,     Jelle%Miedema%NULL%1,     Menno%van der Eerden%NULL%1,     Thijs J.%Schrama%NULL%1,     Grigorios%Papageorgiou%NULL%2,     Grigorios%Papageorgiou%NULL%0,     Peter%te Boekhorst%NULL%1,     Francis H.%Swaneveld%NULL%1,     Yvonne M.%Mueller%NULL%1,     Marco W. J.%Schreurs%NULL%2,     Marco W. J.%Schreurs%NULL%0,     Jeroen J. A.%van Kampen%NULL%1,     Barry%Rockx%NULL%1,     Nisreen M. A.%Okba%NULL%2,     Nisreen M. A.%Okba%NULL%0,     Peter D.%Katsikis%NULL%2,     Peter D.%Katsikis%NULL%0,     Marion P. G.%Koopmans%NULL%3,     Marion P. G.%Koopmans%NULL%0,     Bart L.%Haagmans%NULL%2,     Bart L.%Haagmans%NULL%0,     Casper%Rokx%c.rokx@erasmusmc.nl%2,     Casper%Rokx%c.rokx@erasmusmc.nl%0,     Bart J. A.%Rijnders%NULL%2,     Bart J. A.%Rijnders%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gordin%Fred M.%coreGivesNoEmail%1,   INSIGHT%FLU005 IVIG Pilot Study Group.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alcam\u00ed%Jos\u00e9%coreGivesNoEmail%1,   Avenda\u00f1o-Sol\u00e1%Cristina%coreGivesNoEmail%1,   Blanco%Lydia%coreGivesNoEmail%1,   Bueno%Jose L%coreGivesNoEmail%1,   Calder\u00f3n-Parra%Jorge%coreGivesNoEmail%1,   Casas-Flecha%Inmaculada%coreGivesNoEmail%1,   ConPlas-19%Study Group%coreGivesNoEmail%1,   de%Oteyza Jaime P\u00e9rez%coreGivesNoEmail%1,   Duarte%Rafael F%coreGivesNoEmail%1,   D\u00edaz%de Santiago Alberto%coreGivesNoEmail%1,   Fern\u00e1ndez-Cruz%Ana%coreGivesNoEmail%1,   Garcia-Perez%Javier%coreGivesNoEmail%1,   Jarilla-Fern\u00e1ndez%Maria C%coreGivesNoEmail%1,   Lora-Tamayo%Jaime%coreGivesNoEmail%1,   Madrigal-S\u00e1nchez%Maria E%coreGivesNoEmail%1,   Malo%de Molina Rosa%coreGivesNoEmail%1,   Manche\u00f1o-Losa%Mikel%coreGivesNoEmail%1,   Mart\u00ednez-Gonz\u00e1lez%A L%coreGivesNoEmail%1,   Moreno-Chulilla%J A%coreGivesNoEmail%1,   Mu\u00f1ez-Rubio%Elena%coreGivesNoEmail%1,   Mu\u00f1iz-D\u00edaz%Eduardo%coreGivesNoEmail%1,   Nu\u00f1ez-Orantos%Maria J%coreGivesNoEmail%1,   Paciello%Maria L%coreGivesNoEmail%1,   Payares-Herrera%Concepcion%coreGivesNoEmail%1,   Pa\u00f1o-Pardo%Jos\u00e9 R%coreGivesNoEmail%1,   Perez-Olmeda%Mayte%coreGivesNoEmail%1,   Pintos%Ilduara%coreGivesNoEmail%1,   Porras-Leal%Maria L%coreGivesNoEmail%1,   Ramos-Garrido%Ascension%coreGivesNoEmail%1,   Ramos-Mart\u00ednez%Antonio%coreGivesNoEmail%1,   Romera-Mart\u00ednez%Irene%coreGivesNoEmail%1,   Rubio-Batll\u00e9s%Martin%coreGivesNoEmail%1,   Ruiz-Antor\u00e1n%Belen%coreGivesNoEmail%1,   Saez-Serrano%Maria Isabel%coreGivesNoEmail%1,   Torres%Ferran%coreGivesNoEmail%1,   Velasco-Iglesias%Ana%coreGivesNoEmail%1,   Vid\u00e1n-Est\u00e9vez%Julia%coreGivesNoEmail%1,   Villares%Paula%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Agarwal%NULL%1,     Aparna%Mukherjee%NULL%2,     Gunjan%Kumar%NULL%3,     Gunjan%Kumar%NULL%0,     Pranab%Chatterjee%NULL%2,     Tarun%Bhatnagar%NULL%2,     Pankaj%Malhotra%NULL%2,     NULL%NULL%NULL%0,     NULL%NULL%NULL%0,     Anup%Agarwal%NULL%1,     Aparna%Mukherjee%NULL%0,     Gunjan%Kumar%NULL%0,     Pranab%Chatterjee%NULL%0,     Tarun%Bhatnagar%NULL%0,     Pankaj%Malhotra%NULL%0,     B%Latha%NULL%1,     Sunita%Bundas%NULL%1,     Vivek%Kumar%NULL%2,     Ravi%Dosi%NULL%1,     Janak Kumar%Khambholja%NULL%1,     Rosemarie%de Souza%NULL%1,     Raja Rao%Mesipogu%NULL%1,     Saurabh%Srivastava%NULL%1,     Simmi%Dube%NULL%1,     Kiran%Chaudhary%NULL%1,     S%Subash%NULL%1,     S%Anbuselvi%NULL%1,     V%Rajendran%NULL%1,     A%Sundararajaperumal%NULL%1,     P%Balamanikandan%NULL%1,     R S Uma%Maheswari%NULL%1,     R%Jayanthi%NULL%1,     S%Ragunanthanan%NULL%1,     Sudhir%Bhandari%NULL%1,     Ajeet%Singh%NULL%1,     Ashok%Pal%NULL%1,     Anjali%Handa%NULL%1,     Govind%Rankawat%NULL%1,     Ketan%Kargirwar%NULL%1,     Joyce%Regi%NULL%1,     Darshana%Rathod%NULL%1,     Edwin%Pathrose%NULL%1,     Nirankar%Bhutaka%NULL%1,     Mayur H%Patel%NULL%1,     Rahul J%Verma%NULL%1,     Kamal%Malukani%NULL%1,     Shivani%Patel%NULL%1,     Apurv%Thakur%NULL%1,     Satish%Joshi%NULL%1,     Rashmi%Kulkarni%NULL%1,     Nilay N%Suthar%NULL%1,     Nehal M%Shah%NULL%1,     Hemang M%Purohit%NULL%1,     Cherry K%Shah%NULL%1,     Monila N%Patel%NULL%1,     Saket%Shah%NULL%1,     Smit T%Shah%NULL%1,     Tehsim%Memon%NULL%1,     Vishal R%Beriwala%NULL%1,     Kusum%Jashnani%NULL%1,     Fatema%Ezzy%NULL%1,     Simran%Agrawal%NULL%1,     Rakesh%Bhadade%NULL%1,     MN%Atish%NULL%1,     Tushar%Madke%NULL%1,     Vikas%Kavishwar%NULL%1,     Ramesh%Waghmare%NULL%1,     Nitin%Valvi%NULL%1,     B Thrilok%Chander%NULL%1,     A Vinaya%Sekhar%NULL%1,     Akhilesh Kumar%Maurya%NULL%1,     K%Hemanth%NULL%1,     K%Nagamani%NULL%1,     K%Sudha%NULL%1,     T Ravi%Chandra%NULL%1,     K Tushara%Rao%NULL%1,     J%Vyshnavi%NULL%1,     Rashmi%Upadhyay%NULL%1,     Shalini%Bahadur%NULL%1,     Rambha%Pathak%NULL%1,     Shikha%Seth%NULL%1,     Rakesh%Gupta%NULL%1,     Rita%Saxena%NULL%1,     Preksha%Dwivedi%NULL%1,     Reeni%Malik%NULL%1,     Deepti%Chourasia%NULL%1,     Jaya%Lalwani%NULL%1,     UM%Sharma%NULL%1,     JL%Marko%NULL%1,     Amit%Suri%NULL%1,     Vijay%Kumar%NULL%1,     Rajnish%Kaushik%NULL%1,     Parul%Kodan%NULL%1,     Bhabani Prasad%Acharya%NULL%1,     Kuldeep Kumar%Gaur%NULL%1,     Anubhav%Gupta%NULL%1,     Prerna%Sachdeva%NULL%1,     Shruti%Dogra%NULL%1,     Aikaj%Jindal%NULL%1,     M Joseph%John%NULL%1,     Avtar Singh%Dhanju%NULL%1,     Ranjana%Khetrepal%NULL%1,     Neeraj%Sharma%NULL%1,     Neetu%Kukar%NULL%1,     Divya%Kavita%NULL%1,     Rajesh%Kumar%NULL%1,     Rajesh%Mahajan%NULL%1,     Gurpreet%Singh%NULL%1,     Jaspreet%Kaur%NULL%1,     Raminder Pal%Singh%NULL%1,     Rajni%Bassi%NULL%1,     Swapneil%Parikh%NULL%1,     Om%Shrivastav%NULL%1,     Jayanthi%Shastri%NULL%1,     Maherra%Desai%NULL%1,     Shreevatsa%Udupa%NULL%1,     Varun A%Bafna%NULL%1,     Vijay%Barge%NULL%1,     Rajendra%Madane%NULL%1,     Sheetal%Yadav%NULL%1,     Sanjeev%Misra%NULL%1,     Archana%Bajpayee%NULL%1,     M K%Garg%NULL%1,     G K%Bohra%NULL%1,     Vijaylakshmi%Nag%NULL%1,     Puneeth Babu%Anne%NULL%1,     Mohd%Nadeem%NULL%1,     Pallavi%Singh%NULL%1,     Ram%Niwas%NULL%1,     Niranjan Shiwaji%Khaire%NULL%1,     Rattiram%Sharma%NULL%1,     Mini P%Singh%NULL%1,     Naresh%Sachdeva%NULL%1,     Suchet%Sachdev%NULL%1,     Rekha%Hans%NULL%1,     Vikas%Suri%NULL%1,     LN%Yaddanapudi%NULL%1,     PVM%Lakshmi%NULL%1,     Neha%Singh%NULL%1,     Divendu%Bhushan%NULL%1,     Neeraj%Kumar%NULL%1,     Muralidhar%Tambe%NULL%1,     Sonali%Salvi%NULL%1,     Nalini%Kadgi%NULL%1,     Shashikala%Sangle%NULL%1,     Leena%Nakate%NULL%1,     Samir%Joshi%NULL%1,     Rajesh%Karyakarte%NULL%1,     Suraj%Goyanka%NULL%1,     Nimisha%Sharma%NULL%1,     Nikhil%Verma%NULL%1,     Asim%Das%NULL%1,     Monika%Bahl%NULL%1,     Nitya%Wadhwa%NULL%1,     Shreepad%Bhat%NULL%1,     Shweta%Deshmukh%NULL%1,     Vrushali%Wagh%NULL%1,     Atul%Kulkarni%NULL%1,     Tanvi%Yardi%NULL%1,     Ram S%Kalgud%NULL%1,     Purushottam%Reddy%NULL%1,     Kavitha%Yevoor%NULL%1,     Prashanth%Gajula%NULL%1,     Vivek%Maleyur%NULL%1,     S%Medini%NULL%1,     HN%Mohith%NULL%1,     Anil%Gurtoo%NULL%1,     Ritika%Sud%NULL%1,     Sangeeta%Pahuja%NULL%1,     Anupam%Prakash%NULL%1,     Parijat%Gogoi%NULL%1,     Shailja%Shukla%NULL%1,     D Himanshu%Reddy%NULL%1,     Tulika%Chandra%NULL%1,     Saurabh%Pandey%NULL%1,     Pradeep%Maurya%NULL%1,     Wahid%Ali%NULL%1,     Vivek%Kumar%NULL%0,     Kamlesh%Upadhyay%NULL%1,     Nidhi%Bhatnagar%NULL%1,     Nilima%Shah%NULL%1,     Mamta%Shah%NULL%1,     Tarak%Patel%NULL%1,     Ram Mohan%Jaiswal%NULL%1,     Ashish%Jain%NULL%1,     Shweta%Sharma%NULL%1,     Puneet%Rijhwani%NULL%1,     Naveen%Gupta%NULL%1,     Tinkal C%Patel%NULL%1,     Mahesh G%Solu%NULL%1,     Jitendra%Patel%NULL%1,     Yash R%Shah%NULL%1,     Mayur%Jarag%NULL%1,     Varsha%Godbole%NULL%1,     Meenakshi%Shah%NULL%1,     Rikin%Raj%NULL%1,     Irfan%Nagori%NULL%1,     Pramod R%Jha%NULL%1,     Arti D%Shah%NULL%1,     Gowtham%Yeeli%NULL%1,     Archit%Jain%NULL%1,     Rooppreet Kaur%Gill%NULL%1,     KV Sreedhar%Babu%NULL%1,     B Suresh%Babu%NULL%1,     Alladi%Mohan%NULL%1,     B%Vengamma%NULL%1,     K Chandra%Sekhar%NULL%1,     Srinivasulu%Damam%NULL%1,     K%Narsimhulu%NULL%1,     C%Aparna%NULL%1,     G%Baleswari%NULL%1,     K Ravindranath%Reddy%NULL%1,     P%Chandrasekhar%NULL%1,     Sunil Jodharam%Panjwani%NULL%1,     Pragnesh H%Shah%NULL%1,     Manish%Barvaliya%NULL%1,     Kairavi%Desai%NULL%1,     Pankaj J%Akholkar%NULL%1,     Milind%Baldi%NULL%1,     Ashok%Yadav%NULL%1,     Manoj%Gupta%NULL%1,     Nitin%Rawat%NULL%1,     Dilip%Chawda%NULL%1,     M%Natarajan%NULL%1,     M%Sintha%NULL%1,     David Pradeep%Kumar%NULL%1,     Fathhur%Rabbani%NULL%1,     Vrushali Khirid%Khadke%NULL%1,     Dattatray%Patki%NULL%1,     Sonali%Marathe%NULL%1,     Clyde%D’Souza%NULL%1,     Vipul%Tadha%NULL%1,     Satyam%Arora%NULL%1,     Devendra Kumar%Gupta%NULL%1,     Seema%Dua%NULL%1,     Nitu%Chauhan%NULL%1,     Ajeet Singh%Chahar%NULL%1,     Joy John%Mammen%NULL%1,     Snehil%Kumar%NULL%1,     Dolly%Daniel%NULL%1,     Ravindraa%Singh%NULL%1,     Venkatesh%Dhat%NULL%1,     Yogesh%Agarwal%NULL%1,     Sohini%Arora%NULL%1,     Ashish%Pathak%NULL%1,     Manju%Purohit%NULL%1,     Ashish%Sharma%NULL%1,     Jayashree%Sharma%NULL%1,     Manisha%Madkaikar%NULL%1,     Kavita%Joshi%NULL%1,     Reetika Malik%Yadav%NULL%1,     Swarupa%Bhagwat%NULL%1,     Niteen D%Karnik%NULL%1,     Yojana A%Gokhale%NULL%1,     Leena%Naik%NULL%1,     Sangita%Margam%NULL%1,     Santasabuj%Das%NULL%1,     Alka%Turuk%NULL%1,     V Saravana%Kumar%NULL%1,     K%Kanagasabai%NULL%1,     R%Sabarinathan%NULL%1,     Gururaj%Deshpande%NULL%1,     Sharda%Sharma%NULL%1,     Rashmi%Gunjikar%NULL%1,     Anita%Shete%NULL%1,     Darpan%Phagiwala%NULL%1,     Chetan%Patil%NULL%1,     Snehal%Shingade%NULL%1,     Kajal%Jarande%NULL%1,     Himanshu%Kaushal%NULL%1,     Pragya%Yadav%NULL%1,     Gajanan%Sapkal%NULL%1,     Priya%Abraham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan FN%Hung%NULL%1,     Kelvin KW%To%NULL%1,     Cheuk-Kwong%Lee%NULL%0,     Kar-Lung%Lee%NULL%0,     Kenny%Chan%NULL%0,     Wing-Wah%Yan%NULL%1,     Raymond%Liu%NULL%0,     Chi-Leung%Watt%NULL%1,     Wai-Ming%Chan%NULL%0,     Kang-Yiu%Lai%NULL%0,     Chi-Kwan%Koo%NULL%1,     Tom%Buckley%NULL%1,     Fu-Loi%Chow%NULL%0,     Kwan-Keung%Wong%NULL%1,     Hok-Sum%Chan%NULL%1,     Chi-Keung%Ching%NULL%1,     Bone SF%Tang%NULL%1,     Candy CY%Lau%NULL%1,     Iris WS%Li%NULL%1,     Shao-Haei%Liu%NULL%0,     Kwok-Hung%Chan%NULL%0,     Che-Kit%Lin%NULL%0,     Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y. O. Y.%Soo%NULL%1,     Y.%Cheng%NULL%1,     R.%Wong%NULL%2,     D. S.%Hui%NULL%1,     C. K.%Lee%NULL%2,     K. K. S.%Tsang%NULL%1,     M. H. L.%Ng%NULL%2,     P.%Chan%NULL%2,     G.%Cheng%NULL%2,     J. J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongjie%Yu%NULL%1,     Zhancheng%Gao%NULL%0,     Zijian%Feng%NULL%2,     Yuelong%Shu%NULL%1,     Nijuan%Xiang%NULL%2,     Lei%Zhou%NULL%2,     Yang%Huai%NULL%1,     Luzhao%Feng%NULL%0,     Zhibin%Peng%NULL%1,     Zhongjie%Li%NULL%1,     Cuiling%Xu%NULL%1,     Junhua%Li%NULL%0,     Chengping%Hu%NULL%1,     Qun%Li%NULL%1,     Xiaoling%Xu%NULL%1,     Xuecheng%Liu%NULL%1,     Zigui%Liu%NULL%1,     Longshan%Xu%NULL%1,     Yusheng%Chen%NULL%1,     Huiming%Luo%NULL%1,     Liping%Wei%NULL%1,     Xianfeng%Zhang%NULL%1,     Jianbao%Xin%NULL%1,     Junqiao%Guo%NULL%1,     Qiuyue%Wang%NULL%1,     Zhengan%Yuan%NULL%1,     Longnv%Zhou%NULL%1,     Kunzhao%Zhang%NULL%1,     Wei%Zhang%NULL%0,     Jinye%Yang%NULL%1,     Xiaoning%Zhong%NULL%1,     Shichang%Xia%NULL%1,     Lanjuan%Li%NULL%0,     Jinquan%Cheng%NULL%1,     Erdang%Ma%NULL%1,     Pingping%He%NULL%1,     Shui Shan%Lee%NULL%1,     Yu%Wang%NULL%3,     Timothy M.%Uyeki%NULL%0,     Weizhong%Yang%NULL%1,     Joel Mark%Montgomery%NULL%0,     Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y.%Cheng%NULL%1,     R.%Wong%NULL%0,     Y. O. Y.%Soo%NULL%1,     W. S.%Wong%NULL%1,     C. K.%Lee%NULL%0,     M. H. L.%Ng%NULL%0,     P.%Chan%NULL%0,     K. C.%Wong%NULL%1,     C. B.%Leung%NULL%1,     G.%Cheng%gcheng@cuhk.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Duan%NULL%1,     Bende%Liu%NULL%2,     Bende%Liu%NULL%0,     Cesheng%Li%NULL%1,     Huajun%Zhang%NULL%1,     Ting%Yu%NULL%0,     Ting%Yu%NULL%0,     Jieming%Qu%NULL%0,     Min%Zhou%NULL%0,     Min%Zhou%NULL%0,     Li%Chen%NULL%0,     Li%Chen%NULL%0,     Shengli%Meng%NULL%2,     Shengli%Meng%NULL%0,     Yong%Hu%NULL%1,     Cheng%Peng%NULL%1,     Mingchao%Yuan%NULL%1,     Jinyan%Huang%NULL%1,     Zejun%Wang%NULL%2,     Zejun%Wang%NULL%0,     Jianhong%Yu%NULL%1,     Xiaoxiao%Gao%NULL%1,     Dan%Wang%NULL%1,     Xiaoqi%Yu%NULL%1,     Li%Li%NULL%0,     Li%Li%NULL%0,     Jiayou%Zhang%NULL%2,     Jiayou%Zhang%NULL%0,     Xiao%Wu%NULL%1,     Bei%Li%NULL%1,     Yanping%Xu%NULL%1,     Wei%Chen%NULL%0,     Wei%Chen%NULL%0,     Yan%Peng%NULL%1,     Yeqin%Hu%NULL%1,     Lianzhen%Lin%NULL%1,     Xuefei%Liu%NULL%1,     Shihe%Huang%NULL%1,     Zhijun%Zhou%NULL%1,     Lianghao%Zhang%NULL%1,     Yue%Wang%NULL%1,     Zhi%Zhang%NULL%1,     Kun%Deng%NULL%1,     Zhiwu%Xia%NULL%1,     Qin%Gong%NULL%1,     Wei%Zhang%NULL%0,     Xiaobei%Zheng%NULL%1,     Ying%Liu%NULL%0,     Huichuan%Yang%NULL%1,     Dongbo%Zhou%NULL%1,     Ding%Yu%NULL%1,     Jifeng%Hou%NULL%1,     Zhengli%Shi%NULL%0,     Saijuan%Chen%NULL%1,     Zhu%Chen%NULL%1,     Xinxin%Zhang%NULL%0,     Xiaoming%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[F.%Sahr%NULL%1,     R.%Ansumana%rashidansumana@gmail.com%1,     T.A.%Massaquoi%NULL%1,     B.R.%Idriss%NULL%1,     F.R.%Sesay%NULL%1,     J.M.%Lamin%NULL%1,     S.%Baker%NULL%1,     S.%Nicol%NULL%1,     B.%Conton%NULL%1,     W.%Johnson%NULL%1,     O.T.%Abiri%NULL%1,     O.%Kargbo%NULL%1,     P.%Kamara%NULL%1,     A.%Goba%NULL%1,     J.B.W.%Russell%NULL%1,     S.M.%Gevao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qing-Lei%Zeng%zengqinglei2009@163.com%1,     Zu-Jiang%Yu%NULL%1,     Jian-Jun%Gou%NULL%1,     Guang-Ming%Li%NULL%1,     Shu-Huan%Ma%NULL%1,     Guo-Fan%Zhang%NULL%1,     Jiang-Hai%Xu%NULL%1,     Wan-Bao%Lin%NULL%1,     Guang-Lin%Cui%NULL%1,     Min-Min%Zhang%NULL%1,     Cheng%Li%NULL%1,     Ze-Shuai%Wang%NULL%1,     Zhi-Hao%Zhang%NULL%1,     Zhang-Suo%Liu%zengqinglei2009@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hassan%Abolghasemi%NULL%1,     Peyman%Eshghi%NULL%1,     Abdol Majid%Cheraghali%NULL%1,     Abbas Ali%Imani Fooladi%NULL%1,     Farzaneh%Bolouki Moghaddam%NULL%1,     Sina%Imanizadeh%NULL%1,     Matin%Moeini Maleki%NULL%1,     Mohammad%Ranjkesh%NULL%1,     Mohammad%Rezapour%NULL%1,     Ali%Bahramifar%NULL%1,     Behzad%Einollahi%NULL%1,     Mohammad Javad%Hosseini%NULL%1,     Nematollah Joneidi%Jafari%NULL%1,     Mohamad%Nikpouraghdam%NULL%1,     Nariman%Sadri%NULL%1,     Mokhtar%Tazik%NULL%1,     Shanaz%Sali%NULL%1,     Shamsi%Okati%NULL%1,     Elham%Askari%NULL%1,     Payam%Tabarsi%NULL%2,     Jafar%Aslani%NULL%1,     Ehsan%Sharifipour%NULL%1,     Mohammad Hossein%Jarahzadeh%NULL%1,     Nastaran%Khodakarim%NULL%1,     Mahmood%Salesi%NULL%1,     Ramezan%Jafari%NULL%1,     Samira%Shahverdi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[John H%Beigel%jbeigel@niaid.nih.gov%1,      Pablo%Tebas%NULL%4,      Marie-Carmelle%Elie-Turenne%NULL%4,      Ednan%Bajwa%NULL%2,      Todd E%Bell%NULL%2,      Charles B%Cairns%NULL%2,      Shmuel%Shoham%NULL%3,      Jaime G%Deville%NULL%2,      Eric%Feucht%NULL%2,      Judith%Feinberg%NULL%2,      Thomas%Luke%NULL%1,      Kanakatte%Raviprakash%NULL%3,      Janine%Danko%NULL%2,      Dorothy%O'Neil%NULL%1,      Julia A%Metcalf%NULL%1,      Karen%King%NULL%1,      Timothy H%Burgess%NULL%1,      Evgenia%Aga%NULL%3,      H Clifford%Lane%NULL%2,      Michael D%Hughes%NULL%3,      Richard T%Davey%NULL%3,      Pablo%Tebas%NULL%0,      Joseph%Quinn%NULL%1,      Yan%Jiang%NULL%2,      Marie-Carmelle%Elie-Turenne%NULL%0,      Robyn%Hoelle%NULL%1,      Nicole%Iovine%NULL%1,      Robert Shawn%Wills%NULL%1,      Socorro%Pata%NULL%1,      Monique%Huggins%NULL%1,      Belinda%Manukian%NULL%1,      Ednan%Bajwa%NULL%0,      Carrie%Holland%NULL%1,      Kelsey%Brait%NULL%1,      Taylor%Hunt%NULL%1,      Christopher%Stowell%NULL%1,      Amy%Slater%NULL%1,      Todd E%Bell%NULL%0,      Mary%Townsends%NULL%1,      Charles B%Cairns%NULL%0,      Eugenia B%Quackenbush%NULL%1,      Yara A%Park%NULL%1,      Paul Gaither%Jordan%NULL%1,      Cherie%Blanchet%NULL%1,      Kevin%Chronowski%NULL%1,      Kathleen%Alvarez%NULL%1,      Shmuel%Shoham%NULL%0,      Darin%Ostrander%NULL%1,      Terry%Woessner%NULL%1,      Sandra%Thoman%NULL%1,      Jaime G%Deville%NULL%0,      James%Lin%NULL%1,      Alyssa%Ziman%NULL%1,      Kavita%Shankar%NULL%1,      Eric%Feucht%NULL%0,      Tom%Blok%NULL%1,      Don%Batts%NULL%1,      Bob%Beck%NULL%1,      Gail%Massey%NULL%1,      Carol%Bradley%NULL%1,      Judith%Feinberg%NULL%0,      Patricia%Carey%NULL%1,      Jenifer%Baer%NULL%1,      Eva Moore%Whitehead%NULL%1,      Sharon%Kohrs%NULL%1,      Robert%Giulitto%NULL%1,      Christina%Schofield%NULL%2,      Mary%Fairchok%NULL%1,      Susan%Chambers%NULL%1,      Cindy%Baker%NULL%1,      NULL%RN%NULL%1,      Michelle%Parker%NULL%1,      Marta%Harshbarger%NULL%1,      M Hong%Nguyen%NULL%1,      Mary Ellen%Carey%NULL%1,      Julie%Paronish%NULL%1,      Frank%Cornell%NULL%1,      Jim%Cramer%NULL%1,      Diana Lynn%Pakstis%NULL%1,      Michael G%Ison%NULL%1,      Richard%Wunderink%NULL%1,      Marshall%Glesby%NULL%1,      Kirsis%Ham%NULL%1,      Valery%Hughes%NULL%1,      Melissa%Cushing%NULL%0,      Cheryl%Goss%NULL%1,      Joanne%Grenade%NULL%1,      Pauline K%Park%NULL%1,      Lena M%Napolitano%NULL%1,      Krishnan%Raghavendran%NULL%1,      Robert C%Hyzy%NULL%1,      Robertson%Davenport%NULL%1,      Kristin%Brierley%NULL%1,      Theresa%Downs%NULL%1,      Michelle Ng%Gong%NULL%1,      Joan%Uehlinger%NULL%1,      Michael%Lin%NULL%2,      Janice%Fritsche%NULL%1,      Tondria%Green%NULL%1,      Bruce%McLeod%NULL%1,      Deena%Patel%NULL%1,      Mary F%Bavaro%NULL%1,      Robert%Deiss%NULL%1,      Carolyn%Brandt%NULL%1,      Stephanie%Cammarata%NULL%1,      Allan%Kremp%NULL%1,      Karine%Hollis-Perry%NULL%1,      Tahaniyat%Lalani%NULL%1,      Susan%Banks%NULL%1,      Jacqueline%Johnson%NULL%1,      Jason%Maguire%NULL%1,      Janet%McNiff%NULL%1,      Leslie E%Rigg%NULL%1,      Anuradha%Ganesan%NULL%1,      Irma%Barahona%NULL%1,      Janine%Danko%NULL%0,      Steven%Spencer%NULL%1,      David%Stagliano%NULL%1,      Timothy%Burgess%NULL%1,      Daniel%Talmor%NULL%1,      Monique%Mohammed%NULL%1,      Valerie%Banner-Goodspeed%NULL%1,      Robert%Salata%NULL%1,      Robert%Finberg%NULL%2,      Jennifer%Wang%NULL%1,      Karen%Longtine%NULL%1,      Jaclyn%Longtine%NULL%1,      Mellissa%O'Neil%NULL%1,      Philippe R%Bauer%NULL%1,      Ognjen%Gajic%NULL%1,      Suanne M%Weist%NULL%1,      Jonathan%Sevransky%NULL%1,      Mona%Brown%NULL%1,      John%Roback%NULL%1,      John%Oropello%NULL%1,      Bridget%Twohig%NULL%1,      Jeffrey%Jhang%NULL%0,      Rahgu%Seethala%NULL%1,      Wilbur H%Chen%NULL%1,      Magali%Fontaine%NULL%1,      Kapil%Saharia%NULL%1,      Jennifer%Husson%NULL%1,      Roberta%DeBiasi%NULL%1,      Jurran L%Wilson%NULL%1,      Valli Ree%Criss%NULL%1,      Jocelyn%Voell%NULL%1,      Susan%Leitman%NULL%1,      James Wade%Atkins%NULL%1,      Hemaxi%Patel%NULL%1,      Traci%Paige%NULL%1,      Cathy%Cantilena%NULL%1,      Donald%Siegel%NULL%1,      Faye%DeMuth%NULL%1,      Craig H%Fletcher%NULL%1,      J Peter R%Pelletier%NULL%1,      Hassan%Alnuaimat%NULL%1,      Michelle%Pourde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ John H%Beigel%null%1,       Evgenia%Aga%null%2,       Marie-Carmelle%Elie-Turenne%null%2,       Josalyn%Cho%null%2,       Pablo%Tebas%null%2,       Carol L%Clark%null%2,       Jordan P%Metcalf%null%2,       Caroline%Ozment%null%2,       Kanakatte%Raviprakash%null%2,       Joy%Beeler%null%2,       H Preston%Holley%null%1,       Stephanie%Warner%null%2,       Carla%Chorley%null%2,       H Clifford%Lane%null%1,       Michael D%Hughes%null%2,       Richard T%Davey%null%2,       John H%Beigel%null%1,       Evgenia%Aga%null%0,       Marie-Carmelle%Elie-Turenne%null%0,       Josalyn%Cho%null%0,       Pablo%Tebas%null%0,       Carol L%Clark%null%0,       Jordan P%Metcalf%null%0,       Caroline%Ozment%null%0,       Kanakatte%Raviprakash%null%0,       Joy%Beeler%null%0,       H. Preston%Holley%null%1,       Stephanie%Warner%null%0,       Carla%Chorley%null%0,       H. Clifford%Lane%null%1,       Michael D%Hughes%null%0,       Richard T%Davey%null%0,       Michelle%Barron%null%1,       Aveh%Bastani%null%1,       Philippe%Bauer%null%1,       William%Borkowsky%null%1,       Charles%Cairns%null%1,       Jaime%Deville%null%1,       Marie-Carmelle%Elie%null%1,       Carl%Fichtenbaum%null%1,       Robert%Finberg%null%1,       Mamta%Jain%null%1,       David%Kaufman%null%1,       Michael%Lin%null%1,       John%Lin%null%1,       Ryan%Maves%null%1,       Lee%Morrow%null%1,       Minh-Hong%Nguyen%null%1,       Pauline%Park%null%1,       Christopher%Polk%null%1,       Adrienne%Randolph%null%1,       Suchitra%Rao%null%1,       Lewis%Rubinson%null%1,       Christina%Schofield%null%1,       Shmuel%Shoham%null%1,       Erika%Stalets%null%1,       Renee D%Stapleton%null%1,      John H%Beigel%null%2,      Evgenia%Aga%null%0,      Marie-Carmelle%Elie-Turenne%null%0,      Josalyn%Cho%null%2,      Pablo%Tebas%null%0,      Carol L%Clark%null%2,      Jordan P%Metcalf%null%2,      Caroline%Ozment%null%2,      Kanakatte%Raviprakash%null%0,      Joy%Beeler%null%2,      H Preston%Holley%null%1,      Stephanie%Warner%null%2,      Carla%Chorley%null%2,      H Clifford%Lane%null%0,      Michael D%Hughes%null%0,      Richard T%Davey%null%0,      John H%Beigel%null%0,      Evgenia%Aga%null%0,      Marie-Carmelle%Elie-Turenne%null%0,      Josalyn%Cho%null%0,      Pablo%Tebas%null%0,      Carol L%Clark%null%0,      Jordan P%Metcalf%null%0,      Caroline%Ozment%null%0,      Kanakatte%Raviprakash%null%0,      Joy%Beeler%null%0,      H. Preston%Holley%null%1,      Stephanie%Warner%null%0,      Carla%Chorley%null%0,      H. Clifford%Lane%null%1,      Michael D%Hughes%null%0,      Richard T%Davey%null%0,      Michelle%Barron%null%1,      Aveh%Bastani%null%1,      Philippe%Bauer%null%1,      William%Borkowsky%null%1,      Charles%Cairns%null%1,      Jaime%Deville%null%1,      Marie-Carmelle%Elie%null%1,      Carl%Fichtenbaum%null%1,      Robert%Finberg%null%0,      Mamta%Jain%null%1,      David%Kaufman%null%1,      Michael%Lin%null%0,      John%Lin%null%1,      Ryan%Maves%null%1,      Lee%Morrow%null%1,      Minh-Hong%Nguyen%null%1,      Pauline%Park%null%1,      Christopher%Polk%null%1,      Adrienne%Randolph%null%1,      Suchitra%Rao%null%1,      Lewis%Rubinson%null%1,      Christina%Schofield%null%0,      Shmuel%Shoham%null%0,      Erika%Stalets%null%1,      Renee D%Stapleton%null%1]</t>
+  </si>
+  <si>
+    <t>[Caiying%Hu%coreGivesNoEmail%1,    Chenyue%Li%coreGivesNoEmail%1,    Conghui%Wang%coreGivesNoEmail%1,    Cuihua%Tao%coreGivesNoEmail%1,    E.%Deng%coreGivesNoEmail%1,    Haixia%Xu%coreGivesNoEmail%1,    Heng%Mei%coreGivesNoEmail%1,    Jianwei%Wang%coreGivesNoEmail%1,    Juan%Wang%coreGivesNoEmail%1,    Jue%Wang%coreGivesNoEmail%1,    Juntao%Yang%coreGivesNoEmail%1,    Li%Zeng%coreGivesNoEmail%1,    Lifeng%Chen%coreGivesNoEmail%1,    Lili%Ren%coreGivesNoEmail%1,    Ling%Li%coreGivesNoEmail%1,    Linqi%Zhang%coreGivesNoEmail%1,    Nian%Xiong%coreGivesNoEmail%1,    Ning%Man%coreGivesNoEmail%1,    Qing%Wei%coreGivesNoEmail%1,    Ru%Yang%coreGivesNoEmail%1,    Shangen%Zheng%coreGivesNoEmail%1,    Shisheng%Su%coreGivesNoEmail%1,    Wei%Zhang%coreGivesNoEmail%1,    Xiaoxiong%Wu%coreGivesNoEmail%1,    Xuejun%Zhang%coreGivesNoEmail%1,    Xunliang%Tong%coreGivesNoEmail%1,    Yanyun%Wu%coreGivesNoEmail%1,    Yong%Guo%coreGivesNoEmail%1,    Yongpei%Yu%coreGivesNoEmail%1,    Yu%Hu%coreGivesNoEmail%1,    Yu%Liu%coreGivesNoEmail%1,    Yujie%Kong%coreGivesNoEmail%1,    Zhihua%Xu%coreGivesNoEmail%1,    Zhong%Liu%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Ivan F.N.%Hung%null%1,       Kelvin K.W.%To%null%1,       Cheuk-Kwong%Lee%null%1,       Kar-Lung%Lee%null%1,       Wing-Wa%Yan%null%1,       Kenny%Chan%null%1,       Wai-Ming%Chan%null%1,       Chun-Wai%Ngai%null%1,       Kin-Ip%Law%null%1,       Fu-Loi%Chow%null%1,       Raymond%Liu%null%1,       Kang-Yiu%Lai%null%1,       Candy C.Y.%Lau%null%1,       Shao-Haei%Liu%null%1,       Kwok-Hung%Chan%null%0,       Che-Kit%Lin%null%1,       Kwok-Yung%Yuen%null%0,      Ivan F.N.%Hung%null%1,      Kelvin K.W.%To%null%1,      Cheuk-Kwong%Lee%null%2,      Kar-Lung%Lee%null%2,      Wing-Wa%Yan%null%1,      Kenny%Chan%null%2,      Wai-Ming%Chan%null%2,      Chun-Wai%Ngai%null%1,      Kin-Ip%Law%null%1,      Fu-Loi%Chow%null%2,      Raymond%Liu%null%2,      Kang-Yiu%Lai%null%2,      Candy C.Y.%Lau%null%1,      Shao-Haei%Liu%null%2,      Kwok-Hung%Chan%null%3,      Che-Kit%Lin%null%2,      Kwok-Yung%Yuen%null%0]</t>
+  </si>
+  <si>
+    <t>[Arvind%Gharbharan%NULL%1,      Carlijn C. E.%Jordans%NULL%1,      Corine%GeurtsvanKessel%NULL%1,      Jan G.%den Hollander%NULL%2,      Jan G.%den Hollander%NULL%0,      Faiz%Karim%NULL%1,      Femke P. N.%Mollema%NULL%1,      Janneke E.%Stalenhoef – Schukken%NULL%1,      Anthonius%Dofferhoff%NULL%2,      Anthonius%Dofferhoff%NULL%0,      Inge%Ludwig%NULL%1,      Adrianus%Koster%NULL%1,      Robert-Jan%Hassing%NULL%1,      Jeannet C.%Bos%NULL%1,      Geert R.%van Pottelberge%NULL%1,      Imro N.%Vlasveld%NULL%1,      Heidi S. M.%Ammerlaan%NULL%1,      Elena M.%van Leeuwen – Segarceanu%NULL%1,      Jelle%Miedema%NULL%1,      Menno%van der Eerden%NULL%1,      Thijs J.%Schrama%NULL%1,      Grigorios%Papageorgiou%NULL%2,      Grigorios%Papageorgiou%NULL%0,      Peter%te Boekhorst%NULL%1,      Francis H.%Swaneveld%NULL%1,      Yvonne M.%Mueller%NULL%1,      Marco W. J.%Schreurs%NULL%2,      Marco W. J.%Schreurs%NULL%0,      Jeroen J. A.%van Kampen%NULL%1,      Barry%Rockx%NULL%1,      Nisreen M. A.%Okba%NULL%2,      Nisreen M. A.%Okba%NULL%0,      Peter D.%Katsikis%NULL%2,      Peter D.%Katsikis%NULL%0,      Marion P. G.%Koopmans%NULL%3,      Marion P. G.%Koopmans%NULL%0,      Bart L.%Haagmans%NULL%2,      Bart L.%Haagmans%NULL%0,      Casper%Rokx%c.rokx@erasmusmc.nl%2,      Casper%Rokx%c.rokx@erasmusmc.nl%0,      Bart J. A.%Rijnders%NULL%2,      Bart J. A.%Rijnders%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gordin%Fred M.%coreGivesNoEmail%1,    INSIGHT%FLU005 IVIG Pilot Study Group.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alcam\u00ed%Jos\u00e9%coreGivesNoEmail%1,    Avenda\u00f1o-Sol\u00e1%Cristina%coreGivesNoEmail%1,    Blanco%Lydia%coreGivesNoEmail%1,    Bueno%Jose L%coreGivesNoEmail%1,    Calder\u00f3n-Parra%Jorge%coreGivesNoEmail%1,    Casas-Flecha%Inmaculada%coreGivesNoEmail%1,    ConPlas-19%Study Group%coreGivesNoEmail%1,    de%Oteyza Jaime P\u00e9rez%coreGivesNoEmail%1,    Duarte%Rafael F%coreGivesNoEmail%1,    D\u00edaz%de Santiago Alberto%coreGivesNoEmail%1,    Fern\u00e1ndez-Cruz%Ana%coreGivesNoEmail%1,    Garcia-Perez%Javier%coreGivesNoEmail%1,    Jarilla-Fern\u00e1ndez%Maria C%coreGivesNoEmail%1,    Lora-Tamayo%Jaime%coreGivesNoEmail%1,    Madrigal-S\u00e1nchez%Maria E%coreGivesNoEmail%1,    Malo%de Molina Rosa%coreGivesNoEmail%1,    Manche\u00f1o-Losa%Mikel%coreGivesNoEmail%1,    Mart\u00ednez-Gonz\u00e1lez%A L%coreGivesNoEmail%1,    Moreno-Chulilla%J A%coreGivesNoEmail%1,    Mu\u00f1ez-Rubio%Elena%coreGivesNoEmail%1,    Mu\u00f1iz-D\u00edaz%Eduardo%coreGivesNoEmail%1,    Nu\u00f1ez-Orantos%Maria J%coreGivesNoEmail%1,    Paciello%Maria L%coreGivesNoEmail%1,    Payares-Herrera%Concepcion%coreGivesNoEmail%1,    Pa\u00f1o-Pardo%Jos\u00e9 R%coreGivesNoEmail%1,    Perez-Olmeda%Mayte%coreGivesNoEmail%1,    Pintos%Ilduara%coreGivesNoEmail%1,    Porras-Leal%Maria L%coreGivesNoEmail%1,    Ramos-Garrido%Ascension%coreGivesNoEmail%1,    Ramos-Mart\u00ednez%Antonio%coreGivesNoEmail%1,    Romera-Mart\u00ednez%Irene%coreGivesNoEmail%1,    Rubio-Batll\u00e9s%Martin%coreGivesNoEmail%1,    Ruiz-Antor\u00e1n%Belen%coreGivesNoEmail%1,    Saez-Serrano%Maria Isabel%coreGivesNoEmail%1,    Torres%Ferran%coreGivesNoEmail%1,    Velasco-Iglesias%Ana%coreGivesNoEmail%1,    Vid\u00e1n-Est\u00e9vez%Julia%coreGivesNoEmail%1,    Villares%Paula%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Agarwal%NULL%1,      Aparna%Mukherjee%NULL%2,      Gunjan%Kumar%NULL%3,      Gunjan%Kumar%NULL%0,      Pranab%Chatterjee%NULL%2,      Tarun%Bhatnagar%NULL%2,      Pankaj%Malhotra%NULL%2,      NULL%NULL%NULL%0,      NULL%NULL%NULL%0,      Anup%Agarwal%NULL%1,      Aparna%Mukherjee%NULL%0,      Gunjan%Kumar%NULL%0,      Pranab%Chatterjee%NULL%0,      Tarun%Bhatnagar%NULL%0,      Pankaj%Malhotra%NULL%0,      B%Latha%NULL%1,      Sunita%Bundas%NULL%1,      Vivek%Kumar%NULL%2,      Ravi%Dosi%NULL%1,      Janak Kumar%Khambholja%NULL%1,      Rosemarie%de Souza%NULL%1,      Raja Rao%Mesipogu%NULL%1,      Saurabh%Srivastava%NULL%1,      Simmi%Dube%NULL%1,      Kiran%Chaudhary%NULL%1,      S%Subash%NULL%1,      S%Anbuselvi%NULL%1,      V%Rajendran%NULL%1,      A%Sundararajaperumal%NULL%1,      P%Balamanikandan%NULL%1,      R S Uma%Maheswari%NULL%1,      R%Jayanthi%NULL%1,      S%Ragunanthanan%NULL%1,      Sudhir%Bhandari%NULL%1,      Ajeet%Singh%NULL%1,      Ashok%Pal%NULL%1,      Anjali%Handa%NULL%1,      Govind%Rankawat%NULL%1,      Ketan%Kargirwar%NULL%1,      Joyce%Regi%NULL%1,      Darshana%Rathod%NULL%1,      Edwin%Pathrose%NULL%1,      Nirankar%Bhutaka%NULL%1,      Mayur H%Patel%NULL%1,      Rahul J%Verma%NULL%1,      Kamal%Malukani%NULL%1,      Shivani%Patel%NULL%1,      Apurv%Thakur%NULL%1,      Satish%Joshi%NULL%1,      Rashmi%Kulkarni%NULL%1,      Nilay N%Suthar%NULL%1,      Nehal M%Shah%NULL%1,      Hemang M%Purohit%NULL%1,      Cherry K%Shah%NULL%1,      Monila N%Patel%NULL%1,      Saket%Shah%NULL%1,      Smit T%Shah%NULL%1,      Tehsim%Memon%NULL%1,      Vishal R%Beriwala%NULL%1,      Kusum%Jashnani%NULL%1,      Fatema%Ezzy%NULL%1,      Simran%Agrawal%NULL%1,      Rakesh%Bhadade%NULL%1,      MN%Atish%NULL%1,      Tushar%Madke%NULL%1,      Vikas%Kavishwar%NULL%1,      Ramesh%Waghmare%NULL%1,      Nitin%Valvi%NULL%1,      B Thrilok%Chander%NULL%1,      A Vinaya%Sekhar%NULL%1,      Akhilesh Kumar%Maurya%NULL%1,      K%Hemanth%NULL%1,      K%Nagamani%NULL%1,      K%Sudha%NULL%1,      T Ravi%Chandra%NULL%1,      K Tushara%Rao%NULL%1,      J%Vyshnavi%NULL%1,      Rashmi%Upadhyay%NULL%1,      Shalini%Bahadur%NULL%1,      Rambha%Pathak%NULL%1,      Shikha%Seth%NULL%1,      Rakesh%Gupta%NULL%1,      Rita%Saxena%NULL%1,      Preksha%Dwivedi%NULL%1,      Reeni%Malik%NULL%1,      Deepti%Chourasia%NULL%1,      Jaya%Lalwani%NULL%1,      UM%Sharma%NULL%1,      JL%Marko%NULL%1,      Amit%Suri%NULL%1,      Vijay%Kumar%NULL%1,      Rajnish%Kaushik%NULL%1,      Parul%Kodan%NULL%1,      Bhabani Prasad%Acharya%NULL%1,      Kuldeep Kumar%Gaur%NULL%1,      Anubhav%Gupta%NULL%1,      Prerna%Sachdeva%NULL%1,      Shruti%Dogra%NULL%1,      Aikaj%Jindal%NULL%1,      M Joseph%John%NULL%1,      Avtar Singh%Dhanju%NULL%1,      Ranjana%Khetrepal%NULL%1,      Neeraj%Sharma%NULL%1,      Neetu%Kukar%NULL%1,      Divya%Kavita%NULL%1,      Rajesh%Kumar%NULL%1,      Rajesh%Mahajan%NULL%1,      Gurpreet%Singh%NULL%1,      Jaspreet%Kaur%NULL%1,      Raminder Pal%Singh%NULL%1,      Rajni%Bassi%NULL%1,      Swapneil%Parikh%NULL%1,      Om%Shrivastav%NULL%1,      Jayanthi%Shastri%NULL%1,      Maherra%Desai%NULL%1,      Shreevatsa%Udupa%NULL%1,      Varun A%Bafna%NULL%1,      Vijay%Barge%NULL%1,      Rajendra%Madane%NULL%1,      Sheetal%Yadav%NULL%1,      Sanjeev%Misra%NULL%1,      Archana%Bajpayee%NULL%1,      M K%Garg%NULL%1,      G K%Bohra%NULL%1,      Vijaylakshmi%Nag%NULL%1,      Puneeth Babu%Anne%NULL%1,      Mohd%Nadeem%NULL%1,      Pallavi%Singh%NULL%1,      Ram%Niwas%NULL%1,      Niranjan Shiwaji%Khaire%NULL%1,      Rattiram%Sharma%NULL%1,      Mini P%Singh%NULL%1,      Naresh%Sachdeva%NULL%1,      Suchet%Sachdev%NULL%1,      Rekha%Hans%NULL%1,      Vikas%Suri%NULL%1,      LN%Yaddanapudi%NULL%1,      PVM%Lakshmi%NULL%1,      Neha%Singh%NULL%1,      Divendu%Bhushan%NULL%1,      Neeraj%Kumar%NULL%1,      Muralidhar%Tambe%NULL%1,      Sonali%Salvi%NULL%1,      Nalini%Kadgi%NULL%1,      Shashikala%Sangle%NULL%1,      Leena%Nakate%NULL%1,      Samir%Joshi%NULL%1,      Rajesh%Karyakarte%NULL%1,      Suraj%Goyanka%NULL%1,      Nimisha%Sharma%NULL%1,      Nikhil%Verma%NULL%1,      Asim%Das%NULL%1,      Monika%Bahl%NULL%1,      Nitya%Wadhwa%NULL%1,      Shreepad%Bhat%NULL%1,      Shweta%Deshmukh%NULL%1,      Vrushali%Wagh%NULL%1,      Atul%Kulkarni%NULL%1,      Tanvi%Yardi%NULL%1,      Ram S%Kalgud%NULL%1,      Purushottam%Reddy%NULL%1,      Kavitha%Yevoor%NULL%1,      Prashanth%Gajula%NULL%1,      Vivek%Maleyur%NULL%1,      S%Medini%NULL%1,      HN%Mohith%NULL%1,      Anil%Gurtoo%NULL%1,      Ritika%Sud%NULL%1,      Sangeeta%Pahuja%NULL%1,      Anupam%Prakash%NULL%1,      Parijat%Gogoi%NULL%1,      Shailja%Shukla%NULL%1,      D Himanshu%Reddy%NULL%1,      Tulika%Chandra%NULL%1,      Saurabh%Pandey%NULL%1,      Pradeep%Maurya%NULL%1,      Wahid%Ali%NULL%1,      Vivek%Kumar%NULL%0,      Kamlesh%Upadhyay%NULL%1,      Nidhi%Bhatnagar%NULL%1,      Nilima%Shah%NULL%1,      Mamta%Shah%NULL%1,      Tarak%Patel%NULL%1,      Ram Mohan%Jaiswal%NULL%1,      Ashish%Jain%NULL%1,      Shweta%Sharma%NULL%1,      Puneet%Rijhwani%NULL%1,      Naveen%Gupta%NULL%1,      Tinkal C%Patel%NULL%1,      Mahesh G%Solu%NULL%1,      Jitendra%Patel%NULL%1,      Yash R%Shah%NULL%1,      Mayur%Jarag%NULL%1,      Varsha%Godbole%NULL%1,      Meenakshi%Shah%NULL%1,      Rikin%Raj%NULL%1,      Irfan%Nagori%NULL%1,      Pramod R%Jha%NULL%1,      Arti D%Shah%NULL%1,      Gowtham%Yeeli%NULL%1,      Archit%Jain%NULL%1,      Rooppreet Kaur%Gill%NULL%1,      KV Sreedhar%Babu%NULL%1,      B Suresh%Babu%NULL%1,      Alladi%Mohan%NULL%1,      B%Vengamma%NULL%1,      K Chandra%Sekhar%NULL%1,      Srinivasulu%Damam%NULL%1,      K%Narsimhulu%NULL%1,      C%Aparna%NULL%1,      G%Baleswari%NULL%1,      K Ravindranath%Reddy%NULL%1,      P%Chandrasekhar%NULL%1,      Sunil Jodharam%Panjwani%NULL%1,      Pragnesh H%Shah%NULL%1,      Manish%Barvaliya%NULL%1,      Kairavi%Desai%NULL%1,      Pankaj J%Akholkar%NULL%1,      Milind%Baldi%NULL%1,      Ashok%Yadav%NULL%1,      Manoj%Gupta%NULL%1,      Nitin%Rawat%NULL%1,      Dilip%Chawda%NULL%1,      M%Natarajan%NULL%1,      M%Sintha%NULL%1,      David Pradeep%Kumar%NULL%1,      Fathhur%Rabbani%NULL%1,      Vrushali Khirid%Khadke%NULL%1,      Dattatray%Patki%NULL%1,      Sonali%Marathe%NULL%1,      Clyde%D’Souza%NULL%1,      Vipul%Tadha%NULL%1,      Satyam%Arora%NULL%1,      Devendra Kumar%Gupta%NULL%1,      Seema%Dua%NULL%1,      Nitu%Chauhan%NULL%1,      Ajeet Singh%Chahar%NULL%1,      Joy John%Mammen%NULL%1,      Snehil%Kumar%NULL%1,      Dolly%Daniel%NULL%1,      Ravindraa%Singh%NULL%1,      Venkatesh%Dhat%NULL%1,      Yogesh%Agarwal%NULL%1,      Sohini%Arora%NULL%1,      Ashish%Pathak%NULL%1,      Manju%Purohit%NULL%1,      Ashish%Sharma%NULL%1,      Jayashree%Sharma%NULL%1,      Manisha%Madkaikar%NULL%1,      Kavita%Joshi%NULL%1,      Reetika Malik%Yadav%NULL%1,      Swarupa%Bhagwat%NULL%1,      Niteen D%Karnik%NULL%1,      Yojana A%Gokhale%NULL%1,      Leena%Naik%NULL%1,      Sangita%Margam%NULL%1,      Santasabuj%Das%NULL%1,      Alka%Turuk%NULL%1,      V Saravana%Kumar%NULL%1,      K%Kanagasabai%NULL%1,      R%Sabarinathan%NULL%1,      Gururaj%Deshpande%NULL%1,      Sharda%Sharma%NULL%1,      Rashmi%Gunjikar%NULL%1,      Anita%Shete%NULL%1,      Darpan%Phagiwala%NULL%1,      Chetan%Patil%NULL%1,      Snehal%Shingade%NULL%1,      Kajal%Jarande%NULL%1,      Himanshu%Kaushal%NULL%1,      Pragya%Yadav%NULL%1,      Gajanan%Sapkal%NULL%1,      Priya%Abraham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan FN%Hung%NULL%1,      Kelvin KW%To%NULL%1,      Cheuk-Kwong%Lee%NULL%0,      Kar-Lung%Lee%NULL%0,      Kenny%Chan%NULL%0,      Wing-Wah%Yan%NULL%1,      Raymond%Liu%NULL%0,      Chi-Leung%Watt%NULL%1,      Wai-Ming%Chan%NULL%0,      Kang-Yiu%Lai%NULL%0,      Chi-Kwan%Koo%NULL%1,      Tom%Buckley%NULL%1,      Fu-Loi%Chow%NULL%0,      Kwan-Keung%Wong%NULL%1,      Hok-Sum%Chan%NULL%1,      Chi-Keung%Ching%NULL%1,      Bone SF%Tang%NULL%1,      Candy CY%Lau%NULL%1,      Iris WS%Li%NULL%1,      Shao-Haei%Liu%NULL%0,      Kwok-Hung%Chan%NULL%0,      Che-Kit%Lin%NULL%0,      Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y. O. Y.%Soo%NULL%1,      Y.%Cheng%NULL%1,      R.%Wong%NULL%2,      D. S.%Hui%NULL%1,      C. K.%Lee%NULL%2,      K. K. S.%Tsang%NULL%1,      M. H. L.%Ng%NULL%2,      P.%Chan%NULL%2,      G.%Cheng%NULL%2,      J. J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongjie%Yu%NULL%1,      Zhancheng%Gao%NULL%0,      Zijian%Feng%NULL%2,      Yuelong%Shu%NULL%1,      Nijuan%Xiang%NULL%2,      Lei%Zhou%NULL%2,      Yang%Huai%NULL%1,      Luzhao%Feng%NULL%0,      Zhibin%Peng%NULL%1,      Zhongjie%Li%NULL%1,      Cuiling%Xu%NULL%1,      Junhua%Li%NULL%0,      Chengping%Hu%NULL%1,      Qun%Li%NULL%1,      Xiaoling%Xu%NULL%1,      Xuecheng%Liu%NULL%1,      Zigui%Liu%NULL%1,      Longshan%Xu%NULL%1,      Yusheng%Chen%NULL%1,      Huiming%Luo%NULL%1,      Liping%Wei%NULL%1,      Xianfeng%Zhang%NULL%1,      Jianbao%Xin%NULL%1,      Junqiao%Guo%NULL%1,      Qiuyue%Wang%NULL%1,      Zhengan%Yuan%NULL%1,      Longnv%Zhou%NULL%1,      Kunzhao%Zhang%NULL%1,      Wei%Zhang%NULL%0,      Jinye%Yang%NULL%1,      Xiaoning%Zhong%NULL%1,      Shichang%Xia%NULL%1,      Lanjuan%Li%NULL%0,      Jinquan%Cheng%NULL%1,      Erdang%Ma%NULL%1,      Pingping%He%NULL%1,      Shui Shan%Lee%NULL%1,      Yu%Wang%NULL%3,      Timothy M.%Uyeki%NULL%0,      Weizhong%Yang%NULL%1,      Joel Mark%Montgomery%NULL%0,      Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y.%Cheng%NULL%1,      R.%Wong%NULL%0,      Y. O. Y.%Soo%NULL%1,      W. S.%Wong%NULL%1,      C. K.%Lee%NULL%0,      M. H. L.%Ng%NULL%0,      P.%Chan%NULL%0,      K. C.%Wong%NULL%1,      C. B.%Leung%NULL%1,      G.%Cheng%gcheng@cuhk.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Duan%NULL%1,      Bende%Liu%NULL%2,      Bende%Liu%NULL%0,      Cesheng%Li%NULL%1,      Huajun%Zhang%NULL%1,      Ting%Yu%NULL%0,      Ting%Yu%NULL%0,      Jieming%Qu%NULL%0,      Min%Zhou%NULL%0,      Min%Zhou%NULL%0,      Li%Chen%NULL%0,      Li%Chen%NULL%0,      Shengli%Meng%NULL%2,      Shengli%Meng%NULL%0,      Yong%Hu%NULL%1,      Cheng%Peng%NULL%1,      Mingchao%Yuan%NULL%1,      Jinyan%Huang%NULL%1,      Zejun%Wang%NULL%2,      Zejun%Wang%NULL%0,      Jianhong%Yu%NULL%1,      Xiaoxiao%Gao%NULL%1,      Dan%Wang%NULL%1,      Xiaoqi%Yu%NULL%1,      Li%Li%NULL%0,      Li%Li%NULL%0,      Jiayou%Zhang%NULL%2,      Jiayou%Zhang%NULL%0,      Xiao%Wu%NULL%1,      Bei%Li%NULL%1,      Yanping%Xu%NULL%1,      Wei%Chen%NULL%0,      Wei%Chen%NULL%0,      Yan%Peng%NULL%1,      Yeqin%Hu%NULL%1,      Lianzhen%Lin%NULL%1,      Xuefei%Liu%NULL%1,      Shihe%Huang%NULL%1,      Zhijun%Zhou%NULL%1,      Lianghao%Zhang%NULL%1,      Yue%Wang%NULL%1,      Zhi%Zhang%NULL%1,      Kun%Deng%NULL%1,      Zhiwu%Xia%NULL%1,      Qin%Gong%NULL%1,      Wei%Zhang%NULL%0,      Xiaobei%Zheng%NULL%1,      Ying%Liu%NULL%0,      Huichuan%Yang%NULL%1,      Dongbo%Zhou%NULL%1,      Ding%Yu%NULL%1,      Jifeng%Hou%NULL%1,      Zhengli%Shi%NULL%0,      Saijuan%Chen%NULL%1,      Zhu%Chen%NULL%1,      Xinxin%Zhang%NULL%0,      Xiaoming%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[F.%Sahr%NULL%1,      R.%Ansumana%rashidansumana@gmail.com%1,      T.A.%Massaquoi%NULL%1,      B.R.%Idriss%NULL%1,      F.R.%Sesay%NULL%1,      J.M.%Lamin%NULL%1,      S.%Baker%NULL%1,      S.%Nicol%NULL%1,      B.%Conton%NULL%1,      W.%Johnson%NULL%1,      O.T.%Abiri%NULL%1,      O.%Kargbo%NULL%1,      P.%Kamara%NULL%1,      A.%Goba%NULL%1,      J.B.W.%Russell%NULL%1,      S.M.%Gevao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qing-Lei%Zeng%zengqinglei2009@163.com%1,      Zu-Jiang%Yu%NULL%1,      Jian-Jun%Gou%NULL%1,      Guang-Ming%Li%NULL%1,      Shu-Huan%Ma%NULL%1,      Guo-Fan%Zhang%NULL%1,      Jiang-Hai%Xu%NULL%1,      Wan-Bao%Lin%NULL%1,      Guang-Lin%Cui%NULL%1,      Min-Min%Zhang%NULL%1,      Cheng%Li%NULL%1,      Ze-Shuai%Wang%NULL%1,      Zhi-Hao%Zhang%NULL%1,      Zhang-Suo%Liu%zengqinglei2009@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hassan%Abolghasemi%NULL%1,      Peyman%Eshghi%NULL%1,      Abdol Majid%Cheraghali%NULL%1,      Abbas Ali%Imani Fooladi%NULL%1,      Farzaneh%Bolouki Moghaddam%NULL%1,      Sina%Imanizadeh%NULL%1,      Matin%Moeini Maleki%NULL%1,      Mohammad%Ranjkesh%NULL%1,      Mohammad%Rezapour%NULL%1,      Ali%Bahramifar%NULL%1,      Behzad%Einollahi%NULL%1,      Mohammad Javad%Hosseini%NULL%1,      Nematollah Joneidi%Jafari%NULL%1,      Mohamad%Nikpouraghdam%NULL%1,      Nariman%Sadri%NULL%1,      Mokhtar%Tazik%NULL%1,      Shanaz%Sali%NULL%1,      Shamsi%Okati%NULL%1,      Elham%Askari%NULL%1,      Payam%Tabarsi%NULL%2,      Jafar%Aslani%NULL%1,      Ehsan%Sharifipour%NULL%1,      Mohammad Hossein%Jarahzadeh%NULL%1,      Nastaran%Khodakarim%NULL%1,      Mahmood%Salesi%NULL%1,      Ramezan%Jafari%NULL%1,      Samira%Shahverdi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -883,7 +1115,7 @@
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>175</v>
       </c>
       <c r="F2" t="s">
         <v>41</v>
@@ -912,7 +1144,7 @@
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="F3" t="s">
         <v>47</v>
@@ -935,19 +1167,19 @@
         <v>43985.0</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="H4" t="s">
         <v>43</v>
@@ -970,7 +1202,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -999,7 +1231,7 @@
         <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -1022,19 +1254,19 @@
         <v>42415.0</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>180</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="H7" t="s">
         <v>43</v>
@@ -1051,19 +1283,19 @@
         <v>44103.0</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>181</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="H8" t="s">
         <v>43</v>
@@ -1086,7 +1318,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -1115,7 +1347,7 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c r="F10" t="s">
         <v>68</v>
@@ -1144,7 +1376,7 @@
         <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="F11" t="s">
         <v>73</v>
@@ -1196,19 +1428,19 @@
         <v>6951.0</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="H13" t="s">
         <v>43</v>
@@ -1231,7 +1463,7 @@
         <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="F14" t="s">
         <v>77</v>
@@ -1405,7 +1637,7 @@
         <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="F20" t="s">
         <v>82</v>
@@ -1463,7 +1695,7 @@
         <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="F22" t="s">
         <v>86</v>
@@ -1492,7 +1724,7 @@
         <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="F23" t="s">
         <v>90</v>
@@ -1521,7 +1753,7 @@
         <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="F24" t="s">
         <v>95</v>
@@ -1550,7 +1782,7 @@
         <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="F25" t="s">
         <v>99</v>

--- a/Covid_19_Dataset_and_References/References/26.xlsx
+++ b/Covid_19_Dataset_and_References/References/26.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="247">
   <si>
     <t xml:space="preserve">Doi </t>
   </si>
@@ -738,6 +738,174 @@
   </si>
   <si>
     <t>[Hassan%Abolghasemi%NULL%1,      Peyman%Eshghi%NULL%1,      Abdol Majid%Cheraghali%NULL%1,      Abbas Ali%Imani Fooladi%NULL%1,      Farzaneh%Bolouki Moghaddam%NULL%1,      Sina%Imanizadeh%NULL%1,      Matin%Moeini Maleki%NULL%1,      Mohammad%Ranjkesh%NULL%1,      Mohammad%Rezapour%NULL%1,      Ali%Bahramifar%NULL%1,      Behzad%Einollahi%NULL%1,      Mohammad Javad%Hosseini%NULL%1,      Nematollah Joneidi%Jafari%NULL%1,      Mohamad%Nikpouraghdam%NULL%1,      Nariman%Sadri%NULL%1,      Mokhtar%Tazik%NULL%1,      Shanaz%Sali%NULL%1,      Shamsi%Okati%NULL%1,      Elham%Askari%NULL%1,      Payam%Tabarsi%NULL%2,      Jafar%Aslani%NULL%1,      Ehsan%Sharifipour%NULL%1,      Mohammad Hossein%Jarahzadeh%NULL%1,      Nastaran%Khodakarim%NULL%1,      Mahmood%Salesi%NULL%1,      Ramezan%Jafari%NULL%1,      Samira%Shahverdi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[John H%Beigel%jbeigel@niaid.nih.gov%1,       Pablo%Tebas%NULL%4,       Marie-Carmelle%Elie-Turenne%NULL%4,       Ednan%Bajwa%NULL%2,       Todd E%Bell%NULL%2,       Charles B%Cairns%NULL%2,       Shmuel%Shoham%NULL%3,       Jaime G%Deville%NULL%2,       Eric%Feucht%NULL%2,       Judith%Feinberg%NULL%2,       Thomas%Luke%NULL%1,       Kanakatte%Raviprakash%NULL%3,       Janine%Danko%NULL%2,       Dorothy%O'Neil%NULL%1,       Julia A%Metcalf%NULL%1,       Karen%King%NULL%1,       Timothy H%Burgess%NULL%1,       Evgenia%Aga%NULL%3,       H Clifford%Lane%NULL%2,       Michael D%Hughes%NULL%3,       Richard T%Davey%NULL%3,       Pablo%Tebas%NULL%0,       Joseph%Quinn%NULL%1,       Yan%Jiang%NULL%1,       Marie-Carmelle%Elie-Turenne%NULL%0,       Robyn%Hoelle%NULL%1,       Nicole%Iovine%NULL%1,       Robert Shawn%Wills%NULL%1,       Socorro%Pata%NULL%1,       Monique%Huggins%NULL%1,       Belinda%Manukian%NULL%1,       Ednan%Bajwa%NULL%0,       Carrie%Holland%NULL%1,       Kelsey%Brait%NULL%1,       Taylor%Hunt%NULL%1,       Christopher%Stowell%NULL%1,       Amy%Slater%NULL%1,       Todd E%Bell%NULL%0,       Mary%Townsends%NULL%1,       Charles B%Cairns%NULL%0,       Eugenia B%Quackenbush%NULL%1,       Yara A%Park%NULL%1,       Paul Gaither%Jordan%NULL%1,       Cherie%Blanchet%NULL%1,       Kevin%Chronowski%NULL%1,       Kathleen%Alvarez%NULL%1,       Shmuel%Shoham%NULL%0,       Darin%Ostrander%NULL%1,       Terry%Woessner%NULL%1,       Sandra%Thoman%NULL%1,       Jaime G%Deville%NULL%0,       James%Lin%NULL%1,       Alyssa%Ziman%NULL%1,       Kavita%Shankar%NULL%1,       Eric%Feucht%NULL%0,       Tom%Blok%NULL%1,       Don%Batts%NULL%1,       Bob%Beck%NULL%1,       Gail%Massey%NULL%1,       Carol%Bradley%NULL%1,       Judith%Feinberg%NULL%0,       Patricia%Carey%NULL%1,       Jenifer%Baer%NULL%1,       Eva Moore%Whitehead%NULL%1,       Sharon%Kohrs%NULL%1,       Robert%Giulitto%NULL%1,       Christina%Schofield%NULL%2,       Mary%Fairchok%NULL%1,       Susan%Chambers%NULL%1,       Cindy%Baker%NULL%1,       NULL%RN%NULL%1,       Michelle%Parker%NULL%1,       Marta%Harshbarger%NULL%1,       M Hong%Nguyen%NULL%1,       Mary Ellen%Carey%NULL%1,       Julie%Paronish%NULL%1,       Frank%Cornell%NULL%1,       Jim%Cramer%NULL%1,       Diana Lynn%Pakstis%NULL%1,       Michael G%Ison%NULL%1,       Richard%Wunderink%NULL%1,       Marshall%Glesby%NULL%1,       Kirsis%Ham%NULL%1,       Valery%Hughes%NULL%1,       Melissa%Cushing%NULL%0,       Cheryl%Goss%NULL%1,       Joanne%Grenade%NULL%1,       Pauline K%Park%NULL%1,       Lena M%Napolitano%NULL%1,       Krishnan%Raghavendran%NULL%1,       Robert C%Hyzy%NULL%1,       Robertson%Davenport%NULL%1,       Kristin%Brierley%NULL%1,       Theresa%Downs%NULL%1,       Michelle Ng%Gong%NULL%1,       Joan%Uehlinger%NULL%1,       Michael%Lin%NULL%2,       Janice%Fritsche%NULL%1,       Tondria%Green%NULL%1,       Bruce%McLeod%NULL%1,       Deena%Patel%NULL%1,       Mary F%Bavaro%NULL%1,       Robert%Deiss%NULL%1,       Carolyn%Brandt%NULL%1,       Stephanie%Cammarata%NULL%1,       Allan%Kremp%NULL%1,       Karine%Hollis-Perry%NULL%1,       Tahaniyat%Lalani%NULL%1,       Susan%Banks%NULL%1,       Jacqueline%Johnson%NULL%1,       Jason%Maguire%NULL%1,       Janet%McNiff%NULL%1,       Leslie E%Rigg%NULL%1,       Anuradha%Ganesan%NULL%1,       Irma%Barahona%NULL%1,       Janine%Danko%NULL%0,       Steven%Spencer%NULL%1,       David%Stagliano%NULL%1,       Timothy%Burgess%NULL%1,       Daniel%Talmor%NULL%1,       Monique%Mohammed%NULL%1,       Valerie%Banner-Goodspeed%NULL%1,       Robert%Salata%NULL%1,       Robert%Finberg%NULL%2,       Jennifer%Wang%NULL%1,       Karen%Longtine%NULL%1,       Jaclyn%Longtine%NULL%1,       Mellissa%O'Neil%NULL%1,       Philippe R%Bauer%NULL%1,       Ognjen%Gajic%NULL%1,       Suanne M%Weist%NULL%1,       Jonathan%Sevransky%NULL%1,       Mona%Brown%NULL%1,       John%Roback%NULL%1,       John%Oropello%NULL%1,       Bridget%Twohig%NULL%1,       Jeffrey%Jhang%NULL%0,       Rahgu%Seethala%NULL%1,       Wilbur H%Chen%NULL%1,       Magali%Fontaine%NULL%1,       Kapil%Saharia%NULL%1,       Jennifer%Husson%NULL%1,       Roberta%DeBiasi%NULL%1,       Jurran L%Wilson%NULL%1,       Valli Ree%Criss%NULL%1,       Jocelyn%Voell%NULL%1,       Susan%Leitman%NULL%1,       James Wade%Atkins%NULL%1,       Hemaxi%Patel%NULL%1,       Traci%Paige%NULL%1,       Cathy%Cantilena%NULL%1,       Donald%Siegel%NULL%1,       Faye%DeMuth%NULL%1,       Craig H%Fletcher%NULL%1,       J Peter R%Pelletier%NULL%1,       Hassan%Alnuaimat%NULL%1,       Michelle%Pourde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ John H%Beigel%null%1,        Evgenia%Aga%null%2,        Marie-Carmelle%Elie-Turenne%null%2,        Josalyn%Cho%null%2,        Pablo%Tebas%null%2,        Carol L%Clark%null%2,        Jordan P%Metcalf%null%2,        Caroline%Ozment%null%2,        Kanakatte%Raviprakash%null%2,        Joy%Beeler%null%2,        H Preston%Holley%null%1,        Stephanie%Warner%null%2,        Carla%Chorley%null%2,        H Clifford%Lane%null%1,        Michael D%Hughes%null%2,        Richard T%Davey%null%2,        John H%Beigel%null%1,        Evgenia%Aga%null%0,        Marie-Carmelle%Elie-Turenne%null%0,        Josalyn%Cho%null%0,        Pablo%Tebas%null%0,        Carol L%Clark%null%0,        Jordan P%Metcalf%null%0,        Caroline%Ozment%null%0,        Kanakatte%Raviprakash%null%0,        Joy%Beeler%null%0,        H. Preston%Holley%null%1,        Stephanie%Warner%null%0,        Carla%Chorley%null%0,        H. Clifford%Lane%null%1,        Michael D%Hughes%null%0,        Richard T%Davey%null%0,        Michelle%Barron%null%1,        Aveh%Bastani%null%1,        Philippe%Bauer%null%1,        William%Borkowsky%null%1,        Charles%Cairns%null%1,        Jaime%Deville%null%1,        Marie-Carmelle%Elie%null%1,        Carl%Fichtenbaum%null%1,        Robert%Finberg%null%1,        Mamta%Jain%null%1,        David%Kaufman%null%1,        Michael%Lin%null%1,        John%Lin%null%1,        Ryan%Maves%null%1,        Lee%Morrow%null%1,        Minh-Hong%Nguyen%null%1,        Pauline%Park%null%1,        Christopher%Polk%null%1,        Adrienne%Randolph%null%1,        Suchitra%Rao%null%1,        Lewis%Rubinson%null%1,        Christina%Schofield%null%1,        Shmuel%Shoham%null%1,        Erika%Stalets%null%1,        Renee D%Stapleton%null%1,       John H%Beigel%null%2,       Evgenia%Aga%null%0,       Marie-Carmelle%Elie-Turenne%null%0,       Josalyn%Cho%null%2,       Pablo%Tebas%null%0,       Carol L%Clark%null%2,       Jordan P%Metcalf%null%2,       Caroline%Ozment%null%2,       Kanakatte%Raviprakash%null%0,       Joy%Beeler%null%2,       H Preston%Holley%null%1,       Stephanie%Warner%null%2,       Carla%Chorley%null%2,       H Clifford%Lane%null%0,       Michael D%Hughes%null%0,       Richard T%Davey%null%0,       John H%Beigel%null%0,       Evgenia%Aga%null%0,       Marie-Carmelle%Elie-Turenne%null%0,       Josalyn%Cho%null%0,       Pablo%Tebas%null%0,       Carol L%Clark%null%0,       Jordan P%Metcalf%null%0,       Caroline%Ozment%null%0,       Kanakatte%Raviprakash%null%0,       Joy%Beeler%null%0,       H. Preston%Holley%null%1,       Stephanie%Warner%null%0,       Carla%Chorley%null%0,       H. Clifford%Lane%null%1,       Michael D%Hughes%null%0,       Richard T%Davey%null%0,       Michelle%Barron%null%1,       Aveh%Bastani%null%1,       Philippe%Bauer%null%1,       William%Borkowsky%null%1,       Charles%Cairns%null%1,       Jaime%Deville%null%1,       Marie-Carmelle%Elie%null%1,       Carl%Fichtenbaum%null%1,       Robert%Finberg%null%0,       Mamta%Jain%null%1,       David%Kaufman%null%1,       Michael%Lin%null%0,       John%Lin%null%1,       Ryan%Maves%null%1,       Lee%Morrow%null%1,       Minh-Hong%Nguyen%null%1,       Pauline%Park%null%1,       Christopher%Polk%null%1,       Adrienne%Randolph%null%1,       Suchitra%Rao%null%1,       Lewis%Rubinson%null%1,       Christina%Schofield%null%0,       Shmuel%Shoham%null%0,       Erika%Stalets%null%1,       Renee D%Stapleton%null%1]</t>
+  </si>
+  <si>
+    <t>[Caiying%Hu%coreGivesNoEmail%1,     Chenyue%Li%coreGivesNoEmail%1,     Conghui%Wang%coreGivesNoEmail%1,     Cuihua%Tao%coreGivesNoEmail%1,     E.%Deng%coreGivesNoEmail%1,     Haixia%Xu%coreGivesNoEmail%1,     Heng%Mei%coreGivesNoEmail%1,     Jianwei%Wang%coreGivesNoEmail%1,     Juan%Wang%coreGivesNoEmail%1,     Jue%Wang%coreGivesNoEmail%1,     Juntao%Yang%coreGivesNoEmail%1,     Li%Zeng%coreGivesNoEmail%1,     Lifeng%Chen%coreGivesNoEmail%1,     Lili%Ren%coreGivesNoEmail%1,     Ling%Li%coreGivesNoEmail%1,     Linqi%Zhang%coreGivesNoEmail%1,     Nian%Xiong%coreGivesNoEmail%1,     Ning%Man%coreGivesNoEmail%1,     Qing%Wei%coreGivesNoEmail%1,     Ru%Yang%coreGivesNoEmail%1,     Shangen%Zheng%coreGivesNoEmail%1,     Shisheng%Su%coreGivesNoEmail%1,     Wei%Zhang%coreGivesNoEmail%1,     Xiaoxiong%Wu%coreGivesNoEmail%1,     Xuejun%Zhang%coreGivesNoEmail%1,     Xunliang%Tong%coreGivesNoEmail%1,     Yanyun%Wu%coreGivesNoEmail%1,     Yong%Guo%coreGivesNoEmail%1,     Yongpei%Yu%coreGivesNoEmail%1,     Yu%Hu%coreGivesNoEmail%1,     Yu%Liu%coreGivesNoEmail%1,     Yujie%Kong%coreGivesNoEmail%1,     Zhihua%Xu%coreGivesNoEmail%1,     Zhong%Liu%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Ivan F.N.%Hung%null%1,        Kelvin K.W.%To%null%1,        Cheuk-Kwong%Lee%null%1,        Kar-Lung%Lee%null%1,        Wing-Wa%Yan%null%1,        Kenny%Chan%null%1,        Wai-Ming%Chan%null%1,        Chun-Wai%Ngai%null%1,        Kin-Ip%Law%null%1,        Fu-Loi%Chow%null%1,        Raymond%Liu%null%1,        Kang-Yiu%Lai%null%1,        Candy C.Y.%Lau%null%1,        Shao-Haei%Liu%null%1,        Kwok-Hung%Chan%null%0,        Che-Kit%Lin%null%1,        Kwok-Yung%Yuen%null%0,       Ivan F.N.%Hung%null%1,       Kelvin K.W.%To%null%1,       Cheuk-Kwong%Lee%null%2,       Kar-Lung%Lee%null%2,       Wing-Wa%Yan%null%1,       Kenny%Chan%null%2,       Wai-Ming%Chan%null%2,       Chun-Wai%Ngai%null%1,       Kin-Ip%Law%null%1,       Fu-Loi%Chow%null%2,       Raymond%Liu%null%2,       Kang-Yiu%Lai%null%2,       Candy C.Y.%Lau%null%1,       Shao-Haei%Liu%null%2,       Kwok-Hung%Chan%null%3,       Che-Kit%Lin%null%2,       Kwok-Yung%Yuen%null%0]</t>
+  </si>
+  <si>
+    <t>[Arvind%Gharbharan%NULL%1,       Carlijn C. E.%Jordans%NULL%1,       Corine%GeurtsvanKessel%NULL%1,       Jan G.%den Hollander%NULL%2,       Jan G.%den Hollander%NULL%0,       Faiz%Karim%NULL%1,       Femke P. N.%Mollema%NULL%1,       Janneke E.%Stalenhoef – Schukken%NULL%1,       Anthonius%Dofferhoff%NULL%2,       Anthonius%Dofferhoff%NULL%0,       Inge%Ludwig%NULL%1,       Adrianus%Koster%NULL%1,       Robert-Jan%Hassing%NULL%1,       Jeannet C.%Bos%NULL%1,       Geert R.%van Pottelberge%NULL%1,       Imro N.%Vlasveld%NULL%1,       Heidi S. M.%Ammerlaan%NULL%1,       Elena M.%van Leeuwen – Segarceanu%NULL%1,       Jelle%Miedema%NULL%1,       Menno%van der Eerden%NULL%1,       Thijs J.%Schrama%NULL%1,       Grigorios%Papageorgiou%NULL%2,       Grigorios%Papageorgiou%NULL%0,       Peter%te Boekhorst%NULL%1,       Francis H.%Swaneveld%NULL%1,       Yvonne M.%Mueller%NULL%1,       Marco W. J.%Schreurs%NULL%2,       Marco W. J.%Schreurs%NULL%0,       Jeroen J. A.%van Kampen%NULL%1,       Barry%Rockx%NULL%1,       Nisreen M. A.%Okba%NULL%2,       Nisreen M. A.%Okba%NULL%0,       Peter D.%Katsikis%NULL%2,       Peter D.%Katsikis%NULL%0,       Marion P. G.%Koopmans%NULL%2,       Marion P. G.%Koopmans%NULL%0,       Bart L.%Haagmans%NULL%2,       Bart L.%Haagmans%NULL%0,       Casper%Rokx%c.rokx@erasmusmc.nl%2,       Casper%Rokx%c.rokx@erasmusmc.nl%0,       Bart J. A.%Rijnders%NULL%2,       Bart J. A.%Rijnders%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gordin%Fred M.%coreGivesNoEmail%1,     INSIGHT%FLU005 IVIG Pilot Study Group.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alcam\u00ed%Jos\u00e9%coreGivesNoEmail%1,     Avenda\u00f1o-Sol\u00e1%Cristina%coreGivesNoEmail%1,     Blanco%Lydia%coreGivesNoEmail%1,     Bueno%Jose L%coreGivesNoEmail%1,     Calder\u00f3n-Parra%Jorge%coreGivesNoEmail%1,     Casas-Flecha%Inmaculada%coreGivesNoEmail%1,     ConPlas-19%Study Group%coreGivesNoEmail%1,     de%Oteyza Jaime P\u00e9rez%coreGivesNoEmail%1,     Duarte%Rafael F%coreGivesNoEmail%1,     D\u00edaz%de Santiago Alberto%coreGivesNoEmail%1,     Fern\u00e1ndez-Cruz%Ana%coreGivesNoEmail%1,     Garcia-Perez%Javier%coreGivesNoEmail%1,     Jarilla-Fern\u00e1ndez%Maria C%coreGivesNoEmail%1,     Lora-Tamayo%Jaime%coreGivesNoEmail%1,     Madrigal-S\u00e1nchez%Maria E%coreGivesNoEmail%1,     Malo%de Molina Rosa%coreGivesNoEmail%1,     Manche\u00f1o-Losa%Mikel%coreGivesNoEmail%1,     Mart\u00ednez-Gonz\u00e1lez%A L%coreGivesNoEmail%1,     Moreno-Chulilla%J A%coreGivesNoEmail%1,     Mu\u00f1ez-Rubio%Elena%coreGivesNoEmail%1,     Mu\u00f1iz-D\u00edaz%Eduardo%coreGivesNoEmail%1,     Nu\u00f1ez-Orantos%Maria J%coreGivesNoEmail%1,     Paciello%Maria L%coreGivesNoEmail%1,     Payares-Herrera%Concepcion%coreGivesNoEmail%1,     Pa\u00f1o-Pardo%Jos\u00e9 R%coreGivesNoEmail%1,     Perez-Olmeda%Mayte%coreGivesNoEmail%1,     Pintos%Ilduara%coreGivesNoEmail%1,     Porras-Leal%Maria L%coreGivesNoEmail%1,     Ramos-Garrido%Ascension%coreGivesNoEmail%1,     Ramos-Mart\u00ednez%Antonio%coreGivesNoEmail%1,     Romera-Mart\u00ednez%Irene%coreGivesNoEmail%1,     Rubio-Batll\u00e9s%Martin%coreGivesNoEmail%1,     Ruiz-Antor\u00e1n%Belen%coreGivesNoEmail%1,     Saez-Serrano%Maria Isabel%coreGivesNoEmail%1,     Torres%Ferran%coreGivesNoEmail%1,     Velasco-Iglesias%Ana%coreGivesNoEmail%1,     Vid\u00e1n-Est\u00e9vez%Julia%coreGivesNoEmail%1,     Villares%Paula%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Agarwal%NULL%1,       Aparna%Mukherjee%NULL%2,       Gunjan%Kumar%NULL%3,       Gunjan%Kumar%NULL%0,       Pranab%Chatterjee%NULL%2,       Tarun%Bhatnagar%NULL%2,       Pankaj%Malhotra%NULL%2,       NULL%NULL%NULL%0,       NULL%NULL%NULL%0,       Anup%Agarwal%NULL%1,       Aparna%Mukherjee%NULL%0,       Gunjan%Kumar%NULL%0,       Pranab%Chatterjee%NULL%0,       Tarun%Bhatnagar%NULL%0,       Pankaj%Malhotra%NULL%0,       B%Latha%NULL%1,       Sunita%Bundas%NULL%1,       Vivek%Kumar%NULL%2,       Ravi%Dosi%NULL%1,       Janak Kumar%Khambholja%NULL%1,       Rosemarie%de Souza%NULL%1,       Raja Rao%Mesipogu%NULL%1,       Saurabh%Srivastava%NULL%1,       Simmi%Dube%NULL%1,       Kiran%Chaudhary%NULL%1,       S%Subash%NULL%1,       S%Anbuselvi%NULL%1,       V%Rajendran%NULL%1,       A%Sundararajaperumal%NULL%1,       P%Balamanikandan%NULL%1,       R S Uma%Maheswari%NULL%1,       R%Jayanthi%NULL%1,       S%Ragunanthanan%NULL%1,       Sudhir%Bhandari%NULL%1,       Ajeet%Singh%NULL%1,       Ashok%Pal%NULL%1,       Anjali%Handa%NULL%1,       Govind%Rankawat%NULL%1,       Ketan%Kargirwar%NULL%1,       Joyce%Regi%NULL%1,       Darshana%Rathod%NULL%1,       Edwin%Pathrose%NULL%1,       Nirankar%Bhutaka%NULL%1,       Mayur H%Patel%NULL%1,       Rahul J%Verma%NULL%1,       Kamal%Malukani%NULL%1,       Shivani%Patel%NULL%1,       Apurv%Thakur%NULL%1,       Satish%Joshi%NULL%1,       Rashmi%Kulkarni%NULL%1,       Nilay N%Suthar%NULL%1,       Nehal M%Shah%NULL%1,       Hemang M%Purohit%NULL%1,       Cherry K%Shah%NULL%1,       Monila N%Patel%NULL%1,       Saket%Shah%NULL%1,       Smit T%Shah%NULL%1,       Tehsim%Memon%NULL%1,       Vishal R%Beriwala%NULL%1,       Kusum%Jashnani%NULL%1,       Fatema%Ezzy%NULL%1,       Simran%Agrawal%NULL%1,       Rakesh%Bhadade%NULL%1,       MN%Atish%NULL%1,       Tushar%Madke%NULL%1,       Vikas%Kavishwar%NULL%1,       Ramesh%Waghmare%NULL%1,       Nitin%Valvi%NULL%1,       B Thrilok%Chander%NULL%1,       A Vinaya%Sekhar%NULL%1,       Akhilesh Kumar%Maurya%NULL%1,       K%Hemanth%NULL%1,       K%Nagamani%NULL%1,       K%Sudha%NULL%1,       T Ravi%Chandra%NULL%1,       K Tushara%Rao%NULL%1,       J%Vyshnavi%NULL%1,       Rashmi%Upadhyay%NULL%1,       Shalini%Bahadur%NULL%1,       Rambha%Pathak%NULL%1,       Shikha%Seth%NULL%1,       Rakesh%Gupta%NULL%1,       Rita%Saxena%NULL%1,       Preksha%Dwivedi%NULL%1,       Reeni%Malik%NULL%1,       Deepti%Chourasia%NULL%1,       Jaya%Lalwani%NULL%1,       UM%Sharma%NULL%1,       JL%Marko%NULL%1,       Amit%Suri%NULL%1,       Vijay%Kumar%NULL%1,       Rajnish%Kaushik%NULL%1,       Parul%Kodan%NULL%1,       Bhabani Prasad%Acharya%NULL%1,       Kuldeep Kumar%Gaur%NULL%1,       Anubhav%Gupta%NULL%1,       Prerna%Sachdeva%NULL%1,       Shruti%Dogra%NULL%1,       Aikaj%Jindal%NULL%1,       M Joseph%John%NULL%1,       Avtar Singh%Dhanju%NULL%1,       Ranjana%Khetrepal%NULL%1,       Neeraj%Sharma%NULL%1,       Neetu%Kukar%NULL%1,       Divya%Kavita%NULL%1,       Rajesh%Kumar%NULL%1,       Rajesh%Mahajan%NULL%1,       Gurpreet%Singh%NULL%1,       Jaspreet%Kaur%NULL%1,       Raminder Pal%Singh%NULL%1,       Rajni%Bassi%NULL%1,       Swapneil%Parikh%NULL%1,       Om%Shrivastav%NULL%1,       Jayanthi%Shastri%NULL%1,       Maherra%Desai%NULL%1,       Shreevatsa%Udupa%NULL%1,       Varun A%Bafna%NULL%1,       Vijay%Barge%NULL%1,       Rajendra%Madane%NULL%1,       Sheetal%Yadav%NULL%1,       Sanjeev%Misra%NULL%1,       Archana%Bajpayee%NULL%1,       M K%Garg%NULL%1,       G K%Bohra%NULL%1,       Vijaylakshmi%Nag%NULL%1,       Puneeth Babu%Anne%NULL%1,       Mohd%Nadeem%NULL%1,       Pallavi%Singh%NULL%1,       Ram%Niwas%NULL%1,       Niranjan Shiwaji%Khaire%NULL%1,       Rattiram%Sharma%NULL%1,       Mini P%Singh%NULL%1,       Naresh%Sachdeva%NULL%1,       Suchet%Sachdev%NULL%1,       Rekha%Hans%NULL%1,       Vikas%Suri%NULL%1,       LN%Yaddanapudi%NULL%1,       PVM%Lakshmi%NULL%1,       Neha%Singh%NULL%1,       Divendu%Bhushan%NULL%1,       Neeraj%Kumar%NULL%1,       Muralidhar%Tambe%NULL%1,       Sonali%Salvi%NULL%1,       Nalini%Kadgi%NULL%1,       Shashikala%Sangle%NULL%1,       Leena%Nakate%NULL%1,       Samir%Joshi%NULL%1,       Rajesh%Karyakarte%NULL%1,       Suraj%Goyanka%NULL%1,       Nimisha%Sharma%NULL%1,       Nikhil%Verma%NULL%1,       Asim%Das%NULL%1,       Monika%Bahl%NULL%1,       Nitya%Wadhwa%NULL%1,       Shreepad%Bhat%NULL%1,       Shweta%Deshmukh%NULL%1,       Vrushali%Wagh%NULL%1,       Atul%Kulkarni%NULL%1,       Tanvi%Yardi%NULL%1,       Ram S%Kalgud%NULL%1,       Purushottam%Reddy%NULL%1,       Kavitha%Yevoor%NULL%1,       Prashanth%Gajula%NULL%1,       Vivek%Maleyur%NULL%1,       S%Medini%NULL%1,       HN%Mohith%NULL%1,       Anil%Gurtoo%NULL%1,       Ritika%Sud%NULL%1,       Sangeeta%Pahuja%NULL%1,       Anupam%Prakash%NULL%1,       Parijat%Gogoi%NULL%1,       Shailja%Shukla%NULL%1,       D Himanshu%Reddy%NULL%1,       Tulika%Chandra%NULL%1,       Saurabh%Pandey%NULL%1,       Pradeep%Maurya%NULL%1,       Wahid%Ali%NULL%1,       Vivek%Kumar%NULL%0,       Kamlesh%Upadhyay%NULL%1,       Nidhi%Bhatnagar%NULL%1,       Nilima%Shah%NULL%1,       Mamta%Shah%NULL%1,       Tarak%Patel%NULL%1,       Ram Mohan%Jaiswal%NULL%1,       Ashish%Jain%NULL%1,       Shweta%Sharma%NULL%1,       Puneet%Rijhwani%NULL%1,       Naveen%Gupta%NULL%1,       Tinkal C%Patel%NULL%1,       Mahesh G%Solu%NULL%1,       Jitendra%Patel%NULL%1,       Yash R%Shah%NULL%1,       Mayur%Jarag%NULL%1,       Varsha%Godbole%NULL%1,       Meenakshi%Shah%NULL%1,       Rikin%Raj%NULL%1,       Irfan%Nagori%NULL%1,       Pramod R%Jha%NULL%1,       Arti D%Shah%NULL%1,       Gowtham%Yeeli%NULL%1,       Archit%Jain%NULL%1,       Rooppreet Kaur%Gill%NULL%1,       KV Sreedhar%Babu%NULL%1,       B Suresh%Babu%NULL%1,       Alladi%Mohan%NULL%1,       B%Vengamma%NULL%1,       K Chandra%Sekhar%NULL%1,       Srinivasulu%Damam%NULL%1,       K%Narsimhulu%NULL%1,       C%Aparna%NULL%1,       G%Baleswari%NULL%1,       K Ravindranath%Reddy%NULL%1,       P%Chandrasekhar%NULL%1,       Sunil Jodharam%Panjwani%NULL%1,       Pragnesh H%Shah%NULL%1,       Manish%Barvaliya%NULL%1,       Kairavi%Desai%NULL%1,       Pankaj J%Akholkar%NULL%1,       Milind%Baldi%NULL%1,       Ashok%Yadav%NULL%1,       Manoj%Gupta%NULL%1,       Nitin%Rawat%NULL%1,       Dilip%Chawda%NULL%1,       M%Natarajan%NULL%1,       M%Sintha%NULL%1,       David Pradeep%Kumar%NULL%1,       Fathhur%Rabbani%NULL%1,       Vrushali Khirid%Khadke%NULL%1,       Dattatray%Patki%NULL%1,       Sonali%Marathe%NULL%1,       Clyde%D’Souza%NULL%1,       Vipul%Tadha%NULL%1,       Satyam%Arora%NULL%1,       Devendra Kumar%Gupta%NULL%1,       Seema%Dua%NULL%1,       Nitu%Chauhan%NULL%1,       Ajeet Singh%Chahar%NULL%1,       Joy John%Mammen%NULL%1,       Snehil%Kumar%NULL%1,       Dolly%Daniel%NULL%1,       Ravindraa%Singh%NULL%1,       Venkatesh%Dhat%NULL%1,       Yogesh%Agarwal%NULL%1,       Sohini%Arora%NULL%1,       Ashish%Pathak%NULL%1,       Manju%Purohit%NULL%1,       Ashish%Sharma%NULL%1,       Jayashree%Sharma%NULL%1,       Manisha%Madkaikar%NULL%1,       Kavita%Joshi%NULL%1,       Reetika Malik%Yadav%NULL%1,       Swarupa%Bhagwat%NULL%1,       Niteen D%Karnik%NULL%1,       Yojana A%Gokhale%NULL%1,       Leena%Naik%NULL%1,       Sangita%Margam%NULL%1,       Santasabuj%Das%NULL%1,       Alka%Turuk%NULL%1,       V Saravana%Kumar%NULL%1,       K%Kanagasabai%NULL%1,       R%Sabarinathan%NULL%1,       Gururaj%Deshpande%NULL%1,       Sharda%Sharma%NULL%1,       Rashmi%Gunjikar%NULL%1,       Anita%Shete%NULL%1,       Darpan%Phagiwala%NULL%1,       Chetan%Patil%NULL%1,       Snehal%Shingade%NULL%1,       Kajal%Jarande%NULL%1,       Himanshu%Kaushal%NULL%1,       Pragya%Yadav%NULL%1,       Gajanan%Sapkal%NULL%1,       Priya%Abraham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan FN%Hung%NULL%1,       Kelvin KW%To%NULL%1,       Cheuk-Kwong%Lee%NULL%0,       Kar-Lung%Lee%NULL%0,       Kenny%Chan%NULL%0,       Wing-Wah%Yan%NULL%1,       Raymond%Liu%NULL%0,       Chi-Leung%Watt%NULL%1,       Wai-Ming%Chan%NULL%0,       Kang-Yiu%Lai%NULL%0,       Chi-Kwan%Koo%NULL%1,       Tom%Buckley%NULL%1,       Fu-Loi%Chow%NULL%0,       Kwan-Keung%Wong%NULL%1,       Hok-Sum%Chan%NULL%1,       Chi-Keung%Ching%NULL%1,       Bone SF%Tang%NULL%1,       Candy CY%Lau%NULL%1,       Iris WS%Li%NULL%1,       Shao-Haei%Liu%NULL%0,       Kwok-Hung%Chan%NULL%0,       Che-Kit%Lin%NULL%0,       Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y. O. Y.%Soo%NULL%1,       Y.%Cheng%NULL%1,       R.%Wong%NULL%2,       D. S.%Hui%NULL%1,       C. K.%Lee%NULL%2,       K. K. S.%Tsang%NULL%1,       M. H. L.%Ng%NULL%2,       P.%Chan%NULL%2,       G.%Cheng%NULL%2,       J. J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Evaluation of Convalescent Plasma for Ebola Virus Disease in Guinea"</t>
+  </si>
+  <si>
+    <t>[Johan%van Griensven%xref no email%1, Tansy%Edwards%xref no email%1, Xavier%de Lamballerie%xref no email%1, Malcolm G.%Semple%xref no email%1, Pierre%Gallian%xref no email%1, Sylvain%Baize%xref no email%1, Peter W.%Horby%xref no email%1, Herv\u00e9%Raoul%xref no email%1, N\u2019Faly%Magassouba%xref no email%1, Annick%Antierens%xref no email%1, Carolyn%Lomas%xref no email%1, Ousmane%Faye%xref no email%1, Amadou A.%Sall%xref no email%1, Katrien%Fransen%xref no email%1, Jozefien%Buyze%xref no email%1, Raffaella%Ravinetto%xref no email%1, Pierre%Tiberghien%xref no email%1, Yves%Claeys%xref no email%1, Maaike%De Crop%xref no email%1, Lutgarde%Lynen%xref no email%1, Elhadj Ibrahima%Bah%xref no email%1, Peter G.%Smith%xref no email%1, Alexandre%Delamou%xref no email%1, Anja%De Weggheleire%xref no email%1, Nyankoye%Haba%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-13</t>
+  </si>
+  <si>
+    <t>[Hongjie%Yu%NULL%2,       Zhancheng%Gao%NULL%0,       Zijian%Feng%NULL%2,       Yuelong%Shu%NULL%1,       Nijuan%Xiang%NULL%2,       Lei%Zhou%NULL%2,       Yang%Huai%NULL%1,       Luzhao%Feng%NULL%0,       Zhibin%Peng%NULL%1,       Zhongjie%Li%NULL%1,       Cuiling%Xu%NULL%1,       Junhua%Li%NULL%0,       Chengping%Hu%NULL%1,       Qun%Li%NULL%1,       Xiaoling%Xu%NULL%1,       Xuecheng%Liu%NULL%1,       Zigui%Liu%NULL%1,       Longshan%Xu%NULL%1,       Yusheng%Chen%NULL%1,       Huiming%Luo%NULL%1,       Liping%Wei%NULL%1,       Xianfeng%Zhang%NULL%1,       Jianbao%Xin%NULL%1,       Junqiao%Guo%NULL%1,       Qiuyue%Wang%NULL%1,       Zhengan%Yuan%NULL%1,       Longnv%Zhou%NULL%1,       Kunzhao%Zhang%NULL%1,       Wei%Zhang%NULL%0,       Jinye%Yang%NULL%1,       Xiaoning%Zhong%NULL%1,       Shichang%Xia%NULL%1,       Lanjuan%Li%NULL%0,       Jinquan%Cheng%NULL%1,       Erdang%Ma%NULL%1,       Pingping%He%NULL%1,       Shui Shan%Lee%NULL%1,       Yu%Wang%NULL%3,       Timothy M.%Uyeki%NULL%0,       Weizhong%Yang%NULL%1,       Joel Mark%Montgomery%NULL%0,       Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>"TREATMENT OF INFLUENZAL PNEUMONIA WITH PLASMA OF CONVALESCENT PATIENTS"</t>
+  </si>
+  <si>
+    <t>[JOHN J.%O'MALLEY%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2022-04-02</t>
+  </si>
+  <si>
+    <t>"VALUE OF CONVALESCENT BLOOD AND SERUM IN TREATMENT OF INFLUENZAL PNEUMONIA"</t>
+  </si>
+  <si>
+    <t>[HENRY F.%STOLL%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2022-10-12</t>
+  </si>
+  <si>
+    <t>"TREATMENT OF THE PNEUMONIC DISTURBANCE COMPLICATING INFLUENZA"</t>
+  </si>
+  <si>
+    <t>[C. W.%ROSS%xref no email%1, ERWIN J.%HUND%xref no email%1]</t>
+  </si>
+  <si>
+    <t>"The Use of the Serum of Convalescents in the Treatment of Influenza Pneumonia: A Summary of the Results in a Series of One Hundred and One Cases"</t>
+  </si>
+  <si>
+    <t>[George P.%Sanborn%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2022-03-29</t>
+  </si>
+  <si>
+    <t>"CITRATED BLOOD IN TREATMENT OF THE PNEUMONIA FOLLOWING INFLUENZA"</t>
+  </si>
+  <si>
+    <t>[W. W. G.%MACLACHLAN%xref no email%1, W. J.%FETTER%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Y.%Cheng%NULL%1,       R.%Wong%NULL%0,       Y. O. Y.%Soo%NULL%1,       W. S.%Wong%NULL%1,       C. K.%Lee%NULL%0,       M. H. L.%Ng%NULL%0,       P.%Chan%NULL%0,       K. C.%Wong%NULL%1,       C. B.%Leung%NULL%1,       G.%Cheng%gcheng@cuhk.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>"TREATMENT OF INFLUENZAL PNEUMONIA BY THE USE OF CONVALESCENT HUMAN SERUM"</t>
+  </si>
+  <si>
+    <t>[L. W.%McGUIRE%xref no email%1, W. R.%REDDEN%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2022-04-03</t>
+  </si>
+  <si>
+    <t>[Kai%Duan%NULL%1,       Bende%Liu%NULL%2,       Bende%Liu%NULL%0,       Cesheng%Li%NULL%1,       Huajun%Zhang%NULL%1,       Ting%Yu%NULL%0,       Ting%Yu%NULL%0,       Jieming%Qu%NULL%0,       Min%Zhou%NULL%0,       Min%Zhou%NULL%0,       Li%Chen%NULL%0,       Li%Chen%NULL%0,       Shengli%Meng%NULL%2,       Shengli%Meng%NULL%0,       Yong%Hu%NULL%1,       Cheng%Peng%NULL%1,       Mingchao%Yuan%NULL%1,       Jinyan%Huang%NULL%1,       Zejun%Wang%NULL%2,       Zejun%Wang%NULL%0,       Jianhong%Yu%NULL%1,       Xiaoxiao%Gao%NULL%1,       Dan%Wang%NULL%1,       Xiaoqi%Yu%NULL%1,       Li%Li%NULL%0,       Li%Li%NULL%0,       Jiayou%Zhang%NULL%2,       Jiayou%Zhang%NULL%0,       Xiao%Wu%NULL%1,       Bei%Li%NULL%1,       Yanping%Xu%NULL%1,       Wei%Chen%NULL%0,       Wei%Chen%NULL%0,       Yan%Peng%NULL%1,       Yeqin%Hu%NULL%1,       Lianzhen%Lin%NULL%1,       Xuefei%Liu%NULL%1,       Shihe%Huang%NULL%1,       Zhijun%Zhou%NULL%1,       Lianghao%Zhang%NULL%1,       Yue%Wang%NULL%1,       Zhi%Zhang%NULL%1,       Kun%Deng%NULL%1,       Zhiwu%Xia%NULL%1,       Qin%Gong%NULL%1,       Wei%Zhang%NULL%0,       Xiaobei%Zheng%NULL%1,       Ying%Liu%NULL%0,       Huichuan%Yang%NULL%1,       Dongbo%Zhou%NULL%1,       Ding%Yu%NULL%1,       Jifeng%Hou%NULL%1,       Zhengli%Shi%NULL%0,       Saijuan%Chen%NULL%1,       Zhu%Chen%NULL%1,       Xinxin%Zhang%NULL%0,       Xiaoming%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[F.%Sahr%NULL%1,       R.%Ansumana%rashidansumana@gmail.com%1,       T.A.%Massaquoi%NULL%1,       B.R.%Idriss%NULL%1,       F.R.%Sesay%NULL%1,       J.M.%Lamin%NULL%1,       S.%Baker%NULL%1,       S.%Nicol%NULL%1,       B.%Conton%NULL%1,       W.%Johnson%NULL%1,       O.T.%Abiri%NULL%1,       O.%Kargbo%NULL%1,       P.%Kamara%NULL%1,       A.%Goba%NULL%1,       J.B.W.%Russell%NULL%1,       S.M.%Gevao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qing-Lei%Zeng%zengqinglei2009@163.com%1,       Zu-Jiang%Yu%NULL%1,       Jian-Jun%Gou%NULL%1,       Guang-Ming%Li%NULL%1,       Shu-Huan%Ma%NULL%1,       Guo-Fan%Zhang%NULL%1,       Jiang-Hai%Xu%NULL%1,       Wan-Bao%Lin%NULL%1,       Guang-Lin%Cui%NULL%1,       Min-Min%Zhang%NULL%1,       Cheng%Li%NULL%1,       Ze-Shuai%Wang%NULL%1,       Zhi-Hao%Zhang%NULL%1,       Zhang-Suo%Liu%zengqinglei2009@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hassan%Abolghasemi%NULL%1,       Peyman%Eshghi%NULL%1,       Abdol Majid%Cheraghali%NULL%1,       Abbas Ali%Imani Fooladi%NULL%1,       Farzaneh%Bolouki Moghaddam%NULL%1,       Sina%Imanizadeh%NULL%1,       Matin%Moeini Maleki%NULL%1,       Mohammad%Ranjkesh%NULL%1,       Mohammad%Rezapour%NULL%1,       Ali%Bahramifar%NULL%1,       Behzad%Einollahi%NULL%1,       Mohammad Javad%Hosseini%NULL%1,       Nematollah Joneidi%Jafari%NULL%1,       Mohamad%Nikpouraghdam%NULL%1,       Nariman%Sadri%NULL%1,       Mokhtar%Tazik%NULL%1,       Shanaz%Sali%NULL%1,       Shamsi%Okati%NULL%1,       Elham%Askari%NULL%1,       Payam%Tabarsi%NULL%1,       Jafar%Aslani%NULL%1,       Ehsan%Sharifipour%NULL%1,       Mohammad Hossein%Jarahzadeh%NULL%1,       Nastaran%Khodakarim%NULL%1,       Mahmood%Salesi%NULL%1,       Ramezan%Jafari%NULL%1,       Samira%Shahverdi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[John H%Beigel%jbeigel@niaid.nih.gov%1,        Pablo%Tebas%NULL%4,        Marie-Carmelle%Elie-Turenne%NULL%4,        Ednan%Bajwa%NULL%2,        Todd E%Bell%NULL%2,        Charles B%Cairns%NULL%2,        Shmuel%Shoham%NULL%3,        Jaime G%Deville%NULL%2,        Eric%Feucht%NULL%2,        Judith%Feinberg%NULL%2,        Thomas%Luke%NULL%1,        Kanakatte%Raviprakash%NULL%3,        Janine%Danko%NULL%2,        Dorothy%O'Neil%NULL%1,        Julia A%Metcalf%NULL%1,        Karen%King%NULL%1,        Timothy H%Burgess%NULL%1,        Evgenia%Aga%NULL%3,        H Clifford%Lane%NULL%2,        Michael D%Hughes%NULL%3,        Richard T%Davey%NULL%3,        Pablo%Tebas%NULL%0,        Joseph%Quinn%NULL%1,        Yan%Jiang%NULL%1,        Marie-Carmelle%Elie-Turenne%NULL%0,        Robyn%Hoelle%NULL%1,        Nicole%Iovine%NULL%1,        Robert Shawn%Wills%NULL%1,        Socorro%Pata%NULL%1,        Monique%Huggins%NULL%1,        Belinda%Manukian%NULL%1,        Ednan%Bajwa%NULL%0,        Carrie%Holland%NULL%1,        Kelsey%Brait%NULL%1,        Taylor%Hunt%NULL%1,        Christopher%Stowell%NULL%1,        Amy%Slater%NULL%1,        Todd E%Bell%NULL%0,        Mary%Townsends%NULL%1,        Charles B%Cairns%NULL%0,        Eugenia B%Quackenbush%NULL%1,        Yara A%Park%NULL%1,        Paul Gaither%Jordan%NULL%1,        Cherie%Blanchet%NULL%1,        Kevin%Chronowski%NULL%1,        Kathleen%Alvarez%NULL%1,        Shmuel%Shoham%NULL%0,        Darin%Ostrander%NULL%1,        Terry%Woessner%NULL%1,        Sandra%Thoman%NULL%1,        Jaime G%Deville%NULL%0,        James%Lin%NULL%1,        Alyssa%Ziman%NULL%1,        Kavita%Shankar%NULL%1,        Eric%Feucht%NULL%0,        Tom%Blok%NULL%1,        Don%Batts%NULL%1,        Bob%Beck%NULL%1,        Gail%Massey%NULL%1,        Carol%Bradley%NULL%1,        Judith%Feinberg%NULL%0,        Patricia%Carey%NULL%1,        Jenifer%Baer%NULL%1,        Eva Moore%Whitehead%NULL%1,        Sharon%Kohrs%NULL%1,        Robert%Giulitto%NULL%1,        Christina%Schofield%NULL%2,        Mary%Fairchok%NULL%1,        Susan%Chambers%NULL%1,        Cindy%Baker%NULL%1,        NULL%RN%NULL%1,        Michelle%Parker%NULL%1,        Marta%Harshbarger%NULL%1,        M Hong%Nguyen%NULL%1,        Mary Ellen%Carey%NULL%1,        Julie%Paronish%NULL%1,        Frank%Cornell%NULL%1,        Jim%Cramer%NULL%1,        Diana Lynn%Pakstis%NULL%1,        Michael G%Ison%NULL%1,        Richard%Wunderink%NULL%1,        Marshall%Glesby%NULL%1,        Kirsis%Ham%NULL%1,        Valery%Hughes%NULL%1,        Melissa%Cushing%NULL%0,        Cheryl%Goss%NULL%1,        Joanne%Grenade%NULL%1,        Pauline K%Park%NULL%1,        Lena M%Napolitano%NULL%1,        Krishnan%Raghavendran%NULL%1,        Robert C%Hyzy%NULL%1,        Robertson%Davenport%NULL%1,        Kristin%Brierley%NULL%1,        Theresa%Downs%NULL%1,        Michelle Ng%Gong%NULL%1,        Joan%Uehlinger%NULL%1,        Michael%Lin%NULL%2,        Janice%Fritsche%NULL%1,        Tondria%Green%NULL%1,        Bruce%McLeod%NULL%1,        Deena%Patel%NULL%1,        Mary F%Bavaro%NULL%1,        Robert%Deiss%NULL%1,        Carolyn%Brandt%NULL%1,        Stephanie%Cammarata%NULL%1,        Allan%Kremp%NULL%1,        Karine%Hollis-Perry%NULL%1,        Tahaniyat%Lalani%NULL%1,        Susan%Banks%NULL%1,        Jacqueline%Johnson%NULL%1,        Jason%Maguire%NULL%1,        Janet%McNiff%NULL%1,        Leslie E%Rigg%NULL%1,        Anuradha%Ganesan%NULL%1,        Irma%Barahona%NULL%1,        Janine%Danko%NULL%0,        Steven%Spencer%NULL%1,        David%Stagliano%NULL%1,        Timothy%Burgess%NULL%1,        Daniel%Talmor%NULL%1,        Monique%Mohammed%NULL%1,        Valerie%Banner-Goodspeed%NULL%1,        Robert%Salata%NULL%1,        Robert%Finberg%NULL%2,        Jennifer%Wang%NULL%1,        Karen%Longtine%NULL%1,        Jaclyn%Longtine%NULL%1,        Mellissa%O'Neil%NULL%1,        Philippe R%Bauer%NULL%1,        Ognjen%Gajic%NULL%1,        Suanne M%Weist%NULL%1,        Jonathan%Sevransky%NULL%1,        Mona%Brown%NULL%1,        John%Roback%NULL%1,        John%Oropello%NULL%1,        Bridget%Twohig%NULL%1,        Jeffrey%Jhang%NULL%0,        Rahgu%Seethala%NULL%1,        Wilbur H%Chen%NULL%1,        Magali%Fontaine%NULL%1,        Kapil%Saharia%NULL%1,        Jennifer%Husson%NULL%1,        Roberta%DeBiasi%NULL%1,        Jurran L%Wilson%NULL%1,        Valli Ree%Criss%NULL%1,        Jocelyn%Voell%NULL%1,        Susan%Leitman%NULL%1,        James Wade%Atkins%NULL%1,        Hemaxi%Patel%NULL%1,        Traci%Paige%NULL%1,        Cathy%Cantilena%NULL%1,        Donald%Siegel%NULL%1,        Faye%DeMuth%NULL%1,        Craig H%Fletcher%NULL%1,        J Peter R%Pelletier%NULL%1,        Hassan%Alnuaimat%NULL%1,        Michelle%Pourde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ John H%Beigel%null%1,         Evgenia%Aga%null%2,         Marie-Carmelle%Elie-Turenne%null%2,         Josalyn%Cho%null%2,         Pablo%Tebas%null%2,         Carol L%Clark%null%2,         Jordan P%Metcalf%null%2,         Caroline%Ozment%null%2,         Kanakatte%Raviprakash%null%2,         Joy%Beeler%null%2,         H Preston%Holley%null%1,         Stephanie%Warner%null%2,         Carla%Chorley%null%2,         H Clifford%Lane%null%1,         Michael D%Hughes%null%2,         Richard T%Davey%null%2,         John H%Beigel%null%1,         Evgenia%Aga%null%0,         Marie-Carmelle%Elie-Turenne%null%0,         Josalyn%Cho%null%0,         Pablo%Tebas%null%0,         Carol L%Clark%null%0,         Jordan P%Metcalf%null%0,         Caroline%Ozment%null%0,         Kanakatte%Raviprakash%null%0,         Joy%Beeler%null%0,         H. Preston%Holley%null%1,         Stephanie%Warner%null%0,         Carla%Chorley%null%0,         H. Clifford%Lane%null%1,         Michael D%Hughes%null%0,         Richard T%Davey%null%0,         Michelle%Barron%null%1,         Aveh%Bastani%null%1,         Philippe%Bauer%null%1,         William%Borkowsky%null%1,         Charles%Cairns%null%1,         Jaime%Deville%null%1,         Marie-Carmelle%Elie%null%1,         Carl%Fichtenbaum%null%1,         Robert%Finberg%null%1,         Mamta%Jain%null%1,         David%Kaufman%null%1,         Michael%Lin%null%1,         John%Lin%null%1,         Ryan%Maves%null%1,         Lee%Morrow%null%1,         Minh-Hong%Nguyen%null%1,         Pauline%Park%null%1,         Christopher%Polk%null%1,         Adrienne%Randolph%null%1,         Suchitra%Rao%null%1,         Lewis%Rubinson%null%1,         Christina%Schofield%null%1,         Shmuel%Shoham%null%1,         Erika%Stalets%null%1,         Renee D%Stapleton%null%1,        John H%Beigel%null%2,        Evgenia%Aga%null%0,        Marie-Carmelle%Elie-Turenne%null%0,        Josalyn%Cho%null%2,        Pablo%Tebas%null%0,        Carol L%Clark%null%2,        Jordan P%Metcalf%null%2,        Caroline%Ozment%null%2,        Kanakatte%Raviprakash%null%0,        Joy%Beeler%null%2,        H Preston%Holley%null%1,        Stephanie%Warner%null%2,        Carla%Chorley%null%2,        H Clifford%Lane%null%0,        Michael D%Hughes%null%0,        Richard T%Davey%null%0,        John H%Beigel%null%0,        Evgenia%Aga%null%0,        Marie-Carmelle%Elie-Turenne%null%0,        Josalyn%Cho%null%0,        Pablo%Tebas%null%0,        Carol L%Clark%null%0,        Jordan P%Metcalf%null%0,        Caroline%Ozment%null%0,        Kanakatte%Raviprakash%null%0,        Joy%Beeler%null%0,        H. Preston%Holley%null%1,        Stephanie%Warner%null%0,        Carla%Chorley%null%0,        H. Clifford%Lane%null%1,        Michael D%Hughes%null%0,        Richard T%Davey%null%0,        Michelle%Barron%null%1,        Aveh%Bastani%null%1,        Philippe%Bauer%null%1,        William%Borkowsky%null%1,        Charles%Cairns%null%1,        Jaime%Deville%null%1,        Marie-Carmelle%Elie%null%1,        Carl%Fichtenbaum%null%1,        Robert%Finberg%null%0,        Mamta%Jain%null%1,        David%Kaufman%null%1,        Michael%Lin%null%0,        John%Lin%null%1,        Ryan%Maves%null%1,        Lee%Morrow%null%1,        Minh-Hong%Nguyen%null%1,        Pauline%Park%null%1,        Christopher%Polk%null%1,        Adrienne%Randolph%null%1,        Suchitra%Rao%null%1,        Lewis%Rubinson%null%1,        Christina%Schofield%null%0,        Shmuel%Shoham%null%0,        Erika%Stalets%null%1,        Renee D%Stapleton%null%1]</t>
+  </si>
+  <si>
+    <t>[Caiying%Hu%coreGivesNoEmail%1,      Chenyue%Li%coreGivesNoEmail%1,      Conghui%Wang%coreGivesNoEmail%1,      Cuihua%Tao%coreGivesNoEmail%1,      E.%Deng%coreGivesNoEmail%1,      Haixia%Xu%coreGivesNoEmail%1,      Heng%Mei%coreGivesNoEmail%1,      Jianwei%Wang%coreGivesNoEmail%1,      Juan%Wang%coreGivesNoEmail%1,      Jue%Wang%coreGivesNoEmail%1,      Juntao%Yang%coreGivesNoEmail%1,      Li%Zeng%coreGivesNoEmail%1,      Lifeng%Chen%coreGivesNoEmail%1,      Lili%Ren%coreGivesNoEmail%1,      Ling%Li%coreGivesNoEmail%1,      Linqi%Zhang%coreGivesNoEmail%1,      Nian%Xiong%coreGivesNoEmail%1,      Ning%Man%coreGivesNoEmail%1,      Qing%Wei%coreGivesNoEmail%1,      Ru%Yang%coreGivesNoEmail%1,      Shangen%Zheng%coreGivesNoEmail%1,      Shisheng%Su%coreGivesNoEmail%1,      Wei%Zhang%coreGivesNoEmail%1,      Xiaoxiong%Wu%coreGivesNoEmail%1,      Xuejun%Zhang%coreGivesNoEmail%1,      Xunliang%Tong%coreGivesNoEmail%1,      Yanyun%Wu%coreGivesNoEmail%1,      Yong%Guo%coreGivesNoEmail%1,      Yongpei%Yu%coreGivesNoEmail%1,      Yu%Hu%coreGivesNoEmail%1,      Yu%Liu%coreGivesNoEmail%1,      Yujie%Kong%coreGivesNoEmail%1,      Zhihua%Xu%coreGivesNoEmail%1,      Zhong%Liu%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Ivan F.N.%Hung%null%1,         Kelvin K.W.%To%null%1,         Cheuk-Kwong%Lee%null%1,         Kar-Lung%Lee%null%1,         Wing-Wa%Yan%null%1,         Kenny%Chan%null%1,         Wai-Ming%Chan%null%1,         Chun-Wai%Ngai%null%1,         Kin-Ip%Law%null%1,         Fu-Loi%Chow%null%1,         Raymond%Liu%null%1,         Kang-Yiu%Lai%null%1,         Candy C.Y.%Lau%null%1,         Shao-Haei%Liu%null%1,         Kwok-Hung%Chan%null%0,         Che-Kit%Lin%null%1,         Kwok-Yung%Yuen%null%0,        Ivan F.N.%Hung%null%1,        Kelvin K.W.%To%null%1,        Cheuk-Kwong%Lee%null%2,        Kar-Lung%Lee%null%2,        Wing-Wa%Yan%null%1,        Kenny%Chan%null%2,        Wai-Ming%Chan%null%2,        Chun-Wai%Ngai%null%1,        Kin-Ip%Law%null%1,        Fu-Loi%Chow%null%2,        Raymond%Liu%null%2,        Kang-Yiu%Lai%null%2,        Candy C.Y.%Lau%null%1,        Shao-Haei%Liu%null%2,        Kwok-Hung%Chan%null%3,        Che-Kit%Lin%null%2,        Kwok-Yung%Yuen%null%0]</t>
+  </si>
+  <si>
+    <t>[Arvind%Gharbharan%NULL%1,        Carlijn C. E.%Jordans%NULL%1,        Corine%GeurtsvanKessel%NULL%1,        Jan G.%den Hollander%NULL%2,        Jan G.%den Hollander%NULL%0,        Faiz%Karim%NULL%1,        Femke P. N.%Mollema%NULL%1,        Janneke E.%Stalenhoef – Schukken%NULL%1,        Anthonius%Dofferhoff%NULL%2,        Anthonius%Dofferhoff%NULL%0,        Inge%Ludwig%NULL%1,        Adrianus%Koster%NULL%1,        Robert-Jan%Hassing%NULL%1,        Jeannet C.%Bos%NULL%1,        Geert R.%van Pottelberge%NULL%1,        Imro N.%Vlasveld%NULL%1,        Heidi S. M.%Ammerlaan%NULL%1,        Elena M.%van Leeuwen – Segarceanu%NULL%1,        Jelle%Miedema%NULL%1,        Menno%van der Eerden%NULL%1,        Thijs J.%Schrama%NULL%1,        Grigorios%Papageorgiou%NULL%2,        Grigorios%Papageorgiou%NULL%0,        Peter%te Boekhorst%NULL%1,        Francis H.%Swaneveld%NULL%1,        Yvonne M.%Mueller%NULL%1,        Marco W. J.%Schreurs%NULL%2,        Marco W. J.%Schreurs%NULL%0,        Jeroen J. A.%van Kampen%NULL%1,        Barry%Rockx%NULL%1,        Nisreen M. A.%Okba%NULL%2,        Nisreen M. A.%Okba%NULL%0,        Peter D.%Katsikis%NULL%2,        Peter D.%Katsikis%NULL%0,        Marion P. G.%Koopmans%NULL%2,        Marion P. G.%Koopmans%NULL%0,        Bart L.%Haagmans%NULL%2,        Bart L.%Haagmans%NULL%0,        Casper%Rokx%c.rokx@erasmusmc.nl%2,        Casper%Rokx%c.rokx@erasmusmc.nl%0,        Bart J. A.%Rijnders%NULL%2,        Bart J. A.%Rijnders%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gordin%Fred M.%coreGivesNoEmail%1,      INSIGHT%FLU005 IVIG Pilot Study Group.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alcam\u00ed%Jos\u00e9%coreGivesNoEmail%1,      Avenda\u00f1o-Sol\u00e1%Cristina%coreGivesNoEmail%1,      Blanco%Lydia%coreGivesNoEmail%1,      Bueno%Jose L%coreGivesNoEmail%1,      Calder\u00f3n-Parra%Jorge%coreGivesNoEmail%1,      Casas-Flecha%Inmaculada%coreGivesNoEmail%1,      ConPlas-19%Study Group%coreGivesNoEmail%1,      de%Oteyza Jaime P\u00e9rez%coreGivesNoEmail%1,      Duarte%Rafael F%coreGivesNoEmail%1,      D\u00edaz%de Santiago Alberto%coreGivesNoEmail%1,      Fern\u00e1ndez-Cruz%Ana%coreGivesNoEmail%1,      Garcia-Perez%Javier%coreGivesNoEmail%1,      Jarilla-Fern\u00e1ndez%Maria C%coreGivesNoEmail%1,      Lora-Tamayo%Jaime%coreGivesNoEmail%1,      Madrigal-S\u00e1nchez%Maria E%coreGivesNoEmail%1,      Malo%de Molina Rosa%coreGivesNoEmail%1,      Manche\u00f1o-Losa%Mikel%coreGivesNoEmail%1,      Mart\u00ednez-Gonz\u00e1lez%A L%coreGivesNoEmail%1,      Moreno-Chulilla%J A%coreGivesNoEmail%1,      Mu\u00f1ez-Rubio%Elena%coreGivesNoEmail%1,      Mu\u00f1iz-D\u00edaz%Eduardo%coreGivesNoEmail%1,      Nu\u00f1ez-Orantos%Maria J%coreGivesNoEmail%1,      Paciello%Maria L%coreGivesNoEmail%1,      Payares-Herrera%Concepcion%coreGivesNoEmail%1,      Pa\u00f1o-Pardo%Jos\u00e9 R%coreGivesNoEmail%1,      Perez-Olmeda%Mayte%coreGivesNoEmail%1,      Pintos%Ilduara%coreGivesNoEmail%1,      Porras-Leal%Maria L%coreGivesNoEmail%1,      Ramos-Garrido%Ascension%coreGivesNoEmail%1,      Ramos-Mart\u00ednez%Antonio%coreGivesNoEmail%1,      Romera-Mart\u00ednez%Irene%coreGivesNoEmail%1,      Rubio-Batll\u00e9s%Martin%coreGivesNoEmail%1,      Ruiz-Antor\u00e1n%Belen%coreGivesNoEmail%1,      Saez-Serrano%Maria Isabel%coreGivesNoEmail%1,      Torres%Ferran%coreGivesNoEmail%1,      Velasco-Iglesias%Ana%coreGivesNoEmail%1,      Vid\u00e1n-Est\u00e9vez%Julia%coreGivesNoEmail%1,      Villares%Paula%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Agarwal%NULL%1,        Aparna%Mukherjee%NULL%2,        Gunjan%Kumar%NULL%3,        Gunjan%Kumar%NULL%0,        Pranab%Chatterjee%NULL%2,        Tarun%Bhatnagar%NULL%2,        Pankaj%Malhotra%NULL%2,        NULL%NULL%NULL%0,        NULL%NULL%NULL%0,        Anup%Agarwal%NULL%1,        Aparna%Mukherjee%NULL%0,        Gunjan%Kumar%NULL%0,        Pranab%Chatterjee%NULL%0,        Tarun%Bhatnagar%NULL%0,        Pankaj%Malhotra%NULL%0,        B%Latha%NULL%1,        Sunita%Bundas%NULL%1,        Vivek%Kumar%NULL%2,        Ravi%Dosi%NULL%1,        Janak Kumar%Khambholja%NULL%1,        Rosemarie%de Souza%NULL%1,        Raja Rao%Mesipogu%NULL%1,        Saurabh%Srivastava%NULL%1,        Simmi%Dube%NULL%1,        Kiran%Chaudhary%NULL%1,        S%Subash%NULL%1,        S%Anbuselvi%NULL%1,        V%Rajendran%NULL%1,        A%Sundararajaperumal%NULL%1,        P%Balamanikandan%NULL%1,        R S Uma%Maheswari%NULL%1,        R%Jayanthi%NULL%1,        S%Ragunanthanan%NULL%1,        Sudhir%Bhandari%NULL%1,        Ajeet%Singh%NULL%1,        Ashok%Pal%NULL%1,        Anjali%Handa%NULL%1,        Govind%Rankawat%NULL%1,        Ketan%Kargirwar%NULL%1,        Joyce%Regi%NULL%1,        Darshana%Rathod%NULL%1,        Edwin%Pathrose%NULL%1,        Nirankar%Bhutaka%NULL%1,        Mayur H%Patel%NULL%1,        Rahul J%Verma%NULL%1,        Kamal%Malukani%NULL%1,        Shivani%Patel%NULL%1,        Apurv%Thakur%NULL%1,        Satish%Joshi%NULL%1,        Rashmi%Kulkarni%NULL%1,        Nilay N%Suthar%NULL%1,        Nehal M%Shah%NULL%1,        Hemang M%Purohit%NULL%1,        Cherry K%Shah%NULL%1,        Monila N%Patel%NULL%1,        Saket%Shah%NULL%1,        Smit T%Shah%NULL%1,        Tehsim%Memon%NULL%1,        Vishal R%Beriwala%NULL%1,        Kusum%Jashnani%NULL%1,        Fatema%Ezzy%NULL%1,        Simran%Agrawal%NULL%1,        Rakesh%Bhadade%NULL%1,        MN%Atish%NULL%1,        Tushar%Madke%NULL%1,        Vikas%Kavishwar%NULL%1,        Ramesh%Waghmare%NULL%1,        Nitin%Valvi%NULL%1,        B Thrilok%Chander%NULL%1,        A Vinaya%Sekhar%NULL%1,        Akhilesh Kumar%Maurya%NULL%1,        K%Hemanth%NULL%1,        K%Nagamani%NULL%1,        K%Sudha%NULL%1,        T Ravi%Chandra%NULL%1,        K Tushara%Rao%NULL%1,        J%Vyshnavi%NULL%1,        Rashmi%Upadhyay%NULL%1,        Shalini%Bahadur%NULL%1,        Rambha%Pathak%NULL%1,        Shikha%Seth%NULL%1,        Rakesh%Gupta%NULL%1,        Rita%Saxena%NULL%1,        Preksha%Dwivedi%NULL%1,        Reeni%Malik%NULL%1,        Deepti%Chourasia%NULL%1,        Jaya%Lalwani%NULL%1,        UM%Sharma%NULL%1,        JL%Marko%NULL%1,        Amit%Suri%NULL%1,        Vijay%Kumar%NULL%1,        Rajnish%Kaushik%NULL%1,        Parul%Kodan%NULL%1,        Bhabani Prasad%Acharya%NULL%1,        Kuldeep Kumar%Gaur%NULL%1,        Anubhav%Gupta%NULL%1,        Prerna%Sachdeva%NULL%1,        Shruti%Dogra%NULL%1,        Aikaj%Jindal%NULL%1,        M Joseph%John%NULL%1,        Avtar Singh%Dhanju%NULL%1,        Ranjana%Khetrepal%NULL%1,        Neeraj%Sharma%NULL%1,        Neetu%Kukar%NULL%1,        Divya%Kavita%NULL%1,        Rajesh%Kumar%NULL%1,        Rajesh%Mahajan%NULL%1,        Gurpreet%Singh%NULL%1,        Jaspreet%Kaur%NULL%1,        Raminder Pal%Singh%NULL%1,        Rajni%Bassi%NULL%1,        Swapneil%Parikh%NULL%1,        Om%Shrivastav%NULL%1,        Jayanthi%Shastri%NULL%1,        Maherra%Desai%NULL%1,        Shreevatsa%Udupa%NULL%1,        Varun A%Bafna%NULL%1,        Vijay%Barge%NULL%1,        Rajendra%Madane%NULL%1,        Sheetal%Yadav%NULL%1,        Sanjeev%Misra%NULL%1,        Archana%Bajpayee%NULL%1,        M K%Garg%NULL%1,        G K%Bohra%NULL%1,        Vijaylakshmi%Nag%NULL%1,        Puneeth Babu%Anne%NULL%1,        Mohd%Nadeem%NULL%1,        Pallavi%Singh%NULL%1,        Ram%Niwas%NULL%1,        Niranjan Shiwaji%Khaire%NULL%1,        Rattiram%Sharma%NULL%1,        Mini P%Singh%NULL%1,        Naresh%Sachdeva%NULL%1,        Suchet%Sachdev%NULL%1,        Rekha%Hans%NULL%1,        Vikas%Suri%NULL%1,        LN%Yaddanapudi%NULL%1,        PVM%Lakshmi%NULL%1,        Neha%Singh%NULL%1,        Divendu%Bhushan%NULL%1,        Neeraj%Kumar%NULL%1,        Muralidhar%Tambe%NULL%1,        Sonali%Salvi%NULL%1,        Nalini%Kadgi%NULL%1,        Shashikala%Sangle%NULL%1,        Leena%Nakate%NULL%1,        Samir%Joshi%NULL%1,        Rajesh%Karyakarte%NULL%1,        Suraj%Goyanka%NULL%1,        Nimisha%Sharma%NULL%1,        Nikhil%Verma%NULL%1,        Asim%Das%NULL%1,        Monika%Bahl%NULL%1,        Nitya%Wadhwa%NULL%1,        Shreepad%Bhat%NULL%1,        Shweta%Deshmukh%NULL%1,        Vrushali%Wagh%NULL%1,        Atul%Kulkarni%NULL%1,        Tanvi%Yardi%NULL%1,        Ram S%Kalgud%NULL%1,        Purushottam%Reddy%NULL%1,        Kavitha%Yevoor%NULL%1,        Prashanth%Gajula%NULL%1,        Vivek%Maleyur%NULL%1,        S%Medini%NULL%1,        HN%Mohith%NULL%1,        Anil%Gurtoo%NULL%1,        Ritika%Sud%NULL%1,        Sangeeta%Pahuja%NULL%1,        Anupam%Prakash%NULL%1,        Parijat%Gogoi%NULL%1,        Shailja%Shukla%NULL%1,        D Himanshu%Reddy%NULL%1,        Tulika%Chandra%NULL%1,        Saurabh%Pandey%NULL%1,        Pradeep%Maurya%NULL%1,        Wahid%Ali%NULL%1,        Vivek%Kumar%NULL%0,        Kamlesh%Upadhyay%NULL%1,        Nidhi%Bhatnagar%NULL%1,        Nilima%Shah%NULL%1,        Mamta%Shah%NULL%1,        Tarak%Patel%NULL%1,        Ram Mohan%Jaiswal%NULL%1,        Ashish%Jain%NULL%1,        Shweta%Sharma%NULL%1,        Puneet%Rijhwani%NULL%1,        Naveen%Gupta%NULL%1,        Tinkal C%Patel%NULL%1,        Mahesh G%Solu%NULL%1,        Jitendra%Patel%NULL%1,        Yash R%Shah%NULL%1,        Mayur%Jarag%NULL%1,        Varsha%Godbole%NULL%1,        Meenakshi%Shah%NULL%1,        Rikin%Raj%NULL%1,        Irfan%Nagori%NULL%1,        Pramod R%Jha%NULL%1,        Arti D%Shah%NULL%1,        Gowtham%Yeeli%NULL%1,        Archit%Jain%NULL%1,        Rooppreet Kaur%Gill%NULL%1,        KV Sreedhar%Babu%NULL%1,        B Suresh%Babu%NULL%1,        Alladi%Mohan%NULL%1,        B%Vengamma%NULL%1,        K Chandra%Sekhar%NULL%1,        Srinivasulu%Damam%NULL%1,        K%Narsimhulu%NULL%1,        C%Aparna%NULL%1,        G%Baleswari%NULL%1,        K Ravindranath%Reddy%NULL%1,        P%Chandrasekhar%NULL%1,        Sunil Jodharam%Panjwani%NULL%1,        Pragnesh H%Shah%NULL%1,        Manish%Barvaliya%NULL%1,        Kairavi%Desai%NULL%1,        Pankaj J%Akholkar%NULL%1,        Milind%Baldi%NULL%1,        Ashok%Yadav%NULL%1,        Manoj%Gupta%NULL%1,        Nitin%Rawat%NULL%1,        Dilip%Chawda%NULL%1,        M%Natarajan%NULL%1,        M%Sintha%NULL%1,        David Pradeep%Kumar%NULL%1,        Fathhur%Rabbani%NULL%1,        Vrushali Khirid%Khadke%NULL%1,        Dattatray%Patki%NULL%1,        Sonali%Marathe%NULL%1,        Clyde%D’Souza%NULL%1,        Vipul%Tadha%NULL%1,        Satyam%Arora%NULL%1,        Devendra Kumar%Gupta%NULL%1,        Seema%Dua%NULL%1,        Nitu%Chauhan%NULL%1,        Ajeet Singh%Chahar%NULL%1,        Joy John%Mammen%NULL%1,        Snehil%Kumar%NULL%1,        Dolly%Daniel%NULL%1,        Ravindraa%Singh%NULL%1,        Venkatesh%Dhat%NULL%1,        Yogesh%Agarwal%NULL%1,        Sohini%Arora%NULL%1,        Ashish%Pathak%NULL%1,        Manju%Purohit%NULL%1,        Ashish%Sharma%NULL%1,        Jayashree%Sharma%NULL%1,        Manisha%Madkaikar%NULL%1,        Kavita%Joshi%NULL%1,        Reetika Malik%Yadav%NULL%1,        Swarupa%Bhagwat%NULL%1,        Niteen D%Karnik%NULL%1,        Yojana A%Gokhale%NULL%1,        Leena%Naik%NULL%1,        Sangita%Margam%NULL%1,        Santasabuj%Das%NULL%1,        Alka%Turuk%NULL%1,        V Saravana%Kumar%NULL%1,        K%Kanagasabai%NULL%1,        R%Sabarinathan%NULL%1,        Gururaj%Deshpande%NULL%1,        Sharda%Sharma%NULL%1,        Rashmi%Gunjikar%NULL%1,        Anita%Shete%NULL%1,        Darpan%Phagiwala%NULL%1,        Chetan%Patil%NULL%1,        Snehal%Shingade%NULL%1,        Kajal%Jarande%NULL%1,        Himanshu%Kaushal%NULL%1,        Pragya%Yadav%NULL%1,        Gajanan%Sapkal%NULL%1,        Priya%Abraham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan FN%Hung%NULL%1,        Kelvin KW%To%NULL%1,        Cheuk-Kwong%Lee%NULL%0,        Kar-Lung%Lee%NULL%0,        Kenny%Chan%NULL%0,        Wing-Wah%Yan%NULL%1,        Raymond%Liu%NULL%0,        Chi-Leung%Watt%NULL%1,        Wai-Ming%Chan%NULL%0,        Kang-Yiu%Lai%NULL%0,        Chi-Kwan%Koo%NULL%1,        Tom%Buckley%NULL%1,        Fu-Loi%Chow%NULL%0,        Kwan-Keung%Wong%NULL%1,        Hok-Sum%Chan%NULL%1,        Chi-Keung%Ching%NULL%1,        Bone SF%Tang%NULL%1,        Candy CY%Lau%NULL%1,        Iris WS%Li%NULL%1,        Shao-Haei%Liu%NULL%0,        Kwok-Hung%Chan%NULL%0,        Che-Kit%Lin%NULL%0,        Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y. O. Y.%Soo%NULL%1,        Y.%Cheng%NULL%1,        R.%Wong%NULL%2,        D. S.%Hui%NULL%1,        C. K.%Lee%NULL%2,        K. K. S.%Tsang%NULL%1,        M. H. L.%Ng%NULL%2,        P.%Chan%NULL%2,        G.%Cheng%NULL%2,        J. J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Johan%van Griensven%xref no email%1,  Tansy%Edwards%xref no email%1,  Xavier%de Lamballerie%xref no email%1,  Malcolm G.%Semple%xref no email%1,  Pierre%Gallian%xref no email%1,  Sylvain%Baize%xref no email%1,  Peter W.%Horby%xref no email%1,  Herv\u00e9%Raoul%xref no email%1,  N\u2019Faly%Magassouba%xref no email%1,  Annick%Antierens%xref no email%1,  Carolyn%Lomas%xref no email%1,  Ousmane%Faye%xref no email%1,  Amadou A.%Sall%xref no email%1,  Katrien%Fransen%xref no email%1,  Jozefien%Buyze%xref no email%1,  Raffaella%Ravinetto%xref no email%1,  Pierre%Tiberghien%xref no email%1,  Yves%Claeys%xref no email%1,  Maaike%De Crop%xref no email%1,  Lutgarde%Lynen%xref no email%1,  Elhadj Ibrahima%Bah%xref no email%1,  Peter G.%Smith%xref no email%1,  Alexandre%Delamou%xref no email%1,  Anja%De Weggheleire%xref no email%1,  Nyankoye%Haba%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hongjie%Yu%NULL%1,        Zhancheng%Gao%NULL%0,        Zijian%Feng%NULL%2,        Yuelong%Shu%NULL%1,        Nijuan%Xiang%NULL%2,        Lei%Zhou%NULL%2,        Yang%Huai%NULL%1,        Luzhao%Feng%NULL%0,        Zhibin%Peng%NULL%1,        Zhongjie%Li%NULL%1,        Cuiling%Xu%NULL%1,        Junhua%Li%NULL%0,        Chengping%Hu%NULL%1,        Qun%Li%NULL%1,        Xiaoling%Xu%NULL%1,        Xuecheng%Liu%NULL%1,        Zigui%Liu%NULL%1,        Longshan%Xu%NULL%1,        Yusheng%Chen%NULL%1,        Huiming%Luo%NULL%1,        Liping%Wei%NULL%1,        Xianfeng%Zhang%NULL%1,        Jianbao%Xin%NULL%1,        Junqiao%Guo%NULL%1,        Qiuyue%Wang%NULL%1,        Zhengan%Yuan%NULL%1,        Longnv%Zhou%NULL%1,        Kunzhao%Zhang%NULL%1,        Wei%Zhang%NULL%0,        Jinye%Yang%NULL%1,        Xiaoning%Zhong%NULL%1,        Shichang%Xia%NULL%1,        Lanjuan%Li%NULL%0,        Jinquan%Cheng%NULL%1,        Erdang%Ma%NULL%1,        Pingping%He%NULL%1,        Shui Shan%Lee%NULL%1,        Yu%Wang%NULL%3,        Timothy M.%Uyeki%NULL%0,        Weizhong%Yang%NULL%1,        Joel Mark%Montgomery%NULL%0,        Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C. W.%ROSS%xref no email%1,  ERWIN J.%HUND%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[W. W. G.%MACLACHLAN%xref no email%1,  W. J.%FETTER%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Y.%Cheng%NULL%1,        R.%Wong%NULL%0,        Y. O. Y.%Soo%NULL%1,        W. S.%Wong%NULL%1,        C. K.%Lee%NULL%0,        M. H. L.%Ng%NULL%0,        P.%Chan%NULL%0,        K. C.%Wong%NULL%1,        C. B.%Leung%NULL%1,        G.%Cheng%gcheng@cuhk.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[L. W.%McGUIRE%xref no email%1,  W. R.%REDDEN%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kai%Duan%NULL%1,        Bende%Liu%NULL%2,        Bende%Liu%NULL%0,        Cesheng%Li%NULL%1,        Huajun%Zhang%NULL%1,        Ting%Yu%NULL%0,        Ting%Yu%NULL%0,        Jieming%Qu%NULL%0,        Min%Zhou%NULL%0,        Min%Zhou%NULL%0,        Li%Chen%NULL%0,        Li%Chen%NULL%0,        Shengli%Meng%NULL%2,        Shengli%Meng%NULL%0,        Yong%Hu%NULL%1,        Cheng%Peng%NULL%1,        Mingchao%Yuan%NULL%1,        Jinyan%Huang%NULL%1,        Zejun%Wang%NULL%2,        Zejun%Wang%NULL%0,        Jianhong%Yu%NULL%1,        Xiaoxiao%Gao%NULL%1,        Dan%Wang%NULL%1,        Xiaoqi%Yu%NULL%1,        Li%Li%NULL%0,        Li%Li%NULL%0,        Jiayou%Zhang%NULL%2,        Jiayou%Zhang%NULL%0,        Xiao%Wu%NULL%1,        Bei%Li%NULL%1,        Yanping%Xu%NULL%1,        Wei%Chen%NULL%0,        Wei%Chen%NULL%0,        Yan%Peng%NULL%1,        Yeqin%Hu%NULL%1,        Lianzhen%Lin%NULL%1,        Xuefei%Liu%NULL%1,        Shihe%Huang%NULL%1,        Zhijun%Zhou%NULL%1,        Lianghao%Zhang%NULL%1,        Yue%Wang%NULL%1,        Zhi%Zhang%NULL%1,        Kun%Deng%NULL%1,        Zhiwu%Xia%NULL%1,        Qin%Gong%NULL%1,        Wei%Zhang%NULL%0,        Xiaobei%Zheng%NULL%1,        Ying%Liu%NULL%0,        Huichuan%Yang%NULL%1,        Dongbo%Zhou%NULL%1,        Ding%Yu%NULL%1,        Jifeng%Hou%NULL%1,        Zhengli%Shi%NULL%0,        Saijuan%Chen%NULL%1,        Zhu%Chen%NULL%1,        Xinxin%Zhang%NULL%0,        Xiaoming%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[F.%Sahr%NULL%1,        R.%Ansumana%rashidansumana@gmail.com%1,        T.A.%Massaquoi%NULL%1,        B.R.%Idriss%NULL%1,        F.R.%Sesay%NULL%1,        J.M.%Lamin%NULL%1,        S.%Baker%NULL%1,        S.%Nicol%NULL%1,        B.%Conton%NULL%1,        W.%Johnson%NULL%1,        O.T.%Abiri%NULL%1,        O.%Kargbo%NULL%1,        P.%Kamara%NULL%1,        A.%Goba%NULL%1,        J.B.W.%Russell%NULL%1,        S.M.%Gevao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qing-Lei%Zeng%zengqinglei2009@163.com%1,        Zu-Jiang%Yu%NULL%1,        Jian-Jun%Gou%NULL%1,        Guang-Ming%Li%NULL%1,        Shu-Huan%Ma%NULL%1,        Guo-Fan%Zhang%NULL%1,        Jiang-Hai%Xu%NULL%1,        Wan-Bao%Lin%NULL%1,        Guang-Lin%Cui%NULL%1,        Min-Min%Zhang%NULL%1,        Cheng%Li%NULL%1,        Ze-Shuai%Wang%NULL%1,        Zhi-Hao%Zhang%NULL%1,        Zhang-Suo%Liu%zengqinglei2009@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hassan%Abolghasemi%NULL%1,        Peyman%Eshghi%NULL%1,        Abdol Majid%Cheraghali%NULL%1,        Abbas Ali%Imani Fooladi%NULL%1,        Farzaneh%Bolouki Moghaddam%NULL%1,        Sina%Imanizadeh%NULL%1,        Matin%Moeini Maleki%NULL%1,        Mohammad%Ranjkesh%NULL%1,        Mohammad%Rezapour%NULL%1,        Ali%Bahramifar%NULL%1,        Behzad%Einollahi%NULL%1,        Mohammad Javad%Hosseini%NULL%1,        Nematollah Joneidi%Jafari%NULL%1,        Mohamad%Nikpouraghdam%NULL%1,        Nariman%Sadri%NULL%1,        Mokhtar%Tazik%NULL%1,        Shanaz%Sali%NULL%1,        Shamsi%Okati%NULL%1,        Elham%Askari%NULL%1,        Payam%Tabarsi%NULL%1,        Jafar%Aslani%NULL%1,        Ehsan%Sharifipour%NULL%1,        Mohammad Hossein%Jarahzadeh%NULL%1,        Nastaran%Khodakarim%NULL%1,        Mahmood%Salesi%NULL%1,        Ramezan%Jafari%NULL%1,        Samira%Shahverdi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1283,7 @@
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>227</v>
       </c>
       <c r="F2" t="s">
         <v>41</v>
@@ -1144,7 +1312,7 @@
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>176</v>
+        <v>228</v>
       </c>
       <c r="F3" t="s">
         <v>47</v>
@@ -1173,7 +1341,7 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>177</v>
+        <v>229</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1202,7 +1370,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -1231,7 +1399,7 @@
         <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -1260,7 +1428,7 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>180</v>
+        <v>232</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -1289,7 +1457,7 @@
         <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -1318,7 +1486,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -1347,7 +1515,7 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>183</v>
+        <v>235</v>
       </c>
       <c r="F10" t="s">
         <v>68</v>
@@ -1376,7 +1544,7 @@
         <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="F11" t="s">
         <v>73</v>
@@ -1399,22 +1567,22 @@
         <v>42376.0</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>201</v>
       </c>
       <c r="D12" t="s">
         <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>237</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>203</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>204</v>
       </c>
       <c r="I12" t="s">
         <v>105</v>
@@ -1463,7 +1631,7 @@
         <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="F14" t="s">
         <v>77</v>
@@ -1486,22 +1654,22 @@
         <v>6944.0</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="D15" t="s">
         <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>207</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>203</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="I15" t="s">
         <v>105</v>
@@ -1515,22 +1683,22 @@
         <v>7168.0</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="D16" t="s">
         <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>210</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>203</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="I16" t="s">
         <v>105</v>
@@ -1544,22 +1712,22 @@
         <v>7000.0</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="D17" t="s">
         <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>203</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="I17" t="s">
         <v>105</v>
@@ -1573,22 +1741,22 @@
         <v>7523.0</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>214</v>
       </c>
       <c r="D18" t="s">
         <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>203</v>
       </c>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>216</v>
       </c>
       <c r="I18" t="s">
         <v>105</v>
@@ -1602,22 +1770,22 @@
         <v>6930.0</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="D19" t="s">
         <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>240</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>203</v>
       </c>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="I19" t="s">
         <v>105</v>
@@ -1637,7 +1805,7 @@
         <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="F20" t="s">
         <v>82</v>
@@ -1660,22 +1828,22 @@
         <v>7007.0</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="D21" t="s">
         <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>242</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>203</v>
       </c>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>222</v>
       </c>
       <c r="I21" t="s">
         <v>105</v>
@@ -1695,7 +1863,7 @@
         <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="F22" t="s">
         <v>86</v>
@@ -1724,7 +1892,7 @@
         <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c r="F23" t="s">
         <v>90</v>
@@ -1753,7 +1921,7 @@
         <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>189</v>
+        <v>245</v>
       </c>
       <c r="F24" t="s">
         <v>95</v>
@@ -1782,7 +1950,7 @@
         <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="F25" t="s">
         <v>99</v>

--- a/Covid_19_Dataset_and_References/References/26.xlsx
+++ b/Covid_19_Dataset_and_References/References/26.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="287">
   <si>
     <t xml:space="preserve">Doi </t>
   </si>
@@ -906,6 +906,126 @@
   </si>
   <si>
     <t>[Hassan%Abolghasemi%NULL%1,        Peyman%Eshghi%NULL%1,        Abdol Majid%Cheraghali%NULL%1,        Abbas Ali%Imani Fooladi%NULL%1,        Farzaneh%Bolouki Moghaddam%NULL%1,        Sina%Imanizadeh%NULL%1,        Matin%Moeini Maleki%NULL%1,        Mohammad%Ranjkesh%NULL%1,        Mohammad%Rezapour%NULL%1,        Ali%Bahramifar%NULL%1,        Behzad%Einollahi%NULL%1,        Mohammad Javad%Hosseini%NULL%1,        Nematollah Joneidi%Jafari%NULL%1,        Mohamad%Nikpouraghdam%NULL%1,        Nariman%Sadri%NULL%1,        Mokhtar%Tazik%NULL%1,        Shanaz%Sali%NULL%1,        Shamsi%Okati%NULL%1,        Elham%Askari%NULL%1,        Payam%Tabarsi%NULL%1,        Jafar%Aslani%NULL%1,        Ehsan%Sharifipour%NULL%1,        Mohammad Hossein%Jarahzadeh%NULL%1,        Nastaran%Khodakarim%NULL%1,        Mahmood%Salesi%NULL%1,        Ramezan%Jafari%NULL%1,        Samira%Shahverdi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[John H%Beigel%jbeigel@niaid.nih.gov%1,         Pablo%Tebas%NULL%4,         Marie-Carmelle%Elie-Turenne%NULL%4,         Ednan%Bajwa%NULL%2,         Todd E%Bell%NULL%2,         Charles B%Cairns%NULL%2,         Shmuel%Shoham%NULL%3,         Jaime G%Deville%NULL%2,         Eric%Feucht%NULL%2,         Judith%Feinberg%NULL%2,         Thomas%Luke%NULL%1,         Kanakatte%Raviprakash%NULL%3,         Janine%Danko%NULL%2,         Dorothy%O'Neil%NULL%1,         Julia A%Metcalf%NULL%1,         Karen%King%NULL%1,         Timothy H%Burgess%NULL%1,         Evgenia%Aga%NULL%3,         H Clifford%Lane%NULL%2,         Michael D%Hughes%NULL%3,         Richard T%Davey%NULL%3,         Pablo%Tebas%NULL%0,         Joseph%Quinn%NULL%1,         Yan%Jiang%NULL%1,         Marie-Carmelle%Elie-Turenne%NULL%0,         Robyn%Hoelle%NULL%1,         Nicole%Iovine%NULL%1,         Robert Shawn%Wills%NULL%1,         Socorro%Pata%NULL%1,         Monique%Huggins%NULL%1,         Belinda%Manukian%NULL%1,         Ednan%Bajwa%NULL%0,         Carrie%Holland%NULL%1,         Kelsey%Brait%NULL%1,         Taylor%Hunt%NULL%1,         Christopher%Stowell%NULL%1,         Amy%Slater%NULL%1,         Todd E%Bell%NULL%0,         Mary%Townsends%NULL%1,         Charles B%Cairns%NULL%0,         Eugenia B%Quackenbush%NULL%1,         Yara A%Park%NULL%1,         Paul Gaither%Jordan%NULL%1,         Cherie%Blanchet%NULL%1,         Kevin%Chronowski%NULL%1,         Kathleen%Alvarez%NULL%1,         Shmuel%Shoham%NULL%0,         Darin%Ostrander%NULL%1,         Terry%Woessner%NULL%1,         Sandra%Thoman%NULL%1,         Jaime G%Deville%NULL%0,         James%Lin%NULL%1,         Alyssa%Ziman%NULL%1,         Kavita%Shankar%NULL%1,         Eric%Feucht%NULL%0,         Tom%Blok%NULL%1,         Don%Batts%NULL%1,         Bob%Beck%NULL%1,         Gail%Massey%NULL%1,         Carol%Bradley%NULL%1,         Judith%Feinberg%NULL%0,         Patricia%Carey%NULL%1,         Jenifer%Baer%NULL%1,         Eva Moore%Whitehead%NULL%1,         Sharon%Kohrs%NULL%1,         Robert%Giulitto%NULL%1,         Christina%Schofield%NULL%2,         Mary%Fairchok%NULL%1,         Susan%Chambers%NULL%1,         Cindy%Baker%NULL%1,         NULL%RN%NULL%1,         Michelle%Parker%NULL%1,         Marta%Harshbarger%NULL%1,         M Hong%Nguyen%NULL%1,         Mary Ellen%Carey%NULL%1,         Julie%Paronish%NULL%1,         Frank%Cornell%NULL%1,         Jim%Cramer%NULL%1,         Diana Lynn%Pakstis%NULL%1,         Michael G%Ison%NULL%1,         Richard%Wunderink%NULL%1,         Marshall%Glesby%NULL%1,         Kirsis%Ham%NULL%1,         Valery%Hughes%NULL%1,         Melissa%Cushing%NULL%0,         Cheryl%Goss%NULL%1,         Joanne%Grenade%NULL%1,         Pauline K%Park%NULL%1,         Lena M%Napolitano%NULL%1,         Krishnan%Raghavendran%NULL%1,         Robert C%Hyzy%NULL%1,         Robertson%Davenport%NULL%1,         Kristin%Brierley%NULL%1,         Theresa%Downs%NULL%1,         Michelle Ng%Gong%NULL%1,         Joan%Uehlinger%NULL%1,         Michael%Lin%NULL%2,         Janice%Fritsche%NULL%1,         Tondria%Green%NULL%1,         Bruce%McLeod%NULL%1,         Deena%Patel%NULL%1,         Mary F%Bavaro%NULL%1,         Robert%Deiss%NULL%1,         Carolyn%Brandt%NULL%1,         Stephanie%Cammarata%NULL%1,         Allan%Kremp%NULL%1,         Karine%Hollis-Perry%NULL%1,         Tahaniyat%Lalani%NULL%1,         Susan%Banks%NULL%1,         Jacqueline%Johnson%NULL%1,         Jason%Maguire%NULL%1,         Janet%McNiff%NULL%1,         Leslie E%Rigg%NULL%1,         Anuradha%Ganesan%NULL%1,         Irma%Barahona%NULL%1,         Janine%Danko%NULL%0,         Steven%Spencer%NULL%1,         David%Stagliano%NULL%1,         Timothy%Burgess%NULL%1,         Daniel%Talmor%NULL%1,         Monique%Mohammed%NULL%1,         Valerie%Banner-Goodspeed%NULL%1,         Robert%Salata%NULL%1,         Robert%Finberg%NULL%2,         Jennifer%Wang%NULL%1,         Karen%Longtine%NULL%1,         Jaclyn%Longtine%NULL%1,         Mellissa%O'Neil%NULL%1,         Philippe R%Bauer%NULL%1,         Ognjen%Gajic%NULL%1,         Suanne M%Weist%NULL%1,         Jonathan%Sevransky%NULL%1,         Mona%Brown%NULL%1,         John%Roback%NULL%1,         John%Oropello%NULL%1,         Bridget%Twohig%NULL%1,         Jeffrey%Jhang%NULL%0,         Rahgu%Seethala%NULL%1,         Wilbur H%Chen%NULL%1,         Magali%Fontaine%NULL%1,         Kapil%Saharia%NULL%1,         Jennifer%Husson%NULL%1,         Roberta%DeBiasi%NULL%1,         Jurran L%Wilson%NULL%1,         Valli Ree%Criss%NULL%1,         Jocelyn%Voell%NULL%1,         Susan%Leitman%NULL%1,         James Wade%Atkins%NULL%1,         Hemaxi%Patel%NULL%1,         Traci%Paige%NULL%1,         Cathy%Cantilena%NULL%1,         Donald%Siegel%NULL%1,         Faye%DeMuth%NULL%1,         Craig H%Fletcher%NULL%1,         J Peter R%Pelletier%NULL%1,         Hassan%Alnuaimat%NULL%1,         Michelle%Pourde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ John H%Beigel%null%1,          Evgenia%Aga%null%2,          Marie-Carmelle%Elie-Turenne%null%2,          Josalyn%Cho%null%2,          Pablo%Tebas%null%2,          Carol L%Clark%null%2,          Jordan P%Metcalf%null%2,          Caroline%Ozment%null%2,          Kanakatte%Raviprakash%null%2,          Joy%Beeler%null%2,          H Preston%Holley%null%1,          Stephanie%Warner%null%2,          Carla%Chorley%null%2,          H Clifford%Lane%null%1,          Michael D%Hughes%null%2,          Richard T%Davey%null%2,          John H%Beigel%null%1,          Evgenia%Aga%null%0,          Marie-Carmelle%Elie-Turenne%null%0,          Josalyn%Cho%null%0,          Pablo%Tebas%null%0,          Carol L%Clark%null%0,          Jordan P%Metcalf%null%0,          Caroline%Ozment%null%0,          Kanakatte%Raviprakash%null%0,          Joy%Beeler%null%0,          H. Preston%Holley%null%1,          Stephanie%Warner%null%0,          Carla%Chorley%null%0,          H. Clifford%Lane%null%1,          Michael D%Hughes%null%0,          Richard T%Davey%null%0,          Michelle%Barron%null%1,          Aveh%Bastani%null%1,          Philippe%Bauer%null%1,          William%Borkowsky%null%1,          Charles%Cairns%null%1,          Jaime%Deville%null%1,          Marie-Carmelle%Elie%null%1,          Carl%Fichtenbaum%null%1,          Robert%Finberg%null%1,          Mamta%Jain%null%1,          David%Kaufman%null%1,          Michael%Lin%null%1,          John%Lin%null%1,          Ryan%Maves%null%1,          Lee%Morrow%null%1,          Minh-Hong%Nguyen%null%1,          Pauline%Park%null%1,          Christopher%Polk%null%1,          Adrienne%Randolph%null%1,          Suchitra%Rao%null%1,          Lewis%Rubinson%null%1,          Christina%Schofield%null%1,          Shmuel%Shoham%null%1,          Erika%Stalets%null%1,          Renee D%Stapleton%null%1,         John H%Beigel%null%2,         Evgenia%Aga%null%0,         Marie-Carmelle%Elie-Turenne%null%0,         Josalyn%Cho%null%2,         Pablo%Tebas%null%0,         Carol L%Clark%null%2,         Jordan P%Metcalf%null%2,         Caroline%Ozment%null%2,         Kanakatte%Raviprakash%null%0,         Joy%Beeler%null%2,         H Preston%Holley%null%1,         Stephanie%Warner%null%2,         Carla%Chorley%null%2,         H Clifford%Lane%null%0,         Michael D%Hughes%null%0,         Richard T%Davey%null%0,         John H%Beigel%null%0,         Evgenia%Aga%null%0,         Marie-Carmelle%Elie-Turenne%null%0,         Josalyn%Cho%null%0,         Pablo%Tebas%null%0,         Carol L%Clark%null%0,         Jordan P%Metcalf%null%0,         Caroline%Ozment%null%0,         Kanakatte%Raviprakash%null%0,         Joy%Beeler%null%0,         H. Preston%Holley%null%1,         Stephanie%Warner%null%0,         Carla%Chorley%null%0,         H. Clifford%Lane%null%1,         Michael D%Hughes%null%0,         Richard T%Davey%null%0,         Michelle%Barron%null%1,         Aveh%Bastani%null%1,         Philippe%Bauer%null%1,         William%Borkowsky%null%1,         Charles%Cairns%null%1,         Jaime%Deville%null%1,         Marie-Carmelle%Elie%null%1,         Carl%Fichtenbaum%null%1,         Robert%Finberg%null%0,         Mamta%Jain%null%1,         David%Kaufman%null%1,         Michael%Lin%null%0,         John%Lin%null%1,         Ryan%Maves%null%1,         Lee%Morrow%null%1,         Minh-Hong%Nguyen%null%1,         Pauline%Park%null%1,         Christopher%Polk%null%1,         Adrienne%Randolph%null%1,         Suchitra%Rao%null%1,         Lewis%Rubinson%null%1,         Christina%Schofield%null%0,         Shmuel%Shoham%null%0,         Erika%Stalets%null%1,         Renee D%Stapleton%null%1]</t>
+  </si>
+  <si>
+    <t>[Caiying%Hu%coreGivesNoEmail%1,       Chenyue%Li%coreGivesNoEmail%1,       Conghui%Wang%coreGivesNoEmail%1,       Cuihua%Tao%coreGivesNoEmail%1,       E.%Deng%coreGivesNoEmail%1,       Haixia%Xu%coreGivesNoEmail%1,       Heng%Mei%coreGivesNoEmail%1,       Jianwei%Wang%coreGivesNoEmail%1,       Juan%Wang%coreGivesNoEmail%1,       Jue%Wang%coreGivesNoEmail%1,       Juntao%Yang%coreGivesNoEmail%1,       Li%Zeng%coreGivesNoEmail%1,       Lifeng%Chen%coreGivesNoEmail%1,       Lili%Ren%coreGivesNoEmail%1,       Ling%Li%coreGivesNoEmail%1,       Linqi%Zhang%coreGivesNoEmail%1,       Nian%Xiong%coreGivesNoEmail%1,       Ning%Man%coreGivesNoEmail%1,       Qing%Wei%coreGivesNoEmail%1,       Ru%Yang%coreGivesNoEmail%1,       Shangen%Zheng%coreGivesNoEmail%1,       Shisheng%Su%coreGivesNoEmail%1,       Wei%Zhang%coreGivesNoEmail%1,       Xiaoxiong%Wu%coreGivesNoEmail%1,       Xuejun%Zhang%coreGivesNoEmail%1,       Xunliang%Tong%coreGivesNoEmail%1,       Yanyun%Wu%coreGivesNoEmail%1,       Yong%Guo%coreGivesNoEmail%1,       Yongpei%Yu%coreGivesNoEmail%1,       Yu%Hu%coreGivesNoEmail%1,       Yu%Liu%coreGivesNoEmail%1,       Yujie%Kong%coreGivesNoEmail%1,       Zhihua%Xu%coreGivesNoEmail%1,       Zhong%Liu%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Ivan F.N.%Hung%null%1,          Kelvin K.W.%To%null%1,          Cheuk-Kwong%Lee%null%1,          Kar-Lung%Lee%null%1,          Wing-Wa%Yan%null%1,          Kenny%Chan%null%1,          Wai-Ming%Chan%null%1,          Chun-Wai%Ngai%null%1,          Kin-Ip%Law%null%1,          Fu-Loi%Chow%null%1,          Raymond%Liu%null%1,          Kang-Yiu%Lai%null%1,          Candy C.Y.%Lau%null%1,          Shao-Haei%Liu%null%1,          Kwok-Hung%Chan%null%0,          Che-Kit%Lin%null%1,          Kwok-Yung%Yuen%null%0,         Ivan F.N.%Hung%null%1,         Kelvin K.W.%To%null%1,         Cheuk-Kwong%Lee%null%2,         Kar-Lung%Lee%null%2,         Wing-Wa%Yan%null%1,         Kenny%Chan%null%2,         Wai-Ming%Chan%null%2,         Chun-Wai%Ngai%null%1,         Kin-Ip%Law%null%1,         Fu-Loi%Chow%null%2,         Raymond%Liu%null%2,         Kang-Yiu%Lai%null%2,         Candy C.Y.%Lau%null%1,         Shao-Haei%Liu%null%2,         Kwok-Hung%Chan%null%3,         Che-Kit%Lin%null%2,         Kwok-Yung%Yuen%null%0]</t>
+  </si>
+  <si>
+    <t>[Arvind%Gharbharan%NULL%1,         Carlijn C. E.%Jordans%NULL%1,         Corine%GeurtsvanKessel%NULL%1,         Jan G.%den Hollander%NULL%2,         Jan G.%den Hollander%NULL%0,         Faiz%Karim%NULL%1,         Femke P. N.%Mollema%NULL%1,         Janneke E.%Stalenhoef – Schukken%NULL%1,         Anthonius%Dofferhoff%NULL%2,         Anthonius%Dofferhoff%NULL%0,         Inge%Ludwig%NULL%1,         Adrianus%Koster%NULL%1,         Robert-Jan%Hassing%NULL%1,         Jeannet C.%Bos%NULL%1,         Geert R.%van Pottelberge%NULL%1,         Imro N.%Vlasveld%NULL%1,         Heidi S. M.%Ammerlaan%NULL%1,         Elena M.%van Leeuwen – Segarceanu%NULL%1,         Jelle%Miedema%NULL%1,         Menno%van der Eerden%NULL%1,         Thijs J.%Schrama%NULL%1,         Grigorios%Papageorgiou%NULL%2,         Grigorios%Papageorgiou%NULL%0,         Peter%te Boekhorst%NULL%1,         Francis H.%Swaneveld%NULL%1,         Yvonne M.%Mueller%NULL%1,         Marco W. J.%Schreurs%NULL%2,         Marco W. J.%Schreurs%NULL%0,         Jeroen J. A.%van Kampen%NULL%1,         Barry%Rockx%NULL%1,         Nisreen M. A.%Okba%NULL%2,         Nisreen M. A.%Okba%NULL%0,         Peter D.%Katsikis%NULL%2,         Peter D.%Katsikis%NULL%0,         Marion P. G.%Koopmans%NULL%2,         Marion P. G.%Koopmans%NULL%0,         Bart L.%Haagmans%NULL%2,         Bart L.%Haagmans%NULL%0,         Casper%Rokx%c.rokx@erasmusmc.nl%2,         Casper%Rokx%c.rokx@erasmusmc.nl%0,         Bart J. A.%Rijnders%NULL%2,         Bart J. A.%Rijnders%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gordin%Fred M.%coreGivesNoEmail%1,       INSIGHT%FLU005 IVIG Pilot Study Group.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alcam\u00ed%Jos\u00e9%coreGivesNoEmail%1,       Avenda\u00f1o-Sol\u00e1%Cristina%coreGivesNoEmail%1,       Blanco%Lydia%coreGivesNoEmail%1,       Bueno%Jose L%coreGivesNoEmail%1,       Calder\u00f3n-Parra%Jorge%coreGivesNoEmail%1,       Casas-Flecha%Inmaculada%coreGivesNoEmail%1,       ConPlas-19%Study Group%coreGivesNoEmail%1,       de%Oteyza Jaime P\u00e9rez%coreGivesNoEmail%1,       Duarte%Rafael F%coreGivesNoEmail%1,       D\u00edaz%de Santiago Alberto%coreGivesNoEmail%1,       Fern\u00e1ndez-Cruz%Ana%coreGivesNoEmail%1,       Garcia-Perez%Javier%coreGivesNoEmail%1,       Jarilla-Fern\u00e1ndez%Maria C%coreGivesNoEmail%1,       Lora-Tamayo%Jaime%coreGivesNoEmail%1,       Madrigal-S\u00e1nchez%Maria E%coreGivesNoEmail%1,       Malo%de Molina Rosa%coreGivesNoEmail%1,       Manche\u00f1o-Losa%Mikel%coreGivesNoEmail%1,       Mart\u00ednez-Gonz\u00e1lez%A L%coreGivesNoEmail%1,       Moreno-Chulilla%J A%coreGivesNoEmail%1,       Mu\u00f1ez-Rubio%Elena%coreGivesNoEmail%1,       Mu\u00f1iz-D\u00edaz%Eduardo%coreGivesNoEmail%1,       Nu\u00f1ez-Orantos%Maria J%coreGivesNoEmail%1,       Paciello%Maria L%coreGivesNoEmail%1,       Payares-Herrera%Concepcion%coreGivesNoEmail%1,       Pa\u00f1o-Pardo%Jos\u00e9 R%coreGivesNoEmail%1,       Perez-Olmeda%Mayte%coreGivesNoEmail%1,       Pintos%Ilduara%coreGivesNoEmail%1,       Porras-Leal%Maria L%coreGivesNoEmail%1,       Ramos-Garrido%Ascension%coreGivesNoEmail%1,       Ramos-Mart\u00ednez%Antonio%coreGivesNoEmail%1,       Romera-Mart\u00ednez%Irene%coreGivesNoEmail%1,       Rubio-Batll\u00e9s%Martin%coreGivesNoEmail%1,       Ruiz-Antor\u00e1n%Belen%coreGivesNoEmail%1,       Saez-Serrano%Maria Isabel%coreGivesNoEmail%1,       Torres%Ferran%coreGivesNoEmail%1,       Velasco-Iglesias%Ana%coreGivesNoEmail%1,       Vid\u00e1n-Est\u00e9vez%Julia%coreGivesNoEmail%1,       Villares%Paula%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Agarwal%NULL%1,         Aparna%Mukherjee%NULL%2,         Gunjan%Kumar%NULL%3,         Gunjan%Kumar%NULL%0,         Pranab%Chatterjee%NULL%2,         Tarun%Bhatnagar%NULL%2,         Pankaj%Malhotra%NULL%2,         NULL%NULL%NULL%0,         NULL%NULL%NULL%0,         Anup%Agarwal%NULL%1,         Aparna%Mukherjee%NULL%0,         Gunjan%Kumar%NULL%0,         Pranab%Chatterjee%NULL%0,         Tarun%Bhatnagar%NULL%0,         Pankaj%Malhotra%NULL%0,         B%Latha%NULL%1,         Sunita%Bundas%NULL%1,         Vivek%Kumar%NULL%2,         Ravi%Dosi%NULL%1,         Janak Kumar%Khambholja%NULL%1,         Rosemarie%de Souza%NULL%1,         Raja Rao%Mesipogu%NULL%1,         Saurabh%Srivastava%NULL%1,         Simmi%Dube%NULL%1,         Kiran%Chaudhary%NULL%1,         S%Subash%NULL%1,         S%Anbuselvi%NULL%1,         V%Rajendran%NULL%1,         A%Sundararajaperumal%NULL%1,         P%Balamanikandan%NULL%1,         R S Uma%Maheswari%NULL%1,         R%Jayanthi%NULL%1,         S%Ragunanthanan%NULL%1,         Sudhir%Bhandari%NULL%1,         Ajeet%Singh%NULL%1,         Ashok%Pal%NULL%1,         Anjali%Handa%NULL%1,         Govind%Rankawat%NULL%1,         Ketan%Kargirwar%NULL%1,         Joyce%Regi%NULL%1,         Darshana%Rathod%NULL%1,         Edwin%Pathrose%NULL%1,         Nirankar%Bhutaka%NULL%1,         Mayur H%Patel%NULL%1,         Rahul J%Verma%NULL%1,         Kamal%Malukani%NULL%1,         Shivani%Patel%NULL%1,         Apurv%Thakur%NULL%1,         Satish%Joshi%NULL%1,         Rashmi%Kulkarni%NULL%1,         Nilay N%Suthar%NULL%1,         Nehal M%Shah%NULL%1,         Hemang M%Purohit%NULL%1,         Cherry K%Shah%NULL%1,         Monila N%Patel%NULL%1,         Saket%Shah%NULL%1,         Smit T%Shah%NULL%1,         Tehsim%Memon%NULL%1,         Vishal R%Beriwala%NULL%1,         Kusum%Jashnani%NULL%1,         Fatema%Ezzy%NULL%1,         Simran%Agrawal%NULL%1,         Rakesh%Bhadade%NULL%1,         MN%Atish%NULL%1,         Tushar%Madke%NULL%1,         Vikas%Kavishwar%NULL%1,         Ramesh%Waghmare%NULL%1,         Nitin%Valvi%NULL%1,         B Thrilok%Chander%NULL%1,         A Vinaya%Sekhar%NULL%1,         Akhilesh Kumar%Maurya%NULL%1,         K%Hemanth%NULL%1,         K%Nagamani%NULL%1,         K%Sudha%NULL%1,         T Ravi%Chandra%NULL%1,         K Tushara%Rao%NULL%1,         J%Vyshnavi%NULL%1,         Rashmi%Upadhyay%NULL%1,         Shalini%Bahadur%NULL%1,         Rambha%Pathak%NULL%1,         Shikha%Seth%NULL%1,         Rakesh%Gupta%NULL%1,         Rita%Saxena%NULL%1,         Preksha%Dwivedi%NULL%1,         Reeni%Malik%NULL%1,         Deepti%Chourasia%NULL%1,         Jaya%Lalwani%NULL%1,         UM%Sharma%NULL%1,         JL%Marko%NULL%1,         Amit%Suri%NULL%1,         Vijay%Kumar%NULL%1,         Rajnish%Kaushik%NULL%1,         Parul%Kodan%NULL%1,         Bhabani Prasad%Acharya%NULL%1,         Kuldeep Kumar%Gaur%NULL%1,         Anubhav%Gupta%NULL%1,         Prerna%Sachdeva%NULL%1,         Shruti%Dogra%NULL%1,         Aikaj%Jindal%NULL%1,         M Joseph%John%NULL%1,         Avtar Singh%Dhanju%NULL%1,         Ranjana%Khetrepal%NULL%1,         Neeraj%Sharma%NULL%1,         Neetu%Kukar%NULL%1,         Divya%Kavita%NULL%1,         Rajesh%Kumar%NULL%1,         Rajesh%Mahajan%NULL%1,         Gurpreet%Singh%NULL%1,         Jaspreet%Kaur%NULL%1,         Raminder Pal%Singh%NULL%1,         Rajni%Bassi%NULL%1,         Swapneil%Parikh%NULL%1,         Om%Shrivastav%NULL%1,         Jayanthi%Shastri%NULL%1,         Maherra%Desai%NULL%1,         Shreevatsa%Udupa%NULL%1,         Varun A%Bafna%NULL%1,         Vijay%Barge%NULL%1,         Rajendra%Madane%NULL%1,         Sheetal%Yadav%NULL%1,         Sanjeev%Misra%NULL%1,         Archana%Bajpayee%NULL%1,         M K%Garg%NULL%1,         G K%Bohra%NULL%1,         Vijaylakshmi%Nag%NULL%1,         Puneeth Babu%Anne%NULL%1,         Mohd%Nadeem%NULL%1,         Pallavi%Singh%NULL%1,         Ram%Niwas%NULL%1,         Niranjan Shiwaji%Khaire%NULL%1,         Rattiram%Sharma%NULL%1,         Mini P%Singh%NULL%1,         Naresh%Sachdeva%NULL%1,         Suchet%Sachdev%NULL%1,         Rekha%Hans%NULL%1,         Vikas%Suri%NULL%1,         LN%Yaddanapudi%NULL%1,         PVM%Lakshmi%NULL%1,         Neha%Singh%NULL%1,         Divendu%Bhushan%NULL%1,         Neeraj%Kumar%NULL%1,         Muralidhar%Tambe%NULL%1,         Sonali%Salvi%NULL%1,         Nalini%Kadgi%NULL%1,         Shashikala%Sangle%NULL%1,         Leena%Nakate%NULL%1,         Samir%Joshi%NULL%1,         Rajesh%Karyakarte%NULL%1,         Suraj%Goyanka%NULL%1,         Nimisha%Sharma%NULL%1,         Nikhil%Verma%NULL%1,         Asim%Das%NULL%1,         Monika%Bahl%NULL%1,         Nitya%Wadhwa%NULL%1,         Shreepad%Bhat%NULL%1,         Shweta%Deshmukh%NULL%1,         Vrushali%Wagh%NULL%1,         Atul%Kulkarni%NULL%1,         Tanvi%Yardi%NULL%1,         Ram S%Kalgud%NULL%1,         Purushottam%Reddy%NULL%1,         Kavitha%Yevoor%NULL%1,         Prashanth%Gajula%NULL%1,         Vivek%Maleyur%NULL%1,         S%Medini%NULL%1,         HN%Mohith%NULL%1,         Anil%Gurtoo%NULL%1,         Ritika%Sud%NULL%1,         Sangeeta%Pahuja%NULL%1,         Anupam%Prakash%NULL%1,         Parijat%Gogoi%NULL%1,         Shailja%Shukla%NULL%1,         D Himanshu%Reddy%NULL%1,         Tulika%Chandra%NULL%1,         Saurabh%Pandey%NULL%1,         Pradeep%Maurya%NULL%1,         Wahid%Ali%NULL%1,         Vivek%Kumar%NULL%0,         Kamlesh%Upadhyay%NULL%1,         Nidhi%Bhatnagar%NULL%1,         Nilima%Shah%NULL%1,         Mamta%Shah%NULL%1,         Tarak%Patel%NULL%1,         Ram Mohan%Jaiswal%NULL%1,         Ashish%Jain%NULL%1,         Shweta%Sharma%NULL%1,         Puneet%Rijhwani%NULL%1,         Naveen%Gupta%NULL%1,         Tinkal C%Patel%NULL%1,         Mahesh G%Solu%NULL%1,         Jitendra%Patel%NULL%1,         Yash R%Shah%NULL%1,         Mayur%Jarag%NULL%1,         Varsha%Godbole%NULL%1,         Meenakshi%Shah%NULL%1,         Rikin%Raj%NULL%1,         Irfan%Nagori%NULL%1,         Pramod R%Jha%NULL%1,         Arti D%Shah%NULL%1,         Gowtham%Yeeli%NULL%1,         Archit%Jain%NULL%1,         Rooppreet Kaur%Gill%NULL%1,         KV Sreedhar%Babu%NULL%1,         B Suresh%Babu%NULL%1,         Alladi%Mohan%NULL%1,         B%Vengamma%NULL%1,         K Chandra%Sekhar%NULL%1,         Srinivasulu%Damam%NULL%1,         K%Narsimhulu%NULL%1,         C%Aparna%NULL%1,         G%Baleswari%NULL%1,         K Ravindranath%Reddy%NULL%1,         P%Chandrasekhar%NULL%1,         Sunil Jodharam%Panjwani%NULL%1,         Pragnesh H%Shah%NULL%1,         Manish%Barvaliya%NULL%1,         Kairavi%Desai%NULL%1,         Pankaj J%Akholkar%NULL%1,         Milind%Baldi%NULL%1,         Ashok%Yadav%NULL%1,         Manoj%Gupta%NULL%1,         Nitin%Rawat%NULL%1,         Dilip%Chawda%NULL%1,         M%Natarajan%NULL%1,         M%Sintha%NULL%1,         David Pradeep%Kumar%NULL%1,         Fathhur%Rabbani%NULL%1,         Vrushali Khirid%Khadke%NULL%1,         Dattatray%Patki%NULL%1,         Sonali%Marathe%NULL%1,         Clyde%D’Souza%NULL%1,         Vipul%Tadha%NULL%1,         Satyam%Arora%NULL%1,         Devendra Kumar%Gupta%NULL%1,         Seema%Dua%NULL%1,         Nitu%Chauhan%NULL%1,         Ajeet Singh%Chahar%NULL%1,         Joy John%Mammen%NULL%1,         Snehil%Kumar%NULL%1,         Dolly%Daniel%NULL%1,         Ravindraa%Singh%NULL%1,         Venkatesh%Dhat%NULL%1,         Yogesh%Agarwal%NULL%1,         Sohini%Arora%NULL%1,         Ashish%Pathak%NULL%1,         Manju%Purohit%NULL%1,         Ashish%Sharma%NULL%1,         Jayashree%Sharma%NULL%1,         Manisha%Madkaikar%NULL%1,         Kavita%Joshi%NULL%1,         Reetika Malik%Yadav%NULL%1,         Swarupa%Bhagwat%NULL%1,         Niteen D%Karnik%NULL%1,         Yojana A%Gokhale%NULL%1,         Leena%Naik%NULL%1,         Sangita%Margam%NULL%1,         Santasabuj%Das%NULL%1,         Alka%Turuk%NULL%1,         V Saravana%Kumar%NULL%1,         K%Kanagasabai%NULL%1,         R%Sabarinathan%NULL%1,         Gururaj%Deshpande%NULL%1,         Sharda%Sharma%NULL%1,         Rashmi%Gunjikar%NULL%1,         Anita%Shete%NULL%1,         Darpan%Phagiwala%NULL%1,         Chetan%Patil%NULL%1,         Snehal%Shingade%NULL%1,         Kajal%Jarande%NULL%1,         Himanshu%Kaushal%NULL%1,         Pragya%Yadav%NULL%1,         Gajanan%Sapkal%NULL%1,         Priya%Abraham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan FN%Hung%NULL%1,         Kelvin KW%To%NULL%1,         Cheuk-Kwong%Lee%NULL%0,         Kar-Lung%Lee%NULL%0,         Kenny%Chan%NULL%0,         Wing-Wah%Yan%NULL%1,         Raymond%Liu%NULL%0,         Chi-Leung%Watt%NULL%1,         Wai-Ming%Chan%NULL%0,         Kang-Yiu%Lai%NULL%0,         Chi-Kwan%Koo%NULL%1,         Tom%Buckley%NULL%1,         Fu-Loi%Chow%NULL%0,         Kwan-Keung%Wong%NULL%1,         Hok-Sum%Chan%NULL%1,         Chi-Keung%Ching%NULL%1,         Bone SF%Tang%NULL%1,         Candy CY%Lau%NULL%1,         Iris WS%Li%NULL%1,         Shao-Haei%Liu%NULL%0,         Kwok-Hung%Chan%NULL%0,         Che-Kit%Lin%NULL%0,         Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y. O. Y.%Soo%NULL%1,         Y.%Cheng%NULL%1,         R.%Wong%NULL%2,         D. S.%Hui%NULL%1,         C. K.%Lee%NULL%2,         K. K. S.%Tsang%NULL%1,         M. H. L.%Ng%NULL%2,         P.%Chan%NULL%2,         G.%Cheng%NULL%2,         J. J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Johan%van Griensven%xref no email%1,   Tansy%Edwards%xref no email%1,   Xavier%de Lamballerie%xref no email%1,   Malcolm G.%Semple%xref no email%1,   Pierre%Gallian%xref no email%1,   Sylvain%Baize%xref no email%1,   Peter W.%Horby%xref no email%1,   Herv\u00e9%Raoul%xref no email%1,   N\u2019Faly%Magassouba%xref no email%1,   Annick%Antierens%xref no email%1,   Carolyn%Lomas%xref no email%1,   Ousmane%Faye%xref no email%1,   Amadou A.%Sall%xref no email%1,   Katrien%Fransen%xref no email%1,   Jozefien%Buyze%xref no email%1,   Raffaella%Ravinetto%xref no email%1,   Pierre%Tiberghien%xref no email%1,   Yves%Claeys%xref no email%1,   Maaike%De Crop%xref no email%1,   Lutgarde%Lynen%xref no email%1,   Elhadj Ibrahima%Bah%xref no email%1,   Peter G.%Smith%xref no email%1,   Alexandre%Delamou%xref no email%1,   Anja%De Weggheleire%xref no email%1,   Nyankoye%Haba%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hongjie%Yu%NULL%1,         Zhancheng%Gao%NULL%0,         Zijian%Feng%NULL%2,         Yuelong%Shu%NULL%1,         Nijuan%Xiang%NULL%2,         Lei%Zhou%NULL%2,         Yang%Huai%NULL%1,         Luzhao%Feng%NULL%0,         Zhibin%Peng%NULL%1,         Zhongjie%Li%NULL%1,         Cuiling%Xu%NULL%1,         Junhua%Li%NULL%0,         Chengping%Hu%NULL%1,         Qun%Li%NULL%1,         Xiaoling%Xu%NULL%1,         Xuecheng%Liu%NULL%1,         Zigui%Liu%NULL%1,         Longshan%Xu%NULL%1,         Yusheng%Chen%NULL%1,         Huiming%Luo%NULL%1,         Liping%Wei%NULL%1,         Xianfeng%Zhang%NULL%1,         Jianbao%Xin%NULL%1,         Junqiao%Guo%NULL%1,         Qiuyue%Wang%NULL%1,         Zhengan%Yuan%NULL%1,         Longnv%Zhou%NULL%1,         Kunzhao%Zhang%NULL%1,         Wei%Zhang%NULL%0,         Jinye%Yang%NULL%1,         Xiaoning%Zhong%NULL%1,         Shichang%Xia%NULL%1,         Lanjuan%Li%NULL%0,         Jinquan%Cheng%NULL%1,         Erdang%Ma%NULL%1,         Pingping%He%NULL%1,         Shui Shan%Lee%NULL%1,         Yu%Wang%NULL%3,         Timothy M.%Uyeki%NULL%0,         Weizhong%Yang%NULL%1,         Joel Mark%Montgomery%NULL%0,         Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C. W.%ROSS%xref no email%1,   ERWIN J.%HUND%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[W. W. G.%MACLACHLAN%xref no email%1,   W. J.%FETTER%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Y.%Cheng%NULL%1,         R.%Wong%NULL%0,         Y. O. Y.%Soo%NULL%1,         W. S.%Wong%NULL%1,         C. K.%Lee%NULL%0,         M. H. L.%Ng%NULL%0,         P.%Chan%NULL%0,         K. C.%Wong%NULL%1,         C. B.%Leung%NULL%1,         G.%Cheng%gcheng@cuhk.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[L. W.%McGUIRE%xref no email%1,   W. R.%REDDEN%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kai%Duan%NULL%1,         Bende%Liu%NULL%2,         Bende%Liu%NULL%0,         Cesheng%Li%NULL%1,         Huajun%Zhang%NULL%1,         Ting%Yu%NULL%0,         Ting%Yu%NULL%0,         Jieming%Qu%NULL%0,         Min%Zhou%NULL%0,         Min%Zhou%NULL%0,         Li%Chen%NULL%0,         Li%Chen%NULL%0,         Shengli%Meng%NULL%2,         Shengli%Meng%NULL%0,         Yong%Hu%NULL%1,         Cheng%Peng%NULL%1,         Mingchao%Yuan%NULL%1,         Jinyan%Huang%NULL%1,         Zejun%Wang%NULL%2,         Zejun%Wang%NULL%0,         Jianhong%Yu%NULL%1,         Xiaoxiao%Gao%NULL%1,         Dan%Wang%NULL%1,         Xiaoqi%Yu%NULL%1,         Li%Li%NULL%0,         Li%Li%NULL%0,         Jiayou%Zhang%NULL%2,         Jiayou%Zhang%NULL%0,         Xiao%Wu%NULL%1,         Bei%Li%NULL%1,         Yanping%Xu%NULL%1,         Wei%Chen%NULL%0,         Wei%Chen%NULL%0,         Yan%Peng%NULL%1,         Yeqin%Hu%NULL%1,         Lianzhen%Lin%NULL%1,         Xuefei%Liu%NULL%1,         Shihe%Huang%NULL%1,         Zhijun%Zhou%NULL%1,         Lianghao%Zhang%NULL%1,         Yue%Wang%NULL%1,         Zhi%Zhang%NULL%1,         Kun%Deng%NULL%1,         Zhiwu%Xia%NULL%1,         Qin%Gong%NULL%1,         Wei%Zhang%NULL%0,         Xiaobei%Zheng%NULL%1,         Ying%Liu%NULL%0,         Huichuan%Yang%NULL%1,         Dongbo%Zhou%NULL%1,         Ding%Yu%NULL%1,         Jifeng%Hou%NULL%1,         Zhengli%Shi%NULL%0,         Saijuan%Chen%NULL%1,         Zhu%Chen%NULL%1,         Xinxin%Zhang%NULL%0,         Xiaoming%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[F.%Sahr%NULL%1,         R.%Ansumana%rashidansumana@gmail.com%1,         T.A.%Massaquoi%NULL%1,         B.R.%Idriss%NULL%1,         F.R.%Sesay%NULL%1,         J.M.%Lamin%NULL%1,         S.%Baker%NULL%1,         S.%Nicol%NULL%1,         B.%Conton%NULL%1,         W.%Johnson%NULL%1,         O.T.%Abiri%NULL%1,         O.%Kargbo%NULL%1,         P.%Kamara%NULL%1,         A.%Goba%NULL%1,         J.B.W.%Russell%NULL%1,         S.M.%Gevao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qing-Lei%Zeng%zengqinglei2009@163.com%1,         Zu-Jiang%Yu%NULL%1,         Jian-Jun%Gou%NULL%1,         Guang-Ming%Li%NULL%1,         Shu-Huan%Ma%NULL%1,         Guo-Fan%Zhang%NULL%1,         Jiang-Hai%Xu%NULL%1,         Wan-Bao%Lin%NULL%1,         Guang-Lin%Cui%NULL%1,         Min-Min%Zhang%NULL%1,         Cheng%Li%NULL%1,         Ze-Shuai%Wang%NULL%1,         Zhi-Hao%Zhang%NULL%1,         Zhang-Suo%Liu%zengqinglei2009@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hassan%Abolghasemi%NULL%1,         Peyman%Eshghi%NULL%1,         Abdol Majid%Cheraghali%NULL%1,         Abbas Ali%Imani Fooladi%NULL%1,         Farzaneh%Bolouki Moghaddam%NULL%1,         Sina%Imanizadeh%NULL%1,         Matin%Moeini Maleki%NULL%1,         Mohammad%Ranjkesh%NULL%1,         Mohammad%Rezapour%NULL%1,         Ali%Bahramifar%NULL%1,         Behzad%Einollahi%NULL%1,         Mohammad Javad%Hosseini%NULL%1,         Nematollah Joneidi%Jafari%NULL%1,         Mohamad%Nikpouraghdam%NULL%1,         Nariman%Sadri%NULL%1,         Mokhtar%Tazik%NULL%1,         Shanaz%Sali%NULL%1,         Shamsi%Okati%NULL%1,         Elham%Askari%NULL%1,         Payam%Tabarsi%NULL%1,         Jafar%Aslani%NULL%1,         Ehsan%Sharifipour%NULL%1,         Mohammad Hossein%Jarahzadeh%NULL%1,         Nastaran%Khodakarim%NULL%1,         Mahmood%Salesi%NULL%1,         Ramezan%Jafari%NULL%1,         Samira%Shahverdi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[John H%Beigel%jbeigel@niaid.nih.gov%1,          Pablo%Tebas%NULL%4,          Marie-Carmelle%Elie-Turenne%NULL%4,          Ednan%Bajwa%NULL%2,          Todd E%Bell%NULL%2,          Charles B%Cairns%NULL%2,          Shmuel%Shoham%NULL%3,          Jaime G%Deville%NULL%2,          Eric%Feucht%NULL%2,          Judith%Feinberg%NULL%2,          Thomas%Luke%NULL%1,          Kanakatte%Raviprakash%NULL%3,          Janine%Danko%NULL%2,          Dorothy%O'Neil%NULL%1,          Julia A%Metcalf%NULL%1,          Karen%King%NULL%1,          Timothy H%Burgess%NULL%1,          Evgenia%Aga%NULL%3,          H Clifford%Lane%NULL%2,          Michael D%Hughes%NULL%3,          Richard T%Davey%NULL%3,          Pablo%Tebas%NULL%0,          Joseph%Quinn%NULL%1,          Yan%Jiang%NULL%1,          Marie-Carmelle%Elie-Turenne%NULL%0,          Robyn%Hoelle%NULL%1,          Nicole%Iovine%NULL%1,          Robert Shawn%Wills%NULL%1,          Socorro%Pata%NULL%1,          Monique%Huggins%NULL%1,          Belinda%Manukian%NULL%1,          Ednan%Bajwa%NULL%0,          Carrie%Holland%NULL%1,          Kelsey%Brait%NULL%1,          Taylor%Hunt%NULL%1,          Christopher%Stowell%NULL%1,          Amy%Slater%NULL%1,          Todd E%Bell%NULL%0,          Mary%Townsends%NULL%1,          Charles B%Cairns%NULL%0,          Eugenia B%Quackenbush%NULL%1,          Yara A%Park%NULL%1,          Paul Gaither%Jordan%NULL%1,          Cherie%Blanchet%NULL%1,          Kevin%Chronowski%NULL%1,          Kathleen%Alvarez%NULL%1,          Shmuel%Shoham%NULL%0,          Darin%Ostrander%NULL%1,          Terry%Woessner%NULL%1,          Sandra%Thoman%NULL%1,          Jaime G%Deville%NULL%0,          James%Lin%NULL%1,          Alyssa%Ziman%NULL%1,          Kavita%Shankar%NULL%1,          Eric%Feucht%NULL%0,          Tom%Blok%NULL%1,          Don%Batts%NULL%1,          Bob%Beck%NULL%1,          Gail%Massey%NULL%1,          Carol%Bradley%NULL%1,          Judith%Feinberg%NULL%0,          Patricia%Carey%NULL%1,          Jenifer%Baer%NULL%1,          Eva Moore%Whitehead%NULL%1,          Sharon%Kohrs%NULL%1,          Robert%Giulitto%NULL%1,          Christina%Schofield%NULL%2,          Mary%Fairchok%NULL%1,          Susan%Chambers%NULL%1,          Cindy%Baker%NULL%1,          NULL%RN%NULL%1,          Michelle%Parker%NULL%1,          Marta%Harshbarger%NULL%1,          M Hong%Nguyen%NULL%1,          Mary Ellen%Carey%NULL%1,          Julie%Paronish%NULL%1,          Frank%Cornell%NULL%1,          Jim%Cramer%NULL%1,          Diana Lynn%Pakstis%NULL%1,          Michael G%Ison%NULL%1,          Richard%Wunderink%NULL%1,          Marshall%Glesby%NULL%1,          Kirsis%Ham%NULL%1,          Valery%Hughes%NULL%1,          Melissa%Cushing%NULL%0,          Cheryl%Goss%NULL%1,          Joanne%Grenade%NULL%1,          Pauline K%Park%NULL%1,          Lena M%Napolitano%NULL%1,          Krishnan%Raghavendran%NULL%1,          Robert C%Hyzy%NULL%1,          Robertson%Davenport%NULL%1,          Kristin%Brierley%NULL%1,          Theresa%Downs%NULL%1,          Michelle Ng%Gong%NULL%1,          Joan%Uehlinger%NULL%1,          Michael%Lin%NULL%2,          Janice%Fritsche%NULL%1,          Tondria%Green%NULL%1,          Bruce%McLeod%NULL%1,          Deena%Patel%NULL%1,          Mary F%Bavaro%NULL%1,          Robert%Deiss%NULL%1,          Carolyn%Brandt%NULL%1,          Stephanie%Cammarata%NULL%1,          Allan%Kremp%NULL%1,          Karine%Hollis-Perry%NULL%1,          Tahaniyat%Lalani%NULL%1,          Susan%Banks%NULL%1,          Jacqueline%Johnson%NULL%1,          Jason%Maguire%NULL%1,          Janet%McNiff%NULL%1,          Leslie E%Rigg%NULL%1,          Anuradha%Ganesan%NULL%1,          Irma%Barahona%NULL%1,          Janine%Danko%NULL%0,          Steven%Spencer%NULL%1,          David%Stagliano%NULL%1,          Timothy%Burgess%NULL%1,          Daniel%Talmor%NULL%1,          Monique%Mohammed%NULL%1,          Valerie%Banner-Goodspeed%NULL%1,          Robert%Salata%NULL%1,          Robert%Finberg%NULL%2,          Jennifer%Wang%NULL%1,          Karen%Longtine%NULL%1,          Jaclyn%Longtine%NULL%1,          Mellissa%O'Neil%NULL%1,          Philippe R%Bauer%NULL%1,          Ognjen%Gajic%NULL%1,          Suanne M%Weist%NULL%1,          Jonathan%Sevransky%NULL%1,          Mona%Brown%NULL%1,          John%Roback%NULL%1,          John%Oropello%NULL%1,          Bridget%Twohig%NULL%1,          Jeffrey%Jhang%NULL%0,          Rahgu%Seethala%NULL%1,          Wilbur H%Chen%NULL%1,          Magali%Fontaine%NULL%1,          Kapil%Saharia%NULL%1,          Jennifer%Husson%NULL%1,          Roberta%DeBiasi%NULL%1,          Jurran L%Wilson%NULL%1,          Valli Ree%Criss%NULL%1,          Jocelyn%Voell%NULL%1,          Susan%Leitman%NULL%1,          James Wade%Atkins%NULL%1,          Hemaxi%Patel%NULL%1,          Traci%Paige%NULL%1,          Cathy%Cantilena%NULL%1,          Donald%Siegel%NULL%1,          Faye%DeMuth%NULL%1,          Craig H%Fletcher%NULL%1,          J Peter R%Pelletier%NULL%1,          Hassan%Alnuaimat%NULL%1,          Michelle%Pourde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ John H%Beigel%null%1,           Evgenia%Aga%null%2,           Marie-Carmelle%Elie-Turenne%null%2,           Josalyn%Cho%null%2,           Pablo%Tebas%null%2,           Carol L%Clark%null%2,           Jordan P%Metcalf%null%2,           Caroline%Ozment%null%2,           Kanakatte%Raviprakash%null%2,           Joy%Beeler%null%2,           H Preston%Holley%null%1,           Stephanie%Warner%null%2,           Carla%Chorley%null%2,           H Clifford%Lane%null%1,           Michael D%Hughes%null%2,           Richard T%Davey%null%2,           John H%Beigel%null%1,           Evgenia%Aga%null%0,           Marie-Carmelle%Elie-Turenne%null%0,           Josalyn%Cho%null%0,           Pablo%Tebas%null%0,           Carol L%Clark%null%0,           Jordan P%Metcalf%null%0,           Caroline%Ozment%null%0,           Kanakatte%Raviprakash%null%0,           Joy%Beeler%null%0,           H. Preston%Holley%null%1,           Stephanie%Warner%null%0,           Carla%Chorley%null%0,           H. Clifford%Lane%null%1,           Michael D%Hughes%null%0,           Richard T%Davey%null%0,           Michelle%Barron%null%1,           Aveh%Bastani%null%1,           Philippe%Bauer%null%1,           William%Borkowsky%null%1,           Charles%Cairns%null%1,           Jaime%Deville%null%1,           Marie-Carmelle%Elie%null%1,           Carl%Fichtenbaum%null%1,           Robert%Finberg%null%1,           Mamta%Jain%null%1,           David%Kaufman%null%1,           Michael%Lin%null%1,           John%Lin%null%1,           Ryan%Maves%null%1,           Lee%Morrow%null%1,           Minh-Hong%Nguyen%null%1,           Pauline%Park%null%1,           Christopher%Polk%null%1,           Adrienne%Randolph%null%1,           Suchitra%Rao%null%1,           Lewis%Rubinson%null%1,           Christina%Schofield%null%1,           Shmuel%Shoham%null%1,           Erika%Stalets%null%1,           Renee D%Stapleton%null%1,          John H%Beigel%null%2,          Evgenia%Aga%null%0,          Marie-Carmelle%Elie-Turenne%null%0,          Josalyn%Cho%null%2,          Pablo%Tebas%null%0,          Carol L%Clark%null%2,          Jordan P%Metcalf%null%2,          Caroline%Ozment%null%2,          Kanakatte%Raviprakash%null%0,          Joy%Beeler%null%2,          H Preston%Holley%null%1,          Stephanie%Warner%null%2,          Carla%Chorley%null%2,          H Clifford%Lane%null%0,          Michael D%Hughes%null%0,          Richard T%Davey%null%0,          John H%Beigel%null%0,          Evgenia%Aga%null%0,          Marie-Carmelle%Elie-Turenne%null%0,          Josalyn%Cho%null%0,          Pablo%Tebas%null%0,          Carol L%Clark%null%0,          Jordan P%Metcalf%null%0,          Caroline%Ozment%null%0,          Kanakatte%Raviprakash%null%0,          Joy%Beeler%null%0,          H. Preston%Holley%null%1,          Stephanie%Warner%null%0,          Carla%Chorley%null%0,          H. Clifford%Lane%null%1,          Michael D%Hughes%null%0,          Richard T%Davey%null%0,          Michelle%Barron%null%1,          Aveh%Bastani%null%1,          Philippe%Bauer%null%1,          William%Borkowsky%null%1,          Charles%Cairns%null%1,          Jaime%Deville%null%1,          Marie-Carmelle%Elie%null%1,          Carl%Fichtenbaum%null%1,          Robert%Finberg%null%0,          Mamta%Jain%null%1,          David%Kaufman%null%1,          Michael%Lin%null%0,          John%Lin%null%1,          Ryan%Maves%null%1,          Lee%Morrow%null%1,          Minh-Hong%Nguyen%null%1,          Pauline%Park%null%1,          Christopher%Polk%null%1,          Adrienne%Randolph%null%1,          Suchitra%Rao%null%1,          Lewis%Rubinson%null%1,          Christina%Schofield%null%0,          Shmuel%Shoham%null%0,          Erika%Stalets%null%1,          Renee D%Stapleton%null%1]</t>
+  </si>
+  <si>
+    <t>[Caiying%Hu%coreGivesNoEmail%1,        Chenyue%Li%coreGivesNoEmail%1,        Conghui%Wang%coreGivesNoEmail%1,        Cuihua%Tao%coreGivesNoEmail%1,        E.%Deng%coreGivesNoEmail%1,        Haixia%Xu%coreGivesNoEmail%1,        Heng%Mei%coreGivesNoEmail%1,        Jianwei%Wang%coreGivesNoEmail%1,        Juan%Wang%coreGivesNoEmail%1,        Jue%Wang%coreGivesNoEmail%1,        Juntao%Yang%coreGivesNoEmail%1,        Li%Zeng%coreGivesNoEmail%1,        Lifeng%Chen%coreGivesNoEmail%1,        Lili%Ren%coreGivesNoEmail%1,        Ling%Li%coreGivesNoEmail%1,        Linqi%Zhang%coreGivesNoEmail%1,        Nian%Xiong%coreGivesNoEmail%1,        Ning%Man%coreGivesNoEmail%1,        Qing%Wei%coreGivesNoEmail%1,        Ru%Yang%coreGivesNoEmail%1,        Shangen%Zheng%coreGivesNoEmail%1,        Shisheng%Su%coreGivesNoEmail%1,        Wei%Zhang%coreGivesNoEmail%1,        Xiaoxiong%Wu%coreGivesNoEmail%1,        Xuejun%Zhang%coreGivesNoEmail%1,        Xunliang%Tong%coreGivesNoEmail%1,        Yanyun%Wu%coreGivesNoEmail%1,        Yong%Guo%coreGivesNoEmail%1,        Yongpei%Yu%coreGivesNoEmail%1,        Yu%Hu%coreGivesNoEmail%1,        Yu%Liu%coreGivesNoEmail%1,        Yujie%Kong%coreGivesNoEmail%1,        Zhihua%Xu%coreGivesNoEmail%1,        Zhong%Liu%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Ivan F.N.%Hung%null%1,           Kelvin K.W.%To%null%1,           Cheuk-Kwong%Lee%null%1,           Kar-Lung%Lee%null%1,           Wing-Wa%Yan%null%1,           Kenny%Chan%null%1,           Wai-Ming%Chan%null%1,           Chun-Wai%Ngai%null%1,           Kin-Ip%Law%null%1,           Fu-Loi%Chow%null%1,           Raymond%Liu%null%1,           Kang-Yiu%Lai%null%1,           Candy C.Y.%Lau%null%1,           Shao-Haei%Liu%null%1,           Kwok-Hung%Chan%null%0,           Che-Kit%Lin%null%1,           Kwok-Yung%Yuen%null%0,          Ivan F.N.%Hung%null%1,          Kelvin K.W.%To%null%1,          Cheuk-Kwong%Lee%null%2,          Kar-Lung%Lee%null%2,          Wing-Wa%Yan%null%1,          Kenny%Chan%null%2,          Wai-Ming%Chan%null%2,          Chun-Wai%Ngai%null%1,          Kin-Ip%Law%null%1,          Fu-Loi%Chow%null%2,          Raymond%Liu%null%2,          Kang-Yiu%Lai%null%2,          Candy C.Y.%Lau%null%1,          Shao-Haei%Liu%null%2,          Kwok-Hung%Chan%null%3,          Che-Kit%Lin%null%2,          Kwok-Yung%Yuen%null%0]</t>
+  </si>
+  <si>
+    <t>[Arvind%Gharbharan%NULL%1,          Carlijn C. E.%Jordans%NULL%1,          Corine%GeurtsvanKessel%NULL%1,          Jan G.%den Hollander%NULL%2,          Jan G.%den Hollander%NULL%0,          Faiz%Karim%NULL%1,          Femke P. N.%Mollema%NULL%1,          Janneke E.%Stalenhoef – Schukken%NULL%1,          Anthonius%Dofferhoff%NULL%2,          Anthonius%Dofferhoff%NULL%0,          Inge%Ludwig%NULL%1,          Adrianus%Koster%NULL%1,          Robert-Jan%Hassing%NULL%1,          Jeannet C.%Bos%NULL%1,          Geert R.%van Pottelberge%NULL%1,          Imro N.%Vlasveld%NULL%1,          Heidi S. M.%Ammerlaan%NULL%1,          Elena M.%van Leeuwen – Segarceanu%NULL%1,          Jelle%Miedema%NULL%1,          Menno%van der Eerden%NULL%1,          Thijs J.%Schrama%NULL%1,          Grigorios%Papageorgiou%NULL%2,          Grigorios%Papageorgiou%NULL%0,          Peter%te Boekhorst%NULL%1,          Francis H.%Swaneveld%NULL%1,          Yvonne M.%Mueller%NULL%1,          Marco W. J.%Schreurs%NULL%2,          Marco W. J.%Schreurs%NULL%0,          Jeroen J. A.%van Kampen%NULL%1,          Barry%Rockx%NULL%1,          Nisreen M. A.%Okba%NULL%2,          Nisreen M. A.%Okba%NULL%0,          Peter D.%Katsikis%NULL%2,          Peter D.%Katsikis%NULL%0,          Marion P. G.%Koopmans%NULL%2,          Marion P. G.%Koopmans%NULL%0,          Bart L.%Haagmans%NULL%2,          Bart L.%Haagmans%NULL%0,          Casper%Rokx%c.rokx@erasmusmc.nl%2,          Casper%Rokx%c.rokx@erasmusmc.nl%0,          Bart J. A.%Rijnders%NULL%2,          Bart J. A.%Rijnders%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gordin%Fred M.%coreGivesNoEmail%1,        INSIGHT%FLU005 IVIG Pilot Study Group.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alcam\u00ed%Jos\u00e9%coreGivesNoEmail%1,        Avenda\u00f1o-Sol\u00e1%Cristina%coreGivesNoEmail%1,        Blanco%Lydia%coreGivesNoEmail%1,        Bueno%Jose L%coreGivesNoEmail%1,        Calder\u00f3n-Parra%Jorge%coreGivesNoEmail%1,        Casas-Flecha%Inmaculada%coreGivesNoEmail%1,        ConPlas-19%Study Group%coreGivesNoEmail%1,        de%Oteyza Jaime P\u00e9rez%coreGivesNoEmail%1,        Duarte%Rafael F%coreGivesNoEmail%1,        D\u00edaz%de Santiago Alberto%coreGivesNoEmail%1,        Fern\u00e1ndez-Cruz%Ana%coreGivesNoEmail%1,        Garcia-Perez%Javier%coreGivesNoEmail%1,        Jarilla-Fern\u00e1ndez%Maria C%coreGivesNoEmail%1,        Lora-Tamayo%Jaime%coreGivesNoEmail%1,        Madrigal-S\u00e1nchez%Maria E%coreGivesNoEmail%1,        Malo%de Molina Rosa%coreGivesNoEmail%1,        Manche\u00f1o-Losa%Mikel%coreGivesNoEmail%1,        Mart\u00ednez-Gonz\u00e1lez%A L%coreGivesNoEmail%1,        Moreno-Chulilla%J A%coreGivesNoEmail%1,        Mu\u00f1ez-Rubio%Elena%coreGivesNoEmail%1,        Mu\u00f1iz-D\u00edaz%Eduardo%coreGivesNoEmail%1,        Nu\u00f1ez-Orantos%Maria J%coreGivesNoEmail%1,        Paciello%Maria L%coreGivesNoEmail%1,        Payares-Herrera%Concepcion%coreGivesNoEmail%1,        Pa\u00f1o-Pardo%Jos\u00e9 R%coreGivesNoEmail%1,        Perez-Olmeda%Mayte%coreGivesNoEmail%1,        Pintos%Ilduara%coreGivesNoEmail%1,        Porras-Leal%Maria L%coreGivesNoEmail%1,        Ramos-Garrido%Ascension%coreGivesNoEmail%1,        Ramos-Mart\u00ednez%Antonio%coreGivesNoEmail%1,        Romera-Mart\u00ednez%Irene%coreGivesNoEmail%1,        Rubio-Batll\u00e9s%Martin%coreGivesNoEmail%1,        Ruiz-Antor\u00e1n%Belen%coreGivesNoEmail%1,        Saez-Serrano%Maria Isabel%coreGivesNoEmail%1,        Torres%Ferran%coreGivesNoEmail%1,        Velasco-Iglesias%Ana%coreGivesNoEmail%1,        Vid\u00e1n-Est\u00e9vez%Julia%coreGivesNoEmail%1,        Villares%Paula%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Agarwal%NULL%1,          Aparna%Mukherjee%NULL%2,          Gunjan%Kumar%NULL%3,          Gunjan%Kumar%NULL%0,          Pranab%Chatterjee%NULL%2,          Tarun%Bhatnagar%NULL%2,          Pankaj%Malhotra%NULL%2,          NULL%NULL%NULL%0,          NULL%NULL%NULL%0,          Anup%Agarwal%NULL%1,          Aparna%Mukherjee%NULL%0,          Gunjan%Kumar%NULL%0,          Pranab%Chatterjee%NULL%0,          Tarun%Bhatnagar%NULL%0,          Pankaj%Malhotra%NULL%0,          B%Latha%NULL%1,          Sunita%Bundas%NULL%1,          Vivek%Kumar%NULL%2,          Ravi%Dosi%NULL%1,          Janak Kumar%Khambholja%NULL%1,          Rosemarie%de Souza%NULL%1,          Raja Rao%Mesipogu%NULL%1,          Saurabh%Srivastava%NULL%1,          Simmi%Dube%NULL%1,          Kiran%Chaudhary%NULL%1,          S%Subash%NULL%1,          S%Anbuselvi%NULL%1,          V%Rajendran%NULL%1,          A%Sundararajaperumal%NULL%1,          P%Balamanikandan%NULL%1,          R S Uma%Maheswari%NULL%1,          R%Jayanthi%NULL%1,          S%Ragunanthanan%NULL%1,          Sudhir%Bhandari%NULL%1,          Ajeet%Singh%NULL%1,          Ashok%Pal%NULL%1,          Anjali%Handa%NULL%1,          Govind%Rankawat%NULL%1,          Ketan%Kargirwar%NULL%1,          Joyce%Regi%NULL%1,          Darshana%Rathod%NULL%1,          Edwin%Pathrose%NULL%1,          Nirankar%Bhutaka%NULL%1,          Mayur H%Patel%NULL%1,          Rahul J%Verma%NULL%1,          Kamal%Malukani%NULL%1,          Shivani%Patel%NULL%1,          Apurv%Thakur%NULL%1,          Satish%Joshi%NULL%1,          Rashmi%Kulkarni%NULL%1,          Nilay N%Suthar%NULL%1,          Nehal M%Shah%NULL%1,          Hemang M%Purohit%NULL%1,          Cherry K%Shah%NULL%1,          Monila N%Patel%NULL%1,          Saket%Shah%NULL%1,          Smit T%Shah%NULL%1,          Tehsim%Memon%NULL%1,          Vishal R%Beriwala%NULL%1,          Kusum%Jashnani%NULL%1,          Fatema%Ezzy%NULL%1,          Simran%Agrawal%NULL%1,          Rakesh%Bhadade%NULL%1,          MN%Atish%NULL%1,          Tushar%Madke%NULL%1,          Vikas%Kavishwar%NULL%1,          Ramesh%Waghmare%NULL%1,          Nitin%Valvi%NULL%1,          B Thrilok%Chander%NULL%1,          A Vinaya%Sekhar%NULL%1,          Akhilesh Kumar%Maurya%NULL%1,          K%Hemanth%NULL%1,          K%Nagamani%NULL%1,          K%Sudha%NULL%1,          T Ravi%Chandra%NULL%1,          K Tushara%Rao%NULL%1,          J%Vyshnavi%NULL%1,          Rashmi%Upadhyay%NULL%1,          Shalini%Bahadur%NULL%1,          Rambha%Pathak%NULL%1,          Shikha%Seth%NULL%1,          Rakesh%Gupta%NULL%1,          Rita%Saxena%NULL%1,          Preksha%Dwivedi%NULL%1,          Reeni%Malik%NULL%1,          Deepti%Chourasia%NULL%1,          Jaya%Lalwani%NULL%1,          UM%Sharma%NULL%1,          JL%Marko%NULL%1,          Amit%Suri%NULL%1,          Vijay%Kumar%NULL%1,          Rajnish%Kaushik%NULL%1,          Parul%Kodan%NULL%1,          Bhabani Prasad%Acharya%NULL%1,          Kuldeep Kumar%Gaur%NULL%1,          Anubhav%Gupta%NULL%1,          Prerna%Sachdeva%NULL%1,          Shruti%Dogra%NULL%1,          Aikaj%Jindal%NULL%1,          M Joseph%John%NULL%1,          Avtar Singh%Dhanju%NULL%1,          Ranjana%Khetrepal%NULL%1,          Neeraj%Sharma%NULL%1,          Neetu%Kukar%NULL%1,          Divya%Kavita%NULL%1,          Rajesh%Kumar%NULL%1,          Rajesh%Mahajan%NULL%1,          Gurpreet%Singh%NULL%1,          Jaspreet%Kaur%NULL%1,          Raminder Pal%Singh%NULL%1,          Rajni%Bassi%NULL%1,          Swapneil%Parikh%NULL%1,          Om%Shrivastav%NULL%1,          Jayanthi%Shastri%NULL%1,          Maherra%Desai%NULL%1,          Shreevatsa%Udupa%NULL%1,          Varun A%Bafna%NULL%1,          Vijay%Barge%NULL%1,          Rajendra%Madane%NULL%1,          Sheetal%Yadav%NULL%1,          Sanjeev%Misra%NULL%1,          Archana%Bajpayee%NULL%1,          M K%Garg%NULL%1,          G K%Bohra%NULL%1,          Vijaylakshmi%Nag%NULL%1,          Puneeth Babu%Anne%NULL%1,          Mohd%Nadeem%NULL%1,          Pallavi%Singh%NULL%1,          Ram%Niwas%NULL%1,          Niranjan Shiwaji%Khaire%NULL%1,          Rattiram%Sharma%NULL%1,          Mini P%Singh%NULL%1,          Naresh%Sachdeva%NULL%1,          Suchet%Sachdev%NULL%1,          Rekha%Hans%NULL%1,          Vikas%Suri%NULL%1,          LN%Yaddanapudi%NULL%1,          PVM%Lakshmi%NULL%1,          Neha%Singh%NULL%1,          Divendu%Bhushan%NULL%1,          Neeraj%Kumar%NULL%1,          Muralidhar%Tambe%NULL%1,          Sonali%Salvi%NULL%1,          Nalini%Kadgi%NULL%1,          Shashikala%Sangle%NULL%1,          Leena%Nakate%NULL%1,          Samir%Joshi%NULL%1,          Rajesh%Karyakarte%NULL%1,          Suraj%Goyanka%NULL%1,          Nimisha%Sharma%NULL%1,          Nikhil%Verma%NULL%1,          Asim%Das%NULL%1,          Monika%Bahl%NULL%1,          Nitya%Wadhwa%NULL%1,          Shreepad%Bhat%NULL%1,          Shweta%Deshmukh%NULL%1,          Vrushali%Wagh%NULL%1,          Atul%Kulkarni%NULL%1,          Tanvi%Yardi%NULL%1,          Ram S%Kalgud%NULL%1,          Purushottam%Reddy%NULL%1,          Kavitha%Yevoor%NULL%1,          Prashanth%Gajula%NULL%1,          Vivek%Maleyur%NULL%1,          S%Medini%NULL%1,          HN%Mohith%NULL%1,          Anil%Gurtoo%NULL%1,          Ritika%Sud%NULL%1,          Sangeeta%Pahuja%NULL%1,          Anupam%Prakash%NULL%1,          Parijat%Gogoi%NULL%1,          Shailja%Shukla%NULL%1,          D Himanshu%Reddy%NULL%1,          Tulika%Chandra%NULL%1,          Saurabh%Pandey%NULL%1,          Pradeep%Maurya%NULL%1,          Wahid%Ali%NULL%1,          Vivek%Kumar%NULL%0,          Kamlesh%Upadhyay%NULL%1,          Nidhi%Bhatnagar%NULL%1,          Nilima%Shah%NULL%1,          Mamta%Shah%NULL%1,          Tarak%Patel%NULL%1,          Ram Mohan%Jaiswal%NULL%1,          Ashish%Jain%NULL%1,          Shweta%Sharma%NULL%1,          Puneet%Rijhwani%NULL%1,          Naveen%Gupta%NULL%1,          Tinkal C%Patel%NULL%1,          Mahesh G%Solu%NULL%1,          Jitendra%Patel%NULL%1,          Yash R%Shah%NULL%1,          Mayur%Jarag%NULL%1,          Varsha%Godbole%NULL%1,          Meenakshi%Shah%NULL%1,          Rikin%Raj%NULL%1,          Irfan%Nagori%NULL%1,          Pramod R%Jha%NULL%1,          Arti D%Shah%NULL%1,          Gowtham%Yeeli%NULL%1,          Archit%Jain%NULL%1,          Rooppreet Kaur%Gill%NULL%1,          KV Sreedhar%Babu%NULL%1,          B Suresh%Babu%NULL%1,          Alladi%Mohan%NULL%1,          B%Vengamma%NULL%1,          K Chandra%Sekhar%NULL%1,          Srinivasulu%Damam%NULL%1,          K%Narsimhulu%NULL%1,          C%Aparna%NULL%1,          G%Baleswari%NULL%1,          K Ravindranath%Reddy%NULL%1,          P%Chandrasekhar%NULL%1,          Sunil Jodharam%Panjwani%NULL%1,          Pragnesh H%Shah%NULL%1,          Manish%Barvaliya%NULL%1,          Kairavi%Desai%NULL%1,          Pankaj J%Akholkar%NULL%1,          Milind%Baldi%NULL%1,          Ashok%Yadav%NULL%1,          Manoj%Gupta%NULL%1,          Nitin%Rawat%NULL%1,          Dilip%Chawda%NULL%1,          M%Natarajan%NULL%1,          M%Sintha%NULL%1,          David Pradeep%Kumar%NULL%1,          Fathhur%Rabbani%NULL%1,          Vrushali Khirid%Khadke%NULL%1,          Dattatray%Patki%NULL%1,          Sonali%Marathe%NULL%1,          Clyde%D’Souza%NULL%1,          Vipul%Tadha%NULL%1,          Satyam%Arora%NULL%1,          Devendra Kumar%Gupta%NULL%1,          Seema%Dua%NULL%1,          Nitu%Chauhan%NULL%1,          Ajeet Singh%Chahar%NULL%1,          Joy John%Mammen%NULL%1,          Snehil%Kumar%NULL%1,          Dolly%Daniel%NULL%1,          Ravindraa%Singh%NULL%1,          Venkatesh%Dhat%NULL%1,          Yogesh%Agarwal%NULL%1,          Sohini%Arora%NULL%1,          Ashish%Pathak%NULL%1,          Manju%Purohit%NULL%1,          Ashish%Sharma%NULL%1,          Jayashree%Sharma%NULL%1,          Manisha%Madkaikar%NULL%1,          Kavita%Joshi%NULL%1,          Reetika Malik%Yadav%NULL%1,          Swarupa%Bhagwat%NULL%1,          Niteen D%Karnik%NULL%1,          Yojana A%Gokhale%NULL%1,          Leena%Naik%NULL%1,          Sangita%Margam%NULL%1,          Santasabuj%Das%NULL%1,          Alka%Turuk%NULL%1,          V Saravana%Kumar%NULL%1,          K%Kanagasabai%NULL%1,          R%Sabarinathan%NULL%1,          Gururaj%Deshpande%NULL%1,          Sharda%Sharma%NULL%1,          Rashmi%Gunjikar%NULL%1,          Anita%Shete%NULL%1,          Darpan%Phagiwala%NULL%1,          Chetan%Patil%NULL%1,          Snehal%Shingade%NULL%1,          Kajal%Jarande%NULL%1,          Himanshu%Kaushal%NULL%1,          Pragya%Yadav%NULL%1,          Gajanan%Sapkal%NULL%1,          Priya%Abraham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan FN%Hung%NULL%1,          Kelvin KW%To%NULL%1,          Cheuk-Kwong%Lee%NULL%0,          Kar-Lung%Lee%NULL%0,          Kenny%Chan%NULL%0,          Wing-Wah%Yan%NULL%1,          Raymond%Liu%NULL%0,          Chi-Leung%Watt%NULL%1,          Wai-Ming%Chan%NULL%0,          Kang-Yiu%Lai%NULL%0,          Chi-Kwan%Koo%NULL%1,          Tom%Buckley%NULL%1,          Fu-Loi%Chow%NULL%0,          Kwan-Keung%Wong%NULL%1,          Hok-Sum%Chan%NULL%1,          Chi-Keung%Ching%NULL%1,          Bone SF%Tang%NULL%1,          Candy CY%Lau%NULL%1,          Iris WS%Li%NULL%1,          Shao-Haei%Liu%NULL%0,          Kwok-Hung%Chan%NULL%0,          Che-Kit%Lin%NULL%0,          Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y. O. Y.%Soo%NULL%1,          Y.%Cheng%NULL%1,          R.%Wong%NULL%2,          D. S.%Hui%NULL%1,          C. K.%Lee%NULL%2,          K. K. S.%Tsang%NULL%1,          M. H. L.%Ng%NULL%2,          P.%Chan%NULL%2,          G.%Cheng%NULL%2,          J. J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Johan%van Griensven%xref no email%1,    Tansy%Edwards%xref no email%1,    Xavier%de Lamballerie%xref no email%1,    Malcolm G.%Semple%xref no email%1,    Pierre%Gallian%xref no email%1,    Sylvain%Baize%xref no email%1,    Peter W.%Horby%xref no email%1,    Herv\u00e9%Raoul%xref no email%1,    N\u2019Faly%Magassouba%xref no email%1,    Annick%Antierens%xref no email%1,    Carolyn%Lomas%xref no email%1,    Ousmane%Faye%xref no email%1,    Amadou A.%Sall%xref no email%1,    Katrien%Fransen%xref no email%1,    Jozefien%Buyze%xref no email%1,    Raffaella%Ravinetto%xref no email%1,    Pierre%Tiberghien%xref no email%1,    Yves%Claeys%xref no email%1,    Maaike%De Crop%xref no email%1,    Lutgarde%Lynen%xref no email%1,    Elhadj Ibrahima%Bah%xref no email%1,    Peter G.%Smith%xref no email%1,    Alexandre%Delamou%xref no email%1,    Anja%De Weggheleire%xref no email%1,    Nyankoye%Haba%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hongjie%Yu%NULL%1,          Zhancheng%Gao%NULL%0,          Zijian%Feng%NULL%2,          Yuelong%Shu%NULL%1,          Nijuan%Xiang%NULL%2,          Lei%Zhou%NULL%2,          Yang%Huai%NULL%1,          Luzhao%Feng%NULL%0,          Zhibin%Peng%NULL%1,          Zhongjie%Li%NULL%1,          Cuiling%Xu%NULL%1,          Junhua%Li%NULL%0,          Chengping%Hu%NULL%1,          Qun%Li%NULL%1,          Xiaoling%Xu%NULL%1,          Xuecheng%Liu%NULL%1,          Zigui%Liu%NULL%1,          Longshan%Xu%NULL%1,          Yusheng%Chen%NULL%1,          Huiming%Luo%NULL%1,          Liping%Wei%NULL%1,          Xianfeng%Zhang%NULL%1,          Jianbao%Xin%NULL%1,          Junqiao%Guo%NULL%1,          Qiuyue%Wang%NULL%1,          Zhengan%Yuan%NULL%1,          Longnv%Zhou%NULL%1,          Kunzhao%Zhang%NULL%1,          Wei%Zhang%NULL%0,          Jinye%Yang%NULL%1,          Xiaoning%Zhong%NULL%1,          Shichang%Xia%NULL%1,          Lanjuan%Li%NULL%0,          Jinquan%Cheng%NULL%1,          Erdang%Ma%NULL%1,          Pingping%He%NULL%1,          Shui Shan%Lee%NULL%1,          Yu%Wang%NULL%3,          Timothy M.%Uyeki%NULL%0,          Weizhong%Yang%NULL%1,          Joel Mark%Montgomery%NULL%0,          Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C. W.%ROSS%xref no email%1,    ERWIN J.%HUND%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[W. W. G.%MACLACHLAN%xref no email%1,    W. J.%FETTER%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Y.%Cheng%NULL%1,          R.%Wong%NULL%0,          Y. O. Y.%Soo%NULL%1,          W. S.%Wong%NULL%1,          C. K.%Lee%NULL%0,          M. H. L.%Ng%NULL%0,          P.%Chan%NULL%0,          K. C.%Wong%NULL%1,          C. B.%Leung%NULL%1,          G.%Cheng%gcheng@cuhk.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[L. W.%McGUIRE%xref no email%1,    W. R.%REDDEN%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kai%Duan%NULL%1,          Bende%Liu%NULL%2,          Bende%Liu%NULL%0,          Cesheng%Li%NULL%1,          Huajun%Zhang%NULL%1,          Ting%Yu%NULL%0,          Ting%Yu%NULL%0,          Jieming%Qu%NULL%0,          Min%Zhou%NULL%0,          Min%Zhou%NULL%0,          Li%Chen%NULL%0,          Li%Chen%NULL%0,          Shengli%Meng%NULL%2,          Shengli%Meng%NULL%0,          Yong%Hu%NULL%1,          Cheng%Peng%NULL%1,          Mingchao%Yuan%NULL%1,          Jinyan%Huang%NULL%1,          Zejun%Wang%NULL%2,          Zejun%Wang%NULL%0,          Jianhong%Yu%NULL%1,          Xiaoxiao%Gao%NULL%1,          Dan%Wang%NULL%1,          Xiaoqi%Yu%NULL%1,          Li%Li%NULL%0,          Li%Li%NULL%0,          Jiayou%Zhang%NULL%2,          Jiayou%Zhang%NULL%0,          Xiao%Wu%NULL%1,          Bei%Li%NULL%1,          Yanping%Xu%NULL%1,          Wei%Chen%NULL%0,          Wei%Chen%NULL%0,          Yan%Peng%NULL%1,          Yeqin%Hu%NULL%1,          Lianzhen%Lin%NULL%1,          Xuefei%Liu%NULL%1,          Shihe%Huang%NULL%1,          Zhijun%Zhou%NULL%1,          Lianghao%Zhang%NULL%1,          Yue%Wang%NULL%1,          Zhi%Zhang%NULL%1,          Kun%Deng%NULL%1,          Zhiwu%Xia%NULL%1,          Qin%Gong%NULL%1,          Wei%Zhang%NULL%0,          Xiaobei%Zheng%NULL%1,          Ying%Liu%NULL%0,          Huichuan%Yang%NULL%1,          Dongbo%Zhou%NULL%1,          Ding%Yu%NULL%1,          Jifeng%Hou%NULL%1,          Zhengli%Shi%NULL%0,          Saijuan%Chen%NULL%1,          Zhu%Chen%NULL%1,          Xinxin%Zhang%NULL%0,          Xiaoming%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[F.%Sahr%NULL%1,          R.%Ansumana%rashidansumana@gmail.com%1,          T.A.%Massaquoi%NULL%1,          B.R.%Idriss%NULL%1,          F.R.%Sesay%NULL%1,          J.M.%Lamin%NULL%1,          S.%Baker%NULL%1,          S.%Nicol%NULL%1,          B.%Conton%NULL%1,          W.%Johnson%NULL%1,          O.T.%Abiri%NULL%1,          O.%Kargbo%NULL%1,          P.%Kamara%NULL%1,          A.%Goba%NULL%1,          J.B.W.%Russell%NULL%1,          S.M.%Gevao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qing-Lei%Zeng%zengqinglei2009@163.com%1,          Zu-Jiang%Yu%NULL%1,          Jian-Jun%Gou%NULL%1,          Guang-Ming%Li%NULL%1,          Shu-Huan%Ma%NULL%1,          Guo-Fan%Zhang%NULL%1,          Jiang-Hai%Xu%NULL%1,          Wan-Bao%Lin%NULL%1,          Guang-Lin%Cui%NULL%1,          Min-Min%Zhang%NULL%1,          Cheng%Li%NULL%1,          Ze-Shuai%Wang%NULL%1,          Zhi-Hao%Zhang%NULL%1,          Zhang-Suo%Liu%zengqinglei2009@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hassan%Abolghasemi%NULL%1,          Peyman%Eshghi%NULL%1,          Abdol Majid%Cheraghali%NULL%1,          Abbas Ali%Imani Fooladi%NULL%1,          Farzaneh%Bolouki Moghaddam%NULL%1,          Sina%Imanizadeh%NULL%1,          Matin%Moeini Maleki%NULL%1,          Mohammad%Ranjkesh%NULL%1,          Mohammad%Rezapour%NULL%1,          Ali%Bahramifar%NULL%1,          Behzad%Einollahi%NULL%1,          Mohammad Javad%Hosseini%NULL%1,          Nematollah Joneidi%Jafari%NULL%1,          Mohamad%Nikpouraghdam%NULL%1,          Nariman%Sadri%NULL%1,          Mokhtar%Tazik%NULL%1,          Shanaz%Sali%NULL%1,          Shamsi%Okati%NULL%1,          Elham%Askari%NULL%1,          Payam%Tabarsi%NULL%1,          Jafar%Aslani%NULL%1,          Ehsan%Sharifipour%NULL%1,          Mohammad Hossein%Jarahzadeh%NULL%1,          Nastaran%Khodakarim%NULL%1,          Mahmood%Salesi%NULL%1,          Ramezan%Jafari%NULL%1,          Samira%Shahverdi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1403,7 @@
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="F2" t="s">
         <v>41</v>
@@ -1312,7 +1432,7 @@
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="F3" t="s">
         <v>47</v>
@@ -1341,7 +1461,7 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1370,7 +1490,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -1399,7 +1519,7 @@
         <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -1428,7 +1548,7 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -1457,7 +1577,7 @@
         <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -1486,7 +1606,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -1515,7 +1635,7 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="F10" t="s">
         <v>68</v>
@@ -1544,7 +1664,7 @@
         <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="F11" t="s">
         <v>73</v>
@@ -1573,7 +1693,7 @@
         <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -1631,7 +1751,7 @@
         <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>238</v>
+        <v>278</v>
       </c>
       <c r="F14" t="s">
         <v>77</v>
@@ -1718,7 +1838,7 @@
         <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -1776,7 +1896,7 @@
         <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="F19" t="s">
         <v>20</v>
@@ -1805,7 +1925,7 @@
         <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="F20" t="s">
         <v>82</v>
@@ -1834,7 +1954,7 @@
         <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="F21" t="s">
         <v>22</v>
@@ -1863,7 +1983,7 @@
         <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="F22" t="s">
         <v>86</v>
@@ -1892,7 +2012,7 @@
         <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="F23" t="s">
         <v>90</v>
@@ -1921,7 +2041,7 @@
         <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="F24" t="s">
         <v>95</v>
@@ -1950,7 +2070,7 @@
         <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
       <c r="F25" t="s">
         <v>99</v>

--- a/Covid_19_Dataset_and_References/References/26.xlsx
+++ b/Covid_19_Dataset_and_References/References/26.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="328">
   <si>
     <t xml:space="preserve">Doi </t>
   </si>
@@ -1026,6 +1026,135 @@
   </si>
   <si>
     <t>[Hassan%Abolghasemi%NULL%1,          Peyman%Eshghi%NULL%1,          Abdol Majid%Cheraghali%NULL%1,          Abbas Ali%Imani Fooladi%NULL%1,          Farzaneh%Bolouki Moghaddam%NULL%1,          Sina%Imanizadeh%NULL%1,          Matin%Moeini Maleki%NULL%1,          Mohammad%Ranjkesh%NULL%1,          Mohammad%Rezapour%NULL%1,          Ali%Bahramifar%NULL%1,          Behzad%Einollahi%NULL%1,          Mohammad Javad%Hosseini%NULL%1,          Nematollah Joneidi%Jafari%NULL%1,          Mohamad%Nikpouraghdam%NULL%1,          Nariman%Sadri%NULL%1,          Mokhtar%Tazik%NULL%1,          Shanaz%Sali%NULL%1,          Shamsi%Okati%NULL%1,          Elham%Askari%NULL%1,          Payam%Tabarsi%NULL%1,          Jafar%Aslani%NULL%1,          Ehsan%Sharifipour%NULL%1,          Mohammad Hossein%Jarahzadeh%NULL%1,          Nastaran%Khodakarim%NULL%1,          Mahmood%Salesi%NULL%1,          Ramezan%Jafari%NULL%1,          Samira%Shahverdi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[John H%Beigel%jbeigel@niaid.nih.gov%1,           Pablo%Tebas%NULL%4,           Marie-Carmelle%Elie-Turenne%NULL%4,           Ednan%Bajwa%NULL%2,           Todd E%Bell%NULL%2,           Charles B%Cairns%NULL%2,           Shmuel%Shoham%NULL%3,           Jaime G%Deville%NULL%2,           Eric%Feucht%NULL%2,           Judith%Feinberg%NULL%2,           Thomas%Luke%NULL%1,           Kanakatte%Raviprakash%NULL%3,           Janine%Danko%NULL%2,           Dorothy%O'Neil%NULL%1,           Julia A%Metcalf%NULL%1,           Karen%King%NULL%1,           Timothy H%Burgess%NULL%1,           Evgenia%Aga%NULL%3,           H Clifford%Lane%NULL%2,           Michael D%Hughes%NULL%3,           Richard T%Davey%NULL%3,           Pablo%Tebas%NULL%0,           Joseph%Quinn%NULL%1,           Yan%Jiang%NULL%1,           Marie-Carmelle%Elie-Turenne%NULL%0,           Robyn%Hoelle%NULL%1,           Nicole%Iovine%NULL%1,           Robert Shawn%Wills%NULL%1,           Socorro%Pata%NULL%1,           Monique%Huggins%NULL%1,           Belinda%Manukian%NULL%1,           Ednan%Bajwa%NULL%0,           Carrie%Holland%NULL%1,           Kelsey%Brait%NULL%1,           Taylor%Hunt%NULL%1,           Christopher%Stowell%NULL%1,           Amy%Slater%NULL%1,           Todd E%Bell%NULL%0,           Mary%Townsends%NULL%1,           Charles B%Cairns%NULL%0,           Eugenia B%Quackenbush%NULL%1,           Yara A%Park%NULL%1,           Paul Gaither%Jordan%NULL%1,           Cherie%Blanchet%NULL%1,           Kevin%Chronowski%NULL%1,           Kathleen%Alvarez%NULL%1,           Shmuel%Shoham%NULL%0,           Darin%Ostrander%NULL%1,           Terry%Woessner%NULL%1,           Sandra%Thoman%NULL%1,           Jaime G%Deville%NULL%0,           James%Lin%NULL%1,           Alyssa%Ziman%NULL%1,           Kavita%Shankar%NULL%1,           Eric%Feucht%NULL%0,           Tom%Blok%NULL%1,           Don%Batts%NULL%1,           Bob%Beck%NULL%1,           Gail%Massey%NULL%1,           Carol%Bradley%NULL%1,           Judith%Feinberg%NULL%0,           Patricia%Carey%NULL%1,           Jenifer%Baer%NULL%1,           Eva Moore%Whitehead%NULL%1,           Sharon%Kohrs%NULL%1,           Robert%Giulitto%NULL%1,           Christina%Schofield%NULL%2,           Mary%Fairchok%NULL%1,           Susan%Chambers%NULL%1,           Cindy%Baker%NULL%1,           NULL%RN%NULL%1,           Michelle%Parker%NULL%1,           Marta%Harshbarger%NULL%1,           M Hong%Nguyen%NULL%1,           Mary Ellen%Carey%NULL%1,           Julie%Paronish%NULL%1,           Frank%Cornell%NULL%1,           Jim%Cramer%NULL%1,           Diana Lynn%Pakstis%NULL%1,           Michael G%Ison%NULL%1,           Richard%Wunderink%NULL%1,           Marshall%Glesby%NULL%1,           Kirsis%Ham%NULL%1,           Valery%Hughes%NULL%1,           Melissa%Cushing%NULL%0,           Cheryl%Goss%NULL%1,           Joanne%Grenade%NULL%1,           Pauline K%Park%NULL%1,           Lena M%Napolitano%NULL%1,           Krishnan%Raghavendran%NULL%1,           Robert C%Hyzy%NULL%1,           Robertson%Davenport%NULL%1,           Kristin%Brierley%NULL%1,           Theresa%Downs%NULL%1,           Michelle Ng%Gong%NULL%1,           Joan%Uehlinger%NULL%1,           Michael%Lin%NULL%2,           Janice%Fritsche%NULL%1,           Tondria%Green%NULL%1,           Bruce%McLeod%NULL%1,           Deena%Patel%NULL%1,           Mary F%Bavaro%NULL%1,           Robert%Deiss%NULL%1,           Carolyn%Brandt%NULL%1,           Stephanie%Cammarata%NULL%1,           Allan%Kremp%NULL%1,           Karine%Hollis-Perry%NULL%1,           Tahaniyat%Lalani%NULL%1,           Susan%Banks%NULL%1,           Jacqueline%Johnson%NULL%1,           Jason%Maguire%NULL%1,           Janet%McNiff%NULL%1,           Leslie E%Rigg%NULL%1,           Anuradha%Ganesan%NULL%1,           Irma%Barahona%NULL%1,           Janine%Danko%NULL%0,           Steven%Spencer%NULL%1,           David%Stagliano%NULL%1,           Timothy%Burgess%NULL%1,           Daniel%Talmor%NULL%1,           Monique%Mohammed%NULL%1,           Valerie%Banner-Goodspeed%NULL%1,           Robert%Salata%NULL%1,           Robert%Finberg%NULL%2,           Jennifer%Wang%NULL%1,           Karen%Longtine%NULL%1,           Jaclyn%Longtine%NULL%1,           Mellissa%O'Neil%NULL%1,           Philippe R%Bauer%NULL%1,           Ognjen%Gajic%NULL%1,           Suanne M%Weist%NULL%1,           Jonathan%Sevransky%NULL%1,           Mona%Brown%NULL%1,           John%Roback%NULL%1,           John%Oropello%NULL%1,           Bridget%Twohig%NULL%1,           Jeffrey%Jhang%NULL%2,           Rahgu%Seethala%NULL%1,           Wilbur H%Chen%NULL%1,           Magali%Fontaine%NULL%1,           Kapil%Saharia%NULL%1,           Jennifer%Husson%NULL%1,           Roberta%DeBiasi%NULL%1,           Jurran L%Wilson%NULL%1,           Valli Ree%Criss%NULL%1,           Jocelyn%Voell%NULL%1,           Susan%Leitman%NULL%1,           James Wade%Atkins%NULL%1,           Hemaxi%Patel%NULL%1,           Traci%Paige%NULL%1,           Cathy%Cantilena%NULL%1,           Donald%Siegel%NULL%1,           Faye%DeMuth%NULL%1,           Craig H%Fletcher%NULL%1,           J Peter R%Pelletier%NULL%1,           Hassan%Alnuaimat%NULL%1,           Michelle%Pourde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ John H%Beigel%null%1,            Evgenia%Aga%null%2,            Marie-Carmelle%Elie-Turenne%null%2,            Josalyn%Cho%null%2,            Pablo%Tebas%null%2,            Carol L%Clark%null%2,            Jordan P%Metcalf%null%2,            Caroline%Ozment%null%2,            Kanakatte%Raviprakash%null%2,            Joy%Beeler%null%2,            H Preston%Holley%null%1,            Stephanie%Warner%null%2,            Carla%Chorley%null%2,            H Clifford%Lane%null%1,            Michael D%Hughes%null%2,            Richard T%Davey%null%2,            John H%Beigel%null%1,            Evgenia%Aga%null%0,            Marie-Carmelle%Elie-Turenne%null%0,            Josalyn%Cho%null%0,            Pablo%Tebas%null%0,            Carol L%Clark%null%0,            Jordan P%Metcalf%null%0,            Caroline%Ozment%null%0,            Kanakatte%Raviprakash%null%0,            Joy%Beeler%null%0,            H. Preston%Holley%null%1,            Stephanie%Warner%null%0,            Carla%Chorley%null%0,            H. Clifford%Lane%null%1,            Michael D%Hughes%null%0,            Richard T%Davey%null%0,            Michelle%Barron%null%1,            Aveh%Bastani%null%1,            Philippe%Bauer%null%1,            William%Borkowsky%null%1,            Charles%Cairns%null%1,            Jaime%Deville%null%1,            Marie-Carmelle%Elie%null%1,            Carl%Fichtenbaum%null%1,            Robert%Finberg%null%1,            Mamta%Jain%null%1,            David%Kaufman%null%1,            Michael%Lin%null%1,            John%Lin%null%1,            Ryan%Maves%null%1,            Lee%Morrow%null%1,            Minh-Hong%Nguyen%null%1,            Pauline%Park%null%1,            Christopher%Polk%null%1,            Adrienne%Randolph%null%1,            Suchitra%Rao%null%1,            Lewis%Rubinson%null%1,            Christina%Schofield%null%1,            Shmuel%Shoham%null%1,            Erika%Stalets%null%1,            Renee D%Stapleton%null%1,           John H%Beigel%null%2,           Evgenia%Aga%null%0,           Marie-Carmelle%Elie-Turenne%null%0,           Josalyn%Cho%null%2,           Pablo%Tebas%null%0,           Carol L%Clark%null%2,           Jordan P%Metcalf%null%2,           Caroline%Ozment%null%2,           Kanakatte%Raviprakash%null%0,           Joy%Beeler%null%2,           H Preston%Holley%null%1,           Stephanie%Warner%null%2,           Carla%Chorley%null%2,           H Clifford%Lane%null%0,           Michael D%Hughes%null%0,           Richard T%Davey%null%0,           John H%Beigel%null%0,           Evgenia%Aga%null%0,           Marie-Carmelle%Elie-Turenne%null%0,           Josalyn%Cho%null%0,           Pablo%Tebas%null%0,           Carol L%Clark%null%0,           Jordan P%Metcalf%null%0,           Caroline%Ozment%null%0,           Kanakatte%Raviprakash%null%0,           Joy%Beeler%null%0,           H. Preston%Holley%null%1,           Stephanie%Warner%null%0,           Carla%Chorley%null%0,           H. Clifford%Lane%null%1,           Michael D%Hughes%null%0,           Richard T%Davey%null%0,           Michelle%Barron%null%1,           Aveh%Bastani%null%1,           Philippe%Bauer%null%1,           William%Borkowsky%null%1,           Charles%Cairns%null%1,           Jaime%Deville%null%1,           Marie-Carmelle%Elie%null%1,           Carl%Fichtenbaum%null%1,           Robert%Finberg%null%0,           Mamta%Jain%null%1,           David%Kaufman%null%1,           Michael%Lin%null%0,           John%Lin%null%1,           Ryan%Maves%null%1,           Lee%Morrow%null%1,           Minh-Hong%Nguyen%null%1,           Pauline%Park%null%1,           Christopher%Polk%null%1,           Adrienne%Randolph%null%1,           Suchitra%Rao%null%1,           Lewis%Rubinson%null%1,           Christina%Schofield%null%0,           Shmuel%Shoham%null%0,           Erika%Stalets%null%1,           Renee D%Stapleton%null%1]</t>
+  </si>
+  <si>
+    <t>[Caiying%Hu%coreGivesNoEmail%1,         Chenyue%Li%coreGivesNoEmail%1,         Conghui%Wang%coreGivesNoEmail%1,         Cuihua%Tao%coreGivesNoEmail%1,         E.%Deng%coreGivesNoEmail%1,         Haixia%Xu%coreGivesNoEmail%1,         Heng%Mei%coreGivesNoEmail%1,         Jianwei%Wang%coreGivesNoEmail%1,         Juan%Wang%coreGivesNoEmail%1,         Jue%Wang%coreGivesNoEmail%1,         Juntao%Yang%coreGivesNoEmail%1,         Li%Zeng%coreGivesNoEmail%1,         Lifeng%Chen%coreGivesNoEmail%1,         Lili%Ren%coreGivesNoEmail%1,         Ling%Li%coreGivesNoEmail%1,         Linqi%Zhang%coreGivesNoEmail%1,         Nian%Xiong%coreGivesNoEmail%1,         Ning%Man%coreGivesNoEmail%1,         Qing%Wei%coreGivesNoEmail%1,         Ru%Yang%coreGivesNoEmail%1,         Shangen%Zheng%coreGivesNoEmail%1,         Shisheng%Su%coreGivesNoEmail%1,         Wei%Zhang%coreGivesNoEmail%1,         Xiaoxiong%Wu%coreGivesNoEmail%1,         Xuejun%Zhang%coreGivesNoEmail%1,         Xunliang%Tong%coreGivesNoEmail%1,         Yanyun%Wu%coreGivesNoEmail%1,         Yong%Guo%coreGivesNoEmail%1,         Yongpei%Yu%coreGivesNoEmail%1,         Yu%Hu%coreGivesNoEmail%1,         Yu%Liu%coreGivesNoEmail%1,         Yujie%Kong%coreGivesNoEmail%1,         Zhihua%Xu%coreGivesNoEmail%1,         Zhong%Liu%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Ivan F.N.%Hung%null%1,            Kelvin K.W.%To%null%1,            Cheuk-Kwong%Lee%null%1,            Kar-Lung%Lee%null%1,            Wing-Wa%Yan%null%1,            Kenny%Chan%null%1,            Wai-Ming%Chan%null%1,            Chun-Wai%Ngai%null%1,            Kin-Ip%Law%null%1,            Fu-Loi%Chow%null%1,            Raymond%Liu%null%1,            Kang-Yiu%Lai%null%1,            Candy C.Y.%Lau%null%1,            Shao-Haei%Liu%null%1,            Kwok-Hung%Chan%null%0,            Che-Kit%Lin%null%1,            Kwok-Yung%Yuen%null%0,           Ivan F.N.%Hung%null%1,           Kelvin K.W.%To%null%1,           Cheuk-Kwong%Lee%null%2,           Kar-Lung%Lee%null%2,           Wing-Wa%Yan%null%1,           Kenny%Chan%null%2,           Wai-Ming%Chan%null%2,           Chun-Wai%Ngai%null%1,           Kin-Ip%Law%null%1,           Fu-Loi%Chow%null%2,           Raymond%Liu%null%2,           Kang-Yiu%Lai%null%2,           Candy C.Y.%Lau%null%1,           Shao-Haei%Liu%null%2,           Kwok-Hung%Chan%null%3,           Che-Kit%Lin%null%2,           Kwok-Yung%Yuen%null%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In a randomized clinical trial of 86 hospitalized COVID-19 patients comparing standard care to treatment with 300mL convalescent plasma containing high titers of neutralizing SARS-CoV-2 antibodies, no overall clinical benefit was observed.
+ Using a comprehensive translational approach, we unravel the virological and immunological responses following treatment to disentangle which COVID-19 patients may benefit and should be the focus of future studies.
+ Convalescent plasma is safe, does not improve survival, has no effect on the disease course, nor does plasma enhance viral clearance in the respiratory tract, influence SARS-CoV-2 antibody development or serum proinflammatory cytokines levels.
+ Here, we show that the vast majority of patients already had potent neutralizing SARS-CoV-2 antibodies at hospital admission and with comparable titers to carefully selected plasma donors.
+ This resulted in the decision to terminate the trial prematurely.
+ Treatment with convalescent plasma should be studied early in the disease course or at least preceding autologous humoral response development.
+</t>
+  </si>
+  <si>
+    <t>[Arvind%Gharbharan%NULL%1,           Carlijn C. E.%Jordans%NULL%1,           Corine%GeurtsvanKessel%NULL%1,           Jan G.%den Hollander%NULL%2,           Jan G.%den Hollander%NULL%0,           Faiz%Karim%NULL%1,           Femke P. N.%Mollema%NULL%1,           Janneke E.%Stalenhoef – Schukken%NULL%1,           Anthonius%Dofferhoff%NULL%2,           Anthonius%Dofferhoff%NULL%0,           Inge%Ludwig%NULL%1,           Adrianus%Koster%NULL%1,           Robert-Jan%Hassing%NULL%1,           Jeannet C.%Bos%NULL%1,           Geert R.%van Pottelberge%NULL%1,           Imro N.%Vlasveld%NULL%1,           Heidi S. M.%Ammerlaan%NULL%1,           Elena M.%van Leeuwen – Segarceanu%NULL%1,           Jelle%Miedema%NULL%1,           Menno%van der Eerden%NULL%1,           Thijs J.%Schrama%NULL%1,           Grigorios%Papageorgiou%NULL%2,           Grigorios%Papageorgiou%NULL%0,           Peter%te Boekhorst%NULL%1,           Francis H.%Swaneveld%NULL%1,           Yvonne M.%Mueller%NULL%1,           Marco W. J.%Schreurs%NULL%2,           Marco W. J.%Schreurs%NULL%0,           Jeroen J. A.%van Kampen%NULL%1,           Barry%Rockx%NULL%1,           Nisreen M. A.%Okba%NULL%2,           Nisreen M. A.%Okba%NULL%0,           Peter D.%Katsikis%NULL%2,           Peter D.%Katsikis%NULL%0,           Marion P. G.%Koopmans%NULL%2,           Marion P. G.%Koopmans%NULL%0,           Bart L.%Haagmans%NULL%2,           Bart L.%Haagmans%NULL%0,           Casper%Rokx%c.rokx@erasmusmc.nl%2,           Casper%Rokx%c.rokx@erasmusmc.nl%0,           Bart J. A.%Rijnders%NULL%2,           Bart J. A.%Rijnders%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gordin%Fred M.%coreGivesNoEmail%1,         INSIGHT%FLU005 IVIG Pilot Study Group.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alcam\u00ed%Jos\u00e9%coreGivesNoEmail%1,         Avenda\u00f1o-Sol\u00e1%Cristina%coreGivesNoEmail%1,         Blanco%Lydia%coreGivesNoEmail%1,         Bueno%Jose L%coreGivesNoEmail%1,         Calder\u00f3n-Parra%Jorge%coreGivesNoEmail%1,         Casas-Flecha%Inmaculada%coreGivesNoEmail%1,         ConPlas-19%Study Group%coreGivesNoEmail%1,         de%Oteyza Jaime P\u00e9rez%coreGivesNoEmail%1,         Duarte%Rafael F%coreGivesNoEmail%1,         D\u00edaz%de Santiago Alberto%coreGivesNoEmail%1,         Fern\u00e1ndez-Cruz%Ana%coreGivesNoEmail%1,         Garcia-Perez%Javier%coreGivesNoEmail%1,         Jarilla-Fern\u00e1ndez%Maria C%coreGivesNoEmail%1,         Lora-Tamayo%Jaime%coreGivesNoEmail%1,         Madrigal-S\u00e1nchez%Maria E%coreGivesNoEmail%1,         Malo%de Molina Rosa%coreGivesNoEmail%1,         Manche\u00f1o-Losa%Mikel%coreGivesNoEmail%1,         Mart\u00ednez-Gonz\u00e1lez%A L%coreGivesNoEmail%1,         Moreno-Chulilla%J A%coreGivesNoEmail%1,         Mu\u00f1ez-Rubio%Elena%coreGivesNoEmail%1,         Mu\u00f1iz-D\u00edaz%Eduardo%coreGivesNoEmail%1,         Nu\u00f1ez-Orantos%Maria J%coreGivesNoEmail%1,         Paciello%Maria L%coreGivesNoEmail%1,         Payares-Herrera%Concepcion%coreGivesNoEmail%1,         Pa\u00f1o-Pardo%Jos\u00e9 R%coreGivesNoEmail%1,         Perez-Olmeda%Mayte%coreGivesNoEmail%1,         Pintos%Ilduara%coreGivesNoEmail%1,         Porras-Leal%Maria L%coreGivesNoEmail%1,         Ramos-Garrido%Ascension%coreGivesNoEmail%1,         Ramos-Mart\u00ednez%Antonio%coreGivesNoEmail%1,         Romera-Mart\u00ednez%Irene%coreGivesNoEmail%1,         Rubio-Batll\u00e9s%Martin%coreGivesNoEmail%1,         Ruiz-Antor\u00e1n%Belen%coreGivesNoEmail%1,         Saez-Serrano%Maria Isabel%coreGivesNoEmail%1,         Torres%Ferran%coreGivesNoEmail%1,         Velasco-Iglesias%Ana%coreGivesNoEmail%1,         Vid\u00e1n-Est\u00e9vez%Julia%coreGivesNoEmail%1,         Villares%Paula%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Agarwal%NULL%1,           Aparna%Mukherjee%NULL%2,           Gunjan%Kumar%NULL%3,           Gunjan%Kumar%NULL%0,           Pranab%Chatterjee%NULL%2,           Tarun%Bhatnagar%NULL%2,           Pankaj%Malhotra%NULL%2,           NULL%NULL%NULL%0,           NULL%NULL%NULL%0,           Anup%Agarwal%NULL%1,           Aparna%Mukherjee%NULL%0,           Gunjan%Kumar%NULL%0,           Pranab%Chatterjee%NULL%0,           Tarun%Bhatnagar%NULL%0,           Pankaj%Malhotra%NULL%0,           B%Latha%NULL%1,           Sunita%Bundas%NULL%1,           Vivek%Kumar%NULL%2,           Ravi%Dosi%NULL%1,           Janak Kumar%Khambholja%NULL%1,           Rosemarie%de Souza%NULL%1,           Raja Rao%Mesipogu%NULL%1,           Saurabh%Srivastava%NULL%1,           Simmi%Dube%NULL%1,           Kiran%Chaudhary%NULL%1,           S%Subash%NULL%1,           S%Anbuselvi%NULL%1,           V%Rajendran%NULL%1,           A%Sundararajaperumal%NULL%1,           P%Balamanikandan%NULL%1,           R S Uma%Maheswari%NULL%1,           R%Jayanthi%NULL%1,           S%Ragunanthanan%NULL%1,           Sudhir%Bhandari%NULL%1,           Ajeet%Singh%NULL%1,           Ashok%Pal%NULL%1,           Anjali%Handa%NULL%1,           Govind%Rankawat%NULL%1,           Ketan%Kargirwar%NULL%1,           Joyce%Regi%NULL%1,           Darshana%Rathod%NULL%1,           Edwin%Pathrose%NULL%1,           Nirankar%Bhutaka%NULL%1,           Mayur H%Patel%NULL%1,           Rahul J%Verma%NULL%1,           Kamal%Malukani%NULL%1,           Shivani%Patel%NULL%1,           Apurv%Thakur%NULL%1,           Satish%Joshi%NULL%1,           Rashmi%Kulkarni%NULL%1,           Nilay N%Suthar%NULL%1,           Nehal M%Shah%NULL%1,           Hemang M%Purohit%NULL%1,           Cherry K%Shah%NULL%1,           Monila N%Patel%NULL%1,           Saket%Shah%NULL%1,           Smit T%Shah%NULL%1,           Tehsim%Memon%NULL%1,           Vishal R%Beriwala%NULL%1,           Kusum%Jashnani%NULL%1,           Fatema%Ezzy%NULL%1,           Simran%Agrawal%NULL%1,           Rakesh%Bhadade%NULL%1,           MN%Atish%NULL%1,           Tushar%Madke%NULL%1,           Vikas%Kavishwar%NULL%1,           Ramesh%Waghmare%NULL%1,           Nitin%Valvi%NULL%1,           B Thrilok%Chander%NULL%1,           A Vinaya%Sekhar%NULL%1,           Akhilesh Kumar%Maurya%NULL%1,           K%Hemanth%NULL%1,           K%Nagamani%NULL%1,           K%Sudha%NULL%1,           T Ravi%Chandra%NULL%1,           K Tushara%Rao%NULL%1,           J%Vyshnavi%NULL%1,           Rashmi%Upadhyay%NULL%1,           Shalini%Bahadur%NULL%1,           Rambha%Pathak%NULL%1,           Shikha%Seth%NULL%1,           Rakesh%Gupta%NULL%1,           Rita%Saxena%NULL%1,           Preksha%Dwivedi%NULL%1,           Reeni%Malik%NULL%1,           Deepti%Chourasia%NULL%1,           Jaya%Lalwani%NULL%1,           UM%Sharma%NULL%1,           JL%Marko%NULL%1,           Amit%Suri%NULL%1,           Vijay%Kumar%NULL%1,           Rajnish%Kaushik%NULL%1,           Parul%Kodan%NULL%1,           Bhabani Prasad%Acharya%NULL%1,           Kuldeep Kumar%Gaur%NULL%1,           Anubhav%Gupta%NULL%1,           Prerna%Sachdeva%NULL%1,           Shruti%Dogra%NULL%1,           Aikaj%Jindal%NULL%1,           M Joseph%John%NULL%1,           Avtar Singh%Dhanju%NULL%1,           Ranjana%Khetrepal%NULL%1,           Neeraj%Sharma%NULL%1,           Neetu%Kukar%NULL%1,           Divya%Kavita%NULL%1,           Rajesh%Kumar%NULL%1,           Rajesh%Mahajan%NULL%1,           Gurpreet%Singh%NULL%1,           Jaspreet%Kaur%NULL%1,           Raminder Pal%Singh%NULL%1,           Rajni%Bassi%NULL%1,           Swapneil%Parikh%NULL%1,           Om%Shrivastav%NULL%1,           Jayanthi%Shastri%NULL%1,           Maherra%Desai%NULL%1,           Shreevatsa%Udupa%NULL%1,           Varun A%Bafna%NULL%1,           Vijay%Barge%NULL%1,           Rajendra%Madane%NULL%1,           Sheetal%Yadav%NULL%1,           Sanjeev%Misra%NULL%1,           Archana%Bajpayee%NULL%1,           M K%Garg%NULL%1,           G K%Bohra%NULL%1,           Vijaylakshmi%Nag%NULL%1,           Puneeth Babu%Anne%NULL%1,           Mohd%Nadeem%NULL%1,           Pallavi%Singh%NULL%1,           Ram%Niwas%NULL%1,           Niranjan Shiwaji%Khaire%NULL%1,           Rattiram%Sharma%NULL%1,           Mini P%Singh%NULL%1,           Naresh%Sachdeva%NULL%1,           Suchet%Sachdev%NULL%1,           Rekha%Hans%NULL%1,           Vikas%Suri%NULL%1,           LN%Yaddanapudi%NULL%1,           PVM%Lakshmi%NULL%1,           Neha%Singh%NULL%1,           Divendu%Bhushan%NULL%1,           Neeraj%Kumar%NULL%1,           Muralidhar%Tambe%NULL%1,           Sonali%Salvi%NULL%1,           Nalini%Kadgi%NULL%1,           Shashikala%Sangle%NULL%1,           Leena%Nakate%NULL%1,           Samir%Joshi%NULL%1,           Rajesh%Karyakarte%NULL%1,           Suraj%Goyanka%NULL%1,           Nimisha%Sharma%NULL%1,           Nikhil%Verma%NULL%1,           Asim%Das%NULL%1,           Monika%Bahl%NULL%1,           Nitya%Wadhwa%NULL%1,           Shreepad%Bhat%NULL%1,           Shweta%Deshmukh%NULL%1,           Vrushali%Wagh%NULL%1,           Atul%Kulkarni%NULL%1,           Tanvi%Yardi%NULL%1,           Ram S%Kalgud%NULL%1,           Purushottam%Reddy%NULL%1,           Kavitha%Yevoor%NULL%1,           Prashanth%Gajula%NULL%1,           Vivek%Maleyur%NULL%1,           S%Medini%NULL%1,           HN%Mohith%NULL%1,           Anil%Gurtoo%NULL%1,           Ritika%Sud%NULL%1,           Sangeeta%Pahuja%NULL%1,           Anupam%Prakash%NULL%1,           Parijat%Gogoi%NULL%1,           Shailja%Shukla%NULL%1,           D Himanshu%Reddy%NULL%1,           Tulika%Chandra%NULL%1,           Saurabh%Pandey%NULL%1,           Pradeep%Maurya%NULL%1,           Wahid%Ali%NULL%1,           Vivek%Kumar%NULL%0,           Kamlesh%Upadhyay%NULL%1,           Nidhi%Bhatnagar%NULL%1,           Nilima%Shah%NULL%1,           Mamta%Shah%NULL%1,           Tarak%Patel%NULL%1,           Ram Mohan%Jaiswal%NULL%1,           Ashish%Jain%NULL%1,           Shweta%Sharma%NULL%1,           Puneet%Rijhwani%NULL%1,           Naveen%Gupta%NULL%1,           Tinkal C%Patel%NULL%1,           Mahesh G%Solu%NULL%1,           Jitendra%Patel%NULL%1,           Yash R%Shah%NULL%1,           Mayur%Jarag%NULL%1,           Varsha%Godbole%NULL%1,           Meenakshi%Shah%NULL%1,           Rikin%Raj%NULL%1,           Irfan%Nagori%NULL%1,           Pramod R%Jha%NULL%1,           Arti D%Shah%NULL%1,           Gowtham%Yeeli%NULL%1,           Archit%Jain%NULL%1,           Rooppreet Kaur%Gill%NULL%1,           KV Sreedhar%Babu%NULL%1,           B Suresh%Babu%NULL%1,           Alladi%Mohan%NULL%1,           B%Vengamma%NULL%1,           K Chandra%Sekhar%NULL%1,           Srinivasulu%Damam%NULL%1,           K%Narsimhulu%NULL%1,           C%Aparna%NULL%1,           G%Baleswari%NULL%1,           K Ravindranath%Reddy%NULL%1,           P%Chandrasekhar%NULL%1,           Sunil Jodharam%Panjwani%NULL%1,           Pragnesh H%Shah%NULL%1,           Manish%Barvaliya%NULL%1,           Kairavi%Desai%NULL%1,           Pankaj J%Akholkar%NULL%1,           Milind%Baldi%NULL%1,           Ashok%Yadav%NULL%1,           Manoj%Gupta%NULL%1,           Nitin%Rawat%NULL%1,           Dilip%Chawda%NULL%1,           M%Natarajan%NULL%1,           M%Sintha%NULL%1,           David Pradeep%Kumar%NULL%1,           Fathhur%Rabbani%NULL%1,           Vrushali Khirid%Khadke%NULL%1,           Dattatray%Patki%NULL%1,           Sonali%Marathe%NULL%1,           Clyde%D’Souza%NULL%1,           Vipul%Tadha%NULL%1,           Satyam%Arora%NULL%1,           Devendra Kumar%Gupta%NULL%1,           Seema%Dua%NULL%1,           Nitu%Chauhan%NULL%1,           Ajeet Singh%Chahar%NULL%1,           Joy John%Mammen%NULL%1,           Snehil%Kumar%NULL%1,           Dolly%Daniel%NULL%1,           Ravindraa%Singh%NULL%1,           Venkatesh%Dhat%NULL%1,           Yogesh%Agarwal%NULL%1,           Sohini%Arora%NULL%1,           Ashish%Pathak%NULL%1,           Manju%Purohit%NULL%1,           Ashish%Sharma%NULL%1,           Jayashree%Sharma%NULL%1,           Manisha%Madkaikar%NULL%1,           Kavita%Joshi%NULL%1,           Reetika Malik%Yadav%NULL%1,           Swarupa%Bhagwat%NULL%1,           Niteen D%Karnik%NULL%1,           Yojana A%Gokhale%NULL%1,           Leena%Naik%NULL%1,           Sangita%Margam%NULL%1,           Santasabuj%Das%NULL%1,           Alka%Turuk%NULL%1,           V Saravana%Kumar%NULL%1,           K%Kanagasabai%NULL%1,           R%Sabarinathan%NULL%1,           Gururaj%Deshpande%NULL%1,           Sharda%Sharma%NULL%1,           Rashmi%Gunjikar%NULL%1,           Anita%Shete%NULL%1,           Darpan%Phagiwala%NULL%1,           Chetan%Patil%NULL%1,           Snehal%Shingade%NULL%1,           Kajal%Jarande%NULL%1,           Himanshu%Kaushal%NULL%1,           Pragya%Yadav%NULL%1,           Gajanan%Sapkal%NULL%1,           Priya%Abraham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan FN%Hung%NULL%1,           Kelvin KW%To%NULL%1,           Cheuk-Kwong%Lee%NULL%0,           Kar-Lung%Lee%NULL%0,           Kenny%Chan%NULL%0,           Wing-Wah%Yan%NULL%1,           Raymond%Liu%NULL%0,           Chi-Leung%Watt%NULL%1,           Wai-Ming%Chan%NULL%0,           Kang-Yiu%Lai%NULL%0,           Chi-Kwan%Koo%NULL%1,           Tom%Buckley%NULL%1,           Fu-Loi%Chow%NULL%0,           Kwan-Keung%Wong%NULL%1,           Hok-Sum%Chan%NULL%1,           Chi-Keung%Ching%NULL%1,           Bone SF%Tang%NULL%1,           Candy CY%Lau%NULL%1,           Iris WS%Li%NULL%1,           Shao-Haei%Liu%NULL%0,           Kwok-Hung%Chan%NULL%0,           Che-Kit%Lin%NULL%0,           Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y. O. Y.%Soo%NULL%1,           Y.%Cheng%NULL%1,           R.%Wong%NULL%2,           D. S.%Hui%NULL%1,           C. K.%Lee%NULL%2,           K. K. S.%Tsang%NULL%1,           M. H. L.%Ng%NULL%2,           P.%Chan%NULL%2,           G.%Cheng%NULL%2,           J. J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Johan%van Griensven%xref no email%1,     Tansy%Edwards%xref no email%1,     Xavier%de Lamballerie%xref no email%1,     Malcolm G.%Semple%xref no email%1,     Pierre%Gallian%xref no email%1,     Sylvain%Baize%xref no email%1,     Peter W.%Horby%xref no email%1,     Herv\u00e9%Raoul%xref no email%1,     N\u2019Faly%Magassouba%xref no email%1,     Annick%Antierens%xref no email%1,     Carolyn%Lomas%xref no email%1,     Ousmane%Faye%xref no email%1,     Amadou A.%Sall%xref no email%1,     Katrien%Fransen%xref no email%1,     Jozefien%Buyze%xref no email%1,     Raffaella%Ravinetto%xref no email%1,     Pierre%Tiberghien%xref no email%1,     Yves%Claeys%xref no email%1,     Maaike%De Crop%xref no email%1,     Lutgarde%Lynen%xref no email%1,     Elhadj Ibrahima%Bah%xref no email%1,     Peter G.%Smith%xref no email%1,     Alexandre%Delamou%xref no email%1,     Anja%De Weggheleire%xref no email%1,     Nyankoye%Haba%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hongjie%Yu%NULL%1,           Zhancheng%Gao%NULL%0,           Zijian%Feng%NULL%2,           Yuelong%Shu%NULL%1,           Nijuan%Xiang%NULL%2,           Lei%Zhou%NULL%2,           Yang%Huai%NULL%1,           Luzhao%Feng%NULL%0,           Zhibin%Peng%NULL%1,           Zhongjie%Li%NULL%1,           Cuiling%Xu%NULL%1,           Junhua%Li%NULL%0,           Chengping%Hu%NULL%1,           Qun%Li%NULL%1,           Xiaoling%Xu%NULL%1,           Xuecheng%Liu%NULL%1,           Zigui%Liu%NULL%1,           Longshan%Xu%NULL%1,           Yusheng%Chen%NULL%1,           Huiming%Luo%NULL%1,           Liping%Wei%NULL%1,           Xianfeng%Zhang%NULL%1,           Jianbao%Xin%NULL%1,           Junqiao%Guo%NULL%1,           Qiuyue%Wang%NULL%1,           Zhengan%Yuan%NULL%1,           Longnv%Zhou%NULL%1,           Kunzhao%Zhang%NULL%1,           Wei%Zhang%NULL%0,           Jinye%Yang%NULL%1,           Xiaoning%Zhong%NULL%1,           Shichang%Xia%NULL%1,           Lanjuan%Li%NULL%0,           Jinquan%Cheng%NULL%1,           Erdang%Ma%NULL%1,           Pingping%He%NULL%1,           Shui Shan%Lee%NULL%1,           Yu%Wang%NULL%3,           Timothy M.%Uyeki%NULL%0,           Weizhong%Yang%NULL%1,           Joel Mark%Montgomery%NULL%0,           Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C. W.%ROSS%xref no email%1,     ERWIN J.%HUND%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[W. W. G.%MACLACHLAN%xref no email%1,     W. J.%FETTER%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Y.%Cheng%NULL%1,           R.%Wong%NULL%0,           Y. O. Y.%Soo%NULL%1,           W. S.%Wong%NULL%1,           C. K.%Lee%NULL%0,           M. H. L.%Ng%NULL%0,           P.%Chan%NULL%0,           K. C.%Wong%NULL%1,           C. B.%Leung%NULL%1,           G.%Cheng%gcheng@cuhk.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[L. W.%McGUIRE%xref no email%1,     W. R.%REDDEN%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kai%Duan%NULL%1,           Bende%Liu%NULL%2,           Bende%Liu%NULL%0,           Cesheng%Li%NULL%1,           Huajun%Zhang%NULL%1,           Ting%Yu%NULL%0,           Ting%Yu%NULL%0,           Jieming%Qu%NULL%0,           Min%Zhou%NULL%0,           Min%Zhou%NULL%0,           Li%Chen%NULL%3,           Li%Chen%NULL%0,           Shengli%Meng%NULL%2,           Shengli%Meng%NULL%0,           Yong%Hu%NULL%1,           Cheng%Peng%NULL%1,           Mingchao%Yuan%NULL%1,           Jinyan%Huang%NULL%1,           Zejun%Wang%NULL%2,           Zejun%Wang%NULL%0,           Jianhong%Yu%NULL%1,           Xiaoxiao%Gao%NULL%1,           Dan%Wang%NULL%1,           Xiaoqi%Yu%NULL%1,           Li%Li%NULL%0,           Li%Li%NULL%0,           Jiayou%Zhang%NULL%2,           Jiayou%Zhang%NULL%0,           Xiao%Wu%NULL%1,           Bei%Li%NULL%1,           Yanping%Xu%NULL%1,           Wei%Chen%NULL%0,           Wei%Chen%NULL%0,           Yan%Peng%NULL%1,           Yeqin%Hu%NULL%1,           Lianzhen%Lin%NULL%1,           Xuefei%Liu%NULL%1,           Shihe%Huang%NULL%1,           Zhijun%Zhou%NULL%1,           Lianghao%Zhang%NULL%1,           Yue%Wang%NULL%1,           Zhi%Zhang%NULL%1,           Kun%Deng%NULL%1,           Zhiwu%Xia%NULL%1,           Qin%Gong%NULL%1,           Wei%Zhang%NULL%0,           Xiaobei%Zheng%NULL%1,           Ying%Liu%NULL%0,           Huichuan%Yang%NULL%1,           Dongbo%Zhou%NULL%1,           Ding%Yu%NULL%1,           Jifeng%Hou%NULL%1,           Zhengli%Shi%NULL%0,           Saijuan%Chen%NULL%1,           Zhu%Chen%NULL%1,           Xinxin%Zhang%NULL%0,           Xiaoming%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[F.%Sahr%NULL%1,           R.%Ansumana%rashidansumana@gmail.com%1,           T.A.%Massaquoi%NULL%1,           B.R.%Idriss%NULL%1,           F.R.%Sesay%NULL%1,           J.M.%Lamin%NULL%1,           S.%Baker%NULL%1,           S.%Nicol%NULL%1,           B.%Conton%NULL%1,           W.%Johnson%NULL%1,           O.T.%Abiri%NULL%1,           O.%Kargbo%NULL%1,           P.%Kamara%NULL%1,           A.%Goba%NULL%1,           J.B.W.%Russell%NULL%1,           S.M.%Gevao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qing-Lei%Zeng%zengqinglei2009@163.com%1,           Zu-Jiang%Yu%NULL%1,           Jian-Jun%Gou%NULL%1,           Guang-Ming%Li%NULL%1,           Shu-Huan%Ma%NULL%1,           Guo-Fan%Zhang%NULL%1,           Jiang-Hai%Xu%NULL%1,           Wan-Bao%Lin%NULL%1,           Guang-Lin%Cui%NULL%1,           Min-Min%Zhang%NULL%1,           Cheng%Li%NULL%1,           Ze-Shuai%Wang%NULL%1,           Zhi-Hao%Zhang%NULL%1,           Zhang-Suo%Liu%zengqinglei2009@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hassan%Abolghasemi%NULL%1,           Peyman%Eshghi%NULL%1,           Abdol Majid%Cheraghali%NULL%1,           Abbas Ali%Imani Fooladi%NULL%1,           Farzaneh%Bolouki Moghaddam%NULL%1,           Sina%Imanizadeh%NULL%1,           Matin%Moeini Maleki%NULL%1,           Mohammad%Ranjkesh%NULL%1,           Mohammad%Rezapour%NULL%1,           Ali%Bahramifar%NULL%1,           Behzad%Einollahi%NULL%1,           Mohammad Javad%Hosseini%NULL%1,           Nematollah Joneidi%Jafari%NULL%1,           Mohamad%Nikpouraghdam%NULL%1,           Nariman%Sadri%NULL%1,           Mokhtar%Tazik%NULL%1,           Shanaz%Sali%NULL%1,           Shamsi%Okati%NULL%1,           Elham%Askari%NULL%1,           Payam%Tabarsi%NULL%1,           Jafar%Aslani%NULL%1,           Ehsan%Sharifipour%NULL%1,           Mohammad Hossein%Jarahzadeh%NULL%1,           Nastaran%Khodakarim%NULL%1,           Mahmood%Salesi%NULL%1,           Ramezan%Jafari%NULL%1,           Samira%Shahverdi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[John H%Beigel%jbeigel@niaid.nih.gov%1,            Pablo%Tebas%NULL%4,            Marie-Carmelle%Elie-Turenne%NULL%4,            Ednan%Bajwa%NULL%2,            Todd E%Bell%NULL%2,            Charles B%Cairns%NULL%2,            Shmuel%Shoham%NULL%3,            Jaime G%Deville%NULL%2,            Eric%Feucht%NULL%2,            Judith%Feinberg%NULL%2,            Thomas%Luke%NULL%1,            Kanakatte%Raviprakash%NULL%3,            Janine%Danko%NULL%2,            Dorothy%O'Neil%NULL%1,            Julia A%Metcalf%NULL%1,            Karen%King%NULL%1,            Timothy H%Burgess%NULL%1,            Evgenia%Aga%NULL%3,            H Clifford%Lane%NULL%2,            Michael D%Hughes%NULL%3,            Richard T%Davey%NULL%3,            Pablo%Tebas%NULL%0,            Joseph%Quinn%NULL%1,            Yan%Jiang%NULL%1,            Marie-Carmelle%Elie-Turenne%NULL%0,            Robyn%Hoelle%NULL%1,            Nicole%Iovine%NULL%1,            Robert Shawn%Wills%NULL%1,            Socorro%Pata%NULL%1,            Monique%Huggins%NULL%1,            Belinda%Manukian%NULL%1,            Ednan%Bajwa%NULL%0,            Carrie%Holland%NULL%1,            Kelsey%Brait%NULL%1,            Taylor%Hunt%NULL%1,            Christopher%Stowell%NULL%1,            Amy%Slater%NULL%1,            Todd E%Bell%NULL%0,            Mary%Townsends%NULL%1,            Charles B%Cairns%NULL%0,            Eugenia B%Quackenbush%NULL%1,            Yara A%Park%NULL%1,            Paul Gaither%Jordan%NULL%1,            Cherie%Blanchet%NULL%1,            Kevin%Chronowski%NULL%1,            Kathleen%Alvarez%NULL%1,            Shmuel%Shoham%NULL%0,            Darin%Ostrander%NULL%1,            Terry%Woessner%NULL%1,            Sandra%Thoman%NULL%1,            Jaime G%Deville%NULL%0,            James%Lin%NULL%1,            Alyssa%Ziman%NULL%1,            Kavita%Shankar%NULL%1,            Eric%Feucht%NULL%0,            Tom%Blok%NULL%1,            Don%Batts%NULL%1,            Bob%Beck%NULL%1,            Gail%Massey%NULL%1,            Carol%Bradley%NULL%1,            Judith%Feinberg%NULL%0,            Patricia%Carey%NULL%1,            Jenifer%Baer%NULL%1,            Eva Moore%Whitehead%NULL%1,            Sharon%Kohrs%NULL%1,            Robert%Giulitto%NULL%1,            Christina%Schofield%NULL%2,            Mary%Fairchok%NULL%1,            Susan%Chambers%NULL%1,            Cindy%Baker%NULL%1,            NULL%RN%NULL%1,            Michelle%Parker%NULL%1,            Marta%Harshbarger%NULL%1,            M Hong%Nguyen%NULL%1,            Mary Ellen%Carey%NULL%1,            Julie%Paronish%NULL%1,            Frank%Cornell%NULL%1,            Jim%Cramer%NULL%1,            Diana Lynn%Pakstis%NULL%1,            Michael G%Ison%NULL%1,            Richard%Wunderink%NULL%1,            Marshall%Glesby%NULL%1,            Kirsis%Ham%NULL%1,            Valery%Hughes%NULL%1,            Melissa%Cushing%NULL%0,            Cheryl%Goss%NULL%1,            Joanne%Grenade%NULL%1,            Pauline K%Park%NULL%1,            Lena M%Napolitano%NULL%1,            Krishnan%Raghavendran%NULL%1,            Robert C%Hyzy%NULL%1,            Robertson%Davenport%NULL%1,            Kristin%Brierley%NULL%1,            Theresa%Downs%NULL%1,            Michelle Ng%Gong%NULL%1,            Joan%Uehlinger%NULL%1,            Michael%Lin%NULL%2,            Janice%Fritsche%NULL%1,            Tondria%Green%NULL%1,            Bruce%McLeod%NULL%1,            Deena%Patel%NULL%1,            Mary F%Bavaro%NULL%1,            Robert%Deiss%NULL%1,            Carolyn%Brandt%NULL%1,            Stephanie%Cammarata%NULL%1,            Allan%Kremp%NULL%1,            Karine%Hollis-Perry%NULL%1,            Tahaniyat%Lalani%NULL%1,            Susan%Banks%NULL%1,            Jacqueline%Johnson%NULL%1,            Jason%Maguire%NULL%1,            Janet%McNiff%NULL%1,            Leslie E%Rigg%NULL%1,            Anuradha%Ganesan%NULL%1,            Irma%Barahona%NULL%1,            Janine%Danko%NULL%0,            Steven%Spencer%NULL%1,            David%Stagliano%NULL%1,            Timothy%Burgess%NULL%1,            Daniel%Talmor%NULL%1,            Monique%Mohammed%NULL%1,            Valerie%Banner-Goodspeed%NULL%1,            Robert%Salata%NULL%1,            Robert%Finberg%NULL%2,            Jennifer%Wang%NULL%1,            Karen%Longtine%NULL%1,            Jaclyn%Longtine%NULL%1,            Mellissa%O'Neil%NULL%1,            Philippe R%Bauer%NULL%1,            Ognjen%Gajic%NULL%1,            Suanne M%Weist%NULL%1,            Jonathan%Sevransky%NULL%1,            Mona%Brown%NULL%1,            John%Roback%NULL%1,            John%Oropello%NULL%1,            Bridget%Twohig%NULL%1,            Jeffrey%Jhang%NULL%1,            Rahgu%Seethala%NULL%1,            Wilbur H%Chen%NULL%1,            Magali%Fontaine%NULL%1,            Kapil%Saharia%NULL%1,            Jennifer%Husson%NULL%1,            Roberta%DeBiasi%NULL%1,            Jurran L%Wilson%NULL%1,            Valli Ree%Criss%NULL%1,            Jocelyn%Voell%NULL%1,            Susan%Leitman%NULL%1,            James Wade%Atkins%NULL%1,            Hemaxi%Patel%NULL%1,            Traci%Paige%NULL%1,            Cathy%Cantilena%NULL%1,            Donald%Siegel%NULL%1,            Faye%DeMuth%NULL%1,            Craig H%Fletcher%NULL%1,            J Peter R%Pelletier%NULL%1,            Hassan%Alnuaimat%NULL%1,            Michelle%Pourde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ John H%Beigel%null%1,             Evgenia%Aga%null%2,             Marie-Carmelle%Elie-Turenne%null%2,             Josalyn%Cho%null%2,             Pablo%Tebas%null%2,             Carol L%Clark%null%2,             Jordan P%Metcalf%null%2,             Caroline%Ozment%null%2,             Kanakatte%Raviprakash%null%2,             Joy%Beeler%null%2,             H Preston%Holley%null%1,             Stephanie%Warner%null%2,             Carla%Chorley%null%2,             H Clifford%Lane%null%1,             Michael D%Hughes%null%2,             Richard T%Davey%null%2,             John H%Beigel%null%1,             Evgenia%Aga%null%0,             Marie-Carmelle%Elie-Turenne%null%0,             Josalyn%Cho%null%0,             Pablo%Tebas%null%0,             Carol L%Clark%null%0,             Jordan P%Metcalf%null%0,             Caroline%Ozment%null%0,             Kanakatte%Raviprakash%null%0,             Joy%Beeler%null%0,             H. Preston%Holley%null%1,             Stephanie%Warner%null%0,             Carla%Chorley%null%0,             H. Clifford%Lane%null%1,             Michael D%Hughes%null%0,             Richard T%Davey%null%0,             Michelle%Barron%null%1,             Aveh%Bastani%null%1,             Philippe%Bauer%null%1,             William%Borkowsky%null%1,             Charles%Cairns%null%1,             Jaime%Deville%null%1,             Marie-Carmelle%Elie%null%1,             Carl%Fichtenbaum%null%1,             Robert%Finberg%null%1,             Mamta%Jain%null%1,             David%Kaufman%null%1,             Michael%Lin%null%1,             John%Lin%null%1,             Ryan%Maves%null%1,             Lee%Morrow%null%1,             Minh-Hong%Nguyen%null%1,             Pauline%Park%null%1,             Christopher%Polk%null%1,             Adrienne%Randolph%null%1,             Suchitra%Rao%null%1,             Lewis%Rubinson%null%1,             Christina%Schofield%null%1,             Shmuel%Shoham%null%1,             Erika%Stalets%null%1,             Renee D%Stapleton%null%1,            John H%Beigel%null%2,            Evgenia%Aga%null%0,            Marie-Carmelle%Elie-Turenne%null%0,            Josalyn%Cho%null%2,            Pablo%Tebas%null%0,            Carol L%Clark%null%2,            Jordan P%Metcalf%null%2,            Caroline%Ozment%null%2,            Kanakatte%Raviprakash%null%0,            Joy%Beeler%null%2,            H Preston%Holley%null%1,            Stephanie%Warner%null%2,            Carla%Chorley%null%2,            H Clifford%Lane%null%0,            Michael D%Hughes%null%0,            Richard T%Davey%null%0,            John H%Beigel%null%0,            Evgenia%Aga%null%0,            Marie-Carmelle%Elie-Turenne%null%0,            Josalyn%Cho%null%0,            Pablo%Tebas%null%0,            Carol L%Clark%null%0,            Jordan P%Metcalf%null%0,            Caroline%Ozment%null%0,            Kanakatte%Raviprakash%null%0,            Joy%Beeler%null%0,            H. Preston%Holley%null%1,            Stephanie%Warner%null%0,            Carla%Chorley%null%0,            H. Clifford%Lane%null%1,            Michael D%Hughes%null%0,            Richard T%Davey%null%0,            Michelle%Barron%null%1,            Aveh%Bastani%null%1,            Philippe%Bauer%null%1,            William%Borkowsky%null%1,            Charles%Cairns%null%1,            Jaime%Deville%null%1,            Marie-Carmelle%Elie%null%1,            Carl%Fichtenbaum%null%1,            Robert%Finberg%null%0,            Mamta%Jain%null%1,            David%Kaufman%null%1,            Michael%Lin%null%0,            John%Lin%null%1,            Ryan%Maves%null%1,            Lee%Morrow%null%1,            Minh-Hong%Nguyen%null%1,            Pauline%Park%null%1,            Christopher%Polk%null%1,            Adrienne%Randolph%null%1,            Suchitra%Rao%null%1,            Lewis%Rubinson%null%1,            Christina%Schofield%null%0,            Shmuel%Shoham%null%0,            Erika%Stalets%null%1,            Renee D%Stapleton%null%1]</t>
+  </si>
+  <si>
+    <t>[Caiying%Hu%coreGivesNoEmail%1,          Chenyue%Li%coreGivesNoEmail%1,          Conghui%Wang%coreGivesNoEmail%1,          Cuihua%Tao%coreGivesNoEmail%1,          E.%Deng%coreGivesNoEmail%1,          Haixia%Xu%coreGivesNoEmail%1,          Heng%Mei%coreGivesNoEmail%1,          Jianwei%Wang%coreGivesNoEmail%1,          Juan%Wang%coreGivesNoEmail%1,          Jue%Wang%coreGivesNoEmail%1,          Juntao%Yang%coreGivesNoEmail%1,          Li%Zeng%coreGivesNoEmail%1,          Lifeng%Chen%coreGivesNoEmail%1,          Lili%Ren%coreGivesNoEmail%1,          Ling%Li%coreGivesNoEmail%1,          Linqi%Zhang%coreGivesNoEmail%1,          Nian%Xiong%coreGivesNoEmail%1,          Ning%Man%coreGivesNoEmail%1,          Qing%Wei%coreGivesNoEmail%1,          Ru%Yang%coreGivesNoEmail%1,          Shangen%Zheng%coreGivesNoEmail%1,          Shisheng%Su%coreGivesNoEmail%1,          Wei%Zhang%coreGivesNoEmail%1,          Xiaoxiong%Wu%coreGivesNoEmail%1,          Xuejun%Zhang%coreGivesNoEmail%1,          Xunliang%Tong%coreGivesNoEmail%1,          Yanyun%Wu%coreGivesNoEmail%1,          Yong%Guo%coreGivesNoEmail%1,          Yongpei%Yu%coreGivesNoEmail%1,          Yu%Hu%coreGivesNoEmail%1,          Yu%Liu%coreGivesNoEmail%1,          Yujie%Kong%coreGivesNoEmail%1,          Zhihua%Xu%coreGivesNoEmail%1,          Zhong%Liu%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Ivan F.N.%Hung%null%1,             Kelvin K.W.%To%null%1,             Cheuk-Kwong%Lee%null%1,             Kar-Lung%Lee%null%1,             Wing-Wa%Yan%null%1,             Kenny%Chan%null%1,             Wai-Ming%Chan%null%1,             Chun-Wai%Ngai%null%1,             Kin-Ip%Law%null%1,             Fu-Loi%Chow%null%1,             Raymond%Liu%null%1,             Kang-Yiu%Lai%null%1,             Candy C.Y.%Lau%null%1,             Shao-Haei%Liu%null%1,             Kwok-Hung%Chan%null%0,             Che-Kit%Lin%null%1,             Kwok-Yung%Yuen%null%0,            Ivan F.N.%Hung%null%1,            Kelvin K.W.%To%null%1,            Cheuk-Kwong%Lee%null%2,            Kar-Lung%Lee%null%2,            Wing-Wa%Yan%null%1,            Kenny%Chan%null%2,            Wai-Ming%Chan%null%2,            Chun-Wai%Ngai%null%1,            Kin-Ip%Law%null%1,            Fu-Loi%Chow%null%2,            Raymond%Liu%null%2,            Kang-Yiu%Lai%null%2,            Candy C.Y.%Lau%null%1,            Shao-Haei%Liu%null%2,            Kwok-Hung%Chan%null%3,            Che-Kit%Lin%null%2,            Kwok-Yung%Yuen%null%0]</t>
+  </si>
+  <si>
+    <t>[Arvind%Gharbharan%NULL%1,            Carlijn C. E.%Jordans%NULL%1,            Corine%GeurtsvanKessel%NULL%1,            Jan G.%den Hollander%NULL%2,            Jan G.%den Hollander%NULL%0,            Faiz%Karim%NULL%1,            Femke P. N.%Mollema%NULL%1,            Janneke E.%Stalenhoef – Schukken%NULL%1,            Anthonius%Dofferhoff%NULL%2,            Anthonius%Dofferhoff%NULL%0,            Inge%Ludwig%NULL%1,            Adrianus%Koster%NULL%1,            Robert-Jan%Hassing%NULL%1,            Jeannet C.%Bos%NULL%1,            Geert R.%van Pottelberge%NULL%1,            Imro N.%Vlasveld%NULL%1,            Heidi S. M.%Ammerlaan%NULL%1,            Elena M.%van Leeuwen – Segarceanu%NULL%1,            Jelle%Miedema%NULL%1,            Menno%van der Eerden%NULL%1,            Thijs J.%Schrama%NULL%1,            Grigorios%Papageorgiou%NULL%2,            Grigorios%Papageorgiou%NULL%0,            Peter%te Boekhorst%NULL%1,            Francis H.%Swaneveld%NULL%1,            Yvonne M.%Mueller%NULL%1,            Marco W. J.%Schreurs%NULL%2,            Marco W. J.%Schreurs%NULL%0,            Jeroen J. A.%van Kampen%NULL%1,            Barry%Rockx%NULL%1,            Nisreen M. A.%Okba%NULL%2,            Nisreen M. A.%Okba%NULL%0,            Peter D.%Katsikis%NULL%2,            Peter D.%Katsikis%NULL%0,            Marion P. G.%Koopmans%NULL%2,            Marion P. G.%Koopmans%NULL%0,            Bart L.%Haagmans%NULL%2,            Bart L.%Haagmans%NULL%0,            Casper%Rokx%c.rokx@erasmusmc.nl%2,            Casper%Rokx%c.rokx@erasmusmc.nl%0,            Bart J. A.%Rijnders%NULL%2,            Bart J. A.%Rijnders%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gordin%Fred M.%coreGivesNoEmail%1,          INSIGHT%FLU005 IVIG Pilot Study Group.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alcam\u00ed%Jos\u00e9%coreGivesNoEmail%1,          Avenda\u00f1o-Sol\u00e1%Cristina%coreGivesNoEmail%1,          Blanco%Lydia%coreGivesNoEmail%1,          Bueno%Jose L%coreGivesNoEmail%1,          Calder\u00f3n-Parra%Jorge%coreGivesNoEmail%1,          Casas-Flecha%Inmaculada%coreGivesNoEmail%1,          ConPlas-19%Study Group%coreGivesNoEmail%1,          de%Oteyza Jaime P\u00e9rez%coreGivesNoEmail%1,          Duarte%Rafael F%coreGivesNoEmail%1,          D\u00edaz%de Santiago Alberto%coreGivesNoEmail%1,          Fern\u00e1ndez-Cruz%Ana%coreGivesNoEmail%1,          Garcia-Perez%Javier%coreGivesNoEmail%1,          Jarilla-Fern\u00e1ndez%Maria C%coreGivesNoEmail%1,          Lora-Tamayo%Jaime%coreGivesNoEmail%1,          Madrigal-S\u00e1nchez%Maria E%coreGivesNoEmail%1,          Malo%de Molina Rosa%coreGivesNoEmail%1,          Manche\u00f1o-Losa%Mikel%coreGivesNoEmail%1,          Mart\u00ednez-Gonz\u00e1lez%A L%coreGivesNoEmail%1,          Moreno-Chulilla%J A%coreGivesNoEmail%1,          Mu\u00f1ez-Rubio%Elena%coreGivesNoEmail%1,          Mu\u00f1iz-D\u00edaz%Eduardo%coreGivesNoEmail%1,          Nu\u00f1ez-Orantos%Maria J%coreGivesNoEmail%1,          Paciello%Maria L%coreGivesNoEmail%1,          Payares-Herrera%Concepcion%coreGivesNoEmail%1,          Pa\u00f1o-Pardo%Jos\u00e9 R%coreGivesNoEmail%1,          Perez-Olmeda%Mayte%coreGivesNoEmail%1,          Pintos%Ilduara%coreGivesNoEmail%1,          Porras-Leal%Maria L%coreGivesNoEmail%1,          Ramos-Garrido%Ascension%coreGivesNoEmail%1,          Ramos-Mart\u00ednez%Antonio%coreGivesNoEmail%1,          Romera-Mart\u00ednez%Irene%coreGivesNoEmail%1,          Rubio-Batll\u00e9s%Martin%coreGivesNoEmail%1,          Ruiz-Antor\u00e1n%Belen%coreGivesNoEmail%1,          Saez-Serrano%Maria Isabel%coreGivesNoEmail%1,          Torres%Ferran%coreGivesNoEmail%1,          Velasco-Iglesias%Ana%coreGivesNoEmail%1,          Vid\u00e1n-Est\u00e9vez%Julia%coreGivesNoEmail%1,          Villares%Paula%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Agarwal%NULL%1,            Aparna%Mukherjee%NULL%2,            Gunjan%Kumar%NULL%3,            Gunjan%Kumar%NULL%0,            Pranab%Chatterjee%NULL%2,            Tarun%Bhatnagar%NULL%2,            Pankaj%Malhotra%NULL%2,            NULL%NULL%NULL%0,            NULL%NULL%NULL%0,            Anup%Agarwal%NULL%1,            Aparna%Mukherjee%NULL%0,            Gunjan%Kumar%NULL%0,            Pranab%Chatterjee%NULL%0,            Tarun%Bhatnagar%NULL%0,            Pankaj%Malhotra%NULL%0,            B%Latha%NULL%1,            Sunita%Bundas%NULL%1,            Vivek%Kumar%NULL%2,            Ravi%Dosi%NULL%1,            Janak Kumar%Khambholja%NULL%1,            Rosemarie%de Souza%NULL%1,            Raja Rao%Mesipogu%NULL%1,            Saurabh%Srivastava%NULL%1,            Simmi%Dube%NULL%1,            Kiran%Chaudhary%NULL%1,            S%Subash%NULL%1,            S%Anbuselvi%NULL%1,            V%Rajendran%NULL%1,            A%Sundararajaperumal%NULL%1,            P%Balamanikandan%NULL%1,            R S Uma%Maheswari%NULL%1,            R%Jayanthi%NULL%1,            S%Ragunanthanan%NULL%1,            Sudhir%Bhandari%NULL%1,            Ajeet%Singh%NULL%1,            Ashok%Pal%NULL%1,            Anjali%Handa%NULL%1,            Govind%Rankawat%NULL%1,            Ketan%Kargirwar%NULL%1,            Joyce%Regi%NULL%1,            Darshana%Rathod%NULL%1,            Edwin%Pathrose%NULL%1,            Nirankar%Bhutaka%NULL%1,            Mayur H%Patel%NULL%1,            Rahul J%Verma%NULL%1,            Kamal%Malukani%NULL%1,            Shivani%Patel%NULL%1,            Apurv%Thakur%NULL%1,            Satish%Joshi%NULL%1,            Rashmi%Kulkarni%NULL%1,            Nilay N%Suthar%NULL%1,            Nehal M%Shah%NULL%1,            Hemang M%Purohit%NULL%1,            Cherry K%Shah%NULL%1,            Monila N%Patel%NULL%1,            Saket%Shah%NULL%1,            Smit T%Shah%NULL%1,            Tehsim%Memon%NULL%1,            Vishal R%Beriwala%NULL%1,            Kusum%Jashnani%NULL%1,            Fatema%Ezzy%NULL%1,            Simran%Agrawal%NULL%1,            Rakesh%Bhadade%NULL%1,            MN%Atish%NULL%1,            Tushar%Madke%NULL%1,            Vikas%Kavishwar%NULL%1,            Ramesh%Waghmare%NULL%1,            Nitin%Valvi%NULL%1,            B Thrilok%Chander%NULL%1,            A Vinaya%Sekhar%NULL%1,            Akhilesh Kumar%Maurya%NULL%1,            K%Hemanth%NULL%1,            K%Nagamani%NULL%1,            K%Sudha%NULL%1,            T Ravi%Chandra%NULL%1,            K Tushara%Rao%NULL%1,            J%Vyshnavi%NULL%1,            Rashmi%Upadhyay%NULL%1,            Shalini%Bahadur%NULL%1,            Rambha%Pathak%NULL%1,            Shikha%Seth%NULL%1,            Rakesh%Gupta%NULL%1,            Rita%Saxena%NULL%1,            Preksha%Dwivedi%NULL%1,            Reeni%Malik%NULL%1,            Deepti%Chourasia%NULL%1,            Jaya%Lalwani%NULL%1,            UM%Sharma%NULL%1,            JL%Marko%NULL%1,            Amit%Suri%NULL%1,            Vijay%Kumar%NULL%1,            Rajnish%Kaushik%NULL%1,            Parul%Kodan%NULL%1,            Bhabani Prasad%Acharya%NULL%1,            Kuldeep Kumar%Gaur%NULL%1,            Anubhav%Gupta%NULL%1,            Prerna%Sachdeva%NULL%1,            Shruti%Dogra%NULL%1,            Aikaj%Jindal%NULL%1,            M Joseph%John%NULL%1,            Avtar Singh%Dhanju%NULL%1,            Ranjana%Khetrepal%NULL%1,            Neeraj%Sharma%NULL%1,            Neetu%Kukar%NULL%1,            Divya%Kavita%NULL%1,            Rajesh%Kumar%NULL%1,            Rajesh%Mahajan%NULL%1,            Gurpreet%Singh%NULL%1,            Jaspreet%Kaur%NULL%1,            Raminder Pal%Singh%NULL%1,            Rajni%Bassi%NULL%1,            Swapneil%Parikh%NULL%1,            Om%Shrivastav%NULL%1,            Jayanthi%Shastri%NULL%1,            Maherra%Desai%NULL%1,            Shreevatsa%Udupa%NULL%1,            Varun A%Bafna%NULL%1,            Vijay%Barge%NULL%1,            Rajendra%Madane%NULL%1,            Sheetal%Yadav%NULL%1,            Sanjeev%Misra%NULL%1,            Archana%Bajpayee%NULL%1,            M K%Garg%NULL%1,            G K%Bohra%NULL%1,            Vijaylakshmi%Nag%NULL%1,            Puneeth Babu%Anne%NULL%1,            Mohd%Nadeem%NULL%1,            Pallavi%Singh%NULL%1,            Ram%Niwas%NULL%1,            Niranjan Shiwaji%Khaire%NULL%1,            Rattiram%Sharma%NULL%1,            Mini P%Singh%NULL%1,            Naresh%Sachdeva%NULL%1,            Suchet%Sachdev%NULL%1,            Rekha%Hans%NULL%1,            Vikas%Suri%NULL%1,            LN%Yaddanapudi%NULL%1,            PVM%Lakshmi%NULL%1,            Neha%Singh%NULL%1,            Divendu%Bhushan%NULL%1,            Neeraj%Kumar%NULL%1,            Muralidhar%Tambe%NULL%1,            Sonali%Salvi%NULL%1,            Nalini%Kadgi%NULL%1,            Shashikala%Sangle%NULL%1,            Leena%Nakate%NULL%1,            Samir%Joshi%NULL%1,            Rajesh%Karyakarte%NULL%1,            Suraj%Goyanka%NULL%1,            Nimisha%Sharma%NULL%1,            Nikhil%Verma%NULL%1,            Asim%Das%NULL%1,            Monika%Bahl%NULL%1,            Nitya%Wadhwa%NULL%1,            Shreepad%Bhat%NULL%1,            Shweta%Deshmukh%NULL%1,            Vrushali%Wagh%NULL%1,            Atul%Kulkarni%NULL%1,            Tanvi%Yardi%NULL%1,            Ram S%Kalgud%NULL%1,            Purushottam%Reddy%NULL%1,            Kavitha%Yevoor%NULL%1,            Prashanth%Gajula%NULL%1,            Vivek%Maleyur%NULL%1,            S%Medini%NULL%1,            HN%Mohith%NULL%1,            Anil%Gurtoo%NULL%1,            Ritika%Sud%NULL%1,            Sangeeta%Pahuja%NULL%1,            Anupam%Prakash%NULL%1,            Parijat%Gogoi%NULL%1,            Shailja%Shukla%NULL%1,            D Himanshu%Reddy%NULL%1,            Tulika%Chandra%NULL%1,            Saurabh%Pandey%NULL%1,            Pradeep%Maurya%NULL%1,            Wahid%Ali%NULL%1,            Vivek%Kumar%NULL%0,            Kamlesh%Upadhyay%NULL%1,            Nidhi%Bhatnagar%NULL%1,            Nilima%Shah%NULL%1,            Mamta%Shah%NULL%1,            Tarak%Patel%NULL%1,            Ram Mohan%Jaiswal%NULL%1,            Ashish%Jain%NULL%1,            Shweta%Sharma%NULL%1,            Puneet%Rijhwani%NULL%1,            Naveen%Gupta%NULL%1,            Tinkal C%Patel%NULL%1,            Mahesh G%Solu%NULL%1,            Jitendra%Patel%NULL%1,            Yash R%Shah%NULL%1,            Mayur%Jarag%NULL%1,            Varsha%Godbole%NULL%1,            Meenakshi%Shah%NULL%1,            Rikin%Raj%NULL%1,            Irfan%Nagori%NULL%1,            Pramod R%Jha%NULL%1,            Arti D%Shah%NULL%1,            Gowtham%Yeeli%NULL%1,            Archit%Jain%NULL%1,            Rooppreet Kaur%Gill%NULL%1,            KV Sreedhar%Babu%NULL%1,            B Suresh%Babu%NULL%1,            Alladi%Mohan%NULL%1,            B%Vengamma%NULL%1,            K Chandra%Sekhar%NULL%1,            Srinivasulu%Damam%NULL%1,            K%Narsimhulu%NULL%1,            C%Aparna%NULL%1,            G%Baleswari%NULL%1,            K Ravindranath%Reddy%NULL%1,            P%Chandrasekhar%NULL%1,            Sunil Jodharam%Panjwani%NULL%1,            Pragnesh H%Shah%NULL%1,            Manish%Barvaliya%NULL%1,            Kairavi%Desai%NULL%1,            Pankaj J%Akholkar%NULL%1,            Milind%Baldi%NULL%1,            Ashok%Yadav%NULL%1,            Manoj%Gupta%NULL%1,            Nitin%Rawat%NULL%1,            Dilip%Chawda%NULL%1,            M%Natarajan%NULL%1,            M%Sintha%NULL%1,            David Pradeep%Kumar%NULL%1,            Fathhur%Rabbani%NULL%1,            Vrushali Khirid%Khadke%NULL%1,            Dattatray%Patki%NULL%1,            Sonali%Marathe%NULL%1,            Clyde%D’Souza%NULL%1,            Vipul%Tadha%NULL%1,            Satyam%Arora%NULL%1,            Devendra Kumar%Gupta%NULL%1,            Seema%Dua%NULL%1,            Nitu%Chauhan%NULL%1,            Ajeet Singh%Chahar%NULL%1,            Joy John%Mammen%NULL%1,            Snehil%Kumar%NULL%1,            Dolly%Daniel%NULL%1,            Ravindraa%Singh%NULL%1,            Venkatesh%Dhat%NULL%1,            Yogesh%Agarwal%NULL%1,            Sohini%Arora%NULL%1,            Ashish%Pathak%NULL%1,            Manju%Purohit%NULL%1,            Ashish%Sharma%NULL%1,            Jayashree%Sharma%NULL%1,            Manisha%Madkaikar%NULL%1,            Kavita%Joshi%NULL%1,            Reetika Malik%Yadav%NULL%1,            Swarupa%Bhagwat%NULL%1,            Niteen D%Karnik%NULL%1,            Yojana A%Gokhale%NULL%1,            Leena%Naik%NULL%1,            Sangita%Margam%NULL%1,            Santasabuj%Das%NULL%1,            Alka%Turuk%NULL%1,            V Saravana%Kumar%NULL%1,            K%Kanagasabai%NULL%1,            R%Sabarinathan%NULL%1,            Gururaj%Deshpande%NULL%1,            Sharda%Sharma%NULL%1,            Rashmi%Gunjikar%NULL%1,            Anita%Shete%NULL%1,            Darpan%Phagiwala%NULL%1,            Chetan%Patil%NULL%1,            Snehal%Shingade%NULL%1,            Kajal%Jarande%NULL%1,            Himanshu%Kaushal%NULL%1,            Pragya%Yadav%NULL%1,            Gajanan%Sapkal%NULL%1,            Priya%Abraham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan FN%Hung%NULL%1,            Kelvin KW%To%NULL%1,            Cheuk-Kwong%Lee%NULL%0,            Kar-Lung%Lee%NULL%0,            Kenny%Chan%NULL%0,            Wing-Wah%Yan%NULL%1,            Raymond%Liu%NULL%0,            Chi-Leung%Watt%NULL%1,            Wai-Ming%Chan%NULL%0,            Kang-Yiu%Lai%NULL%0,            Chi-Kwan%Koo%NULL%1,            Tom%Buckley%NULL%1,            Fu-Loi%Chow%NULL%0,            Kwan-Keung%Wong%NULL%1,            Hok-Sum%Chan%NULL%1,            Chi-Keung%Ching%NULL%1,            Bone SF%Tang%NULL%1,            Candy CY%Lau%NULL%1,            Iris WS%Li%NULL%1,            Shao-Haei%Liu%NULL%0,            Kwok-Hung%Chan%NULL%0,            Che-Kit%Lin%NULL%0,            Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y. O. Y.%Soo%NULL%1,            Y.%Cheng%NULL%1,            R.%Wong%NULL%2,            D. S.%Hui%NULL%1,            C. K.%Lee%NULL%2,            K. K. S.%Tsang%NULL%1,            M. H. L.%Ng%NULL%2,            P.%Chan%NULL%2,            G.%Cheng%NULL%2,            J. J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Johan%van Griensven%xref no email%1,      Tansy%Edwards%xref no email%1,      Xavier%de Lamballerie%xref no email%1,      Malcolm G.%Semple%xref no email%1,      Pierre%Gallian%xref no email%1,      Sylvain%Baize%xref no email%1,      Peter W.%Horby%xref no email%1,      Herv\u00e9%Raoul%xref no email%1,      N\u2019Faly%Magassouba%xref no email%1,      Annick%Antierens%xref no email%1,      Carolyn%Lomas%xref no email%1,      Ousmane%Faye%xref no email%1,      Amadou A.%Sall%xref no email%1,      Katrien%Fransen%xref no email%1,      Jozefien%Buyze%xref no email%1,      Raffaella%Ravinetto%xref no email%1,      Pierre%Tiberghien%xref no email%1,      Yves%Claeys%xref no email%1,      Maaike%De Crop%xref no email%1,      Lutgarde%Lynen%xref no email%1,      Elhadj Ibrahima%Bah%xref no email%1,      Peter G.%Smith%xref no email%1,      Alexandre%Delamou%xref no email%1,      Anja%De Weggheleire%xref no email%1,      Nyankoye%Haba%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hongjie%Yu%NULL%1,            Zhancheng%Gao%NULL%0,            Zijian%Feng%NULL%2,            Yuelong%Shu%NULL%1,            Nijuan%Xiang%NULL%2,            Lei%Zhou%NULL%2,            Yang%Huai%NULL%1,            Luzhao%Feng%NULL%0,            Zhibin%Peng%NULL%1,            Zhongjie%Li%NULL%1,            Cuiling%Xu%NULL%1,            Junhua%Li%NULL%0,            Chengping%Hu%NULL%1,            Qun%Li%NULL%1,            Xiaoling%Xu%NULL%1,            Xuecheng%Liu%NULL%1,            Zigui%Liu%NULL%1,            Longshan%Xu%NULL%1,            Yusheng%Chen%NULL%1,            Huiming%Luo%NULL%1,            Liping%Wei%NULL%1,            Xianfeng%Zhang%NULL%1,            Jianbao%Xin%NULL%1,            Junqiao%Guo%NULL%1,            Qiuyue%Wang%NULL%1,            Zhengan%Yuan%NULL%1,            Longnv%Zhou%NULL%1,            Kunzhao%Zhang%NULL%1,            Wei%Zhang%NULL%0,            Jinye%Yang%NULL%1,            Xiaoning%Zhong%NULL%1,            Shichang%Xia%NULL%1,            Lanjuan%Li%NULL%0,            Jinquan%Cheng%NULL%1,            Erdang%Ma%NULL%1,            Pingping%He%NULL%1,            Shui Shan%Lee%NULL%1,            Yu%Wang%NULL%3,            Timothy M.%Uyeki%NULL%0,            Weizhong%Yang%NULL%1,            Joel Mark%Montgomery%NULL%0,            Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C. W.%ROSS%xref no email%1,      ERWIN J.%HUND%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[W. W. G.%MACLACHLAN%xref no email%1,      W. J.%FETTER%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Y.%Cheng%NULL%1,            R.%Wong%NULL%0,            Y. O. Y.%Soo%NULL%1,            W. S.%Wong%NULL%1,            C. K.%Lee%NULL%0,            M. H. L.%Ng%NULL%0,            P.%Chan%NULL%0,            K. C.%Wong%NULL%1,            C. B.%Leung%NULL%1,            G.%Cheng%gcheng@cuhk.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[L. W.%McGUIRE%xref no email%1,      W. R.%REDDEN%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kai%Duan%NULL%1,            Bende%Liu%NULL%2,            Bende%Liu%NULL%0,            Cesheng%Li%NULL%1,            Huajun%Zhang%NULL%1,            Ting%Yu%NULL%0,            Ting%Yu%NULL%0,            Jieming%Qu%NULL%0,            Min%Zhou%NULL%0,            Min%Zhou%NULL%0,            Li%Chen%NULL%3,            Li%Chen%NULL%0,            Shengli%Meng%NULL%2,            Shengli%Meng%NULL%0,            Yong%Hu%NULL%1,            Cheng%Peng%NULL%1,            Mingchao%Yuan%NULL%1,            Jinyan%Huang%NULL%1,            Zejun%Wang%NULL%2,            Zejun%Wang%NULL%0,            Jianhong%Yu%NULL%1,            Xiaoxiao%Gao%NULL%1,            Dan%Wang%NULL%1,            Xiaoqi%Yu%NULL%1,            Li%Li%NULL%0,            Li%Li%NULL%0,            Jiayou%Zhang%NULL%2,            Jiayou%Zhang%NULL%0,            Xiao%Wu%NULL%1,            Bei%Li%NULL%1,            Yanping%Xu%NULL%1,            Wei%Chen%NULL%0,            Wei%Chen%NULL%0,            Yan%Peng%NULL%1,            Yeqin%Hu%NULL%1,            Lianzhen%Lin%NULL%1,            Xuefei%Liu%NULL%1,            Shihe%Huang%NULL%1,            Zhijun%Zhou%NULL%1,            Lianghao%Zhang%NULL%1,            Yue%Wang%NULL%1,            Zhi%Zhang%NULL%1,            Kun%Deng%NULL%1,            Zhiwu%Xia%NULL%1,            Qin%Gong%NULL%1,            Wei%Zhang%NULL%0,            Xiaobei%Zheng%NULL%1,            Ying%Liu%NULL%0,            Huichuan%Yang%NULL%1,            Dongbo%Zhou%NULL%1,            Ding%Yu%NULL%1,            Jifeng%Hou%NULL%1,            Zhengli%Shi%NULL%0,            Saijuan%Chen%NULL%1,            Zhu%Chen%NULL%1,            Xinxin%Zhang%NULL%0,            Xiaoming%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[F.%Sahr%NULL%1,            R.%Ansumana%rashidansumana@gmail.com%1,            T.A.%Massaquoi%NULL%1,            B.R.%Idriss%NULL%1,            F.R.%Sesay%NULL%1,            J.M.%Lamin%NULL%1,            S.%Baker%NULL%1,            S.%Nicol%NULL%1,            B.%Conton%NULL%1,            W.%Johnson%NULL%1,            O.T.%Abiri%NULL%1,            O.%Kargbo%NULL%1,            P.%Kamara%NULL%1,            A.%Goba%NULL%1,            J.B.W.%Russell%NULL%1,            S.M.%Gevao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qing-Lei%Zeng%zengqinglei2009@163.com%1,            Zu-Jiang%Yu%NULL%1,            Jian-Jun%Gou%NULL%1,            Guang-Ming%Li%NULL%1,            Shu-Huan%Ma%NULL%1,            Guo-Fan%Zhang%NULL%1,            Jiang-Hai%Xu%NULL%1,            Wan-Bao%Lin%NULL%1,            Guang-Lin%Cui%NULL%1,            Min-Min%Zhang%NULL%1,            Cheng%Li%NULL%1,            Ze-Shuai%Wang%NULL%1,            Zhi-Hao%Zhang%NULL%1,            Zhang-Suo%Liu%zengqinglei2009@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hassan%Abolghasemi%NULL%1,            Peyman%Eshghi%NULL%1,            Abdol Majid%Cheraghali%NULL%1,            Abbas Ali%Imani Fooladi%NULL%1,            Farzaneh%Bolouki Moghaddam%NULL%1,            Sina%Imanizadeh%NULL%1,            Matin%Moeini Maleki%NULL%1,            Mohammad%Ranjkesh%NULL%1,            Mohammad%Rezapour%NULL%1,            Ali%Bahramifar%NULL%1,            Behzad%Einollahi%NULL%1,            Mohammad Javad%Hosseini%NULL%1,            Nematollah Joneidi%Jafari%NULL%1,            Mohamad%Nikpouraghdam%NULL%1,            Nariman%Sadri%NULL%1,            Mokhtar%Tazik%NULL%1,            Shanaz%Sali%NULL%1,            Shamsi%Okati%NULL%1,            Elham%Askari%NULL%1,            Payam%Tabarsi%NULL%1,            Jafar%Aslani%NULL%1,            Ehsan%Sharifipour%NULL%1,            Mohammad Hossein%Jarahzadeh%NULL%1,            Nastaran%Khodakarim%NULL%1,            Mahmood%Salesi%NULL%1,            Ramezan%Jafari%NULL%1,            Samira%Shahverdi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1403,7 +1532,7 @@
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
       <c r="F2" t="s">
         <v>41</v>
@@ -1432,7 +1561,7 @@
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="F3" t="s">
         <v>47</v>
@@ -1461,7 +1590,7 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>269</v>
+        <v>310</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1490,7 +1619,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>270</v>
+        <v>311</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -1516,10 +1645,10 @@
         <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>291</v>
       </c>
       <c r="E6" t="s">
-        <v>271</v>
+        <v>312</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -1548,7 +1677,7 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -1577,7 +1706,7 @@
         <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -1606,7 +1735,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -1635,7 +1764,7 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="F10" t="s">
         <v>68</v>
@@ -1664,7 +1793,7 @@
         <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="F11" t="s">
         <v>73</v>
@@ -1693,7 +1822,7 @@
         <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -1751,7 +1880,7 @@
         <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="F14" t="s">
         <v>77</v>
@@ -1838,7 +1967,7 @@
         <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -1896,7 +2025,7 @@
         <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="F19" t="s">
         <v>20</v>
@@ -1925,7 +2054,7 @@
         <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="F20" t="s">
         <v>82</v>
@@ -1954,7 +2083,7 @@
         <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="F21" t="s">
         <v>22</v>
@@ -1983,7 +2112,7 @@
         <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="F22" t="s">
         <v>86</v>
@@ -2012,7 +2141,7 @@
         <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="F23" t="s">
         <v>90</v>
@@ -2041,7 +2170,7 @@
         <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="F24" t="s">
         <v>95</v>
@@ -2070,7 +2199,7 @@
         <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="F25" t="s">
         <v>99</v>

--- a/Covid_19_Dataset_and_References/References/26.xlsx
+++ b/Covid_19_Dataset_and_References/References/26.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="348">
   <si>
     <t xml:space="preserve">Doi </t>
   </si>
@@ -1155,6 +1155,66 @@
   </si>
   <si>
     <t>[Hassan%Abolghasemi%NULL%1,            Peyman%Eshghi%NULL%1,            Abdol Majid%Cheraghali%NULL%1,            Abbas Ali%Imani Fooladi%NULL%1,            Farzaneh%Bolouki Moghaddam%NULL%1,            Sina%Imanizadeh%NULL%1,            Matin%Moeini Maleki%NULL%1,            Mohammad%Ranjkesh%NULL%1,            Mohammad%Rezapour%NULL%1,            Ali%Bahramifar%NULL%1,            Behzad%Einollahi%NULL%1,            Mohammad Javad%Hosseini%NULL%1,            Nematollah Joneidi%Jafari%NULL%1,            Mohamad%Nikpouraghdam%NULL%1,            Nariman%Sadri%NULL%1,            Mokhtar%Tazik%NULL%1,            Shanaz%Sali%NULL%1,            Shamsi%Okati%NULL%1,            Elham%Askari%NULL%1,            Payam%Tabarsi%NULL%1,            Jafar%Aslani%NULL%1,            Ehsan%Sharifipour%NULL%1,            Mohammad Hossein%Jarahzadeh%NULL%1,            Nastaran%Khodakarim%NULL%1,            Mahmood%Salesi%NULL%1,            Ramezan%Jafari%NULL%1,            Samira%Shahverdi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[John H%Beigel%jbeigel@niaid.nih.gov%1,             Pablo%Tebas%NULL%4,             Marie-Carmelle%Elie-Turenne%NULL%4,             Ednan%Bajwa%NULL%2,             Todd E%Bell%NULL%2,             Charles B%Cairns%NULL%2,             Shmuel%Shoham%NULL%3,             Jaime G%Deville%NULL%2,             Eric%Feucht%NULL%2,             Judith%Feinberg%NULL%2,             Thomas%Luke%NULL%1,             Kanakatte%Raviprakash%NULL%3,             Janine%Danko%NULL%2,             Dorothy%O'Neil%NULL%1,             Julia A%Metcalf%NULL%1,             Karen%King%NULL%1,             Timothy H%Burgess%NULL%1,             Evgenia%Aga%NULL%3,             H Clifford%Lane%NULL%2,             Michael D%Hughes%NULL%3,             Richard T%Davey%NULL%3,             Pablo%Tebas%NULL%0,             Joseph%Quinn%NULL%1,             Yan%Jiang%NULL%1,             Marie-Carmelle%Elie-Turenne%NULL%0,             Robyn%Hoelle%NULL%1,             Nicole%Iovine%NULL%1,             Robert Shawn%Wills%NULL%1,             Socorro%Pata%NULL%1,             Monique%Huggins%NULL%1,             Belinda%Manukian%NULL%1,             Ednan%Bajwa%NULL%0,             Carrie%Holland%NULL%1,             Kelsey%Brait%NULL%1,             Taylor%Hunt%NULL%1,             Christopher%Stowell%NULL%1,             Amy%Slater%NULL%1,             Todd E%Bell%NULL%0,             Mary%Townsends%NULL%1,             Charles B%Cairns%NULL%0,             Eugenia B%Quackenbush%NULL%1,             Yara A%Park%NULL%1,             Paul Gaither%Jordan%NULL%1,             Cherie%Blanchet%NULL%1,             Kevin%Chronowski%NULL%1,             Kathleen%Alvarez%NULL%1,             Shmuel%Shoham%NULL%0,             Darin%Ostrander%NULL%1,             Terry%Woessner%NULL%1,             Sandra%Thoman%NULL%1,             Jaime G%Deville%NULL%0,             James%Lin%NULL%1,             Alyssa%Ziman%NULL%1,             Kavita%Shankar%NULL%1,             Eric%Feucht%NULL%0,             Tom%Blok%NULL%1,             Don%Batts%NULL%1,             Bob%Beck%NULL%1,             Gail%Massey%NULL%1,             Carol%Bradley%NULL%1,             Judith%Feinberg%NULL%0,             Patricia%Carey%NULL%1,             Jenifer%Baer%NULL%1,             Eva Moore%Whitehead%NULL%1,             Sharon%Kohrs%NULL%1,             Robert%Giulitto%NULL%1,             Christina%Schofield%NULL%2,             Mary%Fairchok%NULL%1,             Susan%Chambers%NULL%1,             Cindy%Baker%NULL%1,             NULL%RN%NULL%1,             Michelle%Parker%NULL%1,             Marta%Harshbarger%NULL%1,             M Hong%Nguyen%NULL%1,             Mary Ellen%Carey%NULL%1,             Julie%Paronish%NULL%1,             Frank%Cornell%NULL%1,             Jim%Cramer%NULL%1,             Diana Lynn%Pakstis%NULL%1,             Michael G%Ison%NULL%1,             Richard%Wunderink%NULL%1,             Marshall%Glesby%NULL%1,             Kirsis%Ham%NULL%1,             Valery%Hughes%NULL%1,             Melissa%Cushing%NULL%0,             Cheryl%Goss%NULL%1,             Joanne%Grenade%NULL%1,             Pauline K%Park%NULL%1,             Lena M%Napolitano%NULL%1,             Krishnan%Raghavendran%NULL%1,             Robert C%Hyzy%NULL%1,             Robertson%Davenport%NULL%1,             Kristin%Brierley%NULL%1,             Theresa%Downs%NULL%1,             Michelle Ng%Gong%NULL%1,             Joan%Uehlinger%NULL%1,             Michael%Lin%NULL%2,             Janice%Fritsche%NULL%1,             Tondria%Green%NULL%1,             Bruce%McLeod%NULL%1,             Deena%Patel%NULL%1,             Mary F%Bavaro%NULL%1,             Robert%Deiss%NULL%1,             Carolyn%Brandt%NULL%1,             Stephanie%Cammarata%NULL%1,             Allan%Kremp%NULL%1,             Karine%Hollis-Perry%NULL%1,             Tahaniyat%Lalani%NULL%1,             Susan%Banks%NULL%1,             Jacqueline%Johnson%NULL%1,             Jason%Maguire%NULL%1,             Janet%McNiff%NULL%1,             Leslie E%Rigg%NULL%1,             Anuradha%Ganesan%NULL%1,             Irma%Barahona%NULL%1,             Janine%Danko%NULL%0,             Steven%Spencer%NULL%1,             David%Stagliano%NULL%1,             Timothy%Burgess%NULL%1,             Daniel%Talmor%NULL%1,             Monique%Mohammed%NULL%1,             Valerie%Banner-Goodspeed%NULL%1,             Robert%Salata%NULL%1,             Robert%Finberg%NULL%2,             Jennifer%Wang%NULL%1,             Karen%Longtine%NULL%1,             Jaclyn%Longtine%NULL%1,             Mellissa%O'Neil%NULL%1,             Philippe R%Bauer%NULL%1,             Ognjen%Gajic%NULL%1,             Suanne M%Weist%NULL%1,             Jonathan%Sevransky%NULL%1,             Mona%Brown%NULL%1,             John%Roback%NULL%1,             John%Oropello%NULL%1,             Bridget%Twohig%NULL%1,             Jeffrey%Jhang%NULL%1,             Rahgu%Seethala%NULL%1,             Wilbur H%Chen%NULL%1,             Magali%Fontaine%NULL%1,             Kapil%Saharia%NULL%1,             Jennifer%Husson%NULL%1,             Roberta%DeBiasi%NULL%1,             Jurran L%Wilson%NULL%1,             Valli Ree%Criss%NULL%1,             Jocelyn%Voell%NULL%1,             Susan%Leitman%NULL%1,             James Wade%Atkins%NULL%1,             Hemaxi%Patel%NULL%1,             Traci%Paige%NULL%1,             Cathy%Cantilena%NULL%1,             Donald%Siegel%NULL%1,             Faye%DeMuth%NULL%1,             Craig H%Fletcher%NULL%1,             J Peter R%Pelletier%NULL%1,             Hassan%Alnuaimat%NULL%1,             Michelle%Pourde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ John H%Beigel%null%1,              Evgenia%Aga%null%2,              Marie-Carmelle%Elie-Turenne%null%2,              Josalyn%Cho%null%2,              Pablo%Tebas%null%2,              Carol L%Clark%null%2,              Jordan P%Metcalf%null%2,              Caroline%Ozment%null%2,              Kanakatte%Raviprakash%null%2,              Joy%Beeler%null%2,              H Preston%Holley%null%1,              Stephanie%Warner%null%2,              Carla%Chorley%null%2,              H Clifford%Lane%null%1,              Michael D%Hughes%null%2,              Richard T%Davey%null%2,              John H%Beigel%null%1,              Evgenia%Aga%null%0,              Marie-Carmelle%Elie-Turenne%null%0,              Josalyn%Cho%null%0,              Pablo%Tebas%null%0,              Carol L%Clark%null%0,              Jordan P%Metcalf%null%0,              Caroline%Ozment%null%0,              Kanakatte%Raviprakash%null%0,              Joy%Beeler%null%0,              H. Preston%Holley%null%1,              Stephanie%Warner%null%0,              Carla%Chorley%null%0,              H. Clifford%Lane%null%1,              Michael D%Hughes%null%0,              Richard T%Davey%null%0,              Michelle%Barron%null%1,              Aveh%Bastani%null%1,              Philippe%Bauer%null%1,              William%Borkowsky%null%1,              Charles%Cairns%null%1,              Jaime%Deville%null%1,              Marie-Carmelle%Elie%null%1,              Carl%Fichtenbaum%null%1,              Robert%Finberg%null%1,              Mamta%Jain%null%1,              David%Kaufman%null%1,              Michael%Lin%null%1,              John%Lin%null%1,              Ryan%Maves%null%1,              Lee%Morrow%null%1,              Minh-Hong%Nguyen%null%1,              Pauline%Park%null%1,              Christopher%Polk%null%1,              Adrienne%Randolph%null%1,              Suchitra%Rao%null%1,              Lewis%Rubinson%null%1,              Christina%Schofield%null%1,              Shmuel%Shoham%null%1,              Erika%Stalets%null%1,              Renee D%Stapleton%null%1,             John H%Beigel%null%2,             Evgenia%Aga%null%0,             Marie-Carmelle%Elie-Turenne%null%0,             Josalyn%Cho%null%2,             Pablo%Tebas%null%0,             Carol L%Clark%null%2,             Jordan P%Metcalf%null%2,             Caroline%Ozment%null%2,             Kanakatte%Raviprakash%null%0,             Joy%Beeler%null%2,             H Preston%Holley%null%1,             Stephanie%Warner%null%2,             Carla%Chorley%null%2,             H Clifford%Lane%null%0,             Michael D%Hughes%null%0,             Richard T%Davey%null%0,             John H%Beigel%null%0,             Evgenia%Aga%null%0,             Marie-Carmelle%Elie-Turenne%null%0,             Josalyn%Cho%null%0,             Pablo%Tebas%null%0,             Carol L%Clark%null%0,             Jordan P%Metcalf%null%0,             Caroline%Ozment%null%0,             Kanakatte%Raviprakash%null%0,             Joy%Beeler%null%0,             H. Preston%Holley%null%1,             Stephanie%Warner%null%0,             Carla%Chorley%null%0,             H. Clifford%Lane%null%1,             Michael D%Hughes%null%0,             Richard T%Davey%null%0,             Michelle%Barron%null%1,             Aveh%Bastani%null%1,             Philippe%Bauer%null%1,             William%Borkowsky%null%1,             Charles%Cairns%null%1,             Jaime%Deville%null%1,             Marie-Carmelle%Elie%null%1,             Carl%Fichtenbaum%null%1,             Robert%Finberg%null%0,             Mamta%Jain%null%1,             David%Kaufman%null%1,             Michael%Lin%null%0,             John%Lin%null%1,             Ryan%Maves%null%1,             Lee%Morrow%null%1,             Minh-Hong%Nguyen%null%1,             Pauline%Park%null%1,             Christopher%Polk%null%1,             Adrienne%Randolph%null%1,             Suchitra%Rao%null%1,             Lewis%Rubinson%null%1,             Christina%Schofield%null%0,             Shmuel%Shoham%null%0,             Erika%Stalets%null%1,             Renee D%Stapleton%null%1]</t>
+  </si>
+  <si>
+    <t>[Caiying%Hu%coreGivesNoEmail%1,           Chenyue%Li%coreGivesNoEmail%1,           Conghui%Wang%coreGivesNoEmail%1,           Cuihua%Tao%coreGivesNoEmail%1,           E.%Deng%coreGivesNoEmail%1,           Haixia%Xu%coreGivesNoEmail%1,           Heng%Mei%coreGivesNoEmail%1,           Jianwei%Wang%coreGivesNoEmail%2,           Juan%Wang%coreGivesNoEmail%1,           Jue%Wang%coreGivesNoEmail%1,           Juntao%Yang%coreGivesNoEmail%1,           Li%Zeng%coreGivesNoEmail%1,           Lifeng%Chen%coreGivesNoEmail%1,           Lili%Ren%coreGivesNoEmail%2,           Ling%Li%coreGivesNoEmail%1,           Linqi%Zhang%coreGivesNoEmail%1,           Nian%Xiong%coreGivesNoEmail%1,           Ning%Man%coreGivesNoEmail%1,           Qing%Wei%coreGivesNoEmail%1,           Ru%Yang%coreGivesNoEmail%1,           Shangen%Zheng%coreGivesNoEmail%1,           Shisheng%Su%coreGivesNoEmail%1,           Wei%Zhang%coreGivesNoEmail%1,           Xiaoxiong%Wu%coreGivesNoEmail%1,           Xuejun%Zhang%coreGivesNoEmail%1,           Xunliang%Tong%coreGivesNoEmail%1,           Yanyun%Wu%coreGivesNoEmail%1,           Yong%Guo%coreGivesNoEmail%1,           Yongpei%Yu%coreGivesNoEmail%1,           Yu%Hu%coreGivesNoEmail%2,           Yu%Liu%coreGivesNoEmail%1,           Yujie%Kong%coreGivesNoEmail%1,           Zhihua%Xu%coreGivesNoEmail%1,           Zhong%Liu%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Ivan F.N.%Hung%null%1,              Kelvin K.W.%To%null%1,              Cheuk-Kwong%Lee%null%1,              Kar-Lung%Lee%null%1,              Wing-Wa%Yan%null%1,              Kenny%Chan%null%1,              Wai-Ming%Chan%null%1,              Chun-Wai%Ngai%null%1,              Kin-Ip%Law%null%1,              Fu-Loi%Chow%null%1,              Raymond%Liu%null%1,              Kang-Yiu%Lai%null%1,              Candy C.Y.%Lau%null%1,              Shao-Haei%Liu%null%1,              Kwok-Hung%Chan%null%0,              Che-Kit%Lin%null%1,              Kwok-Yung%Yuen%null%0,             Ivan F.N.%Hung%null%1,             Kelvin K.W.%To%null%1,             Cheuk-Kwong%Lee%null%2,             Kar-Lung%Lee%null%2,             Wing-Wa%Yan%null%1,             Kenny%Chan%null%2,             Wai-Ming%Chan%null%2,             Chun-Wai%Ngai%null%1,             Kin-Ip%Law%null%1,             Fu-Loi%Chow%null%2,             Raymond%Liu%null%2,             Kang-Yiu%Lai%null%2,             Candy C.Y.%Lau%null%1,             Shao-Haei%Liu%null%2,             Kwok-Hung%Chan%null%3,             Che-Kit%Lin%null%2,             Kwok-Yung%Yuen%null%0]</t>
+  </si>
+  <si>
+    <t>[Arvind%Gharbharan%NULL%1,             Carlijn C. E.%Jordans%NULL%1,             Corine%GeurtsvanKessel%NULL%1,             Jan G.%den Hollander%NULL%2,             Jan G.%den Hollander%NULL%0,             Faiz%Karim%NULL%1,             Femke P. N.%Mollema%NULL%1,             Janneke E.%Stalenhoef – Schukken%NULL%1,             Anthonius%Dofferhoff%NULL%2,             Anthonius%Dofferhoff%NULL%0,             Inge%Ludwig%NULL%1,             Adrianus%Koster%NULL%1,             Robert-Jan%Hassing%NULL%1,             Jeannet C.%Bos%NULL%1,             Geert R.%van Pottelberge%NULL%1,             Imro N.%Vlasveld%NULL%1,             Heidi S. M.%Ammerlaan%NULL%1,             Elena M.%van Leeuwen – Segarceanu%NULL%1,             Jelle%Miedema%NULL%1,             Menno%van der Eerden%NULL%1,             Thijs J.%Schrama%NULL%1,             Grigorios%Papageorgiou%NULL%2,             Grigorios%Papageorgiou%NULL%0,             Peter%te Boekhorst%NULL%1,             Francis H.%Swaneveld%NULL%1,             Yvonne M.%Mueller%NULL%1,             Marco W. J.%Schreurs%NULL%2,             Marco W. J.%Schreurs%NULL%0,             Jeroen J. A.%van Kampen%NULL%1,             Barry%Rockx%NULL%1,             Nisreen M. A.%Okba%NULL%2,             Nisreen M. A.%Okba%NULL%0,             Peter D.%Katsikis%NULL%2,             Peter D.%Katsikis%NULL%0,             Marion P. G.%Koopmans%NULL%2,             Marion P. G.%Koopmans%NULL%0,             Bart L.%Haagmans%NULL%2,             Bart L.%Haagmans%NULL%0,             Casper%Rokx%c.rokx@erasmusmc.nl%2,             Casper%Rokx%c.rokx@erasmusmc.nl%0,             Bart J. A.%Rijnders%NULL%2,             Bart J. A.%Rijnders%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gordin%Fred M.%coreGivesNoEmail%1,           INSIGHT%FLU005 IVIG Pilot Study Group.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alcam\u00ed%Jos\u00e9%coreGivesNoEmail%1,           Avenda\u00f1o-Sol\u00e1%Cristina%coreGivesNoEmail%1,           Blanco%Lydia%coreGivesNoEmail%1,           Bueno%Jose L%coreGivesNoEmail%1,           Calder\u00f3n-Parra%Jorge%coreGivesNoEmail%1,           Casas-Flecha%Inmaculada%coreGivesNoEmail%1,           ConPlas-19%Study Group%coreGivesNoEmail%1,           de%Oteyza Jaime P\u00e9rez%coreGivesNoEmail%1,           Duarte%Rafael F%coreGivesNoEmail%1,           D\u00edaz%de Santiago Alberto%coreGivesNoEmail%1,           Fern\u00e1ndez-Cruz%Ana%coreGivesNoEmail%1,           Garcia-Perez%Javier%coreGivesNoEmail%1,           Jarilla-Fern\u00e1ndez%Maria C%coreGivesNoEmail%1,           Lora-Tamayo%Jaime%coreGivesNoEmail%1,           Madrigal-S\u00e1nchez%Maria E%coreGivesNoEmail%1,           Malo%de Molina Rosa%coreGivesNoEmail%1,           Manche\u00f1o-Losa%Mikel%coreGivesNoEmail%1,           Mart\u00ednez-Gonz\u00e1lez%A L%coreGivesNoEmail%1,           Moreno-Chulilla%J A%coreGivesNoEmail%1,           Mu\u00f1ez-Rubio%Elena%coreGivesNoEmail%1,           Mu\u00f1iz-D\u00edaz%Eduardo%coreGivesNoEmail%1,           Nu\u00f1ez-Orantos%Maria J%coreGivesNoEmail%1,           Paciello%Maria L%coreGivesNoEmail%1,           Payares-Herrera%Concepcion%coreGivesNoEmail%1,           Pa\u00f1o-Pardo%Jos\u00e9 R%coreGivesNoEmail%1,           Perez-Olmeda%Mayte%coreGivesNoEmail%1,           Pintos%Ilduara%coreGivesNoEmail%1,           Porras-Leal%Maria L%coreGivesNoEmail%1,           Ramos-Garrido%Ascension%coreGivesNoEmail%1,           Ramos-Mart\u00ednez%Antonio%coreGivesNoEmail%1,           Romera-Mart\u00ednez%Irene%coreGivesNoEmail%1,           Rubio-Batll\u00e9s%Martin%coreGivesNoEmail%1,           Ruiz-Antor\u00e1n%Belen%coreGivesNoEmail%1,           Saez-Serrano%Maria Isabel%coreGivesNoEmail%1,           Torres%Ferran%coreGivesNoEmail%1,           Velasco-Iglesias%Ana%coreGivesNoEmail%1,           Vid\u00e1n-Est\u00e9vez%Julia%coreGivesNoEmail%1,           Villares%Paula%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Agarwal%NULL%1,             Aparna%Mukherjee%NULL%2,             Gunjan%Kumar%NULL%3,             Gunjan%Kumar%NULL%0,             Pranab%Chatterjee%NULL%2,             Tarun%Bhatnagar%NULL%2,             Pankaj%Malhotra%NULL%2,             NULL%NULL%NULL%0,             NULL%NULL%NULL%0,             Anup%Agarwal%NULL%1,             Aparna%Mukherjee%NULL%0,             Gunjan%Kumar%NULL%0,             Pranab%Chatterjee%NULL%0,             Tarun%Bhatnagar%NULL%0,             Pankaj%Malhotra%NULL%0,             B%Latha%NULL%1,             Sunita%Bundas%NULL%1,             Vivek%Kumar%NULL%2,             Ravi%Dosi%NULL%1,             Janak Kumar%Khambholja%NULL%1,             Rosemarie%de Souza%NULL%1,             Raja Rao%Mesipogu%NULL%1,             Saurabh%Srivastava%NULL%1,             Simmi%Dube%NULL%1,             Kiran%Chaudhary%NULL%1,             S%Subash%NULL%1,             S%Anbuselvi%NULL%1,             V%Rajendran%NULL%1,             A%Sundararajaperumal%NULL%1,             P%Balamanikandan%NULL%1,             R S Uma%Maheswari%NULL%1,             R%Jayanthi%NULL%1,             S%Ragunanthanan%NULL%1,             Sudhir%Bhandari%NULL%1,             Ajeet%Singh%NULL%1,             Ashok%Pal%NULL%1,             Anjali%Handa%NULL%1,             Govind%Rankawat%NULL%1,             Ketan%Kargirwar%NULL%1,             Joyce%Regi%NULL%1,             Darshana%Rathod%NULL%1,             Edwin%Pathrose%NULL%1,             Nirankar%Bhutaka%NULL%1,             Mayur H%Patel%NULL%1,             Rahul J%Verma%NULL%1,             Kamal%Malukani%NULL%1,             Shivani%Patel%NULL%1,             Apurv%Thakur%NULL%1,             Satish%Joshi%NULL%1,             Rashmi%Kulkarni%NULL%1,             Nilay N%Suthar%NULL%1,             Nehal M%Shah%NULL%1,             Hemang M%Purohit%NULL%1,             Cherry K%Shah%NULL%1,             Monila N%Patel%NULL%1,             Saket%Shah%NULL%1,             Smit T%Shah%NULL%1,             Tehsim%Memon%NULL%1,             Vishal R%Beriwala%NULL%1,             Kusum%Jashnani%NULL%1,             Fatema%Ezzy%NULL%1,             Simran%Agrawal%NULL%1,             Rakesh%Bhadade%NULL%1,             MN%Atish%NULL%1,             Tushar%Madke%NULL%1,             Vikas%Kavishwar%NULL%1,             Ramesh%Waghmare%NULL%1,             Nitin%Valvi%NULL%1,             B Thrilok%Chander%NULL%1,             A Vinaya%Sekhar%NULL%1,             Akhilesh Kumar%Maurya%NULL%1,             K%Hemanth%NULL%1,             K%Nagamani%NULL%1,             K%Sudha%NULL%1,             T Ravi%Chandra%NULL%1,             K Tushara%Rao%NULL%1,             J%Vyshnavi%NULL%1,             Rashmi%Upadhyay%NULL%1,             Shalini%Bahadur%NULL%1,             Rambha%Pathak%NULL%1,             Shikha%Seth%NULL%1,             Rakesh%Gupta%NULL%1,             Rita%Saxena%NULL%1,             Preksha%Dwivedi%NULL%1,             Reeni%Malik%NULL%1,             Deepti%Chourasia%NULL%1,             Jaya%Lalwani%NULL%1,             UM%Sharma%NULL%1,             JL%Marko%NULL%1,             Amit%Suri%NULL%1,             Vijay%Kumar%NULL%1,             Rajnish%Kaushik%NULL%1,             Parul%Kodan%NULL%1,             Bhabani Prasad%Acharya%NULL%1,             Kuldeep Kumar%Gaur%NULL%1,             Anubhav%Gupta%NULL%1,             Prerna%Sachdeva%NULL%1,             Shruti%Dogra%NULL%1,             Aikaj%Jindal%NULL%1,             M Joseph%John%NULL%1,             Avtar Singh%Dhanju%NULL%1,             Ranjana%Khetrepal%NULL%1,             Neeraj%Sharma%NULL%1,             Neetu%Kukar%NULL%1,             Divya%Kavita%NULL%1,             Rajesh%Kumar%NULL%1,             Rajesh%Mahajan%NULL%1,             Gurpreet%Singh%NULL%1,             Jaspreet%Kaur%NULL%1,             Raminder Pal%Singh%NULL%1,             Rajni%Bassi%NULL%1,             Swapneil%Parikh%NULL%1,             Om%Shrivastav%NULL%1,             Jayanthi%Shastri%NULL%1,             Maherra%Desai%NULL%1,             Shreevatsa%Udupa%NULL%1,             Varun A%Bafna%NULL%1,             Vijay%Barge%NULL%1,             Rajendra%Madane%NULL%1,             Sheetal%Yadav%NULL%1,             Sanjeev%Misra%NULL%1,             Archana%Bajpayee%NULL%1,             M K%Garg%NULL%1,             G K%Bohra%NULL%1,             Vijaylakshmi%Nag%NULL%1,             Puneeth Babu%Anne%NULL%1,             Mohd%Nadeem%NULL%1,             Pallavi%Singh%NULL%1,             Ram%Niwas%NULL%1,             Niranjan Shiwaji%Khaire%NULL%1,             Rattiram%Sharma%NULL%1,             Mini P%Singh%NULL%1,             Naresh%Sachdeva%NULL%1,             Suchet%Sachdev%NULL%1,             Rekha%Hans%NULL%1,             Vikas%Suri%NULL%1,             LN%Yaddanapudi%NULL%1,             PVM%Lakshmi%NULL%1,             Neha%Singh%NULL%1,             Divendu%Bhushan%NULL%1,             Neeraj%Kumar%NULL%1,             Muralidhar%Tambe%NULL%1,             Sonali%Salvi%NULL%1,             Nalini%Kadgi%NULL%1,             Shashikala%Sangle%NULL%1,             Leena%Nakate%NULL%1,             Samir%Joshi%NULL%1,             Rajesh%Karyakarte%NULL%1,             Suraj%Goyanka%NULL%1,             Nimisha%Sharma%NULL%1,             Nikhil%Verma%NULL%1,             Asim%Das%NULL%1,             Monika%Bahl%NULL%1,             Nitya%Wadhwa%NULL%1,             Shreepad%Bhat%NULL%1,             Shweta%Deshmukh%NULL%1,             Vrushali%Wagh%NULL%1,             Atul%Kulkarni%NULL%1,             Tanvi%Yardi%NULL%1,             Ram S%Kalgud%NULL%1,             Purushottam%Reddy%NULL%1,             Kavitha%Yevoor%NULL%1,             Prashanth%Gajula%NULL%1,             Vivek%Maleyur%NULL%1,             S%Medini%NULL%1,             HN%Mohith%NULL%1,             Anil%Gurtoo%NULL%1,             Ritika%Sud%NULL%1,             Sangeeta%Pahuja%NULL%1,             Anupam%Prakash%NULL%1,             Parijat%Gogoi%NULL%1,             Shailja%Shukla%NULL%1,             D Himanshu%Reddy%NULL%1,             Tulika%Chandra%NULL%1,             Saurabh%Pandey%NULL%1,             Pradeep%Maurya%NULL%1,             Wahid%Ali%NULL%1,             Vivek%Kumar%NULL%0,             Kamlesh%Upadhyay%NULL%1,             Nidhi%Bhatnagar%NULL%1,             Nilima%Shah%NULL%1,             Mamta%Shah%NULL%1,             Tarak%Patel%NULL%1,             Ram Mohan%Jaiswal%NULL%1,             Ashish%Jain%NULL%1,             Shweta%Sharma%NULL%1,             Puneet%Rijhwani%NULL%1,             Naveen%Gupta%NULL%1,             Tinkal C%Patel%NULL%1,             Mahesh G%Solu%NULL%1,             Jitendra%Patel%NULL%1,             Yash R%Shah%NULL%1,             Mayur%Jarag%NULL%1,             Varsha%Godbole%NULL%1,             Meenakshi%Shah%NULL%1,             Rikin%Raj%NULL%1,             Irfan%Nagori%NULL%1,             Pramod R%Jha%NULL%1,             Arti D%Shah%NULL%1,             Gowtham%Yeeli%NULL%1,             Archit%Jain%NULL%1,             Rooppreet Kaur%Gill%NULL%1,             KV Sreedhar%Babu%NULL%1,             B Suresh%Babu%NULL%1,             Alladi%Mohan%NULL%1,             B%Vengamma%NULL%1,             K Chandra%Sekhar%NULL%1,             Srinivasulu%Damam%NULL%1,             K%Narsimhulu%NULL%1,             C%Aparna%NULL%1,             G%Baleswari%NULL%1,             K Ravindranath%Reddy%NULL%1,             P%Chandrasekhar%NULL%1,             Sunil Jodharam%Panjwani%NULL%1,             Pragnesh H%Shah%NULL%1,             Manish%Barvaliya%NULL%1,             Kairavi%Desai%NULL%1,             Pankaj J%Akholkar%NULL%1,             Milind%Baldi%NULL%1,             Ashok%Yadav%NULL%1,             Manoj%Gupta%NULL%1,             Nitin%Rawat%NULL%1,             Dilip%Chawda%NULL%1,             M%Natarajan%NULL%1,             M%Sintha%NULL%1,             David Pradeep%Kumar%NULL%1,             Fathhur%Rabbani%NULL%1,             Vrushali Khirid%Khadke%NULL%1,             Dattatray%Patki%NULL%1,             Sonali%Marathe%NULL%1,             Clyde%D’Souza%NULL%1,             Vipul%Tadha%NULL%1,             Satyam%Arora%NULL%1,             Devendra Kumar%Gupta%NULL%1,             Seema%Dua%NULL%1,             Nitu%Chauhan%NULL%1,             Ajeet Singh%Chahar%NULL%1,             Joy John%Mammen%NULL%1,             Snehil%Kumar%NULL%1,             Dolly%Daniel%NULL%1,             Ravindraa%Singh%NULL%1,             Venkatesh%Dhat%NULL%1,             Yogesh%Agarwal%NULL%1,             Sohini%Arora%NULL%1,             Ashish%Pathak%NULL%1,             Manju%Purohit%NULL%1,             Ashish%Sharma%NULL%1,             Jayashree%Sharma%NULL%1,             Manisha%Madkaikar%NULL%1,             Kavita%Joshi%NULL%1,             Reetika Malik%Yadav%NULL%1,             Swarupa%Bhagwat%NULL%1,             Niteen D%Karnik%NULL%1,             Yojana A%Gokhale%NULL%1,             Leena%Naik%NULL%1,             Sangita%Margam%NULL%1,             Santasabuj%Das%NULL%1,             Alka%Turuk%NULL%1,             V Saravana%Kumar%NULL%1,             K%Kanagasabai%NULL%1,             R%Sabarinathan%NULL%1,             Gururaj%Deshpande%NULL%1,             Sharda%Sharma%NULL%1,             Rashmi%Gunjikar%NULL%1,             Anita%Shete%NULL%1,             Darpan%Phagiwala%NULL%1,             Chetan%Patil%NULL%1,             Snehal%Shingade%NULL%1,             Kajal%Jarande%NULL%1,             Himanshu%Kaushal%NULL%1,             Pragya%Yadav%NULL%1,             Gajanan%Sapkal%NULL%1,             Priya%Abraham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan FN%Hung%NULL%1,             Kelvin KW%To%NULL%1,             Cheuk-Kwong%Lee%NULL%0,             Kar-Lung%Lee%NULL%0,             Kenny%Chan%NULL%0,             Wing-Wah%Yan%NULL%1,             Raymond%Liu%NULL%0,             Chi-Leung%Watt%NULL%1,             Wai-Ming%Chan%NULL%0,             Kang-Yiu%Lai%NULL%0,             Chi-Kwan%Koo%NULL%1,             Tom%Buckley%NULL%1,             Fu-Loi%Chow%NULL%0,             Kwan-Keung%Wong%NULL%1,             Hok-Sum%Chan%NULL%1,             Chi-Keung%Ching%NULL%1,             Bone SF%Tang%NULL%1,             Candy CY%Lau%NULL%1,             Iris WS%Li%NULL%1,             Shao-Haei%Liu%NULL%0,             Kwok-Hung%Chan%NULL%0,             Che-Kit%Lin%NULL%0,             Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y. O. Y.%Soo%NULL%1,             Y.%Cheng%NULL%1,             R.%Wong%NULL%2,             D. S.%Hui%NULL%1,             C. K.%Lee%NULL%2,             K. K. S.%Tsang%NULL%1,             M. H. L.%Ng%NULL%2,             P.%Chan%NULL%2,             G.%Cheng%NULL%2,             J. J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Johan%van Griensven%xref no email%1,       Tansy%Edwards%xref no email%1,       Xavier%de Lamballerie%xref no email%1,       Malcolm G.%Semple%xref no email%1,       Pierre%Gallian%xref no email%1,       Sylvain%Baize%xref no email%1,       Peter W.%Horby%xref no email%1,       Herv\u00e9%Raoul%xref no email%1,       N\u2019Faly%Magassouba%xref no email%1,       Annick%Antierens%xref no email%1,       Carolyn%Lomas%xref no email%1,       Ousmane%Faye%xref no email%1,       Amadou A.%Sall%xref no email%1,       Katrien%Fransen%xref no email%1,       Jozefien%Buyze%xref no email%1,       Raffaella%Ravinetto%xref no email%1,       Pierre%Tiberghien%xref no email%1,       Yves%Claeys%xref no email%1,       Maaike%De Crop%xref no email%1,       Lutgarde%Lynen%xref no email%1,       Elhadj Ibrahima%Bah%xref no email%1,       Peter G.%Smith%xref no email%1,       Alexandre%Delamou%xref no email%1,       Anja%De Weggheleire%xref no email%1,       Nyankoye%Haba%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hongjie%Yu%NULL%1,             Zhancheng%Gao%NULL%0,             Zijian%Feng%NULL%2,             Yuelong%Shu%NULL%1,             Nijuan%Xiang%NULL%2,             Lei%Zhou%NULL%2,             Yang%Huai%NULL%1,             Luzhao%Feng%NULL%0,             Zhibin%Peng%NULL%1,             Zhongjie%Li%NULL%1,             Cuiling%Xu%NULL%1,             Junhua%Li%NULL%0,             Chengping%Hu%NULL%1,             Qun%Li%NULL%1,             Xiaoling%Xu%NULL%1,             Xuecheng%Liu%NULL%1,             Zigui%Liu%NULL%1,             Longshan%Xu%NULL%1,             Yusheng%Chen%NULL%1,             Huiming%Luo%NULL%1,             Liping%Wei%NULL%1,             Xianfeng%Zhang%NULL%1,             Jianbao%Xin%NULL%1,             Junqiao%Guo%NULL%1,             Qiuyue%Wang%NULL%1,             Zhengan%Yuan%NULL%1,             Longnv%Zhou%NULL%1,             Kunzhao%Zhang%NULL%1,             Wei%Zhang%NULL%0,             Jinye%Yang%NULL%1,             Xiaoning%Zhong%NULL%1,             Shichang%Xia%NULL%1,             Lanjuan%Li%NULL%0,             Jinquan%Cheng%NULL%1,             Erdang%Ma%NULL%1,             Pingping%He%NULL%1,             Shui Shan%Lee%NULL%1,             Yu%Wang%NULL%3,             Timothy M.%Uyeki%NULL%0,             Weizhong%Yang%NULL%1,             Joel Mark%Montgomery%NULL%0,             Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C. W.%ROSS%xref no email%1,       ERWIN J.%HUND%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[W. W. G.%MACLACHLAN%xref no email%1,       W. J.%FETTER%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Y.%Cheng%NULL%1,             R.%Wong%NULL%0,             Y. O. Y.%Soo%NULL%1,             W. S.%Wong%NULL%1,             C. K.%Lee%NULL%0,             M. H. L.%Ng%NULL%0,             P.%Chan%NULL%0,             K. C.%Wong%NULL%1,             C. B.%Leung%NULL%1,             G.%Cheng%gcheng@cuhk.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[L. W.%McGUIRE%xref no email%1,       W. R.%REDDEN%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kai%Duan%NULL%1,             Bende%Liu%NULL%2,             Bende%Liu%NULL%0,             Cesheng%Li%NULL%1,             Huajun%Zhang%NULL%1,             Ting%Yu%NULL%0,             Ting%Yu%NULL%0,             Jieming%Qu%NULL%0,             Min%Zhou%NULL%0,             Min%Zhou%NULL%0,             Li%Chen%NULL%3,             Li%Chen%NULL%0,             Shengli%Meng%NULL%2,             Shengli%Meng%NULL%0,             Yong%Hu%NULL%1,             Cheng%Peng%NULL%1,             Mingchao%Yuan%NULL%1,             Jinyan%Huang%NULL%1,             Zejun%Wang%NULL%2,             Zejun%Wang%NULL%0,             Jianhong%Yu%NULL%1,             Xiaoxiao%Gao%NULL%1,             Dan%Wang%NULL%1,             Xiaoqi%Yu%NULL%1,             Li%Li%NULL%0,             Li%Li%NULL%0,             Jiayou%Zhang%NULL%2,             Jiayou%Zhang%NULL%0,             Xiao%Wu%NULL%1,             Bei%Li%NULL%1,             Yanping%Xu%NULL%1,             Wei%Chen%NULL%0,             Wei%Chen%NULL%0,             Yan%Peng%NULL%1,             Yeqin%Hu%NULL%1,             Lianzhen%Lin%NULL%1,             Xuefei%Liu%NULL%1,             Shihe%Huang%NULL%1,             Zhijun%Zhou%NULL%1,             Lianghao%Zhang%NULL%1,             Yue%Wang%NULL%1,             Zhi%Zhang%NULL%1,             Kun%Deng%NULL%1,             Zhiwu%Xia%NULL%1,             Qin%Gong%NULL%1,             Wei%Zhang%NULL%0,             Xiaobei%Zheng%NULL%1,             Ying%Liu%NULL%0,             Huichuan%Yang%NULL%1,             Dongbo%Zhou%NULL%1,             Ding%Yu%NULL%1,             Jifeng%Hou%NULL%1,             Zhengli%Shi%NULL%0,             Saijuan%Chen%NULL%1,             Zhu%Chen%NULL%1,             Xinxin%Zhang%NULL%0,             Xiaoming%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[F.%Sahr%NULL%1,             R.%Ansumana%rashidansumana@gmail.com%1,             T.A.%Massaquoi%NULL%1,             B.R.%Idriss%NULL%1,             F.R.%Sesay%NULL%1,             J.M.%Lamin%NULL%1,             S.%Baker%NULL%1,             S.%Nicol%NULL%1,             B.%Conton%NULL%1,             W.%Johnson%NULL%1,             O.T.%Abiri%NULL%1,             O.%Kargbo%NULL%1,             P.%Kamara%NULL%1,             A.%Goba%NULL%1,             J.B.W.%Russell%NULL%1,             S.M.%Gevao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qing-Lei%Zeng%zengqinglei2009@163.com%1,             Zu-Jiang%Yu%NULL%1,             Jian-Jun%Gou%NULL%1,             Guang-Ming%Li%NULL%1,             Shu-Huan%Ma%NULL%1,             Guo-Fan%Zhang%NULL%1,             Jiang-Hai%Xu%NULL%1,             Wan-Bao%Lin%NULL%1,             Guang-Lin%Cui%NULL%1,             Min-Min%Zhang%NULL%1,             Cheng%Li%NULL%1,             Ze-Shuai%Wang%NULL%1,             Zhi-Hao%Zhang%NULL%1,             Zhang-Suo%Liu%zengqinglei2009@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hassan%Abolghasemi%NULL%1,             Peyman%Eshghi%NULL%1,             Abdol Majid%Cheraghali%NULL%1,             Abbas Ali%Imani Fooladi%NULL%1,             Farzaneh%Bolouki Moghaddam%NULL%1,             Sina%Imanizadeh%NULL%1,             Matin%Moeini Maleki%NULL%1,             Mohammad%Ranjkesh%NULL%1,             Mohammad%Rezapour%NULL%1,             Ali%Bahramifar%NULL%1,             Behzad%Einollahi%NULL%1,             Mohammad Javad%Hosseini%NULL%1,             Nematollah Joneidi%Jafari%NULL%1,             Mohamad%Nikpouraghdam%NULL%1,             Nariman%Sadri%NULL%1,             Mokhtar%Tazik%NULL%1,             Shanaz%Sali%NULL%1,             Shamsi%Okati%NULL%1,             Elham%Askari%NULL%1,             Payam%Tabarsi%NULL%1,             Jafar%Aslani%NULL%1,             Ehsan%Sharifipour%NULL%1,             Mohammad Hossein%Jarahzadeh%NULL%1,             Nastaran%Khodakarim%NULL%1,             Mahmood%Salesi%NULL%1,             Ramezan%Jafari%NULL%1,             Samira%Shahverdi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1532,7 +1592,7 @@
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="F2" t="s">
         <v>41</v>
@@ -1561,7 +1621,7 @@
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="F3" t="s">
         <v>47</v>
@@ -1590,7 +1650,7 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1619,7 +1679,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -1648,7 +1708,7 @@
         <v>291</v>
       </c>
       <c r="E6" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -1677,7 +1737,7 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -1706,7 +1766,7 @@
         <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -1735,7 +1795,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -1764,7 +1824,7 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="F10" t="s">
         <v>68</v>
@@ -1793,7 +1853,7 @@
         <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="F11" t="s">
         <v>73</v>
@@ -1822,7 +1882,7 @@
         <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -1880,7 +1940,7 @@
         <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="F14" t="s">
         <v>77</v>
@@ -1967,7 +2027,7 @@
         <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -2025,7 +2085,7 @@
         <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="F19" t="s">
         <v>20</v>
@@ -2054,7 +2114,7 @@
         <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="F20" t="s">
         <v>82</v>
@@ -2083,7 +2143,7 @@
         <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="F21" t="s">
         <v>22</v>
@@ -2112,7 +2172,7 @@
         <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="F22" t="s">
         <v>86</v>
@@ -2141,7 +2201,7 @@
         <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="F23" t="s">
         <v>90</v>
@@ -2170,7 +2230,7 @@
         <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="F24" t="s">
         <v>95</v>
@@ -2199,7 +2259,7 @@
         <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="F25" t="s">
         <v>99</v>

--- a/Covid_19_Dataset_and_References/References/26.xlsx
+++ b/Covid_19_Dataset_and_References/References/26.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2652" uniqueCount="368">
   <si>
     <t xml:space="preserve">Doi </t>
   </si>
@@ -1215,6 +1215,66 @@
   </si>
   <si>
     <t>[Hassan%Abolghasemi%NULL%1,             Peyman%Eshghi%NULL%1,             Abdol Majid%Cheraghali%NULL%1,             Abbas Ali%Imani Fooladi%NULL%1,             Farzaneh%Bolouki Moghaddam%NULL%1,             Sina%Imanizadeh%NULL%1,             Matin%Moeini Maleki%NULL%1,             Mohammad%Ranjkesh%NULL%1,             Mohammad%Rezapour%NULL%1,             Ali%Bahramifar%NULL%1,             Behzad%Einollahi%NULL%1,             Mohammad Javad%Hosseini%NULL%1,             Nematollah Joneidi%Jafari%NULL%1,             Mohamad%Nikpouraghdam%NULL%1,             Nariman%Sadri%NULL%1,             Mokhtar%Tazik%NULL%1,             Shanaz%Sali%NULL%1,             Shamsi%Okati%NULL%1,             Elham%Askari%NULL%1,             Payam%Tabarsi%NULL%1,             Jafar%Aslani%NULL%1,             Ehsan%Sharifipour%NULL%1,             Mohammad Hossein%Jarahzadeh%NULL%1,             Nastaran%Khodakarim%NULL%1,             Mahmood%Salesi%NULL%1,             Ramezan%Jafari%NULL%1,             Samira%Shahverdi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[John H%Beigel%jbeigel@niaid.nih.gov%1,              Pablo%Tebas%NULL%4,              Marie-Carmelle%Elie-Turenne%NULL%4,              Ednan%Bajwa%NULL%2,              Todd E%Bell%NULL%2,              Charles B%Cairns%NULL%2,              Shmuel%Shoham%NULL%3,              Jaime G%Deville%NULL%2,              Eric%Feucht%NULL%2,              Judith%Feinberg%NULL%2,              Thomas%Luke%NULL%1,              Kanakatte%Raviprakash%NULL%3,              Janine%Danko%NULL%2,              Dorothy%O'Neil%NULL%1,              Julia A%Metcalf%NULL%1,              Karen%King%NULL%1,              Timothy H%Burgess%NULL%1,              Evgenia%Aga%NULL%3,              H Clifford%Lane%NULL%2,              Michael D%Hughes%NULL%3,              Richard T%Davey%NULL%3,              Pablo%Tebas%NULL%0,              Joseph%Quinn%NULL%1,              Yan%Jiang%NULL%1,              Marie-Carmelle%Elie-Turenne%NULL%0,              Robyn%Hoelle%NULL%1,              Nicole%Iovine%NULL%1,              Robert Shawn%Wills%NULL%1,              Socorro%Pata%NULL%1,              Monique%Huggins%NULL%1,              Belinda%Manukian%NULL%1,              Ednan%Bajwa%NULL%0,              Carrie%Holland%NULL%1,              Kelsey%Brait%NULL%1,              Taylor%Hunt%NULL%1,              Christopher%Stowell%NULL%1,              Amy%Slater%NULL%1,              Todd E%Bell%NULL%0,              Mary%Townsends%NULL%1,              Charles B%Cairns%NULL%0,              Eugenia B%Quackenbush%NULL%1,              Yara A%Park%NULL%1,              Paul Gaither%Jordan%NULL%1,              Cherie%Blanchet%NULL%1,              Kevin%Chronowski%NULL%1,              Kathleen%Alvarez%NULL%1,              Shmuel%Shoham%NULL%0,              Darin%Ostrander%NULL%1,              Terry%Woessner%NULL%1,              Sandra%Thoman%NULL%1,              Jaime G%Deville%NULL%0,              James%Lin%NULL%1,              Alyssa%Ziman%NULL%1,              Kavita%Shankar%NULL%1,              Eric%Feucht%NULL%0,              Tom%Blok%NULL%1,              Don%Batts%NULL%1,              Bob%Beck%NULL%1,              Gail%Massey%NULL%1,              Carol%Bradley%NULL%1,              Judith%Feinberg%NULL%0,              Patricia%Carey%NULL%1,              Jenifer%Baer%NULL%1,              Eva Moore%Whitehead%NULL%1,              Sharon%Kohrs%NULL%1,              Robert%Giulitto%NULL%1,              Christina%Schofield%NULL%2,              Mary%Fairchok%NULL%1,              Susan%Chambers%NULL%1,              Cindy%Baker%NULL%1,              NULL%RN%NULL%1,              Michelle%Parker%NULL%1,              Marta%Harshbarger%NULL%1,              M Hong%Nguyen%NULL%1,              Mary Ellen%Carey%NULL%1,              Julie%Paronish%NULL%1,              Frank%Cornell%NULL%1,              Jim%Cramer%NULL%1,              Diana Lynn%Pakstis%NULL%1,              Michael G%Ison%NULL%1,              Richard%Wunderink%NULL%1,              Marshall%Glesby%NULL%1,              Kirsis%Ham%NULL%1,              Valery%Hughes%NULL%1,              Melissa%Cushing%NULL%0,              Cheryl%Goss%NULL%1,              Joanne%Grenade%NULL%1,              Pauline K%Park%NULL%1,              Lena M%Napolitano%NULL%1,              Krishnan%Raghavendran%NULL%1,              Robert C%Hyzy%NULL%1,              Robertson%Davenport%NULL%1,              Kristin%Brierley%NULL%1,              Theresa%Downs%NULL%1,              Michelle Ng%Gong%NULL%1,              Joan%Uehlinger%NULL%1,              Michael%Lin%NULL%2,              Janice%Fritsche%NULL%1,              Tondria%Green%NULL%1,              Bruce%McLeod%NULL%1,              Deena%Patel%NULL%1,              Mary F%Bavaro%NULL%1,              Robert%Deiss%NULL%1,              Carolyn%Brandt%NULL%1,              Stephanie%Cammarata%NULL%1,              Allan%Kremp%NULL%1,              Karine%Hollis-Perry%NULL%1,              Tahaniyat%Lalani%NULL%1,              Susan%Banks%NULL%1,              Jacqueline%Johnson%NULL%1,              Jason%Maguire%NULL%1,              Janet%McNiff%NULL%1,              Leslie E%Rigg%NULL%1,              Anuradha%Ganesan%NULL%1,              Irma%Barahona%NULL%1,              Janine%Danko%NULL%0,              Steven%Spencer%NULL%1,              David%Stagliano%NULL%1,              Timothy%Burgess%NULL%1,              Daniel%Talmor%NULL%1,              Monique%Mohammed%NULL%1,              Valerie%Banner-Goodspeed%NULL%1,              Robert%Salata%NULL%1,              Robert%Finberg%NULL%2,              Jennifer%Wang%NULL%1,              Karen%Longtine%NULL%1,              Jaclyn%Longtine%NULL%1,              Mellissa%O'Neil%NULL%1,              Philippe R%Bauer%NULL%1,              Ognjen%Gajic%NULL%1,              Suanne M%Weist%NULL%1,              Jonathan%Sevransky%NULL%1,              Mona%Brown%NULL%1,              John%Roback%NULL%1,              John%Oropello%NULL%1,              Bridget%Twohig%NULL%1,              Jeffrey%Jhang%NULL%1,              Rahgu%Seethala%NULL%1,              Wilbur H%Chen%NULL%1,              Magali%Fontaine%NULL%1,              Kapil%Saharia%NULL%1,              Jennifer%Husson%NULL%1,              Roberta%DeBiasi%NULL%1,              Jurran L%Wilson%NULL%1,              Valli Ree%Criss%NULL%1,              Jocelyn%Voell%NULL%1,              Susan%Leitman%NULL%1,              James Wade%Atkins%NULL%1,              Hemaxi%Patel%NULL%1,              Traci%Paige%NULL%1,              Cathy%Cantilena%NULL%1,              Donald%Siegel%NULL%1,              Faye%DeMuth%NULL%1,              Craig H%Fletcher%NULL%1,              J Peter R%Pelletier%NULL%1,              Hassan%Alnuaimat%NULL%1,              Michelle%Pourde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ John H%Beigel%null%1,               Evgenia%Aga%null%2,               Marie-Carmelle%Elie-Turenne%null%2,               Josalyn%Cho%null%2,               Pablo%Tebas%null%2,               Carol L%Clark%null%2,               Jordan P%Metcalf%null%2,               Caroline%Ozment%null%2,               Kanakatte%Raviprakash%null%2,               Joy%Beeler%null%2,               H Preston%Holley%null%1,               Stephanie%Warner%null%2,               Carla%Chorley%null%2,               H Clifford%Lane%null%1,               Michael D%Hughes%null%2,               Richard T%Davey%null%2,               John H%Beigel%null%1,               Evgenia%Aga%null%0,               Marie-Carmelle%Elie-Turenne%null%0,               Josalyn%Cho%null%0,               Pablo%Tebas%null%0,               Carol L%Clark%null%0,               Jordan P%Metcalf%null%0,               Caroline%Ozment%null%0,               Kanakatte%Raviprakash%null%0,               Joy%Beeler%null%0,               H. Preston%Holley%null%1,               Stephanie%Warner%null%0,               Carla%Chorley%null%0,               H. Clifford%Lane%null%1,               Michael D%Hughes%null%0,               Richard T%Davey%null%0,               Michelle%Barron%null%1,               Aveh%Bastani%null%1,               Philippe%Bauer%null%1,               William%Borkowsky%null%1,               Charles%Cairns%null%1,               Jaime%Deville%null%1,               Marie-Carmelle%Elie%null%1,               Carl%Fichtenbaum%null%1,               Robert%Finberg%null%1,               Mamta%Jain%null%1,               David%Kaufman%null%1,               Michael%Lin%null%1,               John%Lin%null%1,               Ryan%Maves%null%1,               Lee%Morrow%null%1,               Minh-Hong%Nguyen%null%1,               Pauline%Park%null%1,               Christopher%Polk%null%1,               Adrienne%Randolph%null%1,               Suchitra%Rao%null%1,               Lewis%Rubinson%null%1,               Christina%Schofield%null%1,               Shmuel%Shoham%null%1,               Erika%Stalets%null%1,               Renee D%Stapleton%null%1,              John H%Beigel%null%2,              Evgenia%Aga%null%0,              Marie-Carmelle%Elie-Turenne%null%0,              Josalyn%Cho%null%2,              Pablo%Tebas%null%0,              Carol L%Clark%null%2,              Jordan P%Metcalf%null%2,              Caroline%Ozment%null%2,              Kanakatte%Raviprakash%null%0,              Joy%Beeler%null%2,              H Preston%Holley%null%1,              Stephanie%Warner%null%2,              Carla%Chorley%null%2,              H Clifford%Lane%null%0,              Michael D%Hughes%null%0,              Richard T%Davey%null%0,              John H%Beigel%null%0,              Evgenia%Aga%null%0,              Marie-Carmelle%Elie-Turenne%null%0,              Josalyn%Cho%null%0,              Pablo%Tebas%null%0,              Carol L%Clark%null%0,              Jordan P%Metcalf%null%0,              Caroline%Ozment%null%0,              Kanakatte%Raviprakash%null%0,              Joy%Beeler%null%0,              H. Preston%Holley%null%1,              Stephanie%Warner%null%0,              Carla%Chorley%null%0,              H. Clifford%Lane%null%1,              Michael D%Hughes%null%0,              Richard T%Davey%null%0,              Michelle%Barron%null%1,              Aveh%Bastani%null%1,              Philippe%Bauer%null%1,              William%Borkowsky%null%1,              Charles%Cairns%null%1,              Jaime%Deville%null%1,              Marie-Carmelle%Elie%null%1,              Carl%Fichtenbaum%null%1,              Robert%Finberg%null%0,              Mamta%Jain%null%1,              David%Kaufman%null%1,              Michael%Lin%null%0,              John%Lin%null%1,              Ryan%Maves%null%1,              Lee%Morrow%null%1,              Minh-Hong%Nguyen%null%1,              Pauline%Park%null%1,              Christopher%Polk%null%1,              Adrienne%Randolph%null%1,              Suchitra%Rao%null%1,              Lewis%Rubinson%null%1,              Christina%Schofield%null%0,              Shmuel%Shoham%null%0,              Erika%Stalets%null%1,              Renee D%Stapleton%null%1]</t>
+  </si>
+  <si>
+    <t>[Caiying%Hu%coreGivesNoEmail%1,            Chenyue%Li%coreGivesNoEmail%1,            Conghui%Wang%coreGivesNoEmail%1,            Cuihua%Tao%coreGivesNoEmail%1,            E.%Deng%coreGivesNoEmail%1,            Haixia%Xu%coreGivesNoEmail%1,            Heng%Mei%coreGivesNoEmail%1,            Jianwei%Wang%coreGivesNoEmail%1,            Juan%Wang%coreGivesNoEmail%1,            Jue%Wang%coreGivesNoEmail%1,            Juntao%Yang%coreGivesNoEmail%1,            Li%Zeng%coreGivesNoEmail%1,            Lifeng%Chen%coreGivesNoEmail%1,            Lili%Ren%coreGivesNoEmail%1,            Ling%Li%coreGivesNoEmail%1,            Linqi%Zhang%coreGivesNoEmail%1,            Nian%Xiong%coreGivesNoEmail%1,            Ning%Man%coreGivesNoEmail%1,            Qing%Wei%coreGivesNoEmail%1,            Ru%Yang%coreGivesNoEmail%1,            Shangen%Zheng%coreGivesNoEmail%1,            Shisheng%Su%coreGivesNoEmail%1,            Wei%Zhang%coreGivesNoEmail%1,            Xiaoxiong%Wu%coreGivesNoEmail%1,            Xuejun%Zhang%coreGivesNoEmail%1,            Xunliang%Tong%coreGivesNoEmail%1,            Yanyun%Wu%coreGivesNoEmail%1,            Yong%Guo%coreGivesNoEmail%1,            Yongpei%Yu%coreGivesNoEmail%1,            Yu%Hu%coreGivesNoEmail%1,            Yu%Liu%coreGivesNoEmail%1,            Yujie%Kong%coreGivesNoEmail%1,            Zhihua%Xu%coreGivesNoEmail%1,            Zhong%Liu%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Ivan F.N.%Hung%null%1,               Kelvin K.W.%To%null%1,               Cheuk-Kwong%Lee%null%1,               Kar-Lung%Lee%null%1,               Wing-Wa%Yan%null%1,               Kenny%Chan%null%1,               Wai-Ming%Chan%null%1,               Chun-Wai%Ngai%null%1,               Kin-Ip%Law%null%1,               Fu-Loi%Chow%null%1,               Raymond%Liu%null%1,               Kang-Yiu%Lai%null%1,               Candy C.Y.%Lau%null%1,               Shao-Haei%Liu%null%1,               Kwok-Hung%Chan%null%0,               Che-Kit%Lin%null%1,               Kwok-Yung%Yuen%null%0,              Ivan F.N.%Hung%null%1,              Kelvin K.W.%To%null%1,              Cheuk-Kwong%Lee%null%2,              Kar-Lung%Lee%null%2,              Wing-Wa%Yan%null%1,              Kenny%Chan%null%2,              Wai-Ming%Chan%null%2,              Chun-Wai%Ngai%null%1,              Kin-Ip%Law%null%1,              Fu-Loi%Chow%null%2,              Raymond%Liu%null%2,              Kang-Yiu%Lai%null%2,              Candy C.Y.%Lau%null%1,              Shao-Haei%Liu%null%2,              Kwok-Hung%Chan%null%3,              Che-Kit%Lin%null%2,              Kwok-Yung%Yuen%null%0]</t>
+  </si>
+  <si>
+    <t>[Arvind%Gharbharan%NULL%1,              Carlijn C. E.%Jordans%NULL%1,              Corine%GeurtsvanKessel%NULL%1,              Jan G.%den Hollander%NULL%2,              Jan G.%den Hollander%NULL%0,              Faiz%Karim%NULL%1,              Femke P. N.%Mollema%NULL%1,              Janneke E.%Stalenhoef – Schukken%NULL%1,              Anthonius%Dofferhoff%NULL%2,              Anthonius%Dofferhoff%NULL%0,              Inge%Ludwig%NULL%1,              Adrianus%Koster%NULL%1,              Robert-Jan%Hassing%NULL%1,              Jeannet C.%Bos%NULL%1,              Geert R.%van Pottelberge%NULL%1,              Imro N.%Vlasveld%NULL%1,              Heidi S. M.%Ammerlaan%NULL%1,              Elena M.%van Leeuwen – Segarceanu%NULL%1,              Jelle%Miedema%NULL%1,              Menno%van der Eerden%NULL%1,              Thijs J.%Schrama%NULL%1,              Grigorios%Papageorgiou%NULL%2,              Grigorios%Papageorgiou%NULL%0,              Peter%te Boekhorst%NULL%1,              Francis H.%Swaneveld%NULL%1,              Yvonne M.%Mueller%NULL%1,              Marco W. J.%Schreurs%NULL%2,              Marco W. J.%Schreurs%NULL%0,              Jeroen J. A.%van Kampen%NULL%1,              Barry%Rockx%NULL%1,              Nisreen M. A.%Okba%NULL%2,              Nisreen M. A.%Okba%NULL%0,              Peter D.%Katsikis%NULL%2,              Peter D.%Katsikis%NULL%0,              Marion P. G.%Koopmans%NULL%2,              Marion P. G.%Koopmans%NULL%0,              Bart L.%Haagmans%NULL%2,              Bart L.%Haagmans%NULL%0,              Casper%Rokx%c.rokx@erasmusmc.nl%2,              Casper%Rokx%c.rokx@erasmusmc.nl%0,              Bart J. A.%Rijnders%NULL%2,              Bart J. A.%Rijnders%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gordin%Fred M.%coreGivesNoEmail%1,            INSIGHT%FLU005 IVIG Pilot Study Group.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alcam\u00ed%Jos\u00e9%coreGivesNoEmail%1,            Avenda\u00f1o-Sol\u00e1%Cristina%coreGivesNoEmail%1,            Blanco%Lydia%coreGivesNoEmail%1,            Bueno%Jose L%coreGivesNoEmail%1,            Calder\u00f3n-Parra%Jorge%coreGivesNoEmail%1,            Casas-Flecha%Inmaculada%coreGivesNoEmail%1,            ConPlas-19%Study Group%coreGivesNoEmail%1,            de%Oteyza Jaime P\u00e9rez%coreGivesNoEmail%1,            Duarte%Rafael F%coreGivesNoEmail%1,            D\u00edaz%de Santiago Alberto%coreGivesNoEmail%1,            Fern\u00e1ndez-Cruz%Ana%coreGivesNoEmail%1,            Garcia-Perez%Javier%coreGivesNoEmail%1,            Jarilla-Fern\u00e1ndez%Maria C%coreGivesNoEmail%1,            Lora-Tamayo%Jaime%coreGivesNoEmail%1,            Madrigal-S\u00e1nchez%Maria E%coreGivesNoEmail%1,            Malo%de Molina Rosa%coreGivesNoEmail%1,            Manche\u00f1o-Losa%Mikel%coreGivesNoEmail%1,            Mart\u00ednez-Gonz\u00e1lez%A L%coreGivesNoEmail%1,            Moreno-Chulilla%J A%coreGivesNoEmail%1,            Mu\u00f1ez-Rubio%Elena%coreGivesNoEmail%1,            Mu\u00f1iz-D\u00edaz%Eduardo%coreGivesNoEmail%1,            Nu\u00f1ez-Orantos%Maria J%coreGivesNoEmail%1,            Paciello%Maria L%coreGivesNoEmail%1,            Payares-Herrera%Concepcion%coreGivesNoEmail%1,            Pa\u00f1o-Pardo%Jos\u00e9 R%coreGivesNoEmail%1,            Perez-Olmeda%Mayte%coreGivesNoEmail%1,            Pintos%Ilduara%coreGivesNoEmail%1,            Porras-Leal%Maria L%coreGivesNoEmail%1,            Ramos-Garrido%Ascension%coreGivesNoEmail%1,            Ramos-Mart\u00ednez%Antonio%coreGivesNoEmail%1,            Romera-Mart\u00ednez%Irene%coreGivesNoEmail%1,            Rubio-Batll\u00e9s%Martin%coreGivesNoEmail%1,            Ruiz-Antor\u00e1n%Belen%coreGivesNoEmail%1,            Saez-Serrano%Maria Isabel%coreGivesNoEmail%1,            Torres%Ferran%coreGivesNoEmail%1,            Velasco-Iglesias%Ana%coreGivesNoEmail%1,            Vid\u00e1n-Est\u00e9vez%Julia%coreGivesNoEmail%1,            Villares%Paula%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Agarwal%NULL%1,              Aparna%Mukherjee%NULL%2,              Gunjan%Kumar%NULL%3,              Gunjan%Kumar%NULL%0,              Pranab%Chatterjee%NULL%2,              Tarun%Bhatnagar%NULL%2,              Pankaj%Malhotra%NULL%2,              NULL%NULL%NULL%0,              NULL%NULL%NULL%0,              Anup%Agarwal%NULL%1,              Aparna%Mukherjee%NULL%0,              Gunjan%Kumar%NULL%0,              Pranab%Chatterjee%NULL%0,              Tarun%Bhatnagar%NULL%0,              Pankaj%Malhotra%NULL%0,              B%Latha%NULL%1,              Sunita%Bundas%NULL%1,              Vivek%Kumar%NULL%2,              Ravi%Dosi%NULL%1,              Janak Kumar%Khambholja%NULL%1,              Rosemarie%de Souza%NULL%1,              Raja Rao%Mesipogu%NULL%1,              Saurabh%Srivastava%NULL%1,              Simmi%Dube%NULL%1,              Kiran%Chaudhary%NULL%1,              S%Subash%NULL%1,              S%Anbuselvi%NULL%1,              V%Rajendran%NULL%1,              A%Sundararajaperumal%NULL%1,              P%Balamanikandan%NULL%1,              R S Uma%Maheswari%NULL%1,              R%Jayanthi%NULL%1,              S%Ragunanthanan%NULL%1,              Sudhir%Bhandari%NULL%1,              Ajeet%Singh%NULL%1,              Ashok%Pal%NULL%1,              Anjali%Handa%NULL%1,              Govind%Rankawat%NULL%1,              Ketan%Kargirwar%NULL%1,              Joyce%Regi%NULL%1,              Darshana%Rathod%NULL%1,              Edwin%Pathrose%NULL%1,              Nirankar%Bhutaka%NULL%1,              Mayur H%Patel%NULL%1,              Rahul J%Verma%NULL%1,              Kamal%Malukani%NULL%1,              Shivani%Patel%NULL%1,              Apurv%Thakur%NULL%1,              Satish%Joshi%NULL%1,              Rashmi%Kulkarni%NULL%1,              Nilay N%Suthar%NULL%1,              Nehal M%Shah%NULL%1,              Hemang M%Purohit%NULL%1,              Cherry K%Shah%NULL%1,              Monila N%Patel%NULL%1,              Saket%Shah%NULL%1,              Smit T%Shah%NULL%1,              Tehsim%Memon%NULL%1,              Vishal R%Beriwala%NULL%1,              Kusum%Jashnani%NULL%1,              Fatema%Ezzy%NULL%1,              Simran%Agrawal%NULL%1,              Rakesh%Bhadade%NULL%1,              MN%Atish%NULL%1,              Tushar%Madke%NULL%1,              Vikas%Kavishwar%NULL%1,              Ramesh%Waghmare%NULL%1,              Nitin%Valvi%NULL%1,              B Thrilok%Chander%NULL%1,              A Vinaya%Sekhar%NULL%1,              Akhilesh Kumar%Maurya%NULL%1,              K%Hemanth%NULL%1,              K%Nagamani%NULL%1,              K%Sudha%NULL%1,              T Ravi%Chandra%NULL%1,              K Tushara%Rao%NULL%1,              J%Vyshnavi%NULL%1,              Rashmi%Upadhyay%NULL%1,              Shalini%Bahadur%NULL%1,              Rambha%Pathak%NULL%1,              Shikha%Seth%NULL%1,              Rakesh%Gupta%NULL%1,              Rita%Saxena%NULL%1,              Preksha%Dwivedi%NULL%1,              Reeni%Malik%NULL%1,              Deepti%Chourasia%NULL%1,              Jaya%Lalwani%NULL%1,              UM%Sharma%NULL%1,              JL%Marko%NULL%1,              Amit%Suri%NULL%1,              Vijay%Kumar%NULL%1,              Rajnish%Kaushik%NULL%1,              Parul%Kodan%NULL%1,              Bhabani Prasad%Acharya%NULL%1,              Kuldeep Kumar%Gaur%NULL%1,              Anubhav%Gupta%NULL%1,              Prerna%Sachdeva%NULL%1,              Shruti%Dogra%NULL%1,              Aikaj%Jindal%NULL%1,              M Joseph%John%NULL%1,              Avtar Singh%Dhanju%NULL%1,              Ranjana%Khetrepal%NULL%1,              Neeraj%Sharma%NULL%1,              Neetu%Kukar%NULL%1,              Divya%Kavita%NULL%1,              Rajesh%Kumar%NULL%1,              Rajesh%Mahajan%NULL%1,              Gurpreet%Singh%NULL%1,              Jaspreet%Kaur%NULL%1,              Raminder Pal%Singh%NULL%1,              Rajni%Bassi%NULL%1,              Swapneil%Parikh%NULL%1,              Om%Shrivastav%NULL%1,              Jayanthi%Shastri%NULL%1,              Maherra%Desai%NULL%1,              Shreevatsa%Udupa%NULL%1,              Varun A%Bafna%NULL%1,              Vijay%Barge%NULL%1,              Rajendra%Madane%NULL%1,              Sheetal%Yadav%NULL%1,              Sanjeev%Misra%NULL%1,              Archana%Bajpayee%NULL%1,              M K%Garg%NULL%1,              G K%Bohra%NULL%1,              Vijaylakshmi%Nag%NULL%1,              Puneeth Babu%Anne%NULL%1,              Mohd%Nadeem%NULL%1,              Pallavi%Singh%NULL%1,              Ram%Niwas%NULL%1,              Niranjan Shiwaji%Khaire%NULL%1,              Rattiram%Sharma%NULL%1,              Mini P%Singh%NULL%1,              Naresh%Sachdeva%NULL%1,              Suchet%Sachdev%NULL%1,              Rekha%Hans%NULL%1,              Vikas%Suri%NULL%1,              LN%Yaddanapudi%NULL%1,              PVM%Lakshmi%NULL%1,              Neha%Singh%NULL%1,              Divendu%Bhushan%NULL%1,              Neeraj%Kumar%NULL%1,              Muralidhar%Tambe%NULL%1,              Sonali%Salvi%NULL%1,              Nalini%Kadgi%NULL%1,              Shashikala%Sangle%NULL%1,              Leena%Nakate%NULL%1,              Samir%Joshi%NULL%1,              Rajesh%Karyakarte%NULL%1,              Suraj%Goyanka%NULL%1,              Nimisha%Sharma%NULL%1,              Nikhil%Verma%NULL%1,              Asim%Das%NULL%1,              Monika%Bahl%NULL%1,              Nitya%Wadhwa%NULL%1,              Shreepad%Bhat%NULL%1,              Shweta%Deshmukh%NULL%1,              Vrushali%Wagh%NULL%1,              Atul%Kulkarni%NULL%1,              Tanvi%Yardi%NULL%1,              Ram S%Kalgud%NULL%1,              Purushottam%Reddy%NULL%1,              Kavitha%Yevoor%NULL%1,              Prashanth%Gajula%NULL%1,              Vivek%Maleyur%NULL%1,              S%Medini%NULL%1,              HN%Mohith%NULL%1,              Anil%Gurtoo%NULL%1,              Ritika%Sud%NULL%1,              Sangeeta%Pahuja%NULL%1,              Anupam%Prakash%NULL%1,              Parijat%Gogoi%NULL%1,              Shailja%Shukla%NULL%1,              D Himanshu%Reddy%NULL%1,              Tulika%Chandra%NULL%1,              Saurabh%Pandey%NULL%1,              Pradeep%Maurya%NULL%1,              Wahid%Ali%NULL%1,              Vivek%Kumar%NULL%0,              Kamlesh%Upadhyay%NULL%1,              Nidhi%Bhatnagar%NULL%1,              Nilima%Shah%NULL%1,              Mamta%Shah%NULL%1,              Tarak%Patel%NULL%1,              Ram Mohan%Jaiswal%NULL%1,              Ashish%Jain%NULL%1,              Shweta%Sharma%NULL%1,              Puneet%Rijhwani%NULL%1,              Naveen%Gupta%NULL%1,              Tinkal C%Patel%NULL%1,              Mahesh G%Solu%NULL%1,              Jitendra%Patel%NULL%1,              Yash R%Shah%NULL%1,              Mayur%Jarag%NULL%1,              Varsha%Godbole%NULL%1,              Meenakshi%Shah%NULL%1,              Rikin%Raj%NULL%1,              Irfan%Nagori%NULL%1,              Pramod R%Jha%NULL%1,              Arti D%Shah%NULL%1,              Gowtham%Yeeli%NULL%1,              Archit%Jain%NULL%1,              Rooppreet Kaur%Gill%NULL%1,              KV Sreedhar%Babu%NULL%1,              B Suresh%Babu%NULL%1,              Alladi%Mohan%NULL%1,              B%Vengamma%NULL%1,              K Chandra%Sekhar%NULL%1,              Srinivasulu%Damam%NULL%1,              K%Narsimhulu%NULL%1,              C%Aparna%NULL%1,              G%Baleswari%NULL%1,              K Ravindranath%Reddy%NULL%1,              P%Chandrasekhar%NULL%1,              Sunil Jodharam%Panjwani%NULL%1,              Pragnesh H%Shah%NULL%1,              Manish%Barvaliya%NULL%1,              Kairavi%Desai%NULL%1,              Pankaj J%Akholkar%NULL%1,              Milind%Baldi%NULL%1,              Ashok%Yadav%NULL%1,              Manoj%Gupta%NULL%1,              Nitin%Rawat%NULL%1,              Dilip%Chawda%NULL%1,              M%Natarajan%NULL%1,              M%Sintha%NULL%1,              David Pradeep%Kumar%NULL%1,              Fathhur%Rabbani%NULL%1,              Vrushali Khirid%Khadke%NULL%1,              Dattatray%Patki%NULL%1,              Sonali%Marathe%NULL%1,              Clyde%D’Souza%NULL%1,              Vipul%Tadha%NULL%1,              Satyam%Arora%NULL%1,              Devendra Kumar%Gupta%NULL%1,              Seema%Dua%NULL%1,              Nitu%Chauhan%NULL%1,              Ajeet Singh%Chahar%NULL%1,              Joy John%Mammen%NULL%1,              Snehil%Kumar%NULL%1,              Dolly%Daniel%NULL%1,              Ravindraa%Singh%NULL%1,              Venkatesh%Dhat%NULL%1,              Yogesh%Agarwal%NULL%1,              Sohini%Arora%NULL%1,              Ashish%Pathak%NULL%1,              Manju%Purohit%NULL%1,              Ashish%Sharma%NULL%1,              Jayashree%Sharma%NULL%1,              Manisha%Madkaikar%NULL%1,              Kavita%Joshi%NULL%1,              Reetika Malik%Yadav%NULL%1,              Swarupa%Bhagwat%NULL%1,              Niteen D%Karnik%NULL%1,              Yojana A%Gokhale%NULL%1,              Leena%Naik%NULL%1,              Sangita%Margam%NULL%1,              Santasabuj%Das%NULL%1,              Alka%Turuk%NULL%1,              V Saravana%Kumar%NULL%1,              K%Kanagasabai%NULL%1,              R%Sabarinathan%NULL%1,              Gururaj%Deshpande%NULL%1,              Sharda%Sharma%NULL%1,              Rashmi%Gunjikar%NULL%1,              Anita%Shete%NULL%1,              Darpan%Phagiwala%NULL%1,              Chetan%Patil%NULL%1,              Snehal%Shingade%NULL%1,              Kajal%Jarande%NULL%1,              Himanshu%Kaushal%NULL%1,              Pragya%Yadav%NULL%1,              Gajanan%Sapkal%NULL%1,              Priya%Abraham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan FN%Hung%NULL%1,              Kelvin KW%To%NULL%1,              Cheuk-Kwong%Lee%NULL%0,              Kar-Lung%Lee%NULL%0,              Kenny%Chan%NULL%0,              Wing-Wah%Yan%NULL%1,              Raymond%Liu%NULL%0,              Chi-Leung%Watt%NULL%1,              Wai-Ming%Chan%NULL%0,              Kang-Yiu%Lai%NULL%0,              Chi-Kwan%Koo%NULL%1,              Tom%Buckley%NULL%1,              Fu-Loi%Chow%NULL%0,              Kwan-Keung%Wong%NULL%1,              Hok-Sum%Chan%NULL%1,              Chi-Keung%Ching%NULL%1,              Bone SF%Tang%NULL%1,              Candy CY%Lau%NULL%1,              Iris WS%Li%NULL%1,              Shao-Haei%Liu%NULL%0,              Kwok-Hung%Chan%NULL%0,              Che-Kit%Lin%NULL%0,              Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y. O. Y.%Soo%NULL%1,              Y.%Cheng%NULL%1,              R.%Wong%NULL%2,              D. S.%Hui%NULL%1,              C. K.%Lee%NULL%2,              K. K. S.%Tsang%NULL%1,              M. H. L.%Ng%NULL%2,              P.%Chan%NULL%2,              G.%Cheng%NULL%2,              J. J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Johan%van Griensven%xref no email%1,        Tansy%Edwards%xref no email%1,        Xavier%de Lamballerie%xref no email%1,        Malcolm G.%Semple%xref no email%1,        Pierre%Gallian%xref no email%1,        Sylvain%Baize%xref no email%1,        Peter W.%Horby%xref no email%1,        Herv\u00e9%Raoul%xref no email%1,        N\u2019Faly%Magassouba%xref no email%1,        Annick%Antierens%xref no email%1,        Carolyn%Lomas%xref no email%1,        Ousmane%Faye%xref no email%1,        Amadou A.%Sall%xref no email%1,        Katrien%Fransen%xref no email%1,        Jozefien%Buyze%xref no email%1,        Raffaella%Ravinetto%xref no email%1,        Pierre%Tiberghien%xref no email%1,        Yves%Claeys%xref no email%1,        Maaike%De Crop%xref no email%1,        Lutgarde%Lynen%xref no email%1,        Elhadj Ibrahima%Bah%xref no email%1,        Peter G.%Smith%xref no email%1,        Alexandre%Delamou%xref no email%1,        Anja%De Weggheleire%xref no email%1,        Nyankoye%Haba%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hongjie%Yu%NULL%1,              Zhancheng%Gao%NULL%0,              Zijian%Feng%NULL%2,              Yuelong%Shu%NULL%1,              Nijuan%Xiang%NULL%2,              Lei%Zhou%NULL%2,              Yang%Huai%NULL%1,              Luzhao%Feng%NULL%0,              Zhibin%Peng%NULL%1,              Zhongjie%Li%NULL%1,              Cuiling%Xu%NULL%1,              Junhua%Li%NULL%0,              Chengping%Hu%NULL%1,              Qun%Li%NULL%1,              Xiaoling%Xu%NULL%1,              Xuecheng%Liu%NULL%1,              Zigui%Liu%NULL%1,              Longshan%Xu%NULL%1,              Yusheng%Chen%NULL%1,              Huiming%Luo%NULL%1,              Liping%Wei%NULL%1,              Xianfeng%Zhang%NULL%1,              Jianbao%Xin%NULL%1,              Junqiao%Guo%NULL%1,              Qiuyue%Wang%NULL%1,              Zhengan%Yuan%NULL%1,              Longnv%Zhou%NULL%1,              Kunzhao%Zhang%NULL%1,              Wei%Zhang%NULL%0,              Jinye%Yang%NULL%1,              Xiaoning%Zhong%NULL%1,              Shichang%Xia%NULL%1,              Lanjuan%Li%NULL%0,              Jinquan%Cheng%NULL%1,              Erdang%Ma%NULL%1,              Pingping%He%NULL%1,              Shui Shan%Lee%NULL%1,              Yu%Wang%NULL%3,              Timothy M.%Uyeki%NULL%0,              Weizhong%Yang%NULL%1,              Joel Mark%Montgomery%NULL%0,              Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C. W.%ROSS%xref no email%1,        ERWIN J.%HUND%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[W. W. G.%MACLACHLAN%xref no email%1,        W. J.%FETTER%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Y.%Cheng%NULL%1,              R.%Wong%NULL%0,              Y. O. Y.%Soo%NULL%1,              W. S.%Wong%NULL%1,              C. K.%Lee%NULL%0,              M. H. L.%Ng%NULL%0,              P.%Chan%NULL%0,              K. C.%Wong%NULL%1,              C. B.%Leung%NULL%1,              G.%Cheng%gcheng@cuhk.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[L. W.%McGUIRE%xref no email%1,        W. R.%REDDEN%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kai%Duan%NULL%1,              Bende%Liu%NULL%2,              Bende%Liu%NULL%0,              Cesheng%Li%NULL%1,              Huajun%Zhang%NULL%1,              Ting%Yu%NULL%0,              Ting%Yu%NULL%0,              Jieming%Qu%NULL%0,              Min%Zhou%NULL%0,              Min%Zhou%NULL%0,              Li%Chen%NULL%3,              Li%Chen%NULL%0,              Shengli%Meng%NULL%2,              Shengli%Meng%NULL%0,              Yong%Hu%NULL%1,              Cheng%Peng%NULL%1,              Mingchao%Yuan%NULL%1,              Jinyan%Huang%NULL%1,              Zejun%Wang%NULL%2,              Zejun%Wang%NULL%0,              Jianhong%Yu%NULL%1,              Xiaoxiao%Gao%NULL%1,              Dan%Wang%NULL%1,              Xiaoqi%Yu%NULL%1,              Li%Li%NULL%0,              Li%Li%NULL%0,              Jiayou%Zhang%NULL%2,              Jiayou%Zhang%NULL%0,              Xiao%Wu%NULL%1,              Bei%Li%NULL%1,              Yanping%Xu%NULL%1,              Wei%Chen%NULL%0,              Wei%Chen%NULL%0,              Yan%Peng%NULL%1,              Yeqin%Hu%NULL%1,              Lianzhen%Lin%NULL%1,              Xuefei%Liu%NULL%1,              Shihe%Huang%NULL%1,              Zhijun%Zhou%NULL%1,              Lianghao%Zhang%NULL%1,              Yue%Wang%NULL%1,              Zhi%Zhang%NULL%1,              Kun%Deng%NULL%1,              Zhiwu%Xia%NULL%1,              Qin%Gong%NULL%1,              Wei%Zhang%NULL%0,              Xiaobei%Zheng%NULL%1,              Ying%Liu%NULL%0,              Huichuan%Yang%NULL%1,              Dongbo%Zhou%NULL%1,              Ding%Yu%NULL%1,              Jifeng%Hou%NULL%1,              Zhengli%Shi%NULL%0,              Saijuan%Chen%NULL%1,              Zhu%Chen%NULL%1,              Xinxin%Zhang%NULL%0,              Xiaoming%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[F.%Sahr%NULL%1,              R.%Ansumana%rashidansumana@gmail.com%1,              T.A.%Massaquoi%NULL%1,              B.R.%Idriss%NULL%1,              F.R.%Sesay%NULL%1,              J.M.%Lamin%NULL%1,              S.%Baker%NULL%1,              S.%Nicol%NULL%1,              B.%Conton%NULL%1,              W.%Johnson%NULL%1,              O.T.%Abiri%NULL%1,              O.%Kargbo%NULL%1,              P.%Kamara%NULL%1,              A.%Goba%NULL%1,              J.B.W.%Russell%NULL%1,              S.M.%Gevao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qing-Lei%Zeng%zengqinglei2009@163.com%1,              Zu-Jiang%Yu%NULL%1,              Jian-Jun%Gou%NULL%1,              Guang-Ming%Li%NULL%1,              Shu-Huan%Ma%NULL%1,              Guo-Fan%Zhang%NULL%1,              Jiang-Hai%Xu%NULL%1,              Wan-Bao%Lin%NULL%1,              Guang-Lin%Cui%NULL%1,              Min-Min%Zhang%NULL%1,              Cheng%Li%NULL%1,              Ze-Shuai%Wang%NULL%1,              Zhi-Hao%Zhang%NULL%1,              Zhang-Suo%Liu%zengqinglei2009@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hassan%Abolghasemi%NULL%1,              Peyman%Eshghi%NULL%1,              Abdol Majid%Cheraghali%NULL%1,              Abbas Ali%Imani Fooladi%NULL%1,              Farzaneh%Bolouki Moghaddam%NULL%1,              Sina%Imanizadeh%NULL%1,              Matin%Moeini Maleki%NULL%1,              Mohammad%Ranjkesh%NULL%1,              Mohammad%Rezapour%NULL%1,              Ali%Bahramifar%NULL%1,              Behzad%Einollahi%NULL%1,              Mohammad Javad%Hosseini%NULL%1,              Nematollah Joneidi%Jafari%NULL%1,              Mohamad%Nikpouraghdam%NULL%1,              Nariman%Sadri%NULL%1,              Mokhtar%Tazik%NULL%1,              Shanaz%Sali%NULL%1,              Shamsi%Okati%NULL%1,              Elham%Askari%NULL%1,              Payam%Tabarsi%NULL%1,              Jafar%Aslani%NULL%1,              Ehsan%Sharifipour%NULL%1,              Mohammad Hossein%Jarahzadeh%NULL%1,              Nastaran%Khodakarim%NULL%1,              Mahmood%Salesi%NULL%1,              Ramezan%Jafari%NULL%1,              Samira%Shahverdi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1592,7 +1652,7 @@
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="F2" t="s">
         <v>41</v>
@@ -1621,7 +1681,7 @@
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="F3" t="s">
         <v>47</v>
@@ -1650,7 +1710,7 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1679,7 +1739,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -1708,7 +1768,7 @@
         <v>291</v>
       </c>
       <c r="E6" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -1737,7 +1797,7 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -1766,7 +1826,7 @@
         <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -1795,7 +1855,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -1824,7 +1884,7 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="F10" t="s">
         <v>68</v>
@@ -1853,7 +1913,7 @@
         <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="F11" t="s">
         <v>73</v>
@@ -1882,7 +1942,7 @@
         <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -1940,7 +2000,7 @@
         <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="F14" t="s">
         <v>77</v>
@@ -2027,7 +2087,7 @@
         <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -2085,7 +2145,7 @@
         <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="F19" t="s">
         <v>20</v>
@@ -2114,7 +2174,7 @@
         <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="F20" t="s">
         <v>82</v>
@@ -2143,7 +2203,7 @@
         <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="F21" t="s">
         <v>22</v>
@@ -2172,7 +2232,7 @@
         <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="F22" t="s">
         <v>86</v>
@@ -2201,7 +2261,7 @@
         <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="F23" t="s">
         <v>90</v>
@@ -2230,7 +2290,7 @@
         <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="F24" t="s">
         <v>95</v>
@@ -2259,7 +2319,7 @@
         <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="F25" t="s">
         <v>99</v>

--- a/Covid_19_Dataset_and_References/References/26.xlsx
+++ b/Covid_19_Dataset_and_References/References/26.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2652" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3002" uniqueCount="408">
   <si>
     <t xml:space="preserve">Doi </t>
   </si>
@@ -1275,6 +1275,126 @@
   </si>
   <si>
     <t>[Hassan%Abolghasemi%NULL%1,              Peyman%Eshghi%NULL%1,              Abdol Majid%Cheraghali%NULL%1,              Abbas Ali%Imani Fooladi%NULL%1,              Farzaneh%Bolouki Moghaddam%NULL%1,              Sina%Imanizadeh%NULL%1,              Matin%Moeini Maleki%NULL%1,              Mohammad%Ranjkesh%NULL%1,              Mohammad%Rezapour%NULL%1,              Ali%Bahramifar%NULL%1,              Behzad%Einollahi%NULL%1,              Mohammad Javad%Hosseini%NULL%1,              Nematollah Joneidi%Jafari%NULL%1,              Mohamad%Nikpouraghdam%NULL%1,              Nariman%Sadri%NULL%1,              Mokhtar%Tazik%NULL%1,              Shanaz%Sali%NULL%1,              Shamsi%Okati%NULL%1,              Elham%Askari%NULL%1,              Payam%Tabarsi%NULL%1,              Jafar%Aslani%NULL%1,              Ehsan%Sharifipour%NULL%1,              Mohammad Hossein%Jarahzadeh%NULL%1,              Nastaran%Khodakarim%NULL%1,              Mahmood%Salesi%NULL%1,              Ramezan%Jafari%NULL%1,              Samira%Shahverdi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[John H%Beigel%jbeigel@niaid.nih.gov%1,               Pablo%Tebas%NULL%4,               Marie-Carmelle%Elie-Turenne%NULL%4,               Ednan%Bajwa%NULL%2,               Todd E%Bell%NULL%2,               Charles B%Cairns%NULL%2,               Shmuel%Shoham%NULL%3,               Jaime G%Deville%NULL%2,               Eric%Feucht%NULL%2,               Judith%Feinberg%NULL%2,               Thomas%Luke%NULL%1,               Kanakatte%Raviprakash%NULL%3,               Janine%Danko%NULL%2,               Dorothy%O'Neil%NULL%1,               Julia A%Metcalf%NULL%1,               Karen%King%NULL%1,               Timothy H%Burgess%NULL%1,               Evgenia%Aga%NULL%3,               H Clifford%Lane%NULL%2,               Michael D%Hughes%NULL%3,               Richard T%Davey%NULL%3,               Pablo%Tebas%NULL%0,               Joseph%Quinn%NULL%1,               Yan%Jiang%NULL%1,               Marie-Carmelle%Elie-Turenne%NULL%0,               Robyn%Hoelle%NULL%1,               Nicole%Iovine%NULL%1,               Robert Shawn%Wills%NULL%1,               Socorro%Pata%NULL%1,               Monique%Huggins%NULL%1,               Belinda%Manukian%NULL%1,               Ednan%Bajwa%NULL%0,               Carrie%Holland%NULL%1,               Kelsey%Brait%NULL%1,               Taylor%Hunt%NULL%1,               Christopher%Stowell%NULL%1,               Amy%Slater%NULL%1,               Todd E%Bell%NULL%0,               Mary%Townsends%NULL%1,               Charles B%Cairns%NULL%0,               Eugenia B%Quackenbush%NULL%1,               Yara A%Park%NULL%1,               Paul Gaither%Jordan%NULL%1,               Cherie%Blanchet%NULL%1,               Kevin%Chronowski%NULL%1,               Kathleen%Alvarez%NULL%1,               Shmuel%Shoham%NULL%0,               Darin%Ostrander%NULL%1,               Terry%Woessner%NULL%1,               Sandra%Thoman%NULL%1,               Jaime G%Deville%NULL%0,               James%Lin%NULL%1,               Alyssa%Ziman%NULL%1,               Kavita%Shankar%NULL%1,               Eric%Feucht%NULL%0,               Tom%Blok%NULL%1,               Don%Batts%NULL%1,               Bob%Beck%NULL%1,               Gail%Massey%NULL%1,               Carol%Bradley%NULL%1,               Judith%Feinberg%NULL%0,               Patricia%Carey%NULL%1,               Jenifer%Baer%NULL%1,               Eva Moore%Whitehead%NULL%1,               Sharon%Kohrs%NULL%1,               Robert%Giulitto%NULL%1,               Christina%Schofield%NULL%2,               Mary%Fairchok%NULL%1,               Susan%Chambers%NULL%1,               Cindy%Baker%NULL%1,               NULL%RN%NULL%1,               Michelle%Parker%NULL%1,               Marta%Harshbarger%NULL%1,               M Hong%Nguyen%NULL%1,               Mary Ellen%Carey%NULL%1,               Julie%Paronish%NULL%1,               Frank%Cornell%NULL%1,               Jim%Cramer%NULL%1,               Diana Lynn%Pakstis%NULL%1,               Michael G%Ison%NULL%1,               Richard%Wunderink%NULL%1,               Marshall%Glesby%NULL%1,               Kirsis%Ham%NULL%1,               Valery%Hughes%NULL%1,               Melissa%Cushing%NULL%0,               Cheryl%Goss%NULL%1,               Joanne%Grenade%NULL%1,               Pauline K%Park%NULL%1,               Lena M%Napolitano%NULL%1,               Krishnan%Raghavendran%NULL%1,               Robert C%Hyzy%NULL%1,               Robertson%Davenport%NULL%1,               Kristin%Brierley%NULL%1,               Theresa%Downs%NULL%1,               Michelle Ng%Gong%NULL%1,               Joan%Uehlinger%NULL%1,               Michael%Lin%NULL%2,               Janice%Fritsche%NULL%1,               Tondria%Green%NULL%1,               Bruce%McLeod%NULL%1,               Deena%Patel%NULL%1,               Mary F%Bavaro%NULL%1,               Robert%Deiss%NULL%1,               Carolyn%Brandt%NULL%1,               Stephanie%Cammarata%NULL%1,               Allan%Kremp%NULL%1,               Karine%Hollis-Perry%NULL%1,               Tahaniyat%Lalani%NULL%1,               Susan%Banks%NULL%1,               Jacqueline%Johnson%NULL%1,               Jason%Maguire%NULL%1,               Janet%McNiff%NULL%1,               Leslie E%Rigg%NULL%1,               Anuradha%Ganesan%NULL%1,               Irma%Barahona%NULL%1,               Janine%Danko%NULL%0,               Steven%Spencer%NULL%1,               David%Stagliano%NULL%1,               Timothy%Burgess%NULL%1,               Daniel%Talmor%NULL%1,               Monique%Mohammed%NULL%1,               Valerie%Banner-Goodspeed%NULL%1,               Robert%Salata%NULL%1,               Robert%Finberg%NULL%2,               Jennifer%Wang%NULL%1,               Karen%Longtine%NULL%1,               Jaclyn%Longtine%NULL%1,               Mellissa%O'Neil%NULL%1,               Philippe R%Bauer%NULL%1,               Ognjen%Gajic%NULL%1,               Suanne M%Weist%NULL%1,               Jonathan%Sevransky%NULL%1,               Mona%Brown%NULL%1,               John%Roback%NULL%1,               John%Oropello%NULL%1,               Bridget%Twohig%NULL%1,               Jeffrey%Jhang%NULL%1,               Rahgu%Seethala%NULL%1,               Wilbur H%Chen%NULL%1,               Magali%Fontaine%NULL%1,               Kapil%Saharia%NULL%1,               Jennifer%Husson%NULL%1,               Roberta%DeBiasi%NULL%1,               Jurran L%Wilson%NULL%1,               Valli Ree%Criss%NULL%1,               Jocelyn%Voell%NULL%1,               Susan%Leitman%NULL%1,               James Wade%Atkins%NULL%1,               Hemaxi%Patel%NULL%1,               Traci%Paige%NULL%1,               Cathy%Cantilena%NULL%1,               Donald%Siegel%NULL%1,               Faye%DeMuth%NULL%1,               Craig H%Fletcher%NULL%1,               J Peter R%Pelletier%NULL%1,               Hassan%Alnuaimat%NULL%1,               Michelle%Pourde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ John H%Beigel%null%1,                Evgenia%Aga%null%2,                Marie-Carmelle%Elie-Turenne%null%2,                Josalyn%Cho%null%2,                Pablo%Tebas%null%2,                Carol L%Clark%null%2,                Jordan P%Metcalf%null%2,                Caroline%Ozment%null%2,                Kanakatte%Raviprakash%null%2,                Joy%Beeler%null%2,                H Preston%Holley%null%1,                Stephanie%Warner%null%2,                Carla%Chorley%null%2,                H Clifford%Lane%null%1,                Michael D%Hughes%null%2,                Richard T%Davey%null%2,                John H%Beigel%null%1,                Evgenia%Aga%null%0,                Marie-Carmelle%Elie-Turenne%null%0,                Josalyn%Cho%null%0,                Pablo%Tebas%null%0,                Carol L%Clark%null%0,                Jordan P%Metcalf%null%0,                Caroline%Ozment%null%0,                Kanakatte%Raviprakash%null%0,                Joy%Beeler%null%0,                H. Preston%Holley%null%1,                Stephanie%Warner%null%0,                Carla%Chorley%null%0,                H. Clifford%Lane%null%1,                Michael D%Hughes%null%0,                Richard T%Davey%null%0,                Michelle%Barron%null%1,                Aveh%Bastani%null%1,                Philippe%Bauer%null%1,                William%Borkowsky%null%1,                Charles%Cairns%null%1,                Jaime%Deville%null%1,                Marie-Carmelle%Elie%null%1,                Carl%Fichtenbaum%null%1,                Robert%Finberg%null%1,                Mamta%Jain%null%1,                David%Kaufman%null%1,                Michael%Lin%null%1,                John%Lin%null%1,                Ryan%Maves%null%1,                Lee%Morrow%null%1,                Minh-Hong%Nguyen%null%1,                Pauline%Park%null%1,                Christopher%Polk%null%1,                Adrienne%Randolph%null%1,                Suchitra%Rao%null%1,                Lewis%Rubinson%null%1,                Christina%Schofield%null%1,                Shmuel%Shoham%null%1,                Erika%Stalets%null%1,                Renee D%Stapleton%null%1,               John H%Beigel%null%2,               Evgenia%Aga%null%0,               Marie-Carmelle%Elie-Turenne%null%0,               Josalyn%Cho%null%2,               Pablo%Tebas%null%0,               Carol L%Clark%null%2,               Jordan P%Metcalf%null%2,               Caroline%Ozment%null%2,               Kanakatte%Raviprakash%null%0,               Joy%Beeler%null%2,               H Preston%Holley%null%1,               Stephanie%Warner%null%2,               Carla%Chorley%null%2,               H Clifford%Lane%null%0,               Michael D%Hughes%null%0,               Richard T%Davey%null%0,               John H%Beigel%null%0,               Evgenia%Aga%null%0,               Marie-Carmelle%Elie-Turenne%null%0,               Josalyn%Cho%null%0,               Pablo%Tebas%null%0,               Carol L%Clark%null%0,               Jordan P%Metcalf%null%0,               Caroline%Ozment%null%0,               Kanakatte%Raviprakash%null%0,               Joy%Beeler%null%0,               H. Preston%Holley%null%1,               Stephanie%Warner%null%0,               Carla%Chorley%null%0,               H. Clifford%Lane%null%1,               Michael D%Hughes%null%0,               Richard T%Davey%null%0,               Michelle%Barron%null%1,               Aveh%Bastani%null%1,               Philippe%Bauer%null%1,               William%Borkowsky%null%1,               Charles%Cairns%null%1,               Jaime%Deville%null%1,               Marie-Carmelle%Elie%null%1,               Carl%Fichtenbaum%null%1,               Robert%Finberg%null%0,               Mamta%Jain%null%1,               David%Kaufman%null%1,               Michael%Lin%null%0,               John%Lin%null%1,               Ryan%Maves%null%1,               Lee%Morrow%null%1,               Minh-Hong%Nguyen%null%1,               Pauline%Park%null%1,               Christopher%Polk%null%1,               Adrienne%Randolph%null%1,               Suchitra%Rao%null%1,               Lewis%Rubinson%null%1,               Christina%Schofield%null%0,               Shmuel%Shoham%null%0,               Erika%Stalets%null%1,               Renee D%Stapleton%null%1]</t>
+  </si>
+  <si>
+    <t>[Caiying%Hu%coreGivesNoEmail%1,             Chenyue%Li%coreGivesNoEmail%1,             Conghui%Wang%coreGivesNoEmail%1,             Cuihua%Tao%coreGivesNoEmail%1,             E.%Deng%coreGivesNoEmail%1,             Haixia%Xu%coreGivesNoEmail%1,             Heng%Mei%coreGivesNoEmail%1,             Jianwei%Wang%coreGivesNoEmail%1,             Juan%Wang%coreGivesNoEmail%1,             Jue%Wang%coreGivesNoEmail%1,             Juntao%Yang%coreGivesNoEmail%1,             Li%Zeng%coreGivesNoEmail%1,             Lifeng%Chen%coreGivesNoEmail%1,             Lili%Ren%coreGivesNoEmail%1,             Ling%Li%coreGivesNoEmail%1,             Linqi%Zhang%coreGivesNoEmail%1,             Nian%Xiong%coreGivesNoEmail%1,             Ning%Man%coreGivesNoEmail%1,             Qing%Wei%coreGivesNoEmail%1,             Ru%Yang%coreGivesNoEmail%1,             Shangen%Zheng%coreGivesNoEmail%1,             Shisheng%Su%coreGivesNoEmail%1,             Wei%Zhang%coreGivesNoEmail%1,             Xiaoxiong%Wu%coreGivesNoEmail%1,             Xuejun%Zhang%coreGivesNoEmail%1,             Xunliang%Tong%coreGivesNoEmail%1,             Yanyun%Wu%coreGivesNoEmail%1,             Yong%Guo%coreGivesNoEmail%1,             Yongpei%Yu%coreGivesNoEmail%1,             Yu%Hu%coreGivesNoEmail%1,             Yu%Liu%coreGivesNoEmail%1,             Yujie%Kong%coreGivesNoEmail%1,             Zhihua%Xu%coreGivesNoEmail%1,             Zhong%Liu%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Ivan F.N.%Hung%null%1,                Kelvin K.W.%To%null%1,                Cheuk-Kwong%Lee%null%1,                Kar-Lung%Lee%null%1,                Wing-Wa%Yan%null%1,                Kenny%Chan%null%1,                Wai-Ming%Chan%null%1,                Chun-Wai%Ngai%null%1,                Kin-Ip%Law%null%1,                Fu-Loi%Chow%null%1,                Raymond%Liu%null%1,                Kang-Yiu%Lai%null%1,                Candy C.Y.%Lau%null%1,                Shao-Haei%Liu%null%1,                Kwok-Hung%Chan%null%0,                Che-Kit%Lin%null%1,                Kwok-Yung%Yuen%null%0,               Ivan F.N.%Hung%null%1,               Kelvin K.W.%To%null%1,               Cheuk-Kwong%Lee%null%2,               Kar-Lung%Lee%null%2,               Wing-Wa%Yan%null%1,               Kenny%Chan%null%2,               Wai-Ming%Chan%null%2,               Chun-Wai%Ngai%null%1,               Kin-Ip%Law%null%1,               Fu-Loi%Chow%null%2,               Raymond%Liu%null%2,               Kang-Yiu%Lai%null%2,               Candy C.Y.%Lau%null%1,               Shao-Haei%Liu%null%2,               Kwok-Hung%Chan%null%3,               Che-Kit%Lin%null%2,               Kwok-Yung%Yuen%null%0]</t>
+  </si>
+  <si>
+    <t>[Arvind%Gharbharan%NULL%1,               Carlijn C. E.%Jordans%NULL%1,               Corine%GeurtsvanKessel%NULL%1,               Jan G.%den Hollander%NULL%2,               Jan G.%den Hollander%NULL%0,               Faiz%Karim%NULL%1,               Femke P. N.%Mollema%NULL%1,               Janneke E.%Stalenhoef – Schukken%NULL%1,               Anthonius%Dofferhoff%NULL%2,               Anthonius%Dofferhoff%NULL%0,               Inge%Ludwig%NULL%1,               Adrianus%Koster%NULL%1,               Robert-Jan%Hassing%NULL%1,               Jeannet C.%Bos%NULL%1,               Geert R.%van Pottelberge%NULL%1,               Imro N.%Vlasveld%NULL%1,               Heidi S. M.%Ammerlaan%NULL%1,               Elena M.%van Leeuwen – Segarceanu%NULL%1,               Jelle%Miedema%NULL%1,               Menno%van der Eerden%NULL%1,               Thijs J.%Schrama%NULL%1,               Grigorios%Papageorgiou%NULL%2,               Grigorios%Papageorgiou%NULL%0,               Peter%te Boekhorst%NULL%1,               Francis H.%Swaneveld%NULL%1,               Yvonne M.%Mueller%NULL%1,               Marco W. J.%Schreurs%NULL%2,               Marco W. J.%Schreurs%NULL%0,               Jeroen J. A.%van Kampen%NULL%1,               Barry%Rockx%NULL%1,               Nisreen M. A.%Okba%NULL%2,               Nisreen M. A.%Okba%NULL%0,               Peter D.%Katsikis%NULL%2,               Peter D.%Katsikis%NULL%0,               Marion P. G.%Koopmans%NULL%2,               Marion P. G.%Koopmans%NULL%0,               Bart L.%Haagmans%NULL%2,               Bart L.%Haagmans%NULL%0,               Casper%Rokx%c.rokx@erasmusmc.nl%2,               Casper%Rokx%c.rokx@erasmusmc.nl%0,               Bart J. A.%Rijnders%NULL%2,               Bart J. A.%Rijnders%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gordin%Fred M.%coreGivesNoEmail%1,             INSIGHT%FLU005 IVIG Pilot Study Group.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alcam\u00ed%Jos\u00e9%coreGivesNoEmail%1,             Avenda\u00f1o-Sol\u00e1%Cristina%coreGivesNoEmail%1,             Blanco%Lydia%coreGivesNoEmail%1,             Bueno%Jose L%coreGivesNoEmail%1,             Calder\u00f3n-Parra%Jorge%coreGivesNoEmail%1,             Casas-Flecha%Inmaculada%coreGivesNoEmail%1,             ConPlas-19%Study Group%coreGivesNoEmail%1,             de%Oteyza Jaime P\u00e9rez%coreGivesNoEmail%1,             Duarte%Rafael F%coreGivesNoEmail%1,             D\u00edaz%de Santiago Alberto%coreGivesNoEmail%1,             Fern\u00e1ndez-Cruz%Ana%coreGivesNoEmail%1,             Garcia-Perez%Javier%coreGivesNoEmail%1,             Jarilla-Fern\u00e1ndez%Maria C%coreGivesNoEmail%1,             Lora-Tamayo%Jaime%coreGivesNoEmail%1,             Madrigal-S\u00e1nchez%Maria E%coreGivesNoEmail%1,             Malo%de Molina Rosa%coreGivesNoEmail%1,             Manche\u00f1o-Losa%Mikel%coreGivesNoEmail%1,             Mart\u00ednez-Gonz\u00e1lez%A L%coreGivesNoEmail%1,             Moreno-Chulilla%J A%coreGivesNoEmail%1,             Mu\u00f1ez-Rubio%Elena%coreGivesNoEmail%1,             Mu\u00f1iz-D\u00edaz%Eduardo%coreGivesNoEmail%1,             Nu\u00f1ez-Orantos%Maria J%coreGivesNoEmail%1,             Paciello%Maria L%coreGivesNoEmail%1,             Payares-Herrera%Concepcion%coreGivesNoEmail%1,             Pa\u00f1o-Pardo%Jos\u00e9 R%coreGivesNoEmail%1,             Perez-Olmeda%Mayte%coreGivesNoEmail%1,             Pintos%Ilduara%coreGivesNoEmail%1,             Porras-Leal%Maria L%coreGivesNoEmail%1,             Ramos-Garrido%Ascension%coreGivesNoEmail%1,             Ramos-Mart\u00ednez%Antonio%coreGivesNoEmail%1,             Romera-Mart\u00ednez%Irene%coreGivesNoEmail%1,             Rubio-Batll\u00e9s%Martin%coreGivesNoEmail%1,             Ruiz-Antor\u00e1n%Belen%coreGivesNoEmail%1,             Saez-Serrano%Maria Isabel%coreGivesNoEmail%1,             Torres%Ferran%coreGivesNoEmail%1,             Velasco-Iglesias%Ana%coreGivesNoEmail%1,             Vid\u00e1n-Est\u00e9vez%Julia%coreGivesNoEmail%1,             Villares%Paula%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Agarwal%NULL%1,               Aparna%Mukherjee%NULL%2,               Gunjan%Kumar%NULL%3,               Gunjan%Kumar%NULL%0,               Pranab%Chatterjee%NULL%2,               Tarun%Bhatnagar%NULL%2,               Pankaj%Malhotra%NULL%2,               NULL%NULL%NULL%0,               NULL%NULL%NULL%0,               Anup%Agarwal%NULL%1,               Aparna%Mukherjee%NULL%0,               Gunjan%Kumar%NULL%0,               Pranab%Chatterjee%NULL%0,               Tarun%Bhatnagar%NULL%0,               Pankaj%Malhotra%NULL%0,               B%Latha%NULL%1,               Sunita%Bundas%NULL%1,               Vivek%Kumar%NULL%2,               Ravi%Dosi%NULL%1,               Janak Kumar%Khambholja%NULL%1,               Rosemarie%de Souza%NULL%1,               Raja Rao%Mesipogu%NULL%1,               Saurabh%Srivastava%NULL%1,               Simmi%Dube%NULL%1,               Kiran%Chaudhary%NULL%1,               S%Subash%NULL%1,               S%Anbuselvi%NULL%1,               V%Rajendran%NULL%1,               A%Sundararajaperumal%NULL%1,               P%Balamanikandan%NULL%1,               R S Uma%Maheswari%NULL%1,               R%Jayanthi%NULL%1,               S%Ragunanthanan%NULL%1,               Sudhir%Bhandari%NULL%1,               Ajeet%Singh%NULL%1,               Ashok%Pal%NULL%1,               Anjali%Handa%NULL%1,               Govind%Rankawat%NULL%1,               Ketan%Kargirwar%NULL%1,               Joyce%Regi%NULL%1,               Darshana%Rathod%NULL%1,               Edwin%Pathrose%NULL%1,               Nirankar%Bhutaka%NULL%1,               Mayur H%Patel%NULL%1,               Rahul J%Verma%NULL%1,               Kamal%Malukani%NULL%1,               Shivani%Patel%NULL%1,               Apurv%Thakur%NULL%1,               Satish%Joshi%NULL%1,               Rashmi%Kulkarni%NULL%1,               Nilay N%Suthar%NULL%1,               Nehal M%Shah%NULL%1,               Hemang M%Purohit%NULL%1,               Cherry K%Shah%NULL%1,               Monila N%Patel%NULL%1,               Saket%Shah%NULL%1,               Smit T%Shah%NULL%1,               Tehsim%Memon%NULL%1,               Vishal R%Beriwala%NULL%1,               Kusum%Jashnani%NULL%1,               Fatema%Ezzy%NULL%1,               Simran%Agrawal%NULL%1,               Rakesh%Bhadade%NULL%1,               MN%Atish%NULL%1,               Tushar%Madke%NULL%1,               Vikas%Kavishwar%NULL%1,               Ramesh%Waghmare%NULL%1,               Nitin%Valvi%NULL%1,               B Thrilok%Chander%NULL%1,               A Vinaya%Sekhar%NULL%1,               Akhilesh Kumar%Maurya%NULL%1,               K%Hemanth%NULL%1,               K%Nagamani%NULL%1,               K%Sudha%NULL%1,               T Ravi%Chandra%NULL%1,               K Tushara%Rao%NULL%1,               J%Vyshnavi%NULL%1,               Rashmi%Upadhyay%NULL%1,               Shalini%Bahadur%NULL%1,               Rambha%Pathak%NULL%1,               Shikha%Seth%NULL%1,               Rakesh%Gupta%NULL%1,               Rita%Saxena%NULL%1,               Preksha%Dwivedi%NULL%1,               Reeni%Malik%NULL%1,               Deepti%Chourasia%NULL%1,               Jaya%Lalwani%NULL%1,               UM%Sharma%NULL%1,               JL%Marko%NULL%1,               Amit%Suri%NULL%1,               Vijay%Kumar%NULL%1,               Rajnish%Kaushik%NULL%1,               Parul%Kodan%NULL%1,               Bhabani Prasad%Acharya%NULL%1,               Kuldeep Kumar%Gaur%NULL%1,               Anubhav%Gupta%NULL%1,               Prerna%Sachdeva%NULL%1,               Shruti%Dogra%NULL%1,               Aikaj%Jindal%NULL%1,               M Joseph%John%NULL%1,               Avtar Singh%Dhanju%NULL%1,               Ranjana%Khetrepal%NULL%1,               Neeraj%Sharma%NULL%1,               Neetu%Kukar%NULL%1,               Divya%Kavita%NULL%1,               Rajesh%Kumar%NULL%1,               Rajesh%Mahajan%NULL%1,               Gurpreet%Singh%NULL%1,               Jaspreet%Kaur%NULL%1,               Raminder Pal%Singh%NULL%1,               Rajni%Bassi%NULL%1,               Swapneil%Parikh%NULL%1,               Om%Shrivastav%NULL%1,               Jayanthi%Shastri%NULL%1,               Maherra%Desai%NULL%1,               Shreevatsa%Udupa%NULL%1,               Varun A%Bafna%NULL%1,               Vijay%Barge%NULL%1,               Rajendra%Madane%NULL%1,               Sheetal%Yadav%NULL%1,               Sanjeev%Misra%NULL%1,               Archana%Bajpayee%NULL%1,               M K%Garg%NULL%1,               G K%Bohra%NULL%1,               Vijaylakshmi%Nag%NULL%1,               Puneeth Babu%Anne%NULL%1,               Mohd%Nadeem%NULL%1,               Pallavi%Singh%NULL%1,               Ram%Niwas%NULL%1,               Niranjan Shiwaji%Khaire%NULL%1,               Rattiram%Sharma%NULL%1,               Mini P%Singh%NULL%1,               Naresh%Sachdeva%NULL%1,               Suchet%Sachdev%NULL%1,               Rekha%Hans%NULL%1,               Vikas%Suri%NULL%1,               LN%Yaddanapudi%NULL%1,               PVM%Lakshmi%NULL%1,               Neha%Singh%NULL%1,               Divendu%Bhushan%NULL%1,               Neeraj%Kumar%NULL%1,               Muralidhar%Tambe%NULL%1,               Sonali%Salvi%NULL%1,               Nalini%Kadgi%NULL%1,               Shashikala%Sangle%NULL%1,               Leena%Nakate%NULL%1,               Samir%Joshi%NULL%1,               Rajesh%Karyakarte%NULL%1,               Suraj%Goyanka%NULL%1,               Nimisha%Sharma%NULL%1,               Nikhil%Verma%NULL%1,               Asim%Das%NULL%1,               Monika%Bahl%NULL%1,               Nitya%Wadhwa%NULL%1,               Shreepad%Bhat%NULL%1,               Shweta%Deshmukh%NULL%1,               Vrushali%Wagh%NULL%1,               Atul%Kulkarni%NULL%1,               Tanvi%Yardi%NULL%1,               Ram S%Kalgud%NULL%1,               Purushottam%Reddy%NULL%1,               Kavitha%Yevoor%NULL%1,               Prashanth%Gajula%NULL%1,               Vivek%Maleyur%NULL%1,               S%Medini%NULL%1,               HN%Mohith%NULL%1,               Anil%Gurtoo%NULL%1,               Ritika%Sud%NULL%1,               Sangeeta%Pahuja%NULL%1,               Anupam%Prakash%NULL%1,               Parijat%Gogoi%NULL%1,               Shailja%Shukla%NULL%1,               D Himanshu%Reddy%NULL%1,               Tulika%Chandra%NULL%1,               Saurabh%Pandey%NULL%1,               Pradeep%Maurya%NULL%1,               Wahid%Ali%NULL%1,               Vivek%Kumar%NULL%0,               Kamlesh%Upadhyay%NULL%1,               Nidhi%Bhatnagar%NULL%1,               Nilima%Shah%NULL%1,               Mamta%Shah%NULL%1,               Tarak%Patel%NULL%1,               Ram Mohan%Jaiswal%NULL%1,               Ashish%Jain%NULL%1,               Shweta%Sharma%NULL%1,               Puneet%Rijhwani%NULL%1,               Naveen%Gupta%NULL%1,               Tinkal C%Patel%NULL%1,               Mahesh G%Solu%NULL%1,               Jitendra%Patel%NULL%1,               Yash R%Shah%NULL%1,               Mayur%Jarag%NULL%1,               Varsha%Godbole%NULL%1,               Meenakshi%Shah%NULL%1,               Rikin%Raj%NULL%1,               Irfan%Nagori%NULL%1,               Pramod R%Jha%NULL%1,               Arti D%Shah%NULL%1,               Gowtham%Yeeli%NULL%1,               Archit%Jain%NULL%1,               Rooppreet Kaur%Gill%NULL%1,               KV Sreedhar%Babu%NULL%1,               B Suresh%Babu%NULL%1,               Alladi%Mohan%NULL%1,               B%Vengamma%NULL%1,               K Chandra%Sekhar%NULL%1,               Srinivasulu%Damam%NULL%1,               K%Narsimhulu%NULL%1,               C%Aparna%NULL%1,               G%Baleswari%NULL%1,               K Ravindranath%Reddy%NULL%1,               P%Chandrasekhar%NULL%1,               Sunil Jodharam%Panjwani%NULL%1,               Pragnesh H%Shah%NULL%1,               Manish%Barvaliya%NULL%1,               Kairavi%Desai%NULL%1,               Pankaj J%Akholkar%NULL%1,               Milind%Baldi%NULL%1,               Ashok%Yadav%NULL%1,               Manoj%Gupta%NULL%1,               Nitin%Rawat%NULL%1,               Dilip%Chawda%NULL%1,               M%Natarajan%NULL%1,               M%Sintha%NULL%1,               David Pradeep%Kumar%NULL%1,               Fathhur%Rabbani%NULL%1,               Vrushali Khirid%Khadke%NULL%1,               Dattatray%Patki%NULL%1,               Sonali%Marathe%NULL%1,               Clyde%D’Souza%NULL%1,               Vipul%Tadha%NULL%1,               Satyam%Arora%NULL%1,               Devendra Kumar%Gupta%NULL%1,               Seema%Dua%NULL%1,               Nitu%Chauhan%NULL%1,               Ajeet Singh%Chahar%NULL%1,               Joy John%Mammen%NULL%1,               Snehil%Kumar%NULL%1,               Dolly%Daniel%NULL%1,               Ravindraa%Singh%NULL%1,               Venkatesh%Dhat%NULL%1,               Yogesh%Agarwal%NULL%1,               Sohini%Arora%NULL%1,               Ashish%Pathak%NULL%1,               Manju%Purohit%NULL%1,               Ashish%Sharma%NULL%1,               Jayashree%Sharma%NULL%1,               Manisha%Madkaikar%NULL%1,               Kavita%Joshi%NULL%1,               Reetika Malik%Yadav%NULL%1,               Swarupa%Bhagwat%NULL%1,               Niteen D%Karnik%NULL%1,               Yojana A%Gokhale%NULL%1,               Leena%Naik%NULL%1,               Sangita%Margam%NULL%1,               Santasabuj%Das%NULL%1,               Alka%Turuk%NULL%1,               V Saravana%Kumar%NULL%1,               K%Kanagasabai%NULL%1,               R%Sabarinathan%NULL%1,               Gururaj%Deshpande%NULL%1,               Sharda%Sharma%NULL%1,               Rashmi%Gunjikar%NULL%1,               Anita%Shete%NULL%1,               Darpan%Phagiwala%NULL%1,               Chetan%Patil%NULL%1,               Snehal%Shingade%NULL%1,               Kajal%Jarande%NULL%1,               Himanshu%Kaushal%NULL%1,               Pragya%Yadav%NULL%1,               Gajanan%Sapkal%NULL%1,               Priya%Abraham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan FN%Hung%NULL%1,               Kelvin KW%To%NULL%1,               Cheuk-Kwong%Lee%NULL%0,               Kar-Lung%Lee%NULL%0,               Kenny%Chan%NULL%0,               Wing-Wah%Yan%NULL%1,               Raymond%Liu%NULL%0,               Chi-Leung%Watt%NULL%1,               Wai-Ming%Chan%NULL%0,               Kang-Yiu%Lai%NULL%0,               Chi-Kwan%Koo%NULL%1,               Tom%Buckley%NULL%1,               Fu-Loi%Chow%NULL%0,               Kwan-Keung%Wong%NULL%1,               Hok-Sum%Chan%NULL%1,               Chi-Keung%Ching%NULL%1,               Bone SF%Tang%NULL%1,               Candy CY%Lau%NULL%1,               Iris WS%Li%NULL%1,               Shao-Haei%Liu%NULL%0,               Kwok-Hung%Chan%NULL%0,               Che-Kit%Lin%NULL%0,               Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y. O. Y.%Soo%NULL%1,               Y.%Cheng%NULL%1,               R.%Wong%NULL%2,               D. S.%Hui%NULL%1,               C. K.%Lee%NULL%2,               K. K. S.%Tsang%NULL%1,               M. H. L.%Ng%NULL%2,               P.%Chan%NULL%2,               G.%Cheng%NULL%2,               J. J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Johan%van Griensven%xref no email%1,         Tansy%Edwards%xref no email%1,         Xavier%de Lamballerie%xref no email%1,         Malcolm G.%Semple%xref no email%1,         Pierre%Gallian%xref no email%1,         Sylvain%Baize%xref no email%1,         Peter W.%Horby%xref no email%1,         Herv\u00e9%Raoul%xref no email%1,         N\u2019Faly%Magassouba%xref no email%1,         Annick%Antierens%xref no email%1,         Carolyn%Lomas%xref no email%1,         Ousmane%Faye%xref no email%1,         Amadou A.%Sall%xref no email%1,         Katrien%Fransen%xref no email%1,         Jozefien%Buyze%xref no email%1,         Raffaella%Ravinetto%xref no email%1,         Pierre%Tiberghien%xref no email%1,         Yves%Claeys%xref no email%1,         Maaike%De Crop%xref no email%1,         Lutgarde%Lynen%xref no email%1,         Elhadj Ibrahima%Bah%xref no email%1,         Peter G.%Smith%xref no email%1,         Alexandre%Delamou%xref no email%1,         Anja%De Weggheleire%xref no email%1,         Nyankoye%Haba%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hongjie%Yu%NULL%1,               Zhancheng%Gao%NULL%0,               Zijian%Feng%NULL%2,               Yuelong%Shu%NULL%1,               Nijuan%Xiang%NULL%2,               Lei%Zhou%NULL%2,               Yang%Huai%NULL%1,               Luzhao%Feng%NULL%0,               Zhibin%Peng%NULL%1,               Zhongjie%Li%NULL%1,               Cuiling%Xu%NULL%1,               Junhua%Li%NULL%0,               Chengping%Hu%NULL%1,               Qun%Li%NULL%1,               Xiaoling%Xu%NULL%1,               Xuecheng%Liu%NULL%1,               Zigui%Liu%NULL%1,               Longshan%Xu%NULL%1,               Yusheng%Chen%NULL%1,               Huiming%Luo%NULL%1,               Liping%Wei%NULL%1,               Xianfeng%Zhang%NULL%1,               Jianbao%Xin%NULL%1,               Junqiao%Guo%NULL%1,               Qiuyue%Wang%NULL%1,               Zhengan%Yuan%NULL%1,               Longnv%Zhou%NULL%1,               Kunzhao%Zhang%NULL%1,               Wei%Zhang%NULL%0,               Jinye%Yang%NULL%1,               Xiaoning%Zhong%NULL%1,               Shichang%Xia%NULL%1,               Lanjuan%Li%NULL%0,               Jinquan%Cheng%NULL%1,               Erdang%Ma%NULL%1,               Pingping%He%NULL%1,               Shui Shan%Lee%NULL%1,               Yu%Wang%NULL%3,               Timothy M.%Uyeki%NULL%0,               Weizhong%Yang%NULL%1,               Joel Mark%Montgomery%NULL%0,               Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C. W.%ROSS%xref no email%1,         ERWIN J.%HUND%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[W. W. G.%MACLACHLAN%xref no email%1,         W. J.%FETTER%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Y.%Cheng%NULL%1,               R.%Wong%NULL%0,               Y. O. Y.%Soo%NULL%1,               W. S.%Wong%NULL%1,               C. K.%Lee%NULL%0,               M. H. L.%Ng%NULL%0,               P.%Chan%NULL%0,               K. C.%Wong%NULL%1,               C. B.%Leung%NULL%1,               G.%Cheng%gcheng@cuhk.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[L. W.%McGUIRE%xref no email%1,         W. R.%REDDEN%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kai%Duan%NULL%1,               Bende%Liu%NULL%2,               Bende%Liu%NULL%0,               Cesheng%Li%NULL%1,               Huajun%Zhang%NULL%1,               Ting%Yu%NULL%0,               Ting%Yu%NULL%0,               Jieming%Qu%NULL%0,               Min%Zhou%NULL%0,               Min%Zhou%NULL%0,               Li%Chen%NULL%3,               Li%Chen%NULL%0,               Shengli%Meng%NULL%2,               Shengli%Meng%NULL%0,               Yong%Hu%NULL%1,               Cheng%Peng%NULL%1,               Mingchao%Yuan%NULL%1,               Jinyan%Huang%NULL%1,               Zejun%Wang%NULL%2,               Zejun%Wang%NULL%0,               Jianhong%Yu%NULL%1,               Xiaoxiao%Gao%NULL%1,               Dan%Wang%NULL%1,               Xiaoqi%Yu%NULL%1,               Li%Li%NULL%0,               Li%Li%NULL%0,               Jiayou%Zhang%NULL%2,               Jiayou%Zhang%NULL%0,               Xiao%Wu%NULL%1,               Bei%Li%NULL%1,               Yanping%Xu%NULL%1,               Wei%Chen%NULL%0,               Wei%Chen%NULL%0,               Yan%Peng%NULL%1,               Yeqin%Hu%NULL%1,               Lianzhen%Lin%NULL%1,               Xuefei%Liu%NULL%1,               Shihe%Huang%NULL%1,               Zhijun%Zhou%NULL%1,               Lianghao%Zhang%NULL%1,               Yue%Wang%NULL%1,               Zhi%Zhang%NULL%1,               Kun%Deng%NULL%1,               Zhiwu%Xia%NULL%1,               Qin%Gong%NULL%1,               Wei%Zhang%NULL%0,               Xiaobei%Zheng%NULL%1,               Ying%Liu%NULL%0,               Huichuan%Yang%NULL%1,               Dongbo%Zhou%NULL%1,               Ding%Yu%NULL%1,               Jifeng%Hou%NULL%1,               Zhengli%Shi%NULL%0,               Saijuan%Chen%NULL%1,               Zhu%Chen%NULL%1,               Xinxin%Zhang%NULL%0,               Xiaoming%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[F.%Sahr%NULL%1,               R.%Ansumana%rashidansumana@gmail.com%1,               T.A.%Massaquoi%NULL%1,               B.R.%Idriss%NULL%1,               F.R.%Sesay%NULL%1,               J.M.%Lamin%NULL%1,               S.%Baker%NULL%1,               S.%Nicol%NULL%1,               B.%Conton%NULL%1,               W.%Johnson%NULL%1,               O.T.%Abiri%NULL%1,               O.%Kargbo%NULL%1,               P.%Kamara%NULL%1,               A.%Goba%NULL%1,               J.B.W.%Russell%NULL%1,               S.M.%Gevao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qing-Lei%Zeng%zengqinglei2009@163.com%1,               Zu-Jiang%Yu%NULL%1,               Jian-Jun%Gou%NULL%1,               Guang-Ming%Li%NULL%1,               Shu-Huan%Ma%NULL%1,               Guo-Fan%Zhang%NULL%1,               Jiang-Hai%Xu%NULL%1,               Wan-Bao%Lin%NULL%1,               Guang-Lin%Cui%NULL%1,               Min-Min%Zhang%NULL%1,               Cheng%Li%NULL%1,               Ze-Shuai%Wang%NULL%1,               Zhi-Hao%Zhang%NULL%1,               Zhang-Suo%Liu%zengqinglei2009@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hassan%Abolghasemi%NULL%1,               Peyman%Eshghi%NULL%1,               Abdol Majid%Cheraghali%NULL%1,               Abbas Ali%Imani Fooladi%NULL%1,               Farzaneh%Bolouki Moghaddam%NULL%1,               Sina%Imanizadeh%NULL%1,               Matin%Moeini Maleki%NULL%1,               Mohammad%Ranjkesh%NULL%1,               Mohammad%Rezapour%NULL%1,               Ali%Bahramifar%NULL%1,               Behzad%Einollahi%NULL%1,               Mohammad Javad%Hosseini%NULL%1,               Nematollah Joneidi%Jafari%NULL%1,               Mohamad%Nikpouraghdam%NULL%1,               Nariman%Sadri%NULL%1,               Mokhtar%Tazik%NULL%1,               Shanaz%Sali%NULL%1,               Shamsi%Okati%NULL%1,               Elham%Askari%NULL%1,               Payam%Tabarsi%NULL%1,               Jafar%Aslani%NULL%1,               Ehsan%Sharifipour%NULL%1,               Mohammad Hossein%Jarahzadeh%NULL%1,               Nastaran%Khodakarim%NULL%1,               Mahmood%Salesi%NULL%1,               Ramezan%Jafari%NULL%1,               Samira%Shahverdi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[John H%Beigel%jbeigel@niaid.nih.gov%1,                Pablo%Tebas%NULL%4,                Marie-Carmelle%Elie-Turenne%NULL%4,                Ednan%Bajwa%NULL%2,                Todd E%Bell%NULL%2,                Charles B%Cairns%NULL%2,                Shmuel%Shoham%NULL%3,                Jaime G%Deville%NULL%2,                Eric%Feucht%NULL%2,                Judith%Feinberg%NULL%2,                Thomas%Luke%NULL%1,                Kanakatte%Raviprakash%NULL%3,                Janine%Danko%NULL%2,                Dorothy%O'Neil%NULL%1,                Julia A%Metcalf%NULL%1,                Karen%King%NULL%1,                Timothy H%Burgess%NULL%1,                Evgenia%Aga%NULL%3,                H Clifford%Lane%NULL%2,                Michael D%Hughes%NULL%3,                Richard T%Davey%NULL%3,                Pablo%Tebas%NULL%0,                Joseph%Quinn%NULL%1,                Yan%Jiang%NULL%1,                Marie-Carmelle%Elie-Turenne%NULL%0,                Robyn%Hoelle%NULL%1,                Nicole%Iovine%NULL%1,                Robert Shawn%Wills%NULL%1,                Socorro%Pata%NULL%1,                Monique%Huggins%NULL%1,                Belinda%Manukian%NULL%1,                Ednan%Bajwa%NULL%0,                Carrie%Holland%NULL%1,                Kelsey%Brait%NULL%1,                Taylor%Hunt%NULL%1,                Christopher%Stowell%NULL%1,                Amy%Slater%NULL%1,                Todd E%Bell%NULL%0,                Mary%Townsends%NULL%1,                Charles B%Cairns%NULL%0,                Eugenia B%Quackenbush%NULL%1,                Yara A%Park%NULL%1,                Paul Gaither%Jordan%NULL%1,                Cherie%Blanchet%NULL%1,                Kevin%Chronowski%NULL%1,                Kathleen%Alvarez%NULL%1,                Shmuel%Shoham%NULL%0,                Darin%Ostrander%NULL%1,                Terry%Woessner%NULL%1,                Sandra%Thoman%NULL%1,                Jaime G%Deville%NULL%0,                James%Lin%NULL%1,                Alyssa%Ziman%NULL%1,                Kavita%Shankar%NULL%1,                Eric%Feucht%NULL%0,                Tom%Blok%NULL%1,                Don%Batts%NULL%1,                Bob%Beck%NULL%1,                Gail%Massey%NULL%1,                Carol%Bradley%NULL%1,                Judith%Feinberg%NULL%0,                Patricia%Carey%NULL%1,                Jenifer%Baer%NULL%1,                Eva Moore%Whitehead%NULL%1,                Sharon%Kohrs%NULL%1,                Robert%Giulitto%NULL%1,                Christina%Schofield%NULL%2,                Mary%Fairchok%NULL%1,                Susan%Chambers%NULL%1,                Cindy%Baker%NULL%1,                NULL%RN%NULL%1,                Michelle%Parker%NULL%1,                Marta%Harshbarger%NULL%1,                M Hong%Nguyen%NULL%1,                Mary Ellen%Carey%NULL%1,                Julie%Paronish%NULL%1,                Frank%Cornell%NULL%1,                Jim%Cramer%NULL%1,                Diana Lynn%Pakstis%NULL%1,                Michael G%Ison%NULL%1,                Richard%Wunderink%NULL%1,                Marshall%Glesby%NULL%1,                Kirsis%Ham%NULL%1,                Valery%Hughes%NULL%1,                Melissa%Cushing%NULL%0,                Cheryl%Goss%NULL%1,                Joanne%Grenade%NULL%1,                Pauline K%Park%NULL%1,                Lena M%Napolitano%NULL%1,                Krishnan%Raghavendran%NULL%1,                Robert C%Hyzy%NULL%1,                Robertson%Davenport%NULL%1,                Kristin%Brierley%NULL%1,                Theresa%Downs%NULL%1,                Michelle Ng%Gong%NULL%1,                Joan%Uehlinger%NULL%1,                Michael%Lin%NULL%2,                Janice%Fritsche%NULL%1,                Tondria%Green%NULL%1,                Bruce%McLeod%NULL%1,                Deena%Patel%NULL%1,                Mary F%Bavaro%NULL%1,                Robert%Deiss%NULL%1,                Carolyn%Brandt%NULL%1,                Stephanie%Cammarata%NULL%1,                Allan%Kremp%NULL%1,                Karine%Hollis-Perry%NULL%1,                Tahaniyat%Lalani%NULL%1,                Susan%Banks%NULL%1,                Jacqueline%Johnson%NULL%1,                Jason%Maguire%NULL%1,                Janet%McNiff%NULL%1,                Leslie E%Rigg%NULL%1,                Anuradha%Ganesan%NULL%1,                Irma%Barahona%NULL%1,                Janine%Danko%NULL%0,                Steven%Spencer%NULL%1,                David%Stagliano%NULL%1,                Timothy%Burgess%NULL%1,                Daniel%Talmor%NULL%1,                Monique%Mohammed%NULL%1,                Valerie%Banner-Goodspeed%NULL%1,                Robert%Salata%NULL%1,                Robert%Finberg%NULL%2,                Jennifer%Wang%NULL%1,                Karen%Longtine%NULL%1,                Jaclyn%Longtine%NULL%1,                Mellissa%O'Neil%NULL%1,                Philippe R%Bauer%NULL%1,                Ognjen%Gajic%NULL%1,                Suanne M%Weist%NULL%1,                Jonathan%Sevransky%NULL%1,                Mona%Brown%NULL%1,                John%Roback%NULL%1,                John%Oropello%NULL%1,                Bridget%Twohig%NULL%1,                Jeffrey%Jhang%NULL%1,                Rahgu%Seethala%NULL%1,                Wilbur H%Chen%NULL%1,                Magali%Fontaine%NULL%1,                Kapil%Saharia%NULL%1,                Jennifer%Husson%NULL%1,                Roberta%DeBiasi%NULL%1,                Jurran L%Wilson%NULL%1,                Valli Ree%Criss%NULL%1,                Jocelyn%Voell%NULL%1,                Susan%Leitman%NULL%1,                James Wade%Atkins%NULL%1,                Hemaxi%Patel%NULL%1,                Traci%Paige%NULL%1,                Cathy%Cantilena%NULL%1,                Donald%Siegel%NULL%1,                Faye%DeMuth%NULL%1,                Craig H%Fletcher%NULL%1,                J Peter R%Pelletier%NULL%1,                Hassan%Alnuaimat%NULL%1,                Michelle%Pourde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ John H%Beigel%null%1,                 Evgenia%Aga%null%2,                 Marie-Carmelle%Elie-Turenne%null%2,                 Josalyn%Cho%null%2,                 Pablo%Tebas%null%2,                 Carol L%Clark%null%2,                 Jordan P%Metcalf%null%2,                 Caroline%Ozment%null%2,                 Kanakatte%Raviprakash%null%2,                 Joy%Beeler%null%2,                 H Preston%Holley%null%1,                 Stephanie%Warner%null%2,                 Carla%Chorley%null%2,                 H Clifford%Lane%null%1,                 Michael D%Hughes%null%2,                 Richard T%Davey%null%2,                 John H%Beigel%null%1,                 Evgenia%Aga%null%0,                 Marie-Carmelle%Elie-Turenne%null%0,                 Josalyn%Cho%null%0,                 Pablo%Tebas%null%0,                 Carol L%Clark%null%0,                 Jordan P%Metcalf%null%0,                 Caroline%Ozment%null%0,                 Kanakatte%Raviprakash%null%0,                 Joy%Beeler%null%0,                 H. Preston%Holley%null%1,                 Stephanie%Warner%null%0,                 Carla%Chorley%null%0,                 H. Clifford%Lane%null%1,                 Michael D%Hughes%null%0,                 Richard T%Davey%null%0,                 Michelle%Barron%null%1,                 Aveh%Bastani%null%1,                 Philippe%Bauer%null%1,                 William%Borkowsky%null%1,                 Charles%Cairns%null%1,                 Jaime%Deville%null%1,                 Marie-Carmelle%Elie%null%1,                 Carl%Fichtenbaum%null%1,                 Robert%Finberg%null%1,                 Mamta%Jain%null%1,                 David%Kaufman%null%1,                 Michael%Lin%null%1,                 John%Lin%null%1,                 Ryan%Maves%null%1,                 Lee%Morrow%null%1,                 Minh-Hong%Nguyen%null%1,                 Pauline%Park%null%1,                 Christopher%Polk%null%1,                 Adrienne%Randolph%null%1,                 Suchitra%Rao%null%1,                 Lewis%Rubinson%null%1,                 Christina%Schofield%null%1,                 Shmuel%Shoham%null%1,                 Erika%Stalets%null%1,                 Renee D%Stapleton%null%1,                John H%Beigel%null%2,                Evgenia%Aga%null%0,                Marie-Carmelle%Elie-Turenne%null%0,                Josalyn%Cho%null%2,                Pablo%Tebas%null%0,                Carol L%Clark%null%2,                Jordan P%Metcalf%null%2,                Caroline%Ozment%null%2,                Kanakatte%Raviprakash%null%0,                Joy%Beeler%null%2,                H Preston%Holley%null%1,                Stephanie%Warner%null%2,                Carla%Chorley%null%2,                H Clifford%Lane%null%0,                Michael D%Hughes%null%0,                Richard T%Davey%null%0,                John H%Beigel%null%0,                Evgenia%Aga%null%0,                Marie-Carmelle%Elie-Turenne%null%0,                Josalyn%Cho%null%0,                Pablo%Tebas%null%0,                Carol L%Clark%null%0,                Jordan P%Metcalf%null%0,                Caroline%Ozment%null%0,                Kanakatte%Raviprakash%null%0,                Joy%Beeler%null%0,                H. Preston%Holley%null%1,                Stephanie%Warner%null%0,                Carla%Chorley%null%0,                H. Clifford%Lane%null%1,                Michael D%Hughes%null%0,                Richard T%Davey%null%0,                Michelle%Barron%null%1,                Aveh%Bastani%null%1,                Philippe%Bauer%null%1,                William%Borkowsky%null%1,                Charles%Cairns%null%1,                Jaime%Deville%null%1,                Marie-Carmelle%Elie%null%1,                Carl%Fichtenbaum%null%1,                Robert%Finberg%null%0,                Mamta%Jain%null%1,                David%Kaufman%null%1,                Michael%Lin%null%0,                John%Lin%null%1,                Ryan%Maves%null%1,                Lee%Morrow%null%1,                Minh-Hong%Nguyen%null%1,                Pauline%Park%null%1,                Christopher%Polk%null%1,                Adrienne%Randolph%null%1,                Suchitra%Rao%null%1,                Lewis%Rubinson%null%1,                Christina%Schofield%null%0,                Shmuel%Shoham%null%0,                Erika%Stalets%null%1,                Renee D%Stapleton%null%1]</t>
+  </si>
+  <si>
+    <t>[Caiying%Hu%coreGivesNoEmail%1,              Chenyue%Li%coreGivesNoEmail%1,              Conghui%Wang%coreGivesNoEmail%1,              Cuihua%Tao%coreGivesNoEmail%1,              E.%Deng%coreGivesNoEmail%1,              Haixia%Xu%coreGivesNoEmail%1,              Heng%Mei%coreGivesNoEmail%1,              Jianwei%Wang%coreGivesNoEmail%1,              Juan%Wang%coreGivesNoEmail%1,              Jue%Wang%coreGivesNoEmail%1,              Juntao%Yang%coreGivesNoEmail%1,              Li%Zeng%coreGivesNoEmail%1,              Lifeng%Chen%coreGivesNoEmail%1,              Lili%Ren%coreGivesNoEmail%1,              Ling%Li%coreGivesNoEmail%1,              Linqi%Zhang%coreGivesNoEmail%1,              Nian%Xiong%coreGivesNoEmail%1,              Ning%Man%coreGivesNoEmail%1,              Qing%Wei%coreGivesNoEmail%1,              Ru%Yang%coreGivesNoEmail%1,              Shangen%Zheng%coreGivesNoEmail%1,              Shisheng%Su%coreGivesNoEmail%1,              Wei%Zhang%coreGivesNoEmail%1,              Xiaoxiong%Wu%coreGivesNoEmail%1,              Xuejun%Zhang%coreGivesNoEmail%1,              Xunliang%Tong%coreGivesNoEmail%1,              Yanyun%Wu%coreGivesNoEmail%1,              Yong%Guo%coreGivesNoEmail%1,              Yongpei%Yu%coreGivesNoEmail%1,              Yu%Hu%coreGivesNoEmail%1,              Yu%Liu%coreGivesNoEmail%1,              Yujie%Kong%coreGivesNoEmail%1,              Zhihua%Xu%coreGivesNoEmail%1,              Zhong%Liu%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Ivan F.N.%Hung%null%1,                 Kelvin K.W.%To%null%1,                 Cheuk-Kwong%Lee%null%1,                 Kar-Lung%Lee%null%1,                 Wing-Wa%Yan%null%1,                 Kenny%Chan%null%1,                 Wai-Ming%Chan%null%1,                 Chun-Wai%Ngai%null%1,                 Kin-Ip%Law%null%1,                 Fu-Loi%Chow%null%1,                 Raymond%Liu%null%1,                 Kang-Yiu%Lai%null%1,                 Candy C.Y.%Lau%null%1,                 Shao-Haei%Liu%null%1,                 Kwok-Hung%Chan%null%0,                 Che-Kit%Lin%null%1,                 Kwok-Yung%Yuen%null%0,                Ivan F.N.%Hung%null%1,                Kelvin K.W.%To%null%1,                Cheuk-Kwong%Lee%null%2,                Kar-Lung%Lee%null%2,                Wing-Wa%Yan%null%1,                Kenny%Chan%null%2,                Wai-Ming%Chan%null%2,                Chun-Wai%Ngai%null%1,                Kin-Ip%Law%null%1,                Fu-Loi%Chow%null%2,                Raymond%Liu%null%2,                Kang-Yiu%Lai%null%2,                Candy C.Y.%Lau%null%1,                Shao-Haei%Liu%null%2,                Kwok-Hung%Chan%null%3,                Che-Kit%Lin%null%2,                Kwok-Yung%Yuen%null%0]</t>
+  </si>
+  <si>
+    <t>[Arvind%Gharbharan%NULL%1,                Carlijn C. E.%Jordans%NULL%1,                Corine%GeurtsvanKessel%NULL%1,                Jan G.%den Hollander%NULL%2,                Jan G.%den Hollander%NULL%0,                Faiz%Karim%NULL%1,                Femke P. N.%Mollema%NULL%1,                Janneke E.%Stalenhoef – Schukken%NULL%1,                Anthonius%Dofferhoff%NULL%2,                Anthonius%Dofferhoff%NULL%0,                Inge%Ludwig%NULL%1,                Adrianus%Koster%NULL%1,                Robert-Jan%Hassing%NULL%1,                Jeannet C.%Bos%NULL%1,                Geert R.%van Pottelberge%NULL%1,                Imro N.%Vlasveld%NULL%1,                Heidi S. M.%Ammerlaan%NULL%1,                Elena M.%van Leeuwen – Segarceanu%NULL%1,                Jelle%Miedema%NULL%1,                Menno%van der Eerden%NULL%1,                Thijs J.%Schrama%NULL%1,                Grigorios%Papageorgiou%NULL%2,                Grigorios%Papageorgiou%NULL%0,                Peter%te Boekhorst%NULL%1,                Francis H.%Swaneveld%NULL%1,                Yvonne M.%Mueller%NULL%1,                Marco W. J.%Schreurs%NULL%2,                Marco W. J.%Schreurs%NULL%0,                Jeroen J. A.%van Kampen%NULL%1,                Barry%Rockx%NULL%1,                Nisreen M. A.%Okba%NULL%2,                Nisreen M. A.%Okba%NULL%0,                Peter D.%Katsikis%NULL%2,                Peter D.%Katsikis%NULL%0,                Marion P. G.%Koopmans%NULL%2,                Marion P. G.%Koopmans%NULL%0,                Bart L.%Haagmans%NULL%2,                Bart L.%Haagmans%NULL%0,                Casper%Rokx%c.rokx@erasmusmc.nl%2,                Casper%Rokx%c.rokx@erasmusmc.nl%0,                Bart J. A.%Rijnders%NULL%2,                Bart J. A.%Rijnders%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gordin%Fred M.%coreGivesNoEmail%1,              INSIGHT%FLU005 IVIG Pilot Study Group.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alcam\u00ed%Jos\u00e9%coreGivesNoEmail%1,              Avenda\u00f1o-Sol\u00e1%Cristina%coreGivesNoEmail%1,              Blanco%Lydia%coreGivesNoEmail%1,              Bueno%Jose L%coreGivesNoEmail%1,              Calder\u00f3n-Parra%Jorge%coreGivesNoEmail%1,              Casas-Flecha%Inmaculada%coreGivesNoEmail%1,              ConPlas-19%Study Group%coreGivesNoEmail%1,              de%Oteyza Jaime P\u00e9rez%coreGivesNoEmail%1,              Duarte%Rafael F%coreGivesNoEmail%1,              D\u00edaz%de Santiago Alberto%coreGivesNoEmail%1,              Fern\u00e1ndez-Cruz%Ana%coreGivesNoEmail%1,              Garcia-Perez%Javier%coreGivesNoEmail%1,              Jarilla-Fern\u00e1ndez%Maria C%coreGivesNoEmail%1,              Lora-Tamayo%Jaime%coreGivesNoEmail%1,              Madrigal-S\u00e1nchez%Maria E%coreGivesNoEmail%1,              Malo%de Molina Rosa%coreGivesNoEmail%1,              Manche\u00f1o-Losa%Mikel%coreGivesNoEmail%1,              Mart\u00ednez-Gonz\u00e1lez%A L%coreGivesNoEmail%1,              Moreno-Chulilla%J A%coreGivesNoEmail%1,              Mu\u00f1ez-Rubio%Elena%coreGivesNoEmail%1,              Mu\u00f1iz-D\u00edaz%Eduardo%coreGivesNoEmail%1,              Nu\u00f1ez-Orantos%Maria J%coreGivesNoEmail%1,              Paciello%Maria L%coreGivesNoEmail%1,              Payares-Herrera%Concepcion%coreGivesNoEmail%1,              Pa\u00f1o-Pardo%Jos\u00e9 R%coreGivesNoEmail%1,              Perez-Olmeda%Mayte%coreGivesNoEmail%1,              Pintos%Ilduara%coreGivesNoEmail%1,              Porras-Leal%Maria L%coreGivesNoEmail%1,              Ramos-Garrido%Ascension%coreGivesNoEmail%1,              Ramos-Mart\u00ednez%Antonio%coreGivesNoEmail%1,              Romera-Mart\u00ednez%Irene%coreGivesNoEmail%1,              Rubio-Batll\u00e9s%Martin%coreGivesNoEmail%1,              Ruiz-Antor\u00e1n%Belen%coreGivesNoEmail%1,              Saez-Serrano%Maria Isabel%coreGivesNoEmail%1,              Torres%Ferran%coreGivesNoEmail%1,              Velasco-Iglesias%Ana%coreGivesNoEmail%1,              Vid\u00e1n-Est\u00e9vez%Julia%coreGivesNoEmail%1,              Villares%Paula%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Agarwal%NULL%1,                Aparna%Mukherjee%NULL%2,                Gunjan%Kumar%NULL%3,                Gunjan%Kumar%NULL%0,                Pranab%Chatterjee%NULL%2,                Tarun%Bhatnagar%NULL%2,                Pankaj%Malhotra%NULL%2,                NULL%NULL%NULL%0,                NULL%NULL%NULL%0,                Anup%Agarwal%NULL%1,                Aparna%Mukherjee%NULL%0,                Gunjan%Kumar%NULL%0,                Pranab%Chatterjee%NULL%0,                Tarun%Bhatnagar%NULL%0,                Pankaj%Malhotra%NULL%0,                B%Latha%NULL%1,                Sunita%Bundas%NULL%1,                Vivek%Kumar%NULL%2,                Ravi%Dosi%NULL%1,                Janak Kumar%Khambholja%NULL%1,                Rosemarie%de Souza%NULL%1,                Raja Rao%Mesipogu%NULL%1,                Saurabh%Srivastava%NULL%1,                Simmi%Dube%NULL%1,                Kiran%Chaudhary%NULL%1,                S%Subash%NULL%1,                S%Anbuselvi%NULL%1,                V%Rajendran%NULL%1,                A%Sundararajaperumal%NULL%1,                P%Balamanikandan%NULL%1,                R S Uma%Maheswari%NULL%1,                R%Jayanthi%NULL%1,                S%Ragunanthanan%NULL%1,                Sudhir%Bhandari%NULL%1,                Ajeet%Singh%NULL%1,                Ashok%Pal%NULL%1,                Anjali%Handa%NULL%1,                Govind%Rankawat%NULL%1,                Ketan%Kargirwar%NULL%1,                Joyce%Regi%NULL%1,                Darshana%Rathod%NULL%1,                Edwin%Pathrose%NULL%1,                Nirankar%Bhutaka%NULL%1,                Mayur H%Patel%NULL%1,                Rahul J%Verma%NULL%1,                Kamal%Malukani%NULL%1,                Shivani%Patel%NULL%1,                Apurv%Thakur%NULL%1,                Satish%Joshi%NULL%1,                Rashmi%Kulkarni%NULL%1,                Nilay N%Suthar%NULL%1,                Nehal M%Shah%NULL%1,                Hemang M%Purohit%NULL%1,                Cherry K%Shah%NULL%1,                Monila N%Patel%NULL%1,                Saket%Shah%NULL%1,                Smit T%Shah%NULL%1,                Tehsim%Memon%NULL%1,                Vishal R%Beriwala%NULL%1,                Kusum%Jashnani%NULL%1,                Fatema%Ezzy%NULL%1,                Simran%Agrawal%NULL%1,                Rakesh%Bhadade%NULL%1,                MN%Atish%NULL%1,                Tushar%Madke%NULL%1,                Vikas%Kavishwar%NULL%1,                Ramesh%Waghmare%NULL%1,                Nitin%Valvi%NULL%1,                B Thrilok%Chander%NULL%1,                A Vinaya%Sekhar%NULL%1,                Akhilesh Kumar%Maurya%NULL%1,                K%Hemanth%NULL%1,                K%Nagamani%NULL%1,                K%Sudha%NULL%1,                T Ravi%Chandra%NULL%1,                K Tushara%Rao%NULL%1,                J%Vyshnavi%NULL%1,                Rashmi%Upadhyay%NULL%1,                Shalini%Bahadur%NULL%1,                Rambha%Pathak%NULL%1,                Shikha%Seth%NULL%1,                Rakesh%Gupta%NULL%1,                Rita%Saxena%NULL%1,                Preksha%Dwivedi%NULL%1,                Reeni%Malik%NULL%1,                Deepti%Chourasia%NULL%1,                Jaya%Lalwani%NULL%1,                UM%Sharma%NULL%1,                JL%Marko%NULL%1,                Amit%Suri%NULL%1,                Vijay%Kumar%NULL%1,                Rajnish%Kaushik%NULL%1,                Parul%Kodan%NULL%1,                Bhabani Prasad%Acharya%NULL%1,                Kuldeep Kumar%Gaur%NULL%1,                Anubhav%Gupta%NULL%1,                Prerna%Sachdeva%NULL%1,                Shruti%Dogra%NULL%1,                Aikaj%Jindal%NULL%1,                M Joseph%John%NULL%1,                Avtar Singh%Dhanju%NULL%1,                Ranjana%Khetrepal%NULL%1,                Neeraj%Sharma%NULL%1,                Neetu%Kukar%NULL%1,                Divya%Kavita%NULL%1,                Rajesh%Kumar%NULL%1,                Rajesh%Mahajan%NULL%1,                Gurpreet%Singh%NULL%1,                Jaspreet%Kaur%NULL%1,                Raminder Pal%Singh%NULL%1,                Rajni%Bassi%NULL%1,                Swapneil%Parikh%NULL%1,                Om%Shrivastav%NULL%1,                Jayanthi%Shastri%NULL%1,                Maherra%Desai%NULL%1,                Shreevatsa%Udupa%NULL%1,                Varun A%Bafna%NULL%1,                Vijay%Barge%NULL%1,                Rajendra%Madane%NULL%1,                Sheetal%Yadav%NULL%1,                Sanjeev%Misra%NULL%1,                Archana%Bajpayee%NULL%1,                M K%Garg%NULL%1,                G K%Bohra%NULL%1,                Vijaylakshmi%Nag%NULL%1,                Puneeth Babu%Anne%NULL%1,                Mohd%Nadeem%NULL%1,                Pallavi%Singh%NULL%1,                Ram%Niwas%NULL%1,                Niranjan Shiwaji%Khaire%NULL%1,                Rattiram%Sharma%NULL%1,                Mini P%Singh%NULL%1,                Naresh%Sachdeva%NULL%1,                Suchet%Sachdev%NULL%1,                Rekha%Hans%NULL%1,                Vikas%Suri%NULL%1,                LN%Yaddanapudi%NULL%1,                PVM%Lakshmi%NULL%1,                Neha%Singh%NULL%1,                Divendu%Bhushan%NULL%1,                Neeraj%Kumar%NULL%1,                Muralidhar%Tambe%NULL%1,                Sonali%Salvi%NULL%1,                Nalini%Kadgi%NULL%1,                Shashikala%Sangle%NULL%1,                Leena%Nakate%NULL%1,                Samir%Joshi%NULL%1,                Rajesh%Karyakarte%NULL%1,                Suraj%Goyanka%NULL%1,                Nimisha%Sharma%NULL%1,                Nikhil%Verma%NULL%1,                Asim%Das%NULL%1,                Monika%Bahl%NULL%1,                Nitya%Wadhwa%NULL%1,                Shreepad%Bhat%NULL%1,                Shweta%Deshmukh%NULL%1,                Vrushali%Wagh%NULL%1,                Atul%Kulkarni%NULL%1,                Tanvi%Yardi%NULL%1,                Ram S%Kalgud%NULL%1,                Purushottam%Reddy%NULL%1,                Kavitha%Yevoor%NULL%1,                Prashanth%Gajula%NULL%1,                Vivek%Maleyur%NULL%1,                S%Medini%NULL%1,                HN%Mohith%NULL%1,                Anil%Gurtoo%NULL%1,                Ritika%Sud%NULL%1,                Sangeeta%Pahuja%NULL%1,                Anupam%Prakash%NULL%1,                Parijat%Gogoi%NULL%1,                Shailja%Shukla%NULL%1,                D Himanshu%Reddy%NULL%1,                Tulika%Chandra%NULL%1,                Saurabh%Pandey%NULL%1,                Pradeep%Maurya%NULL%1,                Wahid%Ali%NULL%1,                Vivek%Kumar%NULL%0,                Kamlesh%Upadhyay%NULL%1,                Nidhi%Bhatnagar%NULL%1,                Nilima%Shah%NULL%1,                Mamta%Shah%NULL%1,                Tarak%Patel%NULL%1,                Ram Mohan%Jaiswal%NULL%1,                Ashish%Jain%NULL%1,                Shweta%Sharma%NULL%1,                Puneet%Rijhwani%NULL%1,                Naveen%Gupta%NULL%1,                Tinkal C%Patel%NULL%1,                Mahesh G%Solu%NULL%1,                Jitendra%Patel%NULL%1,                Yash R%Shah%NULL%1,                Mayur%Jarag%NULL%1,                Varsha%Godbole%NULL%1,                Meenakshi%Shah%NULL%1,                Rikin%Raj%NULL%1,                Irfan%Nagori%NULL%1,                Pramod R%Jha%NULL%1,                Arti D%Shah%NULL%1,                Gowtham%Yeeli%NULL%1,                Archit%Jain%NULL%1,                Rooppreet Kaur%Gill%NULL%1,                KV Sreedhar%Babu%NULL%1,                B Suresh%Babu%NULL%1,                Alladi%Mohan%NULL%1,                B%Vengamma%NULL%1,                K Chandra%Sekhar%NULL%1,                Srinivasulu%Damam%NULL%1,                K%Narsimhulu%NULL%1,                C%Aparna%NULL%1,                G%Baleswari%NULL%1,                K Ravindranath%Reddy%NULL%1,                P%Chandrasekhar%NULL%1,                Sunil Jodharam%Panjwani%NULL%1,                Pragnesh H%Shah%NULL%1,                Manish%Barvaliya%NULL%1,                Kairavi%Desai%NULL%1,                Pankaj J%Akholkar%NULL%1,                Milind%Baldi%NULL%1,                Ashok%Yadav%NULL%1,                Manoj%Gupta%NULL%1,                Nitin%Rawat%NULL%1,                Dilip%Chawda%NULL%1,                M%Natarajan%NULL%1,                M%Sintha%NULL%1,                David Pradeep%Kumar%NULL%1,                Fathhur%Rabbani%NULL%1,                Vrushali Khirid%Khadke%NULL%1,                Dattatray%Patki%NULL%1,                Sonali%Marathe%NULL%1,                Clyde%D’Souza%NULL%1,                Vipul%Tadha%NULL%1,                Satyam%Arora%NULL%1,                Devendra Kumar%Gupta%NULL%1,                Seema%Dua%NULL%1,                Nitu%Chauhan%NULL%1,                Ajeet Singh%Chahar%NULL%1,                Joy John%Mammen%NULL%1,                Snehil%Kumar%NULL%1,                Dolly%Daniel%NULL%1,                Ravindraa%Singh%NULL%1,                Venkatesh%Dhat%NULL%1,                Yogesh%Agarwal%NULL%1,                Sohini%Arora%NULL%1,                Ashish%Pathak%NULL%1,                Manju%Purohit%NULL%1,                Ashish%Sharma%NULL%1,                Jayashree%Sharma%NULL%1,                Manisha%Madkaikar%NULL%1,                Kavita%Joshi%NULL%1,                Reetika Malik%Yadav%NULL%1,                Swarupa%Bhagwat%NULL%1,                Niteen D%Karnik%NULL%1,                Yojana A%Gokhale%NULL%1,                Leena%Naik%NULL%1,                Sangita%Margam%NULL%1,                Santasabuj%Das%NULL%1,                Alka%Turuk%NULL%1,                V Saravana%Kumar%NULL%1,                K%Kanagasabai%NULL%1,                R%Sabarinathan%NULL%1,                Gururaj%Deshpande%NULL%1,                Sharda%Sharma%NULL%1,                Rashmi%Gunjikar%NULL%1,                Anita%Shete%NULL%1,                Darpan%Phagiwala%NULL%1,                Chetan%Patil%NULL%1,                Snehal%Shingade%NULL%1,                Kajal%Jarande%NULL%1,                Himanshu%Kaushal%NULL%1,                Pragya%Yadav%NULL%1,                Gajanan%Sapkal%NULL%1,                Priya%Abraham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan FN%Hung%NULL%1,                Kelvin KW%To%NULL%1,                Cheuk-Kwong%Lee%NULL%0,                Kar-Lung%Lee%NULL%0,                Kenny%Chan%NULL%0,                Wing-Wah%Yan%NULL%1,                Raymond%Liu%NULL%0,                Chi-Leung%Watt%NULL%1,                Wai-Ming%Chan%NULL%0,                Kang-Yiu%Lai%NULL%0,                Chi-Kwan%Koo%NULL%1,                Tom%Buckley%NULL%1,                Fu-Loi%Chow%NULL%0,                Kwan-Keung%Wong%NULL%1,                Hok-Sum%Chan%NULL%1,                Chi-Keung%Ching%NULL%1,                Bone SF%Tang%NULL%1,                Candy CY%Lau%NULL%1,                Iris WS%Li%NULL%1,                Shao-Haei%Liu%NULL%0,                Kwok-Hung%Chan%NULL%0,                Che-Kit%Lin%NULL%0,                Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y. O. Y.%Soo%NULL%1,                Y.%Cheng%NULL%1,                R.%Wong%NULL%2,                D. S.%Hui%NULL%1,                C. K.%Lee%NULL%2,                K. K. S.%Tsang%NULL%1,                M. H. L.%Ng%NULL%2,                P.%Chan%NULL%2,                G.%Cheng%NULL%2,                J. J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Johan%van Griensven%xref no email%1,          Tansy%Edwards%xref no email%1,          Xavier%de Lamballerie%xref no email%1,          Malcolm G.%Semple%xref no email%1,          Pierre%Gallian%xref no email%1,          Sylvain%Baize%xref no email%1,          Peter W.%Horby%xref no email%1,          Herv\u00e9%Raoul%xref no email%1,          N\u2019Faly%Magassouba%xref no email%1,          Annick%Antierens%xref no email%1,          Carolyn%Lomas%xref no email%1,          Ousmane%Faye%xref no email%1,          Amadou A.%Sall%xref no email%1,          Katrien%Fransen%xref no email%1,          Jozefien%Buyze%xref no email%1,          Raffaella%Ravinetto%xref no email%1,          Pierre%Tiberghien%xref no email%1,          Yves%Claeys%xref no email%1,          Maaike%De Crop%xref no email%1,          Lutgarde%Lynen%xref no email%1,          Elhadj Ibrahima%Bah%xref no email%1,          Peter G.%Smith%xref no email%1,          Alexandre%Delamou%xref no email%1,          Anja%De Weggheleire%xref no email%1,          Nyankoye%Haba%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hongjie%Yu%NULL%1,                Zhancheng%Gao%NULL%0,                Zijian%Feng%NULL%2,                Yuelong%Shu%NULL%1,                Nijuan%Xiang%NULL%2,                Lei%Zhou%NULL%2,                Yang%Huai%NULL%1,                Luzhao%Feng%NULL%0,                Zhibin%Peng%NULL%1,                Zhongjie%Li%NULL%1,                Cuiling%Xu%NULL%1,                Junhua%Li%NULL%0,                Chengping%Hu%NULL%1,                Qun%Li%NULL%1,                Xiaoling%Xu%NULL%1,                Xuecheng%Liu%NULL%1,                Zigui%Liu%NULL%1,                Longshan%Xu%NULL%1,                Yusheng%Chen%NULL%1,                Huiming%Luo%NULL%1,                Liping%Wei%NULL%1,                Xianfeng%Zhang%NULL%1,                Jianbao%Xin%NULL%1,                Junqiao%Guo%NULL%1,                Qiuyue%Wang%NULL%1,                Zhengan%Yuan%NULL%1,                Longnv%Zhou%NULL%1,                Kunzhao%Zhang%NULL%1,                Wei%Zhang%NULL%0,                Jinye%Yang%NULL%1,                Xiaoning%Zhong%NULL%1,                Shichang%Xia%NULL%1,                Lanjuan%Li%NULL%0,                Jinquan%Cheng%NULL%1,                Erdang%Ma%NULL%1,                Pingping%He%NULL%1,                Shui Shan%Lee%NULL%1,                Yu%Wang%NULL%3,                Timothy M.%Uyeki%NULL%0,                Weizhong%Yang%NULL%1,                Joel Mark%Montgomery%NULL%0,                Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C. W.%ROSS%xref no email%1,          ERWIN J.%HUND%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[W. W. G.%MACLACHLAN%xref no email%1,          W. J.%FETTER%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Y.%Cheng%NULL%1,                R.%Wong%NULL%0,                Y. O. Y.%Soo%NULL%1,                W. S.%Wong%NULL%1,                C. K.%Lee%NULL%0,                M. H. L.%Ng%NULL%0,                P.%Chan%NULL%0,                K. C.%Wong%NULL%1,                C. B.%Leung%NULL%1,                G.%Cheng%gcheng@cuhk.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[L. W.%McGUIRE%xref no email%1,          W. R.%REDDEN%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kai%Duan%NULL%1,                Bende%Liu%NULL%2,                Bende%Liu%NULL%0,                Cesheng%Li%NULL%1,                Huajun%Zhang%NULL%1,                Ting%Yu%NULL%0,                Ting%Yu%NULL%0,                Jieming%Qu%NULL%0,                Min%Zhou%NULL%0,                Min%Zhou%NULL%0,                Li%Chen%NULL%3,                Li%Chen%NULL%0,                Shengli%Meng%NULL%2,                Shengli%Meng%NULL%0,                Yong%Hu%NULL%1,                Cheng%Peng%NULL%1,                Mingchao%Yuan%NULL%1,                Jinyan%Huang%NULL%1,                Zejun%Wang%NULL%2,                Zejun%Wang%NULL%0,                Jianhong%Yu%NULL%1,                Xiaoxiao%Gao%NULL%1,                Dan%Wang%NULL%1,                Xiaoqi%Yu%NULL%1,                Li%Li%NULL%0,                Li%Li%NULL%0,                Jiayou%Zhang%NULL%2,                Jiayou%Zhang%NULL%0,                Xiao%Wu%NULL%1,                Bei%Li%NULL%1,                Yanping%Xu%NULL%1,                Wei%Chen%NULL%0,                Wei%Chen%NULL%0,                Yan%Peng%NULL%1,                Yeqin%Hu%NULL%1,                Lianzhen%Lin%NULL%1,                Xuefei%Liu%NULL%1,                Shihe%Huang%NULL%1,                Zhijun%Zhou%NULL%1,                Lianghao%Zhang%NULL%1,                Yue%Wang%NULL%1,                Zhi%Zhang%NULL%1,                Kun%Deng%NULL%1,                Zhiwu%Xia%NULL%1,                Qin%Gong%NULL%1,                Wei%Zhang%NULL%0,                Xiaobei%Zheng%NULL%1,                Ying%Liu%NULL%0,                Huichuan%Yang%NULL%1,                Dongbo%Zhou%NULL%1,                Ding%Yu%NULL%1,                Jifeng%Hou%NULL%1,                Zhengli%Shi%NULL%0,                Saijuan%Chen%NULL%1,                Zhu%Chen%NULL%1,                Xinxin%Zhang%NULL%0,                Xiaoming%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[F.%Sahr%NULL%1,                R.%Ansumana%rashidansumana@gmail.com%1,                T.A.%Massaquoi%NULL%1,                B.R.%Idriss%NULL%1,                F.R.%Sesay%NULL%1,                J.M.%Lamin%NULL%1,                S.%Baker%NULL%1,                S.%Nicol%NULL%1,                B.%Conton%NULL%1,                W.%Johnson%NULL%1,                O.T.%Abiri%NULL%1,                O.%Kargbo%NULL%1,                P.%Kamara%NULL%1,                A.%Goba%NULL%1,                J.B.W.%Russell%NULL%1,                S.M.%Gevao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qing-Lei%Zeng%zengqinglei2009@163.com%1,                Zu-Jiang%Yu%NULL%1,                Jian-Jun%Gou%NULL%1,                Guang-Ming%Li%NULL%1,                Shu-Huan%Ma%NULL%1,                Guo-Fan%Zhang%NULL%1,                Jiang-Hai%Xu%NULL%1,                Wan-Bao%Lin%NULL%1,                Guang-Lin%Cui%NULL%1,                Min-Min%Zhang%NULL%1,                Cheng%Li%NULL%1,                Ze-Shuai%Wang%NULL%1,                Zhi-Hao%Zhang%NULL%1,                Zhang-Suo%Liu%zengqinglei2009@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hassan%Abolghasemi%NULL%1,                Peyman%Eshghi%NULL%1,                Abdol Majid%Cheraghali%NULL%1,                Abbas Ali%Imani Fooladi%NULL%1,                Farzaneh%Bolouki Moghaddam%NULL%1,                Sina%Imanizadeh%NULL%1,                Matin%Moeini Maleki%NULL%1,                Mohammad%Ranjkesh%NULL%1,                Mohammad%Rezapour%NULL%1,                Ali%Bahramifar%NULL%1,                Behzad%Einollahi%NULL%1,                Mohammad Javad%Hosseini%NULL%1,                Nematollah Joneidi%Jafari%NULL%1,                Mohamad%Nikpouraghdam%NULL%1,                Nariman%Sadri%NULL%1,                Mokhtar%Tazik%NULL%1,                Shanaz%Sali%NULL%1,                Shamsi%Okati%NULL%1,                Elham%Askari%NULL%1,                Payam%Tabarsi%NULL%1,                Jafar%Aslani%NULL%1,                Ehsan%Sharifipour%NULL%1,                Mohammad Hossein%Jarahzadeh%NULL%1,                Nastaran%Khodakarim%NULL%1,                Mahmood%Salesi%NULL%1,                Ramezan%Jafari%NULL%1,                Samira%Shahverdi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1652,7 +1772,7 @@
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="F2" t="s">
         <v>41</v>
@@ -1681,7 +1801,7 @@
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="F3" t="s">
         <v>47</v>
@@ -1710,7 +1830,7 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1739,7 +1859,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -1768,7 +1888,7 @@
         <v>291</v>
       </c>
       <c r="E6" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -1797,7 +1917,7 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -1826,7 +1946,7 @@
         <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -1855,7 +1975,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -1884,7 +2004,7 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="F10" t="s">
         <v>68</v>
@@ -1913,7 +2033,7 @@
         <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="F11" t="s">
         <v>73</v>
@@ -1942,7 +2062,7 @@
         <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -2000,7 +2120,7 @@
         <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="F14" t="s">
         <v>77</v>
@@ -2087,7 +2207,7 @@
         <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -2145,7 +2265,7 @@
         <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="F19" t="s">
         <v>20</v>
@@ -2174,7 +2294,7 @@
         <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="F20" t="s">
         <v>82</v>
@@ -2203,7 +2323,7 @@
         <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="F21" t="s">
         <v>22</v>
@@ -2232,7 +2352,7 @@
         <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="F22" t="s">
         <v>86</v>
@@ -2261,7 +2381,7 @@
         <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="F23" t="s">
         <v>90</v>
@@ -2290,7 +2410,7 @@
         <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="F24" t="s">
         <v>95</v>
@@ -2319,7 +2439,7 @@
         <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="F25" t="s">
         <v>99</v>

--- a/Covid_19_Dataset_and_References/References/26.xlsx
+++ b/Covid_19_Dataset_and_References/References/26.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3002" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3177" uniqueCount="428">
   <si>
     <t xml:space="preserve">Doi </t>
   </si>
@@ -1395,6 +1395,66 @@
   </si>
   <si>
     <t>[Hassan%Abolghasemi%NULL%1,                Peyman%Eshghi%NULL%1,                Abdol Majid%Cheraghali%NULL%1,                Abbas Ali%Imani Fooladi%NULL%1,                Farzaneh%Bolouki Moghaddam%NULL%1,                Sina%Imanizadeh%NULL%1,                Matin%Moeini Maleki%NULL%1,                Mohammad%Ranjkesh%NULL%1,                Mohammad%Rezapour%NULL%1,                Ali%Bahramifar%NULL%1,                Behzad%Einollahi%NULL%1,                Mohammad Javad%Hosseini%NULL%1,                Nematollah Joneidi%Jafari%NULL%1,                Mohamad%Nikpouraghdam%NULL%1,                Nariman%Sadri%NULL%1,                Mokhtar%Tazik%NULL%1,                Shanaz%Sali%NULL%1,                Shamsi%Okati%NULL%1,                Elham%Askari%NULL%1,                Payam%Tabarsi%NULL%1,                Jafar%Aslani%NULL%1,                Ehsan%Sharifipour%NULL%1,                Mohammad Hossein%Jarahzadeh%NULL%1,                Nastaran%Khodakarim%NULL%1,                Mahmood%Salesi%NULL%1,                Ramezan%Jafari%NULL%1,                Samira%Shahverdi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[John H%Beigel%jbeigel@niaid.nih.gov%1,                 Pablo%Tebas%NULL%4,                 Marie-Carmelle%Elie-Turenne%NULL%4,                 Ednan%Bajwa%NULL%2,                 Todd E%Bell%NULL%2,                 Charles B%Cairns%NULL%2,                 Shmuel%Shoham%NULL%3,                 Jaime G%Deville%NULL%2,                 Eric%Feucht%NULL%2,                 Judith%Feinberg%NULL%2,                 Thomas%Luke%NULL%1,                 Kanakatte%Raviprakash%NULL%3,                 Janine%Danko%NULL%2,                 Dorothy%O'Neil%NULL%1,                 Julia A%Metcalf%NULL%1,                 Karen%King%NULL%1,                 Timothy H%Burgess%NULL%1,                 Evgenia%Aga%NULL%3,                 H Clifford%Lane%NULL%2,                 Michael D%Hughes%NULL%3,                 Richard T%Davey%NULL%3,                 Pablo%Tebas%NULL%0,                 Joseph%Quinn%NULL%1,                 Yan%Jiang%NULL%1,                 Marie-Carmelle%Elie-Turenne%NULL%0,                 Robyn%Hoelle%NULL%1,                 Nicole%Iovine%NULL%1,                 Robert Shawn%Wills%NULL%1,                 Socorro%Pata%NULL%1,                 Monique%Huggins%NULL%1,                 Belinda%Manukian%NULL%1,                 Ednan%Bajwa%NULL%0,                 Carrie%Holland%NULL%1,                 Kelsey%Brait%NULL%1,                 Taylor%Hunt%NULL%1,                 Christopher%Stowell%NULL%1,                 Amy%Slater%NULL%1,                 Todd E%Bell%NULL%0,                 Mary%Townsends%NULL%1,                 Charles B%Cairns%NULL%0,                 Eugenia B%Quackenbush%NULL%1,                 Yara A%Park%NULL%1,                 Paul Gaither%Jordan%NULL%1,                 Cherie%Blanchet%NULL%1,                 Kevin%Chronowski%NULL%1,                 Kathleen%Alvarez%NULL%1,                 Shmuel%Shoham%NULL%0,                 Darin%Ostrander%NULL%1,                 Terry%Woessner%NULL%1,                 Sandra%Thoman%NULL%1,                 Jaime G%Deville%NULL%0,                 James%Lin%NULL%1,                 Alyssa%Ziman%NULL%1,                 Kavita%Shankar%NULL%1,                 Eric%Feucht%NULL%0,                 Tom%Blok%NULL%1,                 Don%Batts%NULL%1,                 Bob%Beck%NULL%1,                 Gail%Massey%NULL%1,                 Carol%Bradley%NULL%1,                 Judith%Feinberg%NULL%0,                 Patricia%Carey%NULL%1,                 Jenifer%Baer%NULL%1,                 Eva Moore%Whitehead%NULL%1,                 Sharon%Kohrs%NULL%1,                 Robert%Giulitto%NULL%1,                 Christina%Schofield%NULL%2,                 Mary%Fairchok%NULL%1,                 Susan%Chambers%NULL%1,                 Cindy%Baker%NULL%1,                 NULL%RN%NULL%1,                 Michelle%Parker%NULL%1,                 Marta%Harshbarger%NULL%1,                 M Hong%Nguyen%NULL%1,                 Mary Ellen%Carey%NULL%1,                 Julie%Paronish%NULL%1,                 Frank%Cornell%NULL%1,                 Jim%Cramer%NULL%1,                 Diana Lynn%Pakstis%NULL%1,                 Michael G%Ison%NULL%1,                 Richard%Wunderink%NULL%1,                 Marshall%Glesby%NULL%1,                 Kirsis%Ham%NULL%1,                 Valery%Hughes%NULL%1,                 Melissa%Cushing%NULL%0,                 Cheryl%Goss%NULL%1,                 Joanne%Grenade%NULL%1,                 Pauline K%Park%NULL%1,                 Lena M%Napolitano%NULL%1,                 Krishnan%Raghavendran%NULL%1,                 Robert C%Hyzy%NULL%1,                 Robertson%Davenport%NULL%1,                 Kristin%Brierley%NULL%1,                 Theresa%Downs%NULL%1,                 Michelle Ng%Gong%NULL%1,                 Joan%Uehlinger%NULL%1,                 Michael%Lin%NULL%2,                 Janice%Fritsche%NULL%1,                 Tondria%Green%NULL%1,                 Bruce%McLeod%NULL%1,                 Deena%Patel%NULL%1,                 Mary F%Bavaro%NULL%1,                 Robert%Deiss%NULL%1,                 Carolyn%Brandt%NULL%1,                 Stephanie%Cammarata%NULL%1,                 Allan%Kremp%NULL%1,                 Karine%Hollis-Perry%NULL%1,                 Tahaniyat%Lalani%NULL%1,                 Susan%Banks%NULL%1,                 Jacqueline%Johnson%NULL%1,                 Jason%Maguire%NULL%1,                 Janet%McNiff%NULL%1,                 Leslie E%Rigg%NULL%1,                 Anuradha%Ganesan%NULL%1,                 Irma%Barahona%NULL%1,                 Janine%Danko%NULL%0,                 Steven%Spencer%NULL%1,                 David%Stagliano%NULL%1,                 Timothy%Burgess%NULL%1,                 Daniel%Talmor%NULL%1,                 Monique%Mohammed%NULL%1,                 Valerie%Banner-Goodspeed%NULL%1,                 Robert%Salata%NULL%1,                 Robert%Finberg%NULL%2,                 Jennifer%Wang%NULL%1,                 Karen%Longtine%NULL%1,                 Jaclyn%Longtine%NULL%1,                 Mellissa%O'Neil%NULL%1,                 Philippe R%Bauer%NULL%1,                 Ognjen%Gajic%NULL%1,                 Suanne M%Weist%NULL%1,                 Jonathan%Sevransky%NULL%1,                 Mona%Brown%NULL%1,                 John%Roback%NULL%1,                 John%Oropello%NULL%1,                 Bridget%Twohig%NULL%1,                 Jeffrey%Jhang%NULL%1,                 Rahgu%Seethala%NULL%1,                 Wilbur H%Chen%NULL%1,                 Magali%Fontaine%NULL%1,                 Kapil%Saharia%NULL%1,                 Jennifer%Husson%NULL%1,                 Roberta%DeBiasi%NULL%1,                 Jurran L%Wilson%NULL%1,                 Valli Ree%Criss%NULL%1,                 Jocelyn%Voell%NULL%1,                 Susan%Leitman%NULL%1,                 James Wade%Atkins%NULL%1,                 Hemaxi%Patel%NULL%1,                 Traci%Paige%NULL%1,                 Cathy%Cantilena%NULL%1,                 Donald%Siegel%NULL%1,                 Faye%DeMuth%NULL%1,                 Craig H%Fletcher%NULL%1,                 J Peter R%Pelletier%NULL%1,                 Hassan%Alnuaimat%NULL%1,                 Michelle%Pourde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ John H%Beigel%null%1,                  Evgenia%Aga%null%2,                  Marie-Carmelle%Elie-Turenne%null%2,                  Josalyn%Cho%null%2,                  Pablo%Tebas%null%2,                  Carol L%Clark%null%2,                  Jordan P%Metcalf%null%2,                  Caroline%Ozment%null%2,                  Kanakatte%Raviprakash%null%2,                  Joy%Beeler%null%2,                  H Preston%Holley%null%1,                  Stephanie%Warner%null%2,                  Carla%Chorley%null%2,                  H Clifford%Lane%null%1,                  Michael D%Hughes%null%2,                  Richard T%Davey%null%2,                  John H%Beigel%null%1,                  Evgenia%Aga%null%0,                  Marie-Carmelle%Elie-Turenne%null%0,                  Josalyn%Cho%null%0,                  Pablo%Tebas%null%0,                  Carol L%Clark%null%0,                  Jordan P%Metcalf%null%0,                  Caroline%Ozment%null%0,                  Kanakatte%Raviprakash%null%0,                  Joy%Beeler%null%0,                  H. Preston%Holley%null%1,                  Stephanie%Warner%null%0,                  Carla%Chorley%null%0,                  H. Clifford%Lane%null%1,                  Michael D%Hughes%null%0,                  Richard T%Davey%null%0,                  Michelle%Barron%null%1,                  Aveh%Bastani%null%1,                  Philippe%Bauer%null%1,                  William%Borkowsky%null%1,                  Charles%Cairns%null%1,                  Jaime%Deville%null%1,                  Marie-Carmelle%Elie%null%1,                  Carl%Fichtenbaum%null%1,                  Robert%Finberg%null%1,                  Mamta%Jain%null%1,                  David%Kaufman%null%1,                  Michael%Lin%null%1,                  John%Lin%null%1,                  Ryan%Maves%null%1,                  Lee%Morrow%null%1,                  Minh-Hong%Nguyen%null%1,                  Pauline%Park%null%1,                  Christopher%Polk%null%1,                  Adrienne%Randolph%null%1,                  Suchitra%Rao%null%1,                  Lewis%Rubinson%null%1,                  Christina%Schofield%null%1,                  Shmuel%Shoham%null%1,                  Erika%Stalets%null%1,                  Renee D%Stapleton%null%1,                 John H%Beigel%null%2,                 Evgenia%Aga%null%0,                 Marie-Carmelle%Elie-Turenne%null%0,                 Josalyn%Cho%null%2,                 Pablo%Tebas%null%0,                 Carol L%Clark%null%2,                 Jordan P%Metcalf%null%2,                 Caroline%Ozment%null%2,                 Kanakatte%Raviprakash%null%0,                 Joy%Beeler%null%2,                 H Preston%Holley%null%1,                 Stephanie%Warner%null%2,                 Carla%Chorley%null%2,                 H Clifford%Lane%null%0,                 Michael D%Hughes%null%0,                 Richard T%Davey%null%0,                 John H%Beigel%null%0,                 Evgenia%Aga%null%0,                 Marie-Carmelle%Elie-Turenne%null%0,                 Josalyn%Cho%null%0,                 Pablo%Tebas%null%0,                 Carol L%Clark%null%0,                 Jordan P%Metcalf%null%0,                 Caroline%Ozment%null%0,                 Kanakatte%Raviprakash%null%0,                 Joy%Beeler%null%0,                 H. Preston%Holley%null%1,                 Stephanie%Warner%null%0,                 Carla%Chorley%null%0,                 H. Clifford%Lane%null%1,                 Michael D%Hughes%null%0,                 Richard T%Davey%null%0,                 Michelle%Barron%null%1,                 Aveh%Bastani%null%1,                 Philippe%Bauer%null%1,                 William%Borkowsky%null%1,                 Charles%Cairns%null%1,                 Jaime%Deville%null%1,                 Marie-Carmelle%Elie%null%1,                 Carl%Fichtenbaum%null%1,                 Robert%Finberg%null%0,                 Mamta%Jain%null%1,                 David%Kaufman%null%1,                 Michael%Lin%null%0,                 John%Lin%null%1,                 Ryan%Maves%null%1,                 Lee%Morrow%null%1,                 Minh-Hong%Nguyen%null%1,                 Pauline%Park%null%1,                 Christopher%Polk%null%1,                 Adrienne%Randolph%null%1,                 Suchitra%Rao%null%1,                 Lewis%Rubinson%null%1,                 Christina%Schofield%null%0,                 Shmuel%Shoham%null%0,                 Erika%Stalets%null%1,                 Renee D%Stapleton%null%1]</t>
+  </si>
+  <si>
+    <t>[Caiying%Hu%coreGivesNoEmail%1,               Chenyue%Li%coreGivesNoEmail%1,               Conghui%Wang%coreGivesNoEmail%1,               Cuihua%Tao%coreGivesNoEmail%1,               E.%Deng%coreGivesNoEmail%1,               Haixia%Xu%coreGivesNoEmail%1,               Heng%Mei%coreGivesNoEmail%1,               Jianwei%Wang%coreGivesNoEmail%1,               Juan%Wang%coreGivesNoEmail%1,               Jue%Wang%coreGivesNoEmail%1,               Juntao%Yang%coreGivesNoEmail%1,               Li%Zeng%coreGivesNoEmail%1,               Lifeng%Chen%coreGivesNoEmail%1,               Lili%Ren%coreGivesNoEmail%1,               Ling%Li%coreGivesNoEmail%1,               Linqi%Zhang%coreGivesNoEmail%1,               Nian%Xiong%coreGivesNoEmail%1,               Ning%Man%coreGivesNoEmail%1,               Qing%Wei%coreGivesNoEmail%1,               Ru%Yang%coreGivesNoEmail%1,               Shangen%Zheng%coreGivesNoEmail%1,               Shisheng%Su%coreGivesNoEmail%1,               Wei%Zhang%coreGivesNoEmail%1,               Xiaoxiong%Wu%coreGivesNoEmail%1,               Xuejun%Zhang%coreGivesNoEmail%1,               Xunliang%Tong%coreGivesNoEmail%1,               Yanyun%Wu%coreGivesNoEmail%1,               Yong%Guo%coreGivesNoEmail%1,               Yongpei%Yu%coreGivesNoEmail%1,               Yu%Hu%coreGivesNoEmail%1,               Yu%Liu%coreGivesNoEmail%1,               Yujie%Kong%coreGivesNoEmail%1,               Zhihua%Xu%coreGivesNoEmail%1,               Zhong%Liu%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Ivan F.N.%Hung%null%1,                  Kelvin K.W.%To%null%1,                  Cheuk-Kwong%Lee%null%1,                  Kar-Lung%Lee%null%1,                  Wing-Wa%Yan%null%1,                  Kenny%Chan%null%1,                  Wai-Ming%Chan%null%1,                  Chun-Wai%Ngai%null%1,                  Kin-Ip%Law%null%1,                  Fu-Loi%Chow%null%1,                  Raymond%Liu%null%1,                  Kang-Yiu%Lai%null%1,                  Candy C.Y.%Lau%null%1,                  Shao-Haei%Liu%null%1,                  Kwok-Hung%Chan%null%0,                  Che-Kit%Lin%null%1,                  Kwok-Yung%Yuen%null%0,                 Ivan F.N.%Hung%null%1,                 Kelvin K.W.%To%null%1,                 Cheuk-Kwong%Lee%null%2,                 Kar-Lung%Lee%null%2,                 Wing-Wa%Yan%null%1,                 Kenny%Chan%null%2,                 Wai-Ming%Chan%null%2,                 Chun-Wai%Ngai%null%1,                 Kin-Ip%Law%null%1,                 Fu-Loi%Chow%null%2,                 Raymond%Liu%null%2,                 Kang-Yiu%Lai%null%2,                 Candy C.Y.%Lau%null%1,                 Shao-Haei%Liu%null%2,                 Kwok-Hung%Chan%null%3,                 Che-Kit%Lin%null%2,                 Kwok-Yung%Yuen%null%0]</t>
+  </si>
+  <si>
+    <t>[Arvind%Gharbharan%NULL%1,                 Carlijn C. E.%Jordans%NULL%1,                 Corine%GeurtsvanKessel%NULL%1,                 Jan G.%den Hollander%NULL%2,                 Jan G.%den Hollander%NULL%0,                 Faiz%Karim%NULL%1,                 Femke P. N.%Mollema%NULL%1,                 Janneke E.%Stalenhoef – Schukken%NULL%1,                 Anthonius%Dofferhoff%NULL%2,                 Anthonius%Dofferhoff%NULL%0,                 Inge%Ludwig%NULL%1,                 Adrianus%Koster%NULL%1,                 Robert-Jan%Hassing%NULL%1,                 Jeannet C.%Bos%NULL%1,                 Geert R.%van Pottelberge%NULL%1,                 Imro N.%Vlasveld%NULL%1,                 Heidi S. M.%Ammerlaan%NULL%1,                 Elena M.%van Leeuwen – Segarceanu%NULL%1,                 Jelle%Miedema%NULL%1,                 Menno%van der Eerden%NULL%1,                 Thijs J.%Schrama%NULL%1,                 Grigorios%Papageorgiou%NULL%2,                 Grigorios%Papageorgiou%NULL%0,                 Peter%te Boekhorst%NULL%1,                 Francis H.%Swaneveld%NULL%1,                 Yvonne M.%Mueller%NULL%1,                 Marco W. J.%Schreurs%NULL%2,                 Marco W. J.%Schreurs%NULL%0,                 Jeroen J. A.%van Kampen%NULL%1,                 Barry%Rockx%NULL%1,                 Nisreen M. A.%Okba%NULL%2,                 Nisreen M. A.%Okba%NULL%0,                 Peter D.%Katsikis%NULL%2,                 Peter D.%Katsikis%NULL%0,                 Marion P. G.%Koopmans%NULL%2,                 Marion P. G.%Koopmans%NULL%0,                 Bart L.%Haagmans%NULL%2,                 Bart L.%Haagmans%NULL%0,                 Casper%Rokx%c.rokx@erasmusmc.nl%2,                 Casper%Rokx%c.rokx@erasmusmc.nl%0,                 Bart J. A.%Rijnders%NULL%2,                 Bart J. A.%Rijnders%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gordin%Fred M.%coreGivesNoEmail%1,               INSIGHT%FLU005 IVIG Pilot Study Group.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alcam\u00ed%Jos\u00e9%coreGivesNoEmail%1,               Avenda\u00f1o-Sol\u00e1%Cristina%coreGivesNoEmail%1,               Blanco%Lydia%coreGivesNoEmail%1,               Bueno%Jose L%coreGivesNoEmail%1,               Calder\u00f3n-Parra%Jorge%coreGivesNoEmail%1,               Casas-Flecha%Inmaculada%coreGivesNoEmail%1,               ConPlas-19%Study Group%coreGivesNoEmail%1,               de%Oteyza Jaime P\u00e9rez%coreGivesNoEmail%1,               Duarte%Rafael F%coreGivesNoEmail%1,               D\u00edaz%de Santiago Alberto%coreGivesNoEmail%1,               Fern\u00e1ndez-Cruz%Ana%coreGivesNoEmail%1,               Garcia-Perez%Javier%coreGivesNoEmail%1,               Jarilla-Fern\u00e1ndez%Maria C%coreGivesNoEmail%1,               Lora-Tamayo%Jaime%coreGivesNoEmail%1,               Madrigal-S\u00e1nchez%Maria E%coreGivesNoEmail%1,               Malo%de Molina Rosa%coreGivesNoEmail%1,               Manche\u00f1o-Losa%Mikel%coreGivesNoEmail%1,               Mart\u00ednez-Gonz\u00e1lez%A L%coreGivesNoEmail%1,               Moreno-Chulilla%J A%coreGivesNoEmail%1,               Mu\u00f1ez-Rubio%Elena%coreGivesNoEmail%1,               Mu\u00f1iz-D\u00edaz%Eduardo%coreGivesNoEmail%1,               Nu\u00f1ez-Orantos%Maria J%coreGivesNoEmail%1,               Paciello%Maria L%coreGivesNoEmail%1,               Payares-Herrera%Concepcion%coreGivesNoEmail%1,               Pa\u00f1o-Pardo%Jos\u00e9 R%coreGivesNoEmail%1,               Perez-Olmeda%Mayte%coreGivesNoEmail%1,               Pintos%Ilduara%coreGivesNoEmail%1,               Porras-Leal%Maria L%coreGivesNoEmail%1,               Ramos-Garrido%Ascension%coreGivesNoEmail%1,               Ramos-Mart\u00ednez%Antonio%coreGivesNoEmail%1,               Romera-Mart\u00ednez%Irene%coreGivesNoEmail%1,               Rubio-Batll\u00e9s%Martin%coreGivesNoEmail%1,               Ruiz-Antor\u00e1n%Belen%coreGivesNoEmail%1,               Saez-Serrano%Maria Isabel%coreGivesNoEmail%1,               Torres%Ferran%coreGivesNoEmail%1,               Velasco-Iglesias%Ana%coreGivesNoEmail%1,               Vid\u00e1n-Est\u00e9vez%Julia%coreGivesNoEmail%1,               Villares%Paula%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Agarwal%NULL%1,                 Aparna%Mukherjee%NULL%2,                 Gunjan%Kumar%NULL%3,                 Gunjan%Kumar%NULL%0,                 Pranab%Chatterjee%NULL%2,                 Tarun%Bhatnagar%NULL%2,                 Pankaj%Malhotra%NULL%2,                 NULL%NULL%NULL%0,                 NULL%NULL%NULL%0,                 Anup%Agarwal%NULL%1,                 Aparna%Mukherjee%NULL%0,                 Gunjan%Kumar%NULL%0,                 Pranab%Chatterjee%NULL%0,                 Tarun%Bhatnagar%NULL%0,                 Pankaj%Malhotra%NULL%0,                 B%Latha%NULL%1,                 Sunita%Bundas%NULL%1,                 Vivek%Kumar%NULL%2,                 Ravi%Dosi%NULL%1,                 Janak Kumar%Khambholja%NULL%1,                 Rosemarie%de Souza%NULL%1,                 Raja Rao%Mesipogu%NULL%1,                 Saurabh%Srivastava%NULL%1,                 Simmi%Dube%NULL%1,                 Kiran%Chaudhary%NULL%1,                 S%Subash%NULL%1,                 S%Anbuselvi%NULL%1,                 V%Rajendran%NULL%1,                 A%Sundararajaperumal%NULL%1,                 P%Balamanikandan%NULL%1,                 R S Uma%Maheswari%NULL%1,                 R%Jayanthi%NULL%1,                 S%Ragunanthanan%NULL%1,                 Sudhir%Bhandari%NULL%1,                 Ajeet%Singh%NULL%1,                 Ashok%Pal%NULL%1,                 Anjali%Handa%NULL%1,                 Govind%Rankawat%NULL%1,                 Ketan%Kargirwar%NULL%1,                 Joyce%Regi%NULL%1,                 Darshana%Rathod%NULL%1,                 Edwin%Pathrose%NULL%1,                 Nirankar%Bhutaka%NULL%1,                 Mayur H%Patel%NULL%1,                 Rahul J%Verma%NULL%1,                 Kamal%Malukani%NULL%1,                 Shivani%Patel%NULL%1,                 Apurv%Thakur%NULL%1,                 Satish%Joshi%NULL%1,                 Rashmi%Kulkarni%NULL%1,                 Nilay N%Suthar%NULL%1,                 Nehal M%Shah%NULL%1,                 Hemang M%Purohit%NULL%1,                 Cherry K%Shah%NULL%1,                 Monila N%Patel%NULL%1,                 Saket%Shah%NULL%1,                 Smit T%Shah%NULL%1,                 Tehsim%Memon%NULL%1,                 Vishal R%Beriwala%NULL%1,                 Kusum%Jashnani%NULL%1,                 Fatema%Ezzy%NULL%1,                 Simran%Agrawal%NULL%1,                 Rakesh%Bhadade%NULL%1,                 MN%Atish%NULL%1,                 Tushar%Madke%NULL%1,                 Vikas%Kavishwar%NULL%1,                 Ramesh%Waghmare%NULL%1,                 Nitin%Valvi%NULL%1,                 B Thrilok%Chander%NULL%1,                 A Vinaya%Sekhar%NULL%1,                 Akhilesh Kumar%Maurya%NULL%1,                 K%Hemanth%NULL%1,                 K%Nagamani%NULL%1,                 K%Sudha%NULL%1,                 T Ravi%Chandra%NULL%1,                 K Tushara%Rao%NULL%1,                 J%Vyshnavi%NULL%1,                 Rashmi%Upadhyay%NULL%1,                 Shalini%Bahadur%NULL%1,                 Rambha%Pathak%NULL%1,                 Shikha%Seth%NULL%1,                 Rakesh%Gupta%NULL%1,                 Rita%Saxena%NULL%1,                 Preksha%Dwivedi%NULL%1,                 Reeni%Malik%NULL%1,                 Deepti%Chourasia%NULL%1,                 Jaya%Lalwani%NULL%1,                 UM%Sharma%NULL%1,                 JL%Marko%NULL%1,                 Amit%Suri%NULL%1,                 Vijay%Kumar%NULL%1,                 Rajnish%Kaushik%NULL%1,                 Parul%Kodan%NULL%1,                 Bhabani Prasad%Acharya%NULL%1,                 Kuldeep Kumar%Gaur%NULL%1,                 Anubhav%Gupta%NULL%1,                 Prerna%Sachdeva%NULL%1,                 Shruti%Dogra%NULL%1,                 Aikaj%Jindal%NULL%1,                 M Joseph%John%NULL%1,                 Avtar Singh%Dhanju%NULL%1,                 Ranjana%Khetrepal%NULL%1,                 Neeraj%Sharma%NULL%1,                 Neetu%Kukar%NULL%1,                 Divya%Kavita%NULL%1,                 Rajesh%Kumar%NULL%1,                 Rajesh%Mahajan%NULL%1,                 Gurpreet%Singh%NULL%1,                 Jaspreet%Kaur%NULL%1,                 Raminder Pal%Singh%NULL%1,                 Rajni%Bassi%NULL%1,                 Swapneil%Parikh%NULL%1,                 Om%Shrivastav%NULL%1,                 Jayanthi%Shastri%NULL%1,                 Maherra%Desai%NULL%1,                 Shreevatsa%Udupa%NULL%1,                 Varun A%Bafna%NULL%1,                 Vijay%Barge%NULL%1,                 Rajendra%Madane%NULL%1,                 Sheetal%Yadav%NULL%1,                 Sanjeev%Misra%NULL%1,                 Archana%Bajpayee%NULL%1,                 M K%Garg%NULL%1,                 G K%Bohra%NULL%1,                 Vijaylakshmi%Nag%NULL%1,                 Puneeth Babu%Anne%NULL%1,                 Mohd%Nadeem%NULL%1,                 Pallavi%Singh%NULL%1,                 Ram%Niwas%NULL%1,                 Niranjan Shiwaji%Khaire%NULL%1,                 Rattiram%Sharma%NULL%1,                 Mini P%Singh%NULL%1,                 Naresh%Sachdeva%NULL%1,                 Suchet%Sachdev%NULL%1,                 Rekha%Hans%NULL%1,                 Vikas%Suri%NULL%1,                 LN%Yaddanapudi%NULL%1,                 PVM%Lakshmi%NULL%1,                 Neha%Singh%NULL%1,                 Divendu%Bhushan%NULL%1,                 Neeraj%Kumar%NULL%1,                 Muralidhar%Tambe%NULL%1,                 Sonali%Salvi%NULL%1,                 Nalini%Kadgi%NULL%1,                 Shashikala%Sangle%NULL%1,                 Leena%Nakate%NULL%1,                 Samir%Joshi%NULL%1,                 Rajesh%Karyakarte%NULL%1,                 Suraj%Goyanka%NULL%1,                 Nimisha%Sharma%NULL%1,                 Nikhil%Verma%NULL%1,                 Asim%Das%NULL%1,                 Monika%Bahl%NULL%1,                 Nitya%Wadhwa%NULL%1,                 Shreepad%Bhat%NULL%1,                 Shweta%Deshmukh%NULL%1,                 Vrushali%Wagh%NULL%1,                 Atul%Kulkarni%NULL%1,                 Tanvi%Yardi%NULL%1,                 Ram S%Kalgud%NULL%1,                 Purushottam%Reddy%NULL%1,                 Kavitha%Yevoor%NULL%1,                 Prashanth%Gajula%NULL%1,                 Vivek%Maleyur%NULL%1,                 S%Medini%NULL%1,                 HN%Mohith%NULL%1,                 Anil%Gurtoo%NULL%1,                 Ritika%Sud%NULL%1,                 Sangeeta%Pahuja%NULL%1,                 Anupam%Prakash%NULL%1,                 Parijat%Gogoi%NULL%1,                 Shailja%Shukla%NULL%1,                 D Himanshu%Reddy%NULL%1,                 Tulika%Chandra%NULL%1,                 Saurabh%Pandey%NULL%1,                 Pradeep%Maurya%NULL%1,                 Wahid%Ali%NULL%1,                 Vivek%Kumar%NULL%0,                 Kamlesh%Upadhyay%NULL%1,                 Nidhi%Bhatnagar%NULL%1,                 Nilima%Shah%NULL%1,                 Mamta%Shah%NULL%1,                 Tarak%Patel%NULL%1,                 Ram Mohan%Jaiswal%NULL%1,                 Ashish%Jain%NULL%1,                 Shweta%Sharma%NULL%1,                 Puneet%Rijhwani%NULL%1,                 Naveen%Gupta%NULL%1,                 Tinkal C%Patel%NULL%1,                 Mahesh G%Solu%NULL%1,                 Jitendra%Patel%NULL%1,                 Yash R%Shah%NULL%1,                 Mayur%Jarag%NULL%1,                 Varsha%Godbole%NULL%1,                 Meenakshi%Shah%NULL%1,                 Rikin%Raj%NULL%1,                 Irfan%Nagori%NULL%1,                 Pramod R%Jha%NULL%1,                 Arti D%Shah%NULL%1,                 Gowtham%Yeeli%NULL%1,                 Archit%Jain%NULL%1,                 Rooppreet Kaur%Gill%NULL%1,                 KV Sreedhar%Babu%NULL%1,                 B Suresh%Babu%NULL%1,                 Alladi%Mohan%NULL%1,                 B%Vengamma%NULL%1,                 K Chandra%Sekhar%NULL%1,                 Srinivasulu%Damam%NULL%1,                 K%Narsimhulu%NULL%1,                 C%Aparna%NULL%1,                 G%Baleswari%NULL%1,                 K Ravindranath%Reddy%NULL%1,                 P%Chandrasekhar%NULL%1,                 Sunil Jodharam%Panjwani%NULL%1,                 Pragnesh H%Shah%NULL%1,                 Manish%Barvaliya%NULL%1,                 Kairavi%Desai%NULL%1,                 Pankaj J%Akholkar%NULL%1,                 Milind%Baldi%NULL%1,                 Ashok%Yadav%NULL%1,                 Manoj%Gupta%NULL%1,                 Nitin%Rawat%NULL%1,                 Dilip%Chawda%NULL%1,                 M%Natarajan%NULL%1,                 M%Sintha%NULL%1,                 David Pradeep%Kumar%NULL%1,                 Fathhur%Rabbani%NULL%1,                 Vrushali Khirid%Khadke%NULL%1,                 Dattatray%Patki%NULL%1,                 Sonali%Marathe%NULL%1,                 Clyde%D’Souza%NULL%1,                 Vipul%Tadha%NULL%1,                 Satyam%Arora%NULL%1,                 Devendra Kumar%Gupta%NULL%1,                 Seema%Dua%NULL%1,                 Nitu%Chauhan%NULL%1,                 Ajeet Singh%Chahar%NULL%1,                 Joy John%Mammen%NULL%1,                 Snehil%Kumar%NULL%1,                 Dolly%Daniel%NULL%1,                 Ravindraa%Singh%NULL%1,                 Venkatesh%Dhat%NULL%1,                 Yogesh%Agarwal%NULL%1,                 Sohini%Arora%NULL%1,                 Ashish%Pathak%NULL%1,                 Manju%Purohit%NULL%1,                 Ashish%Sharma%NULL%1,                 Jayashree%Sharma%NULL%1,                 Manisha%Madkaikar%NULL%1,                 Kavita%Joshi%NULL%1,                 Reetika Malik%Yadav%NULL%1,                 Swarupa%Bhagwat%NULL%1,                 Niteen D%Karnik%NULL%1,                 Yojana A%Gokhale%NULL%1,                 Leena%Naik%NULL%1,                 Sangita%Margam%NULL%1,                 Santasabuj%Das%NULL%1,                 Alka%Turuk%NULL%1,                 V Saravana%Kumar%NULL%1,                 K%Kanagasabai%NULL%1,                 R%Sabarinathan%NULL%1,                 Gururaj%Deshpande%NULL%1,                 Sharda%Sharma%NULL%1,                 Rashmi%Gunjikar%NULL%1,                 Anita%Shete%NULL%1,                 Darpan%Phagiwala%NULL%1,                 Chetan%Patil%NULL%1,                 Snehal%Shingade%NULL%1,                 Kajal%Jarande%NULL%1,                 Himanshu%Kaushal%NULL%1,                 Pragya%Yadav%NULL%1,                 Gajanan%Sapkal%NULL%1,                 Priya%Abraham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan FN%Hung%NULL%1,                 Kelvin KW%To%NULL%1,                 Cheuk-Kwong%Lee%NULL%0,                 Kar-Lung%Lee%NULL%0,                 Kenny%Chan%NULL%0,                 Wing-Wah%Yan%NULL%1,                 Raymond%Liu%NULL%0,                 Chi-Leung%Watt%NULL%1,                 Wai-Ming%Chan%NULL%0,                 Kang-Yiu%Lai%NULL%0,                 Chi-Kwan%Koo%NULL%1,                 Tom%Buckley%NULL%1,                 Fu-Loi%Chow%NULL%0,                 Kwan-Keung%Wong%NULL%1,                 Hok-Sum%Chan%NULL%1,                 Chi-Keung%Ching%NULL%1,                 Bone SF%Tang%NULL%1,                 Candy CY%Lau%NULL%1,                 Iris WS%Li%NULL%1,                 Shao-Haei%Liu%NULL%0,                 Kwok-Hung%Chan%NULL%0,                 Che-Kit%Lin%NULL%0,                 Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y. O. Y.%Soo%NULL%1,                 Y.%Cheng%NULL%1,                 R.%Wong%NULL%2,                 D. S.%Hui%NULL%1,                 C. K.%Lee%NULL%2,                 K. K. S.%Tsang%NULL%1,                 M. H. L.%Ng%NULL%2,                 P.%Chan%NULL%2,                 G.%Cheng%NULL%2,                 J. J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Johan%van Griensven%xref no email%1,           Tansy%Edwards%xref no email%1,           Xavier%de Lamballerie%xref no email%1,           Malcolm G.%Semple%xref no email%1,           Pierre%Gallian%xref no email%1,           Sylvain%Baize%xref no email%1,           Peter W.%Horby%xref no email%1,           Herv\u00e9%Raoul%xref no email%1,           N\u2019Faly%Magassouba%xref no email%1,           Annick%Antierens%xref no email%1,           Carolyn%Lomas%xref no email%1,           Ousmane%Faye%xref no email%1,           Amadou A.%Sall%xref no email%1,           Katrien%Fransen%xref no email%1,           Jozefien%Buyze%xref no email%1,           Raffaella%Ravinetto%xref no email%1,           Pierre%Tiberghien%xref no email%1,           Yves%Claeys%xref no email%1,           Maaike%De Crop%xref no email%1,           Lutgarde%Lynen%xref no email%1,           Elhadj Ibrahima%Bah%xref no email%1,           Peter G.%Smith%xref no email%1,           Alexandre%Delamou%xref no email%1,           Anja%De Weggheleire%xref no email%1,           Nyankoye%Haba%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hongjie%Yu%NULL%1,                 Zhancheng%Gao%NULL%0,                 Zijian%Feng%NULL%2,                 Yuelong%Shu%NULL%1,                 Nijuan%Xiang%NULL%2,                 Lei%Zhou%NULL%2,                 Yang%Huai%NULL%1,                 Luzhao%Feng%NULL%0,                 Zhibin%Peng%NULL%1,                 Zhongjie%Li%NULL%1,                 Cuiling%Xu%NULL%1,                 Junhua%Li%NULL%0,                 Chengping%Hu%NULL%1,                 Qun%Li%NULL%1,                 Xiaoling%Xu%NULL%1,                 Xuecheng%Liu%NULL%1,                 Zigui%Liu%NULL%1,                 Longshan%Xu%NULL%1,                 Yusheng%Chen%NULL%1,                 Huiming%Luo%NULL%1,                 Liping%Wei%NULL%1,                 Xianfeng%Zhang%NULL%1,                 Jianbao%Xin%NULL%1,                 Junqiao%Guo%NULL%1,                 Qiuyue%Wang%NULL%1,                 Zhengan%Yuan%NULL%1,                 Longnv%Zhou%NULL%1,                 Kunzhao%Zhang%NULL%1,                 Wei%Zhang%NULL%0,                 Jinye%Yang%NULL%1,                 Xiaoning%Zhong%NULL%1,                 Shichang%Xia%NULL%1,                 Lanjuan%Li%NULL%0,                 Jinquan%Cheng%NULL%1,                 Erdang%Ma%NULL%1,                 Pingping%He%NULL%1,                 Shui Shan%Lee%NULL%1,                 Yu%Wang%NULL%3,                 Timothy M.%Uyeki%NULL%0,                 Weizhong%Yang%NULL%1,                 Joel Mark%Montgomery%NULL%0,                 Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C. W.%ROSS%xref no email%1,           ERWIN J.%HUND%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[W. W. G.%MACLACHLAN%xref no email%1,           W. J.%FETTER%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Y.%Cheng%NULL%1,                 R.%Wong%NULL%0,                 Y. O. Y.%Soo%NULL%1,                 W. S.%Wong%NULL%1,                 C. K.%Lee%NULL%0,                 M. H. L.%Ng%NULL%0,                 P.%Chan%NULL%0,                 K. C.%Wong%NULL%1,                 C. B.%Leung%NULL%1,                 G.%Cheng%gcheng@cuhk.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[L. W.%McGUIRE%xref no email%1,           W. R.%REDDEN%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kai%Duan%NULL%1,                 Bende%Liu%NULL%2,                 Bende%Liu%NULL%0,                 Cesheng%Li%NULL%1,                 Huajun%Zhang%NULL%1,                 Ting%Yu%NULL%0,                 Ting%Yu%NULL%0,                 Jieming%Qu%NULL%0,                 Min%Zhou%NULL%0,                 Min%Zhou%NULL%0,                 Li%Chen%NULL%3,                 Li%Chen%NULL%0,                 Shengli%Meng%NULL%2,                 Shengli%Meng%NULL%0,                 Yong%Hu%NULL%1,                 Cheng%Peng%NULL%1,                 Mingchao%Yuan%NULL%1,                 Jinyan%Huang%NULL%1,                 Zejun%Wang%NULL%2,                 Zejun%Wang%NULL%0,                 Jianhong%Yu%NULL%1,                 Xiaoxiao%Gao%NULL%1,                 Dan%Wang%NULL%1,                 Xiaoqi%Yu%NULL%1,                 Li%Li%NULL%0,                 Li%Li%NULL%0,                 Jiayou%Zhang%NULL%2,                 Jiayou%Zhang%NULL%0,                 Xiao%Wu%NULL%1,                 Bei%Li%NULL%1,                 Yanping%Xu%NULL%1,                 Wei%Chen%NULL%0,                 Wei%Chen%NULL%0,                 Yan%Peng%NULL%1,                 Yeqin%Hu%NULL%1,                 Lianzhen%Lin%NULL%1,                 Xuefei%Liu%NULL%1,                 Shihe%Huang%NULL%1,                 Zhijun%Zhou%NULL%1,                 Lianghao%Zhang%NULL%1,                 Yue%Wang%NULL%1,                 Zhi%Zhang%NULL%1,                 Kun%Deng%NULL%1,                 Zhiwu%Xia%NULL%1,                 Qin%Gong%NULL%1,                 Wei%Zhang%NULL%0,                 Xiaobei%Zheng%NULL%1,                 Ying%Liu%NULL%0,                 Huichuan%Yang%NULL%1,                 Dongbo%Zhou%NULL%1,                 Ding%Yu%NULL%1,                 Jifeng%Hou%NULL%1,                 Zhengli%Shi%NULL%0,                 Saijuan%Chen%NULL%1,                 Zhu%Chen%NULL%1,                 Xinxin%Zhang%NULL%0,                 Xiaoming%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[F.%Sahr%NULL%1,                 R.%Ansumana%rashidansumana@gmail.com%1,                 T.A.%Massaquoi%NULL%1,                 B.R.%Idriss%NULL%1,                 F.R.%Sesay%NULL%1,                 J.M.%Lamin%NULL%1,                 S.%Baker%NULL%1,                 S.%Nicol%NULL%1,                 B.%Conton%NULL%1,                 W.%Johnson%NULL%1,                 O.T.%Abiri%NULL%1,                 O.%Kargbo%NULL%1,                 P.%Kamara%NULL%1,                 A.%Goba%NULL%1,                 J.B.W.%Russell%NULL%1,                 S.M.%Gevao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qing-Lei%Zeng%zengqinglei2009@163.com%1,                 Zu-Jiang%Yu%NULL%1,                 Jian-Jun%Gou%NULL%1,                 Guang-Ming%Li%NULL%1,                 Shu-Huan%Ma%NULL%1,                 Guo-Fan%Zhang%NULL%1,                 Jiang-Hai%Xu%NULL%1,                 Wan-Bao%Lin%NULL%1,                 Guang-Lin%Cui%NULL%1,                 Min-Min%Zhang%NULL%1,                 Cheng%Li%NULL%1,                 Ze-Shuai%Wang%NULL%1,                 Zhi-Hao%Zhang%NULL%1,                 Zhang-Suo%Liu%zengqinglei2009@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hassan%Abolghasemi%NULL%1,                 Peyman%Eshghi%NULL%1,                 Abdol Majid%Cheraghali%NULL%1,                 Abbas Ali%Imani Fooladi%NULL%1,                 Farzaneh%Bolouki Moghaddam%NULL%1,                 Sina%Imanizadeh%NULL%1,                 Matin%Moeini Maleki%NULL%1,                 Mohammad%Ranjkesh%NULL%1,                 Mohammad%Rezapour%NULL%1,                 Ali%Bahramifar%NULL%1,                 Behzad%Einollahi%NULL%1,                 Mohammad Javad%Hosseini%NULL%1,                 Nematollah Joneidi%Jafari%NULL%1,                 Mohamad%Nikpouraghdam%NULL%1,                 Nariman%Sadri%NULL%1,                 Mokhtar%Tazik%NULL%1,                 Shanaz%Sali%NULL%1,                 Shamsi%Okati%NULL%1,                 Elham%Askari%NULL%1,                 Payam%Tabarsi%NULL%1,                 Jafar%Aslani%NULL%1,                 Ehsan%Sharifipour%NULL%1,                 Mohammad Hossein%Jarahzadeh%NULL%1,                 Nastaran%Khodakarim%NULL%1,                 Mahmood%Salesi%NULL%1,                 Ramezan%Jafari%NULL%1,                 Samira%Shahverdi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1772,7 +1832,7 @@
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="F2" t="s">
         <v>41</v>
@@ -1801,7 +1861,7 @@
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="F3" t="s">
         <v>47</v>
@@ -1830,7 +1890,7 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1859,7 +1919,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -1888,7 +1948,7 @@
         <v>291</v>
       </c>
       <c r="E6" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -1917,7 +1977,7 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -1946,7 +2006,7 @@
         <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -1975,7 +2035,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -2004,7 +2064,7 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="F10" t="s">
         <v>68</v>
@@ -2033,7 +2093,7 @@
         <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="F11" t="s">
         <v>73</v>
@@ -2062,7 +2122,7 @@
         <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -2120,7 +2180,7 @@
         <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="F14" t="s">
         <v>77</v>
@@ -2207,7 +2267,7 @@
         <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -2265,7 +2325,7 @@
         <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="F19" t="s">
         <v>20</v>
@@ -2294,7 +2354,7 @@
         <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="F20" t="s">
         <v>82</v>
@@ -2323,7 +2383,7 @@
         <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="F21" t="s">
         <v>22</v>
@@ -2352,7 +2412,7 @@
         <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="F22" t="s">
         <v>86</v>
@@ -2381,7 +2441,7 @@
         <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="F23" t="s">
         <v>90</v>
@@ -2410,7 +2470,7 @@
         <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="F24" t="s">
         <v>95</v>
@@ -2439,7 +2499,7 @@
         <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="F25" t="s">
         <v>99</v>

--- a/Covid_19_Dataset_and_References/References/26.xlsx
+++ b/Covid_19_Dataset_and_References/References/26.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3177" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3352" uniqueCount="452">
   <si>
     <t xml:space="preserve">Doi </t>
   </si>
@@ -1455,6 +1455,78 @@
   </si>
   <si>
     <t>[Hassan%Abolghasemi%NULL%1,                 Peyman%Eshghi%NULL%1,                 Abdol Majid%Cheraghali%NULL%1,                 Abbas Ali%Imani Fooladi%NULL%1,                 Farzaneh%Bolouki Moghaddam%NULL%1,                 Sina%Imanizadeh%NULL%1,                 Matin%Moeini Maleki%NULL%1,                 Mohammad%Ranjkesh%NULL%1,                 Mohammad%Rezapour%NULL%1,                 Ali%Bahramifar%NULL%1,                 Behzad%Einollahi%NULL%1,                 Mohammad Javad%Hosseini%NULL%1,                 Nematollah Joneidi%Jafari%NULL%1,                 Mohamad%Nikpouraghdam%NULL%1,                 Nariman%Sadri%NULL%1,                 Mokhtar%Tazik%NULL%1,                 Shanaz%Sali%NULL%1,                 Shamsi%Okati%NULL%1,                 Elham%Askari%NULL%1,                 Payam%Tabarsi%NULL%1,                 Jafar%Aslani%NULL%1,                 Ehsan%Sharifipour%NULL%1,                 Mohammad Hossein%Jarahzadeh%NULL%1,                 Nastaran%Khodakarim%NULL%1,                 Mahmood%Salesi%NULL%1,                 Ramezan%Jafari%NULL%1,                 Samira%Shahverdi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[John H%Beigel%jbeigel@niaid.nih.gov%1,                  Pablo%Tebas%NULL%4,                  Marie-Carmelle%Elie-Turenne%NULL%4,                  Ednan%Bajwa%NULL%2,                  Todd E%Bell%NULL%2,                  Charles B%Cairns%NULL%2,                  Shmuel%Shoham%NULL%3,                  Jaime G%Deville%NULL%2,                  Eric%Feucht%NULL%2,                  Judith%Feinberg%NULL%2,                  Thomas%Luke%NULL%1,                  Kanakatte%Raviprakash%NULL%3,                  Janine%Danko%NULL%2,                  Dorothy%O'Neil%NULL%1,                  Julia A%Metcalf%NULL%1,                  Karen%King%NULL%1,                  Timothy H%Burgess%NULL%1,                  Evgenia%Aga%NULL%3,                  H Clifford%Lane%NULL%2,                  Michael D%Hughes%NULL%3,                  Richard T%Davey%NULL%3,                  Pablo%Tebas%NULL%0,                  Joseph%Quinn%NULL%1,                  Yan%Jiang%NULL%1,                  Marie-Carmelle%Elie-Turenne%NULL%0,                  Robyn%Hoelle%NULL%1,                  Nicole%Iovine%NULL%1,                  Robert Shawn%Wills%NULL%1,                  Socorro%Pata%NULL%1,                  Monique%Huggins%NULL%1,                  Belinda%Manukian%NULL%1,                  Ednan%Bajwa%NULL%0,                  Carrie%Holland%NULL%1,                  Kelsey%Brait%NULL%1,                  Taylor%Hunt%NULL%1,                  Christopher%Stowell%NULL%1,                  Amy%Slater%NULL%1,                  Todd E%Bell%NULL%0,                  Mary%Townsends%NULL%1,                  Charles B%Cairns%NULL%0,                  Eugenia B%Quackenbush%NULL%1,                  Yara A%Park%NULL%1,                  Paul Gaither%Jordan%NULL%1,                  Cherie%Blanchet%NULL%1,                  Kevin%Chronowski%NULL%1,                  Kathleen%Alvarez%NULL%1,                  Shmuel%Shoham%NULL%0,                  Darin%Ostrander%NULL%1,                  Terry%Woessner%NULL%1,                  Sandra%Thoman%NULL%1,                  Jaime G%Deville%NULL%0,                  James%Lin%NULL%1,                  Alyssa%Ziman%NULL%1,                  Kavita%Shankar%NULL%1,                  Eric%Feucht%NULL%0,                  Tom%Blok%NULL%1,                  Don%Batts%NULL%1,                  Bob%Beck%NULL%1,                  Gail%Massey%NULL%1,                  Carol%Bradley%NULL%1,                  Judith%Feinberg%NULL%0,                  Patricia%Carey%NULL%1,                  Jenifer%Baer%NULL%1,                  Eva Moore%Whitehead%NULL%1,                  Sharon%Kohrs%NULL%1,                  Robert%Giulitto%NULL%1,                  Christina%Schofield%NULL%2,                  Mary%Fairchok%NULL%1,                  Susan%Chambers%NULL%1,                  Cindy%Baker%NULL%1,                  NULL%RN%NULL%1,                  Michelle%Parker%NULL%1,                  Marta%Harshbarger%NULL%1,                  M Hong%Nguyen%NULL%1,                  Mary Ellen%Carey%NULL%1,                  Julie%Paronish%NULL%1,                  Frank%Cornell%NULL%1,                  Jim%Cramer%NULL%1,                  Diana Lynn%Pakstis%NULL%1,                  Michael G%Ison%NULL%1,                  Richard%Wunderink%NULL%1,                  Marshall%Glesby%NULL%1,                  Kirsis%Ham%NULL%1,                  Valery%Hughes%NULL%1,                  Melissa%Cushing%NULL%0,                  Cheryl%Goss%NULL%1,                  Joanne%Grenade%NULL%1,                  Pauline K%Park%NULL%1,                  Lena M%Napolitano%NULL%1,                  Krishnan%Raghavendran%NULL%1,                  Robert C%Hyzy%NULL%1,                  Robertson%Davenport%NULL%1,                  Kristin%Brierley%NULL%1,                  Theresa%Downs%NULL%1,                  Michelle Ng%Gong%NULL%1,                  Joan%Uehlinger%NULL%1,                  Michael%Lin%NULL%2,                  Janice%Fritsche%NULL%1,                  Tondria%Green%NULL%1,                  Bruce%McLeod%NULL%1,                  Deena%Patel%NULL%1,                  Mary F%Bavaro%NULL%1,                  Robert%Deiss%NULL%1,                  Carolyn%Brandt%NULL%1,                  Stephanie%Cammarata%NULL%1,                  Allan%Kremp%NULL%1,                  Karine%Hollis-Perry%NULL%1,                  Tahaniyat%Lalani%NULL%1,                  Susan%Banks%NULL%1,                  Jacqueline%Johnson%NULL%1,                  Jason%Maguire%NULL%1,                  Janet%McNiff%NULL%1,                  Leslie E%Rigg%NULL%1,                  Anuradha%Ganesan%NULL%1,                  Irma%Barahona%NULL%1,                  Janine%Danko%NULL%0,                  Steven%Spencer%NULL%1,                  David%Stagliano%NULL%1,                  Timothy%Burgess%NULL%1,                  Daniel%Talmor%NULL%1,                  Monique%Mohammed%NULL%1,                  Valerie%Banner-Goodspeed%NULL%1,                  Robert%Salata%NULL%1,                  Robert%Finberg%NULL%2,                  Jennifer%Wang%NULL%1,                  Karen%Longtine%NULL%1,                  Jaclyn%Longtine%NULL%1,                  Mellissa%O'Neil%NULL%1,                  Philippe R%Bauer%NULL%1,                  Ognjen%Gajic%NULL%1,                  Suanne M%Weist%NULL%1,                  Jonathan%Sevransky%NULL%1,                  Mona%Brown%NULL%1,                  John%Roback%NULL%1,                  John%Oropello%NULL%1,                  Bridget%Twohig%NULL%1,                  Jeffrey%Jhang%NULL%1,                  Rahgu%Seethala%NULL%1,                  Wilbur H%Chen%NULL%1,                  Magali%Fontaine%NULL%1,                  Kapil%Saharia%NULL%1,                  Jennifer%Husson%NULL%1,                  Roberta%DeBiasi%NULL%1,                  Jurran L%Wilson%NULL%1,                  Valli Ree%Criss%NULL%1,                  Jocelyn%Voell%NULL%1,                  Susan%Leitman%NULL%1,                  James Wade%Atkins%NULL%1,                  Hemaxi%Patel%NULL%1,                  Traci%Paige%NULL%1,                  Cathy%Cantilena%NULL%1,                  Donald%Siegel%NULL%1,                  Faye%DeMuth%NULL%1,                  Craig H%Fletcher%NULL%1,                  J Peter R%Pelletier%NULL%1,                  Hassan%Alnuaimat%NULL%1,                  Michelle%Pourde%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[ John H%Beigel%null%1,                   Evgenia%Aga%null%2,                   Marie-Carmelle%Elie-Turenne%null%2,                   Josalyn%Cho%null%2,                   Pablo%Tebas%null%2,                   Carol L%Clark%null%2,                   Jordan P%Metcalf%null%2,                   Caroline%Ozment%null%2,                   Kanakatte%Raviprakash%null%2,                   Joy%Beeler%null%2,                   H Preston%Holley%null%1,                   Stephanie%Warner%null%2,                   Carla%Chorley%null%2,                   H Clifford%Lane%null%1,                   Michael D%Hughes%null%2,                   Richard T%Davey%null%2,                   John H%Beigel%null%1,                   Evgenia%Aga%null%0,                   Marie-Carmelle%Elie-Turenne%null%0,                   Josalyn%Cho%null%0,                   Pablo%Tebas%null%0,                   Carol L%Clark%null%0,                   Jordan P%Metcalf%null%0,                   Caroline%Ozment%null%0,                   Kanakatte%Raviprakash%null%0,                   Joy%Beeler%null%0,                   H. Preston%Holley%null%1,                   Stephanie%Warner%null%0,                   Carla%Chorley%null%0,                   H. Clifford%Lane%null%1,                   Michael D%Hughes%null%0,                   Richard T%Davey%null%0,                   Michelle%Barron%null%1,                   Aveh%Bastani%null%1,                   Philippe%Bauer%null%1,                   William%Borkowsky%null%1,                   Charles%Cairns%null%1,                   Jaime%Deville%null%1,                   Marie-Carmelle%Elie%null%1,                   Carl%Fichtenbaum%null%1,                   Robert%Finberg%null%1,                   Mamta%Jain%null%1,                   David%Kaufman%null%1,                   Michael%Lin%null%1,                   John%Lin%null%1,                   Ryan%Maves%null%1,                   Lee%Morrow%null%1,                   Minh-Hong%Nguyen%null%1,                   Pauline%Park%null%1,                   Christopher%Polk%null%1,                   Adrienne%Randolph%null%1,                   Suchitra%Rao%null%1,                   Lewis%Rubinson%null%1,                   Christina%Schofield%null%1,                   Shmuel%Shoham%null%1,                   Erika%Stalets%null%1,                   Renee D%Stapleton%null%1,                  John H%Beigel%null%2,                  Evgenia%Aga%null%0,                  Marie-Carmelle%Elie-Turenne%null%0,                  Josalyn%Cho%null%2,                  Pablo%Tebas%null%0,                  Carol L%Clark%null%2,                  Jordan P%Metcalf%null%2,                  Caroline%Ozment%null%2,                  Kanakatte%Raviprakash%null%0,                  Joy%Beeler%null%2,                  H Preston%Holley%null%1,                  Stephanie%Warner%null%2,                  Carla%Chorley%null%2,                  H Clifford%Lane%null%0,                  Michael D%Hughes%null%0,                  Richard T%Davey%null%0,                  John H%Beigel%null%0,                  Evgenia%Aga%null%0,                  Marie-Carmelle%Elie-Turenne%null%0,                  Josalyn%Cho%null%0,                  Pablo%Tebas%null%0,                  Carol L%Clark%null%0,                  Jordan P%Metcalf%null%0,                  Caroline%Ozment%null%0,                  Kanakatte%Raviprakash%null%0,                  Joy%Beeler%null%0,                  H. Preston%Holley%null%1,                  Stephanie%Warner%null%0,                  Carla%Chorley%null%0,                  H. Clifford%Lane%null%1,                  Michael D%Hughes%null%0,                  Richard T%Davey%null%0,                  Michelle%Barron%null%1,                  Aveh%Bastani%null%1,                  Philippe%Bauer%null%1,                  William%Borkowsky%null%1,                  Charles%Cairns%null%1,                  Jaime%Deville%null%1,                  Marie-Carmelle%Elie%null%1,                  Carl%Fichtenbaum%null%1,                  Robert%Finberg%null%0,                  Mamta%Jain%null%1,                  David%Kaufman%null%1,                  Michael%Lin%null%0,                  John%Lin%null%1,                  Ryan%Maves%null%1,                  Lee%Morrow%null%1,                  Minh-Hong%Nguyen%null%1,                  Pauline%Park%null%1,                  Christopher%Polk%null%1,                  Adrienne%Randolph%null%1,                  Suchitra%Rao%null%1,                  Lewis%Rubinson%null%1,                  Christina%Schofield%null%0,                  Shmuel%Shoham%null%0,                  Erika%Stalets%null%1,                  Renee D%Stapleton%null%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Caiying%Hu%coreGivesNoEmail%1,                Chenyue%Li%coreGivesNoEmail%1,                Conghui%Wang%coreGivesNoEmail%1,                Cuihua%Tao%coreGivesNoEmail%1,                E.%Deng%coreGivesNoEmail%1,                Haixia%Xu%coreGivesNoEmail%1,                Heng%Mei%coreGivesNoEmail%1,                Jianwei%Wang%coreGivesNoEmail%1,                Juan%Wang%coreGivesNoEmail%1,                Jue%Wang%coreGivesNoEmail%1,                Juntao%Yang%coreGivesNoEmail%1,                Li%Zeng%coreGivesNoEmail%1,                Lifeng%Chen%coreGivesNoEmail%1,                Lili%Ren%coreGivesNoEmail%1,                Ling%Li%coreGivesNoEmail%1,                Linqi%Zhang%coreGivesNoEmail%1,                Nian%Xiong%coreGivesNoEmail%1,                Ning%Man%coreGivesNoEmail%1,                Qing%Wei%coreGivesNoEmail%1,                Ru%Yang%coreGivesNoEmail%1,                Shangen%Zheng%coreGivesNoEmail%1,                Shisheng%Su%coreGivesNoEmail%1,                Wei%Zhang%coreGivesNoEmail%1,                Xiaoxiong%Wu%coreGivesNoEmail%1,                Xuejun%Zhang%coreGivesNoEmail%1,                Xunliang%Tong%coreGivesNoEmail%1,                Yanyun%Wu%coreGivesNoEmail%1,                Yong%Guo%coreGivesNoEmail%1,                Yongpei%Yu%coreGivesNoEmail%1,                Yu%Hu%coreGivesNoEmail%1,                Yu%Liu%coreGivesNoEmail%1,                Yujie%Kong%coreGivesNoEmail%1,                Zhihua%Xu%coreGivesNoEmail%1,                Zhong%Liu%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Ivan F.N.%Hung%null%1,                   Kelvin K.W.%To%null%1,                   Cheuk-Kwong%Lee%null%1,                   Kar-Lung%Lee%null%1,                   Wing-Wa%Yan%null%1,                   Kenny%Chan%null%1,                   Wai-Ming%Chan%null%1,                   Chun-Wai%Ngai%null%1,                   Kin-Ip%Law%null%1,                   Fu-Loi%Chow%null%1,                   Raymond%Liu%null%1,                   Kang-Yiu%Lai%null%1,                   Candy C.Y.%Lau%null%1,                   Shao-Haei%Liu%null%1,                   Kwok-Hung%Chan%null%0,                   Che-Kit%Lin%null%1,                   Kwok-Yung%Yuen%null%0,                  Ivan F.N.%Hung%null%1,                  Kelvin K.W.%To%null%1,                  Cheuk-Kwong%Lee%null%2,                  Kar-Lung%Lee%null%2,                  Wing-Wa%Yan%null%1,                  Kenny%Chan%null%2,                  Wai-Ming%Chan%null%2,                  Chun-Wai%Ngai%null%1,                  Kin-Ip%Law%null%1,                  Fu-Loi%Chow%null%2,                  Raymond%Liu%null%2,                  Kang-Yiu%Lai%null%2,                  Candy C.Y.%Lau%null%1,                  Shao-Haei%Liu%null%2,                  Kwok-Hung%Chan%null%3,                  Che-Kit%Lin%null%2,                  Kwok-Yung%Yuen%null%0]</t>
+  </si>
+  <si>
+    <t>[Arvind%Gharbharan%NULL%1,                  Carlijn C. E.%Jordans%NULL%1,                  Corine%GeurtsvanKessel%NULL%1,                  Jan G.%den Hollander%NULL%2,                  Jan G.%den Hollander%NULL%0,                  Faiz%Karim%NULL%1,                  Femke P. N.%Mollema%NULL%1,                  Janneke E.%Stalenhoef – Schukken%NULL%1,                  Anthonius%Dofferhoff%NULL%2,                  Anthonius%Dofferhoff%NULL%0,                  Inge%Ludwig%NULL%1,                  Adrianus%Koster%NULL%1,                  Robert-Jan%Hassing%NULL%1,                  Jeannet C.%Bos%NULL%1,                  Geert R.%van Pottelberge%NULL%1,                  Imro N.%Vlasveld%NULL%1,                  Heidi S. M.%Ammerlaan%NULL%1,                  Elena M.%van Leeuwen – Segarceanu%NULL%1,                  Jelle%Miedema%NULL%1,                  Menno%van der Eerden%NULL%1,                  Thijs J.%Schrama%NULL%1,                  Grigorios%Papageorgiou%NULL%2,                  Grigorios%Papageorgiou%NULL%0,                  Peter%te Boekhorst%NULL%1,                  Francis H.%Swaneveld%NULL%1,                  Yvonne M.%Mueller%NULL%1,                  Marco W. J.%Schreurs%NULL%2,                  Marco W. J.%Schreurs%NULL%0,                  Jeroen J. A.%van Kampen%NULL%1,                  Barry%Rockx%NULL%1,                  Nisreen M. A.%Okba%NULL%2,                  Nisreen M. A.%Okba%NULL%0,                  Peter D.%Katsikis%NULL%2,                  Peter D.%Katsikis%NULL%0,                  Marion P. G.%Koopmans%NULL%2,                  Marion P. G.%Koopmans%NULL%0,                  Bart L.%Haagmans%NULL%2,                  Bart L.%Haagmans%NULL%0,                  Casper%Rokx%c.rokx@erasmusmc.nl%2,                  Casper%Rokx%c.rokx@erasmusmc.nl%0,                  Bart J. A.%Rijnders%NULL%2,                  Bart J. A.%Rijnders%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Gordin%Fred M.%coreGivesNoEmail%1,                INSIGHT%FLU005 IVIG Pilot Study Group.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alcam\u00ed%Jos\u00e9%coreGivesNoEmail%1,                Avenda\u00f1o-Sol\u00e1%Cristina%coreGivesNoEmail%1,                Blanco%Lydia%coreGivesNoEmail%1,                Bueno%Jose L%coreGivesNoEmail%1,                Calder\u00f3n-Parra%Jorge%coreGivesNoEmail%1,                Casas-Flecha%Inmaculada%coreGivesNoEmail%1,                ConPlas-19%Study Group%coreGivesNoEmail%1,                de%Oteyza Jaime P\u00e9rez%coreGivesNoEmail%1,                Duarte%Rafael F%coreGivesNoEmail%1,                D\u00edaz%de Santiago Alberto%coreGivesNoEmail%1,                Fern\u00e1ndez-Cruz%Ana%coreGivesNoEmail%1,                Garcia-Perez%Javier%coreGivesNoEmail%1,                Jarilla-Fern\u00e1ndez%Maria C%coreGivesNoEmail%1,                Lora-Tamayo%Jaime%coreGivesNoEmail%1,                Madrigal-S\u00e1nchez%Maria E%coreGivesNoEmail%1,                Malo%de Molina Rosa%coreGivesNoEmail%1,                Manche\u00f1o-Losa%Mikel%coreGivesNoEmail%1,                Mart\u00ednez-Gonz\u00e1lez%A L%coreGivesNoEmail%1,                Moreno-Chulilla%J A%coreGivesNoEmail%1,                Mu\u00f1ez-Rubio%Elena%coreGivesNoEmail%1,                Mu\u00f1iz-D\u00edaz%Eduardo%coreGivesNoEmail%1,                Nu\u00f1ez-Orantos%Maria J%coreGivesNoEmail%1,                Paciello%Maria L%coreGivesNoEmail%1,                Payares-Herrera%Concepcion%coreGivesNoEmail%1,                Pa\u00f1o-Pardo%Jos\u00e9 R%coreGivesNoEmail%1,                Perez-Olmeda%Mayte%coreGivesNoEmail%1,                Pintos%Ilduara%coreGivesNoEmail%1,                Porras-Leal%Maria L%coreGivesNoEmail%1,                Ramos-Garrido%Ascension%coreGivesNoEmail%1,                Ramos-Mart\u00ednez%Antonio%coreGivesNoEmail%1,                Romera-Mart\u00ednez%Irene%coreGivesNoEmail%1,                Rubio-Batll\u00e9s%Martin%coreGivesNoEmail%1,                Ruiz-Antor\u00e1n%Belen%coreGivesNoEmail%1,                Saez-Serrano%Maria Isabel%coreGivesNoEmail%1,                Torres%Ferran%coreGivesNoEmail%1,                Velasco-Iglesias%Ana%coreGivesNoEmail%1,                Vid\u00e1n-Est\u00e9vez%Julia%coreGivesNoEmail%1,                Villares%Paula%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Agarwal%NULL%1,                  Aparna%Mukherjee%NULL%2,                  Gunjan%Kumar%NULL%3,                  Gunjan%Kumar%NULL%0,                  Pranab%Chatterjee%NULL%2,                  Tarun%Bhatnagar%NULL%2,                  Pankaj%Malhotra%NULL%2,                  NULL%NULL%NULL%0,                  NULL%NULL%NULL%0,                  Anup%Agarwal%NULL%1,                  Aparna%Mukherjee%NULL%0,                  Gunjan%Kumar%NULL%0,                  Pranab%Chatterjee%NULL%0,                  Tarun%Bhatnagar%NULL%0,                  Pankaj%Malhotra%NULL%0,                  B%Latha%NULL%1,                  Sunita%Bundas%NULL%1,                  Vivek%Kumar%NULL%2,                  Ravi%Dosi%NULL%1,                  Janak Kumar%Khambholja%NULL%1,                  Rosemarie%de Souza%NULL%1,                  Raja Rao%Mesipogu%NULL%1,                  Saurabh%Srivastava%NULL%1,                  Simmi%Dube%NULL%1,                  Kiran%Chaudhary%NULL%1,                  S%Subash%NULL%1,                  S%Anbuselvi%NULL%1,                  V%Rajendran%NULL%1,                  A%Sundararajaperumal%NULL%1,                  P%Balamanikandan%NULL%1,                  R S Uma%Maheswari%NULL%1,                  R%Jayanthi%NULL%1,                  S%Ragunanthanan%NULL%1,                  Sudhir%Bhandari%NULL%1,                  Ajeet%Singh%NULL%1,                  Ashok%Pal%NULL%1,                  Anjali%Handa%NULL%1,                  Govind%Rankawat%NULL%1,                  Ketan%Kargirwar%NULL%1,                  Joyce%Regi%NULL%1,                  Darshana%Rathod%NULL%1,                  Edwin%Pathrose%NULL%1,                  Nirankar%Bhutaka%NULL%1,                  Mayur H%Patel%NULL%1,                  Rahul J%Verma%NULL%1,                  Kamal%Malukani%NULL%1,                  Shivani%Patel%NULL%1,                  Apurv%Thakur%NULL%1,                  Satish%Joshi%NULL%1,                  Rashmi%Kulkarni%NULL%1,                  Nilay N%Suthar%NULL%1,                  Nehal M%Shah%NULL%1,                  Hemang M%Purohit%NULL%1,                  Cherry K%Shah%NULL%1,                  Monila N%Patel%NULL%1,                  Saket%Shah%NULL%1,                  Smit T%Shah%NULL%1,                  Tehsim%Memon%NULL%1,                  Vishal R%Beriwala%NULL%1,                  Kusum%Jashnani%NULL%1,                  Fatema%Ezzy%NULL%1,                  Simran%Agrawal%NULL%1,                  Rakesh%Bhadade%NULL%1,                  MN%Atish%NULL%1,                  Tushar%Madke%NULL%1,                  Vikas%Kavishwar%NULL%1,                  Ramesh%Waghmare%NULL%1,                  Nitin%Valvi%NULL%1,                  B Thrilok%Chander%NULL%1,                  A Vinaya%Sekhar%NULL%1,                  Akhilesh Kumar%Maurya%NULL%1,                  K%Hemanth%NULL%1,                  K%Nagamani%NULL%1,                  K%Sudha%NULL%1,                  T Ravi%Chandra%NULL%1,                  K Tushara%Rao%NULL%1,                  J%Vyshnavi%NULL%1,                  Rashmi%Upadhyay%NULL%1,                  Shalini%Bahadur%NULL%1,                  Rambha%Pathak%NULL%1,                  Shikha%Seth%NULL%1,                  Rakesh%Gupta%NULL%1,                  Rita%Saxena%NULL%1,                  Preksha%Dwivedi%NULL%1,                  Reeni%Malik%NULL%1,                  Deepti%Chourasia%NULL%1,                  Jaya%Lalwani%NULL%1,                  UM%Sharma%NULL%1,                  JL%Marko%NULL%1,                  Amit%Suri%NULL%1,                  Vijay%Kumar%NULL%1,                  Rajnish%Kaushik%NULL%1,                  Parul%Kodan%NULL%1,                  Bhabani Prasad%Acharya%NULL%1,                  Kuldeep Kumar%Gaur%NULL%1,                  Anubhav%Gupta%NULL%1,                  Prerna%Sachdeva%NULL%1,                  Shruti%Dogra%NULL%1,                  Aikaj%Jindal%NULL%1,                  M Joseph%John%NULL%1,                  Avtar Singh%Dhanju%NULL%1,                  Ranjana%Khetrepal%NULL%1,                  Neeraj%Sharma%NULL%1,                  Neetu%Kukar%NULL%1,                  Divya%Kavita%NULL%1,                  Rajesh%Kumar%NULL%1,                  Rajesh%Mahajan%NULL%1,                  Gurpreet%Singh%NULL%1,                  Jaspreet%Kaur%NULL%1,                  Raminder Pal%Singh%NULL%1,                  Rajni%Bassi%NULL%1,                  Swapneil%Parikh%NULL%1,                  Om%Shrivastav%NULL%1,                  Jayanthi%Shastri%NULL%1,                  Maherra%Desai%NULL%1,                  Shreevatsa%Udupa%NULL%1,                  Varun A%Bafna%NULL%1,                  Vijay%Barge%NULL%1,                  Rajendra%Madane%NULL%1,                  Sheetal%Yadav%NULL%1,                  Sanjeev%Misra%NULL%1,                  Archana%Bajpayee%NULL%1,                  M K%Garg%NULL%1,                  G K%Bohra%NULL%1,                  Vijaylakshmi%Nag%NULL%1,                  Puneeth Babu%Anne%NULL%1,                  Mohd%Nadeem%NULL%1,                  Pallavi%Singh%NULL%1,                  Ram%Niwas%NULL%1,                  Niranjan Shiwaji%Khaire%NULL%1,                  Rattiram%Sharma%NULL%1,                  Mini P%Singh%NULL%1,                  Naresh%Sachdeva%NULL%1,                  Suchet%Sachdev%NULL%1,                  Rekha%Hans%NULL%1,                  Vikas%Suri%NULL%1,                  LN%Yaddanapudi%NULL%1,                  PVM%Lakshmi%NULL%1,                  Neha%Singh%NULL%1,                  Divendu%Bhushan%NULL%1,                  Neeraj%Kumar%NULL%1,                  Muralidhar%Tambe%NULL%1,                  Sonali%Salvi%NULL%1,                  Nalini%Kadgi%NULL%1,                  Shashikala%Sangle%NULL%1,                  Leena%Nakate%NULL%1,                  Samir%Joshi%NULL%1,                  Rajesh%Karyakarte%NULL%1,                  Suraj%Goyanka%NULL%1,                  Nimisha%Sharma%NULL%1,                  Nikhil%Verma%NULL%1,                  Asim%Das%NULL%1,                  Monika%Bahl%NULL%1,                  Nitya%Wadhwa%NULL%1,                  Shreepad%Bhat%NULL%1,                  Shweta%Deshmukh%NULL%1,                  Vrushali%Wagh%NULL%1,                  Atul%Kulkarni%NULL%1,                  Tanvi%Yardi%NULL%1,                  Ram S%Kalgud%NULL%1,                  Purushottam%Reddy%NULL%1,                  Kavitha%Yevoor%NULL%1,                  Prashanth%Gajula%NULL%1,                  Vivek%Maleyur%NULL%1,                  S%Medini%NULL%1,                  HN%Mohith%NULL%1,                  Anil%Gurtoo%NULL%1,                  Ritika%Sud%NULL%1,                  Sangeeta%Pahuja%NULL%1,                  Anupam%Prakash%NULL%1,                  Parijat%Gogoi%NULL%1,                  Shailja%Shukla%NULL%1,                  D Himanshu%Reddy%NULL%1,                  Tulika%Chandra%NULL%1,                  Saurabh%Pandey%NULL%1,                  Pradeep%Maurya%NULL%1,                  Wahid%Ali%NULL%1,                  Vivek%Kumar%NULL%0,                  Kamlesh%Upadhyay%NULL%1,                  Nidhi%Bhatnagar%NULL%1,                  Nilima%Shah%NULL%1,                  Mamta%Shah%NULL%1,                  Tarak%Patel%NULL%1,                  Ram Mohan%Jaiswal%NULL%1,                  Ashish%Jain%NULL%1,                  Shweta%Sharma%NULL%1,                  Puneet%Rijhwani%NULL%1,                  Naveen%Gupta%NULL%1,                  Tinkal C%Patel%NULL%1,                  Mahesh G%Solu%NULL%1,                  Jitendra%Patel%NULL%1,                  Yash R%Shah%NULL%1,                  Mayur%Jarag%NULL%1,                  Varsha%Godbole%NULL%1,                  Meenakshi%Shah%NULL%1,                  Rikin%Raj%NULL%1,                  Irfan%Nagori%NULL%1,                  Pramod R%Jha%NULL%1,                  Arti D%Shah%NULL%1,                  Gowtham%Yeeli%NULL%1,                  Archit%Jain%NULL%1,                  Rooppreet Kaur%Gill%NULL%1,                  KV Sreedhar%Babu%NULL%1,                  B Suresh%Babu%NULL%1,                  Alladi%Mohan%NULL%1,                  B%Vengamma%NULL%1,                  K Chandra%Sekhar%NULL%1,                  Srinivasulu%Damam%NULL%1,                  K%Narsimhulu%NULL%1,                  C%Aparna%NULL%1,                  G%Baleswari%NULL%1,                  K Ravindranath%Reddy%NULL%1,                  P%Chandrasekhar%NULL%1,                  Sunil Jodharam%Panjwani%NULL%1,                  Pragnesh H%Shah%NULL%1,                  Manish%Barvaliya%NULL%1,                  Kairavi%Desai%NULL%1,                  Pankaj J%Akholkar%NULL%1,                  Milind%Baldi%NULL%1,                  Ashok%Yadav%NULL%1,                  Manoj%Gupta%NULL%1,                  Nitin%Rawat%NULL%1,                  Dilip%Chawda%NULL%1,                  M%Natarajan%NULL%1,                  M%Sintha%NULL%1,                  David Pradeep%Kumar%NULL%1,                  Fathhur%Rabbani%NULL%1,                  Vrushali Khirid%Khadke%NULL%1,                  Dattatray%Patki%NULL%1,                  Sonali%Marathe%NULL%1,                  Clyde%D’Souza%NULL%1,                  Vipul%Tadha%NULL%1,                  Satyam%Arora%NULL%1,                  Devendra Kumar%Gupta%NULL%1,                  Seema%Dua%NULL%1,                  Nitu%Chauhan%NULL%1,                  Ajeet Singh%Chahar%NULL%1,                  Joy John%Mammen%NULL%1,                  Snehil%Kumar%NULL%1,                  Dolly%Daniel%NULL%1,                  Ravindraa%Singh%NULL%1,                  Venkatesh%Dhat%NULL%1,                  Yogesh%Agarwal%NULL%1,                  Sohini%Arora%NULL%1,                  Ashish%Pathak%NULL%1,                  Manju%Purohit%NULL%1,                  Ashish%Sharma%NULL%1,                  Jayashree%Sharma%NULL%1,                  Manisha%Madkaikar%NULL%1,                  Kavita%Joshi%NULL%1,                  Reetika Malik%Yadav%NULL%1,                  Swarupa%Bhagwat%NULL%1,                  Niteen D%Karnik%NULL%1,                  Yojana A%Gokhale%NULL%1,                  Leena%Naik%NULL%1,                  Sangita%Margam%NULL%1,                  Santasabuj%Das%NULL%1,                  Alka%Turuk%NULL%1,                  V Saravana%Kumar%NULL%1,                  K%Kanagasabai%NULL%1,                  R%Sabarinathan%NULL%1,                  Gururaj%Deshpande%NULL%1,                  Sharda%Sharma%NULL%1,                  Rashmi%Gunjikar%NULL%1,                  Anita%Shete%NULL%1,                  Darpan%Phagiwala%NULL%1,                  Chetan%Patil%NULL%1,                  Snehal%Shingade%NULL%1,                  Kajal%Jarande%NULL%1,                  Himanshu%Kaushal%NULL%1,                  Pragya%Yadav%NULL%1,                  Gajanan%Sapkal%NULL%1,                  Priya%Abraham%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Ivan FN%Hung%NULL%1,                  Kelvin KW%To%NULL%1,                  Cheuk-Kwong%Lee%NULL%0,                  Kar-Lung%Lee%NULL%0,                  Kenny%Chan%NULL%0,                  Wing-Wah%Yan%NULL%1,                  Raymond%Liu%NULL%0,                  Chi-Leung%Watt%NULL%1,                  Wai-Ming%Chan%NULL%0,                  Kang-Yiu%Lai%NULL%0,                  Chi-Kwan%Koo%NULL%1,                  Tom%Buckley%NULL%1,                  Fu-Loi%Chow%NULL%0,                  Kwan-Keung%Wong%NULL%1,                  Hok-Sum%Chan%NULL%1,                  Chi-Keung%Ching%NULL%1,                  Bone SF%Tang%NULL%1,                  Candy CY%Lau%NULL%1,                  Iris WS%Li%NULL%1,                  Shao-Haei%Liu%NULL%0,                  Kwok-Hung%Chan%NULL%0,                  Che-Kit%Lin%NULL%0,                  Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y. O. Y.%Soo%NULL%1,                  Y.%Cheng%NULL%1,                  R.%Wong%NULL%2,                  D. S.%Hui%NULL%1,                  C. K.%Lee%NULL%2,                  K. K. S.%Tsang%NULL%1,                  M. H. L.%Ng%NULL%2,                  P.%Chan%NULL%2,                  G.%Cheng%NULL%2,                  J. J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Johan%van Griensven%xref no email%1,            Tansy%Edwards%xref no email%1,            Xavier%de Lamballerie%xref no email%1,            Malcolm G.%Semple%xref no email%1,            Pierre%Gallian%xref no email%1,            Sylvain%Baize%xref no email%1,            Peter W.%Horby%xref no email%1,            Herv\u00e9%Raoul%xref no email%1,            N\u2019Faly%Magassouba%xref no email%1,            Annick%Antierens%xref no email%1,            Carolyn%Lomas%xref no email%1,            Ousmane%Faye%xref no email%1,            Amadou A.%Sall%xref no email%1,            Katrien%Fransen%xref no email%1,            Jozefien%Buyze%xref no email%1,            Raffaella%Ravinetto%xref no email%1,            Pierre%Tiberghien%xref no email%1,            Yves%Claeys%xref no email%1,            Maaike%De Crop%xref no email%1,            Lutgarde%Lynen%xref no email%1,            Elhadj Ibrahima%Bah%xref no email%1,            Peter G.%Smith%xref no email%1,            Alexandre%Delamou%xref no email%1,            Anja%De Weggheleire%xref no email%1,            Nyankoye%Haba%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hongjie%Yu%NULL%1,                  Zhancheng%Gao%NULL%0,                  Zijian%Feng%NULL%2,                  Yuelong%Shu%NULL%1,                  Nijuan%Xiang%NULL%2,                  Lei%Zhou%NULL%2,                  Yang%Huai%NULL%1,                  Luzhao%Feng%NULL%0,                  Zhibin%Peng%NULL%1,                  Zhongjie%Li%NULL%1,                  Cuiling%Xu%NULL%1,                  Junhua%Li%NULL%0,                  Chengping%Hu%NULL%1,                  Qun%Li%NULL%1,                  Xiaoling%Xu%NULL%1,                  Xuecheng%Liu%NULL%1,                  Zigui%Liu%NULL%1,                  Longshan%Xu%NULL%1,                  Yusheng%Chen%NULL%1,                  Huiming%Luo%NULL%1,                  Liping%Wei%NULL%1,                  Xianfeng%Zhang%NULL%1,                  Jianbao%Xin%NULL%1,                  Junqiao%Guo%NULL%1,                  Qiuyue%Wang%NULL%1,                  Zhengan%Yuan%NULL%1,                  Longnv%Zhou%NULL%1,                  Kunzhao%Zhang%NULL%1,                  Wei%Zhang%NULL%0,                  Jinye%Yang%NULL%1,                  Xiaoning%Zhong%NULL%1,                  Shichang%Xia%NULL%1,                  Lanjuan%Li%NULL%0,                  Jinquan%Cheng%NULL%1,                  Erdang%Ma%NULL%1,                  Pingping%He%NULL%1,                  Shui Shan%Lee%NULL%1,                  Yu%Wang%NULL%3,                  Timothy M.%Uyeki%NULL%0,                  Weizhong%Yang%NULL%1,                  Joel Mark%Montgomery%NULL%0,                  Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C. W.%ROSS%xref no email%1,            ERWIN J.%HUND%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[W. W. G.%MACLACHLAN%xref no email%1,            W. J.%FETTER%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Y.%Cheng%NULL%1,                  R.%Wong%NULL%0,                  Y. O. Y.%Soo%NULL%1,                  W. S.%Wong%NULL%1,                  C. K.%Lee%NULL%0,                  M. H. L.%Ng%NULL%0,                  P.%Chan%NULL%0,                  K. C.%Wong%NULL%1,                  C. B.%Leung%NULL%1,                  G.%Cheng%gcheng@cuhk.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[L. W.%McGUIRE%xref no email%1,            W. R.%REDDEN%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kai%Duan%NULL%1,                  Bende%Liu%NULL%2,                  Bende%Liu%NULL%0,                  Cesheng%Li%NULL%1,                  Huajun%Zhang%NULL%1,                  Ting%Yu%NULL%0,                  Ting%Yu%NULL%0,                  Jieming%Qu%NULL%0,                  Min%Zhou%NULL%0,                  Min%Zhou%NULL%0,                  Li%Chen%NULL%3,                  Li%Chen%NULL%0,                  Shengli%Meng%NULL%2,                  Shengli%Meng%NULL%0,                  Yong%Hu%NULL%1,                  Cheng%Peng%NULL%1,                  Mingchao%Yuan%NULL%1,                  Jinyan%Huang%NULL%1,                  Zejun%Wang%NULL%2,                  Zejun%Wang%NULL%0,                  Jianhong%Yu%NULL%1,                  Xiaoxiao%Gao%NULL%1,                  Dan%Wang%NULL%1,                  Xiaoqi%Yu%NULL%1,                  Li%Li%NULL%0,                  Li%Li%NULL%0,                  Jiayou%Zhang%NULL%2,                  Jiayou%Zhang%NULL%0,                  Xiao%Wu%NULL%1,                  Bei%Li%NULL%1,                  Yanping%Xu%NULL%1,                  Wei%Chen%NULL%0,                  Wei%Chen%NULL%0,                  Yan%Peng%NULL%1,                  Yeqin%Hu%NULL%1,                  Lianzhen%Lin%NULL%1,                  Xuefei%Liu%NULL%1,                  Shihe%Huang%NULL%1,                  Zhijun%Zhou%NULL%1,                  Lianghao%Zhang%NULL%1,                  Yue%Wang%NULL%1,                  Zhi%Zhang%NULL%1,                  Kun%Deng%NULL%1,                  Zhiwu%Xia%NULL%1,                  Qin%Gong%NULL%1,                  Wei%Zhang%NULL%0,                  Xiaobei%Zheng%NULL%1,                  Ying%Liu%NULL%0,                  Huichuan%Yang%NULL%1,                  Dongbo%Zhou%NULL%1,                  Ding%Yu%NULL%1,                  Jifeng%Hou%NULL%1,                  Zhengli%Shi%NULL%0,                  Saijuan%Chen%NULL%1,                  Zhu%Chen%NULL%1,                  Xinxin%Zhang%NULL%0,                  Xiaoming%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[F.%Sahr%NULL%1,                  R.%Ansumana%rashidansumana@gmail.com%1,                  T.A.%Massaquoi%NULL%1,                  B.R.%Idriss%NULL%1,                  F.R.%Sesay%NULL%1,                  J.M.%Lamin%NULL%1,                  S.%Baker%NULL%1,                  S.%Nicol%NULL%1,                  B.%Conton%NULL%1,                  W.%Johnson%NULL%1,                  O.T.%Abiri%NULL%1,                  O.%Kargbo%NULL%1,                  P.%Kamara%NULL%1,                  A.%Goba%NULL%1,                  J.B.W.%Russell%NULL%1,                  S.M.%Gevao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qing-Lei%Zeng%zengqinglei2009@163.com%1,                  Zu-Jiang%Yu%NULL%1,                  Jian-Jun%Gou%NULL%1,                  Guang-Ming%Li%NULL%1,                  Shu-Huan%Ma%NULL%1,                  Guo-Fan%Zhang%NULL%1,                  Jiang-Hai%Xu%NULL%1,                  Wan-Bao%Lin%NULL%1,                  Guang-Lin%Cui%NULL%1,                  Min-Min%Zhang%NULL%1,                  Cheng%Li%NULL%1,                  Ze-Shuai%Wang%NULL%1,                  Zhi-Hao%Zhang%NULL%1,                  Zhang-Suo%Liu%zengqinglei2009@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hassan%Abolghasemi%NULL%1,                  Peyman%Eshghi%NULL%1,                  Abdol Majid%Cheraghali%NULL%1,                  Abbas Ali%Imani Fooladi%NULL%1,                  Farzaneh%Bolouki Moghaddam%NULL%1,                  Sina%Imanizadeh%NULL%1,                  Matin%Moeini Maleki%NULL%1,                  Mohammad%Ranjkesh%NULL%1,                  Mohammad%Rezapour%NULL%1,                  Ali%Bahramifar%NULL%1,                  Behzad%Einollahi%NULL%1,                  Mohammad Javad%Hosseini%NULL%1,                  Nematollah Joneidi%Jafari%NULL%1,                  Mohamad%Nikpouraghdam%NULL%1,                  Nariman%Sadri%NULL%1,                  Mokhtar%Tazik%NULL%1,                  Shanaz%Sali%NULL%1,                  Shamsi%Okati%NULL%1,                  Elham%Askari%NULL%1,                  Payam%Tabarsi%NULL%1,                  Jafar%Aslani%NULL%1,                  Ehsan%Sharifipour%NULL%1,                  Mohammad Hossein%Jarahzadeh%NULL%1,                  Nastaran%Khodakarim%NULL%1,                  Mahmood%Salesi%NULL%1,                  Ramezan%Jafari%NULL%1,                  Samira%Shahverdi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1832,7 +1904,7 @@
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="F2" t="s">
         <v>41</v>
@@ -1844,7 +1916,7 @@
         <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>103</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3">
@@ -1861,7 +1933,7 @@
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="F3" t="s">
         <v>47</v>
@@ -1873,7 +1945,7 @@
         <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>105</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4">
@@ -1890,7 +1962,7 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1902,7 +1974,7 @@
         <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>105</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5">
@@ -1919,7 +1991,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -1931,7 +2003,7 @@
         <v>54</v>
       </c>
       <c r="I5" t="s">
-        <v>105</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6">
@@ -1948,7 +2020,7 @@
         <v>291</v>
       </c>
       <c r="E6" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -1960,7 +2032,7 @@
         <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>108</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7">
@@ -1977,7 +2049,7 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -1989,7 +2061,7 @@
         <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>105</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8">
@@ -2006,7 +2078,7 @@
         <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>414</v>
+        <v>437</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -2018,7 +2090,7 @@
         <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>105</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9">
@@ -2035,7 +2107,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -2047,7 +2119,7 @@
         <v>64</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10">
@@ -2064,7 +2136,7 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="F10" t="s">
         <v>68</v>
@@ -2076,7 +2148,7 @@
         <v>69</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11">
@@ -2093,7 +2165,7 @@
         <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="F11" t="s">
         <v>73</v>
@@ -2105,7 +2177,7 @@
         <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12">
@@ -2122,7 +2194,7 @@
         <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -2134,7 +2206,7 @@
         <v>204</v>
       </c>
       <c r="I12" t="s">
-        <v>105</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13">
@@ -2163,7 +2235,7 @@
         <v>43</v>
       </c>
       <c r="I13" t="s">
-        <v>105</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14">
@@ -2180,7 +2252,7 @@
         <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="F14" t="s">
         <v>77</v>
@@ -2192,7 +2264,7 @@
         <v>78</v>
       </c>
       <c r="I14" t="s">
-        <v>110</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15">
@@ -2221,7 +2293,7 @@
         <v>208</v>
       </c>
       <c r="I15" t="s">
-        <v>105</v>
+        <v>431</v>
       </c>
     </row>
     <row r="16">
@@ -2250,7 +2322,7 @@
         <v>211</v>
       </c>
       <c r="I16" t="s">
-        <v>105</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17">
@@ -2267,7 +2339,7 @@
         <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -2279,7 +2351,7 @@
         <v>211</v>
       </c>
       <c r="I17" t="s">
-        <v>105</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18">
@@ -2308,7 +2380,7 @@
         <v>216</v>
       </c>
       <c r="I18" t="s">
-        <v>105</v>
+        <v>431</v>
       </c>
     </row>
     <row r="19">
@@ -2325,7 +2397,7 @@
         <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="F19" t="s">
         <v>20</v>
@@ -2337,7 +2409,7 @@
         <v>208</v>
       </c>
       <c r="I19" t="s">
-        <v>105</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20">
@@ -2354,7 +2426,7 @@
         <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="F20" t="s">
         <v>82</v>
@@ -2366,7 +2438,7 @@
         <v>43</v>
       </c>
       <c r="I20" t="s">
-        <v>108</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21">
@@ -2383,7 +2455,7 @@
         <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="F21" t="s">
         <v>22</v>
@@ -2395,7 +2467,7 @@
         <v>222</v>
       </c>
       <c r="I21" t="s">
-        <v>105</v>
+        <v>431</v>
       </c>
     </row>
     <row r="22">
@@ -2412,7 +2484,7 @@
         <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="F22" t="s">
         <v>86</v>
@@ -2424,7 +2496,7 @@
         <v>43</v>
       </c>
       <c r="I22" t="s">
-        <v>110</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23">
@@ -2441,7 +2513,7 @@
         <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="F23" t="s">
         <v>90</v>
@@ -2453,7 +2525,7 @@
         <v>91</v>
       </c>
       <c r="I23" t="s">
-        <v>103</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24">
@@ -2470,7 +2542,7 @@
         <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="F24" t="s">
         <v>95</v>
@@ -2482,7 +2554,7 @@
         <v>43</v>
       </c>
       <c r="I24" t="s">
-        <v>110</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25">
@@ -2499,7 +2571,7 @@
         <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="F25" t="s">
         <v>99</v>
@@ -2511,7 +2583,7 @@
         <v>100</v>
       </c>
       <c r="I25" t="s">
-        <v>103</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/26.xlsx
+++ b/Covid_19_Dataset_and_References/References/26.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3352" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3527" uniqueCount="472">
   <si>
     <t xml:space="preserve">Doi </t>
   </si>
@@ -1527,6 +1527,66 @@
   </si>
   <si>
     <t>[Hassan%Abolghasemi%NULL%1,                  Peyman%Eshghi%NULL%1,                  Abdol Majid%Cheraghali%NULL%1,                  Abbas Ali%Imani Fooladi%NULL%1,                  Farzaneh%Bolouki Moghaddam%NULL%1,                  Sina%Imanizadeh%NULL%1,                  Matin%Moeini Maleki%NULL%1,                  Mohammad%Ranjkesh%NULL%1,                  Mohammad%Rezapour%NULL%1,                  Ali%Bahramifar%NULL%1,                  Behzad%Einollahi%NULL%1,                  Mohammad Javad%Hosseini%NULL%1,                  Nematollah Joneidi%Jafari%NULL%1,                  Mohamad%Nikpouraghdam%NULL%1,                  Nariman%Sadri%NULL%1,                  Mokhtar%Tazik%NULL%1,                  Shanaz%Sali%NULL%1,                  Shamsi%Okati%NULL%1,                  Elham%Askari%NULL%1,                  Payam%Tabarsi%NULL%1,                  Jafar%Aslani%NULL%1,                  Ehsan%Sharifipour%NULL%1,                  Mohammad Hossein%Jarahzadeh%NULL%1,                  Nastaran%Khodakarim%NULL%1,                  Mahmood%Salesi%NULL%1,                  Ramezan%Jafari%NULL%1,                  Samira%Shahverdi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[John H%Beigel%jbeigel@niaid.nih.gov%1,                   Pablo%Tebas%NULL%4,                   Marie-Carmelle%Elie-Turenne%NULL%4,                   Ednan%Bajwa%NULL%2,                   Todd E%Bell%NULL%2,                   Charles B%Cairns%NULL%2,                   Shmuel%Shoham%NULL%3,                   Jaime G%Deville%NULL%2,                   Eric%Feucht%NULL%2,                   Judith%Feinberg%NULL%2,                   Thomas%Luke%NULL%1,                   Kanakatte%Raviprakash%NULL%3,                   Janine%Danko%NULL%2,                   Dorothy%O'Neil%NULL%1,                   Julia A%Metcalf%NULL%1,                   Karen%King%NULL%1,                   Timothy H%Burgess%NULL%1,                   Evgenia%Aga%NULL%3,                   H Clifford%Lane%NULL%2,                   Michael D%Hughes%NULL%3,                   Richard T%Davey%NULL%3,                   Pablo%Tebas%NULL%0,                   Joseph%Quinn%NULL%1,                   Yan%Jiang%NULL%1,                   Marie-Carmelle%Elie-Turenne%NULL%0,                   Robyn%Hoelle%NULL%1,                   Nicole%Iovine%NULL%1,                   Robert Shawn%Wills%NULL%1,                   Socorro%Pata%NULL%1,                   Monique%Huggins%NULL%1,                   Belinda%Manukian%NULL%1,                   Ednan%Bajwa%NULL%0,                   Carrie%Holland%NULL%1,                   Kelsey%Brait%NULL%1,                   Taylor%Hunt%NULL%1,                   Christopher%Stowell%NULL%1,                   Amy%Slater%NULL%1,                   Todd E%Bell%NULL%0,                   Mary%Townsends%NULL%1,                   Charles B%Cairns%NULL%0,                   Eugenia B%Quackenbush%NULL%1,                   Yara A%Park%NULL%1,                   Paul Gaither%Jordan%NULL%1,                   Cherie%Blanchet%NULL%1,                   Kevin%Chronowski%NULL%1,                   Kathleen%Alvarez%NULL%1,                   Shmuel%Shoham%NULL%0,                   Darin%Ostrander%NULL%1,                   Terry%Woessner%NULL%1,                   Sandra%Thoman%NULL%1,                   Jaime G%Deville%NULL%0,                   James%Lin%NULL%1,                   Alyssa%Ziman%NULL%1,                   Kavita%Shankar%NULL%1,                   Eric%Feucht%NULL%0,                   Tom%Blok%NULL%1,                   Don%Batts%NULL%1,                   Bob%Beck%NULL%1,                   Gail%Massey%NULL%1,                   Carol%Bradley%NULL%1,                   Judith%Feinberg%NULL%0,                   Patricia%Carey%NULL%1,                   Jenifer%Baer%NULL%1,                   Eva Moore%Whitehead%NULL%1,                   Sharon%Kohrs%NULL%1,                   Robert%Giulitto%NULL%1,                   Christina%Schofield%NULL%2,                   Mary%Fairchok%NULL%1,                   Susan%Chambers%NULL%1,                   Cindy%Baker%NULL%1,                   NULL%RN%NULL%1,                   Michelle%Parker%NULL%1,                   Marta%Harshbarger%NULL%1,                   M Hong%Nguyen%NULL%1,                   Mary Ellen%Carey%NULL%1,                   Julie%Paronish%NULL%1,                   Frank%Cornell%NULL%1,                   Jim%Cramer%NULL%1,                   Diana Lynn%Pakstis%NULL%1,                   Michael G%Ison%NULL%1,                   Richard%Wunderink%NULL%1,                   Marshall%Glesby%NULL%1,                   Kirsis%Ham%NULL%1,                   Valery%Hughes%NULL%1,                   Melissa%Cushing%NULL%0,                   Cheryl%Goss%NULL%1,                   Joanne%Grenade%NULL%1,                   Pauline K%Park%NULL%1,                   Lena M%Napolitano%NULL%1,                   Krishnan%Raghavendran%NULL%1,                   Robert C%Hyzy%NULL%1,                   Robertson%Davenport%NULL%1,                   Kristin%Brierley%NULL%1,                   Theresa%Downs%NULL%1,                   Michelle Ng%Gong%NULL%1,                   Joan%Uehlinger%NULL%1,                   Michael%Lin%NULL%2,                   Janice%Fritsche%NULL%1,                   Tondria%Green%NULL%1,                   Bruce%McLeod%NULL%1,                   Deena%Patel%NULL%1,                   Mary F%Bavaro%NULL%1,                   Robert%Deiss%NULL%1,                   Carolyn%Brandt%NULL%1,                   Stephanie%Cammarata%NULL%1,                   Allan%Kremp%NULL%1,                   Karine%Hollis-Perry%NULL%1,                   Tahaniyat%Lalani%NULL%1,                   Susan%Banks%NULL%1,                   Jacqueline%Johnson%NULL%1,                   Jason%Maguire%NULL%1,                   Janet%McNiff%NULL%1,                   Leslie E%Rigg%NULL%1,                   Anuradha%Ganesan%NULL%1,                   Irma%Barahona%NULL%1,                   Janine%Danko%NULL%0,                   Steven%Spencer%NULL%1,                   David%Stagliano%NULL%1,                   Timothy%Burgess%NULL%1,                   Daniel%Talmor%NULL%1,                   Monique%Mohammed%NULL%1,                   Valerie%Banner-Goodspeed%NULL%1,                   Robert%Salata%NULL%1,                   Robert%Finberg%NULL%2,                   Jennifer%Wang%NULL%1,                   Karen%Longtine%NULL%1,                   Jaclyn%Longtine%NULL%1,                   Mellissa%O'Neil%NULL%1,                   Philippe R%Bauer%NULL%1,                   Ognjen%Gajic%NULL%1,                   Suanne M%Weist%NULL%1,                   Jonathan%Sevransky%NULL%1,                   Mona%Brown%NULL%1,                   John%Roback%NULL%1,                   John%Oropello%NULL%1,                   Bridget%Twohig%NULL%1,                   Jeffrey%Jhang%NULL%1,                   Rahgu%Seethala%NULL%1,                   Wilbur H%Chen%NULL%1,                   Magali%Fontaine%NULL%1,                   Kapil%Saharia%NULL%1,                   Jennifer%Husson%NULL%1,                   Roberta%DeBiasi%NULL%1,                   Jurran L%Wilson%NULL%1,                   Valli Ree%Criss%NULL%1,                   Jocelyn%Voell%NULL%1,                   Susan%Leitman%NULL%1,                   James Wade%Atkins%NULL%1,                   Hemaxi%Patel%NULL%1,                   Traci%Paige%NULL%1,                   Cathy%Cantilena%NULL%1,                   Donald%Siegel%NULL%1,                   Faye%DeMuth%NULL%1,                   Craig H%Fletcher%NULL%1,                   J Peter R%Pelletier%NULL%1,                   Hassan%Alnuaimat%NULL%1,                   Michelle%Pourde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ John H%Beigel%null%1,                    Evgenia%Aga%null%2,                    Marie-Carmelle%Elie-Turenne%null%2,                    Josalyn%Cho%null%2,                    Pablo%Tebas%null%2,                    Carol L%Clark%null%2,                    Jordan P%Metcalf%null%2,                    Caroline%Ozment%null%2,                    Kanakatte%Raviprakash%null%2,                    Joy%Beeler%null%2,                    H Preston%Holley%null%1,                    Stephanie%Warner%null%2,                    Carla%Chorley%null%2,                    H Clifford%Lane%null%1,                    Michael D%Hughes%null%2,                    Richard T%Davey%null%2,                    John H%Beigel%null%1,                    Evgenia%Aga%null%0,                    Marie-Carmelle%Elie-Turenne%null%0,                    Josalyn%Cho%null%0,                    Pablo%Tebas%null%0,                    Carol L%Clark%null%0,                    Jordan P%Metcalf%null%0,                    Caroline%Ozment%null%0,                    Kanakatte%Raviprakash%null%0,                    Joy%Beeler%null%0,                    H. Preston%Holley%null%1,                    Stephanie%Warner%null%0,                    Carla%Chorley%null%0,                    H. Clifford%Lane%null%1,                    Michael D%Hughes%null%0,                    Richard T%Davey%null%0,                    Michelle%Barron%null%1,                    Aveh%Bastani%null%1,                    Philippe%Bauer%null%1,                    William%Borkowsky%null%1,                    Charles%Cairns%null%1,                    Jaime%Deville%null%1,                    Marie-Carmelle%Elie%null%1,                    Carl%Fichtenbaum%null%1,                    Robert%Finberg%null%1,                    Mamta%Jain%null%1,                    David%Kaufman%null%1,                    Michael%Lin%null%1,                    John%Lin%null%1,                    Ryan%Maves%null%1,                    Lee%Morrow%null%1,                    Minh-Hong%Nguyen%null%1,                    Pauline%Park%null%1,                    Christopher%Polk%null%1,                    Adrienne%Randolph%null%1,                    Suchitra%Rao%null%1,                    Lewis%Rubinson%null%1,                    Christina%Schofield%null%1,                    Shmuel%Shoham%null%1,                    Erika%Stalets%null%1,                    Renee D%Stapleton%null%1,                   John H%Beigel%null%2,                   Evgenia%Aga%null%0,                   Marie-Carmelle%Elie-Turenne%null%0,                   Josalyn%Cho%null%2,                   Pablo%Tebas%null%0,                   Carol L%Clark%null%2,                   Jordan P%Metcalf%null%2,                   Caroline%Ozment%null%2,                   Kanakatte%Raviprakash%null%0,                   Joy%Beeler%null%2,                   H Preston%Holley%null%1,                   Stephanie%Warner%null%2,                   Carla%Chorley%null%2,                   H Clifford%Lane%null%0,                   Michael D%Hughes%null%0,                   Richard T%Davey%null%0,                   John H%Beigel%null%0,                   Evgenia%Aga%null%0,                   Marie-Carmelle%Elie-Turenne%null%0,                   Josalyn%Cho%null%0,                   Pablo%Tebas%null%0,                   Carol L%Clark%null%0,                   Jordan P%Metcalf%null%0,                   Caroline%Ozment%null%0,                   Kanakatte%Raviprakash%null%0,                   Joy%Beeler%null%0,                   H. Preston%Holley%null%1,                   Stephanie%Warner%null%0,                   Carla%Chorley%null%0,                   H. Clifford%Lane%null%1,                   Michael D%Hughes%null%0,                   Richard T%Davey%null%0,                   Michelle%Barron%null%1,                   Aveh%Bastani%null%1,                   Philippe%Bauer%null%1,                   William%Borkowsky%null%1,                   Charles%Cairns%null%1,                   Jaime%Deville%null%1,                   Marie-Carmelle%Elie%null%1,                   Carl%Fichtenbaum%null%1,                   Robert%Finberg%null%0,                   Mamta%Jain%null%1,                   David%Kaufman%null%1,                   Michael%Lin%null%0,                   John%Lin%null%1,                   Ryan%Maves%null%1,                   Lee%Morrow%null%1,                   Minh-Hong%Nguyen%null%1,                   Pauline%Park%null%1,                   Christopher%Polk%null%1,                   Adrienne%Randolph%null%1,                   Suchitra%Rao%null%1,                   Lewis%Rubinson%null%1,                   Christina%Schofield%null%0,                   Shmuel%Shoham%null%0,                   Erika%Stalets%null%1,                   Renee D%Stapleton%null%1]</t>
+  </si>
+  <si>
+    <t>[Caiying%Hu%coreGivesNoEmail%1,                 Chenyue%Li%coreGivesNoEmail%1,                 Conghui%Wang%coreGivesNoEmail%1,                 Cuihua%Tao%coreGivesNoEmail%1,                 E.%Deng%coreGivesNoEmail%1,                 Haixia%Xu%coreGivesNoEmail%1,                 Heng%Mei%coreGivesNoEmail%1,                 Jianwei%Wang%coreGivesNoEmail%1,                 Juan%Wang%coreGivesNoEmail%1,                 Jue%Wang%coreGivesNoEmail%1,                 Juntao%Yang%coreGivesNoEmail%1,                 Li%Zeng%coreGivesNoEmail%1,                 Lifeng%Chen%coreGivesNoEmail%1,                 Lili%Ren%coreGivesNoEmail%1,                 Ling%Li%coreGivesNoEmail%1,                 Linqi%Zhang%coreGivesNoEmail%1,                 Nian%Xiong%coreGivesNoEmail%1,                 Ning%Man%coreGivesNoEmail%1,                 Qing%Wei%coreGivesNoEmail%1,                 Ru%Yang%coreGivesNoEmail%1,                 Shangen%Zheng%coreGivesNoEmail%1,                 Shisheng%Su%coreGivesNoEmail%1,                 Wei%Zhang%coreGivesNoEmail%1,                 Xiaoxiong%Wu%coreGivesNoEmail%1,                 Xuejun%Zhang%coreGivesNoEmail%1,                 Xunliang%Tong%coreGivesNoEmail%1,                 Yanyun%Wu%coreGivesNoEmail%1,                 Yong%Guo%coreGivesNoEmail%1,                 Yongpei%Yu%coreGivesNoEmail%1,                 Yu%Hu%coreGivesNoEmail%1,                 Yu%Liu%coreGivesNoEmail%1,                 Yujie%Kong%coreGivesNoEmail%1,                 Zhihua%Xu%coreGivesNoEmail%1,                 Zhong%Liu%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Ivan F.N.%Hung%null%1,                    Kelvin K.W.%To%null%1,                    Cheuk-Kwong%Lee%null%1,                    Kar-Lung%Lee%null%1,                    Wing-Wa%Yan%null%1,                    Kenny%Chan%null%1,                    Wai-Ming%Chan%null%1,                    Chun-Wai%Ngai%null%1,                    Kin-Ip%Law%null%1,                    Fu-Loi%Chow%null%1,                    Raymond%Liu%null%1,                    Kang-Yiu%Lai%null%1,                    Candy C.Y.%Lau%null%1,                    Shao-Haei%Liu%null%1,                    Kwok-Hung%Chan%null%0,                    Che-Kit%Lin%null%1,                    Kwok-Yung%Yuen%null%0,                   Ivan F.N.%Hung%null%1,                   Kelvin K.W.%To%null%1,                   Cheuk-Kwong%Lee%null%2,                   Kar-Lung%Lee%null%2,                   Wing-Wa%Yan%null%1,                   Kenny%Chan%null%2,                   Wai-Ming%Chan%null%2,                   Chun-Wai%Ngai%null%1,                   Kin-Ip%Law%null%1,                   Fu-Loi%Chow%null%2,                   Raymond%Liu%null%2,                   Kang-Yiu%Lai%null%2,                   Candy C.Y.%Lau%null%1,                   Shao-Haei%Liu%null%2,                   Kwok-Hung%Chan%null%3,                   Che-Kit%Lin%null%2,                   Kwok-Yung%Yuen%null%0]</t>
+  </si>
+  <si>
+    <t>[Arvind%Gharbharan%NULL%1,                   Carlijn C. E.%Jordans%NULL%1,                   Corine%GeurtsvanKessel%NULL%1,                   Jan G.%den Hollander%NULL%2,                   Jan G.%den Hollander%NULL%0,                   Faiz%Karim%NULL%1,                   Femke P. N.%Mollema%NULL%1,                   Janneke E.%Stalenhoef – Schukken%NULL%1,                   Anthonius%Dofferhoff%NULL%2,                   Anthonius%Dofferhoff%NULL%0,                   Inge%Ludwig%NULL%1,                   Adrianus%Koster%NULL%1,                   Robert-Jan%Hassing%NULL%1,                   Jeannet C.%Bos%NULL%1,                   Geert R.%van Pottelberge%NULL%1,                   Imro N.%Vlasveld%NULL%1,                   Heidi S. M.%Ammerlaan%NULL%1,                   Elena M.%van Leeuwen – Segarceanu%NULL%1,                   Jelle%Miedema%NULL%1,                   Menno%van der Eerden%NULL%1,                   Thijs J.%Schrama%NULL%1,                   Grigorios%Papageorgiou%NULL%2,                   Grigorios%Papageorgiou%NULL%0,                   Peter%te Boekhorst%NULL%1,                   Francis H.%Swaneveld%NULL%1,                   Yvonne M.%Mueller%NULL%1,                   Marco W. J.%Schreurs%NULL%2,                   Marco W. J.%Schreurs%NULL%0,                   Jeroen J. A.%van Kampen%NULL%1,                   Barry%Rockx%NULL%1,                   Nisreen M. A.%Okba%NULL%2,                   Nisreen M. A.%Okba%NULL%0,                   Peter D.%Katsikis%NULL%2,                   Peter D.%Katsikis%NULL%0,                   Marion P. G.%Koopmans%NULL%2,                   Marion P. G.%Koopmans%NULL%0,                   Bart L.%Haagmans%NULL%2,                   Bart L.%Haagmans%NULL%0,                   Casper%Rokx%c.rokx@erasmusmc.nl%2,                   Casper%Rokx%c.rokx@erasmusmc.nl%0,                   Bart J. A.%Rijnders%NULL%2,                   Bart J. A.%Rijnders%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gordin%Fred M.%coreGivesNoEmail%1,                 INSIGHT%FLU005 IVIG Pilot Study Group.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alcam\u00ed%Jos\u00e9%coreGivesNoEmail%1,                 Avenda\u00f1o-Sol\u00e1%Cristina%coreGivesNoEmail%1,                 Blanco%Lydia%coreGivesNoEmail%1,                 Bueno%Jose L%coreGivesNoEmail%1,                 Calder\u00f3n-Parra%Jorge%coreGivesNoEmail%1,                 Casas-Flecha%Inmaculada%coreGivesNoEmail%1,                 ConPlas-19%Study Group%coreGivesNoEmail%1,                 de%Oteyza Jaime P\u00e9rez%coreGivesNoEmail%1,                 Duarte%Rafael F%coreGivesNoEmail%1,                 D\u00edaz%de Santiago Alberto%coreGivesNoEmail%1,                 Fern\u00e1ndez-Cruz%Ana%coreGivesNoEmail%1,                 Garcia-Perez%Javier%coreGivesNoEmail%1,                 Jarilla-Fern\u00e1ndez%Maria C%coreGivesNoEmail%1,                 Lora-Tamayo%Jaime%coreGivesNoEmail%1,                 Madrigal-S\u00e1nchez%Maria E%coreGivesNoEmail%1,                 Malo%de Molina Rosa%coreGivesNoEmail%1,                 Manche\u00f1o-Losa%Mikel%coreGivesNoEmail%1,                 Mart\u00ednez-Gonz\u00e1lez%A L%coreGivesNoEmail%1,                 Moreno-Chulilla%J A%coreGivesNoEmail%1,                 Mu\u00f1ez-Rubio%Elena%coreGivesNoEmail%1,                 Mu\u00f1iz-D\u00edaz%Eduardo%coreGivesNoEmail%1,                 Nu\u00f1ez-Orantos%Maria J%coreGivesNoEmail%1,                 Paciello%Maria L%coreGivesNoEmail%1,                 Payares-Herrera%Concepcion%coreGivesNoEmail%1,                 Pa\u00f1o-Pardo%Jos\u00e9 R%coreGivesNoEmail%1,                 Perez-Olmeda%Mayte%coreGivesNoEmail%1,                 Pintos%Ilduara%coreGivesNoEmail%1,                 Porras-Leal%Maria L%coreGivesNoEmail%1,                 Ramos-Garrido%Ascension%coreGivesNoEmail%1,                 Ramos-Mart\u00ednez%Antonio%coreGivesNoEmail%1,                 Romera-Mart\u00ednez%Irene%coreGivesNoEmail%1,                 Rubio-Batll\u00e9s%Martin%coreGivesNoEmail%1,                 Ruiz-Antor\u00e1n%Belen%coreGivesNoEmail%1,                 Saez-Serrano%Maria Isabel%coreGivesNoEmail%1,                 Torres%Ferran%coreGivesNoEmail%1,                 Velasco-Iglesias%Ana%coreGivesNoEmail%1,                 Vid\u00e1n-Est\u00e9vez%Julia%coreGivesNoEmail%1,                 Villares%Paula%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Agarwal%NULL%1,                   Aparna%Mukherjee%NULL%2,                   Gunjan%Kumar%NULL%3,                   Gunjan%Kumar%NULL%0,                   Pranab%Chatterjee%NULL%2,                   Tarun%Bhatnagar%NULL%2,                   Pankaj%Malhotra%NULL%2,                   NULL%NULL%NULL%0,                   NULL%NULL%NULL%0,                   Anup%Agarwal%NULL%1,                   Aparna%Mukherjee%NULL%0,                   Gunjan%Kumar%NULL%0,                   Pranab%Chatterjee%NULL%0,                   Tarun%Bhatnagar%NULL%0,                   Pankaj%Malhotra%NULL%0,                   B%Latha%NULL%1,                   Sunita%Bundas%NULL%1,                   Vivek%Kumar%NULL%2,                   Ravi%Dosi%NULL%1,                   Janak Kumar%Khambholja%NULL%1,                   Rosemarie%de Souza%NULL%1,                   Raja Rao%Mesipogu%NULL%1,                   Saurabh%Srivastava%NULL%1,                   Simmi%Dube%NULL%1,                   Kiran%Chaudhary%NULL%1,                   S%Subash%NULL%1,                   S%Anbuselvi%NULL%1,                   V%Rajendran%NULL%1,                   A%Sundararajaperumal%NULL%1,                   P%Balamanikandan%NULL%1,                   R S Uma%Maheswari%NULL%1,                   R%Jayanthi%NULL%1,                   S%Ragunanthanan%NULL%1,                   Sudhir%Bhandari%NULL%1,                   Ajeet%Singh%NULL%1,                   Ashok%Pal%NULL%1,                   Anjali%Handa%NULL%1,                   Govind%Rankawat%NULL%1,                   Ketan%Kargirwar%NULL%1,                   Joyce%Regi%NULL%1,                   Darshana%Rathod%NULL%1,                   Edwin%Pathrose%NULL%1,                   Nirankar%Bhutaka%NULL%1,                   Mayur H%Patel%NULL%1,                   Rahul J%Verma%NULL%1,                   Kamal%Malukani%NULL%1,                   Shivani%Patel%NULL%1,                   Apurv%Thakur%NULL%1,                   Satish%Joshi%NULL%1,                   Rashmi%Kulkarni%NULL%1,                   Nilay N%Suthar%NULL%1,                   Nehal M%Shah%NULL%1,                   Hemang M%Purohit%NULL%1,                   Cherry K%Shah%NULL%1,                   Monila N%Patel%NULL%1,                   Saket%Shah%NULL%1,                   Smit T%Shah%NULL%1,                   Tehsim%Memon%NULL%1,                   Vishal R%Beriwala%NULL%1,                   Kusum%Jashnani%NULL%1,                   Fatema%Ezzy%NULL%1,                   Simran%Agrawal%NULL%1,                   Rakesh%Bhadade%NULL%1,                   MN%Atish%NULL%1,                   Tushar%Madke%NULL%1,                   Vikas%Kavishwar%NULL%1,                   Ramesh%Waghmare%NULL%1,                   Nitin%Valvi%NULL%1,                   B Thrilok%Chander%NULL%1,                   A Vinaya%Sekhar%NULL%1,                   Akhilesh Kumar%Maurya%NULL%1,                   K%Hemanth%NULL%1,                   K%Nagamani%NULL%1,                   K%Sudha%NULL%1,                   T Ravi%Chandra%NULL%1,                   K Tushara%Rao%NULL%1,                   J%Vyshnavi%NULL%1,                   Rashmi%Upadhyay%NULL%1,                   Shalini%Bahadur%NULL%1,                   Rambha%Pathak%NULL%1,                   Shikha%Seth%NULL%1,                   Rakesh%Gupta%NULL%1,                   Rita%Saxena%NULL%1,                   Preksha%Dwivedi%NULL%1,                   Reeni%Malik%NULL%1,                   Deepti%Chourasia%NULL%1,                   Jaya%Lalwani%NULL%1,                   UM%Sharma%NULL%1,                   JL%Marko%NULL%1,                   Amit%Suri%NULL%1,                   Vijay%Kumar%NULL%1,                   Rajnish%Kaushik%NULL%1,                   Parul%Kodan%NULL%1,                   Bhabani Prasad%Acharya%NULL%1,                   Kuldeep Kumar%Gaur%NULL%1,                   Anubhav%Gupta%NULL%1,                   Prerna%Sachdeva%NULL%1,                   Shruti%Dogra%NULL%1,                   Aikaj%Jindal%NULL%1,                   M Joseph%John%NULL%1,                   Avtar Singh%Dhanju%NULL%1,                   Ranjana%Khetrepal%NULL%1,                   Neeraj%Sharma%NULL%1,                   Neetu%Kukar%NULL%1,                   Divya%Kavita%NULL%1,                   Rajesh%Kumar%NULL%1,                   Rajesh%Mahajan%NULL%1,                   Gurpreet%Singh%NULL%1,                   Jaspreet%Kaur%NULL%1,                   Raminder Pal%Singh%NULL%1,                   Rajni%Bassi%NULL%1,                   Swapneil%Parikh%NULL%1,                   Om%Shrivastav%NULL%1,                   Jayanthi%Shastri%NULL%1,                   Maherra%Desai%NULL%1,                   Shreevatsa%Udupa%NULL%1,                   Varun A%Bafna%NULL%1,                   Vijay%Barge%NULL%1,                   Rajendra%Madane%NULL%1,                   Sheetal%Yadav%NULL%1,                   Sanjeev%Misra%NULL%1,                   Archana%Bajpayee%NULL%1,                   M K%Garg%NULL%1,                   G K%Bohra%NULL%1,                   Vijaylakshmi%Nag%NULL%1,                   Puneeth Babu%Anne%NULL%1,                   Mohd%Nadeem%NULL%1,                   Pallavi%Singh%NULL%1,                   Ram%Niwas%NULL%1,                   Niranjan Shiwaji%Khaire%NULL%1,                   Rattiram%Sharma%NULL%1,                   Mini P%Singh%NULL%1,                   Naresh%Sachdeva%NULL%1,                   Suchet%Sachdev%NULL%1,                   Rekha%Hans%NULL%1,                   Vikas%Suri%NULL%1,                   LN%Yaddanapudi%NULL%1,                   PVM%Lakshmi%NULL%1,                   Neha%Singh%NULL%1,                   Divendu%Bhushan%NULL%1,                   Neeraj%Kumar%NULL%1,                   Muralidhar%Tambe%NULL%1,                   Sonali%Salvi%NULL%1,                   Nalini%Kadgi%NULL%1,                   Shashikala%Sangle%NULL%1,                   Leena%Nakate%NULL%1,                   Samir%Joshi%NULL%1,                   Rajesh%Karyakarte%NULL%1,                   Suraj%Goyanka%NULL%1,                   Nimisha%Sharma%NULL%1,                   Nikhil%Verma%NULL%1,                   Asim%Das%NULL%1,                   Monika%Bahl%NULL%1,                   Nitya%Wadhwa%NULL%1,                   Shreepad%Bhat%NULL%1,                   Shweta%Deshmukh%NULL%1,                   Vrushali%Wagh%NULL%1,                   Atul%Kulkarni%NULL%1,                   Tanvi%Yardi%NULL%1,                   Ram S%Kalgud%NULL%1,                   Purushottam%Reddy%NULL%1,                   Kavitha%Yevoor%NULL%1,                   Prashanth%Gajula%NULL%1,                   Vivek%Maleyur%NULL%1,                   S%Medini%NULL%1,                   HN%Mohith%NULL%1,                   Anil%Gurtoo%NULL%1,                   Ritika%Sud%NULL%1,                   Sangeeta%Pahuja%NULL%1,                   Anupam%Prakash%NULL%1,                   Parijat%Gogoi%NULL%1,                   Shailja%Shukla%NULL%1,                   D Himanshu%Reddy%NULL%1,                   Tulika%Chandra%NULL%1,                   Saurabh%Pandey%NULL%1,                   Pradeep%Maurya%NULL%1,                   Wahid%Ali%NULL%1,                   Vivek%Kumar%NULL%0,                   Kamlesh%Upadhyay%NULL%1,                   Nidhi%Bhatnagar%NULL%1,                   Nilima%Shah%NULL%1,                   Mamta%Shah%NULL%1,                   Tarak%Patel%NULL%1,                   Ram Mohan%Jaiswal%NULL%1,                   Ashish%Jain%NULL%1,                   Shweta%Sharma%NULL%1,                   Puneet%Rijhwani%NULL%1,                   Naveen%Gupta%NULL%1,                   Tinkal C%Patel%NULL%1,                   Mahesh G%Solu%NULL%1,                   Jitendra%Patel%NULL%1,                   Yash R%Shah%NULL%1,                   Mayur%Jarag%NULL%1,                   Varsha%Godbole%NULL%1,                   Meenakshi%Shah%NULL%1,                   Rikin%Raj%NULL%1,                   Irfan%Nagori%NULL%1,                   Pramod R%Jha%NULL%1,                   Arti D%Shah%NULL%1,                   Gowtham%Yeeli%NULL%1,                   Archit%Jain%NULL%1,                   Rooppreet Kaur%Gill%NULL%1,                   KV Sreedhar%Babu%NULL%1,                   B Suresh%Babu%NULL%1,                   Alladi%Mohan%NULL%1,                   B%Vengamma%NULL%1,                   K Chandra%Sekhar%NULL%1,                   Srinivasulu%Damam%NULL%1,                   K%Narsimhulu%NULL%1,                   C%Aparna%NULL%1,                   G%Baleswari%NULL%1,                   K Ravindranath%Reddy%NULL%1,                   P%Chandrasekhar%NULL%1,                   Sunil Jodharam%Panjwani%NULL%1,                   Pragnesh H%Shah%NULL%1,                   Manish%Barvaliya%NULL%1,                   Kairavi%Desai%NULL%1,                   Pankaj J%Akholkar%NULL%1,                   Milind%Baldi%NULL%1,                   Ashok%Yadav%NULL%1,                   Manoj%Gupta%NULL%1,                   Nitin%Rawat%NULL%1,                   Dilip%Chawda%NULL%1,                   M%Natarajan%NULL%1,                   M%Sintha%NULL%1,                   David Pradeep%Kumar%NULL%1,                   Fathhur%Rabbani%NULL%1,                   Vrushali Khirid%Khadke%NULL%1,                   Dattatray%Patki%NULL%1,                   Sonali%Marathe%NULL%1,                   Clyde%D’Souza%NULL%1,                   Vipul%Tadha%NULL%1,                   Satyam%Arora%NULL%1,                   Devendra Kumar%Gupta%NULL%1,                   Seema%Dua%NULL%1,                   Nitu%Chauhan%NULL%1,                   Ajeet Singh%Chahar%NULL%1,                   Joy John%Mammen%NULL%1,                   Snehil%Kumar%NULL%1,                   Dolly%Daniel%NULL%1,                   Ravindraa%Singh%NULL%1,                   Venkatesh%Dhat%NULL%1,                   Yogesh%Agarwal%NULL%1,                   Sohini%Arora%NULL%1,                   Ashish%Pathak%NULL%1,                   Manju%Purohit%NULL%1,                   Ashish%Sharma%NULL%1,                   Jayashree%Sharma%NULL%1,                   Manisha%Madkaikar%NULL%1,                   Kavita%Joshi%NULL%1,                   Reetika Malik%Yadav%NULL%1,                   Swarupa%Bhagwat%NULL%1,                   Niteen D%Karnik%NULL%1,                   Yojana A%Gokhale%NULL%1,                   Leena%Naik%NULL%1,                   Sangita%Margam%NULL%1,                   Santasabuj%Das%NULL%1,                   Alka%Turuk%NULL%1,                   V Saravana%Kumar%NULL%1,                   K%Kanagasabai%NULL%1,                   R%Sabarinathan%NULL%1,                   Gururaj%Deshpande%NULL%1,                   Sharda%Sharma%NULL%1,                   Rashmi%Gunjikar%NULL%1,                   Anita%Shete%NULL%1,                   Darpan%Phagiwala%NULL%1,                   Chetan%Patil%NULL%1,                   Snehal%Shingade%NULL%1,                   Kajal%Jarande%NULL%1,                   Himanshu%Kaushal%NULL%1,                   Pragya%Yadav%NULL%1,                   Gajanan%Sapkal%NULL%1,                   Priya%Abraham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan FN%Hung%NULL%1,                   Kelvin KW%To%NULL%1,                   Cheuk-Kwong%Lee%NULL%0,                   Kar-Lung%Lee%NULL%0,                   Kenny%Chan%NULL%0,                   Wing-Wah%Yan%NULL%1,                   Raymond%Liu%NULL%0,                   Chi-Leung%Watt%NULL%1,                   Wai-Ming%Chan%NULL%0,                   Kang-Yiu%Lai%NULL%0,                   Chi-Kwan%Koo%NULL%1,                   Tom%Buckley%NULL%1,                   Fu-Loi%Chow%NULL%0,                   Kwan-Keung%Wong%NULL%1,                   Hok-Sum%Chan%NULL%1,                   Chi-Keung%Ching%NULL%1,                   Bone SF%Tang%NULL%1,                   Candy CY%Lau%NULL%1,                   Iris WS%Li%NULL%1,                   Shao-Haei%Liu%NULL%0,                   Kwok-Hung%Chan%NULL%0,                   Che-Kit%Lin%NULL%0,                   Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y. O. Y.%Soo%NULL%1,                   Y.%Cheng%NULL%1,                   R.%Wong%NULL%2,                   D. S.%Hui%NULL%1,                   C. K.%Lee%NULL%2,                   K. K. S.%Tsang%NULL%1,                   M. H. L.%Ng%NULL%2,                   P.%Chan%NULL%2,                   G.%Cheng%NULL%2,                   J. J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Johan%van Griensven%xref no email%1,             Tansy%Edwards%xref no email%1,             Xavier%de Lamballerie%xref no email%1,             Malcolm G.%Semple%xref no email%1,             Pierre%Gallian%xref no email%1,             Sylvain%Baize%xref no email%1,             Peter W.%Horby%xref no email%1,             Herv\u00e9%Raoul%xref no email%1,             N\u2019Faly%Magassouba%xref no email%1,             Annick%Antierens%xref no email%1,             Carolyn%Lomas%xref no email%1,             Ousmane%Faye%xref no email%1,             Amadou A.%Sall%xref no email%1,             Katrien%Fransen%xref no email%1,             Jozefien%Buyze%xref no email%1,             Raffaella%Ravinetto%xref no email%1,             Pierre%Tiberghien%xref no email%1,             Yves%Claeys%xref no email%1,             Maaike%De Crop%xref no email%1,             Lutgarde%Lynen%xref no email%1,             Elhadj Ibrahima%Bah%xref no email%1,             Peter G.%Smith%xref no email%1,             Alexandre%Delamou%xref no email%1,             Anja%De Weggheleire%xref no email%1,             Nyankoye%Haba%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hongjie%Yu%NULL%1,                   Zhancheng%Gao%NULL%0,                   Zijian%Feng%NULL%2,                   Yuelong%Shu%NULL%1,                   Nijuan%Xiang%NULL%2,                   Lei%Zhou%NULL%2,                   Yang%Huai%NULL%1,                   Luzhao%Feng%NULL%0,                   Zhibin%Peng%NULL%1,                   Zhongjie%Li%NULL%1,                   Cuiling%Xu%NULL%1,                   Junhua%Li%NULL%0,                   Chengping%Hu%NULL%1,                   Qun%Li%NULL%1,                   Xiaoling%Xu%NULL%1,                   Xuecheng%Liu%NULL%1,                   Zigui%Liu%NULL%1,                   Longshan%Xu%NULL%1,                   Yusheng%Chen%NULL%1,                   Huiming%Luo%NULL%1,                   Liping%Wei%NULL%1,                   Xianfeng%Zhang%NULL%1,                   Jianbao%Xin%NULL%1,                   Junqiao%Guo%NULL%1,                   Qiuyue%Wang%NULL%1,                   Zhengan%Yuan%NULL%1,                   Longnv%Zhou%NULL%1,                   Kunzhao%Zhang%NULL%1,                   Wei%Zhang%NULL%0,                   Jinye%Yang%NULL%1,                   Xiaoning%Zhong%NULL%1,                   Shichang%Xia%NULL%1,                   Lanjuan%Li%NULL%0,                   Jinquan%Cheng%NULL%1,                   Erdang%Ma%NULL%1,                   Pingping%He%NULL%1,                   Shui Shan%Lee%NULL%1,                   Yu%Wang%NULL%3,                   Timothy M.%Uyeki%NULL%0,                   Weizhong%Yang%NULL%1,                   Joel Mark%Montgomery%NULL%0,                   Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C. W.%ROSS%xref no email%1,             ERWIN J.%HUND%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[W. W. G.%MACLACHLAN%xref no email%1,             W. J.%FETTER%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Y.%Cheng%NULL%1,                   R.%Wong%NULL%0,                   Y. O. Y.%Soo%NULL%1,                   W. S.%Wong%NULL%1,                   C. K.%Lee%NULL%0,                   M. H. L.%Ng%NULL%0,                   P.%Chan%NULL%0,                   K. C.%Wong%NULL%1,                   C. B.%Leung%NULL%1,                   G.%Cheng%gcheng@cuhk.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[L. W.%McGUIRE%xref no email%1,             W. R.%REDDEN%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kai%Duan%NULL%1,                   Bende%Liu%NULL%2,                   Bende%Liu%NULL%0,                   Cesheng%Li%NULL%1,                   Huajun%Zhang%NULL%1,                   Ting%Yu%NULL%0,                   Ting%Yu%NULL%0,                   Jieming%Qu%NULL%0,                   Min%Zhou%NULL%0,                   Min%Zhou%NULL%0,                   Li%Chen%NULL%3,                   Li%Chen%NULL%0,                   Shengli%Meng%NULL%2,                   Shengli%Meng%NULL%0,                   Yong%Hu%NULL%1,                   Cheng%Peng%NULL%1,                   Mingchao%Yuan%NULL%1,                   Jinyan%Huang%NULL%1,                   Zejun%Wang%NULL%2,                   Zejun%Wang%NULL%0,                   Jianhong%Yu%NULL%1,                   Xiaoxiao%Gao%NULL%1,                   Dan%Wang%NULL%1,                   Xiaoqi%Yu%NULL%1,                   Li%Li%NULL%0,                   Li%Li%NULL%0,                   Jiayou%Zhang%NULL%2,                   Jiayou%Zhang%NULL%0,                   Xiao%Wu%NULL%1,                   Bei%Li%NULL%1,                   Yanping%Xu%NULL%1,                   Wei%Chen%NULL%0,                   Wei%Chen%NULL%0,                   Yan%Peng%NULL%1,                   Yeqin%Hu%NULL%1,                   Lianzhen%Lin%NULL%1,                   Xuefei%Liu%NULL%1,                   Shihe%Huang%NULL%1,                   Zhijun%Zhou%NULL%1,                   Lianghao%Zhang%NULL%1,                   Yue%Wang%NULL%1,                   Zhi%Zhang%NULL%1,                   Kun%Deng%NULL%1,                   Zhiwu%Xia%NULL%1,                   Qin%Gong%NULL%1,                   Wei%Zhang%NULL%0,                   Xiaobei%Zheng%NULL%1,                   Ying%Liu%NULL%0,                   Huichuan%Yang%NULL%1,                   Dongbo%Zhou%NULL%1,                   Ding%Yu%NULL%1,                   Jifeng%Hou%NULL%1,                   Zhengli%Shi%NULL%0,                   Saijuan%Chen%NULL%1,                   Zhu%Chen%NULL%1,                   Xinxin%Zhang%NULL%0,                   Xiaoming%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[F.%Sahr%NULL%1,                   R.%Ansumana%rashidansumana@gmail.com%1,                   T.A.%Massaquoi%NULL%1,                   B.R.%Idriss%NULL%1,                   F.R.%Sesay%NULL%1,                   J.M.%Lamin%NULL%1,                   S.%Baker%NULL%1,                   S.%Nicol%NULL%1,                   B.%Conton%NULL%1,                   W.%Johnson%NULL%1,                   O.T.%Abiri%NULL%1,                   O.%Kargbo%NULL%1,                   P.%Kamara%NULL%1,                   A.%Goba%NULL%1,                   J.B.W.%Russell%NULL%1,                   S.M.%Gevao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qing-Lei%Zeng%zengqinglei2009@163.com%1,                   Zu-Jiang%Yu%NULL%1,                   Jian-Jun%Gou%NULL%1,                   Guang-Ming%Li%NULL%1,                   Shu-Huan%Ma%NULL%1,                   Guo-Fan%Zhang%NULL%1,                   Jiang-Hai%Xu%NULL%1,                   Wan-Bao%Lin%NULL%1,                   Guang-Lin%Cui%NULL%1,                   Min-Min%Zhang%NULL%1,                   Cheng%Li%NULL%1,                   Ze-Shuai%Wang%NULL%1,                   Zhi-Hao%Zhang%NULL%1,                   Zhang-Suo%Liu%zengqinglei2009@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hassan%Abolghasemi%NULL%1,                   Peyman%Eshghi%NULL%1,                   Abdol Majid%Cheraghali%NULL%1,                   Abbas Ali%Imani Fooladi%NULL%1,                   Farzaneh%Bolouki Moghaddam%NULL%1,                   Sina%Imanizadeh%NULL%1,                   Matin%Moeini Maleki%NULL%1,                   Mohammad%Ranjkesh%NULL%1,                   Mohammad%Rezapour%NULL%1,                   Ali%Bahramifar%NULL%1,                   Behzad%Einollahi%NULL%1,                   Mohammad Javad%Hosseini%NULL%1,                   Nematollah Joneidi%Jafari%NULL%1,                   Mohamad%Nikpouraghdam%NULL%1,                   Nariman%Sadri%NULL%1,                   Mokhtar%Tazik%NULL%1,                   Shanaz%Sali%NULL%1,                   Shamsi%Okati%NULL%1,                   Elham%Askari%NULL%1,                   Payam%Tabarsi%NULL%1,                   Jafar%Aslani%NULL%1,                   Ehsan%Sharifipour%NULL%1,                   Mohammad Hossein%Jarahzadeh%NULL%1,                   Nastaran%Khodakarim%NULL%1,                   Mahmood%Salesi%NULL%1,                   Ramezan%Jafari%NULL%1,                   Samira%Shahverdi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1904,7 +1964,7 @@
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="F2" t="s">
         <v>41</v>
@@ -1933,7 +1993,7 @@
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
       <c r="F3" t="s">
         <v>47</v>
@@ -1962,7 +2022,7 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>432</v>
+        <v>454</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1991,7 +2051,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>433</v>
+        <v>455</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -2020,7 +2080,7 @@
         <v>291</v>
       </c>
       <c r="E6" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -2049,7 +2109,7 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -2078,7 +2138,7 @@
         <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -2107,7 +2167,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -2136,7 +2196,7 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="F10" t="s">
         <v>68</v>
@@ -2165,7 +2225,7 @@
         <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="F11" t="s">
         <v>73</v>
@@ -2194,7 +2254,7 @@
         <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -2252,7 +2312,7 @@
         <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="F14" t="s">
         <v>77</v>
@@ -2339,7 +2399,7 @@
         <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -2397,7 +2457,7 @@
         <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="F19" t="s">
         <v>20</v>
@@ -2426,7 +2486,7 @@
         <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="F20" t="s">
         <v>82</v>
@@ -2455,7 +2515,7 @@
         <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F21" t="s">
         <v>22</v>
@@ -2484,7 +2544,7 @@
         <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="F22" t="s">
         <v>86</v>
@@ -2513,7 +2573,7 @@
         <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="F23" t="s">
         <v>90</v>
@@ -2542,7 +2602,7 @@
         <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="F24" t="s">
         <v>95</v>
@@ -2571,7 +2631,7 @@
         <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="F25" t="s">
         <v>99</v>

--- a/Covid_19_Dataset_and_References/References/26.xlsx
+++ b/Covid_19_Dataset_and_References/References/26.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3527" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4527" uniqueCount="562">
   <si>
     <t xml:space="preserve">Doi </t>
   </si>
@@ -1587,6 +1587,276 @@
   </si>
   <si>
     <t>[Hassan%Abolghasemi%NULL%1,                   Peyman%Eshghi%NULL%1,                   Abdol Majid%Cheraghali%NULL%1,                   Abbas Ali%Imani Fooladi%NULL%1,                   Farzaneh%Bolouki Moghaddam%NULL%1,                   Sina%Imanizadeh%NULL%1,                   Matin%Moeini Maleki%NULL%1,                   Mohammad%Ranjkesh%NULL%1,                   Mohammad%Rezapour%NULL%1,                   Ali%Bahramifar%NULL%1,                   Behzad%Einollahi%NULL%1,                   Mohammad Javad%Hosseini%NULL%1,                   Nematollah Joneidi%Jafari%NULL%1,                   Mohamad%Nikpouraghdam%NULL%1,                   Nariman%Sadri%NULL%1,                   Mokhtar%Tazik%NULL%1,                   Shanaz%Sali%NULL%1,                   Shamsi%Okati%NULL%1,                   Elham%Askari%NULL%1,                   Payam%Tabarsi%NULL%1,                   Jafar%Aslani%NULL%1,                   Ehsan%Sharifipour%NULL%1,                   Mohammad Hossein%Jarahzadeh%NULL%1,                   Nastaran%Khodakarim%NULL%1,                   Mahmood%Salesi%NULL%1,                   Ramezan%Jafari%NULL%1,                   Samira%Shahverdi%NULL%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[John H%Beigel%jbeigel@niaid.nih.gov%1,                    Pablo%Tebas%NULL%4,                    Marie-Carmelle%Elie-Turenne%NULL%4,                    Ednan%Bajwa%NULL%2,                    Todd E%Bell%NULL%2,                    Charles B%Cairns%NULL%2,                    Shmuel%Shoham%NULL%3,                    Jaime G%Deville%NULL%2,                    Eric%Feucht%NULL%2,                    Judith%Feinberg%NULL%2,                    Thomas%Luke%NULL%1,                    Kanakatte%Raviprakash%NULL%3,                    Janine%Danko%NULL%2,                    Dorothy%O'Neil%NULL%1,                    Julia A%Metcalf%NULL%1,                    Karen%King%NULL%1,                    Timothy H%Burgess%NULL%1,                    Evgenia%Aga%NULL%3,                    H Clifford%Lane%NULL%2,                    Michael D%Hughes%NULL%3,                    Richard T%Davey%NULL%3,                    Pablo%Tebas%NULL%0,                    Joseph%Quinn%NULL%1,                    Yan%Jiang%NULL%1,                    Marie-Carmelle%Elie-Turenne%NULL%0,                    Robyn%Hoelle%NULL%1,                    Nicole%Iovine%NULL%1,                    Robert Shawn%Wills%NULL%1,                    Socorro%Pata%NULL%1,                    Monique%Huggins%NULL%1,                    Belinda%Manukian%NULL%1,                    Ednan%Bajwa%NULL%0,                    Carrie%Holland%NULL%1,                    Kelsey%Brait%NULL%1,                    Taylor%Hunt%NULL%1,                    Christopher%Stowell%NULL%1,                    Amy%Slater%NULL%1,                    Todd E%Bell%NULL%0,                    Mary%Townsends%NULL%1,                    Charles B%Cairns%NULL%0,                    Eugenia B%Quackenbush%NULL%1,                    Yara A%Park%NULL%1,                    Paul Gaither%Jordan%NULL%1,                    Cherie%Blanchet%NULL%1,                    Kevin%Chronowski%NULL%1,                    Kathleen%Alvarez%NULL%1,                    Shmuel%Shoham%NULL%0,                    Darin%Ostrander%NULL%1,                    Terry%Woessner%NULL%1,                    Sandra%Thoman%NULL%1,                    Jaime G%Deville%NULL%0,                    James%Lin%NULL%1,                    Alyssa%Ziman%NULL%1,                    Kavita%Shankar%NULL%1,                    Eric%Feucht%NULL%0,                    Tom%Blok%NULL%1,                    Don%Batts%NULL%1,                    Bob%Beck%NULL%1,                    Gail%Massey%NULL%1,                    Carol%Bradley%NULL%1,                    Judith%Feinberg%NULL%0,                    Patricia%Carey%NULL%1,                    Jenifer%Baer%NULL%1,                    Eva Moore%Whitehead%NULL%1,                    Sharon%Kohrs%NULL%1,                    Robert%Giulitto%NULL%1,                    Christina%Schofield%NULL%2,                    Mary%Fairchok%NULL%1,                    Susan%Chambers%NULL%1,                    Cindy%Baker%NULL%1,                    NULL%RN%NULL%1,                    Michelle%Parker%NULL%1,                    Marta%Harshbarger%NULL%1,                    M Hong%Nguyen%NULL%1,                    Mary Ellen%Carey%NULL%1,                    Julie%Paronish%NULL%1,                    Frank%Cornell%NULL%1,                    Jim%Cramer%NULL%1,                    Diana Lynn%Pakstis%NULL%1,                    Michael G%Ison%NULL%1,                    Richard%Wunderink%NULL%1,                    Marshall%Glesby%NULL%1,                    Kirsis%Ham%NULL%1,                    Valery%Hughes%NULL%1,                    Melissa%Cushing%NULL%0,                    Cheryl%Goss%NULL%1,                    Joanne%Grenade%NULL%1,                    Pauline K%Park%NULL%1,                    Lena M%Napolitano%NULL%1,                    Krishnan%Raghavendran%NULL%1,                    Robert C%Hyzy%NULL%1,                    Robertson%Davenport%NULL%1,                    Kristin%Brierley%NULL%1,                    Theresa%Downs%NULL%1,                    Michelle Ng%Gong%NULL%1,                    Joan%Uehlinger%NULL%1,                    Michael%Lin%NULL%2,                    Janice%Fritsche%NULL%1,                    Tondria%Green%NULL%1,                    Bruce%McLeod%NULL%1,                    Deena%Patel%NULL%1,                    Mary F%Bavaro%NULL%1,                    Robert%Deiss%NULL%1,                    Carolyn%Brandt%NULL%1,                    Stephanie%Cammarata%NULL%1,                    Allan%Kremp%NULL%1,                    Karine%Hollis-Perry%NULL%1,                    Tahaniyat%Lalani%NULL%1,                    Susan%Banks%NULL%1,                    Jacqueline%Johnson%NULL%1,                    Jason%Maguire%NULL%1,                    Janet%McNiff%NULL%1,                    Leslie E%Rigg%NULL%1,                    Anuradha%Ganesan%NULL%1,                    Irma%Barahona%NULL%1,                    Janine%Danko%NULL%0,                    Steven%Spencer%NULL%1,                    David%Stagliano%NULL%1,                    Timothy%Burgess%NULL%1,                    Daniel%Talmor%NULL%1,                    Monique%Mohammed%NULL%1,                    Valerie%Banner-Goodspeed%NULL%1,                    Robert%Salata%NULL%1,                    Robert%Finberg%NULL%2,                    Jennifer%Wang%NULL%1,                    Karen%Longtine%NULL%1,                    Jaclyn%Longtine%NULL%1,                    Mellissa%O'Neil%NULL%1,                    Philippe R%Bauer%NULL%1,                    Ognjen%Gajic%NULL%1,                    Suanne M%Weist%NULL%1,                    Jonathan%Sevransky%NULL%1,                    Mona%Brown%NULL%1,                    John%Roback%NULL%1,                    John%Oropello%NULL%1,                    Bridget%Twohig%NULL%1,                    Jeffrey%Jhang%NULL%1,                    Rahgu%Seethala%NULL%1,                    Wilbur H%Chen%NULL%1,                    Magali%Fontaine%NULL%1,                    Kapil%Saharia%NULL%1,                    Jennifer%Husson%NULL%1,                    Roberta%DeBiasi%NULL%1,                    Jurran L%Wilson%NULL%1,                    Valli Ree%Criss%NULL%1,                    Jocelyn%Voell%NULL%1,                    Susan%Leitman%NULL%1,                    James Wade%Atkins%NULL%1,                    Hemaxi%Patel%NULL%1,                    Traci%Paige%NULL%1,                    Cathy%Cantilena%NULL%1,                    Donald%Siegel%NULL%1,                    Faye%DeMuth%NULL%1,                    Craig H%Fletcher%NULL%1,                    J Peter R%Pelletier%NULL%1,                    Hassan%Alnuaimat%NULL%1,                    Michelle%Pourde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ John H%Beigel%null%1,                     Evgenia%Aga%null%2,                     Marie-Carmelle%Elie-Turenne%null%2,                     Josalyn%Cho%null%2,                     Pablo%Tebas%null%2,                     Carol L%Clark%null%2,                     Jordan P%Metcalf%null%2,                     Caroline%Ozment%null%2,                     Kanakatte%Raviprakash%null%2,                     Joy%Beeler%null%2,                     H Preston%Holley%null%1,                     Stephanie%Warner%null%2,                     Carla%Chorley%null%2,                     H Clifford%Lane%null%1,                     Michael D%Hughes%null%2,                     Richard T%Davey%null%2,                     John H%Beigel%null%1,                     Evgenia%Aga%null%0,                     Marie-Carmelle%Elie-Turenne%null%0,                     Josalyn%Cho%null%0,                     Pablo%Tebas%null%0,                     Carol L%Clark%null%0,                     Jordan P%Metcalf%null%0,                     Caroline%Ozment%null%0,                     Kanakatte%Raviprakash%null%0,                     Joy%Beeler%null%0,                     H. Preston%Holley%null%1,                     Stephanie%Warner%null%0,                     Carla%Chorley%null%0,                     H. Clifford%Lane%null%1,                     Michael D%Hughes%null%0,                     Richard T%Davey%null%0,                     Michelle%Barron%null%1,                     Aveh%Bastani%null%1,                     Philippe%Bauer%null%1,                     William%Borkowsky%null%1,                     Charles%Cairns%null%1,                     Jaime%Deville%null%1,                     Marie-Carmelle%Elie%null%1,                     Carl%Fichtenbaum%null%1,                     Robert%Finberg%null%1,                     Mamta%Jain%null%1,                     David%Kaufman%null%1,                     Michael%Lin%null%1,                     John%Lin%null%1,                     Ryan%Maves%null%1,                     Lee%Morrow%null%1,                     Minh-Hong%Nguyen%null%1,                     Pauline%Park%null%1,                     Christopher%Polk%null%1,                     Adrienne%Randolph%null%1,                     Suchitra%Rao%null%1,                     Lewis%Rubinson%null%1,                     Christina%Schofield%null%1,                     Shmuel%Shoham%null%1,                     Erika%Stalets%null%1,                     Renee D%Stapleton%null%1,                    John H%Beigel%null%2,                    Evgenia%Aga%null%0,                    Marie-Carmelle%Elie-Turenne%null%0,                    Josalyn%Cho%null%2,                    Pablo%Tebas%null%0,                    Carol L%Clark%null%2,                    Jordan P%Metcalf%null%2,                    Caroline%Ozment%null%2,                    Kanakatte%Raviprakash%null%0,                    Joy%Beeler%null%2,                    H Preston%Holley%null%1,                    Stephanie%Warner%null%2,                    Carla%Chorley%null%2,                    H Clifford%Lane%null%0,                    Michael D%Hughes%null%0,                    Richard T%Davey%null%0,                    John H%Beigel%null%0,                    Evgenia%Aga%null%0,                    Marie-Carmelle%Elie-Turenne%null%0,                    Josalyn%Cho%null%0,                    Pablo%Tebas%null%0,                    Carol L%Clark%null%0,                    Jordan P%Metcalf%null%0,                    Caroline%Ozment%null%0,                    Kanakatte%Raviprakash%null%0,                    Joy%Beeler%null%0,                    H. Preston%Holley%null%1,                    Stephanie%Warner%null%0,                    Carla%Chorley%null%0,                    H. Clifford%Lane%null%1,                    Michael D%Hughes%null%0,                    Richard T%Davey%null%0,                    Michelle%Barron%null%1,                    Aveh%Bastani%null%1,                    Philippe%Bauer%null%1,                    William%Borkowsky%null%1,                    Charles%Cairns%null%1,                    Jaime%Deville%null%1,                    Marie-Carmelle%Elie%null%1,                    Carl%Fichtenbaum%null%1,                    Robert%Finberg%null%0,                    Mamta%Jain%null%1,                    David%Kaufman%null%1,                    Michael%Lin%null%0,                    John%Lin%null%1,                    Ryan%Maves%null%1,                    Lee%Morrow%null%1,                    Minh-Hong%Nguyen%null%1,                    Pauline%Park%null%1,                    Christopher%Polk%null%1,                    Adrienne%Randolph%null%1,                    Suchitra%Rao%null%1,                    Lewis%Rubinson%null%1,                    Christina%Schofield%null%0,                    Shmuel%Shoham%null%0,                    Erika%Stalets%null%1,                    Renee D%Stapleton%null%1]</t>
+  </si>
+  <si>
+    <t>[Caiying%Hu%coreGivesNoEmail%1,                  Chenyue%Li%coreGivesNoEmail%1,                  Conghui%Wang%coreGivesNoEmail%1,                  Cuihua%Tao%coreGivesNoEmail%1,                  E.%Deng%coreGivesNoEmail%1,                  Haixia%Xu%coreGivesNoEmail%1,                  Heng%Mei%coreGivesNoEmail%1,                  Jianwei%Wang%coreGivesNoEmail%1,                  Juan%Wang%coreGivesNoEmail%1,                  Jue%Wang%coreGivesNoEmail%1,                  Juntao%Yang%coreGivesNoEmail%1,                  Li%Zeng%coreGivesNoEmail%1,                  Lifeng%Chen%coreGivesNoEmail%1,                  Lili%Ren%coreGivesNoEmail%1,                  Ling%Li%coreGivesNoEmail%1,                  Linqi%Zhang%coreGivesNoEmail%1,                  Nian%Xiong%coreGivesNoEmail%1,                  Ning%Man%coreGivesNoEmail%1,                  Qing%Wei%coreGivesNoEmail%1,                  Ru%Yang%coreGivesNoEmail%1,                  Shangen%Zheng%coreGivesNoEmail%1,                  Shisheng%Su%coreGivesNoEmail%1,                  Wei%Zhang%coreGivesNoEmail%1,                  Xiaoxiong%Wu%coreGivesNoEmail%1,                  Xuejun%Zhang%coreGivesNoEmail%1,                  Xunliang%Tong%coreGivesNoEmail%1,                  Yanyun%Wu%coreGivesNoEmail%1,                  Yong%Guo%coreGivesNoEmail%1,                  Yongpei%Yu%coreGivesNoEmail%1,                  Yu%Hu%coreGivesNoEmail%1,                  Yu%Liu%coreGivesNoEmail%1,                  Yujie%Kong%coreGivesNoEmail%1,                  Zhihua%Xu%coreGivesNoEmail%1,                  Zhong%Liu%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Ivan F.N.%Hung%null%1,                     Kelvin K.W.%To%null%1,                     Cheuk-Kwong%Lee%null%1,                     Kar-Lung%Lee%null%1,                     Wing-Wa%Yan%null%1,                     Kenny%Chan%null%1,                     Wai-Ming%Chan%null%1,                     Chun-Wai%Ngai%null%1,                     Kin-Ip%Law%null%1,                     Fu-Loi%Chow%null%1,                     Raymond%Liu%null%1,                     Kang-Yiu%Lai%null%1,                     Candy C.Y.%Lau%null%1,                     Shao-Haei%Liu%null%1,                     Kwok-Hung%Chan%null%0,                     Che-Kit%Lin%null%1,                     Kwok-Yung%Yuen%null%0,                    Ivan F.N.%Hung%null%1,                    Kelvin K.W.%To%null%1,                    Cheuk-Kwong%Lee%null%2,                    Kar-Lung%Lee%null%2,                    Wing-Wa%Yan%null%1,                    Kenny%Chan%null%2,                    Wai-Ming%Chan%null%2,                    Chun-Wai%Ngai%null%1,                    Kin-Ip%Law%null%1,                    Fu-Loi%Chow%null%2,                    Raymond%Liu%null%2,                    Kang-Yiu%Lai%null%2,                    Candy C.Y.%Lau%null%1,                    Shao-Haei%Liu%null%2,                    Kwok-Hung%Chan%null%3,                    Che-Kit%Lin%null%2,                    Kwok-Yung%Yuen%null%0]</t>
+  </si>
+  <si>
+    <t>[Arvind%Gharbharan%NULL%1,                    Carlijn C. E.%Jordans%NULL%1,                    Corine%GeurtsvanKessel%NULL%1,                    Jan G.%den Hollander%NULL%2,                    Jan G.%den Hollander%NULL%0,                    Faiz%Karim%NULL%1,                    Femke P. N.%Mollema%NULL%1,                    Janneke E.%Stalenhoef – Schukken%NULL%1,                    Anthonius%Dofferhoff%NULL%2,                    Anthonius%Dofferhoff%NULL%0,                    Inge%Ludwig%NULL%1,                    Adrianus%Koster%NULL%1,                    Robert-Jan%Hassing%NULL%1,                    Jeannet C.%Bos%NULL%1,                    Geert R.%van Pottelberge%NULL%1,                    Imro N.%Vlasveld%NULL%1,                    Heidi S. M.%Ammerlaan%NULL%1,                    Elena M.%van Leeuwen – Segarceanu%NULL%1,                    Jelle%Miedema%NULL%1,                    Menno%van der Eerden%NULL%1,                    Thijs J.%Schrama%NULL%1,                    Grigorios%Papageorgiou%NULL%2,                    Grigorios%Papageorgiou%NULL%0,                    Peter%te Boekhorst%NULL%1,                    Francis H.%Swaneveld%NULL%1,                    Yvonne M.%Mueller%NULL%1,                    Marco W. J.%Schreurs%NULL%2,                    Marco W. J.%Schreurs%NULL%0,                    Jeroen J. A.%van Kampen%NULL%1,                    Barry%Rockx%NULL%1,                    Nisreen M. A.%Okba%NULL%2,                    Nisreen M. A.%Okba%NULL%0,                    Peter D.%Katsikis%NULL%2,                    Peter D.%Katsikis%NULL%0,                    Marion P. G.%Koopmans%NULL%2,                    Marion P. G.%Koopmans%NULL%0,                    Bart L.%Haagmans%NULL%2,                    Bart L.%Haagmans%NULL%0,                    Casper%Rokx%c.rokx@erasmusmc.nl%2,                    Casper%Rokx%c.rokx@erasmusmc.nl%0,                    Bart J. A.%Rijnders%NULL%2,                    Bart J. A.%Rijnders%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gordin%Fred M.%coreGivesNoEmail%1,                  INSIGHT%FLU005 IVIG Pilot Study Group.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alcam\u00ed%Jos\u00e9%coreGivesNoEmail%1,                  Avenda\u00f1o-Sol\u00e1%Cristina%coreGivesNoEmail%1,                  Blanco%Lydia%coreGivesNoEmail%1,                  Bueno%Jose L%coreGivesNoEmail%1,                  Calder\u00f3n-Parra%Jorge%coreGivesNoEmail%1,                  Casas-Flecha%Inmaculada%coreGivesNoEmail%1,                  ConPlas-19%Study Group%coreGivesNoEmail%1,                  de%Oteyza Jaime P\u00e9rez%coreGivesNoEmail%1,                  Duarte%Rafael F%coreGivesNoEmail%1,                  D\u00edaz%de Santiago Alberto%coreGivesNoEmail%1,                  Fern\u00e1ndez-Cruz%Ana%coreGivesNoEmail%1,                  Garcia-Perez%Javier%coreGivesNoEmail%1,                  Jarilla-Fern\u00e1ndez%Maria C%coreGivesNoEmail%1,                  Lora-Tamayo%Jaime%coreGivesNoEmail%1,                  Madrigal-S\u00e1nchez%Maria E%coreGivesNoEmail%1,                  Malo%de Molina Rosa%coreGivesNoEmail%1,                  Manche\u00f1o-Losa%Mikel%coreGivesNoEmail%1,                  Mart\u00ednez-Gonz\u00e1lez%A L%coreGivesNoEmail%1,                  Moreno-Chulilla%J A%coreGivesNoEmail%1,                  Mu\u00f1ez-Rubio%Elena%coreGivesNoEmail%1,                  Mu\u00f1iz-D\u00edaz%Eduardo%coreGivesNoEmail%1,                  Nu\u00f1ez-Orantos%Maria J%coreGivesNoEmail%1,                  Paciello%Maria L%coreGivesNoEmail%1,                  Payares-Herrera%Concepcion%coreGivesNoEmail%1,                  Pa\u00f1o-Pardo%Jos\u00e9 R%coreGivesNoEmail%1,                  Perez-Olmeda%Mayte%coreGivesNoEmail%1,                  Pintos%Ilduara%coreGivesNoEmail%1,                  Porras-Leal%Maria L%coreGivesNoEmail%1,                  Ramos-Garrido%Ascension%coreGivesNoEmail%1,                  Ramos-Mart\u00ednez%Antonio%coreGivesNoEmail%1,                  Romera-Mart\u00ednez%Irene%coreGivesNoEmail%1,                  Rubio-Batll\u00e9s%Martin%coreGivesNoEmail%1,                  Ruiz-Antor\u00e1n%Belen%coreGivesNoEmail%1,                  Saez-Serrano%Maria Isabel%coreGivesNoEmail%1,                  Torres%Ferran%coreGivesNoEmail%1,                  Velasco-Iglesias%Ana%coreGivesNoEmail%1,                  Vid\u00e1n-Est\u00e9vez%Julia%coreGivesNoEmail%1,                  Villares%Paula%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Agarwal%NULL%1,                    Aparna%Mukherjee%NULL%2,                    Gunjan%Kumar%NULL%3,                    Gunjan%Kumar%NULL%0,                    Pranab%Chatterjee%NULL%2,                    Tarun%Bhatnagar%NULL%2,                    Pankaj%Malhotra%NULL%2,                    NULL%NULL%NULL%0,                    NULL%NULL%NULL%0,                    Anup%Agarwal%NULL%1,                    Aparna%Mukherjee%NULL%0,                    Gunjan%Kumar%NULL%0,                    Pranab%Chatterjee%NULL%0,                    Tarun%Bhatnagar%NULL%0,                    Pankaj%Malhotra%NULL%0,                    B%Latha%NULL%1,                    Sunita%Bundas%NULL%1,                    Vivek%Kumar%NULL%2,                    Ravi%Dosi%NULL%1,                    Janak Kumar%Khambholja%NULL%1,                    Rosemarie%de Souza%NULL%1,                    Raja Rao%Mesipogu%NULL%1,                    Saurabh%Srivastava%NULL%1,                    Simmi%Dube%NULL%1,                    Kiran%Chaudhary%NULL%1,                    S%Subash%NULL%1,                    S%Anbuselvi%NULL%1,                    V%Rajendran%NULL%1,                    A%Sundararajaperumal%NULL%1,                    P%Balamanikandan%NULL%1,                    R S Uma%Maheswari%NULL%1,                    R%Jayanthi%NULL%1,                    S%Ragunanthanan%NULL%1,                    Sudhir%Bhandari%NULL%1,                    Ajeet%Singh%NULL%1,                    Ashok%Pal%NULL%1,                    Anjali%Handa%NULL%1,                    Govind%Rankawat%NULL%1,                    Ketan%Kargirwar%NULL%1,                    Joyce%Regi%NULL%1,                    Darshana%Rathod%NULL%1,                    Edwin%Pathrose%NULL%1,                    Nirankar%Bhutaka%NULL%1,                    Mayur H%Patel%NULL%1,                    Rahul J%Verma%NULL%1,                    Kamal%Malukani%NULL%1,                    Shivani%Patel%NULL%1,                    Apurv%Thakur%NULL%1,                    Satish%Joshi%NULL%1,                    Rashmi%Kulkarni%NULL%1,                    Nilay N%Suthar%NULL%1,                    Nehal M%Shah%NULL%1,                    Hemang M%Purohit%NULL%1,                    Cherry K%Shah%NULL%1,                    Monila N%Patel%NULL%1,                    Saket%Shah%NULL%1,                    Smit T%Shah%NULL%1,                    Tehsim%Memon%NULL%1,                    Vishal R%Beriwala%NULL%1,                    Kusum%Jashnani%NULL%1,                    Fatema%Ezzy%NULL%1,                    Simran%Agrawal%NULL%1,                    Rakesh%Bhadade%NULL%1,                    MN%Atish%NULL%1,                    Tushar%Madke%NULL%1,                    Vikas%Kavishwar%NULL%1,                    Ramesh%Waghmare%NULL%1,                    Nitin%Valvi%NULL%1,                    B Thrilok%Chander%NULL%1,                    A Vinaya%Sekhar%NULL%1,                    Akhilesh Kumar%Maurya%NULL%1,                    K%Hemanth%NULL%1,                    K%Nagamani%NULL%1,                    K%Sudha%NULL%1,                    T Ravi%Chandra%NULL%1,                    K Tushara%Rao%NULL%1,                    J%Vyshnavi%NULL%1,                    Rashmi%Upadhyay%NULL%1,                    Shalini%Bahadur%NULL%1,                    Rambha%Pathak%NULL%1,                    Shikha%Seth%NULL%1,                    Rakesh%Gupta%NULL%1,                    Rita%Saxena%NULL%1,                    Preksha%Dwivedi%NULL%1,                    Reeni%Malik%NULL%1,                    Deepti%Chourasia%NULL%1,                    Jaya%Lalwani%NULL%1,                    UM%Sharma%NULL%1,                    JL%Marko%NULL%1,                    Amit%Suri%NULL%1,                    Vijay%Kumar%NULL%1,                    Rajnish%Kaushik%NULL%1,                    Parul%Kodan%NULL%1,                    Bhabani Prasad%Acharya%NULL%1,                    Kuldeep Kumar%Gaur%NULL%1,                    Anubhav%Gupta%NULL%1,                    Prerna%Sachdeva%NULL%1,                    Shruti%Dogra%NULL%1,                    Aikaj%Jindal%NULL%1,                    M Joseph%John%NULL%1,                    Avtar Singh%Dhanju%NULL%1,                    Ranjana%Khetrepal%NULL%1,                    Neeraj%Sharma%NULL%1,                    Neetu%Kukar%NULL%1,                    Divya%Kavita%NULL%1,                    Rajesh%Kumar%NULL%1,                    Rajesh%Mahajan%NULL%1,                    Gurpreet%Singh%NULL%1,                    Jaspreet%Kaur%NULL%1,                    Raminder Pal%Singh%NULL%1,                    Rajni%Bassi%NULL%1,                    Swapneil%Parikh%NULL%1,                    Om%Shrivastav%NULL%1,                    Jayanthi%Shastri%NULL%1,                    Maherra%Desai%NULL%1,                    Shreevatsa%Udupa%NULL%1,                    Varun A%Bafna%NULL%1,                    Vijay%Barge%NULL%1,                    Rajendra%Madane%NULL%1,                    Sheetal%Yadav%NULL%1,                    Sanjeev%Misra%NULL%1,                    Archana%Bajpayee%NULL%1,                    M K%Garg%NULL%1,                    G K%Bohra%NULL%1,                    Vijaylakshmi%Nag%NULL%1,                    Puneeth Babu%Anne%NULL%1,                    Mohd%Nadeem%NULL%1,                    Pallavi%Singh%NULL%1,                    Ram%Niwas%NULL%1,                    Niranjan Shiwaji%Khaire%NULL%1,                    Rattiram%Sharma%NULL%1,                    Mini P%Singh%NULL%1,                    Naresh%Sachdeva%NULL%1,                    Suchet%Sachdev%NULL%1,                    Rekha%Hans%NULL%1,                    Vikas%Suri%NULL%1,                    LN%Yaddanapudi%NULL%1,                    PVM%Lakshmi%NULL%1,                    Neha%Singh%NULL%1,                    Divendu%Bhushan%NULL%1,                    Neeraj%Kumar%NULL%1,                    Muralidhar%Tambe%NULL%1,                    Sonali%Salvi%NULL%1,                    Nalini%Kadgi%NULL%1,                    Shashikala%Sangle%NULL%1,                    Leena%Nakate%NULL%1,                    Samir%Joshi%NULL%1,                    Rajesh%Karyakarte%NULL%1,                    Suraj%Goyanka%NULL%1,                    Nimisha%Sharma%NULL%1,                    Nikhil%Verma%NULL%1,                    Asim%Das%NULL%1,                    Monika%Bahl%NULL%1,                    Nitya%Wadhwa%NULL%1,                    Shreepad%Bhat%NULL%1,                    Shweta%Deshmukh%NULL%1,                    Vrushali%Wagh%NULL%1,                    Atul%Kulkarni%NULL%1,                    Tanvi%Yardi%NULL%1,                    Ram S%Kalgud%NULL%1,                    Purushottam%Reddy%NULL%1,                    Kavitha%Yevoor%NULL%1,                    Prashanth%Gajula%NULL%1,                    Vivek%Maleyur%NULL%1,                    S%Medini%NULL%1,                    HN%Mohith%NULL%1,                    Anil%Gurtoo%NULL%1,                    Ritika%Sud%NULL%1,                    Sangeeta%Pahuja%NULL%1,                    Anupam%Prakash%NULL%1,                    Parijat%Gogoi%NULL%1,                    Shailja%Shukla%NULL%1,                    D Himanshu%Reddy%NULL%1,                    Tulika%Chandra%NULL%1,                    Saurabh%Pandey%NULL%1,                    Pradeep%Maurya%NULL%1,                    Wahid%Ali%NULL%1,                    Vivek%Kumar%NULL%0,                    Kamlesh%Upadhyay%NULL%1,                    Nidhi%Bhatnagar%NULL%1,                    Nilima%Shah%NULL%1,                    Mamta%Shah%NULL%1,                    Tarak%Patel%NULL%1,                    Ram Mohan%Jaiswal%NULL%1,                    Ashish%Jain%NULL%1,                    Shweta%Sharma%NULL%1,                    Puneet%Rijhwani%NULL%1,                    Naveen%Gupta%NULL%1,                    Tinkal C%Patel%NULL%1,                    Mahesh G%Solu%NULL%1,                    Jitendra%Patel%NULL%1,                    Yash R%Shah%NULL%1,                    Mayur%Jarag%NULL%1,                    Varsha%Godbole%NULL%1,                    Meenakshi%Shah%NULL%1,                    Rikin%Raj%NULL%1,                    Irfan%Nagori%NULL%1,                    Pramod R%Jha%NULL%1,                    Arti D%Shah%NULL%1,                    Gowtham%Yeeli%NULL%1,                    Archit%Jain%NULL%1,                    Rooppreet Kaur%Gill%NULL%1,                    KV Sreedhar%Babu%NULL%1,                    B Suresh%Babu%NULL%1,                    Alladi%Mohan%NULL%1,                    B%Vengamma%NULL%1,                    K Chandra%Sekhar%NULL%1,                    Srinivasulu%Damam%NULL%1,                    K%Narsimhulu%NULL%1,                    C%Aparna%NULL%1,                    G%Baleswari%NULL%1,                    K Ravindranath%Reddy%NULL%1,                    P%Chandrasekhar%NULL%1,                    Sunil Jodharam%Panjwani%NULL%1,                    Pragnesh H%Shah%NULL%1,                    Manish%Barvaliya%NULL%1,                    Kairavi%Desai%NULL%1,                    Pankaj J%Akholkar%NULL%1,                    Milind%Baldi%NULL%1,                    Ashok%Yadav%NULL%1,                    Manoj%Gupta%NULL%1,                    Nitin%Rawat%NULL%1,                    Dilip%Chawda%NULL%1,                    M%Natarajan%NULL%1,                    M%Sintha%NULL%1,                    David Pradeep%Kumar%NULL%1,                    Fathhur%Rabbani%NULL%1,                    Vrushali Khirid%Khadke%NULL%1,                    Dattatray%Patki%NULL%1,                    Sonali%Marathe%NULL%1,                    Clyde%D’Souza%NULL%1,                    Vipul%Tadha%NULL%1,                    Satyam%Arora%NULL%1,                    Devendra Kumar%Gupta%NULL%1,                    Seema%Dua%NULL%1,                    Nitu%Chauhan%NULL%1,                    Ajeet Singh%Chahar%NULL%1,                    Joy John%Mammen%NULL%1,                    Snehil%Kumar%NULL%1,                    Dolly%Daniel%NULL%1,                    Ravindraa%Singh%NULL%1,                    Venkatesh%Dhat%NULL%1,                    Yogesh%Agarwal%NULL%1,                    Sohini%Arora%NULL%1,                    Ashish%Pathak%NULL%1,                    Manju%Purohit%NULL%1,                    Ashish%Sharma%NULL%1,                    Jayashree%Sharma%NULL%1,                    Manisha%Madkaikar%NULL%1,                    Kavita%Joshi%NULL%1,                    Reetika Malik%Yadav%NULL%1,                    Swarupa%Bhagwat%NULL%1,                    Niteen D%Karnik%NULL%1,                    Yojana A%Gokhale%NULL%1,                    Leena%Naik%NULL%1,                    Sangita%Margam%NULL%1,                    Santasabuj%Das%NULL%1,                    Alka%Turuk%NULL%1,                    V Saravana%Kumar%NULL%1,                    K%Kanagasabai%NULL%1,                    R%Sabarinathan%NULL%1,                    Gururaj%Deshpande%NULL%1,                    Sharda%Sharma%NULL%1,                    Rashmi%Gunjikar%NULL%1,                    Anita%Shete%NULL%1,                    Darpan%Phagiwala%NULL%1,                    Chetan%Patil%NULL%1,                    Snehal%Shingade%NULL%1,                    Kajal%Jarande%NULL%1,                    Himanshu%Kaushal%NULL%1,                    Pragya%Yadav%NULL%1,                    Gajanan%Sapkal%NULL%1,                    Priya%Abraham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan FN%Hung%NULL%1,                    Kelvin KW%To%NULL%1,                    Cheuk-Kwong%Lee%NULL%0,                    Kar-Lung%Lee%NULL%0,                    Kenny%Chan%NULL%0,                    Wing-Wah%Yan%NULL%1,                    Raymond%Liu%NULL%0,                    Chi-Leung%Watt%NULL%1,                    Wai-Ming%Chan%NULL%0,                    Kang-Yiu%Lai%NULL%0,                    Chi-Kwan%Koo%NULL%1,                    Tom%Buckley%NULL%1,                    Fu-Loi%Chow%NULL%0,                    Kwan-Keung%Wong%NULL%1,                    Hok-Sum%Chan%NULL%1,                    Chi-Keung%Ching%NULL%1,                    Bone SF%Tang%NULL%1,                    Candy CY%Lau%NULL%1,                    Iris WS%Li%NULL%1,                    Shao-Haei%Liu%NULL%0,                    Kwok-Hung%Chan%NULL%0,                    Che-Kit%Lin%NULL%0,                    Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y. O. Y.%Soo%NULL%1,                    Y.%Cheng%NULL%1,                    R.%Wong%NULL%2,                    D. S.%Hui%NULL%1,                    C. K.%Lee%NULL%2,                    K. K. S.%Tsang%NULL%1,                    M. H. L.%Ng%NULL%2,                    P.%Chan%NULL%2,                    G.%Cheng%NULL%2,                    J. J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Johan%van Griensven%xref no email%0, Tansy%Edwards%xref no email%1, Xavier%de Lamballerie%xref no email%1, Malcolm G.%Semple%xref no email%1, Pierre%Gallian%xref no email%1, Sylvain%Baize%xref no email%1, Peter W.%Horby%xref no email%1, Herv\u00e9%Raoul%xref no email%1, N\u2019Faly%Magassouba%xref no email%1, Annick%Antierens%xref no email%1, Carolyn%Lomas%xref no email%1, Ousmane%Faye%xref no email%1, Amadou A.%Sall%xref no email%1, Katrien%Fransen%xref no email%1, Jozefien%Buyze%xref no email%1, Raffaella%Ravinetto%xref no email%1, Pierre%Tiberghien%xref no email%1, Yves%Claeys%xref no email%1, Maaike%De Crop%xref no email%1, Lutgarde%Lynen%xref no email%1, Elhadj Ibrahima%Bah%xref no email%1, Peter G.%Smith%xref no email%1, Alexandre%Delamou%xref no email%1, Anja%De Weggheleire%xref no email%1, Nyankoye%Haba%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Massachusetts Medical Society</t>
+  </si>
+  <si>
+    <t>[Hongjie%Yu%NULL%2,                    Zhancheng%Gao%NULL%0,                    Zijian%Feng%NULL%2,                    Yuelong%Shu%NULL%1,                    Nijuan%Xiang%NULL%2,                    Lei%Zhou%NULL%2,                    Yang%Huai%NULL%1,                    Luzhao%Feng%NULL%0,                    Zhibin%Peng%NULL%1,                    Zhongjie%Li%NULL%1,                    Cuiling%Xu%NULL%1,                    Junhua%Li%NULL%0,                    Chengping%Hu%NULL%1,                    Qun%Li%NULL%1,                    Xiaoling%Xu%NULL%1,                    Xuecheng%Liu%NULL%1,                    Zigui%Liu%NULL%1,                    Longshan%Xu%NULL%1,                    Yusheng%Chen%NULL%1,                    Huiming%Luo%NULL%1,                    Liping%Wei%NULL%1,                    Xianfeng%Zhang%NULL%1,                    Jianbao%Xin%NULL%1,                    Junqiao%Guo%NULL%1,                    Qiuyue%Wang%NULL%1,                    Zhengan%Yuan%NULL%1,                    Longnv%Zhou%NULL%1,                    Kunzhao%Zhang%NULL%1,                    Wei%Zhang%NULL%0,                    Jinye%Yang%NULL%1,                    Xiaoning%Zhong%NULL%1,                    Shichang%Xia%NULL%1,                    Lanjuan%Li%NULL%0,                    Jinquan%Cheng%NULL%1,                    Erdang%Ma%NULL%1,                    Pingping%He%NULL%1,                    Shui Shan%Lee%NULL%1,                    Yu%Wang%NULL%3,                    Timothy M.%Uyeki%NULL%0,                    Weizhong%Yang%NULL%1,                    Joel Mark%Montgomery%NULL%0,                    Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[JOHN J.%O'MALLEY%xref no email%0]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Medical Association (AMA)</t>
+  </si>
+  <si>
+    <t>[HENRY F.%STOLL%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[C. W.%ROSS%xref no email%0, ERWIN J.%HUND%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[George P.%Sanborn%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[W. W. G.%MACLACHLAN%xref no email%0, W. J.%FETTER%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Y.%Cheng%NULL%1,                    R.%Wong%NULL%0,                    Y. O. Y.%Soo%NULL%1,                    W. S.%Wong%NULL%1,                    C. K.%Lee%NULL%0,                    M. H. L.%Ng%NULL%0,                    P.%Chan%NULL%0,                    K. C.%Wong%NULL%1,                    C. B.%Leung%NULL%1,                    G.%Cheng%gcheng@cuhk.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[L. W.%McGUIRE%xref no email%0, W. R.%REDDEN%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kai%Duan%NULL%1,                    Bende%Liu%NULL%2,                    Bende%Liu%NULL%0,                    Cesheng%Li%NULL%1,                    Huajun%Zhang%NULL%1,                    Ting%Yu%NULL%0,                    Ting%Yu%NULL%0,                    Jieming%Qu%NULL%0,                    Min%Zhou%NULL%0,                    Min%Zhou%NULL%0,                    Li%Chen%NULL%3,                    Li%Chen%NULL%0,                    Shengli%Meng%NULL%2,                    Shengli%Meng%NULL%0,                    Yong%Hu%NULL%1,                    Cheng%Peng%NULL%1,                    Mingchao%Yuan%NULL%1,                    Jinyan%Huang%NULL%1,                    Zejun%Wang%NULL%2,                    Zejun%Wang%NULL%0,                    Jianhong%Yu%NULL%1,                    Xiaoxiao%Gao%NULL%1,                    Dan%Wang%NULL%1,                    Xiaoqi%Yu%NULL%1,                    Li%Li%NULL%0,                    Li%Li%NULL%0,                    Jiayou%Zhang%NULL%2,                    Jiayou%Zhang%NULL%0,                    Xiao%Wu%NULL%1,                    Bei%Li%NULL%1,                    Yanping%Xu%NULL%1,                    Wei%Chen%NULL%0,                    Wei%Chen%NULL%0,                    Yan%Peng%NULL%1,                    Yeqin%Hu%NULL%1,                    Lianzhen%Lin%NULL%1,                    Xuefei%Liu%NULL%1,                    Shihe%Huang%NULL%1,                    Zhijun%Zhou%NULL%1,                    Lianghao%Zhang%NULL%1,                    Yue%Wang%NULL%1,                    Zhi%Zhang%NULL%1,                    Kun%Deng%NULL%1,                    Zhiwu%Xia%NULL%1,                    Qin%Gong%NULL%1,                    Wei%Zhang%NULL%0,                    Xiaobei%Zheng%NULL%1,                    Ying%Liu%NULL%0,                    Huichuan%Yang%NULL%1,                    Dongbo%Zhou%NULL%1,                    Ding%Yu%NULL%1,                    Jifeng%Hou%NULL%1,                    Zhengli%Shi%NULL%0,                    Saijuan%Chen%NULL%1,                    Zhu%Chen%NULL%1,                    Xinxin%Zhang%NULL%0,                    Xiaoming%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[F.%Sahr%NULL%1,                    R.%Ansumana%rashidansumana@gmail.com%1,                    T.A.%Massaquoi%NULL%1,                    B.R.%Idriss%NULL%1,                    F.R.%Sesay%NULL%1,                    J.M.%Lamin%NULL%1,                    S.%Baker%NULL%1,                    S.%Nicol%NULL%1,                    B.%Conton%NULL%1,                    W.%Johnson%NULL%1,                    O.T.%Abiri%NULL%1,                    O.%Kargbo%NULL%1,                    P.%Kamara%NULL%1,                    A.%Goba%NULL%1,                    J.B.W.%Russell%NULL%1,                    S.M.%Gevao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qing-Lei%Zeng%zengqinglei2009@163.com%1,                    Zu-Jiang%Yu%NULL%1,                    Jian-Jun%Gou%NULL%1,                    Guang-Ming%Li%NULL%1,                    Shu-Huan%Ma%NULL%1,                    Guo-Fan%Zhang%NULL%1,                    Jiang-Hai%Xu%NULL%1,                    Wan-Bao%Lin%NULL%1,                    Guang-Lin%Cui%NULL%1,                    Min-Min%Zhang%NULL%1,                    Cheng%Li%NULL%1,                    Ze-Shuai%Wang%NULL%1,                    Zhi-Hao%Zhang%NULL%1,                    Zhang-Suo%Liu%zengqinglei2009@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hassan%Abolghasemi%NULL%1,                    Peyman%Eshghi%NULL%1,                    Abdol Majid%Cheraghali%NULL%1,                    Abbas Ali%Imani Fooladi%NULL%1,                    Farzaneh%Bolouki Moghaddam%NULL%1,                    Sina%Imanizadeh%NULL%1,                    Matin%Moeini Maleki%NULL%1,                    Mohammad%Ranjkesh%NULL%1,                    Mohammad%Rezapour%NULL%1,                    Ali%Bahramifar%NULL%1,                    Behzad%Einollahi%NULL%1,                    Mohammad Javad%Hosseini%NULL%1,                    Nematollah Joneidi%Jafari%NULL%1,                    Mohamad%Nikpouraghdam%NULL%1,                    Nariman%Sadri%NULL%1,                    Mokhtar%Tazik%NULL%1,                    Shanaz%Sali%NULL%1,                    Shamsi%Okati%NULL%1,                    Elham%Askari%NULL%1,                    Payam%Tabarsi%NULL%1,                    Jafar%Aslani%NULL%1,                    Ehsan%Sharifipour%NULL%1,                    Mohammad Hossein%Jarahzadeh%NULL%1,                    Nastaran%Khodakarim%NULL%1,                    Mahmood%Salesi%NULL%1,                    Ramezan%Jafari%NULL%1,                    Samira%Shahverdi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[John H%Beigel%jbeigel@niaid.nih.gov%1,                     Pablo%Tebas%NULL%4,                     Marie-Carmelle%Elie-Turenne%NULL%4,                     Ednan%Bajwa%NULL%2,                     Todd E%Bell%NULL%2,                     Charles B%Cairns%NULL%2,                     Shmuel%Shoham%NULL%3,                     Jaime G%Deville%NULL%2,                     Eric%Feucht%NULL%2,                     Judith%Feinberg%NULL%2,                     Thomas%Luke%NULL%1,                     Kanakatte%Raviprakash%NULL%3,                     Janine%Danko%NULL%2,                     Dorothy%O'Neil%NULL%1,                     Julia A%Metcalf%NULL%1,                     Karen%King%NULL%1,                     Timothy H%Burgess%NULL%1,                     Evgenia%Aga%NULL%3,                     H Clifford%Lane%NULL%2,                     Michael D%Hughes%NULL%3,                     Richard T%Davey%NULL%3,                     Pablo%Tebas%NULL%0,                     Joseph%Quinn%NULL%1,                     Yan%Jiang%NULL%1,                     Marie-Carmelle%Elie-Turenne%NULL%0,                     Robyn%Hoelle%NULL%1,                     Nicole%Iovine%NULL%1,                     Robert Shawn%Wills%NULL%1,                     Socorro%Pata%NULL%1,                     Monique%Huggins%NULL%1,                     Belinda%Manukian%NULL%1,                     Ednan%Bajwa%NULL%0,                     Carrie%Holland%NULL%1,                     Kelsey%Brait%NULL%1,                     Taylor%Hunt%NULL%1,                     Christopher%Stowell%NULL%1,                     Amy%Slater%NULL%1,                     Todd E%Bell%NULL%0,                     Mary%Townsends%NULL%1,                     Charles B%Cairns%NULL%0,                     Eugenia B%Quackenbush%NULL%1,                     Yara A%Park%NULL%1,                     Paul Gaither%Jordan%NULL%1,                     Cherie%Blanchet%NULL%1,                     Kevin%Chronowski%NULL%1,                     Kathleen%Alvarez%NULL%1,                     Shmuel%Shoham%NULL%0,                     Darin%Ostrander%NULL%1,                     Terry%Woessner%NULL%1,                     Sandra%Thoman%NULL%1,                     Jaime G%Deville%NULL%0,                     James%Lin%NULL%1,                     Alyssa%Ziman%NULL%1,                     Kavita%Shankar%NULL%1,                     Eric%Feucht%NULL%0,                     Tom%Blok%NULL%1,                     Don%Batts%NULL%1,                     Bob%Beck%NULL%1,                     Gail%Massey%NULL%1,                     Carol%Bradley%NULL%1,                     Judith%Feinberg%NULL%0,                     Patricia%Carey%NULL%1,                     Jenifer%Baer%NULL%1,                     Eva Moore%Whitehead%NULL%1,                     Sharon%Kohrs%NULL%1,                     Robert%Giulitto%NULL%1,                     Christina%Schofield%NULL%2,                     Mary%Fairchok%NULL%1,                     Susan%Chambers%NULL%1,                     Cindy%Baker%NULL%1,                     NULL%RN%NULL%1,                     Michelle%Parker%NULL%1,                     Marta%Harshbarger%NULL%1,                     M Hong%Nguyen%NULL%1,                     Mary Ellen%Carey%NULL%1,                     Julie%Paronish%NULL%1,                     Frank%Cornell%NULL%1,                     Jim%Cramer%NULL%1,                     Diana Lynn%Pakstis%NULL%1,                     Michael G%Ison%NULL%1,                     Richard%Wunderink%NULL%1,                     Marshall%Glesby%NULL%1,                     Kirsis%Ham%NULL%1,                     Valery%Hughes%NULL%1,                     Melissa%Cushing%NULL%0,                     Cheryl%Goss%NULL%1,                     Joanne%Grenade%NULL%1,                     Pauline K%Park%NULL%1,                     Lena M%Napolitano%NULL%1,                     Krishnan%Raghavendran%NULL%1,                     Robert C%Hyzy%NULL%1,                     Robertson%Davenport%NULL%1,                     Kristin%Brierley%NULL%1,                     Theresa%Downs%NULL%1,                     Michelle Ng%Gong%NULL%1,                     Joan%Uehlinger%NULL%1,                     Michael%Lin%NULL%2,                     Janice%Fritsche%NULL%1,                     Tondria%Green%NULL%1,                     Bruce%McLeod%NULL%1,                     Deena%Patel%NULL%1,                     Mary F%Bavaro%NULL%1,                     Robert%Deiss%NULL%1,                     Carolyn%Brandt%NULL%1,                     Stephanie%Cammarata%NULL%1,                     Allan%Kremp%NULL%1,                     Karine%Hollis-Perry%NULL%1,                     Tahaniyat%Lalani%NULL%1,                     Susan%Banks%NULL%1,                     Jacqueline%Johnson%NULL%1,                     Jason%Maguire%NULL%1,                     Janet%McNiff%NULL%1,                     Leslie E%Rigg%NULL%1,                     Anuradha%Ganesan%NULL%1,                     Irma%Barahona%NULL%1,                     Janine%Danko%NULL%0,                     Steven%Spencer%NULL%1,                     David%Stagliano%NULL%1,                     Timothy%Burgess%NULL%1,                     Daniel%Talmor%NULL%1,                     Monique%Mohammed%NULL%1,                     Valerie%Banner-Goodspeed%NULL%1,                     Robert%Salata%NULL%1,                     Robert%Finberg%NULL%2,                     Jennifer%Wang%NULL%1,                     Karen%Longtine%NULL%1,                     Jaclyn%Longtine%NULL%1,                     Mellissa%O'Neil%NULL%1,                     Philippe R%Bauer%NULL%1,                     Ognjen%Gajic%NULL%1,                     Suanne M%Weist%NULL%1,                     Jonathan%Sevransky%NULL%1,                     Mona%Brown%NULL%1,                     John%Roback%NULL%1,                     John%Oropello%NULL%1,                     Bridget%Twohig%NULL%1,                     Jeffrey%Jhang%NULL%1,                     Rahgu%Seethala%NULL%1,                     Wilbur H%Chen%NULL%1,                     Magali%Fontaine%NULL%1,                     Kapil%Saharia%NULL%1,                     Jennifer%Husson%NULL%1,                     Roberta%DeBiasi%NULL%1,                     Jurran L%Wilson%NULL%1,                     Valli Ree%Criss%NULL%1,                     Jocelyn%Voell%NULL%1,                     Susan%Leitman%NULL%1,                     James Wade%Atkins%NULL%1,                     Hemaxi%Patel%NULL%1,                     Traci%Paige%NULL%1,                     Cathy%Cantilena%NULL%1,                     Donald%Siegel%NULL%1,                     Faye%DeMuth%NULL%1,                     Craig H%Fletcher%NULL%1,                     J Peter R%Pelletier%NULL%1,                     Hassan%Alnuaimat%NULL%1,                     Michelle%Pourde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ John H%Beigel%null%1,                      Evgenia%Aga%null%2,                      Marie-Carmelle%Elie-Turenne%null%2,                      Josalyn%Cho%null%2,                      Pablo%Tebas%null%2,                      Carol L%Clark%null%2,                      Jordan P%Metcalf%null%2,                      Caroline%Ozment%null%2,                      Kanakatte%Raviprakash%null%2,                      Joy%Beeler%null%2,                      H Preston%Holley%null%1,                      Stephanie%Warner%null%2,                      Carla%Chorley%null%2,                      H Clifford%Lane%null%1,                      Michael D%Hughes%null%2,                      Richard T%Davey%null%2,                      John H%Beigel%null%1,                      Evgenia%Aga%null%0,                      Marie-Carmelle%Elie-Turenne%null%0,                      Josalyn%Cho%null%0,                      Pablo%Tebas%null%0,                      Carol L%Clark%null%0,                      Jordan P%Metcalf%null%0,                      Caroline%Ozment%null%0,                      Kanakatte%Raviprakash%null%0,                      Joy%Beeler%null%0,                      H. Preston%Holley%null%1,                      Stephanie%Warner%null%0,                      Carla%Chorley%null%0,                      H. Clifford%Lane%null%1,                      Michael D%Hughes%null%0,                      Richard T%Davey%null%0,                      Michelle%Barron%null%1,                      Aveh%Bastani%null%1,                      Philippe%Bauer%null%1,                      William%Borkowsky%null%1,                      Charles%Cairns%null%1,                      Jaime%Deville%null%1,                      Marie-Carmelle%Elie%null%1,                      Carl%Fichtenbaum%null%1,                      Robert%Finberg%null%1,                      Mamta%Jain%null%1,                      David%Kaufman%null%1,                      Michael%Lin%null%1,                      John%Lin%null%1,                      Ryan%Maves%null%1,                      Lee%Morrow%null%1,                      Minh-Hong%Nguyen%null%1,                      Pauline%Park%null%1,                      Christopher%Polk%null%1,                      Adrienne%Randolph%null%1,                      Suchitra%Rao%null%1,                      Lewis%Rubinson%null%1,                      Christina%Schofield%null%1,                      Shmuel%Shoham%null%1,                      Erika%Stalets%null%1,                      Renee D%Stapleton%null%1,                     John H%Beigel%null%2,                     Evgenia%Aga%null%0,                     Marie-Carmelle%Elie-Turenne%null%0,                     Josalyn%Cho%null%2,                     Pablo%Tebas%null%0,                     Carol L%Clark%null%2,                     Jordan P%Metcalf%null%2,                     Caroline%Ozment%null%2,                     Kanakatte%Raviprakash%null%0,                     Joy%Beeler%null%2,                     H Preston%Holley%null%1,                     Stephanie%Warner%null%2,                     Carla%Chorley%null%2,                     H Clifford%Lane%null%0,                     Michael D%Hughes%null%0,                     Richard T%Davey%null%0,                     John H%Beigel%null%0,                     Evgenia%Aga%null%0,                     Marie-Carmelle%Elie-Turenne%null%0,                     Josalyn%Cho%null%0,                     Pablo%Tebas%null%0,                     Carol L%Clark%null%0,                     Jordan P%Metcalf%null%0,                     Caroline%Ozment%null%0,                     Kanakatte%Raviprakash%null%0,                     Joy%Beeler%null%0,                     H. Preston%Holley%null%1,                     Stephanie%Warner%null%0,                     Carla%Chorley%null%0,                     H. Clifford%Lane%null%1,                     Michael D%Hughes%null%0,                     Richard T%Davey%null%0,                     Michelle%Barron%null%1,                     Aveh%Bastani%null%1,                     Philippe%Bauer%null%1,                     William%Borkowsky%null%1,                     Charles%Cairns%null%1,                     Jaime%Deville%null%1,                     Marie-Carmelle%Elie%null%1,                     Carl%Fichtenbaum%null%1,                     Robert%Finberg%null%0,                     Mamta%Jain%null%1,                     David%Kaufman%null%1,                     Michael%Lin%null%0,                     John%Lin%null%1,                     Ryan%Maves%null%1,                     Lee%Morrow%null%1,                     Minh-Hong%Nguyen%null%1,                     Pauline%Park%null%1,                     Christopher%Polk%null%1,                     Adrienne%Randolph%null%1,                     Suchitra%Rao%null%1,                     Lewis%Rubinson%null%1,                     Christina%Schofield%null%0,                     Shmuel%Shoham%null%0,                     Erika%Stalets%null%1,                     Renee D%Stapleton%null%1]</t>
+  </si>
+  <si>
+    <t>[Caiying%Hu%coreGivesNoEmail%1,                   Chenyue%Li%coreGivesNoEmail%1,                   Conghui%Wang%coreGivesNoEmail%1,                   Cuihua%Tao%coreGivesNoEmail%1,                   E.%Deng%coreGivesNoEmail%1,                   Haixia%Xu%coreGivesNoEmail%1,                   Heng%Mei%coreGivesNoEmail%1,                   Jianwei%Wang%coreGivesNoEmail%1,                   Juan%Wang%coreGivesNoEmail%1,                   Jue%Wang%coreGivesNoEmail%1,                   Juntao%Yang%coreGivesNoEmail%1,                   Li%Zeng%coreGivesNoEmail%1,                   Lifeng%Chen%coreGivesNoEmail%1,                   Lili%Ren%coreGivesNoEmail%1,                   Ling%Li%coreGivesNoEmail%1,                   Linqi%Zhang%coreGivesNoEmail%1,                   Nian%Xiong%coreGivesNoEmail%1,                   Ning%Man%coreGivesNoEmail%1,                   Qing%Wei%coreGivesNoEmail%1,                   Ru%Yang%coreGivesNoEmail%1,                   Shangen%Zheng%coreGivesNoEmail%1,                   Shisheng%Su%coreGivesNoEmail%1,                   Wei%Zhang%coreGivesNoEmail%1,                   Xiaoxiong%Wu%coreGivesNoEmail%1,                   Xuejun%Zhang%coreGivesNoEmail%1,                   Xunliang%Tong%coreGivesNoEmail%1,                   Yanyun%Wu%coreGivesNoEmail%1,                   Yong%Guo%coreGivesNoEmail%1,                   Yongpei%Yu%coreGivesNoEmail%1,                   Yu%Hu%coreGivesNoEmail%1,                   Yu%Liu%coreGivesNoEmail%1,                   Yujie%Kong%coreGivesNoEmail%1,                   Zhihua%Xu%coreGivesNoEmail%1,                   Zhong%Liu%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Ivan F.N.%Hung%null%1,                      Kelvin K.W.%To%null%1,                      Cheuk-Kwong%Lee%null%1,                      Kar-Lung%Lee%null%1,                      Wing-Wa%Yan%null%1,                      Kenny%Chan%null%1,                      Wai-Ming%Chan%null%1,                      Chun-Wai%Ngai%null%1,                      Kin-Ip%Law%null%1,                      Fu-Loi%Chow%null%1,                      Raymond%Liu%null%1,                      Kang-Yiu%Lai%null%1,                      Candy C.Y.%Lau%null%1,                      Shao-Haei%Liu%null%1,                      Kwok-Hung%Chan%null%0,                      Che-Kit%Lin%null%1,                      Kwok-Yung%Yuen%null%0,                     Ivan F.N.%Hung%null%1,                     Kelvin K.W.%To%null%1,                     Cheuk-Kwong%Lee%null%2,                     Kar-Lung%Lee%null%2,                     Wing-Wa%Yan%null%1,                     Kenny%Chan%null%2,                     Wai-Ming%Chan%null%2,                     Chun-Wai%Ngai%null%1,                     Kin-Ip%Law%null%1,                     Fu-Loi%Chow%null%2,                     Raymond%Liu%null%2,                     Kang-Yiu%Lai%null%2,                     Candy C.Y.%Lau%null%1,                     Shao-Haei%Liu%null%2,                     Kwok-Hung%Chan%null%3,                     Che-Kit%Lin%null%2,                     Kwok-Yung%Yuen%null%0]</t>
+  </si>
+  <si>
+    <t>[Arvind%Gharbharan%NULL%1,                     Carlijn C. E.%Jordans%NULL%1,                     Corine%GeurtsvanKessel%NULL%1,                     Jan G.%den Hollander%NULL%2,                     Jan G.%den Hollander%NULL%0,                     Faiz%Karim%NULL%1,                     Femke P. N.%Mollema%NULL%1,                     Janneke E.%Stalenhoef – Schukken%NULL%1,                     Anthonius%Dofferhoff%NULL%2,                     Anthonius%Dofferhoff%NULL%0,                     Inge%Ludwig%NULL%1,                     Adrianus%Koster%NULL%1,                     Robert-Jan%Hassing%NULL%1,                     Jeannet C.%Bos%NULL%1,                     Geert R.%van Pottelberge%NULL%1,                     Imro N.%Vlasveld%NULL%1,                     Heidi S. M.%Ammerlaan%NULL%1,                     Elena M.%van Leeuwen – Segarceanu%NULL%1,                     Jelle%Miedema%NULL%1,                     Menno%van der Eerden%NULL%1,                     Thijs J.%Schrama%NULL%1,                     Grigorios%Papageorgiou%NULL%2,                     Grigorios%Papageorgiou%NULL%0,                     Peter%te Boekhorst%NULL%1,                     Francis H.%Swaneveld%NULL%1,                     Yvonne M.%Mueller%NULL%1,                     Marco W. J.%Schreurs%NULL%2,                     Marco W. J.%Schreurs%NULL%0,                     Jeroen J. A.%van Kampen%NULL%1,                     Barry%Rockx%NULL%1,                     Nisreen M. A.%Okba%NULL%2,                     Nisreen M. A.%Okba%NULL%0,                     Peter D.%Katsikis%NULL%2,                     Peter D.%Katsikis%NULL%0,                     Marion P. G.%Koopmans%NULL%2,                     Marion P. G.%Koopmans%NULL%0,                     Bart L.%Haagmans%NULL%2,                     Bart L.%Haagmans%NULL%0,                     Casper%Rokx%c.rokx@erasmusmc.nl%2,                     Casper%Rokx%c.rokx@erasmusmc.nl%0,                     Bart J. A.%Rijnders%NULL%2,                     Bart J. A.%Rijnders%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gordin%Fred M.%coreGivesNoEmail%1,                   INSIGHT%FLU005 IVIG Pilot Study Group.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alcam\u00ed%Jos\u00e9%coreGivesNoEmail%1,                   Avenda\u00f1o-Sol\u00e1%Cristina%coreGivesNoEmail%1,                   Blanco%Lydia%coreGivesNoEmail%1,                   Bueno%Jose L%coreGivesNoEmail%1,                   Calder\u00f3n-Parra%Jorge%coreGivesNoEmail%1,                   Casas-Flecha%Inmaculada%coreGivesNoEmail%1,                   ConPlas-19%Study Group%coreGivesNoEmail%1,                   de%Oteyza Jaime P\u00e9rez%coreGivesNoEmail%1,                   Duarte%Rafael F%coreGivesNoEmail%1,                   D\u00edaz%de Santiago Alberto%coreGivesNoEmail%1,                   Fern\u00e1ndez-Cruz%Ana%coreGivesNoEmail%1,                   Garcia-Perez%Javier%coreGivesNoEmail%1,                   Jarilla-Fern\u00e1ndez%Maria C%coreGivesNoEmail%1,                   Lora-Tamayo%Jaime%coreGivesNoEmail%1,                   Madrigal-S\u00e1nchez%Maria E%coreGivesNoEmail%1,                   Malo%de Molina Rosa%coreGivesNoEmail%1,                   Manche\u00f1o-Losa%Mikel%coreGivesNoEmail%1,                   Mart\u00ednez-Gonz\u00e1lez%A L%coreGivesNoEmail%1,                   Moreno-Chulilla%J A%coreGivesNoEmail%1,                   Mu\u00f1ez-Rubio%Elena%coreGivesNoEmail%1,                   Mu\u00f1iz-D\u00edaz%Eduardo%coreGivesNoEmail%1,                   Nu\u00f1ez-Orantos%Maria J%coreGivesNoEmail%1,                   Paciello%Maria L%coreGivesNoEmail%1,                   Payares-Herrera%Concepcion%coreGivesNoEmail%1,                   Pa\u00f1o-Pardo%Jos\u00e9 R%coreGivesNoEmail%1,                   Perez-Olmeda%Mayte%coreGivesNoEmail%1,                   Pintos%Ilduara%coreGivesNoEmail%1,                   Porras-Leal%Maria L%coreGivesNoEmail%1,                   Ramos-Garrido%Ascension%coreGivesNoEmail%1,                   Ramos-Mart\u00ednez%Antonio%coreGivesNoEmail%1,                   Romera-Mart\u00ednez%Irene%coreGivesNoEmail%1,                   Rubio-Batll\u00e9s%Martin%coreGivesNoEmail%1,                   Ruiz-Antor\u00e1n%Belen%coreGivesNoEmail%1,                   Saez-Serrano%Maria Isabel%coreGivesNoEmail%1,                   Torres%Ferran%coreGivesNoEmail%1,                   Velasco-Iglesias%Ana%coreGivesNoEmail%1,                   Vid\u00e1n-Est\u00e9vez%Julia%coreGivesNoEmail%1,                   Villares%Paula%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Agarwal%NULL%1,                     Aparna%Mukherjee%NULL%2,                     Gunjan%Kumar%NULL%3,                     Gunjan%Kumar%NULL%0,                     Pranab%Chatterjee%NULL%2,                     Tarun%Bhatnagar%NULL%2,                     Pankaj%Malhotra%NULL%2,                     NULL%NULL%NULL%0,                     NULL%NULL%NULL%0,                     Anup%Agarwal%NULL%1,                     Aparna%Mukherjee%NULL%0,                     Gunjan%Kumar%NULL%0,                     Pranab%Chatterjee%NULL%0,                     Tarun%Bhatnagar%NULL%0,                     Pankaj%Malhotra%NULL%0,                     B%Latha%NULL%1,                     Sunita%Bundas%NULL%1,                     Vivek%Kumar%NULL%2,                     Ravi%Dosi%NULL%1,                     Janak Kumar%Khambholja%NULL%1,                     Rosemarie%de Souza%NULL%1,                     Raja Rao%Mesipogu%NULL%1,                     Saurabh%Srivastava%NULL%1,                     Simmi%Dube%NULL%1,                     Kiran%Chaudhary%NULL%1,                     S%Subash%NULL%1,                     S%Anbuselvi%NULL%1,                     V%Rajendran%NULL%1,                     A%Sundararajaperumal%NULL%1,                     P%Balamanikandan%NULL%1,                     R S Uma%Maheswari%NULL%1,                     R%Jayanthi%NULL%1,                     S%Ragunanthanan%NULL%1,                     Sudhir%Bhandari%NULL%1,                     Ajeet%Singh%NULL%1,                     Ashok%Pal%NULL%1,                     Anjali%Handa%NULL%1,                     Govind%Rankawat%NULL%1,                     Ketan%Kargirwar%NULL%1,                     Joyce%Regi%NULL%1,                     Darshana%Rathod%NULL%1,                     Edwin%Pathrose%NULL%1,                     Nirankar%Bhutaka%NULL%1,                     Mayur H%Patel%NULL%1,                     Rahul J%Verma%NULL%1,                     Kamal%Malukani%NULL%1,                     Shivani%Patel%NULL%1,                     Apurv%Thakur%NULL%1,                     Satish%Joshi%NULL%1,                     Rashmi%Kulkarni%NULL%1,                     Nilay N%Suthar%NULL%1,                     Nehal M%Shah%NULL%1,                     Hemang M%Purohit%NULL%1,                     Cherry K%Shah%NULL%1,                     Monila N%Patel%NULL%1,                     Saket%Shah%NULL%1,                     Smit T%Shah%NULL%1,                     Tehsim%Memon%NULL%1,                     Vishal R%Beriwala%NULL%1,                     Kusum%Jashnani%NULL%1,                     Fatema%Ezzy%NULL%1,                     Simran%Agrawal%NULL%1,                     Rakesh%Bhadade%NULL%1,                     MN%Atish%NULL%1,                     Tushar%Madke%NULL%1,                     Vikas%Kavishwar%NULL%1,                     Ramesh%Waghmare%NULL%1,                     Nitin%Valvi%NULL%1,                     B Thrilok%Chander%NULL%1,                     A Vinaya%Sekhar%NULL%1,                     Akhilesh Kumar%Maurya%NULL%1,                     K%Hemanth%NULL%1,                     K%Nagamani%NULL%1,                     K%Sudha%NULL%1,                     T Ravi%Chandra%NULL%1,                     K Tushara%Rao%NULL%1,                     J%Vyshnavi%NULL%1,                     Rashmi%Upadhyay%NULL%1,                     Shalini%Bahadur%NULL%1,                     Rambha%Pathak%NULL%1,                     Shikha%Seth%NULL%1,                     Rakesh%Gupta%NULL%1,                     Rita%Saxena%NULL%1,                     Preksha%Dwivedi%NULL%1,                     Reeni%Malik%NULL%1,                     Deepti%Chourasia%NULL%1,                     Jaya%Lalwani%NULL%1,                     UM%Sharma%NULL%1,                     JL%Marko%NULL%1,                     Amit%Suri%NULL%1,                     Vijay%Kumar%NULL%1,                     Rajnish%Kaushik%NULL%1,                     Parul%Kodan%NULL%1,                     Bhabani Prasad%Acharya%NULL%1,                     Kuldeep Kumar%Gaur%NULL%1,                     Anubhav%Gupta%NULL%1,                     Prerna%Sachdeva%NULL%1,                     Shruti%Dogra%NULL%1,                     Aikaj%Jindal%NULL%1,                     M Joseph%John%NULL%1,                     Avtar Singh%Dhanju%NULL%1,                     Ranjana%Khetrepal%NULL%1,                     Neeraj%Sharma%NULL%1,                     Neetu%Kukar%NULL%1,                     Divya%Kavita%NULL%1,                     Rajesh%Kumar%NULL%1,                     Rajesh%Mahajan%NULL%1,                     Gurpreet%Singh%NULL%1,                     Jaspreet%Kaur%NULL%1,                     Raminder Pal%Singh%NULL%1,                     Rajni%Bassi%NULL%1,                     Swapneil%Parikh%NULL%1,                     Om%Shrivastav%NULL%1,                     Jayanthi%Shastri%NULL%1,                     Maherra%Desai%NULL%1,                     Shreevatsa%Udupa%NULL%1,                     Varun A%Bafna%NULL%1,                     Vijay%Barge%NULL%1,                     Rajendra%Madane%NULL%1,                     Sheetal%Yadav%NULL%1,                     Sanjeev%Misra%NULL%1,                     Archana%Bajpayee%NULL%1,                     M K%Garg%NULL%1,                     G K%Bohra%NULL%1,                     Vijaylakshmi%Nag%NULL%1,                     Puneeth Babu%Anne%NULL%1,                     Mohd%Nadeem%NULL%1,                     Pallavi%Singh%NULL%1,                     Ram%Niwas%NULL%1,                     Niranjan Shiwaji%Khaire%NULL%1,                     Rattiram%Sharma%NULL%1,                     Mini P%Singh%NULL%1,                     Naresh%Sachdeva%NULL%1,                     Suchet%Sachdev%NULL%1,                     Rekha%Hans%NULL%1,                     Vikas%Suri%NULL%1,                     LN%Yaddanapudi%NULL%1,                     PVM%Lakshmi%NULL%1,                     Neha%Singh%NULL%1,                     Divendu%Bhushan%NULL%1,                     Neeraj%Kumar%NULL%1,                     Muralidhar%Tambe%NULL%1,                     Sonali%Salvi%NULL%1,                     Nalini%Kadgi%NULL%1,                     Shashikala%Sangle%NULL%1,                     Leena%Nakate%NULL%1,                     Samir%Joshi%NULL%1,                     Rajesh%Karyakarte%NULL%1,                     Suraj%Goyanka%NULL%1,                     Nimisha%Sharma%NULL%1,                     Nikhil%Verma%NULL%1,                     Asim%Das%NULL%1,                     Monika%Bahl%NULL%1,                     Nitya%Wadhwa%NULL%1,                     Shreepad%Bhat%NULL%1,                     Shweta%Deshmukh%NULL%1,                     Vrushali%Wagh%NULL%1,                     Atul%Kulkarni%NULL%1,                     Tanvi%Yardi%NULL%1,                     Ram S%Kalgud%NULL%1,                     Purushottam%Reddy%NULL%1,                     Kavitha%Yevoor%NULL%1,                     Prashanth%Gajula%NULL%1,                     Vivek%Maleyur%NULL%1,                     S%Medini%NULL%1,                     HN%Mohith%NULL%1,                     Anil%Gurtoo%NULL%1,                     Ritika%Sud%NULL%1,                     Sangeeta%Pahuja%NULL%1,                     Anupam%Prakash%NULL%1,                     Parijat%Gogoi%NULL%1,                     Shailja%Shukla%NULL%1,                     D Himanshu%Reddy%NULL%1,                     Tulika%Chandra%NULL%1,                     Saurabh%Pandey%NULL%1,                     Pradeep%Maurya%NULL%1,                     Wahid%Ali%NULL%1,                     Vivek%Kumar%NULL%0,                     Kamlesh%Upadhyay%NULL%1,                     Nidhi%Bhatnagar%NULL%1,                     Nilima%Shah%NULL%1,                     Mamta%Shah%NULL%1,                     Tarak%Patel%NULL%1,                     Ram Mohan%Jaiswal%NULL%1,                     Ashish%Jain%NULL%1,                     Shweta%Sharma%NULL%1,                     Puneet%Rijhwani%NULL%1,                     Naveen%Gupta%NULL%1,                     Tinkal C%Patel%NULL%1,                     Mahesh G%Solu%NULL%1,                     Jitendra%Patel%NULL%1,                     Yash R%Shah%NULL%1,                     Mayur%Jarag%NULL%1,                     Varsha%Godbole%NULL%1,                     Meenakshi%Shah%NULL%1,                     Rikin%Raj%NULL%1,                     Irfan%Nagori%NULL%1,                     Pramod R%Jha%NULL%1,                     Arti D%Shah%NULL%1,                     Gowtham%Yeeli%NULL%1,                     Archit%Jain%NULL%1,                     Rooppreet Kaur%Gill%NULL%1,                     KV Sreedhar%Babu%NULL%1,                     B Suresh%Babu%NULL%1,                     Alladi%Mohan%NULL%1,                     B%Vengamma%NULL%1,                     K Chandra%Sekhar%NULL%1,                     Srinivasulu%Damam%NULL%1,                     K%Narsimhulu%NULL%1,                     C%Aparna%NULL%1,                     G%Baleswari%NULL%1,                     K Ravindranath%Reddy%NULL%1,                     P%Chandrasekhar%NULL%1,                     Sunil Jodharam%Panjwani%NULL%1,                     Pragnesh H%Shah%NULL%1,                     Manish%Barvaliya%NULL%1,                     Kairavi%Desai%NULL%1,                     Pankaj J%Akholkar%NULL%1,                     Milind%Baldi%NULL%1,                     Ashok%Yadav%NULL%1,                     Manoj%Gupta%NULL%1,                     Nitin%Rawat%NULL%1,                     Dilip%Chawda%NULL%1,                     M%Natarajan%NULL%1,                     M%Sintha%NULL%1,                     David Pradeep%Kumar%NULL%1,                     Fathhur%Rabbani%NULL%1,                     Vrushali Khirid%Khadke%NULL%1,                     Dattatray%Patki%NULL%1,                     Sonali%Marathe%NULL%1,                     Clyde%D’Souza%NULL%1,                     Vipul%Tadha%NULL%1,                     Satyam%Arora%NULL%1,                     Devendra Kumar%Gupta%NULL%1,                     Seema%Dua%NULL%1,                     Nitu%Chauhan%NULL%1,                     Ajeet Singh%Chahar%NULL%1,                     Joy John%Mammen%NULL%1,                     Snehil%Kumar%NULL%1,                     Dolly%Daniel%NULL%1,                     Ravindraa%Singh%NULL%1,                     Venkatesh%Dhat%NULL%1,                     Yogesh%Agarwal%NULL%1,                     Sohini%Arora%NULL%1,                     Ashish%Pathak%NULL%1,                     Manju%Purohit%NULL%1,                     Ashish%Sharma%NULL%1,                     Jayashree%Sharma%NULL%1,                     Manisha%Madkaikar%NULL%1,                     Kavita%Joshi%NULL%1,                     Reetika Malik%Yadav%NULL%1,                     Swarupa%Bhagwat%NULL%1,                     Niteen D%Karnik%NULL%1,                     Yojana A%Gokhale%NULL%1,                     Leena%Naik%NULL%1,                     Sangita%Margam%NULL%1,                     Santasabuj%Das%NULL%1,                     Alka%Turuk%NULL%1,                     V Saravana%Kumar%NULL%1,                     K%Kanagasabai%NULL%1,                     R%Sabarinathan%NULL%1,                     Gururaj%Deshpande%NULL%1,                     Sharda%Sharma%NULL%1,                     Rashmi%Gunjikar%NULL%1,                     Anita%Shete%NULL%1,                     Darpan%Phagiwala%NULL%1,                     Chetan%Patil%NULL%1,                     Snehal%Shingade%NULL%1,                     Kajal%Jarande%NULL%1,                     Himanshu%Kaushal%NULL%1,                     Pragya%Yadav%NULL%1,                     Gajanan%Sapkal%NULL%1,                     Priya%Abraham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan FN%Hung%NULL%1,                     Kelvin KW%To%NULL%1,                     Cheuk-Kwong%Lee%NULL%0,                     Kar-Lung%Lee%NULL%0,                     Kenny%Chan%NULL%0,                     Wing-Wah%Yan%NULL%1,                     Raymond%Liu%NULL%0,                     Chi-Leung%Watt%NULL%1,                     Wai-Ming%Chan%NULL%0,                     Kang-Yiu%Lai%NULL%0,                     Chi-Kwan%Koo%NULL%1,                     Tom%Buckley%NULL%1,                     Fu-Loi%Chow%NULL%0,                     Kwan-Keung%Wong%NULL%1,                     Hok-Sum%Chan%NULL%1,                     Chi-Keung%Ching%NULL%1,                     Bone SF%Tang%NULL%1,                     Candy CY%Lau%NULL%1,                     Iris WS%Li%NULL%1,                     Shao-Haei%Liu%NULL%0,                     Kwok-Hung%Chan%NULL%0,                     Che-Kit%Lin%NULL%0,                     Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y. O. Y.%Soo%NULL%1,                     Y.%Cheng%NULL%1,                     R.%Wong%NULL%2,                     D. S.%Hui%NULL%1,                     C. K.%Lee%NULL%2,                     K. K. S.%Tsang%NULL%1,                     M. H. L.%Ng%NULL%2,                     P.%Chan%NULL%2,                     G.%Cheng%NULL%2,                     J. J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongjie%Yu%NULL%1,                     Zhancheng%Gao%NULL%0,                     Zijian%Feng%NULL%2,                     Yuelong%Shu%NULL%1,                     Nijuan%Xiang%NULL%2,                     Lei%Zhou%NULL%2,                     Yang%Huai%NULL%1,                     Luzhao%Feng%NULL%0,                     Zhibin%Peng%NULL%1,                     Zhongjie%Li%NULL%1,                     Cuiling%Xu%NULL%1,                     Junhua%Li%NULL%0,                     Chengping%Hu%NULL%1,                     Qun%Li%NULL%1,                     Xiaoling%Xu%NULL%1,                     Xuecheng%Liu%NULL%1,                     Zigui%Liu%NULL%1,                     Longshan%Xu%NULL%1,                     Yusheng%Chen%NULL%1,                     Huiming%Luo%NULL%1,                     Liping%Wei%NULL%1,                     Xianfeng%Zhang%NULL%1,                     Jianbao%Xin%NULL%1,                     Junqiao%Guo%NULL%1,                     Qiuyue%Wang%NULL%1,                     Zhengan%Yuan%NULL%1,                     Longnv%Zhou%NULL%1,                     Kunzhao%Zhang%NULL%1,                     Wei%Zhang%NULL%0,                     Jinye%Yang%NULL%1,                     Xiaoning%Zhong%NULL%1,                     Shichang%Xia%NULL%1,                     Lanjuan%Li%NULL%0,                     Jinquan%Cheng%NULL%1,                     Erdang%Ma%NULL%1,                     Pingping%He%NULL%1,                     Shui Shan%Lee%NULL%1,                     Yu%Wang%NULL%3,                     Timothy M.%Uyeki%NULL%0,                     Weizhong%Yang%NULL%1,                     Joel Mark%Montgomery%NULL%0,                     Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y.%Cheng%NULL%1,                     R.%Wong%NULL%0,                     Y. O. Y.%Soo%NULL%1,                     W. S.%Wong%NULL%1,                     C. K.%Lee%NULL%0,                     M. H. L.%Ng%NULL%0,                     P.%Chan%NULL%0,                     K. C.%Wong%NULL%1,                     C. B.%Leung%NULL%1,                     G.%Cheng%gcheng@cuhk.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Duan%NULL%1,                     Bende%Liu%NULL%2,                     Bende%Liu%NULL%0,                     Cesheng%Li%NULL%1,                     Huajun%Zhang%NULL%1,                     Ting%Yu%NULL%0,                     Ting%Yu%NULL%0,                     Jieming%Qu%NULL%0,                     Min%Zhou%NULL%0,                     Min%Zhou%NULL%0,                     Li%Chen%NULL%3,                     Li%Chen%NULL%0,                     Shengli%Meng%NULL%2,                     Shengli%Meng%NULL%0,                     Yong%Hu%NULL%1,                     Cheng%Peng%NULL%1,                     Mingchao%Yuan%NULL%1,                     Jinyan%Huang%NULL%1,                     Zejun%Wang%NULL%2,                     Zejun%Wang%NULL%0,                     Jianhong%Yu%NULL%1,                     Xiaoxiao%Gao%NULL%1,                     Dan%Wang%NULL%1,                     Xiaoqi%Yu%NULL%1,                     Li%Li%NULL%0,                     Li%Li%NULL%0,                     Jiayou%Zhang%NULL%2,                     Jiayou%Zhang%NULL%0,                     Xiao%Wu%NULL%1,                     Bei%Li%NULL%1,                     Yanping%Xu%NULL%1,                     Wei%Chen%NULL%0,                     Wei%Chen%NULL%0,                     Yan%Peng%NULL%1,                     Yeqin%Hu%NULL%1,                     Lianzhen%Lin%NULL%1,                     Xuefei%Liu%NULL%1,                     Shihe%Huang%NULL%1,                     Zhijun%Zhou%NULL%1,                     Lianghao%Zhang%NULL%1,                     Yue%Wang%NULL%1,                     Zhi%Zhang%NULL%1,                     Kun%Deng%NULL%1,                     Zhiwu%Xia%NULL%1,                     Qin%Gong%NULL%1,                     Wei%Zhang%NULL%0,                     Xiaobei%Zheng%NULL%1,                     Ying%Liu%NULL%0,                     Huichuan%Yang%NULL%1,                     Dongbo%Zhou%NULL%1,                     Ding%Yu%NULL%1,                     Jifeng%Hou%NULL%1,                     Zhengli%Shi%NULL%0,                     Saijuan%Chen%NULL%1,                     Zhu%Chen%NULL%1,                     Xinxin%Zhang%NULL%0,                     Xiaoming%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[F.%Sahr%NULL%1,                     R.%Ansumana%rashidansumana@gmail.com%1,                     T.A.%Massaquoi%NULL%1,                     B.R.%Idriss%NULL%1,                     F.R.%Sesay%NULL%1,                     J.M.%Lamin%NULL%1,                     S.%Baker%NULL%1,                     S.%Nicol%NULL%1,                     B.%Conton%NULL%1,                     W.%Johnson%NULL%1,                     O.T.%Abiri%NULL%1,                     O.%Kargbo%NULL%1,                     P.%Kamara%NULL%1,                     A.%Goba%NULL%1,                     J.B.W.%Russell%NULL%1,                     S.M.%Gevao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qing-Lei%Zeng%zengqinglei2009@163.com%1,                     Zu-Jiang%Yu%NULL%1,                     Jian-Jun%Gou%NULL%1,                     Guang-Ming%Li%NULL%1,                     Shu-Huan%Ma%NULL%1,                     Guo-Fan%Zhang%NULL%1,                     Jiang-Hai%Xu%NULL%1,                     Wan-Bao%Lin%NULL%1,                     Guang-Lin%Cui%NULL%1,                     Min-Min%Zhang%NULL%1,                     Cheng%Li%NULL%1,                     Ze-Shuai%Wang%NULL%1,                     Zhi-Hao%Zhang%NULL%1,                     Zhang-Suo%Liu%zengqinglei2009@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hassan%Abolghasemi%NULL%1,                     Peyman%Eshghi%NULL%1,                     Abdol Majid%Cheraghali%NULL%1,                     Abbas Ali%Imani Fooladi%NULL%1,                     Farzaneh%Bolouki Moghaddam%NULL%1,                     Sina%Imanizadeh%NULL%1,                     Matin%Moeini Maleki%NULL%1,                     Mohammad%Ranjkesh%NULL%1,                     Mohammad%Rezapour%NULL%1,                     Ali%Bahramifar%NULL%1,                     Behzad%Einollahi%NULL%1,                     Mohammad Javad%Hosseini%NULL%1,                     Nematollah Joneidi%Jafari%NULL%1,                     Mohamad%Nikpouraghdam%NULL%1,                     Nariman%Sadri%NULL%1,                     Mokhtar%Tazik%NULL%1,                     Shanaz%Sali%NULL%1,                     Shamsi%Okati%NULL%1,                     Elham%Askari%NULL%1,                     Payam%Tabarsi%NULL%1,                     Jafar%Aslani%NULL%1,                     Ehsan%Sharifipour%NULL%1,                     Mohammad Hossein%Jarahzadeh%NULL%1,                     Nastaran%Khodakarim%NULL%1,                     Mahmood%Salesi%NULL%1,                     Ramezan%Jafari%NULL%1,                     Samira%Shahverdi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[John H%Beigel%jbeigel@niaid.nih.gov%1,                      Pablo%Tebas%NULL%4,                      Marie-Carmelle%Elie-Turenne%NULL%4,                      Ednan%Bajwa%NULL%2,                      Todd E%Bell%NULL%2,                      Charles B%Cairns%NULL%2,                      Shmuel%Shoham%NULL%3,                      Jaime G%Deville%NULL%2,                      Eric%Feucht%NULL%2,                      Judith%Feinberg%NULL%2,                      Thomas%Luke%NULL%1,                      Kanakatte%Raviprakash%NULL%3,                      Janine%Danko%NULL%2,                      Dorothy%O'Neil%NULL%1,                      Julia A%Metcalf%NULL%1,                      Karen%King%NULL%1,                      Timothy H%Burgess%NULL%1,                      Evgenia%Aga%NULL%3,                      H Clifford%Lane%NULL%2,                      Michael D%Hughes%NULL%3,                      Richard T%Davey%NULL%3,                      Pablo%Tebas%NULL%0,                      Joseph%Quinn%NULL%1,                      Yan%Jiang%NULL%1,                      Marie-Carmelle%Elie-Turenne%NULL%0,                      Robyn%Hoelle%NULL%1,                      Nicole%Iovine%NULL%1,                      Robert Shawn%Wills%NULL%1,                      Socorro%Pata%NULL%1,                      Monique%Huggins%NULL%1,                      Belinda%Manukian%NULL%1,                      Ednan%Bajwa%NULL%0,                      Carrie%Holland%NULL%1,                      Kelsey%Brait%NULL%1,                      Taylor%Hunt%NULL%1,                      Christopher%Stowell%NULL%1,                      Amy%Slater%NULL%1,                      Todd E%Bell%NULL%0,                      Mary%Townsends%NULL%1,                      Charles B%Cairns%NULL%0,                      Eugenia B%Quackenbush%NULL%1,                      Yara A%Park%NULL%1,                      Paul Gaither%Jordan%NULL%1,                      Cherie%Blanchet%NULL%1,                      Kevin%Chronowski%NULL%1,                      Kathleen%Alvarez%NULL%1,                      Shmuel%Shoham%NULL%0,                      Darin%Ostrander%NULL%1,                      Terry%Woessner%NULL%1,                      Sandra%Thoman%NULL%1,                      Jaime G%Deville%NULL%0,                      James%Lin%NULL%1,                      Alyssa%Ziman%NULL%1,                      Kavita%Shankar%NULL%1,                      Eric%Feucht%NULL%0,                      Tom%Blok%NULL%1,                      Don%Batts%NULL%1,                      Bob%Beck%NULL%1,                      Gail%Massey%NULL%1,                      Carol%Bradley%NULL%1,                      Judith%Feinberg%NULL%0,                      Patricia%Carey%NULL%1,                      Jenifer%Baer%NULL%1,                      Eva Moore%Whitehead%NULL%1,                      Sharon%Kohrs%NULL%1,                      Robert%Giulitto%NULL%1,                      Christina%Schofield%NULL%2,                      Mary%Fairchok%NULL%1,                      Susan%Chambers%NULL%1,                      Cindy%Baker%NULL%1,                      NULL%RN%NULL%1,                      Michelle%Parker%NULL%1,                      Marta%Harshbarger%NULL%1,                      M Hong%Nguyen%NULL%1,                      Mary Ellen%Carey%NULL%1,                      Julie%Paronish%NULL%1,                      Frank%Cornell%NULL%1,                      Jim%Cramer%NULL%1,                      Diana Lynn%Pakstis%NULL%1,                      Michael G%Ison%NULL%1,                      Richard%Wunderink%NULL%1,                      Marshall%Glesby%NULL%1,                      Kirsis%Ham%NULL%1,                      Valery%Hughes%NULL%1,                      Melissa%Cushing%NULL%0,                      Cheryl%Goss%NULL%1,                      Joanne%Grenade%NULL%1,                      Pauline K%Park%NULL%1,                      Lena M%Napolitano%NULL%1,                      Krishnan%Raghavendran%NULL%1,                      Robert C%Hyzy%NULL%1,                      Robertson%Davenport%NULL%1,                      Kristin%Brierley%NULL%1,                      Theresa%Downs%NULL%1,                      Michelle Ng%Gong%NULL%1,                      Joan%Uehlinger%NULL%1,                      Michael%Lin%NULL%2,                      Janice%Fritsche%NULL%1,                      Tondria%Green%NULL%1,                      Bruce%McLeod%NULL%1,                      Deena%Patel%NULL%1,                      Mary F%Bavaro%NULL%1,                      Robert%Deiss%NULL%1,                      Carolyn%Brandt%NULL%1,                      Stephanie%Cammarata%NULL%1,                      Allan%Kremp%NULL%1,                      Karine%Hollis-Perry%NULL%1,                      Tahaniyat%Lalani%NULL%1,                      Susan%Banks%NULL%1,                      Jacqueline%Johnson%NULL%1,                      Jason%Maguire%NULL%1,                      Janet%McNiff%NULL%1,                      Leslie E%Rigg%NULL%1,                      Anuradha%Ganesan%NULL%1,                      Irma%Barahona%NULL%1,                      Janine%Danko%NULL%0,                      Steven%Spencer%NULL%1,                      David%Stagliano%NULL%1,                      Timothy%Burgess%NULL%1,                      Daniel%Talmor%NULL%1,                      Monique%Mohammed%NULL%1,                      Valerie%Banner-Goodspeed%NULL%1,                      Robert%Salata%NULL%1,                      Robert%Finberg%NULL%2,                      Jennifer%Wang%NULL%1,                      Karen%Longtine%NULL%1,                      Jaclyn%Longtine%NULL%1,                      Mellissa%O'Neil%NULL%1,                      Philippe R%Bauer%NULL%1,                      Ognjen%Gajic%NULL%1,                      Suanne M%Weist%NULL%1,                      Jonathan%Sevransky%NULL%1,                      Mona%Brown%NULL%1,                      John%Roback%NULL%1,                      John%Oropello%NULL%1,                      Bridget%Twohig%NULL%1,                      Jeffrey%Jhang%NULL%1,                      Rahgu%Seethala%NULL%1,                      Wilbur H%Chen%NULL%1,                      Magali%Fontaine%NULL%1,                      Kapil%Saharia%NULL%1,                      Jennifer%Husson%NULL%1,                      Roberta%DeBiasi%NULL%1,                      Jurran L%Wilson%NULL%1,                      Valli Ree%Criss%NULL%1,                      Jocelyn%Voell%NULL%1,                      Susan%Leitman%NULL%1,                      James Wade%Atkins%NULL%1,                      Hemaxi%Patel%NULL%1,                      Traci%Paige%NULL%1,                      Cathy%Cantilena%NULL%1,                      Donald%Siegel%NULL%1,                      Faye%DeMuth%NULL%1,                      Craig H%Fletcher%NULL%1,                      J Peter R%Pelletier%NULL%1,                      Hassan%Alnuaimat%NULL%1,                      Michelle%Pourde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ John H%Beigel%null%1,                       Evgenia%Aga%null%2,                       Marie-Carmelle%Elie-Turenne%null%2,                       Josalyn%Cho%null%2,                       Pablo%Tebas%null%2,                       Carol L%Clark%null%2,                       Jordan P%Metcalf%null%2,                       Caroline%Ozment%null%2,                       Kanakatte%Raviprakash%null%2,                       Joy%Beeler%null%2,                       H Preston%Holley%null%1,                       Stephanie%Warner%null%2,                       Carla%Chorley%null%2,                       H Clifford%Lane%null%1,                       Michael D%Hughes%null%2,                       Richard T%Davey%null%2,                       John H%Beigel%null%1,                       Evgenia%Aga%null%0,                       Marie-Carmelle%Elie-Turenne%null%0,                       Josalyn%Cho%null%0,                       Pablo%Tebas%null%0,                       Carol L%Clark%null%0,                       Jordan P%Metcalf%null%0,                       Caroline%Ozment%null%0,                       Kanakatte%Raviprakash%null%0,                       Joy%Beeler%null%0,                       H. Preston%Holley%null%1,                       Stephanie%Warner%null%0,                       Carla%Chorley%null%0,                       H. Clifford%Lane%null%1,                       Michael D%Hughes%null%0,                       Richard T%Davey%null%0,                       Michelle%Barron%null%1,                       Aveh%Bastani%null%1,                       Philippe%Bauer%null%1,                       William%Borkowsky%null%1,                       Charles%Cairns%null%1,                       Jaime%Deville%null%1,                       Marie-Carmelle%Elie%null%1,                       Carl%Fichtenbaum%null%1,                       Robert%Finberg%null%1,                       Mamta%Jain%null%1,                       David%Kaufman%null%1,                       Michael%Lin%null%1,                       John%Lin%null%1,                       Ryan%Maves%null%1,                       Lee%Morrow%null%1,                       Minh-Hong%Nguyen%null%1,                       Pauline%Park%null%1,                       Christopher%Polk%null%1,                       Adrienne%Randolph%null%1,                       Suchitra%Rao%null%1,                       Lewis%Rubinson%null%1,                       Christina%Schofield%null%1,                       Shmuel%Shoham%null%1,                       Erika%Stalets%null%1,                       Renee D%Stapleton%null%1,                      John H%Beigel%null%2,                      Evgenia%Aga%null%0,                      Marie-Carmelle%Elie-Turenne%null%0,                      Josalyn%Cho%null%2,                      Pablo%Tebas%null%0,                      Carol L%Clark%null%2,                      Jordan P%Metcalf%null%2,                      Caroline%Ozment%null%2,                      Kanakatte%Raviprakash%null%0,                      Joy%Beeler%null%2,                      H Preston%Holley%null%1,                      Stephanie%Warner%null%2,                      Carla%Chorley%null%2,                      H Clifford%Lane%null%0,                      Michael D%Hughes%null%0,                      Richard T%Davey%null%0,                      John H%Beigel%null%0,                      Evgenia%Aga%null%0,                      Marie-Carmelle%Elie-Turenne%null%0,                      Josalyn%Cho%null%0,                      Pablo%Tebas%null%0,                      Carol L%Clark%null%0,                      Jordan P%Metcalf%null%0,                      Caroline%Ozment%null%0,                      Kanakatte%Raviprakash%null%0,                      Joy%Beeler%null%0,                      H. Preston%Holley%null%1,                      Stephanie%Warner%null%0,                      Carla%Chorley%null%0,                      H. Clifford%Lane%null%1,                      Michael D%Hughes%null%0,                      Richard T%Davey%null%0,                      Michelle%Barron%null%1,                      Aveh%Bastani%null%1,                      Philippe%Bauer%null%1,                      William%Borkowsky%null%1,                      Charles%Cairns%null%1,                      Jaime%Deville%null%1,                      Marie-Carmelle%Elie%null%1,                      Carl%Fichtenbaum%null%1,                      Robert%Finberg%null%0,                      Mamta%Jain%null%1,                      David%Kaufman%null%1,                      Michael%Lin%null%0,                      John%Lin%null%1,                      Ryan%Maves%null%1,                      Lee%Morrow%null%1,                      Minh-Hong%Nguyen%null%1,                      Pauline%Park%null%1,                      Christopher%Polk%null%1,                      Adrienne%Randolph%null%1,                      Suchitra%Rao%null%1,                      Lewis%Rubinson%null%1,                      Christina%Schofield%null%0,                      Shmuel%Shoham%null%0,                      Erika%Stalets%null%1,                      Renee D%Stapleton%null%1]</t>
+  </si>
+  <si>
+    <t>[Caiying%Hu%coreGivesNoEmail%1,                    Chenyue%Li%coreGivesNoEmail%1,                    Conghui%Wang%coreGivesNoEmail%1,                    Cuihua%Tao%coreGivesNoEmail%1,                    E.%Deng%coreGivesNoEmail%1,                    Haixia%Xu%coreGivesNoEmail%1,                    Heng%Mei%coreGivesNoEmail%1,                    Jianwei%Wang%coreGivesNoEmail%1,                    Juan%Wang%coreGivesNoEmail%1,                    Jue%Wang%coreGivesNoEmail%1,                    Juntao%Yang%coreGivesNoEmail%1,                    Li%Zeng%coreGivesNoEmail%1,                    Lifeng%Chen%coreGivesNoEmail%1,                    Lili%Ren%coreGivesNoEmail%1,                    Ling%Li%coreGivesNoEmail%1,                    Linqi%Zhang%coreGivesNoEmail%1,                    Nian%Xiong%coreGivesNoEmail%1,                    Ning%Man%coreGivesNoEmail%1,                    Qing%Wei%coreGivesNoEmail%1,                    Ru%Yang%coreGivesNoEmail%1,                    Shangen%Zheng%coreGivesNoEmail%1,                    Shisheng%Su%coreGivesNoEmail%1,                    Wei%Zhang%coreGivesNoEmail%1,                    Xiaoxiong%Wu%coreGivesNoEmail%1,                    Xuejun%Zhang%coreGivesNoEmail%1,                    Xunliang%Tong%coreGivesNoEmail%1,                    Yanyun%Wu%coreGivesNoEmail%1,                    Yong%Guo%coreGivesNoEmail%1,                    Yongpei%Yu%coreGivesNoEmail%1,                    Yu%Hu%coreGivesNoEmail%1,                    Yu%Liu%coreGivesNoEmail%1,                    Yujie%Kong%coreGivesNoEmail%1,                    Zhihua%Xu%coreGivesNoEmail%1,                    Zhong%Liu%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Ivan F.N.%Hung%null%1,                       Kelvin K.W.%To%null%1,                       Cheuk-Kwong%Lee%null%1,                       Kar-Lung%Lee%null%1,                       Wing-Wa%Yan%null%1,                       Kenny%Chan%null%1,                       Wai-Ming%Chan%null%1,                       Chun-Wai%Ngai%null%1,                       Kin-Ip%Law%null%1,                       Fu-Loi%Chow%null%1,                       Raymond%Liu%null%1,                       Kang-Yiu%Lai%null%1,                       Candy C.Y.%Lau%null%1,                       Shao-Haei%Liu%null%1,                       Kwok-Hung%Chan%null%0,                       Che-Kit%Lin%null%1,                       Kwok-Yung%Yuen%null%0,                      Ivan F.N.%Hung%null%1,                      Kelvin K.W.%To%null%1,                      Cheuk-Kwong%Lee%null%2,                      Kar-Lung%Lee%null%2,                      Wing-Wa%Yan%null%1,                      Kenny%Chan%null%2,                      Wai-Ming%Chan%null%2,                      Chun-Wai%Ngai%null%1,                      Kin-Ip%Law%null%1,                      Fu-Loi%Chow%null%2,                      Raymond%Liu%null%2,                      Kang-Yiu%Lai%null%2,                      Candy C.Y.%Lau%null%1,                      Shao-Haei%Liu%null%2,                      Kwok-Hung%Chan%null%3,                      Che-Kit%Lin%null%2,                      Kwok-Yung%Yuen%null%0]</t>
+  </si>
+  <si>
+    <t>[Arvind%Gharbharan%NULL%1,                      Carlijn C. E.%Jordans%NULL%1,                      Corine%GeurtsvanKessel%NULL%1,                      Jan G.%den Hollander%NULL%2,                      Jan G.%den Hollander%NULL%0,                      Faiz%Karim%NULL%1,                      Femke P. N.%Mollema%NULL%1,                      Janneke E.%Stalenhoef – Schukken%NULL%1,                      Anthonius%Dofferhoff%NULL%2,                      Anthonius%Dofferhoff%NULL%0,                      Inge%Ludwig%NULL%1,                      Adrianus%Koster%NULL%1,                      Robert-Jan%Hassing%NULL%1,                      Jeannet C.%Bos%NULL%1,                      Geert R.%van Pottelberge%NULL%1,                      Imro N.%Vlasveld%NULL%1,                      Heidi S. M.%Ammerlaan%NULL%1,                      Elena M.%van Leeuwen – Segarceanu%NULL%1,                      Jelle%Miedema%NULL%1,                      Menno%van der Eerden%NULL%1,                      Thijs J.%Schrama%NULL%1,                      Grigorios%Papageorgiou%NULL%2,                      Grigorios%Papageorgiou%NULL%0,                      Peter%te Boekhorst%NULL%1,                      Francis H.%Swaneveld%NULL%1,                      Yvonne M.%Mueller%NULL%1,                      Marco W. J.%Schreurs%NULL%2,                      Marco W. J.%Schreurs%NULL%0,                      Jeroen J. A.%van Kampen%NULL%1,                      Barry%Rockx%NULL%1,                      Nisreen M. A.%Okba%NULL%2,                      Nisreen M. A.%Okba%NULL%0,                      Peter D.%Katsikis%NULL%2,                      Peter D.%Katsikis%NULL%0,                      Marion P. G.%Koopmans%NULL%2,                      Marion P. G.%Koopmans%NULL%0,                      Bart L.%Haagmans%NULL%2,                      Bart L.%Haagmans%NULL%0,                      Casper%Rokx%c.rokx@erasmusmc.nl%2,                      Casper%Rokx%c.rokx@erasmusmc.nl%0,                      Bart J. A.%Rijnders%NULL%2,                      Bart J. A.%Rijnders%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gordin%Fred M.%coreGivesNoEmail%1,                    INSIGHT%FLU005 IVIG Pilot Study Group.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alcam\u00ed%Jos\u00e9%coreGivesNoEmail%1,                    Avenda\u00f1o-Sol\u00e1%Cristina%coreGivesNoEmail%1,                    Blanco%Lydia%coreGivesNoEmail%1,                    Bueno%Jose L%coreGivesNoEmail%1,                    Calder\u00f3n-Parra%Jorge%coreGivesNoEmail%1,                    Casas-Flecha%Inmaculada%coreGivesNoEmail%1,                    ConPlas-19%Study Group%coreGivesNoEmail%1,                    de%Oteyza Jaime P\u00e9rez%coreGivesNoEmail%1,                    Duarte%Rafael F%coreGivesNoEmail%1,                    D\u00edaz%de Santiago Alberto%coreGivesNoEmail%1,                    Fern\u00e1ndez-Cruz%Ana%coreGivesNoEmail%1,                    Garcia-Perez%Javier%coreGivesNoEmail%1,                    Jarilla-Fern\u00e1ndez%Maria C%coreGivesNoEmail%1,                    Lora-Tamayo%Jaime%coreGivesNoEmail%1,                    Madrigal-S\u00e1nchez%Maria E%coreGivesNoEmail%1,                    Malo%de Molina Rosa%coreGivesNoEmail%1,                    Manche\u00f1o-Losa%Mikel%coreGivesNoEmail%1,                    Mart\u00ednez-Gonz\u00e1lez%A L%coreGivesNoEmail%1,                    Moreno-Chulilla%J A%coreGivesNoEmail%1,                    Mu\u00f1ez-Rubio%Elena%coreGivesNoEmail%1,                    Mu\u00f1iz-D\u00edaz%Eduardo%coreGivesNoEmail%1,                    Nu\u00f1ez-Orantos%Maria J%coreGivesNoEmail%1,                    Paciello%Maria L%coreGivesNoEmail%1,                    Payares-Herrera%Concepcion%coreGivesNoEmail%1,                    Pa\u00f1o-Pardo%Jos\u00e9 R%coreGivesNoEmail%1,                    Perez-Olmeda%Mayte%coreGivesNoEmail%1,                    Pintos%Ilduara%coreGivesNoEmail%1,                    Porras-Leal%Maria L%coreGivesNoEmail%1,                    Ramos-Garrido%Ascension%coreGivesNoEmail%1,                    Ramos-Mart\u00ednez%Antonio%coreGivesNoEmail%1,                    Romera-Mart\u00ednez%Irene%coreGivesNoEmail%1,                    Rubio-Batll\u00e9s%Martin%coreGivesNoEmail%1,                    Ruiz-Antor\u00e1n%Belen%coreGivesNoEmail%1,                    Saez-Serrano%Maria Isabel%coreGivesNoEmail%1,                    Torres%Ferran%coreGivesNoEmail%1,                    Velasco-Iglesias%Ana%coreGivesNoEmail%1,                    Vid\u00e1n-Est\u00e9vez%Julia%coreGivesNoEmail%1,                    Villares%Paula%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Agarwal%NULL%1,                      Aparna%Mukherjee%NULL%2,                      Gunjan%Kumar%NULL%3,                      Gunjan%Kumar%NULL%0,                      Pranab%Chatterjee%NULL%2,                      Tarun%Bhatnagar%NULL%2,                      Pankaj%Malhotra%NULL%2,                      NULL%NULL%NULL%0,                      NULL%NULL%NULL%0,                      Anup%Agarwal%NULL%1,                      Aparna%Mukherjee%NULL%0,                      Gunjan%Kumar%NULL%0,                      Pranab%Chatterjee%NULL%0,                      Tarun%Bhatnagar%NULL%0,                      Pankaj%Malhotra%NULL%0,                      B%Latha%NULL%1,                      Sunita%Bundas%NULL%1,                      Vivek%Kumar%NULL%2,                      Ravi%Dosi%NULL%1,                      Janak Kumar%Khambholja%NULL%1,                      Rosemarie%de Souza%NULL%1,                      Raja Rao%Mesipogu%NULL%1,                      Saurabh%Srivastava%NULL%1,                      Simmi%Dube%NULL%1,                      Kiran%Chaudhary%NULL%1,                      S%Subash%NULL%1,                      S%Anbuselvi%NULL%1,                      V%Rajendran%NULL%1,                      A%Sundararajaperumal%NULL%1,                      P%Balamanikandan%NULL%1,                      R S Uma%Maheswari%NULL%1,                      R%Jayanthi%NULL%1,                      S%Ragunanthanan%NULL%1,                      Sudhir%Bhandari%NULL%1,                      Ajeet%Singh%NULL%1,                      Ashok%Pal%NULL%1,                      Anjali%Handa%NULL%1,                      Govind%Rankawat%NULL%1,                      Ketan%Kargirwar%NULL%1,                      Joyce%Regi%NULL%1,                      Darshana%Rathod%NULL%1,                      Edwin%Pathrose%NULL%1,                      Nirankar%Bhutaka%NULL%1,                      Mayur H%Patel%NULL%1,                      Rahul J%Verma%NULL%1,                      Kamal%Malukani%NULL%1,                      Shivani%Patel%NULL%1,                      Apurv%Thakur%NULL%1,                      Satish%Joshi%NULL%1,                      Rashmi%Kulkarni%NULL%1,                      Nilay N%Suthar%NULL%1,                      Nehal M%Shah%NULL%1,                      Hemang M%Purohit%NULL%1,                      Cherry K%Shah%NULL%1,                      Monila N%Patel%NULL%1,                      Saket%Shah%NULL%1,                      Smit T%Shah%NULL%1,                      Tehsim%Memon%NULL%1,                      Vishal R%Beriwala%NULL%1,                      Kusum%Jashnani%NULL%1,                      Fatema%Ezzy%NULL%1,                      Simran%Agrawal%NULL%1,                      Rakesh%Bhadade%NULL%1,                      MN%Atish%NULL%1,                      Tushar%Madke%NULL%1,                      Vikas%Kavishwar%NULL%1,                      Ramesh%Waghmare%NULL%1,                      Nitin%Valvi%NULL%1,                      B Thrilok%Chander%NULL%1,                      A Vinaya%Sekhar%NULL%1,                      Akhilesh Kumar%Maurya%NULL%1,                      K%Hemanth%NULL%1,                      K%Nagamani%NULL%1,                      K%Sudha%NULL%1,                      T Ravi%Chandra%NULL%1,                      K Tushara%Rao%NULL%1,                      J%Vyshnavi%NULL%1,                      Rashmi%Upadhyay%NULL%1,                      Shalini%Bahadur%NULL%1,                      Rambha%Pathak%NULL%1,                      Shikha%Seth%NULL%1,                      Rakesh%Gupta%NULL%1,                      Rita%Saxena%NULL%1,                      Preksha%Dwivedi%NULL%1,                      Reeni%Malik%NULL%1,                      Deepti%Chourasia%NULL%1,                      Jaya%Lalwani%NULL%1,                      UM%Sharma%NULL%1,                      JL%Marko%NULL%1,                      Amit%Suri%NULL%1,                      Vijay%Kumar%NULL%1,                      Rajnish%Kaushik%NULL%1,                      Parul%Kodan%NULL%1,                      Bhabani Prasad%Acharya%NULL%1,                      Kuldeep Kumar%Gaur%NULL%1,                      Anubhav%Gupta%NULL%1,                      Prerna%Sachdeva%NULL%1,                      Shruti%Dogra%NULL%1,                      Aikaj%Jindal%NULL%1,                      M Joseph%John%NULL%1,                      Avtar Singh%Dhanju%NULL%1,                      Ranjana%Khetrepal%NULL%1,                      Neeraj%Sharma%NULL%1,                      Neetu%Kukar%NULL%1,                      Divya%Kavita%NULL%1,                      Rajesh%Kumar%NULL%1,                      Rajesh%Mahajan%NULL%1,                      Gurpreet%Singh%NULL%1,                      Jaspreet%Kaur%NULL%1,                      Raminder Pal%Singh%NULL%1,                      Rajni%Bassi%NULL%1,                      Swapneil%Parikh%NULL%1,                      Om%Shrivastav%NULL%1,                      Jayanthi%Shastri%NULL%1,                      Maherra%Desai%NULL%1,                      Shreevatsa%Udupa%NULL%1,                      Varun A%Bafna%NULL%1,                      Vijay%Barge%NULL%1,                      Rajendra%Madane%NULL%1,                      Sheetal%Yadav%NULL%1,                      Sanjeev%Misra%NULL%1,                      Archana%Bajpayee%NULL%1,                      M K%Garg%NULL%1,                      G K%Bohra%NULL%1,                      Vijaylakshmi%Nag%NULL%1,                      Puneeth Babu%Anne%NULL%1,                      Mohd%Nadeem%NULL%1,                      Pallavi%Singh%NULL%1,                      Ram%Niwas%NULL%1,                      Niranjan Shiwaji%Khaire%NULL%1,                      Rattiram%Sharma%NULL%1,                      Mini P%Singh%NULL%1,                      Naresh%Sachdeva%NULL%1,                      Suchet%Sachdev%NULL%1,                      Rekha%Hans%NULL%1,                      Vikas%Suri%NULL%1,                      LN%Yaddanapudi%NULL%1,                      PVM%Lakshmi%NULL%1,                      Neha%Singh%NULL%1,                      Divendu%Bhushan%NULL%1,                      Neeraj%Kumar%NULL%1,                      Muralidhar%Tambe%NULL%1,                      Sonali%Salvi%NULL%1,                      Nalini%Kadgi%NULL%1,                      Shashikala%Sangle%NULL%1,                      Leena%Nakate%NULL%1,                      Samir%Joshi%NULL%1,                      Rajesh%Karyakarte%NULL%1,                      Suraj%Goyanka%NULL%1,                      Nimisha%Sharma%NULL%1,                      Nikhil%Verma%NULL%1,                      Asim%Das%NULL%1,                      Monika%Bahl%NULL%1,                      Nitya%Wadhwa%NULL%1,                      Shreepad%Bhat%NULL%1,                      Shweta%Deshmukh%NULL%1,                      Vrushali%Wagh%NULL%1,                      Atul%Kulkarni%NULL%1,                      Tanvi%Yardi%NULL%1,                      Ram S%Kalgud%NULL%1,                      Purushottam%Reddy%NULL%1,                      Kavitha%Yevoor%NULL%1,                      Prashanth%Gajula%NULL%1,                      Vivek%Maleyur%NULL%1,                      S%Medini%NULL%1,                      HN%Mohith%NULL%1,                      Anil%Gurtoo%NULL%1,                      Ritika%Sud%NULL%1,                      Sangeeta%Pahuja%NULL%1,                      Anupam%Prakash%NULL%1,                      Parijat%Gogoi%NULL%1,                      Shailja%Shukla%NULL%1,                      D Himanshu%Reddy%NULL%1,                      Tulika%Chandra%NULL%1,                      Saurabh%Pandey%NULL%1,                      Pradeep%Maurya%NULL%1,                      Wahid%Ali%NULL%1,                      Vivek%Kumar%NULL%0,                      Kamlesh%Upadhyay%NULL%1,                      Nidhi%Bhatnagar%NULL%1,                      Nilima%Shah%NULL%1,                      Mamta%Shah%NULL%1,                      Tarak%Patel%NULL%1,                      Ram Mohan%Jaiswal%NULL%1,                      Ashish%Jain%NULL%1,                      Shweta%Sharma%NULL%1,                      Puneet%Rijhwani%NULL%1,                      Naveen%Gupta%NULL%1,                      Tinkal C%Patel%NULL%1,                      Mahesh G%Solu%NULL%1,                      Jitendra%Patel%NULL%1,                      Yash R%Shah%NULL%1,                      Mayur%Jarag%NULL%1,                      Varsha%Godbole%NULL%1,                      Meenakshi%Shah%NULL%1,                      Rikin%Raj%NULL%1,                      Irfan%Nagori%NULL%1,                      Pramod R%Jha%NULL%1,                      Arti D%Shah%NULL%1,                      Gowtham%Yeeli%NULL%1,                      Archit%Jain%NULL%1,                      Rooppreet Kaur%Gill%NULL%1,                      KV Sreedhar%Babu%NULL%1,                      B Suresh%Babu%NULL%1,                      Alladi%Mohan%NULL%1,                      B%Vengamma%NULL%1,                      K Chandra%Sekhar%NULL%1,                      Srinivasulu%Damam%NULL%1,                      K%Narsimhulu%NULL%1,                      C%Aparna%NULL%1,                      G%Baleswari%NULL%1,                      K Ravindranath%Reddy%NULL%1,                      P%Chandrasekhar%NULL%1,                      Sunil Jodharam%Panjwani%NULL%1,                      Pragnesh H%Shah%NULL%1,                      Manish%Barvaliya%NULL%1,                      Kairavi%Desai%NULL%1,                      Pankaj J%Akholkar%NULL%1,                      Milind%Baldi%NULL%1,                      Ashok%Yadav%NULL%1,                      Manoj%Gupta%NULL%1,                      Nitin%Rawat%NULL%1,                      Dilip%Chawda%NULL%1,                      M%Natarajan%NULL%1,                      M%Sintha%NULL%1,                      David Pradeep%Kumar%NULL%1,                      Fathhur%Rabbani%NULL%1,                      Vrushali Khirid%Khadke%NULL%1,                      Dattatray%Patki%NULL%1,                      Sonali%Marathe%NULL%1,                      Clyde%D’Souza%NULL%1,                      Vipul%Tadha%NULL%1,                      Satyam%Arora%NULL%1,                      Devendra Kumar%Gupta%NULL%1,                      Seema%Dua%NULL%1,                      Nitu%Chauhan%NULL%1,                      Ajeet Singh%Chahar%NULL%1,                      Joy John%Mammen%NULL%1,                      Snehil%Kumar%NULL%1,                      Dolly%Daniel%NULL%1,                      Ravindraa%Singh%NULL%1,                      Venkatesh%Dhat%NULL%1,                      Yogesh%Agarwal%NULL%1,                      Sohini%Arora%NULL%1,                      Ashish%Pathak%NULL%1,                      Manju%Purohit%NULL%1,                      Ashish%Sharma%NULL%1,                      Jayashree%Sharma%NULL%1,                      Manisha%Madkaikar%NULL%1,                      Kavita%Joshi%NULL%1,                      Reetika Malik%Yadav%NULL%1,                      Swarupa%Bhagwat%NULL%1,                      Niteen D%Karnik%NULL%1,                      Yojana A%Gokhale%NULL%1,                      Leena%Naik%NULL%1,                      Sangita%Margam%NULL%1,                      Santasabuj%Das%NULL%1,                      Alka%Turuk%NULL%1,                      V Saravana%Kumar%NULL%1,                      K%Kanagasabai%NULL%1,                      R%Sabarinathan%NULL%1,                      Gururaj%Deshpande%NULL%1,                      Sharda%Sharma%NULL%1,                      Rashmi%Gunjikar%NULL%1,                      Anita%Shete%NULL%1,                      Darpan%Phagiwala%NULL%1,                      Chetan%Patil%NULL%1,                      Snehal%Shingade%NULL%1,                      Kajal%Jarande%NULL%1,                      Himanshu%Kaushal%NULL%1,                      Pragya%Yadav%NULL%1,                      Gajanan%Sapkal%NULL%1,                      Priya%Abraham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan FN%Hung%NULL%1,                      Kelvin KW%To%NULL%1,                      Cheuk-Kwong%Lee%NULL%0,                      Kar-Lung%Lee%NULL%0,                      Kenny%Chan%NULL%0,                      Wing-Wah%Yan%NULL%1,                      Raymond%Liu%NULL%0,                      Chi-Leung%Watt%NULL%1,                      Wai-Ming%Chan%NULL%0,                      Kang-Yiu%Lai%NULL%0,                      Chi-Kwan%Koo%NULL%1,                      Tom%Buckley%NULL%1,                      Fu-Loi%Chow%NULL%0,                      Kwan-Keung%Wong%NULL%1,                      Hok-Sum%Chan%NULL%1,                      Chi-Keung%Ching%NULL%1,                      Bone SF%Tang%NULL%1,                      Candy CY%Lau%NULL%1,                      Iris WS%Li%NULL%1,                      Shao-Haei%Liu%NULL%0,                      Kwok-Hung%Chan%NULL%0,                      Che-Kit%Lin%NULL%0,                      Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y. O. Y.%Soo%NULL%1,                      Y.%Cheng%NULL%1,                      R.%Wong%NULL%2,                      D. S.%Hui%NULL%1,                      C. K.%Lee%NULL%2,                      K. K. S.%Tsang%NULL%1,                      M. H. L.%Ng%NULL%2,                      P.%Chan%NULL%2,                      G.%Cheng%NULL%2,                      J. J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongjie%Yu%NULL%1,                      Zhancheng%Gao%NULL%0,                      Zijian%Feng%NULL%2,                      Yuelong%Shu%NULL%1,                      Nijuan%Xiang%NULL%2,                      Lei%Zhou%NULL%2,                      Yang%Huai%NULL%1,                      Luzhao%Feng%NULL%0,                      Zhibin%Peng%NULL%1,                      Zhongjie%Li%NULL%1,                      Cuiling%Xu%NULL%1,                      Junhua%Li%NULL%0,                      Chengping%Hu%NULL%1,                      Qun%Li%NULL%1,                      Xiaoling%Xu%NULL%1,                      Xuecheng%Liu%NULL%1,                      Zigui%Liu%NULL%1,                      Longshan%Xu%NULL%1,                      Yusheng%Chen%NULL%1,                      Huiming%Luo%NULL%1,                      Liping%Wei%NULL%1,                      Xianfeng%Zhang%NULL%1,                      Jianbao%Xin%NULL%1,                      Junqiao%Guo%NULL%1,                      Qiuyue%Wang%NULL%1,                      Zhengan%Yuan%NULL%1,                      Longnv%Zhou%NULL%1,                      Kunzhao%Zhang%NULL%1,                      Wei%Zhang%NULL%0,                      Jinye%Yang%NULL%1,                      Xiaoning%Zhong%NULL%1,                      Shichang%Xia%NULL%1,                      Lanjuan%Li%NULL%0,                      Jinquan%Cheng%NULL%1,                      Erdang%Ma%NULL%1,                      Pingping%He%NULL%1,                      Shui Shan%Lee%NULL%1,                      Yu%Wang%NULL%3,                      Timothy M.%Uyeki%NULL%0,                      Weizhong%Yang%NULL%1,                      Joel Mark%Montgomery%NULL%0,                      Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y.%Cheng%NULL%1,                      R.%Wong%NULL%0,                      Y. O. Y.%Soo%NULL%1,                      W. S.%Wong%NULL%1,                      C. K.%Lee%NULL%0,                      M. H. L.%Ng%NULL%0,                      P.%Chan%NULL%0,                      K. C.%Wong%NULL%1,                      C. B.%Leung%NULL%1,                      G.%Cheng%gcheng@cuhk.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Duan%NULL%1,                      Bende%Liu%NULL%2,                      Bende%Liu%NULL%0,                      Cesheng%Li%NULL%1,                      Huajun%Zhang%NULL%1,                      Ting%Yu%NULL%0,                      Ting%Yu%NULL%0,                      Jieming%Qu%NULL%0,                      Min%Zhou%NULL%0,                      Min%Zhou%NULL%0,                      Li%Chen%NULL%3,                      Li%Chen%NULL%0,                      Shengli%Meng%NULL%2,                      Shengli%Meng%NULL%0,                      Yong%Hu%NULL%1,                      Cheng%Peng%NULL%1,                      Mingchao%Yuan%NULL%1,                      Jinyan%Huang%NULL%1,                      Zejun%Wang%NULL%2,                      Zejun%Wang%NULL%0,                      Jianhong%Yu%NULL%1,                      Xiaoxiao%Gao%NULL%1,                      Dan%Wang%NULL%1,                      Xiaoqi%Yu%NULL%1,                      Li%Li%NULL%0,                      Li%Li%NULL%0,                      Jiayou%Zhang%NULL%2,                      Jiayou%Zhang%NULL%0,                      Xiao%Wu%NULL%1,                      Bei%Li%NULL%1,                      Yanping%Xu%NULL%1,                      Wei%Chen%NULL%0,                      Wei%Chen%NULL%0,                      Yan%Peng%NULL%1,                      Yeqin%Hu%NULL%1,                      Lianzhen%Lin%NULL%1,                      Xuefei%Liu%NULL%1,                      Shihe%Huang%NULL%1,                      Zhijun%Zhou%NULL%1,                      Lianghao%Zhang%NULL%1,                      Yue%Wang%NULL%1,                      Zhi%Zhang%NULL%1,                      Kun%Deng%NULL%1,                      Zhiwu%Xia%NULL%1,                      Qin%Gong%NULL%1,                      Wei%Zhang%NULL%0,                      Xiaobei%Zheng%NULL%1,                      Ying%Liu%NULL%0,                      Huichuan%Yang%NULL%1,                      Dongbo%Zhou%NULL%1,                      Ding%Yu%NULL%1,                      Jifeng%Hou%NULL%1,                      Zhengli%Shi%NULL%0,                      Saijuan%Chen%NULL%1,                      Zhu%Chen%NULL%1,                      Xinxin%Zhang%NULL%0,                      Xiaoming%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[F.%Sahr%NULL%1,                      R.%Ansumana%rashidansumana@gmail.com%1,                      T.A.%Massaquoi%NULL%1,                      B.R.%Idriss%NULL%1,                      F.R.%Sesay%NULL%1,                      J.M.%Lamin%NULL%1,                      S.%Baker%NULL%1,                      S.%Nicol%NULL%1,                      B.%Conton%NULL%1,                      W.%Johnson%NULL%1,                      O.T.%Abiri%NULL%1,                      O.%Kargbo%NULL%1,                      P.%Kamara%NULL%1,                      A.%Goba%NULL%1,                      J.B.W.%Russell%NULL%1,                      S.M.%Gevao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qing-Lei%Zeng%zengqinglei2009@163.com%1,                      Zu-Jiang%Yu%NULL%1,                      Jian-Jun%Gou%NULL%1,                      Guang-Ming%Li%NULL%1,                      Shu-Huan%Ma%NULL%1,                      Guo-Fan%Zhang%NULL%1,                      Jiang-Hai%Xu%NULL%1,                      Wan-Bao%Lin%NULL%1,                      Guang-Lin%Cui%NULL%1,                      Min-Min%Zhang%NULL%1,                      Cheng%Li%NULL%1,                      Ze-Shuai%Wang%NULL%1,                      Zhi-Hao%Zhang%NULL%1,                      Zhang-Suo%Liu%zengqinglei2009@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hassan%Abolghasemi%NULL%1,                      Peyman%Eshghi%NULL%1,                      Abdol Majid%Cheraghali%NULL%1,                      Abbas Ali%Imani Fooladi%NULL%1,                      Farzaneh%Bolouki Moghaddam%NULL%1,                      Sina%Imanizadeh%NULL%1,                      Matin%Moeini Maleki%NULL%1,                      Mohammad%Ranjkesh%NULL%1,                      Mohammad%Rezapour%NULL%1,                      Ali%Bahramifar%NULL%1,                      Behzad%Einollahi%NULL%1,                      Mohammad Javad%Hosseini%NULL%1,                      Nematollah Joneidi%Jafari%NULL%1,                      Mohamad%Nikpouraghdam%NULL%1,                      Nariman%Sadri%NULL%1,                      Mokhtar%Tazik%NULL%1,                      Shanaz%Sali%NULL%1,                      Shamsi%Okati%NULL%1,                      Elham%Askari%NULL%1,                      Payam%Tabarsi%NULL%1,                      Jafar%Aslani%NULL%1,                      Ehsan%Sharifipour%NULL%1,                      Mohammad Hossein%Jarahzadeh%NULL%1,                      Nastaran%Khodakarim%NULL%1,                      Mahmood%Salesi%NULL%1,                      Ramezan%Jafari%NULL%1,                      Samira%Shahverdi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[John H%Beigel%jbeigel@niaid.nih.gov%1,                       Pablo%Tebas%NULL%4,                       Marie-Carmelle%Elie-Turenne%NULL%4,                       Ednan%Bajwa%NULL%2,                       Todd E%Bell%NULL%2,                       Charles B%Cairns%NULL%2,                       Shmuel%Shoham%NULL%3,                       Jaime G%Deville%NULL%2,                       Eric%Feucht%NULL%2,                       Judith%Feinberg%NULL%2,                       Thomas%Luke%NULL%1,                       Kanakatte%Raviprakash%NULL%3,                       Janine%Danko%NULL%2,                       Dorothy%O'Neil%NULL%1,                       Julia A%Metcalf%NULL%1,                       Karen%King%NULL%1,                       Timothy H%Burgess%NULL%1,                       Evgenia%Aga%NULL%3,                       H Clifford%Lane%NULL%2,                       Michael D%Hughes%NULL%3,                       Richard T%Davey%NULL%3,                       Pablo%Tebas%NULL%0,                       Joseph%Quinn%NULL%1,                       Yan%Jiang%NULL%1,                       Marie-Carmelle%Elie-Turenne%NULL%0,                       Robyn%Hoelle%NULL%1,                       Nicole%Iovine%NULL%1,                       Robert Shawn%Wills%NULL%1,                       Socorro%Pata%NULL%1,                       Monique%Huggins%NULL%1,                       Belinda%Manukian%NULL%1,                       Ednan%Bajwa%NULL%0,                       Carrie%Holland%NULL%1,                       Kelsey%Brait%NULL%1,                       Taylor%Hunt%NULL%1,                       Christopher%Stowell%NULL%1,                       Amy%Slater%NULL%1,                       Todd E%Bell%NULL%0,                       Mary%Townsends%NULL%1,                       Charles B%Cairns%NULL%0,                       Eugenia B%Quackenbush%NULL%1,                       Yara A%Park%NULL%1,                       Paul Gaither%Jordan%NULL%1,                       Cherie%Blanchet%NULL%1,                       Kevin%Chronowski%NULL%1,                       Kathleen%Alvarez%NULL%1,                       Shmuel%Shoham%NULL%0,                       Darin%Ostrander%NULL%1,                       Terry%Woessner%NULL%1,                       Sandra%Thoman%NULL%1,                       Jaime G%Deville%NULL%0,                       James%Lin%NULL%1,                       Alyssa%Ziman%NULL%1,                       Kavita%Shankar%NULL%1,                       Eric%Feucht%NULL%0,                       Tom%Blok%NULL%1,                       Don%Batts%NULL%1,                       Bob%Beck%NULL%1,                       Gail%Massey%NULL%1,                       Carol%Bradley%NULL%1,                       Judith%Feinberg%NULL%0,                       Patricia%Carey%NULL%1,                       Jenifer%Baer%NULL%1,                       Eva Moore%Whitehead%NULL%1,                       Sharon%Kohrs%NULL%1,                       Robert%Giulitto%NULL%1,                       Christina%Schofield%NULL%2,                       Mary%Fairchok%NULL%1,                       Susan%Chambers%NULL%1,                       Cindy%Baker%NULL%1,                       NULL%RN%NULL%1,                       Michelle%Parker%NULL%1,                       Marta%Harshbarger%NULL%1,                       M Hong%Nguyen%NULL%1,                       Mary Ellen%Carey%NULL%1,                       Julie%Paronish%NULL%1,                       Frank%Cornell%NULL%1,                       Jim%Cramer%NULL%1,                       Diana Lynn%Pakstis%NULL%1,                       Michael G%Ison%NULL%1,                       Richard%Wunderink%NULL%1,                       Marshall%Glesby%NULL%1,                       Kirsis%Ham%NULL%1,                       Valery%Hughes%NULL%1,                       Melissa%Cushing%NULL%0,                       Cheryl%Goss%NULL%1,                       Joanne%Grenade%NULL%1,                       Pauline K%Park%NULL%1,                       Lena M%Napolitano%NULL%1,                       Krishnan%Raghavendran%NULL%1,                       Robert C%Hyzy%NULL%1,                       Robertson%Davenport%NULL%1,                       Kristin%Brierley%NULL%1,                       Theresa%Downs%NULL%1,                       Michelle Ng%Gong%NULL%1,                       Joan%Uehlinger%NULL%1,                       Michael%Lin%NULL%2,                       Janice%Fritsche%NULL%1,                       Tondria%Green%NULL%1,                       Bruce%McLeod%NULL%1,                       Deena%Patel%NULL%1,                       Mary F%Bavaro%NULL%1,                       Robert%Deiss%NULL%1,                       Carolyn%Brandt%NULL%1,                       Stephanie%Cammarata%NULL%1,                       Allan%Kremp%NULL%1,                       Karine%Hollis-Perry%NULL%1,                       Tahaniyat%Lalani%NULL%1,                       Susan%Banks%NULL%1,                       Jacqueline%Johnson%NULL%1,                       Jason%Maguire%NULL%1,                       Janet%McNiff%NULL%1,                       Leslie E%Rigg%NULL%1,                       Anuradha%Ganesan%NULL%1,                       Irma%Barahona%NULL%1,                       Janine%Danko%NULL%0,                       Steven%Spencer%NULL%1,                       David%Stagliano%NULL%1,                       Timothy%Burgess%NULL%1,                       Daniel%Talmor%NULL%1,                       Monique%Mohammed%NULL%1,                       Valerie%Banner-Goodspeed%NULL%1,                       Robert%Salata%NULL%1,                       Robert%Finberg%NULL%2,                       Jennifer%Wang%NULL%1,                       Karen%Longtine%NULL%1,                       Jaclyn%Longtine%NULL%1,                       Mellissa%O'Neil%NULL%1,                       Philippe R%Bauer%NULL%1,                       Ognjen%Gajic%NULL%1,                       Suanne M%Weist%NULL%1,                       Jonathan%Sevransky%NULL%1,                       Mona%Brown%NULL%1,                       John%Roback%NULL%1,                       John%Oropello%NULL%1,                       Bridget%Twohig%NULL%1,                       Jeffrey%Jhang%NULL%1,                       Rahgu%Seethala%NULL%1,                       Wilbur H%Chen%NULL%1,                       Magali%Fontaine%NULL%1,                       Kapil%Saharia%NULL%1,                       Jennifer%Husson%NULL%1,                       Roberta%DeBiasi%NULL%1,                       Jurran L%Wilson%NULL%1,                       Valli Ree%Criss%NULL%1,                       Jocelyn%Voell%NULL%1,                       Susan%Leitman%NULL%1,                       James Wade%Atkins%NULL%1,                       Hemaxi%Patel%NULL%1,                       Traci%Paige%NULL%1,                       Cathy%Cantilena%NULL%1,                       Donald%Siegel%NULL%1,                       Faye%DeMuth%NULL%1,                       Craig H%Fletcher%NULL%1,                       J Peter R%Pelletier%NULL%1,                       Hassan%Alnuaimat%NULL%1,                       Michelle%Pourde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ John H%Beigel%null%1,                        Evgenia%Aga%null%2,                        Marie-Carmelle%Elie-Turenne%null%2,                        Josalyn%Cho%null%2,                        Pablo%Tebas%null%2,                        Carol L%Clark%null%2,                        Jordan P%Metcalf%null%2,                        Caroline%Ozment%null%2,                        Kanakatte%Raviprakash%null%2,                        Joy%Beeler%null%2,                        H Preston%Holley%null%1,                        Stephanie%Warner%null%2,                        Carla%Chorley%null%2,                        H Clifford%Lane%null%1,                        Michael D%Hughes%null%2,                        Richard T%Davey%null%2,                        John H%Beigel%null%1,                        Evgenia%Aga%null%0,                        Marie-Carmelle%Elie-Turenne%null%0,                        Josalyn%Cho%null%0,                        Pablo%Tebas%null%0,                        Carol L%Clark%null%0,                        Jordan P%Metcalf%null%0,                        Caroline%Ozment%null%0,                        Kanakatte%Raviprakash%null%0,                        Joy%Beeler%null%0,                        H. Preston%Holley%null%1,                        Stephanie%Warner%null%0,                        Carla%Chorley%null%0,                        H. Clifford%Lane%null%1,                        Michael D%Hughes%null%0,                        Richard T%Davey%null%0,                        Michelle%Barron%null%1,                        Aveh%Bastani%null%1,                        Philippe%Bauer%null%1,                        William%Borkowsky%null%1,                        Charles%Cairns%null%1,                        Jaime%Deville%null%1,                        Marie-Carmelle%Elie%null%1,                        Carl%Fichtenbaum%null%1,                        Robert%Finberg%null%1,                        Mamta%Jain%null%1,                        David%Kaufman%null%1,                        Michael%Lin%null%1,                        John%Lin%null%1,                        Ryan%Maves%null%1,                        Lee%Morrow%null%1,                        Minh-Hong%Nguyen%null%1,                        Pauline%Park%null%1,                        Christopher%Polk%null%1,                        Adrienne%Randolph%null%1,                        Suchitra%Rao%null%1,                        Lewis%Rubinson%null%1,                        Christina%Schofield%null%1,                        Shmuel%Shoham%null%1,                        Erika%Stalets%null%1,                        Renee D%Stapleton%null%1,                       John H%Beigel%null%2,                       Evgenia%Aga%null%0,                       Marie-Carmelle%Elie-Turenne%null%0,                       Josalyn%Cho%null%2,                       Pablo%Tebas%null%0,                       Carol L%Clark%null%2,                       Jordan P%Metcalf%null%2,                       Caroline%Ozment%null%2,                       Kanakatte%Raviprakash%null%0,                       Joy%Beeler%null%2,                       H Preston%Holley%null%1,                       Stephanie%Warner%null%2,                       Carla%Chorley%null%2,                       H Clifford%Lane%null%0,                       Michael D%Hughes%null%0,                       Richard T%Davey%null%0,                       John H%Beigel%null%0,                       Evgenia%Aga%null%0,                       Marie-Carmelle%Elie-Turenne%null%0,                       Josalyn%Cho%null%0,                       Pablo%Tebas%null%0,                       Carol L%Clark%null%0,                       Jordan P%Metcalf%null%0,                       Caroline%Ozment%null%0,                       Kanakatte%Raviprakash%null%0,                       Joy%Beeler%null%0,                       H. Preston%Holley%null%1,                       Stephanie%Warner%null%0,                       Carla%Chorley%null%0,                       H. Clifford%Lane%null%1,                       Michael D%Hughes%null%0,                       Richard T%Davey%null%0,                       Michelle%Barron%null%1,                       Aveh%Bastani%null%1,                       Philippe%Bauer%null%1,                       William%Borkowsky%null%1,                       Charles%Cairns%null%1,                       Jaime%Deville%null%1,                       Marie-Carmelle%Elie%null%1,                       Carl%Fichtenbaum%null%1,                       Robert%Finberg%null%0,                       Mamta%Jain%null%1,                       David%Kaufman%null%1,                       Michael%Lin%null%0,                       John%Lin%null%1,                       Ryan%Maves%null%1,                       Lee%Morrow%null%1,                       Minh-Hong%Nguyen%null%1,                       Pauline%Park%null%1,                       Christopher%Polk%null%1,                       Adrienne%Randolph%null%1,                       Suchitra%Rao%null%1,                       Lewis%Rubinson%null%1,                       Christina%Schofield%null%0,                       Shmuel%Shoham%null%0,                       Erika%Stalets%null%1,                       Renee D%Stapleton%null%1]</t>
+  </si>
+  <si>
+    <t>[Caiying%Hu%coreGivesNoEmail%1,                     Chenyue%Li%coreGivesNoEmail%1,                     Conghui%Wang%coreGivesNoEmail%1,                     Cuihua%Tao%coreGivesNoEmail%1,                     E.%Deng%coreGivesNoEmail%1,                     Haixia%Xu%coreGivesNoEmail%1,                     Heng%Mei%coreGivesNoEmail%1,                     Jianwei%Wang%coreGivesNoEmail%1,                     Juan%Wang%coreGivesNoEmail%1,                     Jue%Wang%coreGivesNoEmail%1,                     Juntao%Yang%coreGivesNoEmail%1,                     Li%Zeng%coreGivesNoEmail%1,                     Lifeng%Chen%coreGivesNoEmail%1,                     Lili%Ren%coreGivesNoEmail%1,                     Ling%Li%coreGivesNoEmail%1,                     Linqi%Zhang%coreGivesNoEmail%1,                     Nian%Xiong%coreGivesNoEmail%1,                     Ning%Man%coreGivesNoEmail%1,                     Qing%Wei%coreGivesNoEmail%1,                     Ru%Yang%coreGivesNoEmail%1,                     Shangen%Zheng%coreGivesNoEmail%1,                     Shisheng%Su%coreGivesNoEmail%1,                     Wei%Zhang%coreGivesNoEmail%1,                     Xiaoxiong%Wu%coreGivesNoEmail%1,                     Xuejun%Zhang%coreGivesNoEmail%1,                     Xunliang%Tong%coreGivesNoEmail%1,                     Yanyun%Wu%coreGivesNoEmail%1,                     Yong%Guo%coreGivesNoEmail%1,                     Yongpei%Yu%coreGivesNoEmail%1,                     Yu%Hu%coreGivesNoEmail%1,                     Yu%Liu%coreGivesNoEmail%1,                     Yujie%Kong%coreGivesNoEmail%1,                     Zhihua%Xu%coreGivesNoEmail%1,                     Zhong%Liu%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Ivan F.N.%Hung%null%1,                        Kelvin K.W.%To%null%1,                        Cheuk-Kwong%Lee%null%1,                        Kar-Lung%Lee%null%1,                        Wing-Wa%Yan%null%1,                        Kenny%Chan%null%1,                        Wai-Ming%Chan%null%1,                        Chun-Wai%Ngai%null%1,                        Kin-Ip%Law%null%1,                        Fu-Loi%Chow%null%1,                        Raymond%Liu%null%1,                        Kang-Yiu%Lai%null%1,                        Candy C.Y.%Lau%null%1,                        Shao-Haei%Liu%null%1,                        Kwok-Hung%Chan%null%0,                        Che-Kit%Lin%null%1,                        Kwok-Yung%Yuen%null%0,                       Ivan F.N.%Hung%null%1,                       Kelvin K.W.%To%null%1,                       Cheuk-Kwong%Lee%null%2,                       Kar-Lung%Lee%null%2,                       Wing-Wa%Yan%null%1,                       Kenny%Chan%null%2,                       Wai-Ming%Chan%null%2,                       Chun-Wai%Ngai%null%1,                       Kin-Ip%Law%null%1,                       Fu-Loi%Chow%null%2,                       Raymond%Liu%null%2,                       Kang-Yiu%Lai%null%2,                       Candy C.Y.%Lau%null%1,                       Shao-Haei%Liu%null%2,                       Kwok-Hung%Chan%null%3,                       Che-Kit%Lin%null%2,                       Kwok-Yung%Yuen%null%0]</t>
+  </si>
+  <si>
+    <t>[Arvind%Gharbharan%NULL%1,                       Carlijn C. E.%Jordans%NULL%1,                       Corine%GeurtsvanKessel%NULL%1,                       Jan G.%den Hollander%NULL%2,                       Jan G.%den Hollander%NULL%0,                       Faiz%Karim%NULL%1,                       Femke P. N.%Mollema%NULL%1,                       Janneke E.%Stalenhoef – Schukken%NULL%1,                       Anthonius%Dofferhoff%NULL%2,                       Anthonius%Dofferhoff%NULL%0,                       Inge%Ludwig%NULL%1,                       Adrianus%Koster%NULL%1,                       Robert-Jan%Hassing%NULL%1,                       Jeannet C.%Bos%NULL%1,                       Geert R.%van Pottelberge%NULL%1,                       Imro N.%Vlasveld%NULL%1,                       Heidi S. M.%Ammerlaan%NULL%1,                       Elena M.%van Leeuwen – Segarceanu%NULL%1,                       Jelle%Miedema%NULL%1,                       Menno%van der Eerden%NULL%1,                       Thijs J.%Schrama%NULL%1,                       Grigorios%Papageorgiou%NULL%2,                       Grigorios%Papageorgiou%NULL%0,                       Peter%te Boekhorst%NULL%1,                       Francis H.%Swaneveld%NULL%1,                       Yvonne M.%Mueller%NULL%1,                       Marco W. J.%Schreurs%NULL%2,                       Marco W. J.%Schreurs%NULL%0,                       Jeroen J. A.%van Kampen%NULL%1,                       Barry%Rockx%NULL%1,                       Nisreen M. A.%Okba%NULL%2,                       Nisreen M. A.%Okba%NULL%0,                       Peter D.%Katsikis%NULL%2,                       Peter D.%Katsikis%NULL%0,                       Marion P. G.%Koopmans%NULL%2,                       Marion P. G.%Koopmans%NULL%0,                       Bart L.%Haagmans%NULL%2,                       Bart L.%Haagmans%NULL%0,                       Casper%Rokx%c.rokx@erasmusmc.nl%2,                       Casper%Rokx%c.rokx@erasmusmc.nl%0,                       Bart J. A.%Rijnders%NULL%2,                       Bart J. A.%Rijnders%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gordin%Fred M.%coreGivesNoEmail%1,                     INSIGHT%FLU005 IVIG Pilot Study Group.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alcam\u00ed%Jos\u00e9%coreGivesNoEmail%1,                     Avenda\u00f1o-Sol\u00e1%Cristina%coreGivesNoEmail%1,                     Blanco%Lydia%coreGivesNoEmail%1,                     Bueno%Jose L%coreGivesNoEmail%1,                     Calder\u00f3n-Parra%Jorge%coreGivesNoEmail%1,                     Casas-Flecha%Inmaculada%coreGivesNoEmail%1,                     ConPlas-19%Study Group%coreGivesNoEmail%1,                     de%Oteyza Jaime P\u00e9rez%coreGivesNoEmail%1,                     Duarte%Rafael F%coreGivesNoEmail%1,                     D\u00edaz%de Santiago Alberto%coreGivesNoEmail%1,                     Fern\u00e1ndez-Cruz%Ana%coreGivesNoEmail%1,                     Garcia-Perez%Javier%coreGivesNoEmail%1,                     Jarilla-Fern\u00e1ndez%Maria C%coreGivesNoEmail%1,                     Lora-Tamayo%Jaime%coreGivesNoEmail%1,                     Madrigal-S\u00e1nchez%Maria E%coreGivesNoEmail%1,                     Malo%de Molina Rosa%coreGivesNoEmail%1,                     Manche\u00f1o-Losa%Mikel%coreGivesNoEmail%1,                     Mart\u00ednez-Gonz\u00e1lez%A L%coreGivesNoEmail%1,                     Moreno-Chulilla%J A%coreGivesNoEmail%1,                     Mu\u00f1ez-Rubio%Elena%coreGivesNoEmail%1,                     Mu\u00f1iz-D\u00edaz%Eduardo%coreGivesNoEmail%1,                     Nu\u00f1ez-Orantos%Maria J%coreGivesNoEmail%1,                     Paciello%Maria L%coreGivesNoEmail%1,                     Payares-Herrera%Concepcion%coreGivesNoEmail%1,                     Pa\u00f1o-Pardo%Jos\u00e9 R%coreGivesNoEmail%1,                     Perez-Olmeda%Mayte%coreGivesNoEmail%1,                     Pintos%Ilduara%coreGivesNoEmail%1,                     Porras-Leal%Maria L%coreGivesNoEmail%1,                     Ramos-Garrido%Ascension%coreGivesNoEmail%1,                     Ramos-Mart\u00ednez%Antonio%coreGivesNoEmail%1,                     Romera-Mart\u00ednez%Irene%coreGivesNoEmail%1,                     Rubio-Batll\u00e9s%Martin%coreGivesNoEmail%1,                     Ruiz-Antor\u00e1n%Belen%coreGivesNoEmail%1,                     Saez-Serrano%Maria Isabel%coreGivesNoEmail%1,                     Torres%Ferran%coreGivesNoEmail%1,                     Velasco-Iglesias%Ana%coreGivesNoEmail%1,                     Vid\u00e1n-Est\u00e9vez%Julia%coreGivesNoEmail%1,                     Villares%Paula%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Agarwal%NULL%1,                       Aparna%Mukherjee%NULL%2,                       Gunjan%Kumar%NULL%3,                       Gunjan%Kumar%NULL%0,                       Pranab%Chatterjee%NULL%2,                       Tarun%Bhatnagar%NULL%2,                       Pankaj%Malhotra%NULL%2,                       NULL%NULL%NULL%0,                       NULL%NULL%NULL%0,                       Anup%Agarwal%NULL%1,                       Aparna%Mukherjee%NULL%0,                       Gunjan%Kumar%NULL%0,                       Pranab%Chatterjee%NULL%0,                       Tarun%Bhatnagar%NULL%0,                       Pankaj%Malhotra%NULL%0,                       B%Latha%NULL%1,                       Sunita%Bundas%NULL%1,                       Vivek%Kumar%NULL%2,                       Ravi%Dosi%NULL%1,                       Janak Kumar%Khambholja%NULL%1,                       Rosemarie%de Souza%NULL%1,                       Raja Rao%Mesipogu%NULL%1,                       Saurabh%Srivastava%NULL%1,                       Simmi%Dube%NULL%1,                       Kiran%Chaudhary%NULL%1,                       S%Subash%NULL%1,                       S%Anbuselvi%NULL%1,                       V%Rajendran%NULL%1,                       A%Sundararajaperumal%NULL%1,                       P%Balamanikandan%NULL%1,                       R S Uma%Maheswari%NULL%1,                       R%Jayanthi%NULL%1,                       S%Ragunanthanan%NULL%1,                       Sudhir%Bhandari%NULL%1,                       Ajeet%Singh%NULL%1,                       Ashok%Pal%NULL%1,                       Anjali%Handa%NULL%1,                       Govind%Rankawat%NULL%1,                       Ketan%Kargirwar%NULL%1,                       Joyce%Regi%NULL%1,                       Darshana%Rathod%NULL%1,                       Edwin%Pathrose%NULL%1,                       Nirankar%Bhutaka%NULL%1,                       Mayur H%Patel%NULL%1,                       Rahul J%Verma%NULL%1,                       Kamal%Malukani%NULL%1,                       Shivani%Patel%NULL%1,                       Apurv%Thakur%NULL%1,                       Satish%Joshi%NULL%1,                       Rashmi%Kulkarni%NULL%1,                       Nilay N%Suthar%NULL%1,                       Nehal M%Shah%NULL%1,                       Hemang M%Purohit%NULL%1,                       Cherry K%Shah%NULL%1,                       Monila N%Patel%NULL%1,                       Saket%Shah%NULL%1,                       Smit T%Shah%NULL%1,                       Tehsim%Memon%NULL%1,                       Vishal R%Beriwala%NULL%1,                       Kusum%Jashnani%NULL%1,                       Fatema%Ezzy%NULL%1,                       Simran%Agrawal%NULL%1,                       Rakesh%Bhadade%NULL%1,                       MN%Atish%NULL%1,                       Tushar%Madke%NULL%1,                       Vikas%Kavishwar%NULL%1,                       Ramesh%Waghmare%NULL%1,                       Nitin%Valvi%NULL%1,                       B Thrilok%Chander%NULL%1,                       A Vinaya%Sekhar%NULL%1,                       Akhilesh Kumar%Maurya%NULL%1,                       K%Hemanth%NULL%1,                       K%Nagamani%NULL%1,                       K%Sudha%NULL%1,                       T Ravi%Chandra%NULL%1,                       K Tushara%Rao%NULL%1,                       J%Vyshnavi%NULL%1,                       Rashmi%Upadhyay%NULL%1,                       Shalini%Bahadur%NULL%1,                       Rambha%Pathak%NULL%1,                       Shikha%Seth%NULL%1,                       Rakesh%Gupta%NULL%1,                       Rita%Saxena%NULL%1,                       Preksha%Dwivedi%NULL%1,                       Reeni%Malik%NULL%1,                       Deepti%Chourasia%NULL%1,                       Jaya%Lalwani%NULL%1,                       UM%Sharma%NULL%1,                       JL%Marko%NULL%1,                       Amit%Suri%NULL%1,                       Vijay%Kumar%NULL%1,                       Rajnish%Kaushik%NULL%1,                       Parul%Kodan%NULL%1,                       Bhabani Prasad%Acharya%NULL%1,                       Kuldeep Kumar%Gaur%NULL%1,                       Anubhav%Gupta%NULL%1,                       Prerna%Sachdeva%NULL%1,                       Shruti%Dogra%NULL%1,                       Aikaj%Jindal%NULL%1,                       M Joseph%John%NULL%1,                       Avtar Singh%Dhanju%NULL%1,                       Ranjana%Khetrepal%NULL%1,                       Neeraj%Sharma%NULL%1,                       Neetu%Kukar%NULL%1,                       Divya%Kavita%NULL%1,                       Rajesh%Kumar%NULL%1,                       Rajesh%Mahajan%NULL%1,                       Gurpreet%Singh%NULL%1,                       Jaspreet%Kaur%NULL%1,                       Raminder Pal%Singh%NULL%1,                       Rajni%Bassi%NULL%1,                       Swapneil%Parikh%NULL%1,                       Om%Shrivastav%NULL%1,                       Jayanthi%Shastri%NULL%1,                       Maherra%Desai%NULL%1,                       Shreevatsa%Udupa%NULL%1,                       Varun A%Bafna%NULL%1,                       Vijay%Barge%NULL%1,                       Rajendra%Madane%NULL%1,                       Sheetal%Yadav%NULL%1,                       Sanjeev%Misra%NULL%1,                       Archana%Bajpayee%NULL%1,                       M K%Garg%NULL%1,                       G K%Bohra%NULL%1,                       Vijaylakshmi%Nag%NULL%1,                       Puneeth Babu%Anne%NULL%1,                       Mohd%Nadeem%NULL%1,                       Pallavi%Singh%NULL%1,                       Ram%Niwas%NULL%1,                       Niranjan Shiwaji%Khaire%NULL%1,                       Rattiram%Sharma%NULL%1,                       Mini P%Singh%NULL%1,                       Naresh%Sachdeva%NULL%1,                       Suchet%Sachdev%NULL%1,                       Rekha%Hans%NULL%1,                       Vikas%Suri%NULL%1,                       LN%Yaddanapudi%NULL%1,                       PVM%Lakshmi%NULL%1,                       Neha%Singh%NULL%1,                       Divendu%Bhushan%NULL%1,                       Neeraj%Kumar%NULL%1,                       Muralidhar%Tambe%NULL%1,                       Sonali%Salvi%NULL%1,                       Nalini%Kadgi%NULL%1,                       Shashikala%Sangle%NULL%1,                       Leena%Nakate%NULL%1,                       Samir%Joshi%NULL%1,                       Rajesh%Karyakarte%NULL%1,                       Suraj%Goyanka%NULL%1,                       Nimisha%Sharma%NULL%1,                       Nikhil%Verma%NULL%1,                       Asim%Das%NULL%1,                       Monika%Bahl%NULL%1,                       Nitya%Wadhwa%NULL%1,                       Shreepad%Bhat%NULL%1,                       Shweta%Deshmukh%NULL%1,                       Vrushali%Wagh%NULL%1,                       Atul%Kulkarni%NULL%1,                       Tanvi%Yardi%NULL%1,                       Ram S%Kalgud%NULL%1,                       Purushottam%Reddy%NULL%1,                       Kavitha%Yevoor%NULL%1,                       Prashanth%Gajula%NULL%1,                       Vivek%Maleyur%NULL%1,                       S%Medini%NULL%1,                       HN%Mohith%NULL%1,                       Anil%Gurtoo%NULL%1,                       Ritika%Sud%NULL%1,                       Sangeeta%Pahuja%NULL%1,                       Anupam%Prakash%NULL%1,                       Parijat%Gogoi%NULL%1,                       Shailja%Shukla%NULL%1,                       D Himanshu%Reddy%NULL%1,                       Tulika%Chandra%NULL%1,                       Saurabh%Pandey%NULL%1,                       Pradeep%Maurya%NULL%1,                       Wahid%Ali%NULL%1,                       Vivek%Kumar%NULL%0,                       Kamlesh%Upadhyay%NULL%1,                       Nidhi%Bhatnagar%NULL%1,                       Nilima%Shah%NULL%1,                       Mamta%Shah%NULL%1,                       Tarak%Patel%NULL%1,                       Ram Mohan%Jaiswal%NULL%1,                       Ashish%Jain%NULL%1,                       Shweta%Sharma%NULL%1,                       Puneet%Rijhwani%NULL%1,                       Naveen%Gupta%NULL%1,                       Tinkal C%Patel%NULL%1,                       Mahesh G%Solu%NULL%1,                       Jitendra%Patel%NULL%1,                       Yash R%Shah%NULL%1,                       Mayur%Jarag%NULL%1,                       Varsha%Godbole%NULL%1,                       Meenakshi%Shah%NULL%1,                       Rikin%Raj%NULL%1,                       Irfan%Nagori%NULL%1,                       Pramod R%Jha%NULL%1,                       Arti D%Shah%NULL%1,                       Gowtham%Yeeli%NULL%1,                       Archit%Jain%NULL%1,                       Rooppreet Kaur%Gill%NULL%1,                       KV Sreedhar%Babu%NULL%1,                       B Suresh%Babu%NULL%1,                       Alladi%Mohan%NULL%1,                       B%Vengamma%NULL%1,                       K Chandra%Sekhar%NULL%1,                       Srinivasulu%Damam%NULL%1,                       K%Narsimhulu%NULL%1,                       C%Aparna%NULL%1,                       G%Baleswari%NULL%1,                       K Ravindranath%Reddy%NULL%1,                       P%Chandrasekhar%NULL%1,                       Sunil Jodharam%Panjwani%NULL%1,                       Pragnesh H%Shah%NULL%1,                       Manish%Barvaliya%NULL%1,                       Kairavi%Desai%NULL%1,                       Pankaj J%Akholkar%NULL%1,                       Milind%Baldi%NULL%1,                       Ashok%Yadav%NULL%1,                       Manoj%Gupta%NULL%1,                       Nitin%Rawat%NULL%1,                       Dilip%Chawda%NULL%1,                       M%Natarajan%NULL%1,                       M%Sintha%NULL%1,                       David Pradeep%Kumar%NULL%1,                       Fathhur%Rabbani%NULL%1,                       Vrushali Khirid%Khadke%NULL%1,                       Dattatray%Patki%NULL%1,                       Sonali%Marathe%NULL%1,                       Clyde%D’Souza%NULL%1,                       Vipul%Tadha%NULL%1,                       Satyam%Arora%NULL%1,                       Devendra Kumar%Gupta%NULL%1,                       Seema%Dua%NULL%1,                       Nitu%Chauhan%NULL%1,                       Ajeet Singh%Chahar%NULL%1,                       Joy John%Mammen%NULL%1,                       Snehil%Kumar%NULL%1,                       Dolly%Daniel%NULL%1,                       Ravindraa%Singh%NULL%1,                       Venkatesh%Dhat%NULL%1,                       Yogesh%Agarwal%NULL%1,                       Sohini%Arora%NULL%1,                       Ashish%Pathak%NULL%1,                       Manju%Purohit%NULL%1,                       Ashish%Sharma%NULL%1,                       Jayashree%Sharma%NULL%1,                       Manisha%Madkaikar%NULL%1,                       Kavita%Joshi%NULL%1,                       Reetika Malik%Yadav%NULL%1,                       Swarupa%Bhagwat%NULL%1,                       Niteen D%Karnik%NULL%1,                       Yojana A%Gokhale%NULL%1,                       Leena%Naik%NULL%1,                       Sangita%Margam%NULL%1,                       Santasabuj%Das%NULL%1,                       Alka%Turuk%NULL%1,                       V Saravana%Kumar%NULL%1,                       K%Kanagasabai%NULL%1,                       R%Sabarinathan%NULL%1,                       Gururaj%Deshpande%NULL%1,                       Sharda%Sharma%NULL%1,                       Rashmi%Gunjikar%NULL%1,                       Anita%Shete%NULL%1,                       Darpan%Phagiwala%NULL%1,                       Chetan%Patil%NULL%1,                       Snehal%Shingade%NULL%1,                       Kajal%Jarande%NULL%1,                       Himanshu%Kaushal%NULL%1,                       Pragya%Yadav%NULL%1,                       Gajanan%Sapkal%NULL%1,                       Priya%Abraham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan FN%Hung%NULL%1,                       Kelvin KW%To%NULL%1,                       Cheuk-Kwong%Lee%NULL%0,                       Kar-Lung%Lee%NULL%0,                       Kenny%Chan%NULL%0,                       Wing-Wah%Yan%NULL%1,                       Raymond%Liu%NULL%0,                       Chi-Leung%Watt%NULL%1,                       Wai-Ming%Chan%NULL%0,                       Kang-Yiu%Lai%NULL%0,                       Chi-Kwan%Koo%NULL%1,                       Tom%Buckley%NULL%1,                       Fu-Loi%Chow%NULL%0,                       Kwan-Keung%Wong%NULL%1,                       Hok-Sum%Chan%NULL%1,                       Chi-Keung%Ching%NULL%1,                       Bone SF%Tang%NULL%1,                       Candy CY%Lau%NULL%1,                       Iris WS%Li%NULL%1,                       Shao-Haei%Liu%NULL%0,                       Kwok-Hung%Chan%NULL%0,                       Che-Kit%Lin%NULL%0,                       Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y. O. Y.%Soo%NULL%1,                       Y.%Cheng%NULL%1,                       R.%Wong%NULL%2,                       D. S.%Hui%NULL%1,                       C. K.%Lee%NULL%2,                       K. K. S.%Tsang%NULL%1,                       M. H. L.%Ng%NULL%2,                       P.%Chan%NULL%2,                       G.%Cheng%NULL%2,                       J. J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongjie%Yu%NULL%1,                       Zhancheng%Gao%NULL%0,                       Zijian%Feng%NULL%2,                       Yuelong%Shu%NULL%1,                       Nijuan%Xiang%NULL%2,                       Lei%Zhou%NULL%2,                       Yang%Huai%NULL%1,                       Luzhao%Feng%NULL%0,                       Zhibin%Peng%NULL%1,                       Zhongjie%Li%NULL%1,                       Cuiling%Xu%NULL%1,                       Junhua%Li%NULL%0,                       Chengping%Hu%NULL%1,                       Qun%Li%NULL%1,                       Xiaoling%Xu%NULL%1,                       Xuecheng%Liu%NULL%1,                       Zigui%Liu%NULL%1,                       Longshan%Xu%NULL%1,                       Yusheng%Chen%NULL%1,                       Huiming%Luo%NULL%1,                       Liping%Wei%NULL%1,                       Xianfeng%Zhang%NULL%1,                       Jianbao%Xin%NULL%1,                       Junqiao%Guo%NULL%1,                       Qiuyue%Wang%NULL%1,                       Zhengan%Yuan%NULL%1,                       Longnv%Zhou%NULL%1,                       Kunzhao%Zhang%NULL%1,                       Wei%Zhang%NULL%0,                       Jinye%Yang%NULL%1,                       Xiaoning%Zhong%NULL%1,                       Shichang%Xia%NULL%1,                       Lanjuan%Li%NULL%0,                       Jinquan%Cheng%NULL%1,                       Erdang%Ma%NULL%1,                       Pingping%He%NULL%1,                       Shui Shan%Lee%NULL%1,                       Yu%Wang%NULL%3,                       Timothy M.%Uyeki%NULL%0,                       Weizhong%Yang%NULL%1,                       Joel Mark%Montgomery%NULL%0,                       Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y.%Cheng%NULL%1,                       R.%Wong%NULL%0,                       Y. O. Y.%Soo%NULL%1,                       W. S.%Wong%NULL%1,                       C. K.%Lee%NULL%0,                       M. H. L.%Ng%NULL%0,                       P.%Chan%NULL%0,                       K. C.%Wong%NULL%1,                       C. B.%Leung%NULL%1,                       G.%Cheng%gcheng@cuhk.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Duan%NULL%1,                       Bende%Liu%NULL%2,                       Bende%Liu%NULL%0,                       Cesheng%Li%NULL%1,                       Huajun%Zhang%NULL%1,                       Ting%Yu%NULL%0,                       Ting%Yu%NULL%0,                       Jieming%Qu%NULL%0,                       Min%Zhou%NULL%0,                       Min%Zhou%NULL%0,                       Li%Chen%NULL%3,                       Li%Chen%NULL%0,                       Shengli%Meng%NULL%2,                       Shengli%Meng%NULL%0,                       Yong%Hu%NULL%1,                       Cheng%Peng%NULL%1,                       Mingchao%Yuan%NULL%1,                       Jinyan%Huang%NULL%1,                       Zejun%Wang%NULL%2,                       Zejun%Wang%NULL%0,                       Jianhong%Yu%NULL%1,                       Xiaoxiao%Gao%NULL%1,                       Dan%Wang%NULL%1,                       Xiaoqi%Yu%NULL%1,                       Li%Li%NULL%0,                       Li%Li%NULL%0,                       Jiayou%Zhang%NULL%2,                       Jiayou%Zhang%NULL%0,                       Xiao%Wu%NULL%1,                       Bei%Li%NULL%1,                       Yanping%Xu%NULL%1,                       Wei%Chen%NULL%0,                       Wei%Chen%NULL%0,                       Yan%Peng%NULL%1,                       Yeqin%Hu%NULL%1,                       Lianzhen%Lin%NULL%1,                       Xuefei%Liu%NULL%1,                       Shihe%Huang%NULL%1,                       Zhijun%Zhou%NULL%1,                       Lianghao%Zhang%NULL%1,                       Yue%Wang%NULL%1,                       Zhi%Zhang%NULL%1,                       Kun%Deng%NULL%1,                       Zhiwu%Xia%NULL%1,                       Qin%Gong%NULL%1,                       Wei%Zhang%NULL%0,                       Xiaobei%Zheng%NULL%1,                       Ying%Liu%NULL%0,                       Huichuan%Yang%NULL%1,                       Dongbo%Zhou%NULL%1,                       Ding%Yu%NULL%1,                       Jifeng%Hou%NULL%1,                       Zhengli%Shi%NULL%0,                       Saijuan%Chen%NULL%1,                       Zhu%Chen%NULL%1,                       Xinxin%Zhang%NULL%0,                       Xiaoming%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[F.%Sahr%NULL%1,                       R.%Ansumana%rashidansumana@gmail.com%1,                       T.A.%Massaquoi%NULL%1,                       B.R.%Idriss%NULL%1,                       F.R.%Sesay%NULL%1,                       J.M.%Lamin%NULL%1,                       S.%Baker%NULL%1,                       S.%Nicol%NULL%1,                       B.%Conton%NULL%1,                       W.%Johnson%NULL%1,                       O.T.%Abiri%NULL%1,                       O.%Kargbo%NULL%1,                       P.%Kamara%NULL%1,                       A.%Goba%NULL%1,                       J.B.W.%Russell%NULL%1,                       S.M.%Gevao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qing-Lei%Zeng%zengqinglei2009@163.com%1,                       Zu-Jiang%Yu%NULL%1,                       Jian-Jun%Gou%NULL%1,                       Guang-Ming%Li%NULL%1,                       Shu-Huan%Ma%NULL%1,                       Guo-Fan%Zhang%NULL%1,                       Jiang-Hai%Xu%NULL%1,                       Wan-Bao%Lin%NULL%1,                       Guang-Lin%Cui%NULL%1,                       Min-Min%Zhang%NULL%1,                       Cheng%Li%NULL%1,                       Ze-Shuai%Wang%NULL%1,                       Zhi-Hao%Zhang%NULL%1,                       Zhang-Suo%Liu%zengqinglei2009@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hassan%Abolghasemi%NULL%1,                       Peyman%Eshghi%NULL%1,                       Abdol Majid%Cheraghali%NULL%1,                       Abbas Ali%Imani Fooladi%NULL%1,                       Farzaneh%Bolouki Moghaddam%NULL%1,                       Sina%Imanizadeh%NULL%1,                       Matin%Moeini Maleki%NULL%1,                       Mohammad%Ranjkesh%NULL%1,                       Mohammad%Rezapour%NULL%1,                       Ali%Bahramifar%NULL%1,                       Behzad%Einollahi%NULL%1,                       Mohammad Javad%Hosseini%NULL%1,                       Nematollah Joneidi%Jafari%NULL%1,                       Mohamad%Nikpouraghdam%NULL%1,                       Nariman%Sadri%NULL%1,                       Mokhtar%Tazik%NULL%1,                       Shanaz%Sali%NULL%1,                       Shamsi%Okati%NULL%1,                       Elham%Askari%NULL%1,                       Payam%Tabarsi%NULL%1,                       Jafar%Aslani%NULL%1,                       Ehsan%Sharifipour%NULL%1,                       Mohammad Hossein%Jarahzadeh%NULL%1,                       Nastaran%Khodakarim%NULL%1,                       Mahmood%Salesi%NULL%1,                       Ramezan%Jafari%NULL%1,                       Samira%Shahverdi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[John H%Beigel%jbeigel@niaid.nih.gov%1,                        Pablo%Tebas%NULL%4,                        Marie-Carmelle%Elie-Turenne%NULL%4,                        Ednan%Bajwa%NULL%2,                        Todd E%Bell%NULL%2,                        Charles B%Cairns%NULL%2,                        Shmuel%Shoham%NULL%3,                        Jaime G%Deville%NULL%2,                        Eric%Feucht%NULL%2,                        Judith%Feinberg%NULL%2,                        Thomas%Luke%NULL%1,                        Kanakatte%Raviprakash%NULL%3,                        Janine%Danko%NULL%2,                        Dorothy%O'Neil%NULL%1,                        Julia A%Metcalf%NULL%1,                        Karen%King%NULL%1,                        Timothy H%Burgess%NULL%1,                        Evgenia%Aga%NULL%3,                        H Clifford%Lane%NULL%2,                        Michael D%Hughes%NULL%3,                        Richard T%Davey%NULL%3,                        Pablo%Tebas%NULL%0,                        Joseph%Quinn%NULL%1,                        Yan%Jiang%NULL%1,                        Marie-Carmelle%Elie-Turenne%NULL%0,                        Robyn%Hoelle%NULL%1,                        Nicole%Iovine%NULL%1,                        Robert Shawn%Wills%NULL%1,                        Socorro%Pata%NULL%1,                        Monique%Huggins%NULL%1,                        Belinda%Manukian%NULL%1,                        Ednan%Bajwa%NULL%0,                        Carrie%Holland%NULL%1,                        Kelsey%Brait%NULL%1,                        Taylor%Hunt%NULL%1,                        Christopher%Stowell%NULL%1,                        Amy%Slater%NULL%1,                        Todd E%Bell%NULL%0,                        Mary%Townsends%NULL%1,                        Charles B%Cairns%NULL%0,                        Eugenia B%Quackenbush%NULL%1,                        Yara A%Park%NULL%1,                        Paul Gaither%Jordan%NULL%1,                        Cherie%Blanchet%NULL%1,                        Kevin%Chronowski%NULL%1,                        Kathleen%Alvarez%NULL%1,                        Shmuel%Shoham%NULL%0,                        Darin%Ostrander%NULL%1,                        Terry%Woessner%NULL%1,                        Sandra%Thoman%NULL%1,                        Jaime G%Deville%NULL%0,                        James%Lin%NULL%1,                        Alyssa%Ziman%NULL%1,                        Kavita%Shankar%NULL%1,                        Eric%Feucht%NULL%0,                        Tom%Blok%NULL%1,                        Don%Batts%NULL%1,                        Bob%Beck%NULL%1,                        Gail%Massey%NULL%1,                        Carol%Bradley%NULL%1,                        Judith%Feinberg%NULL%0,                        Patricia%Carey%NULL%1,                        Jenifer%Baer%NULL%1,                        Eva Moore%Whitehead%NULL%1,                        Sharon%Kohrs%NULL%1,                        Robert%Giulitto%NULL%1,                        Christina%Schofield%NULL%2,                        Mary%Fairchok%NULL%1,                        Susan%Chambers%NULL%1,                        Cindy%Baker%NULL%1,                        NULL%RN%NULL%1,                        Michelle%Parker%NULL%1,                        Marta%Harshbarger%NULL%1,                        M Hong%Nguyen%NULL%1,                        Mary Ellen%Carey%NULL%1,                        Julie%Paronish%NULL%1,                        Frank%Cornell%NULL%1,                        Jim%Cramer%NULL%1,                        Diana Lynn%Pakstis%NULL%1,                        Michael G%Ison%NULL%1,                        Richard%Wunderink%NULL%1,                        Marshall%Glesby%NULL%1,                        Kirsis%Ham%NULL%1,                        Valery%Hughes%NULL%1,                        Melissa%Cushing%NULL%0,                        Cheryl%Goss%NULL%1,                        Joanne%Grenade%NULL%1,                        Pauline K%Park%NULL%1,                        Lena M%Napolitano%NULL%1,                        Krishnan%Raghavendran%NULL%1,                        Robert C%Hyzy%NULL%1,                        Robertson%Davenport%NULL%1,                        Kristin%Brierley%NULL%1,                        Theresa%Downs%NULL%1,                        Michelle Ng%Gong%NULL%1,                        Joan%Uehlinger%NULL%1,                        Michael%Lin%NULL%2,                        Janice%Fritsche%NULL%1,                        Tondria%Green%NULL%1,                        Bruce%McLeod%NULL%1,                        Deena%Patel%NULL%1,                        Mary F%Bavaro%NULL%1,                        Robert%Deiss%NULL%1,                        Carolyn%Brandt%NULL%1,                        Stephanie%Cammarata%NULL%1,                        Allan%Kremp%NULL%1,                        Karine%Hollis-Perry%NULL%1,                        Tahaniyat%Lalani%NULL%1,                        Susan%Banks%NULL%1,                        Jacqueline%Johnson%NULL%1,                        Jason%Maguire%NULL%1,                        Janet%McNiff%NULL%1,                        Leslie E%Rigg%NULL%1,                        Anuradha%Ganesan%NULL%1,                        Irma%Barahona%NULL%1,                        Janine%Danko%NULL%0,                        Steven%Spencer%NULL%1,                        David%Stagliano%NULL%1,                        Timothy%Burgess%NULL%1,                        Daniel%Talmor%NULL%1,                        Monique%Mohammed%NULL%1,                        Valerie%Banner-Goodspeed%NULL%1,                        Robert%Salata%NULL%1,                        Robert%Finberg%NULL%2,                        Jennifer%Wang%NULL%1,                        Karen%Longtine%NULL%1,                        Jaclyn%Longtine%NULL%1,                        Mellissa%O'Neil%NULL%1,                        Philippe R%Bauer%NULL%1,                        Ognjen%Gajic%NULL%1,                        Suanne M%Weist%NULL%1,                        Jonathan%Sevransky%NULL%1,                        Mona%Brown%NULL%1,                        John%Roback%NULL%1,                        John%Oropello%NULL%1,                        Bridget%Twohig%NULL%1,                        Jeffrey%Jhang%NULL%1,                        Rahgu%Seethala%NULL%1,                        Wilbur H%Chen%NULL%1,                        Magali%Fontaine%NULL%1,                        Kapil%Saharia%NULL%1,                        Jennifer%Husson%NULL%1,                        Roberta%DeBiasi%NULL%1,                        Jurran L%Wilson%NULL%1,                        Valli Ree%Criss%NULL%1,                        Jocelyn%Voell%NULL%1,                        Susan%Leitman%NULL%1,                        James Wade%Atkins%NULL%1,                        Hemaxi%Patel%NULL%1,                        Traci%Paige%NULL%1,                        Cathy%Cantilena%NULL%1,                        Donald%Siegel%NULL%1,                        Faye%DeMuth%NULL%1,                        Craig H%Fletcher%NULL%1,                        J Peter R%Pelletier%NULL%1,                        Hassan%Alnuaimat%NULL%1,                        Michelle%Pourde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ John H%Beigel%null%1,                         Evgenia%Aga%null%2,                         Marie-Carmelle%Elie-Turenne%null%2,                         Josalyn%Cho%null%2,                         Pablo%Tebas%null%2,                         Carol L%Clark%null%2,                         Jordan P%Metcalf%null%2,                         Caroline%Ozment%null%2,                         Kanakatte%Raviprakash%null%2,                         Joy%Beeler%null%2,                         H Preston%Holley%null%1,                         Stephanie%Warner%null%2,                         Carla%Chorley%null%2,                         H Clifford%Lane%null%1,                         Michael D%Hughes%null%2,                         Richard T%Davey%null%2,                         John H%Beigel%null%1,                         Evgenia%Aga%null%0,                         Marie-Carmelle%Elie-Turenne%null%0,                         Josalyn%Cho%null%0,                         Pablo%Tebas%null%0,                         Carol L%Clark%null%0,                         Jordan P%Metcalf%null%0,                         Caroline%Ozment%null%0,                         Kanakatte%Raviprakash%null%0,                         Joy%Beeler%null%0,                         H. Preston%Holley%null%1,                         Stephanie%Warner%null%0,                         Carla%Chorley%null%0,                         H. Clifford%Lane%null%1,                         Michael D%Hughes%null%0,                         Richard T%Davey%null%0,                         Michelle%Barron%null%1,                         Aveh%Bastani%null%1,                         Philippe%Bauer%null%1,                         William%Borkowsky%null%1,                         Charles%Cairns%null%1,                         Jaime%Deville%null%1,                         Marie-Carmelle%Elie%null%1,                         Carl%Fichtenbaum%null%1,                         Robert%Finberg%null%1,                         Mamta%Jain%null%1,                         David%Kaufman%null%1,                         Michael%Lin%null%1,                         John%Lin%null%1,                         Ryan%Maves%null%1,                         Lee%Morrow%null%1,                         Minh-Hong%Nguyen%null%1,                         Pauline%Park%null%1,                         Christopher%Polk%null%1,                         Adrienne%Randolph%null%1,                         Suchitra%Rao%null%1,                         Lewis%Rubinson%null%1,                         Christina%Schofield%null%1,                         Shmuel%Shoham%null%1,                         Erika%Stalets%null%1,                         Renee D%Stapleton%null%1,                        John H%Beigel%null%2,                        Evgenia%Aga%null%0,                        Marie-Carmelle%Elie-Turenne%null%0,                        Josalyn%Cho%null%2,                        Pablo%Tebas%null%0,                        Carol L%Clark%null%2,                        Jordan P%Metcalf%null%2,                        Caroline%Ozment%null%2,                        Kanakatte%Raviprakash%null%0,                        Joy%Beeler%null%2,                        H Preston%Holley%null%1,                        Stephanie%Warner%null%2,                        Carla%Chorley%null%2,                        H Clifford%Lane%null%0,                        Michael D%Hughes%null%0,                        Richard T%Davey%null%0,                        John H%Beigel%null%0,                        Evgenia%Aga%null%0,                        Marie-Carmelle%Elie-Turenne%null%0,                        Josalyn%Cho%null%0,                        Pablo%Tebas%null%0,                        Carol L%Clark%null%0,                        Jordan P%Metcalf%null%0,                        Caroline%Ozment%null%0,                        Kanakatte%Raviprakash%null%0,                        Joy%Beeler%null%0,                        H. Preston%Holley%null%1,                        Stephanie%Warner%null%0,                        Carla%Chorley%null%0,                        H. Clifford%Lane%null%1,                        Michael D%Hughes%null%0,                        Richard T%Davey%null%0,                        Michelle%Barron%null%1,                        Aveh%Bastani%null%1,                        Philippe%Bauer%null%1,                        William%Borkowsky%null%1,                        Charles%Cairns%null%1,                        Jaime%Deville%null%1,                        Marie-Carmelle%Elie%null%1,                        Carl%Fichtenbaum%null%1,                        Robert%Finberg%null%0,                        Mamta%Jain%null%1,                        David%Kaufman%null%1,                        Michael%Lin%null%0,                        John%Lin%null%1,                        Ryan%Maves%null%1,                        Lee%Morrow%null%1,                        Minh-Hong%Nguyen%null%1,                        Pauline%Park%null%1,                        Christopher%Polk%null%1,                        Adrienne%Randolph%null%1,                        Suchitra%Rao%null%1,                        Lewis%Rubinson%null%1,                        Christina%Schofield%null%0,                        Shmuel%Shoham%null%0,                        Erika%Stalets%null%1,                        Renee D%Stapleton%null%1]</t>
+  </si>
+  <si>
+    <t>[Caiying%Hu%coreGivesNoEmail%1,                      Chenyue%Li%coreGivesNoEmail%1,                      Conghui%Wang%coreGivesNoEmail%1,                      Cuihua%Tao%coreGivesNoEmail%1,                      E.%Deng%coreGivesNoEmail%1,                      Haixia%Xu%coreGivesNoEmail%1,                      Heng%Mei%coreGivesNoEmail%1,                      Jianwei%Wang%coreGivesNoEmail%1,                      Juan%Wang%coreGivesNoEmail%1,                      Jue%Wang%coreGivesNoEmail%1,                      Juntao%Yang%coreGivesNoEmail%1,                      Li%Zeng%coreGivesNoEmail%1,                      Lifeng%Chen%coreGivesNoEmail%1,                      Lili%Ren%coreGivesNoEmail%1,                      Ling%Li%coreGivesNoEmail%1,                      Linqi%Zhang%coreGivesNoEmail%1,                      Nian%Xiong%coreGivesNoEmail%1,                      Ning%Man%coreGivesNoEmail%1,                      Qing%Wei%coreGivesNoEmail%1,                      Ru%Yang%coreGivesNoEmail%1,                      Shangen%Zheng%coreGivesNoEmail%1,                      Shisheng%Su%coreGivesNoEmail%1,                      Wei%Zhang%coreGivesNoEmail%1,                      Xiaoxiong%Wu%coreGivesNoEmail%1,                      Xuejun%Zhang%coreGivesNoEmail%1,                      Xunliang%Tong%coreGivesNoEmail%1,                      Yanyun%Wu%coreGivesNoEmail%1,                      Yong%Guo%coreGivesNoEmail%1,                      Yongpei%Yu%coreGivesNoEmail%1,                      Yu%Hu%coreGivesNoEmail%1,                      Yu%Liu%coreGivesNoEmail%1,                      Yujie%Kong%coreGivesNoEmail%1,                      Zhihua%Xu%coreGivesNoEmail%1,                      Zhong%Liu%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Ivan F.N.%Hung%null%1,                         Kelvin K.W.%To%null%1,                         Cheuk-Kwong%Lee%null%1,                         Kar-Lung%Lee%null%1,                         Wing-Wa%Yan%null%1,                         Kenny%Chan%null%1,                         Wai-Ming%Chan%null%1,                         Chun-Wai%Ngai%null%1,                         Kin-Ip%Law%null%1,                         Fu-Loi%Chow%null%1,                         Raymond%Liu%null%1,                         Kang-Yiu%Lai%null%1,                         Candy C.Y.%Lau%null%1,                         Shao-Haei%Liu%null%1,                         Kwok-Hung%Chan%null%0,                         Che-Kit%Lin%null%1,                         Kwok-Yung%Yuen%null%0,                        Ivan F.N.%Hung%null%1,                        Kelvin K.W.%To%null%1,                        Cheuk-Kwong%Lee%null%2,                        Kar-Lung%Lee%null%2,                        Wing-Wa%Yan%null%1,                        Kenny%Chan%null%2,                        Wai-Ming%Chan%null%2,                        Chun-Wai%Ngai%null%1,                        Kin-Ip%Law%null%1,                        Fu-Loi%Chow%null%2,                        Raymond%Liu%null%2,                        Kang-Yiu%Lai%null%2,                        Candy C.Y.%Lau%null%1,                        Shao-Haei%Liu%null%2,                        Kwok-Hung%Chan%null%3,                        Che-Kit%Lin%null%2,                        Kwok-Yung%Yuen%null%0]</t>
+  </si>
+  <si>
+    <t>[Arvind%Gharbharan%NULL%1,                        Carlijn C. E.%Jordans%NULL%1,                        Corine%GeurtsvanKessel%NULL%1,                        Jan G.%den Hollander%NULL%2,                        Jan G.%den Hollander%NULL%0,                        Faiz%Karim%NULL%1,                        Femke P. N.%Mollema%NULL%1,                        Janneke E.%Stalenhoef – Schukken%NULL%1,                        Anthonius%Dofferhoff%NULL%2,                        Anthonius%Dofferhoff%NULL%0,                        Inge%Ludwig%NULL%1,                        Adrianus%Koster%NULL%1,                        Robert-Jan%Hassing%NULL%1,                        Jeannet C.%Bos%NULL%1,                        Geert R.%van Pottelberge%NULL%1,                        Imro N.%Vlasveld%NULL%1,                        Heidi S. M.%Ammerlaan%NULL%1,                        Elena M.%van Leeuwen – Segarceanu%NULL%1,                        Jelle%Miedema%NULL%1,                        Menno%van der Eerden%NULL%1,                        Thijs J.%Schrama%NULL%1,                        Grigorios%Papageorgiou%NULL%2,                        Grigorios%Papageorgiou%NULL%0,                        Peter%te Boekhorst%NULL%1,                        Francis H.%Swaneveld%NULL%1,                        Yvonne M.%Mueller%NULL%1,                        Marco W. J.%Schreurs%NULL%2,                        Marco W. J.%Schreurs%NULL%0,                        Jeroen J. A.%van Kampen%NULL%1,                        Barry%Rockx%NULL%1,                        Nisreen M. A.%Okba%NULL%2,                        Nisreen M. A.%Okba%NULL%0,                        Peter D.%Katsikis%NULL%2,                        Peter D.%Katsikis%NULL%0,                        Marion P. G.%Koopmans%NULL%2,                        Marion P. G.%Koopmans%NULL%0,                        Bart L.%Haagmans%NULL%2,                        Bart L.%Haagmans%NULL%0,                        Casper%Rokx%c.rokx@erasmusmc.nl%2,                        Casper%Rokx%c.rokx@erasmusmc.nl%0,                        Bart J. A.%Rijnders%NULL%2,                        Bart J. A.%Rijnders%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gordin%Fred M.%coreGivesNoEmail%1,                      INSIGHT%FLU005 IVIG Pilot Study Group.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alcam\u00ed%Jos\u00e9%coreGivesNoEmail%1,                      Avenda\u00f1o-Sol\u00e1%Cristina%coreGivesNoEmail%1,                      Blanco%Lydia%coreGivesNoEmail%1,                      Bueno%Jose L%coreGivesNoEmail%1,                      Calder\u00f3n-Parra%Jorge%coreGivesNoEmail%1,                      Casas-Flecha%Inmaculada%coreGivesNoEmail%1,                      ConPlas-19%Study Group%coreGivesNoEmail%1,                      de%Oteyza Jaime P\u00e9rez%coreGivesNoEmail%1,                      Duarte%Rafael F%coreGivesNoEmail%1,                      D\u00edaz%de Santiago Alberto%coreGivesNoEmail%1,                      Fern\u00e1ndez-Cruz%Ana%coreGivesNoEmail%1,                      Garcia-Perez%Javier%coreGivesNoEmail%1,                      Jarilla-Fern\u00e1ndez%Maria C%coreGivesNoEmail%1,                      Lora-Tamayo%Jaime%coreGivesNoEmail%1,                      Madrigal-S\u00e1nchez%Maria E%coreGivesNoEmail%1,                      Malo%de Molina Rosa%coreGivesNoEmail%1,                      Manche\u00f1o-Losa%Mikel%coreGivesNoEmail%1,                      Mart\u00ednez-Gonz\u00e1lez%A L%coreGivesNoEmail%1,                      Moreno-Chulilla%J A%coreGivesNoEmail%1,                      Mu\u00f1ez-Rubio%Elena%coreGivesNoEmail%1,                      Mu\u00f1iz-D\u00edaz%Eduardo%coreGivesNoEmail%1,                      Nu\u00f1ez-Orantos%Maria J%coreGivesNoEmail%1,                      Paciello%Maria L%coreGivesNoEmail%1,                      Payares-Herrera%Concepcion%coreGivesNoEmail%1,                      Pa\u00f1o-Pardo%Jos\u00e9 R%coreGivesNoEmail%1,                      Perez-Olmeda%Mayte%coreGivesNoEmail%1,                      Pintos%Ilduara%coreGivesNoEmail%1,                      Porras-Leal%Maria L%coreGivesNoEmail%1,                      Ramos-Garrido%Ascension%coreGivesNoEmail%1,                      Ramos-Mart\u00ednez%Antonio%coreGivesNoEmail%1,                      Romera-Mart\u00ednez%Irene%coreGivesNoEmail%1,                      Rubio-Batll\u00e9s%Martin%coreGivesNoEmail%1,                      Ruiz-Antor\u00e1n%Belen%coreGivesNoEmail%1,                      Saez-Serrano%Maria Isabel%coreGivesNoEmail%1,                      Torres%Ferran%coreGivesNoEmail%1,                      Velasco-Iglesias%Ana%coreGivesNoEmail%1,                      Vid\u00e1n-Est\u00e9vez%Julia%coreGivesNoEmail%1,                      Villares%Paula%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Agarwal%NULL%1,                        Aparna%Mukherjee%NULL%2,                        Gunjan%Kumar%NULL%3,                        Gunjan%Kumar%NULL%0,                        Pranab%Chatterjee%NULL%2,                        Tarun%Bhatnagar%NULL%2,                        Pankaj%Malhotra%NULL%2,                        NULL%NULL%NULL%0,                        NULL%NULL%NULL%0,                        Anup%Agarwal%NULL%1,                        Aparna%Mukherjee%NULL%0,                        Gunjan%Kumar%NULL%0,                        Pranab%Chatterjee%NULL%0,                        Tarun%Bhatnagar%NULL%0,                        Pankaj%Malhotra%NULL%0,                        B%Latha%NULL%1,                        Sunita%Bundas%NULL%1,                        Vivek%Kumar%NULL%2,                        Ravi%Dosi%NULL%1,                        Janak Kumar%Khambholja%NULL%1,                        Rosemarie%de Souza%NULL%1,                        Raja Rao%Mesipogu%NULL%1,                        Saurabh%Srivastava%NULL%1,                        Simmi%Dube%NULL%1,                        Kiran%Chaudhary%NULL%1,                        S%Subash%NULL%1,                        S%Anbuselvi%NULL%1,                        V%Rajendran%NULL%1,                        A%Sundararajaperumal%NULL%1,                        P%Balamanikandan%NULL%1,                        R S Uma%Maheswari%NULL%1,                        R%Jayanthi%NULL%1,                        S%Ragunanthanan%NULL%1,                        Sudhir%Bhandari%NULL%1,                        Ajeet%Singh%NULL%1,                        Ashok%Pal%NULL%1,                        Anjali%Handa%NULL%1,                        Govind%Rankawat%NULL%1,                        Ketan%Kargirwar%NULL%1,                        Joyce%Regi%NULL%1,                        Darshana%Rathod%NULL%1,                        Edwin%Pathrose%NULL%1,                        Nirankar%Bhutaka%NULL%1,                        Mayur H%Patel%NULL%1,                        Rahul J%Verma%NULL%1,                        Kamal%Malukani%NULL%1,                        Shivani%Patel%NULL%1,                        Apurv%Thakur%NULL%1,                        Satish%Joshi%NULL%1,                        Rashmi%Kulkarni%NULL%1,                        Nilay N%Suthar%NULL%1,                        Nehal M%Shah%NULL%1,                        Hemang M%Purohit%NULL%1,                        Cherry K%Shah%NULL%1,                        Monila N%Patel%NULL%1,                        Saket%Shah%NULL%1,                        Smit T%Shah%NULL%1,                        Tehsim%Memon%NULL%1,                        Vishal R%Beriwala%NULL%1,                        Kusum%Jashnani%NULL%1,                        Fatema%Ezzy%NULL%1,                        Simran%Agrawal%NULL%1,                        Rakesh%Bhadade%NULL%1,                        MN%Atish%NULL%1,                        Tushar%Madke%NULL%1,                        Vikas%Kavishwar%NULL%1,                        Ramesh%Waghmare%NULL%1,                        Nitin%Valvi%NULL%1,                        B Thrilok%Chander%NULL%1,                        A Vinaya%Sekhar%NULL%1,                        Akhilesh Kumar%Maurya%NULL%1,                        K%Hemanth%NULL%1,                        K%Nagamani%NULL%1,                        K%Sudha%NULL%1,                        T Ravi%Chandra%NULL%1,                        K Tushara%Rao%NULL%1,                        J%Vyshnavi%NULL%1,                        Rashmi%Upadhyay%NULL%1,                        Shalini%Bahadur%NULL%1,                        Rambha%Pathak%NULL%1,                        Shikha%Seth%NULL%1,                        Rakesh%Gupta%NULL%1,                        Rita%Saxena%NULL%1,                        Preksha%Dwivedi%NULL%1,                        Reeni%Malik%NULL%1,                        Deepti%Chourasia%NULL%1,                        Jaya%Lalwani%NULL%1,                        UM%Sharma%NULL%1,                        JL%Marko%NULL%1,                        Amit%Suri%NULL%1,                        Vijay%Kumar%NULL%1,                        Rajnish%Kaushik%NULL%1,                        Parul%Kodan%NULL%1,                        Bhabani Prasad%Acharya%NULL%1,                        Kuldeep Kumar%Gaur%NULL%1,                        Anubhav%Gupta%NULL%1,                        Prerna%Sachdeva%NULL%1,                        Shruti%Dogra%NULL%1,                        Aikaj%Jindal%NULL%1,                        M Joseph%John%NULL%1,                        Avtar Singh%Dhanju%NULL%1,                        Ranjana%Khetrepal%NULL%1,                        Neeraj%Sharma%NULL%1,                        Neetu%Kukar%NULL%1,                        Divya%Kavita%NULL%1,                        Rajesh%Kumar%NULL%1,                        Rajesh%Mahajan%NULL%1,                        Gurpreet%Singh%NULL%1,                        Jaspreet%Kaur%NULL%1,                        Raminder Pal%Singh%NULL%1,                        Rajni%Bassi%NULL%1,                        Swapneil%Parikh%NULL%1,                        Om%Shrivastav%NULL%1,                        Jayanthi%Shastri%NULL%1,                        Maherra%Desai%NULL%1,                        Shreevatsa%Udupa%NULL%1,                        Varun A%Bafna%NULL%1,                        Vijay%Barge%NULL%1,                        Rajendra%Madane%NULL%1,                        Sheetal%Yadav%NULL%1,                        Sanjeev%Misra%NULL%1,                        Archana%Bajpayee%NULL%1,                        M K%Garg%NULL%1,                        G K%Bohra%NULL%1,                        Vijaylakshmi%Nag%NULL%1,                        Puneeth Babu%Anne%NULL%1,                        Mohd%Nadeem%NULL%1,                        Pallavi%Singh%NULL%1,                        Ram%Niwas%NULL%1,                        Niranjan Shiwaji%Khaire%NULL%1,                        Rattiram%Sharma%NULL%1,                        Mini P%Singh%NULL%1,                        Naresh%Sachdeva%NULL%1,                        Suchet%Sachdev%NULL%1,                        Rekha%Hans%NULL%1,                        Vikas%Suri%NULL%1,                        LN%Yaddanapudi%NULL%1,                        PVM%Lakshmi%NULL%1,                        Neha%Singh%NULL%1,                        Divendu%Bhushan%NULL%1,                        Neeraj%Kumar%NULL%1,                        Muralidhar%Tambe%NULL%1,                        Sonali%Salvi%NULL%1,                        Nalini%Kadgi%NULL%1,                        Shashikala%Sangle%NULL%1,                        Leena%Nakate%NULL%1,                        Samir%Joshi%NULL%1,                        Rajesh%Karyakarte%NULL%1,                        Suraj%Goyanka%NULL%1,                        Nimisha%Sharma%NULL%1,                        Nikhil%Verma%NULL%1,                        Asim%Das%NULL%1,                        Monika%Bahl%NULL%1,                        Nitya%Wadhwa%NULL%1,                        Shreepad%Bhat%NULL%1,                        Shweta%Deshmukh%NULL%1,                        Vrushali%Wagh%NULL%1,                        Atul%Kulkarni%NULL%1,                        Tanvi%Yardi%NULL%1,                        Ram S%Kalgud%NULL%1,                        Purushottam%Reddy%NULL%1,                        Kavitha%Yevoor%NULL%1,                        Prashanth%Gajula%NULL%1,                        Vivek%Maleyur%NULL%1,                        S%Medini%NULL%1,                        HN%Mohith%NULL%1,                        Anil%Gurtoo%NULL%1,                        Ritika%Sud%NULL%1,                        Sangeeta%Pahuja%NULL%1,                        Anupam%Prakash%NULL%1,                        Parijat%Gogoi%NULL%1,                        Shailja%Shukla%NULL%1,                        D Himanshu%Reddy%NULL%1,                        Tulika%Chandra%NULL%1,                        Saurabh%Pandey%NULL%1,                        Pradeep%Maurya%NULL%1,                        Wahid%Ali%NULL%1,                        Vivek%Kumar%NULL%0,                        Kamlesh%Upadhyay%NULL%1,                        Nidhi%Bhatnagar%NULL%1,                        Nilima%Shah%NULL%1,                        Mamta%Shah%NULL%1,                        Tarak%Patel%NULL%1,                        Ram Mohan%Jaiswal%NULL%1,                        Ashish%Jain%NULL%1,                        Shweta%Sharma%NULL%1,                        Puneet%Rijhwani%NULL%1,                        Naveen%Gupta%NULL%1,                        Tinkal C%Patel%NULL%1,                        Mahesh G%Solu%NULL%1,                        Jitendra%Patel%NULL%1,                        Yash R%Shah%NULL%1,                        Mayur%Jarag%NULL%1,                        Varsha%Godbole%NULL%1,                        Meenakshi%Shah%NULL%1,                        Rikin%Raj%NULL%1,                        Irfan%Nagori%NULL%1,                        Pramod R%Jha%NULL%1,                        Arti D%Shah%NULL%1,                        Gowtham%Yeeli%NULL%1,                        Archit%Jain%NULL%1,                        Rooppreet Kaur%Gill%NULL%1,                        KV Sreedhar%Babu%NULL%1,                        B Suresh%Babu%NULL%1,                        Alladi%Mohan%NULL%1,                        B%Vengamma%NULL%1,                        K Chandra%Sekhar%NULL%1,                        Srinivasulu%Damam%NULL%1,                        K%Narsimhulu%NULL%1,                        C%Aparna%NULL%1,                        G%Baleswari%NULL%1,                        K Ravindranath%Reddy%NULL%1,                        P%Chandrasekhar%NULL%1,                        Sunil Jodharam%Panjwani%NULL%1,                        Pragnesh H%Shah%NULL%1,                        Manish%Barvaliya%NULL%1,                        Kairavi%Desai%NULL%1,                        Pankaj J%Akholkar%NULL%1,                        Milind%Baldi%NULL%1,                        Ashok%Yadav%NULL%1,                        Manoj%Gupta%NULL%1,                        Nitin%Rawat%NULL%1,                        Dilip%Chawda%NULL%1,                        M%Natarajan%NULL%1,                        M%Sintha%NULL%1,                        David Pradeep%Kumar%NULL%1,                        Fathhur%Rabbani%NULL%1,                        Vrushali Khirid%Khadke%NULL%1,                        Dattatray%Patki%NULL%1,                        Sonali%Marathe%NULL%1,                        Clyde%D’Souza%NULL%1,                        Vipul%Tadha%NULL%1,                        Satyam%Arora%NULL%1,                        Devendra Kumar%Gupta%NULL%1,                        Seema%Dua%NULL%1,                        Nitu%Chauhan%NULL%1,                        Ajeet Singh%Chahar%NULL%1,                        Joy John%Mammen%NULL%1,                        Snehil%Kumar%NULL%1,                        Dolly%Daniel%NULL%1,                        Ravindraa%Singh%NULL%1,                        Venkatesh%Dhat%NULL%1,                        Yogesh%Agarwal%NULL%1,                        Sohini%Arora%NULL%1,                        Ashish%Pathak%NULL%1,                        Manju%Purohit%NULL%1,                        Ashish%Sharma%NULL%1,                        Jayashree%Sharma%NULL%1,                        Manisha%Madkaikar%NULL%1,                        Kavita%Joshi%NULL%1,                        Reetika Malik%Yadav%NULL%1,                        Swarupa%Bhagwat%NULL%1,                        Niteen D%Karnik%NULL%1,                        Yojana A%Gokhale%NULL%1,                        Leena%Naik%NULL%1,                        Sangita%Margam%NULL%1,                        Santasabuj%Das%NULL%1,                        Alka%Turuk%NULL%1,                        V Saravana%Kumar%NULL%1,                        K%Kanagasabai%NULL%1,                        R%Sabarinathan%NULL%1,                        Gururaj%Deshpande%NULL%1,                        Sharda%Sharma%NULL%1,                        Rashmi%Gunjikar%NULL%1,                        Anita%Shete%NULL%1,                        Darpan%Phagiwala%NULL%1,                        Chetan%Patil%NULL%1,                        Snehal%Shingade%NULL%1,                        Kajal%Jarande%NULL%1,                        Himanshu%Kaushal%NULL%1,                        Pragya%Yadav%NULL%1,                        Gajanan%Sapkal%NULL%1,                        Priya%Abraham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan FN%Hung%NULL%1,                        Kelvin KW%To%NULL%1,                        Cheuk-Kwong%Lee%NULL%0,                        Kar-Lung%Lee%NULL%0,                        Kenny%Chan%NULL%0,                        Wing-Wah%Yan%NULL%1,                        Raymond%Liu%NULL%0,                        Chi-Leung%Watt%NULL%1,                        Wai-Ming%Chan%NULL%0,                        Kang-Yiu%Lai%NULL%0,                        Chi-Kwan%Koo%NULL%1,                        Tom%Buckley%NULL%1,                        Fu-Loi%Chow%NULL%0,                        Kwan-Keung%Wong%NULL%1,                        Hok-Sum%Chan%NULL%1,                        Chi-Keung%Ching%NULL%1,                        Bone SF%Tang%NULL%1,                        Candy CY%Lau%NULL%1,                        Iris WS%Li%NULL%1,                        Shao-Haei%Liu%NULL%0,                        Kwok-Hung%Chan%NULL%0,                        Che-Kit%Lin%NULL%0,                        Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y. O. Y.%Soo%NULL%1,                        Y.%Cheng%NULL%1,                        R.%Wong%NULL%2,                        D. S.%Hui%NULL%1,                        C. K.%Lee%NULL%2,                        K. K. S.%Tsang%NULL%1,                        M. H. L.%Ng%NULL%2,                        P.%Chan%NULL%2,                        G.%Cheng%NULL%2,                        J. J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongjie%Yu%NULL%1,                        Zhancheng%Gao%NULL%0,                        Zijian%Feng%NULL%2,                        Yuelong%Shu%NULL%1,                        Nijuan%Xiang%NULL%2,                        Lei%Zhou%NULL%2,                        Yang%Huai%NULL%1,                        Luzhao%Feng%NULL%0,                        Zhibin%Peng%NULL%1,                        Zhongjie%Li%NULL%1,                        Cuiling%Xu%NULL%1,                        Junhua%Li%NULL%0,                        Chengping%Hu%NULL%1,                        Qun%Li%NULL%1,                        Xiaoling%Xu%NULL%1,                        Xuecheng%Liu%NULL%1,                        Zigui%Liu%NULL%1,                        Longshan%Xu%NULL%1,                        Yusheng%Chen%NULL%1,                        Huiming%Luo%NULL%1,                        Liping%Wei%NULL%1,                        Xianfeng%Zhang%NULL%1,                        Jianbao%Xin%NULL%1,                        Junqiao%Guo%NULL%1,                        Qiuyue%Wang%NULL%1,                        Zhengan%Yuan%NULL%1,                        Longnv%Zhou%NULL%1,                        Kunzhao%Zhang%NULL%1,                        Wei%Zhang%NULL%0,                        Jinye%Yang%NULL%1,                        Xiaoning%Zhong%NULL%1,                        Shichang%Xia%NULL%1,                        Lanjuan%Li%NULL%0,                        Jinquan%Cheng%NULL%1,                        Erdang%Ma%NULL%1,                        Pingping%He%NULL%1,                        Shui Shan%Lee%NULL%1,                        Yu%Wang%NULL%3,                        Timothy M.%Uyeki%NULL%0,                        Weizhong%Yang%NULL%1,                        Joel Mark%Montgomery%NULL%0,                        Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y.%Cheng%NULL%1,                        R.%Wong%NULL%0,                        Y. O. Y.%Soo%NULL%1,                        W. S.%Wong%NULL%1,                        C. K.%Lee%NULL%0,                        M. H. L.%Ng%NULL%0,                        P.%Chan%NULL%0,                        K. C.%Wong%NULL%1,                        C. B.%Leung%NULL%1,                        G.%Cheng%gcheng@cuhk.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Duan%NULL%1,                        Bende%Liu%NULL%2,                        Bende%Liu%NULL%0,                        Cesheng%Li%NULL%1,                        Huajun%Zhang%NULL%1,                        Ting%Yu%NULL%0,                        Ting%Yu%NULL%0,                        Jieming%Qu%NULL%0,                        Min%Zhou%NULL%0,                        Min%Zhou%NULL%0,                        Li%Chen%NULL%3,                        Li%Chen%NULL%0,                        Shengli%Meng%NULL%2,                        Shengli%Meng%NULL%0,                        Yong%Hu%NULL%1,                        Cheng%Peng%NULL%1,                        Mingchao%Yuan%NULL%1,                        Jinyan%Huang%NULL%1,                        Zejun%Wang%NULL%2,                        Zejun%Wang%NULL%0,                        Jianhong%Yu%NULL%1,                        Xiaoxiao%Gao%NULL%1,                        Dan%Wang%NULL%1,                        Xiaoqi%Yu%NULL%1,                        Li%Li%NULL%0,                        Li%Li%NULL%0,                        Jiayou%Zhang%NULL%2,                        Jiayou%Zhang%NULL%0,                        Xiao%Wu%NULL%1,                        Bei%Li%NULL%1,                        Yanping%Xu%NULL%1,                        Wei%Chen%NULL%0,                        Wei%Chen%NULL%0,                        Yan%Peng%NULL%1,                        Yeqin%Hu%NULL%1,                        Lianzhen%Lin%NULL%1,                        Xuefei%Liu%NULL%1,                        Shihe%Huang%NULL%1,                        Zhijun%Zhou%NULL%1,                        Lianghao%Zhang%NULL%1,                        Yue%Wang%NULL%1,                        Zhi%Zhang%NULL%1,                        Kun%Deng%NULL%1,                        Zhiwu%Xia%NULL%1,                        Qin%Gong%NULL%1,                        Wei%Zhang%NULL%0,                        Xiaobei%Zheng%NULL%1,                        Ying%Liu%NULL%0,                        Huichuan%Yang%NULL%1,                        Dongbo%Zhou%NULL%1,                        Ding%Yu%NULL%1,                        Jifeng%Hou%NULL%1,                        Zhengli%Shi%NULL%0,                        Saijuan%Chen%NULL%1,                        Zhu%Chen%NULL%1,                        Xinxin%Zhang%NULL%0,                        Xiaoming%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[F.%Sahr%NULL%1,                        R.%Ansumana%rashidansumana@gmail.com%1,                        T.A.%Massaquoi%NULL%1,                        B.R.%Idriss%NULL%1,                        F.R.%Sesay%NULL%1,                        J.M.%Lamin%NULL%1,                        S.%Baker%NULL%1,                        S.%Nicol%NULL%1,                        B.%Conton%NULL%1,                        W.%Johnson%NULL%1,                        O.T.%Abiri%NULL%1,                        O.%Kargbo%NULL%1,                        P.%Kamara%NULL%1,                        A.%Goba%NULL%1,                        J.B.W.%Russell%NULL%1,                        S.M.%Gevao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qing-Lei%Zeng%zengqinglei2009@163.com%1,                        Zu-Jiang%Yu%NULL%1,                        Jian-Jun%Gou%NULL%1,                        Guang-Ming%Li%NULL%1,                        Shu-Huan%Ma%NULL%1,                        Guo-Fan%Zhang%NULL%1,                        Jiang-Hai%Xu%NULL%1,                        Wan-Bao%Lin%NULL%1,                        Guang-Lin%Cui%NULL%1,                        Min-Min%Zhang%NULL%1,                        Cheng%Li%NULL%1,                        Ze-Shuai%Wang%NULL%1,                        Zhi-Hao%Zhang%NULL%1,                        Zhang-Suo%Liu%zengqinglei2009@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hassan%Abolghasemi%NULL%1,                        Peyman%Eshghi%NULL%1,                        Abdol Majid%Cheraghali%NULL%1,                        Abbas Ali%Imani Fooladi%NULL%1,                        Farzaneh%Bolouki Moghaddam%NULL%1,                        Sina%Imanizadeh%NULL%1,                        Matin%Moeini Maleki%NULL%1,                        Mohammad%Ranjkesh%NULL%1,                        Mohammad%Rezapour%NULL%1,                        Ali%Bahramifar%NULL%1,                        Behzad%Einollahi%NULL%1,                        Mohammad Javad%Hosseini%NULL%1,                        Nematollah Joneidi%Jafari%NULL%1,                        Mohamad%Nikpouraghdam%NULL%1,                        Nariman%Sadri%NULL%1,                        Mokhtar%Tazik%NULL%1,                        Shanaz%Sali%NULL%1,                        Shamsi%Okati%NULL%1,                        Elham%Askari%NULL%1,                        Payam%Tabarsi%NULL%1,                        Jafar%Aslani%NULL%1,                        Ehsan%Sharifipour%NULL%1,                        Mohammad Hossein%Jarahzadeh%NULL%1,                        Nastaran%Khodakarim%NULL%1,                        Mahmood%Salesi%NULL%1,                        Ramezan%Jafari%NULL%1,                        Samira%Shahverdi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1949,6 +2219,9 @@
       <c r="I1" t="s">
         <v>101</v>
       </c>
+      <c r="J1" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1964,7 +2237,7 @@
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>452</v>
+        <v>546</v>
       </c>
       <c r="F2" t="s">
         <v>41</v>
@@ -1977,6 +2250,9 @@
       </c>
       <c r="I2" t="s">
         <v>429</v>
+      </c>
+      <c r="J2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="3">
@@ -1993,7 +2269,7 @@
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>453</v>
+        <v>547</v>
       </c>
       <c r="F3" t="s">
         <v>47</v>
@@ -2006,6 +2282,9 @@
       </c>
       <c r="I3" t="s">
         <v>431</v>
+      </c>
+      <c r="J3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="4">
@@ -2022,7 +2301,7 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>454</v>
+        <v>548</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -2035,6 +2314,9 @@
       </c>
       <c r="I4" t="s">
         <v>431</v>
+      </c>
+      <c r="J4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="5">
@@ -2051,7 +2333,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>455</v>
+        <v>549</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -2064,6 +2346,9 @@
       </c>
       <c r="I5" t="s">
         <v>431</v>
+      </c>
+      <c r="J5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6">
@@ -2080,7 +2365,7 @@
         <v>291</v>
       </c>
       <c r="E6" t="s">
-        <v>456</v>
+        <v>550</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -2093,6 +2378,9 @@
       </c>
       <c r="I6" t="s">
         <v>435</v>
+      </c>
+      <c r="J6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7">
@@ -2109,7 +2397,7 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>457</v>
+        <v>551</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -2122,6 +2410,9 @@
       </c>
       <c r="I7" t="s">
         <v>431</v>
+      </c>
+      <c r="J7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="8">
@@ -2138,7 +2429,7 @@
         <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>458</v>
+        <v>552</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -2151,6 +2442,9 @@
       </c>
       <c r="I8" t="s">
         <v>431</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="9">
@@ -2167,7 +2461,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>459</v>
+        <v>553</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -2180,6 +2474,9 @@
       </c>
       <c r="I9" t="s">
         <v>439</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -2196,7 +2493,7 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>460</v>
+        <v>554</v>
       </c>
       <c r="F10" t="s">
         <v>68</v>
@@ -2209,6 +2506,9 @@
       </c>
       <c r="I10" t="s">
         <v>439</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -2225,7 +2525,7 @@
         <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>461</v>
+        <v>555</v>
       </c>
       <c r="F11" t="s">
         <v>73</v>
@@ -2238,6 +2538,9 @@
       </c>
       <c r="I11" t="s">
         <v>429</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="12">
@@ -2254,7 +2557,7 @@
         <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>462</v>
+        <v>298</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -2266,7 +2569,10 @@
         <v>204</v>
       </c>
       <c r="I12" t="s">
-        <v>431</v>
+        <v>105</v>
+      </c>
+      <c r="J12" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="13">
@@ -2297,6 +2603,9 @@
       <c r="I13" t="s">
         <v>431</v>
       </c>
+      <c r="J13" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
@@ -2312,7 +2621,7 @@
         <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>463</v>
+        <v>556</v>
       </c>
       <c r="F14" t="s">
         <v>77</v>
@@ -2325,6 +2634,9 @@
       </c>
       <c r="I14" t="s">
         <v>439</v>
+      </c>
+      <c r="J14" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="15">
@@ -2353,7 +2665,10 @@
         <v>208</v>
       </c>
       <c r="I15" t="s">
-        <v>431</v>
+        <v>105</v>
+      </c>
+      <c r="J15" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="16">
@@ -2382,7 +2697,10 @@
         <v>211</v>
       </c>
       <c r="I16" t="s">
-        <v>431</v>
+        <v>105</v>
+      </c>
+      <c r="J16" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="17">
@@ -2399,7 +2717,7 @@
         <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>464</v>
+        <v>300</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -2411,7 +2729,10 @@
         <v>211</v>
       </c>
       <c r="I17" t="s">
-        <v>431</v>
+        <v>105</v>
+      </c>
+      <c r="J17" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="18">
@@ -2440,7 +2761,10 @@
         <v>216</v>
       </c>
       <c r="I18" t="s">
-        <v>431</v>
+        <v>105</v>
+      </c>
+      <c r="J18" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="19">
@@ -2457,7 +2781,7 @@
         <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>465</v>
+        <v>301</v>
       </c>
       <c r="F19" t="s">
         <v>20</v>
@@ -2469,7 +2793,10 @@
         <v>208</v>
       </c>
       <c r="I19" t="s">
-        <v>431</v>
+        <v>105</v>
+      </c>
+      <c r="J19" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="20">
@@ -2486,7 +2813,7 @@
         <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>466</v>
+        <v>557</v>
       </c>
       <c r="F20" t="s">
         <v>82</v>
@@ -2499,6 +2826,9 @@
       </c>
       <c r="I20" t="s">
         <v>435</v>
+      </c>
+      <c r="J20" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="21">
@@ -2515,7 +2845,7 @@
         <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>467</v>
+        <v>303</v>
       </c>
       <c r="F21" t="s">
         <v>22</v>
@@ -2527,7 +2857,10 @@
         <v>222</v>
       </c>
       <c r="I21" t="s">
-        <v>431</v>
+        <v>105</v>
+      </c>
+      <c r="J21" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="22">
@@ -2544,7 +2877,7 @@
         <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>468</v>
+        <v>558</v>
       </c>
       <c r="F22" t="s">
         <v>86</v>
@@ -2557,6 +2890,9 @@
       </c>
       <c r="I22" t="s">
         <v>439</v>
+      </c>
+      <c r="J22" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="23">
@@ -2573,7 +2909,7 @@
         <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>469</v>
+        <v>559</v>
       </c>
       <c r="F23" t="s">
         <v>90</v>
@@ -2586,6 +2922,9 @@
       </c>
       <c r="I23" t="s">
         <v>429</v>
+      </c>
+      <c r="J23" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="24">
@@ -2602,7 +2941,7 @@
         <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>470</v>
+        <v>560</v>
       </c>
       <c r="F24" t="s">
         <v>95</v>
@@ -2615,6 +2954,9 @@
       </c>
       <c r="I24" t="s">
         <v>439</v>
+      </c>
+      <c r="J24" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="25">
@@ -2631,7 +2973,7 @@
         <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>471</v>
+        <v>561</v>
       </c>
       <c r="F25" t="s">
         <v>99</v>
@@ -2644,6 +2986,9 @@
       </c>
       <c r="I25" t="s">
         <v>429</v>
+      </c>
+      <c r="J25" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/26.xlsx
+++ b/Covid_19_Dataset_and_References/References/26.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4527" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4927" uniqueCount="594">
   <si>
     <t xml:space="preserve">Doi </t>
   </si>
@@ -1857,6 +1857,102 @@
   </si>
   <si>
     <t>[Hassan%Abolghasemi%NULL%1,                        Peyman%Eshghi%NULL%1,                        Abdol Majid%Cheraghali%NULL%1,                        Abbas Ali%Imani Fooladi%NULL%1,                        Farzaneh%Bolouki Moghaddam%NULL%1,                        Sina%Imanizadeh%NULL%1,                        Matin%Moeini Maleki%NULL%1,                        Mohammad%Ranjkesh%NULL%1,                        Mohammad%Rezapour%NULL%1,                        Ali%Bahramifar%NULL%1,                        Behzad%Einollahi%NULL%1,                        Mohammad Javad%Hosseini%NULL%1,                        Nematollah Joneidi%Jafari%NULL%1,                        Mohamad%Nikpouraghdam%NULL%1,                        Nariman%Sadri%NULL%1,                        Mokhtar%Tazik%NULL%1,                        Shanaz%Sali%NULL%1,                        Shamsi%Okati%NULL%1,                        Elham%Askari%NULL%1,                        Payam%Tabarsi%NULL%1,                        Jafar%Aslani%NULL%1,                        Ehsan%Sharifipour%NULL%1,                        Mohammad Hossein%Jarahzadeh%NULL%1,                        Nastaran%Khodakarim%NULL%1,                        Mahmood%Salesi%NULL%1,                        Ramezan%Jafari%NULL%1,                        Samira%Shahverdi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[John H%Beigel%jbeigel@niaid.nih.gov%1,                         Pablo%Tebas%NULL%4,                         Marie-Carmelle%Elie-Turenne%NULL%4,                         Ednan%Bajwa%NULL%2,                         Todd E%Bell%NULL%2,                         Charles B%Cairns%NULL%2,                         Shmuel%Shoham%NULL%3,                         Jaime G%Deville%NULL%2,                         Eric%Feucht%NULL%2,                         Judith%Feinberg%NULL%2,                         Thomas%Luke%NULL%1,                         Kanakatte%Raviprakash%NULL%3,                         Janine%Danko%NULL%2,                         Dorothy%O'Neil%NULL%1,                         Julia A%Metcalf%NULL%1,                         Karen%King%NULL%1,                         Timothy H%Burgess%NULL%1,                         Evgenia%Aga%NULL%3,                         H Clifford%Lane%NULL%2,                         Michael D%Hughes%NULL%3,                         Richard T%Davey%NULL%3,                         Pablo%Tebas%NULL%0,                         Joseph%Quinn%NULL%1,                         Yan%Jiang%NULL%1,                         Marie-Carmelle%Elie-Turenne%NULL%0,                         Robyn%Hoelle%NULL%1,                         Nicole%Iovine%NULL%1,                         Robert Shawn%Wills%NULL%1,                         Socorro%Pata%NULL%1,                         Monique%Huggins%NULL%1,                         Belinda%Manukian%NULL%1,                         Ednan%Bajwa%NULL%0,                         Carrie%Holland%NULL%1,                         Kelsey%Brait%NULL%1,                         Taylor%Hunt%NULL%1,                         Christopher%Stowell%NULL%1,                         Amy%Slater%NULL%1,                         Todd E%Bell%NULL%0,                         Mary%Townsends%NULL%1,                         Charles B%Cairns%NULL%0,                         Eugenia B%Quackenbush%NULL%1,                         Yara A%Park%NULL%1,                         Paul Gaither%Jordan%NULL%1,                         Cherie%Blanchet%NULL%1,                         Kevin%Chronowski%NULL%1,                         Kathleen%Alvarez%NULL%1,                         Shmuel%Shoham%NULL%0,                         Darin%Ostrander%NULL%1,                         Terry%Woessner%NULL%1,                         Sandra%Thoman%NULL%1,                         Jaime G%Deville%NULL%0,                         James%Lin%NULL%1,                         Alyssa%Ziman%NULL%1,                         Kavita%Shankar%NULL%1,                         Eric%Feucht%NULL%0,                         Tom%Blok%NULL%1,                         Don%Batts%NULL%1,                         Bob%Beck%NULL%1,                         Gail%Massey%NULL%1,                         Carol%Bradley%NULL%1,                         Judith%Feinberg%NULL%0,                         Patricia%Carey%NULL%1,                         Jenifer%Baer%NULL%1,                         Eva Moore%Whitehead%NULL%1,                         Sharon%Kohrs%NULL%1,                         Robert%Giulitto%NULL%1,                         Christina%Schofield%NULL%2,                         Mary%Fairchok%NULL%1,                         Susan%Chambers%NULL%1,                         Cindy%Baker%NULL%1,                         NULL%RN%NULL%1,                         Michelle%Parker%NULL%1,                         Marta%Harshbarger%NULL%1,                         M Hong%Nguyen%NULL%1,                         Mary Ellen%Carey%NULL%1,                         Julie%Paronish%NULL%1,                         Frank%Cornell%NULL%1,                         Jim%Cramer%NULL%1,                         Diana Lynn%Pakstis%NULL%1,                         Michael G%Ison%NULL%1,                         Richard%Wunderink%NULL%1,                         Marshall%Glesby%NULL%1,                         Kirsis%Ham%NULL%1,                         Valery%Hughes%NULL%1,                         Melissa%Cushing%NULL%0,                         Cheryl%Goss%NULL%1,                         Joanne%Grenade%NULL%1,                         Pauline K%Park%NULL%1,                         Lena M%Napolitano%NULL%1,                         Krishnan%Raghavendran%NULL%1,                         Robert C%Hyzy%NULL%1,                         Robertson%Davenport%NULL%1,                         Kristin%Brierley%NULL%1,                         Theresa%Downs%NULL%1,                         Michelle Ng%Gong%NULL%1,                         Joan%Uehlinger%NULL%1,                         Michael%Lin%NULL%2,                         Janice%Fritsche%NULL%1,                         Tondria%Green%NULL%1,                         Bruce%McLeod%NULL%1,                         Deena%Patel%NULL%1,                         Mary F%Bavaro%NULL%1,                         Robert%Deiss%NULL%1,                         Carolyn%Brandt%NULL%1,                         Stephanie%Cammarata%NULL%1,                         Allan%Kremp%NULL%1,                         Karine%Hollis-Perry%NULL%1,                         Tahaniyat%Lalani%NULL%1,                         Susan%Banks%NULL%1,                         Jacqueline%Johnson%NULL%1,                         Jason%Maguire%NULL%1,                         Janet%McNiff%NULL%1,                         Leslie E%Rigg%NULL%1,                         Anuradha%Ganesan%NULL%1,                         Irma%Barahona%NULL%1,                         Janine%Danko%NULL%0,                         Steven%Spencer%NULL%1,                         David%Stagliano%NULL%1,                         Timothy%Burgess%NULL%1,                         Daniel%Talmor%NULL%1,                         Monique%Mohammed%NULL%1,                         Valerie%Banner-Goodspeed%NULL%1,                         Robert%Salata%NULL%1,                         Robert%Finberg%NULL%2,                         Jennifer%Wang%NULL%1,                         Karen%Longtine%NULL%1,                         Jaclyn%Longtine%NULL%1,                         Mellissa%O'Neil%NULL%1,                         Philippe R%Bauer%NULL%1,                         Ognjen%Gajic%NULL%1,                         Suanne M%Weist%NULL%1,                         Jonathan%Sevransky%NULL%1,                         Mona%Brown%NULL%1,                         John%Roback%NULL%1,                         John%Oropello%NULL%1,                         Bridget%Twohig%NULL%1,                         Jeffrey%Jhang%NULL%1,                         Rahgu%Seethala%NULL%1,                         Wilbur H%Chen%NULL%1,                         Magali%Fontaine%NULL%1,                         Kapil%Saharia%NULL%1,                         Jennifer%Husson%NULL%1,                         Roberta%DeBiasi%NULL%1,                         Jurran L%Wilson%NULL%1,                         Valli Ree%Criss%NULL%1,                         Jocelyn%Voell%NULL%1,                         Susan%Leitman%NULL%1,                         James Wade%Atkins%NULL%1,                         Hemaxi%Patel%NULL%1,                         Traci%Paige%NULL%1,                         Cathy%Cantilena%NULL%1,                         Donald%Siegel%NULL%1,                         Faye%DeMuth%NULL%1,                         Craig H%Fletcher%NULL%1,                         J Peter R%Pelletier%NULL%1,                         Hassan%Alnuaimat%NULL%1,                         Michelle%Pourde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ John H%Beigel%null%1,                          Evgenia%Aga%null%2,                          Marie-Carmelle%Elie-Turenne%null%2,                          Josalyn%Cho%null%2,                          Pablo%Tebas%null%2,                          Carol L%Clark%null%2,                          Jordan P%Metcalf%null%2,                          Caroline%Ozment%null%2,                          Kanakatte%Raviprakash%null%2,                          Joy%Beeler%null%2,                          H Preston%Holley%null%1,                          Stephanie%Warner%null%2,                          Carla%Chorley%null%2,                          H Clifford%Lane%null%1,                          Michael D%Hughes%null%2,                          Richard T%Davey%null%2,                          John H%Beigel%null%1,                          Evgenia%Aga%null%0,                          Marie-Carmelle%Elie-Turenne%null%0,                          Josalyn%Cho%null%0,                          Pablo%Tebas%null%0,                          Carol L%Clark%null%0,                          Jordan P%Metcalf%null%0,                          Caroline%Ozment%null%0,                          Kanakatte%Raviprakash%null%0,                          Joy%Beeler%null%0,                          H. Preston%Holley%null%1,                          Stephanie%Warner%null%0,                          Carla%Chorley%null%0,                          H. Clifford%Lane%null%1,                          Michael D%Hughes%null%0,                          Richard T%Davey%null%0,                          Michelle%Barron%null%1,                          Aveh%Bastani%null%1,                          Philippe%Bauer%null%1,                          William%Borkowsky%null%1,                          Charles%Cairns%null%1,                          Jaime%Deville%null%1,                          Marie-Carmelle%Elie%null%1,                          Carl%Fichtenbaum%null%1,                          Robert%Finberg%null%1,                          Mamta%Jain%null%1,                          David%Kaufman%null%1,                          Michael%Lin%null%1,                          John%Lin%null%1,                          Ryan%Maves%null%1,                          Lee%Morrow%null%1,                          Minh-Hong%Nguyen%null%1,                          Pauline%Park%null%1,                          Christopher%Polk%null%1,                          Adrienne%Randolph%null%1,                          Suchitra%Rao%null%1,                          Lewis%Rubinson%null%1,                          Christina%Schofield%null%1,                          Shmuel%Shoham%null%1,                          Erika%Stalets%null%1,                          Renee D%Stapleton%null%1,                         John H%Beigel%null%2,                         Evgenia%Aga%null%0,                         Marie-Carmelle%Elie-Turenne%null%0,                         Josalyn%Cho%null%2,                         Pablo%Tebas%null%0,                         Carol L%Clark%null%2,                         Jordan P%Metcalf%null%2,                         Caroline%Ozment%null%2,                         Kanakatte%Raviprakash%null%0,                         Joy%Beeler%null%2,                         H Preston%Holley%null%1,                         Stephanie%Warner%null%2,                         Carla%Chorley%null%2,                         H Clifford%Lane%null%0,                         Michael D%Hughes%null%0,                         Richard T%Davey%null%0,                         John H%Beigel%null%0,                         Evgenia%Aga%null%0,                         Marie-Carmelle%Elie-Turenne%null%0,                         Josalyn%Cho%null%0,                         Pablo%Tebas%null%0,                         Carol L%Clark%null%0,                         Jordan P%Metcalf%null%0,                         Caroline%Ozment%null%0,                         Kanakatte%Raviprakash%null%0,                         Joy%Beeler%null%0,                         H. Preston%Holley%null%1,                         Stephanie%Warner%null%0,                         Carla%Chorley%null%0,                         H. Clifford%Lane%null%1,                         Michael D%Hughes%null%0,                         Richard T%Davey%null%0,                         Michelle%Barron%null%1,                         Aveh%Bastani%null%1,                         Philippe%Bauer%null%1,                         William%Borkowsky%null%1,                         Charles%Cairns%null%1,                         Jaime%Deville%null%1,                         Marie-Carmelle%Elie%null%1,                         Carl%Fichtenbaum%null%1,                         Robert%Finberg%null%0,                         Mamta%Jain%null%1,                         David%Kaufman%null%1,                         Michael%Lin%null%0,                         John%Lin%null%1,                         Ryan%Maves%null%1,                         Lee%Morrow%null%1,                         Minh-Hong%Nguyen%null%1,                         Pauline%Park%null%1,                         Christopher%Polk%null%1,                         Adrienne%Randolph%null%1,                         Suchitra%Rao%null%1,                         Lewis%Rubinson%null%1,                         Christina%Schofield%null%0,                         Shmuel%Shoham%null%0,                         Erika%Stalets%null%1,                         Renee D%Stapleton%null%1]</t>
+  </si>
+  <si>
+    <t>[Caiying%Hu%coreGivesNoEmail%1,                       Chenyue%Li%coreGivesNoEmail%1,                       Conghui%Wang%coreGivesNoEmail%1,                       Cuihua%Tao%coreGivesNoEmail%1,                       E.%Deng%coreGivesNoEmail%1,                       Haixia%Xu%coreGivesNoEmail%1,                       Heng%Mei%coreGivesNoEmail%1,                       Jianwei%Wang%coreGivesNoEmail%1,                       Juan%Wang%coreGivesNoEmail%1,                       Jue%Wang%coreGivesNoEmail%1,                       Juntao%Yang%coreGivesNoEmail%1,                       Li%Zeng%coreGivesNoEmail%1,                       Lifeng%Chen%coreGivesNoEmail%1,                       Lili%Ren%coreGivesNoEmail%1,                       Ling%Li%coreGivesNoEmail%1,                       Linqi%Zhang%coreGivesNoEmail%1,                       Nian%Xiong%coreGivesNoEmail%1,                       Ning%Man%coreGivesNoEmail%1,                       Qing%Wei%coreGivesNoEmail%1,                       Ru%Yang%coreGivesNoEmail%1,                       Shangen%Zheng%coreGivesNoEmail%1,                       Shisheng%Su%coreGivesNoEmail%1,                       Wei%Zhang%coreGivesNoEmail%1,                       Xiaoxiong%Wu%coreGivesNoEmail%1,                       Xuejun%Zhang%coreGivesNoEmail%1,                       Xunliang%Tong%coreGivesNoEmail%1,                       Yanyun%Wu%coreGivesNoEmail%1,                       Yong%Guo%coreGivesNoEmail%1,                       Yongpei%Yu%coreGivesNoEmail%1,                       Yu%Hu%coreGivesNoEmail%1,                       Yu%Liu%coreGivesNoEmail%1,                       Yujie%Kong%coreGivesNoEmail%1,                       Zhihua%Xu%coreGivesNoEmail%1,                       Zhong%Liu%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Ivan F.N.%Hung%null%1,                          Kelvin K.W.%To%null%1,                          Cheuk-Kwong%Lee%null%1,                          Kar-Lung%Lee%null%1,                          Wing-Wa%Yan%null%1,                          Kenny%Chan%null%1,                          Wai-Ming%Chan%null%1,                          Chun-Wai%Ngai%null%1,                          Kin-Ip%Law%null%1,                          Fu-Loi%Chow%null%1,                          Raymond%Liu%null%1,                          Kang-Yiu%Lai%null%1,                          Candy C.Y.%Lau%null%1,                          Shao-Haei%Liu%null%1,                          Kwok-Hung%Chan%null%0,                          Che-Kit%Lin%null%1,                          Kwok-Yung%Yuen%null%0,                         Ivan F.N.%Hung%null%1,                         Kelvin K.W.%To%null%1,                         Cheuk-Kwong%Lee%null%2,                         Kar-Lung%Lee%null%2,                         Wing-Wa%Yan%null%1,                         Kenny%Chan%null%2,                         Wai-Ming%Chan%null%2,                         Chun-Wai%Ngai%null%1,                         Kin-Ip%Law%null%1,                         Fu-Loi%Chow%null%2,                         Raymond%Liu%null%2,                         Kang-Yiu%Lai%null%2,                         Candy C.Y.%Lau%null%1,                         Shao-Haei%Liu%null%2,                         Kwok-Hung%Chan%null%3,                         Che-Kit%Lin%null%2,                         Kwok-Yung%Yuen%null%0]</t>
+  </si>
+  <si>
+    <t>[Arvind%Gharbharan%NULL%1,                         Carlijn C. E.%Jordans%NULL%1,                         Corine%GeurtsvanKessel%NULL%1,                         Jan G.%den Hollander%NULL%2,                         Jan G.%den Hollander%NULL%0,                         Faiz%Karim%NULL%1,                         Femke P. N.%Mollema%NULL%1,                         Janneke E.%Stalenhoef – Schukken%NULL%1,                         Anthonius%Dofferhoff%NULL%2,                         Anthonius%Dofferhoff%NULL%0,                         Inge%Ludwig%NULL%1,                         Adrianus%Koster%NULL%1,                         Robert-Jan%Hassing%NULL%1,                         Jeannet C.%Bos%NULL%1,                         Geert R.%van Pottelberge%NULL%1,                         Imro N.%Vlasveld%NULL%1,                         Heidi S. M.%Ammerlaan%NULL%1,                         Elena M.%van Leeuwen – Segarceanu%NULL%1,                         Jelle%Miedema%NULL%1,                         Menno%van der Eerden%NULL%1,                         Thijs J.%Schrama%NULL%1,                         Grigorios%Papageorgiou%NULL%2,                         Grigorios%Papageorgiou%NULL%0,                         Peter%te Boekhorst%NULL%1,                         Francis H.%Swaneveld%NULL%1,                         Yvonne M.%Mueller%NULL%1,                         Marco W. J.%Schreurs%NULL%2,                         Marco W. J.%Schreurs%NULL%0,                         Jeroen J. A.%van Kampen%NULL%1,                         Barry%Rockx%NULL%1,                         Nisreen M. A.%Okba%NULL%2,                         Nisreen M. A.%Okba%NULL%0,                         Peter D.%Katsikis%NULL%2,                         Peter D.%Katsikis%NULL%0,                         Marion P. G.%Koopmans%NULL%2,                         Marion P. G.%Koopmans%NULL%0,                         Bart L.%Haagmans%NULL%2,                         Bart L.%Haagmans%NULL%0,                         Casper%Rokx%c.rokx@erasmusmc.nl%2,                         Casper%Rokx%c.rokx@erasmusmc.nl%0,                         Bart J. A.%Rijnders%NULL%2,                         Bart J. A.%Rijnders%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gordin%Fred M.%coreGivesNoEmail%1,                       INSIGHT%FLU005 IVIG Pilot Study Group.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alcam\u00ed%Jos\u00e9%coreGivesNoEmail%1,                       Avenda\u00f1o-Sol\u00e1%Cristina%coreGivesNoEmail%1,                       Blanco%Lydia%coreGivesNoEmail%1,                       Bueno%Jose L%coreGivesNoEmail%1,                       Calder\u00f3n-Parra%Jorge%coreGivesNoEmail%1,                       Casas-Flecha%Inmaculada%coreGivesNoEmail%1,                       ConPlas-19%Study Group%coreGivesNoEmail%1,                       de%Oteyza Jaime P\u00e9rez%coreGivesNoEmail%1,                       Duarte%Rafael F%coreGivesNoEmail%1,                       D\u00edaz%de Santiago Alberto%coreGivesNoEmail%1,                       Fern\u00e1ndez-Cruz%Ana%coreGivesNoEmail%1,                       Garcia-Perez%Javier%coreGivesNoEmail%1,                       Jarilla-Fern\u00e1ndez%Maria C%coreGivesNoEmail%1,                       Lora-Tamayo%Jaime%coreGivesNoEmail%1,                       Madrigal-S\u00e1nchez%Maria E%coreGivesNoEmail%1,                       Malo%de Molina Rosa%coreGivesNoEmail%1,                       Manche\u00f1o-Losa%Mikel%coreGivesNoEmail%1,                       Mart\u00ednez-Gonz\u00e1lez%A L%coreGivesNoEmail%1,                       Moreno-Chulilla%J A%coreGivesNoEmail%1,                       Mu\u00f1ez-Rubio%Elena%coreGivesNoEmail%1,                       Mu\u00f1iz-D\u00edaz%Eduardo%coreGivesNoEmail%1,                       Nu\u00f1ez-Orantos%Maria J%coreGivesNoEmail%1,                       Paciello%Maria L%coreGivesNoEmail%1,                       Payares-Herrera%Concepcion%coreGivesNoEmail%1,                       Pa\u00f1o-Pardo%Jos\u00e9 R%coreGivesNoEmail%1,                       Perez-Olmeda%Mayte%coreGivesNoEmail%1,                       Pintos%Ilduara%coreGivesNoEmail%1,                       Porras-Leal%Maria L%coreGivesNoEmail%1,                       Ramos-Garrido%Ascension%coreGivesNoEmail%1,                       Ramos-Mart\u00ednez%Antonio%coreGivesNoEmail%1,                       Romera-Mart\u00ednez%Irene%coreGivesNoEmail%1,                       Rubio-Batll\u00e9s%Martin%coreGivesNoEmail%1,                       Ruiz-Antor\u00e1n%Belen%coreGivesNoEmail%1,                       Saez-Serrano%Maria Isabel%coreGivesNoEmail%1,                       Torres%Ferran%coreGivesNoEmail%1,                       Velasco-Iglesias%Ana%coreGivesNoEmail%1,                       Vid\u00e1n-Est\u00e9vez%Julia%coreGivesNoEmail%1,                       Villares%Paula%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Agarwal%NULL%1,                         Aparna%Mukherjee%NULL%2,                         Gunjan%Kumar%NULL%3,                         Gunjan%Kumar%NULL%0,                         Pranab%Chatterjee%NULL%2,                         Tarun%Bhatnagar%NULL%2,                         Pankaj%Malhotra%NULL%2,                         NULL%NULL%NULL%0,                         NULL%NULL%NULL%0,                         Anup%Agarwal%NULL%1,                         Aparna%Mukherjee%NULL%0,                         Gunjan%Kumar%NULL%0,                         Pranab%Chatterjee%NULL%0,                         Tarun%Bhatnagar%NULL%0,                         Pankaj%Malhotra%NULL%0,                         B%Latha%NULL%1,                         Sunita%Bundas%NULL%1,                         Vivek%Kumar%NULL%2,                         Ravi%Dosi%NULL%1,                         Janak Kumar%Khambholja%NULL%1,                         Rosemarie%de Souza%NULL%1,                         Raja Rao%Mesipogu%NULL%1,                         Saurabh%Srivastava%NULL%1,                         Simmi%Dube%NULL%1,                         Kiran%Chaudhary%NULL%1,                         S%Subash%NULL%1,                         S%Anbuselvi%NULL%1,                         V%Rajendran%NULL%1,                         A%Sundararajaperumal%NULL%1,                         P%Balamanikandan%NULL%1,                         R S Uma%Maheswari%NULL%1,                         R%Jayanthi%NULL%1,                         S%Ragunanthanan%NULL%1,                         Sudhir%Bhandari%NULL%1,                         Ajeet%Singh%NULL%1,                         Ashok%Pal%NULL%1,                         Anjali%Handa%NULL%1,                         Govind%Rankawat%NULL%1,                         Ketan%Kargirwar%NULL%1,                         Joyce%Regi%NULL%1,                         Darshana%Rathod%NULL%1,                         Edwin%Pathrose%NULL%1,                         Nirankar%Bhutaka%NULL%1,                         Mayur H%Patel%NULL%1,                         Rahul J%Verma%NULL%1,                         Kamal%Malukani%NULL%1,                         Shivani%Patel%NULL%1,                         Apurv%Thakur%NULL%1,                         Satish%Joshi%NULL%1,                         Rashmi%Kulkarni%NULL%1,                         Nilay N%Suthar%NULL%1,                         Nehal M%Shah%NULL%1,                         Hemang M%Purohit%NULL%1,                         Cherry K%Shah%NULL%1,                         Monila N%Patel%NULL%1,                         Saket%Shah%NULL%1,                         Smit T%Shah%NULL%1,                         Tehsim%Memon%NULL%1,                         Vishal R%Beriwala%NULL%1,                         Kusum%Jashnani%NULL%1,                         Fatema%Ezzy%NULL%1,                         Simran%Agrawal%NULL%1,                         Rakesh%Bhadade%NULL%1,                         MN%Atish%NULL%1,                         Tushar%Madke%NULL%1,                         Vikas%Kavishwar%NULL%1,                         Ramesh%Waghmare%NULL%1,                         Nitin%Valvi%NULL%1,                         B Thrilok%Chander%NULL%1,                         A Vinaya%Sekhar%NULL%1,                         Akhilesh Kumar%Maurya%NULL%1,                         K%Hemanth%NULL%1,                         K%Nagamani%NULL%1,                         K%Sudha%NULL%1,                         T Ravi%Chandra%NULL%1,                         K Tushara%Rao%NULL%1,                         J%Vyshnavi%NULL%1,                         Rashmi%Upadhyay%NULL%1,                         Shalini%Bahadur%NULL%1,                         Rambha%Pathak%NULL%1,                         Shikha%Seth%NULL%1,                         Rakesh%Gupta%NULL%1,                         Rita%Saxena%NULL%1,                         Preksha%Dwivedi%NULL%1,                         Reeni%Malik%NULL%1,                         Deepti%Chourasia%NULL%1,                         Jaya%Lalwani%NULL%1,                         UM%Sharma%NULL%1,                         JL%Marko%NULL%1,                         Amit%Suri%NULL%1,                         Vijay%Kumar%NULL%1,                         Rajnish%Kaushik%NULL%1,                         Parul%Kodan%NULL%1,                         Bhabani Prasad%Acharya%NULL%1,                         Kuldeep Kumar%Gaur%NULL%1,                         Anubhav%Gupta%NULL%1,                         Prerna%Sachdeva%NULL%1,                         Shruti%Dogra%NULL%1,                         Aikaj%Jindal%NULL%1,                         M Joseph%John%NULL%1,                         Avtar Singh%Dhanju%NULL%1,                         Ranjana%Khetrepal%NULL%1,                         Neeraj%Sharma%NULL%1,                         Neetu%Kukar%NULL%1,                         Divya%Kavita%NULL%1,                         Rajesh%Kumar%NULL%1,                         Rajesh%Mahajan%NULL%1,                         Gurpreet%Singh%NULL%1,                         Jaspreet%Kaur%NULL%1,                         Raminder Pal%Singh%NULL%1,                         Rajni%Bassi%NULL%1,                         Swapneil%Parikh%NULL%1,                         Om%Shrivastav%NULL%1,                         Jayanthi%Shastri%NULL%1,                         Maherra%Desai%NULL%1,                         Shreevatsa%Udupa%NULL%1,                         Varun A%Bafna%NULL%1,                         Vijay%Barge%NULL%1,                         Rajendra%Madane%NULL%1,                         Sheetal%Yadav%NULL%1,                         Sanjeev%Misra%NULL%1,                         Archana%Bajpayee%NULL%1,                         M K%Garg%NULL%1,                         G K%Bohra%NULL%1,                         Vijaylakshmi%Nag%NULL%1,                         Puneeth Babu%Anne%NULL%1,                         Mohd%Nadeem%NULL%1,                         Pallavi%Singh%NULL%1,                         Ram%Niwas%NULL%1,                         Niranjan Shiwaji%Khaire%NULL%1,                         Rattiram%Sharma%NULL%1,                         Mini P%Singh%NULL%1,                         Naresh%Sachdeva%NULL%1,                         Suchet%Sachdev%NULL%1,                         Rekha%Hans%NULL%1,                         Vikas%Suri%NULL%1,                         LN%Yaddanapudi%NULL%1,                         PVM%Lakshmi%NULL%1,                         Neha%Singh%NULL%1,                         Divendu%Bhushan%NULL%1,                         Neeraj%Kumar%NULL%1,                         Muralidhar%Tambe%NULL%1,                         Sonali%Salvi%NULL%1,                         Nalini%Kadgi%NULL%1,                         Shashikala%Sangle%NULL%1,                         Leena%Nakate%NULL%1,                         Samir%Joshi%NULL%1,                         Rajesh%Karyakarte%NULL%1,                         Suraj%Goyanka%NULL%1,                         Nimisha%Sharma%NULL%1,                         Nikhil%Verma%NULL%1,                         Asim%Das%NULL%1,                         Monika%Bahl%NULL%1,                         Nitya%Wadhwa%NULL%1,                         Shreepad%Bhat%NULL%1,                         Shweta%Deshmukh%NULL%1,                         Vrushali%Wagh%NULL%1,                         Atul%Kulkarni%NULL%1,                         Tanvi%Yardi%NULL%1,                         Ram S%Kalgud%NULL%1,                         Purushottam%Reddy%NULL%1,                         Kavitha%Yevoor%NULL%1,                         Prashanth%Gajula%NULL%1,                         Vivek%Maleyur%NULL%1,                         S%Medini%NULL%1,                         HN%Mohith%NULL%1,                         Anil%Gurtoo%NULL%1,                         Ritika%Sud%NULL%1,                         Sangeeta%Pahuja%NULL%1,                         Anupam%Prakash%NULL%1,                         Parijat%Gogoi%NULL%1,                         Shailja%Shukla%NULL%1,                         D Himanshu%Reddy%NULL%1,                         Tulika%Chandra%NULL%1,                         Saurabh%Pandey%NULL%1,                         Pradeep%Maurya%NULL%1,                         Wahid%Ali%NULL%1,                         Vivek%Kumar%NULL%0,                         Kamlesh%Upadhyay%NULL%1,                         Nidhi%Bhatnagar%NULL%1,                         Nilima%Shah%NULL%1,                         Mamta%Shah%NULL%1,                         Tarak%Patel%NULL%1,                         Ram Mohan%Jaiswal%NULL%1,                         Ashish%Jain%NULL%1,                         Shweta%Sharma%NULL%1,                         Puneet%Rijhwani%NULL%1,                         Naveen%Gupta%NULL%1,                         Tinkal C%Patel%NULL%1,                         Mahesh G%Solu%NULL%1,                         Jitendra%Patel%NULL%1,                         Yash R%Shah%NULL%1,                         Mayur%Jarag%NULL%1,                         Varsha%Godbole%NULL%1,                         Meenakshi%Shah%NULL%1,                         Rikin%Raj%NULL%1,                         Irfan%Nagori%NULL%1,                         Pramod R%Jha%NULL%1,                         Arti D%Shah%NULL%1,                         Gowtham%Yeeli%NULL%1,                         Archit%Jain%NULL%1,                         Rooppreet Kaur%Gill%NULL%1,                         KV Sreedhar%Babu%NULL%1,                         B Suresh%Babu%NULL%1,                         Alladi%Mohan%NULL%1,                         B%Vengamma%NULL%1,                         K Chandra%Sekhar%NULL%1,                         Srinivasulu%Damam%NULL%1,                         K%Narsimhulu%NULL%1,                         C%Aparna%NULL%1,                         G%Baleswari%NULL%1,                         K Ravindranath%Reddy%NULL%1,                         P%Chandrasekhar%NULL%1,                         Sunil Jodharam%Panjwani%NULL%1,                         Pragnesh H%Shah%NULL%1,                         Manish%Barvaliya%NULL%1,                         Kairavi%Desai%NULL%1,                         Pankaj J%Akholkar%NULL%1,                         Milind%Baldi%NULL%1,                         Ashok%Yadav%NULL%1,                         Manoj%Gupta%NULL%1,                         Nitin%Rawat%NULL%1,                         Dilip%Chawda%NULL%1,                         M%Natarajan%NULL%1,                         M%Sintha%NULL%1,                         David Pradeep%Kumar%NULL%1,                         Fathhur%Rabbani%NULL%1,                         Vrushali Khirid%Khadke%NULL%1,                         Dattatray%Patki%NULL%1,                         Sonali%Marathe%NULL%1,                         Clyde%D’Souza%NULL%1,                         Vipul%Tadha%NULL%1,                         Satyam%Arora%NULL%1,                         Devendra Kumar%Gupta%NULL%1,                         Seema%Dua%NULL%1,                         Nitu%Chauhan%NULL%1,                         Ajeet Singh%Chahar%NULL%1,                         Joy John%Mammen%NULL%1,                         Snehil%Kumar%NULL%1,                         Dolly%Daniel%NULL%1,                         Ravindraa%Singh%NULL%1,                         Venkatesh%Dhat%NULL%1,                         Yogesh%Agarwal%NULL%1,                         Sohini%Arora%NULL%1,                         Ashish%Pathak%NULL%1,                         Manju%Purohit%NULL%1,                         Ashish%Sharma%NULL%1,                         Jayashree%Sharma%NULL%1,                         Manisha%Madkaikar%NULL%1,                         Kavita%Joshi%NULL%1,                         Reetika Malik%Yadav%NULL%1,                         Swarupa%Bhagwat%NULL%1,                         Niteen D%Karnik%NULL%1,                         Yojana A%Gokhale%NULL%1,                         Leena%Naik%NULL%1,                         Sangita%Margam%NULL%1,                         Santasabuj%Das%NULL%1,                         Alka%Turuk%NULL%1,                         V Saravana%Kumar%NULL%1,                         K%Kanagasabai%NULL%1,                         R%Sabarinathan%NULL%1,                         Gururaj%Deshpande%NULL%1,                         Sharda%Sharma%NULL%1,                         Rashmi%Gunjikar%NULL%1,                         Anita%Shete%NULL%1,                         Darpan%Phagiwala%NULL%1,                         Chetan%Patil%NULL%1,                         Snehal%Shingade%NULL%1,                         Kajal%Jarande%NULL%1,                         Himanshu%Kaushal%NULL%1,                         Pragya%Yadav%NULL%1,                         Gajanan%Sapkal%NULL%1,                         Priya%Abraham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan FN%Hung%NULL%1,                         Kelvin KW%To%NULL%1,                         Cheuk-Kwong%Lee%NULL%0,                         Kar-Lung%Lee%NULL%0,                         Kenny%Chan%NULL%0,                         Wing-Wah%Yan%NULL%1,                         Raymond%Liu%NULL%0,                         Chi-Leung%Watt%NULL%1,                         Wai-Ming%Chan%NULL%0,                         Kang-Yiu%Lai%NULL%0,                         Chi-Kwan%Koo%NULL%1,                         Tom%Buckley%NULL%1,                         Fu-Loi%Chow%NULL%0,                         Kwan-Keung%Wong%NULL%1,                         Hok-Sum%Chan%NULL%1,                         Chi-Keung%Ching%NULL%1,                         Bone SF%Tang%NULL%1,                         Candy CY%Lau%NULL%1,                         Iris WS%Li%NULL%1,                         Shao-Haei%Liu%NULL%0,                         Kwok-Hung%Chan%NULL%0,                         Che-Kit%Lin%NULL%0,                         Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y. O. Y.%Soo%NULL%1,                         Y.%Cheng%NULL%1,                         R.%Wong%NULL%2,                         D. S.%Hui%NULL%1,                         C. K.%Lee%NULL%2,                         K. K. S.%Tsang%NULL%1,                         M. H. L.%Ng%NULL%2,                         P.%Chan%NULL%2,                         G.%Cheng%NULL%2,                         J. J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongjie%Yu%NULL%1,                         Zhancheng%Gao%NULL%0,                         Zijian%Feng%NULL%2,                         Yuelong%Shu%NULL%1,                         Nijuan%Xiang%NULL%2,                         Lei%Zhou%NULL%2,                         Yang%Huai%NULL%1,                         Luzhao%Feng%NULL%0,                         Zhibin%Peng%NULL%1,                         Zhongjie%Li%NULL%1,                         Cuiling%Xu%NULL%1,                         Junhua%Li%NULL%0,                         Chengping%Hu%NULL%1,                         Qun%Li%NULL%1,                         Xiaoling%Xu%NULL%1,                         Xuecheng%Liu%NULL%1,                         Zigui%Liu%NULL%1,                         Longshan%Xu%NULL%1,                         Yusheng%Chen%NULL%1,                         Huiming%Luo%NULL%1,                         Liping%Wei%NULL%1,                         Xianfeng%Zhang%NULL%1,                         Jianbao%Xin%NULL%1,                         Junqiao%Guo%NULL%1,                         Qiuyue%Wang%NULL%1,                         Zhengan%Yuan%NULL%1,                         Longnv%Zhou%NULL%1,                         Kunzhao%Zhang%NULL%1,                         Wei%Zhang%NULL%0,                         Jinye%Yang%NULL%1,                         Xiaoning%Zhong%NULL%1,                         Shichang%Xia%NULL%1,                         Lanjuan%Li%NULL%0,                         Jinquan%Cheng%NULL%1,                         Erdang%Ma%NULL%1,                         Pingping%He%NULL%1,                         Shui Shan%Lee%NULL%1,                         Yu%Wang%NULL%3,                         Timothy M.%Uyeki%NULL%0,                         Weizhong%Yang%NULL%1,                         Joel Mark%Montgomery%NULL%0,                         Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y.%Cheng%NULL%1,                         R.%Wong%NULL%0,                         Y. O. Y.%Soo%NULL%1,                         W. S.%Wong%NULL%1,                         C. K.%Lee%NULL%0,                         M. H. L.%Ng%NULL%0,                         P.%Chan%NULL%0,                         K. C.%Wong%NULL%1,                         C. B.%Leung%NULL%1,                         G.%Cheng%gcheng@cuhk.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Duan%NULL%1,                         Bende%Liu%NULL%2,                         Bende%Liu%NULL%0,                         Cesheng%Li%NULL%1,                         Huajun%Zhang%NULL%1,                         Ting%Yu%NULL%0,                         Ting%Yu%NULL%0,                         Jieming%Qu%NULL%0,                         Min%Zhou%NULL%0,                         Min%Zhou%NULL%0,                         Li%Chen%NULL%3,                         Li%Chen%NULL%0,                         Shengli%Meng%NULL%2,                         Shengli%Meng%NULL%0,                         Yong%Hu%NULL%1,                         Cheng%Peng%NULL%1,                         Mingchao%Yuan%NULL%1,                         Jinyan%Huang%NULL%1,                         Zejun%Wang%NULL%2,                         Zejun%Wang%NULL%0,                         Jianhong%Yu%NULL%1,                         Xiaoxiao%Gao%NULL%1,                         Dan%Wang%NULL%1,                         Xiaoqi%Yu%NULL%1,                         Li%Li%NULL%0,                         Li%Li%NULL%0,                         Jiayou%Zhang%NULL%2,                         Jiayou%Zhang%NULL%0,                         Xiao%Wu%NULL%1,                         Bei%Li%NULL%1,                         Yanping%Xu%NULL%1,                         Wei%Chen%NULL%0,                         Wei%Chen%NULL%0,                         Yan%Peng%NULL%1,                         Yeqin%Hu%NULL%1,                         Lianzhen%Lin%NULL%1,                         Xuefei%Liu%NULL%1,                         Shihe%Huang%NULL%1,                         Zhijun%Zhou%NULL%1,                         Lianghao%Zhang%NULL%1,                         Yue%Wang%NULL%1,                         Zhi%Zhang%NULL%1,                         Kun%Deng%NULL%1,                         Zhiwu%Xia%NULL%1,                         Qin%Gong%NULL%1,                         Wei%Zhang%NULL%0,                         Xiaobei%Zheng%NULL%1,                         Ying%Liu%NULL%0,                         Huichuan%Yang%NULL%1,                         Dongbo%Zhou%NULL%1,                         Ding%Yu%NULL%1,                         Jifeng%Hou%NULL%1,                         Zhengli%Shi%NULL%0,                         Saijuan%Chen%NULL%1,                         Zhu%Chen%NULL%1,                         Xinxin%Zhang%NULL%0,                         Xiaoming%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[F.%Sahr%NULL%1,                         R.%Ansumana%rashidansumana@gmail.com%1,                         T.A.%Massaquoi%NULL%1,                         B.R.%Idriss%NULL%1,                         F.R.%Sesay%NULL%1,                         J.M.%Lamin%NULL%1,                         S.%Baker%NULL%1,                         S.%Nicol%NULL%1,                         B.%Conton%NULL%1,                         W.%Johnson%NULL%1,                         O.T.%Abiri%NULL%1,                         O.%Kargbo%NULL%1,                         P.%Kamara%NULL%1,                         A.%Goba%NULL%1,                         J.B.W.%Russell%NULL%1,                         S.M.%Gevao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qing-Lei%Zeng%zengqinglei2009@163.com%1,                         Zu-Jiang%Yu%NULL%1,                         Jian-Jun%Gou%NULL%1,                         Guang-Ming%Li%NULL%1,                         Shu-Huan%Ma%NULL%1,                         Guo-Fan%Zhang%NULL%1,                         Jiang-Hai%Xu%NULL%1,                         Wan-Bao%Lin%NULL%1,                         Guang-Lin%Cui%NULL%1,                         Min-Min%Zhang%NULL%1,                         Cheng%Li%NULL%1,                         Ze-Shuai%Wang%NULL%1,                         Zhi-Hao%Zhang%NULL%1,                         Zhang-Suo%Liu%zengqinglei2009@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hassan%Abolghasemi%NULL%1,                         Peyman%Eshghi%NULL%1,                         Abdol Majid%Cheraghali%NULL%1,                         Abbas Ali%Imani Fooladi%NULL%1,                         Farzaneh%Bolouki Moghaddam%NULL%1,                         Sina%Imanizadeh%NULL%1,                         Matin%Moeini Maleki%NULL%1,                         Mohammad%Ranjkesh%NULL%1,                         Mohammad%Rezapour%NULL%1,                         Ali%Bahramifar%NULL%1,                         Behzad%Einollahi%NULL%1,                         Mohammad Javad%Hosseini%NULL%1,                         Nematollah Joneidi%Jafari%NULL%1,                         Mohamad%Nikpouraghdam%NULL%1,                         Nariman%Sadri%NULL%1,                         Mokhtar%Tazik%NULL%1,                         Shanaz%Sali%NULL%1,                         Shamsi%Okati%NULL%1,                         Elham%Askari%NULL%1,                         Payam%Tabarsi%NULL%1,                         Jafar%Aslani%NULL%1,                         Ehsan%Sharifipour%NULL%1,                         Mohammad Hossein%Jarahzadeh%NULL%1,                         Nastaran%Khodakarim%NULL%1,                         Mahmood%Salesi%NULL%1,                         Ramezan%Jafari%NULL%1,                         Samira%Shahverdi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[John H%Beigel%jbeigel@niaid.nih.gov%1,                          Pablo%Tebas%NULL%4,                          Marie-Carmelle%Elie-Turenne%NULL%4,                          Ednan%Bajwa%NULL%2,                          Todd E%Bell%NULL%2,                          Charles B%Cairns%NULL%2,                          Shmuel%Shoham%NULL%3,                          Jaime G%Deville%NULL%2,                          Eric%Feucht%NULL%2,                          Judith%Feinberg%NULL%2,                          Thomas%Luke%NULL%1,                          Kanakatte%Raviprakash%NULL%3,                          Janine%Danko%NULL%2,                          Dorothy%O'Neil%NULL%1,                          Julia A%Metcalf%NULL%1,                          Karen%King%NULL%1,                          Timothy H%Burgess%NULL%1,                          Evgenia%Aga%NULL%3,                          H Clifford%Lane%NULL%2,                          Michael D%Hughes%NULL%3,                          Richard T%Davey%NULL%3,                          Pablo%Tebas%NULL%0,                          Joseph%Quinn%NULL%1,                          Yan%Jiang%NULL%1,                          Marie-Carmelle%Elie-Turenne%NULL%0,                          Robyn%Hoelle%NULL%1,                          Nicole%Iovine%NULL%1,                          Robert Shawn%Wills%NULL%1,                          Socorro%Pata%NULL%1,                          Monique%Huggins%NULL%1,                          Belinda%Manukian%NULL%1,                          Ednan%Bajwa%NULL%0,                          Carrie%Holland%NULL%1,                          Kelsey%Brait%NULL%1,                          Taylor%Hunt%NULL%1,                          Christopher%Stowell%NULL%1,                          Amy%Slater%NULL%1,                          Todd E%Bell%NULL%0,                          Mary%Townsends%NULL%1,                          Charles B%Cairns%NULL%0,                          Eugenia B%Quackenbush%NULL%1,                          Yara A%Park%NULL%1,                          Paul Gaither%Jordan%NULL%1,                          Cherie%Blanchet%NULL%1,                          Kevin%Chronowski%NULL%1,                          Kathleen%Alvarez%NULL%1,                          Shmuel%Shoham%NULL%0,                          Darin%Ostrander%NULL%1,                          Terry%Woessner%NULL%1,                          Sandra%Thoman%NULL%1,                          Jaime G%Deville%NULL%0,                          James%Lin%NULL%1,                          Alyssa%Ziman%NULL%1,                          Kavita%Shankar%NULL%1,                          Eric%Feucht%NULL%0,                          Tom%Blok%NULL%1,                          Don%Batts%NULL%1,                          Bob%Beck%NULL%1,                          Gail%Massey%NULL%1,                          Carol%Bradley%NULL%1,                          Judith%Feinberg%NULL%0,                          Patricia%Carey%NULL%1,                          Jenifer%Baer%NULL%1,                          Eva Moore%Whitehead%NULL%1,                          Sharon%Kohrs%NULL%1,                          Robert%Giulitto%NULL%1,                          Christina%Schofield%NULL%2,                          Mary%Fairchok%NULL%1,                          Susan%Chambers%NULL%1,                          Cindy%Baker%NULL%1,                          NULL%RN%NULL%1,                          Michelle%Parker%NULL%1,                          Marta%Harshbarger%NULL%1,                          M Hong%Nguyen%NULL%1,                          Mary Ellen%Carey%NULL%1,                          Julie%Paronish%NULL%1,                          Frank%Cornell%NULL%1,                          Jim%Cramer%NULL%1,                          Diana Lynn%Pakstis%NULL%1,                          Michael G%Ison%NULL%1,                          Richard%Wunderink%NULL%1,                          Marshall%Glesby%NULL%1,                          Kirsis%Ham%NULL%1,                          Valery%Hughes%NULL%1,                          Melissa%Cushing%NULL%0,                          Cheryl%Goss%NULL%1,                          Joanne%Grenade%NULL%1,                          Pauline K%Park%NULL%1,                          Lena M%Napolitano%NULL%1,                          Krishnan%Raghavendran%NULL%1,                          Robert C%Hyzy%NULL%1,                          Robertson%Davenport%NULL%1,                          Kristin%Brierley%NULL%1,                          Theresa%Downs%NULL%1,                          Michelle Ng%Gong%NULL%1,                          Joan%Uehlinger%NULL%1,                          Michael%Lin%NULL%2,                          Janice%Fritsche%NULL%1,                          Tondria%Green%NULL%1,                          Bruce%McLeod%NULL%1,                          Deena%Patel%NULL%1,                          Mary F%Bavaro%NULL%1,                          Robert%Deiss%NULL%1,                          Carolyn%Brandt%NULL%1,                          Stephanie%Cammarata%NULL%1,                          Allan%Kremp%NULL%1,                          Karine%Hollis-Perry%NULL%1,                          Tahaniyat%Lalani%NULL%1,                          Susan%Banks%NULL%1,                          Jacqueline%Johnson%NULL%1,                          Jason%Maguire%NULL%1,                          Janet%McNiff%NULL%1,                          Leslie E%Rigg%NULL%1,                          Anuradha%Ganesan%NULL%1,                          Irma%Barahona%NULL%1,                          Janine%Danko%NULL%0,                          Steven%Spencer%NULL%1,                          David%Stagliano%NULL%1,                          Timothy%Burgess%NULL%1,                          Daniel%Talmor%NULL%1,                          Monique%Mohammed%NULL%1,                          Valerie%Banner-Goodspeed%NULL%1,                          Robert%Salata%NULL%1,                          Robert%Finberg%NULL%2,                          Jennifer%Wang%NULL%1,                          Karen%Longtine%NULL%1,                          Jaclyn%Longtine%NULL%1,                          Mellissa%O'Neil%NULL%1,                          Philippe R%Bauer%NULL%1,                          Ognjen%Gajic%NULL%1,                          Suanne M%Weist%NULL%1,                          Jonathan%Sevransky%NULL%1,                          Mona%Brown%NULL%1,                          John%Roback%NULL%1,                          John%Oropello%NULL%1,                          Bridget%Twohig%NULL%1,                          Jeffrey%Jhang%NULL%1,                          Rahgu%Seethala%NULL%1,                          Wilbur H%Chen%NULL%1,                          Magali%Fontaine%NULL%1,                          Kapil%Saharia%NULL%1,                          Jennifer%Husson%NULL%1,                          Roberta%DeBiasi%NULL%1,                          Jurran L%Wilson%NULL%1,                          Valli Ree%Criss%NULL%1,                          Jocelyn%Voell%NULL%1,                          Susan%Leitman%NULL%1,                          James Wade%Atkins%NULL%1,                          Hemaxi%Patel%NULL%1,                          Traci%Paige%NULL%1,                          Cathy%Cantilena%NULL%1,                          Donald%Siegel%NULL%1,                          Faye%DeMuth%NULL%1,                          Craig H%Fletcher%NULL%1,                          J Peter R%Pelletier%NULL%1,                          Hassan%Alnuaimat%NULL%1,                          Michelle%Pourde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ John H%Beigel%null%1,                           Evgenia%Aga%null%2,                           Marie-Carmelle%Elie-Turenne%null%2,                           Josalyn%Cho%null%2,                           Pablo%Tebas%null%2,                           Carol L%Clark%null%2,                           Jordan P%Metcalf%null%2,                           Caroline%Ozment%null%2,                           Kanakatte%Raviprakash%null%2,                           Joy%Beeler%null%2,                           H Preston%Holley%null%1,                           Stephanie%Warner%null%2,                           Carla%Chorley%null%2,                           H Clifford%Lane%null%1,                           Michael D%Hughes%null%2,                           Richard T%Davey%null%2,                           John H%Beigel%null%1,                           Evgenia%Aga%null%0,                           Marie-Carmelle%Elie-Turenne%null%0,                           Josalyn%Cho%null%0,                           Pablo%Tebas%null%0,                           Carol L%Clark%null%0,                           Jordan P%Metcalf%null%0,                           Caroline%Ozment%null%0,                           Kanakatte%Raviprakash%null%0,                           Joy%Beeler%null%0,                           H. Preston%Holley%null%1,                           Stephanie%Warner%null%0,                           Carla%Chorley%null%0,                           H. Clifford%Lane%null%1,                           Michael D%Hughes%null%0,                           Richard T%Davey%null%0,                           Michelle%Barron%null%1,                           Aveh%Bastani%null%1,                           Philippe%Bauer%null%1,                           William%Borkowsky%null%1,                           Charles%Cairns%null%1,                           Jaime%Deville%null%1,                           Marie-Carmelle%Elie%null%1,                           Carl%Fichtenbaum%null%1,                           Robert%Finberg%null%1,                           Mamta%Jain%null%1,                           David%Kaufman%null%1,                           Michael%Lin%null%1,                           John%Lin%null%1,                           Ryan%Maves%null%1,                           Lee%Morrow%null%1,                           Minh-Hong%Nguyen%null%1,                           Pauline%Park%null%1,                           Christopher%Polk%null%1,                           Adrienne%Randolph%null%1,                           Suchitra%Rao%null%1,                           Lewis%Rubinson%null%1,                           Christina%Schofield%null%1,                           Shmuel%Shoham%null%1,                           Erika%Stalets%null%1,                           Renee D%Stapleton%null%1,                          John H%Beigel%null%2,                          Evgenia%Aga%null%0,                          Marie-Carmelle%Elie-Turenne%null%0,                          Josalyn%Cho%null%2,                          Pablo%Tebas%null%0,                          Carol L%Clark%null%2,                          Jordan P%Metcalf%null%2,                          Caroline%Ozment%null%2,                          Kanakatte%Raviprakash%null%0,                          Joy%Beeler%null%2,                          H Preston%Holley%null%1,                          Stephanie%Warner%null%2,                          Carla%Chorley%null%2,                          H Clifford%Lane%null%0,                          Michael D%Hughes%null%0,                          Richard T%Davey%null%0,                          John H%Beigel%null%0,                          Evgenia%Aga%null%0,                          Marie-Carmelle%Elie-Turenne%null%0,                          Josalyn%Cho%null%0,                          Pablo%Tebas%null%0,                          Carol L%Clark%null%0,                          Jordan P%Metcalf%null%0,                          Caroline%Ozment%null%0,                          Kanakatte%Raviprakash%null%0,                          Joy%Beeler%null%0,                          H. Preston%Holley%null%1,                          Stephanie%Warner%null%0,                          Carla%Chorley%null%0,                          H. Clifford%Lane%null%1,                          Michael D%Hughes%null%0,                          Richard T%Davey%null%0,                          Michelle%Barron%null%1,                          Aveh%Bastani%null%1,                          Philippe%Bauer%null%1,                          William%Borkowsky%null%1,                          Charles%Cairns%null%1,                          Jaime%Deville%null%1,                          Marie-Carmelle%Elie%null%1,                          Carl%Fichtenbaum%null%1,                          Robert%Finberg%null%0,                          Mamta%Jain%null%1,                          David%Kaufman%null%1,                          Michael%Lin%null%0,                          John%Lin%null%1,                          Ryan%Maves%null%1,                          Lee%Morrow%null%1,                          Minh-Hong%Nguyen%null%1,                          Pauline%Park%null%1,                          Christopher%Polk%null%1,                          Adrienne%Randolph%null%1,                          Suchitra%Rao%null%1,                          Lewis%Rubinson%null%1,                          Christina%Schofield%null%0,                          Shmuel%Shoham%null%0,                          Erika%Stalets%null%1,                          Renee D%Stapleton%null%1]</t>
+  </si>
+  <si>
+    <t>[Caiying%Hu%coreGivesNoEmail%1,                        Chenyue%Li%coreGivesNoEmail%1,                        Conghui%Wang%coreGivesNoEmail%1,                        Cuihua%Tao%coreGivesNoEmail%1,                        E.%Deng%coreGivesNoEmail%1,                        Haixia%Xu%coreGivesNoEmail%1,                        Heng%Mei%coreGivesNoEmail%1,                        Jianwei%Wang%coreGivesNoEmail%1,                        Juan%Wang%coreGivesNoEmail%1,                        Jue%Wang%coreGivesNoEmail%1,                        Juntao%Yang%coreGivesNoEmail%1,                        Li%Zeng%coreGivesNoEmail%1,                        Lifeng%Chen%coreGivesNoEmail%1,                        Lili%Ren%coreGivesNoEmail%1,                        Ling%Li%coreGivesNoEmail%1,                        Linqi%Zhang%coreGivesNoEmail%1,                        Nian%Xiong%coreGivesNoEmail%1,                        Ning%Man%coreGivesNoEmail%1,                        Qing%Wei%coreGivesNoEmail%1,                        Ru%Yang%coreGivesNoEmail%1,                        Shangen%Zheng%coreGivesNoEmail%1,                        Shisheng%Su%coreGivesNoEmail%1,                        Wei%Zhang%coreGivesNoEmail%1,                        Xiaoxiong%Wu%coreGivesNoEmail%1,                        Xuejun%Zhang%coreGivesNoEmail%1,                        Xunliang%Tong%coreGivesNoEmail%1,                        Yanyun%Wu%coreGivesNoEmail%1,                        Yong%Guo%coreGivesNoEmail%1,                        Yongpei%Yu%coreGivesNoEmail%1,                        Yu%Hu%coreGivesNoEmail%1,                        Yu%Liu%coreGivesNoEmail%1,                        Yujie%Kong%coreGivesNoEmail%1,                        Zhihua%Xu%coreGivesNoEmail%1,                        Zhong%Liu%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Ivan F.N.%Hung%null%1,                           Kelvin K.W.%To%null%1,                           Cheuk-Kwong%Lee%null%1,                           Kar-Lung%Lee%null%1,                           Wing-Wa%Yan%null%1,                           Kenny%Chan%null%1,                           Wai-Ming%Chan%null%1,                           Chun-Wai%Ngai%null%1,                           Kin-Ip%Law%null%1,                           Fu-Loi%Chow%null%1,                           Raymond%Liu%null%1,                           Kang-Yiu%Lai%null%1,                           Candy C.Y.%Lau%null%1,                           Shao-Haei%Liu%null%1,                           Kwok-Hung%Chan%null%0,                           Che-Kit%Lin%null%1,                           Kwok-Yung%Yuen%null%0,                          Ivan F.N.%Hung%null%1,                          Kelvin K.W.%To%null%1,                          Cheuk-Kwong%Lee%null%2,                          Kar-Lung%Lee%null%2,                          Wing-Wa%Yan%null%1,                          Kenny%Chan%null%2,                          Wai-Ming%Chan%null%2,                          Chun-Wai%Ngai%null%1,                          Kin-Ip%Law%null%1,                          Fu-Loi%Chow%null%2,                          Raymond%Liu%null%2,                          Kang-Yiu%Lai%null%2,                          Candy C.Y.%Lau%null%1,                          Shao-Haei%Liu%null%2,                          Kwok-Hung%Chan%null%3,                          Che-Kit%Lin%null%2,                          Kwok-Yung%Yuen%null%0]</t>
+  </si>
+  <si>
+    <t>[Arvind%Gharbharan%NULL%1,                          Carlijn C. E.%Jordans%NULL%1,                          Corine%GeurtsvanKessel%NULL%1,                          Jan G.%den Hollander%NULL%2,                          Jan G.%den Hollander%NULL%0,                          Faiz%Karim%NULL%1,                          Femke P. N.%Mollema%NULL%1,                          Janneke E.%Stalenhoef – Schukken%NULL%1,                          Anthonius%Dofferhoff%NULL%2,                          Anthonius%Dofferhoff%NULL%0,                          Inge%Ludwig%NULL%1,                          Adrianus%Koster%NULL%1,                          Robert-Jan%Hassing%NULL%1,                          Jeannet C.%Bos%NULL%1,                          Geert R.%van Pottelberge%NULL%1,                          Imro N.%Vlasveld%NULL%1,                          Heidi S. M.%Ammerlaan%NULL%1,                          Elena M.%van Leeuwen – Segarceanu%NULL%1,                          Jelle%Miedema%NULL%1,                          Menno%van der Eerden%NULL%1,                          Thijs J.%Schrama%NULL%1,                          Grigorios%Papageorgiou%NULL%2,                          Grigorios%Papageorgiou%NULL%0,                          Peter%te Boekhorst%NULL%1,                          Francis H.%Swaneveld%NULL%1,                          Yvonne M.%Mueller%NULL%1,                          Marco W. J.%Schreurs%NULL%2,                          Marco W. J.%Schreurs%NULL%0,                          Jeroen J. A.%van Kampen%NULL%1,                          Barry%Rockx%NULL%1,                          Nisreen M. A.%Okba%NULL%2,                          Nisreen M. A.%Okba%NULL%0,                          Peter D.%Katsikis%NULL%2,                          Peter D.%Katsikis%NULL%0,                          Marion P. G.%Koopmans%NULL%2,                          Marion P. G.%Koopmans%NULL%0,                          Bart L.%Haagmans%NULL%2,                          Bart L.%Haagmans%NULL%0,                          Casper%Rokx%c.rokx@erasmusmc.nl%2,                          Casper%Rokx%c.rokx@erasmusmc.nl%0,                          Bart J. A.%Rijnders%NULL%2,                          Bart J. A.%Rijnders%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gordin%Fred M.%coreGivesNoEmail%1,                        INSIGHT%FLU005 IVIG Pilot Study Group.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alcam\u00ed%Jos\u00e9%coreGivesNoEmail%1,                        Avenda\u00f1o-Sol\u00e1%Cristina%coreGivesNoEmail%1,                        Blanco%Lydia%coreGivesNoEmail%1,                        Bueno%Jose L%coreGivesNoEmail%1,                        Calder\u00f3n-Parra%Jorge%coreGivesNoEmail%1,                        Casas-Flecha%Inmaculada%coreGivesNoEmail%1,                        ConPlas-19%Study Group%coreGivesNoEmail%1,                        de%Oteyza Jaime P\u00e9rez%coreGivesNoEmail%1,                        Duarte%Rafael F%coreGivesNoEmail%1,                        D\u00edaz%de Santiago Alberto%coreGivesNoEmail%1,                        Fern\u00e1ndez-Cruz%Ana%coreGivesNoEmail%1,                        Garcia-Perez%Javier%coreGivesNoEmail%1,                        Jarilla-Fern\u00e1ndez%Maria C%coreGivesNoEmail%1,                        Lora-Tamayo%Jaime%coreGivesNoEmail%1,                        Madrigal-S\u00e1nchez%Maria E%coreGivesNoEmail%1,                        Malo%de Molina Rosa%coreGivesNoEmail%1,                        Manche\u00f1o-Losa%Mikel%coreGivesNoEmail%1,                        Mart\u00ednez-Gonz\u00e1lez%A L%coreGivesNoEmail%1,                        Moreno-Chulilla%J A%coreGivesNoEmail%1,                        Mu\u00f1ez-Rubio%Elena%coreGivesNoEmail%1,                        Mu\u00f1iz-D\u00edaz%Eduardo%coreGivesNoEmail%1,                        Nu\u00f1ez-Orantos%Maria J%coreGivesNoEmail%1,                        Paciello%Maria L%coreGivesNoEmail%1,                        Payares-Herrera%Concepcion%coreGivesNoEmail%1,                        Pa\u00f1o-Pardo%Jos\u00e9 R%coreGivesNoEmail%1,                        Perez-Olmeda%Mayte%coreGivesNoEmail%1,                        Pintos%Ilduara%coreGivesNoEmail%1,                        Porras-Leal%Maria L%coreGivesNoEmail%1,                        Ramos-Garrido%Ascension%coreGivesNoEmail%1,                        Ramos-Mart\u00ednez%Antonio%coreGivesNoEmail%1,                        Romera-Mart\u00ednez%Irene%coreGivesNoEmail%1,                        Rubio-Batll\u00e9s%Martin%coreGivesNoEmail%1,                        Ruiz-Antor\u00e1n%Belen%coreGivesNoEmail%1,                        Saez-Serrano%Maria Isabel%coreGivesNoEmail%1,                        Torres%Ferran%coreGivesNoEmail%1,                        Velasco-Iglesias%Ana%coreGivesNoEmail%1,                        Vid\u00e1n-Est\u00e9vez%Julia%coreGivesNoEmail%1,                        Villares%Paula%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Anup%Agarwal%NULL%1,                          Aparna%Mukherjee%NULL%2,                          Gunjan%Kumar%NULL%3,                          Gunjan%Kumar%NULL%0,                          Pranab%Chatterjee%NULL%2,                          Tarun%Bhatnagar%NULL%2,                          Pankaj%Malhotra%NULL%2,                          NULL%NULL%NULL%0,                          NULL%NULL%NULL%0,                          Anup%Agarwal%NULL%1,                          Aparna%Mukherjee%NULL%0,                          Gunjan%Kumar%NULL%0,                          Pranab%Chatterjee%NULL%0,                          Tarun%Bhatnagar%NULL%0,                          Pankaj%Malhotra%NULL%0,                          B%Latha%NULL%1,                          Sunita%Bundas%NULL%1,                          Vivek%Kumar%NULL%2,                          Ravi%Dosi%NULL%1,                          Janak Kumar%Khambholja%NULL%1,                          Rosemarie%de Souza%NULL%1,                          Raja Rao%Mesipogu%NULL%1,                          Saurabh%Srivastava%NULL%1,                          Simmi%Dube%NULL%1,                          Kiran%Chaudhary%NULL%1,                          S%Subash%NULL%1,                          S%Anbuselvi%NULL%1,                          V%Rajendran%NULL%1,                          A%Sundararajaperumal%NULL%1,                          P%Balamanikandan%NULL%1,                          R S Uma%Maheswari%NULL%1,                          R%Jayanthi%NULL%1,                          S%Ragunanthanan%NULL%1,                          Sudhir%Bhandari%NULL%1,                          Ajeet%Singh%NULL%1,                          Ashok%Pal%NULL%1,                          Anjali%Handa%NULL%1,                          Govind%Rankawat%NULL%1,                          Ketan%Kargirwar%NULL%1,                          Joyce%Regi%NULL%1,                          Darshana%Rathod%NULL%1,                          Edwin%Pathrose%NULL%1,                          Nirankar%Bhutaka%NULL%1,                          Mayur H%Patel%NULL%1,                          Rahul J%Verma%NULL%1,                          Kamal%Malukani%NULL%1,                          Shivani%Patel%NULL%1,                          Apurv%Thakur%NULL%1,                          Satish%Joshi%NULL%1,                          Rashmi%Kulkarni%NULL%1,                          Nilay N%Suthar%NULL%1,                          Nehal M%Shah%NULL%1,                          Hemang M%Purohit%NULL%1,                          Cherry K%Shah%NULL%1,                          Monila N%Patel%NULL%1,                          Saket%Shah%NULL%1,                          Smit T%Shah%NULL%1,                          Tehsim%Memon%NULL%1,                          Vishal R%Beriwala%NULL%1,                          Kusum%Jashnani%NULL%1,                          Fatema%Ezzy%NULL%1,                          Simran%Agrawal%NULL%1,                          Rakesh%Bhadade%NULL%1,                          MN%Atish%NULL%1,                          Tushar%Madke%NULL%1,                          Vikas%Kavishwar%NULL%1,                          Ramesh%Waghmare%NULL%1,                          Nitin%Valvi%NULL%1,                          B Thrilok%Chander%NULL%1,                          A Vinaya%Sekhar%NULL%1,                          Akhilesh Kumar%Maurya%NULL%1,                          K%Hemanth%NULL%1,                          K%Nagamani%NULL%1,                          K%Sudha%NULL%1,                          T Ravi%Chandra%NULL%1,                          K Tushara%Rao%NULL%1,                          J%Vyshnavi%NULL%1,                          Rashmi%Upadhyay%NULL%1,                          Shalini%Bahadur%NULL%1,                          Rambha%Pathak%NULL%1,                          Shikha%Seth%NULL%1,                          Rakesh%Gupta%NULL%1,                          Rita%Saxena%NULL%1,                          Preksha%Dwivedi%NULL%1,                          Reeni%Malik%NULL%1,                          Deepti%Chourasia%NULL%1,                          Jaya%Lalwani%NULL%1,                          UM%Sharma%NULL%1,                          JL%Marko%NULL%1,                          Amit%Suri%NULL%1,                          Vijay%Kumar%NULL%1,                          Rajnish%Kaushik%NULL%1,                          Parul%Kodan%NULL%1,                          Bhabani Prasad%Acharya%NULL%1,                          Kuldeep Kumar%Gaur%NULL%1,                          Anubhav%Gupta%NULL%1,                          Prerna%Sachdeva%NULL%1,                          Shruti%Dogra%NULL%1,                          Aikaj%Jindal%NULL%1,                          M Joseph%John%NULL%1,                          Avtar Singh%Dhanju%NULL%1,                          Ranjana%Khetrepal%NULL%1,                          Neeraj%Sharma%NULL%1,                          Neetu%Kukar%NULL%1,                          Divya%Kavita%NULL%1,                          Rajesh%Kumar%NULL%1,                          Rajesh%Mahajan%NULL%1,                          Gurpreet%Singh%NULL%1,                          Jaspreet%Kaur%NULL%1,                          Raminder Pal%Singh%NULL%1,                          Rajni%Bassi%NULL%1,                          Swapneil%Parikh%NULL%1,                          Om%Shrivastav%NULL%1,                          Jayanthi%Shastri%NULL%1,                          Maherra%Desai%NULL%1,                          Shreevatsa%Udupa%NULL%1,                          Varun A%Bafna%NULL%1,                          Vijay%Barge%NULL%1,                          Rajendra%Madane%NULL%1,                          Sheetal%Yadav%NULL%1,                          Sanjeev%Misra%NULL%1,                          Archana%Bajpayee%NULL%1,                          M K%Garg%NULL%1,                          G K%Bohra%NULL%1,                          Vijaylakshmi%Nag%NULL%1,                          Puneeth Babu%Anne%NULL%1,                          Mohd%Nadeem%NULL%1,                          Pallavi%Singh%NULL%1,                          Ram%Niwas%NULL%1,                          Niranjan Shiwaji%Khaire%NULL%1,                          Rattiram%Sharma%NULL%1,                          Mini P%Singh%NULL%1,                          Naresh%Sachdeva%NULL%1,                          Suchet%Sachdev%NULL%1,                          Rekha%Hans%NULL%1,                          Vikas%Suri%NULL%1,                          LN%Yaddanapudi%NULL%1,                          PVM%Lakshmi%NULL%1,                          Neha%Singh%NULL%1,                          Divendu%Bhushan%NULL%1,                          Neeraj%Kumar%NULL%1,                          Muralidhar%Tambe%NULL%1,                          Sonali%Salvi%NULL%1,                          Nalini%Kadgi%NULL%1,                          Shashikala%Sangle%NULL%1,                          Leena%Nakate%NULL%1,                          Samir%Joshi%NULL%1,                          Rajesh%Karyakarte%NULL%1,                          Suraj%Goyanka%NULL%1,                          Nimisha%Sharma%NULL%1,                          Nikhil%Verma%NULL%1,                          Asim%Das%NULL%1,                          Monika%Bahl%NULL%1,                          Nitya%Wadhwa%NULL%1,                          Shreepad%Bhat%NULL%1,                          Shweta%Deshmukh%NULL%1,                          Vrushali%Wagh%NULL%1,                          Atul%Kulkarni%NULL%1,                          Tanvi%Yardi%NULL%1,                          Ram S%Kalgud%NULL%1,                          Purushottam%Reddy%NULL%1,                          Kavitha%Yevoor%NULL%1,                          Prashanth%Gajula%NULL%1,                          Vivek%Maleyur%NULL%1,                          S%Medini%NULL%1,                          HN%Mohith%NULL%1,                          Anil%Gurtoo%NULL%1,                          Ritika%Sud%NULL%1,                          Sangeeta%Pahuja%NULL%1,                          Anupam%Prakash%NULL%1,                          Parijat%Gogoi%NULL%1,                          Shailja%Shukla%NULL%1,                          D Himanshu%Reddy%NULL%1,                          Tulika%Chandra%NULL%1,                          Saurabh%Pandey%NULL%1,                          Pradeep%Maurya%NULL%1,                          Wahid%Ali%NULL%1,                          Vivek%Kumar%NULL%0,                          Kamlesh%Upadhyay%NULL%1,                          Nidhi%Bhatnagar%NULL%1,                          Nilima%Shah%NULL%1,                          Mamta%Shah%NULL%1,                          Tarak%Patel%NULL%1,                          Ram Mohan%Jaiswal%NULL%1,                          Ashish%Jain%NULL%1,                          Shweta%Sharma%NULL%1,                          Puneet%Rijhwani%NULL%1,                          Naveen%Gupta%NULL%1,                          Tinkal C%Patel%NULL%1,                          Mahesh G%Solu%NULL%1,                          Jitendra%Patel%NULL%1,                          Yash R%Shah%NULL%1,                          Mayur%Jarag%NULL%1,                          Varsha%Godbole%NULL%1,                          Meenakshi%Shah%NULL%1,                          Rikin%Raj%NULL%1,                          Irfan%Nagori%NULL%1,                          Pramod R%Jha%NULL%1,                          Arti D%Shah%NULL%1,                          Gowtham%Yeeli%NULL%1,                          Archit%Jain%NULL%1,                          Rooppreet Kaur%Gill%NULL%1,                          KV Sreedhar%Babu%NULL%1,                          B Suresh%Babu%NULL%1,                          Alladi%Mohan%NULL%1,                          B%Vengamma%NULL%1,                          K Chandra%Sekhar%NULL%1,                          Srinivasulu%Damam%NULL%1,                          K%Narsimhulu%NULL%1,                          C%Aparna%NULL%1,                          G%Baleswari%NULL%1,                          K Ravindranath%Reddy%NULL%1,                          P%Chandrasekhar%NULL%1,                          Sunil Jodharam%Panjwani%NULL%1,                          Pragnesh H%Shah%NULL%1,                          Manish%Barvaliya%NULL%1,                          Kairavi%Desai%NULL%1,                          Pankaj J%Akholkar%NULL%1,                          Milind%Baldi%NULL%1,                          Ashok%Yadav%NULL%1,                          Manoj%Gupta%NULL%1,                          Nitin%Rawat%NULL%1,                          Dilip%Chawda%NULL%1,                          M%Natarajan%NULL%1,                          M%Sintha%NULL%1,                          David Pradeep%Kumar%NULL%1,                          Fathhur%Rabbani%NULL%1,                          Vrushali Khirid%Khadke%NULL%1,                          Dattatray%Patki%NULL%1,                          Sonali%Marathe%NULL%1,                          Clyde%D’Souza%NULL%1,                          Vipul%Tadha%NULL%1,                          Satyam%Arora%NULL%1,                          Devendra Kumar%Gupta%NULL%1,                          Seema%Dua%NULL%1,                          Nitu%Chauhan%NULL%1,                          Ajeet Singh%Chahar%NULL%1,                          Joy John%Mammen%NULL%1,                          Snehil%Kumar%NULL%1,                          Dolly%Daniel%NULL%1,                          Ravindraa%Singh%NULL%1,                          Venkatesh%Dhat%NULL%1,                          Yogesh%Agarwal%NULL%1,                          Sohini%Arora%NULL%1,                          Ashish%Pathak%NULL%1,                          Manju%Purohit%NULL%1,                          Ashish%Sharma%NULL%1,                          Jayashree%Sharma%NULL%1,                          Manisha%Madkaikar%NULL%1,                          Kavita%Joshi%NULL%1,                          Reetika Malik%Yadav%NULL%1,                          Swarupa%Bhagwat%NULL%1,                          Niteen D%Karnik%NULL%1,                          Yojana A%Gokhale%NULL%1,                          Leena%Naik%NULL%1,                          Sangita%Margam%NULL%1,                          Santasabuj%Das%NULL%1,                          Alka%Turuk%NULL%1,                          V Saravana%Kumar%NULL%1,                          K%Kanagasabai%NULL%1,                          R%Sabarinathan%NULL%1,                          Gururaj%Deshpande%NULL%1,                          Sharda%Sharma%NULL%1,                          Rashmi%Gunjikar%NULL%1,                          Anita%Shete%NULL%1,                          Darpan%Phagiwala%NULL%1,                          Chetan%Patil%NULL%1,                          Snehal%Shingade%NULL%1,                          Kajal%Jarande%NULL%1,                          Himanshu%Kaushal%NULL%1,                          Pragya%Yadav%NULL%1,                          Gajanan%Sapkal%NULL%1,                          Priya%Abraham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan FN%Hung%NULL%1,                          Kelvin KW%To%NULL%1,                          Cheuk-Kwong%Lee%NULL%0,                          Kar-Lung%Lee%NULL%0,                          Kenny%Chan%NULL%0,                          Wing-Wah%Yan%NULL%1,                          Raymond%Liu%NULL%0,                          Chi-Leung%Watt%NULL%1,                          Wai-Ming%Chan%NULL%0,                          Kang-Yiu%Lai%NULL%0,                          Chi-Kwan%Koo%NULL%1,                          Tom%Buckley%NULL%1,                          Fu-Loi%Chow%NULL%0,                          Kwan-Keung%Wong%NULL%1,                          Hok-Sum%Chan%NULL%1,                          Chi-Keung%Ching%NULL%1,                          Bone SF%Tang%NULL%1,                          Candy CY%Lau%NULL%1,                          Iris WS%Li%NULL%1,                          Shao-Haei%Liu%NULL%0,                          Kwok-Hung%Chan%NULL%0,                          Che-Kit%Lin%NULL%0,                          Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y. O. Y.%Soo%NULL%1,                          Y.%Cheng%NULL%1,                          R.%Wong%NULL%2,                          D. S.%Hui%NULL%1,                          C. K.%Lee%NULL%2,                          K. K. S.%Tsang%NULL%1,                          M. H. L.%Ng%NULL%2,                          P.%Chan%NULL%2,                          G.%Cheng%NULL%2,                          J. J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongjie%Yu%NULL%1,                          Zhancheng%Gao%NULL%0,                          Zijian%Feng%NULL%2,                          Yuelong%Shu%NULL%1,                          Nijuan%Xiang%NULL%2,                          Lei%Zhou%NULL%2,                          Yang%Huai%NULL%1,                          Luzhao%Feng%NULL%0,                          Zhibin%Peng%NULL%1,                          Zhongjie%Li%NULL%1,                          Cuiling%Xu%NULL%1,                          Junhua%Li%NULL%0,                          Chengping%Hu%NULL%1,                          Qun%Li%NULL%1,                          Xiaoling%Xu%NULL%1,                          Xuecheng%Liu%NULL%1,                          Zigui%Liu%NULL%1,                          Longshan%Xu%NULL%1,                          Yusheng%Chen%NULL%1,                          Huiming%Luo%NULL%1,                          Liping%Wei%NULL%1,                          Xianfeng%Zhang%NULL%1,                          Jianbao%Xin%NULL%1,                          Junqiao%Guo%NULL%1,                          Qiuyue%Wang%NULL%1,                          Zhengan%Yuan%NULL%1,                          Longnv%Zhou%NULL%1,                          Kunzhao%Zhang%NULL%1,                          Wei%Zhang%NULL%0,                          Jinye%Yang%NULL%1,                          Xiaoning%Zhong%NULL%1,                          Shichang%Xia%NULL%1,                          Lanjuan%Li%NULL%0,                          Jinquan%Cheng%NULL%1,                          Erdang%Ma%NULL%1,                          Pingping%He%NULL%1,                          Shui Shan%Lee%NULL%1,                          Yu%Wang%NULL%3,                          Timothy M.%Uyeki%NULL%0,                          Weizhong%Yang%NULL%1,                          Joel Mark%Montgomery%NULL%0,                          Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y.%Cheng%NULL%1,                          R.%Wong%NULL%0,                          Y. O. Y.%Soo%NULL%1,                          W. S.%Wong%NULL%1,                          C. K.%Lee%NULL%0,                          M. H. L.%Ng%NULL%0,                          P.%Chan%NULL%0,                          K. C.%Wong%NULL%1,                          C. B.%Leung%NULL%1,                          G.%Cheng%gcheng@cuhk.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Duan%NULL%1,                          Bende%Liu%NULL%2,                          Bende%Liu%NULL%0,                          Cesheng%Li%NULL%1,                          Huajun%Zhang%NULL%1,                          Ting%Yu%NULL%0,                          Ting%Yu%NULL%0,                          Jieming%Qu%NULL%0,                          Min%Zhou%NULL%0,                          Min%Zhou%NULL%0,                          Li%Chen%NULL%3,                          Li%Chen%NULL%0,                          Shengli%Meng%NULL%2,                          Shengli%Meng%NULL%0,                          Yong%Hu%NULL%1,                          Cheng%Peng%NULL%1,                          Mingchao%Yuan%NULL%1,                          Jinyan%Huang%NULL%1,                          Zejun%Wang%NULL%2,                          Zejun%Wang%NULL%0,                          Jianhong%Yu%NULL%1,                          Xiaoxiao%Gao%NULL%1,                          Dan%Wang%NULL%1,                          Xiaoqi%Yu%NULL%1,                          Li%Li%NULL%0,                          Li%Li%NULL%0,                          Jiayou%Zhang%NULL%2,                          Jiayou%Zhang%NULL%0,                          Xiao%Wu%NULL%1,                          Bei%Li%NULL%1,                          Yanping%Xu%NULL%1,                          Wei%Chen%NULL%0,                          Wei%Chen%NULL%0,                          Yan%Peng%NULL%1,                          Yeqin%Hu%NULL%1,                          Lianzhen%Lin%NULL%1,                          Xuefei%Liu%NULL%1,                          Shihe%Huang%NULL%1,                          Zhijun%Zhou%NULL%1,                          Lianghao%Zhang%NULL%1,                          Yue%Wang%NULL%1,                          Zhi%Zhang%NULL%1,                          Kun%Deng%NULL%1,                          Zhiwu%Xia%NULL%1,                          Qin%Gong%NULL%1,                          Wei%Zhang%NULL%0,                          Xiaobei%Zheng%NULL%1,                          Ying%Liu%NULL%0,                          Huichuan%Yang%NULL%1,                          Dongbo%Zhou%NULL%1,                          Ding%Yu%NULL%1,                          Jifeng%Hou%NULL%1,                          Zhengli%Shi%NULL%0,                          Saijuan%Chen%NULL%1,                          Zhu%Chen%NULL%1,                          Xinxin%Zhang%NULL%0,                          Xiaoming%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[F.%Sahr%NULL%1,                          R.%Ansumana%rashidansumana@gmail.com%1,                          T.A.%Massaquoi%NULL%1,                          B.R.%Idriss%NULL%1,                          F.R.%Sesay%NULL%1,                          J.M.%Lamin%NULL%1,                          S.%Baker%NULL%1,                          S.%Nicol%NULL%1,                          B.%Conton%NULL%1,                          W.%Johnson%NULL%1,                          O.T.%Abiri%NULL%1,                          O.%Kargbo%NULL%1,                          P.%Kamara%NULL%1,                          A.%Goba%NULL%1,                          J.B.W.%Russell%NULL%1,                          S.M.%Gevao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qing-Lei%Zeng%zengqinglei2009@163.com%1,                          Zu-Jiang%Yu%NULL%1,                          Jian-Jun%Gou%NULL%1,                          Guang-Ming%Li%NULL%1,                          Shu-Huan%Ma%NULL%1,                          Guo-Fan%Zhang%NULL%1,                          Jiang-Hai%Xu%NULL%1,                          Wan-Bao%Lin%NULL%1,                          Guang-Lin%Cui%NULL%1,                          Min-Min%Zhang%NULL%1,                          Cheng%Li%NULL%1,                          Ze-Shuai%Wang%NULL%1,                          Zhi-Hao%Zhang%NULL%1,                          Zhang-Suo%Liu%zengqinglei2009@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hassan%Abolghasemi%NULL%1,                          Peyman%Eshghi%NULL%1,                          Abdol Majid%Cheraghali%NULL%1,                          Abbas Ali%Imani Fooladi%NULL%1,                          Farzaneh%Bolouki Moghaddam%NULL%1,                          Sina%Imanizadeh%NULL%1,                          Matin%Moeini Maleki%NULL%1,                          Mohammad%Ranjkesh%NULL%1,                          Mohammad%Rezapour%NULL%1,                          Ali%Bahramifar%NULL%1,                          Behzad%Einollahi%NULL%1,                          Mohammad Javad%Hosseini%NULL%1,                          Nematollah Joneidi%Jafari%NULL%1,                          Mohamad%Nikpouraghdam%NULL%1,                          Nariman%Sadri%NULL%1,                          Mokhtar%Tazik%NULL%1,                          Shanaz%Sali%NULL%1,                          Shamsi%Okati%NULL%1,                          Elham%Askari%NULL%1,                          Payam%Tabarsi%NULL%1,                          Jafar%Aslani%NULL%1,                          Ehsan%Sharifipour%NULL%1,                          Mohammad Hossein%Jarahzadeh%NULL%1,                          Nastaran%Khodakarim%NULL%1,                          Mahmood%Salesi%NULL%1,                          Ramezan%Jafari%NULL%1,                          Samira%Shahverdi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2237,7 +2333,7 @@
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>546</v>
+        <v>578</v>
       </c>
       <c r="F2" t="s">
         <v>41</v>
@@ -2269,7 +2365,7 @@
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>547</v>
+        <v>579</v>
       </c>
       <c r="F3" t="s">
         <v>47</v>
@@ -2301,7 +2397,7 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>548</v>
+        <v>580</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -2333,7 +2429,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>549</v>
+        <v>581</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -2365,7 +2461,7 @@
         <v>291</v>
       </c>
       <c r="E6" t="s">
-        <v>550</v>
+        <v>582</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -2397,7 +2493,7 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>551</v>
+        <v>583</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -2429,7 +2525,7 @@
         <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>552</v>
+        <v>584</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -2461,7 +2557,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>553</v>
+        <v>585</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -2493,7 +2589,7 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>554</v>
+        <v>586</v>
       </c>
       <c r="F10" t="s">
         <v>68</v>
@@ -2525,7 +2621,7 @@
         <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>555</v>
+        <v>587</v>
       </c>
       <c r="F11" t="s">
         <v>73</v>
@@ -2557,7 +2653,7 @@
         <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -2621,7 +2717,7 @@
         <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>556</v>
+        <v>588</v>
       </c>
       <c r="F14" t="s">
         <v>77</v>
@@ -2717,7 +2813,7 @@
         <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -2781,7 +2877,7 @@
         <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="F19" t="s">
         <v>20</v>
@@ -2813,7 +2909,7 @@
         <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>557</v>
+        <v>589</v>
       </c>
       <c r="F20" t="s">
         <v>82</v>
@@ -2845,7 +2941,7 @@
         <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="F21" t="s">
         <v>22</v>
@@ -2877,7 +2973,7 @@
         <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>558</v>
+        <v>590</v>
       </c>
       <c r="F22" t="s">
         <v>86</v>
@@ -2909,7 +3005,7 @@
         <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>559</v>
+        <v>591</v>
       </c>
       <c r="F23" t="s">
         <v>90</v>
@@ -2941,7 +3037,7 @@
         <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>560</v>
+        <v>592</v>
       </c>
       <c r="F24" t="s">
         <v>95</v>
@@ -2973,7 +3069,7 @@
         <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>561</v>
+        <v>593</v>
       </c>
       <c r="F25" t="s">
         <v>99</v>
